--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -8,29 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2564D6B-AEC8-4E91-A4EC-51F6AE373406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA33D85E-1043-458C-9388-4A82ECB1F730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DifI2C" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DifI2C!$A$1:$R$60</definedName>
-    <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.Cols" localSheetId="0" hidden="1">DifI2C!$I:$I,DifI2C!$M:$M,DifI2C!$P:$R,DifI2C!$T:$AA</definedName>
+    <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.Cols" localSheetId="0" hidden="1">DifI2C!$I:$I,DifI2C!$M:$M,DifI2C!$P:$R,DifI2C!$T:$AD</definedName>
     <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.FilterData" localSheetId="0" hidden="1">DifI2C!$A$1:$R$60</definedName>
-    <definedName name="Z_725E6269_EB1E_43E7_A350_5CA666391411_.wvu.Cols" localSheetId="0" hidden="1">DifI2C!$F:$L,DifI2C!$Q:$R,DifI2C!$T:$T</definedName>
-    <definedName name="Z_725E6269_EB1E_43E7_A350_5CA666391411_.wvu.FilterData" localSheetId="0" hidden="1">DifI2C!$A$1:$R$60</definedName>
+    <definedName name="Z_3588CADD_1546_4C2E_AC0F_42B7D53E68B9_.wvu.Cols" localSheetId="0" hidden="1">DifI2C!$F:$L,DifI2C!$Q:$R,DifI2C!$T:$V</definedName>
+    <definedName name="Z_3588CADD_1546_4C2E_AC0F_42B7D53E68B9_.wvu.FilterData" localSheetId="0" hidden="1">DifI2C!$A$1:$R$60</definedName>
+    <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.Cols" localSheetId="0" hidden="1">DifI2C!$H:$L,DifI2C!$Q:$R,DifI2C!$T:$U</definedName>
+    <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.FilterData" localSheetId="0" hidden="1">DifI2C!$A$1:$R$60</definedName>
     <definedName name="Z_E3E09E1D_E21B_434F_8777_BA2F5DFE998D_.wvu.FilterData" localSheetId="0" hidden="1">DifI2C!$A$1:$R$60</definedName>
-    <definedName name="Z_FF37E875_D7FF_49B1_B11E_3752F379A458_.wvu.Cols" localSheetId="0" hidden="1">DifI2C!$H:$L,DifI2C!$Q:$R,DifI2C!$T:$T</definedName>
-    <definedName name="Z_FF37E875_D7FF_49B1_B11E_3752F379A458_.wvu.FilterData" localSheetId="0" hidden="1">DifI2C!$A$1:$R$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Schaltplan_Strombudget" guid="{FF37E875-D7FF-49B1-B11E-3752F379A458}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_V2" guid="{725E6269-EB1E-43E7-A350-5CA666391411}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan_V3" guid="{3588CADD-1546-4C2E-AC0F-42B7D53E68B9}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
     <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="282">
   <si>
     <t>Alternative</t>
   </si>
@@ -905,6 +905,21 @@
   </si>
   <si>
     <t>5V Strom</t>
+  </si>
+  <si>
+    <t>Hilfestellung 2</t>
+  </si>
+  <si>
+    <t>ungefiltert</t>
+  </si>
+  <si>
+    <t>gefiltert</t>
+  </si>
+  <si>
+    <t>Sicherheit</t>
+  </si>
+  <si>
+    <t>Faktor</t>
   </si>
 </sst>
 </file>
@@ -961,7 +976,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1028,8 +1043,14 @@
         <bgColor theme="8" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1292,12 +1313,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1410,6 +1468,15 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1434,15 +1501,15 @@
     <xf numFmtId="165" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1832,11 +1899,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
-  <dimension ref="A1:AA76"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AD82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E71" activeCellId="1" sqref="D70 E71"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V93" sqref="V92:V93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1848,26 +1916,28 @@
     <col min="5" max="5" width="35.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="4" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.28515625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
     <col min="17" max="17" width="23.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="24.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" customWidth="1"/>
-    <col min="20" max="20" width="17" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="24" max="26" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="17" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="17" customWidth="1"/>
+    <col min="24" max="25" width="9.140625" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" customWidth="1"/>
+    <col min="27" max="29" width="9.140625" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1925,24 +1995,27 @@
       <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="U1" t="s">
+        <v>277</v>
+      </c>
+      <c r="X1" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="V1" s="47"/>
-      <c r="W1" s="11">
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="11">
         <f>SUMIFS(P10:P60,Q10:Q60, "Nicht Gekauft",R10:R60,"Benötigt")</f>
         <v>64.3</v>
       </c>
-      <c r="Y1" s="44" t="s">
+      <c r="AB1" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="10">
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="10">
         <f>SUM(P2:P60)</f>
-        <v>359.46999999999997</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+        <v>387.73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="28" t="s">
         <v>15</v>
@@ -1991,8 +2064,12 @@
         <f>IF(AND(Q2="Nicht Gekauft", R2="Benötigt"), P2, 0)</f>
         <v>9.91</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <f>SUBTOTAL(103, G2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>115</v>
       </c>
@@ -2043,8 +2120,12 @@
       <c r="R3" s="25" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U3">
+        <f t="shared" ref="U3:U60" si="2">SUBTOTAL(103, G3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>116</v>
       </c>
@@ -2091,10 +2172,14 @@
       </c>
       <c r="Q4" s="33"/>
       <c r="R4" s="34"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="5"/>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="5"/>
+    </row>
+    <row r="5" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="35" t="s">
         <v>28</v>
@@ -2144,19 +2229,23 @@
         <v>109</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T5:T15" si="2">IF(AND(Q5="Nicht Gekauft", R5="Benötigt"), P5, 0)</f>
+        <f t="shared" ref="T5:T15" si="3">IF(AND(Q5="Nicht Gekauft", R5="Benötigt"), P5, 0)</f>
         <v>6.99</v>
       </c>
-      <c r="U5" s="50" t="s">
+      <c r="U5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X5" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="V5" s="51"/>
-      <c r="W5" s="12">
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="12">
         <f>SUBTOTAL(9,P1:P60)</f>
-        <v>359.46999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>203.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>269</v>
       </c>
@@ -2197,11 +2286,15 @@
       <c r="P6" s="40"/>
       <c r="Q6" s="41"/>
       <c r="R6" s="25"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="54"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="46"/>
+    </row>
+    <row r="7" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>123</v>
       </c>
@@ -2254,19 +2347,23 @@
         <v>109</v>
       </c>
       <c r="T7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.119999999999997</v>
       </c>
-      <c r="U7" s="48" t="s">
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="V7" s="49"/>
-      <c r="W7" s="9">
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="9">
         <f>SUBTOTAL(9,T1:T60)</f>
-        <v>115.32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+        <v>30.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>124</v>
       </c>
@@ -2305,16 +2402,20 @@
         <v>6.73</v>
       </c>
       <c r="O8" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P8" s="40">
         <f>N8*O8</f>
-        <v>13.46</v>
+        <v>26.92</v>
       </c>
       <c r="Q8" s="41"/>
       <c r="R8" s="25"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>124</v>
       </c>
@@ -2353,16 +2454,20 @@
         <v>7.4</v>
       </c>
       <c r="O9" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P9" s="32">
         <f>N9*O9</f>
-        <v>14.8</v>
+        <v>29.6</v>
       </c>
       <c r="Q9" s="33"/>
       <c r="R9" s="34"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>167</v>
       </c>
@@ -2410,11 +2515,15 @@
         <v>22</v>
       </c>
       <c r="T10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>167</v>
       </c>
@@ -2462,11 +2571,15 @@
         <v>22</v>
       </c>
       <c r="T11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>167</v>
       </c>
@@ -2514,11 +2627,15 @@
         <v>22</v>
       </c>
       <c r="T12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>168</v>
       </c>
@@ -2566,11 +2683,15 @@
         <v>22</v>
       </c>
       <c r="T13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>169</v>
       </c>
@@ -2613,8 +2734,12 @@
       </c>
       <c r="Q14" s="41"/>
       <c r="R14" s="25"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>170</v>
       </c>
@@ -2663,11 +2788,15 @@
       </c>
       <c r="S15" s="8"/>
       <c r="T15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.55</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>171</v>
       </c>
@@ -2705,14 +2834,18 @@
         <v>1</v>
       </c>
       <c r="P16" s="40">
-        <f t="shared" ref="P16" si="3">N16*O16</f>
+        <f t="shared" ref="P16" si="4">N16*O16</f>
         <v>0.22</v>
       </c>
       <c r="Q16" s="41"/>
       <c r="R16" s="25"/>
       <c r="S16" s="8"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>171</v>
       </c>
@@ -2750,14 +2883,18 @@
         <v>2</v>
       </c>
       <c r="P17" s="32">
-        <f t="shared" ref="P17:P24" si="4">N17*O17</f>
+        <f t="shared" ref="P17:P24" si="5">N17*O17</f>
         <v>0.36</v>
       </c>
       <c r="Q17" s="33"/>
       <c r="R17" s="34"/>
       <c r="S17" s="8"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>171</v>
       </c>
@@ -2795,14 +2932,18 @@
         <v>8</v>
       </c>
       <c r="P18" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="Q18" s="41"/>
       <c r="R18" s="25"/>
       <c r="S18" s="8"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="28" t="s">
         <v>204</v>
@@ -2844,8 +2985,12 @@
       <c r="Q19" s="33"/>
       <c r="R19" s="34"/>
       <c r="S19" s="8"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>180</v>
       </c>
@@ -2885,14 +3030,18 @@
         <v>1</v>
       </c>
       <c r="P20" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.24</v>
       </c>
       <c r="Q20" s="41"/>
       <c r="R20" s="25"/>
       <c r="S20" s="8"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>181</v>
       </c>
@@ -2930,14 +3079,18 @@
         <v>1</v>
       </c>
       <c r="P21" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7</v>
       </c>
       <c r="Q21" s="33"/>
       <c r="R21" s="34"/>
       <c r="S21" s="8"/>
-    </row>
-    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>194</v>
       </c>
@@ -2977,14 +3130,18 @@
         <v>1</v>
       </c>
       <c r="P22" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.82</v>
       </c>
       <c r="Q22" s="41"/>
       <c r="R22" s="25"/>
       <c r="S22" s="8"/>
-    </row>
-    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>195</v>
       </c>
@@ -3022,14 +3179,18 @@
         <v>1</v>
       </c>
       <c r="P23" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94</v>
       </c>
       <c r="Q23" s="33"/>
       <c r="R23" s="34"/>
       <c r="S23" s="8"/>
-    </row>
-    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>196</v>
       </c>
@@ -3067,14 +3228,18 @@
         <v>1</v>
       </c>
       <c r="P24" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.33</v>
       </c>
       <c r="Q24" s="41"/>
       <c r="R24" s="25"/>
       <c r="S24" s="8"/>
-    </row>
-    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="28" t="s">
         <v>202</v>
@@ -3115,8 +3280,12 @@
       </c>
       <c r="Q25" s="33"/>
       <c r="R25" s="34"/>
-    </row>
-    <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="35" t="s">
         <v>135</v>
@@ -3158,8 +3327,12 @@
       </c>
       <c r="Q26" s="37"/>
       <c r="R26" s="37"/>
-    </row>
-    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>200</v>
       </c>
@@ -3203,8 +3376,12 @@
       </c>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
       <c r="B28" s="35" t="s">
         <v>47</v>
@@ -3253,8 +3430,12 @@
         <f>IF(AND(Q28="Nicht Gekauft", R28="Benötigt"), P28, 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="B29" s="28" t="s">
         <v>53</v>
@@ -3303,8 +3484,12 @@
         <f>IF(AND(Q29="Nicht Gekauft", R29="Benötigt"), P29, 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
       <c r="B30" s="35" t="s">
         <v>55</v>
@@ -3353,8 +3538,12 @@
         <f>IF(AND(Q30="Nicht Gekauft", R30="Benötigt"), P30, 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
       <c r="B31" s="28" t="s">
         <v>234</v>
@@ -3390,13 +3579,17 @@
         <v>2</v>
       </c>
       <c r="P31" s="32">
-        <f t="shared" ref="P31:P41" si="5">N31*O31</f>
+        <f t="shared" ref="P31:P41" si="6">N31*O31</f>
         <v>5.82</v>
       </c>
       <c r="Q31" s="33"/>
       <c r="R31" s="34"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
       <c r="B32" s="35" t="s">
         <v>251</v>
@@ -3437,8 +3630,12 @@
       </c>
       <c r="Q32" s="41"/>
       <c r="R32" s="25"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="28" t="s">
         <v>255</v>
@@ -3479,8 +3676,12 @@
       </c>
       <c r="Q33" s="33"/>
       <c r="R33" s="34"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
       <c r="B34" s="35" t="s">
         <v>229</v>
@@ -3521,8 +3722,12 @@
       </c>
       <c r="Q34" s="41"/>
       <c r="R34" s="25"/>
-    </row>
-    <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="B35" s="28" t="s">
         <v>225</v>
@@ -3558,13 +3763,17 @@
         <v>1</v>
       </c>
       <c r="P35" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.47</v>
       </c>
       <c r="Q35" s="33"/>
       <c r="R35" s="34"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="35"/>
       <c r="B36" s="35" t="s">
         <v>207</v>
@@ -3600,13 +3809,17 @@
         <v>1</v>
       </c>
       <c r="P36" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
       <c r="Q36" s="41"/>
       <c r="R36" s="25"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="28" t="s">
         <v>243</v>
@@ -3647,8 +3860,12 @@
       </c>
       <c r="Q37" s="33"/>
       <c r="R37" s="34"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="35"/>
       <c r="B38" s="35" t="s">
         <v>247</v>
@@ -3689,8 +3906,12 @@
       </c>
       <c r="Q38" s="41"/>
       <c r="R38" s="25"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="28"/>
       <c r="B39" s="28" t="s">
         <v>210</v>
@@ -3704,8 +3925,12 @@
       <c r="E39" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
+      <c r="F39" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="G39" s="28">
+        <v>5</v>
+      </c>
       <c r="H39" s="28"/>
       <c r="I39" s="42"/>
       <c r="J39" s="42" t="s">
@@ -3726,13 +3951,17 @@
         <v>1</v>
       </c>
       <c r="P39" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="Q39" s="33"/>
       <c r="R39" s="34"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
       <c r="B40" s="35" t="s">
         <v>217</v>
@@ -3746,8 +3975,12 @@
       <c r="E40" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
+      <c r="F40" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="G40" s="35">
+        <v>5</v>
+      </c>
       <c r="H40" s="35"/>
       <c r="I40" s="36"/>
       <c r="J40" s="36" t="s">
@@ -3768,13 +4001,17 @@
         <v>1</v>
       </c>
       <c r="P40" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="Q40" s="41"/>
       <c r="R40" s="25"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="28" t="s">
         <v>222</v>
@@ -3788,8 +4025,12 @@
       <c r="E41" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
+      <c r="F41" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="G41" s="28">
+        <v>5</v>
+      </c>
       <c r="H41" s="28"/>
       <c r="I41" s="42"/>
       <c r="J41" s="42" t="s">
@@ -3810,13 +4051,17 @@
         <v>1</v>
       </c>
       <c r="P41" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="Q41" s="33"/>
       <c r="R41" s="34"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
       <c r="B42" s="35" t="s">
         <v>33</v>
@@ -3863,11 +4108,15 @@
       </c>
       <c r="S42" s="6"/>
       <c r="T42">
-        <f t="shared" ref="T42:T47" si="6">IF(AND(Q42="Nicht Gekauft", R42="Benötigt"), P42, 0)</f>
+        <f t="shared" ref="T42:T47" si="7">IF(AND(Q42="Nicht Gekauft", R42="Benötigt"), P42, 0)</f>
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="28" t="s">
         <v>38</v>
@@ -3914,11 +4163,15 @@
       </c>
       <c r="S43" s="6"/>
       <c r="T43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2799999999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
       <c r="B44" s="35" t="s">
         <v>42</v>
@@ -3965,11 +4218,15 @@
       </c>
       <c r="S44" s="6"/>
       <c r="T44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>70</v>
       </c>
@@ -4018,11 +4275,15 @@
       </c>
       <c r="S45" s="6"/>
       <c r="T45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
         <v>76</v>
       </c>
@@ -4073,11 +4334,15 @@
       </c>
       <c r="S46" s="6"/>
       <c r="T46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>81</v>
       </c>
@@ -4126,11 +4391,15 @@
       </c>
       <c r="S47" s="6"/>
       <c r="T47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.24</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
         <v>76</v>
       </c>
@@ -4174,8 +4443,12 @@
       <c r="Q48" s="41"/>
       <c r="R48" s="25"/>
       <c r="S48" s="6"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>70</v>
       </c>
@@ -4217,8 +4490,12 @@
       <c r="Q49" s="33"/>
       <c r="R49" s="34"/>
       <c r="S49" s="6"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
         <v>70</v>
       </c>
@@ -4262,8 +4539,12 @@
       <c r="Q50" s="41"/>
       <c r="R50" s="25"/>
       <c r="S50" s="6"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>70</v>
       </c>
@@ -4307,8 +4588,12 @@
       <c r="Q51" s="33"/>
       <c r="R51" s="34"/>
       <c r="S51" s="6"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
         <v>236</v>
       </c>
@@ -4352,8 +4637,12 @@
       <c r="Q52" s="41"/>
       <c r="R52" s="25"/>
       <c r="S52" s="6"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>143</v>
       </c>
@@ -4404,8 +4693,12 @@
         <f>IF(AND(Q53="Nicht Gekauft", R53="Benötigt"), P53, 0)</f>
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
         <v>146</v>
       </c>
@@ -4448,8 +4741,12 @@
       </c>
       <c r="Q54" s="41"/>
       <c r="R54" s="25"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>144</v>
       </c>
@@ -4492,8 +4789,12 @@
       </c>
       <c r="Q55" s="33"/>
       <c r="R55" s="34"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
         <v>151</v>
       </c>
@@ -4536,8 +4837,12 @@
       </c>
       <c r="Q56" s="41"/>
       <c r="R56" s="25"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
         <v>58</v>
       </c>
@@ -4588,8 +4893,12 @@
         <f>IF(AND(Q57="Nicht Gekauft", R57="Benötigt"), P57, 0)</f>
         <v>16.13</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
         <v>62</v>
       </c>
@@ -4636,8 +4945,12 @@
       <c r="R58" s="25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
         <v>62</v>
       </c>
@@ -4684,8 +4997,12 @@
       <c r="R59" s="34" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="35" t="s">
         <v>62</v>
       </c>
@@ -4736,8 +5053,12 @@
         <f>IF(AND(Q60="Nicht Gekauft", R60="Benötigt"), P60, 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -4756,79 +5077,171 @@
       <c r="P61" s="16"/>
       <c r="Q61" s="17"/>
     </row>
-    <row r="62" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F62" s="55" t="s">
+    <row r="63" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F64" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="G62" s="55" t="s">
+      <c r="G64" s="60" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F63" s="56">
-        <f>SUMPRODUCT(F1:F60, O1:O60)</f>
-        <v>5.5888</v>
-      </c>
-      <c r="G63" s="56" cm="1">
-        <f t="array" ref="G63">SUMPRODUCT((G2:G60=12)*(F2:F60)*(O2:O60))</f>
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="7:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G65" s="55" t="s">
+    <row r="65" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="61">
+        <f>SUMPRODUCT(F2:F60, O2:O60, U2:U60)</f>
+        <v>4.1599999999999993</v>
+      </c>
+      <c r="G65" s="61" cm="1">
+        <f t="array" ref="G65">SUMPRODUCT((G2:G60=12)*(F2:F60)*(O2:O60)*(U2:U60))</f>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G67" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="7:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G66" s="56" cm="1">
-        <f t="array" ref="G66">SUMPRODUCT((G2:G60=5)*(F2:F60)*(O2:O60))</f>
-        <v>2.548</v>
-      </c>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="68" spans="7:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G68" s="61" cm="1">
+        <f t="array" ref="G68">SUMPRODUCT((G2:G60=5)*(F2:F60)*(O2:O60)*(U2:U60))</f>
+        <v>1.98</v>
+      </c>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="7:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="7:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F70" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>280</v>
+      </c>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="7:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F71" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="G71" s="47" t="s">
+        <v>275</v>
+      </c>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="7:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="48">
+        <f>F65*$F$75</f>
+        <v>6.2399999999999984</v>
+      </c>
+      <c r="G72" s="48">
+        <f>G65*$F$75</f>
+        <v>3.2700000000000005</v>
+      </c>
       <c r="H72" s="3"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
     </row>
-    <row r="73" spans="7:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="7:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="G74" s="47" t="s">
+        <v>276</v>
+      </c>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="7:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="59">
+        <v>1.5</v>
+      </c>
+      <c r="G75" s="48">
+        <f>G68*$F$75</f>
+        <v>2.9699999999999998</v>
+      </c>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="7:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H76" s="3"/>
       <c r="I76" s="3" t="s">
         <v>108</v>
       </c>
     </row>
+    <row r="77" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F78" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="G78" s="63" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="79" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F79" s="64">
+        <v>5.5888</v>
+      </c>
+      <c r="G79" s="65">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="80" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F80" s="57"/>
+      <c r="G80" s="57"/>
+    </row>
+    <row r="81" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F81" s="57"/>
+      <c r="G81" s="62" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F82" s="57"/>
+      <c r="G82" s="64">
+        <v>2.548</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R60" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}"/>
+  <autoFilter ref="A1:R60" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="ACC3"/>
+        <filter val="BF4"/>
+        <filter val="BP2"/>
+        <filter val="F2"/>
+        <filter val="S1"/>
+        <filter val="SP2"/>
+        <filter val="TP2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{FF37E875-D7FF-49B1-B11E-3752F379A458}" filter="1" showAutoFilter="1" hiddenColumns="1">
+    <customSheetView guid="{3588CADD-1546-4C2E-AC0F-42B7D53E68B9}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U24" sqref="U24"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="U1:V1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R59" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
+      <autoFilter ref="A1:R60" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -4842,12 +5255,12 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{725E6269-EB1E-43E7-A350-5CA666391411}" filter="1" showAutoFilter="1" hiddenColumns="1">
+    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R59" xr:uid="{84224421-3E2E-4BC4-8970-04D36B3011A8}">
+      <autoFilter ref="A1:R60" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -4861,26 +5274,26 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
+    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A1:R59" xr:uid="{A5DD41C9-8787-4B1B-8E0A-16F79FA3D3FA}"/>
+    </customSheetView>
     <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R59" xr:uid="{CAF94371-B594-4E56-A1C5-331C23D837CD}"/>
-    </customSheetView>
-    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R59" xr:uid="{F1E322EE-4475-46C2-ABE6-2B5B8DF76731}"/>
+      <autoFilter ref="A1:R59" xr:uid="{C665A4D1-9C1D-40A9-A158-40AA84C6A363}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="4">
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="X5:Y5"/>
   </mergeCells>
   <conditionalFormatting sqref="P1:P1048576">
     <cfRule type="colorScale" priority="1">

--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA33D85E-1043-458C-9388-4A82ECB1F730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF92E76-6442-4D5A-99B8-9273B6DFE7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DifI2C" sheetId="5" r:id="rId1"/>
+    <sheet name="2ndMainBoard" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DifI2C!$A$1:$R$60</definedName>
-    <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.Cols" localSheetId="0" hidden="1">DifI2C!$I:$I,DifI2C!$M:$M,DifI2C!$P:$R,DifI2C!$T:$AD</definedName>
-    <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.FilterData" localSheetId="0" hidden="1">DifI2C!$A$1:$R$60</definedName>
-    <definedName name="Z_3588CADD_1546_4C2E_AC0F_42B7D53E68B9_.wvu.Cols" localSheetId="0" hidden="1">DifI2C!$F:$L,DifI2C!$Q:$R,DifI2C!$T:$V</definedName>
-    <definedName name="Z_3588CADD_1546_4C2E_AC0F_42B7D53E68B9_.wvu.FilterData" localSheetId="0" hidden="1">DifI2C!$A$1:$R$60</definedName>
-    <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.Cols" localSheetId="0" hidden="1">DifI2C!$H:$L,DifI2C!$Q:$R,DifI2C!$T:$U</definedName>
-    <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.FilterData" localSheetId="0" hidden="1">DifI2C!$A$1:$R$60</definedName>
-    <definedName name="Z_E3E09E1D_E21B_434F_8777_BA2F5DFE998D_.wvu.FilterData" localSheetId="0" hidden="1">DifI2C!$A$1:$R$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$62</definedName>
+    <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$I:$I,'2ndMainBoard'!$M:$M,'2ndMainBoard'!$P:$R,'2ndMainBoard'!$T:$AD</definedName>
+    <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$62</definedName>
+    <definedName name="Z_3588CADD_1546_4C2E_AC0F_42B7D53E68B9_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$V</definedName>
+    <definedName name="Z_3588CADD_1546_4C2E_AC0F_42B7D53E68B9_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$62</definedName>
+    <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$H:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$U</definedName>
+    <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$62</definedName>
+    <definedName name="Z_AD0CFDC5_A886_4774_8323_B873BC9D36B7_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$V</definedName>
+    <definedName name="Z_AD0CFDC5_A886_4774_8323_B873BC9D36B7_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$62</definedName>
+    <definedName name="Z_E3E09E1D_E21B_434F_8777_BA2F5DFE998D_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -31,6 +33,7 @@
     <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
     <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
     <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -74,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="290">
   <si>
     <t>Alternative</t>
   </si>
@@ -920,6 +923,30 @@
   </si>
   <si>
     <t>Faktor</t>
+  </si>
+  <si>
+    <t>POW1</t>
+  </si>
+  <si>
+    <t>POW2</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/de/products/detail/texas-instruments/TPS56837HRPAR/22188306</t>
+  </si>
+  <si>
+    <t>TPS56837HRPAR</t>
+  </si>
+  <si>
+    <t>8A, 500Khz</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/en/products/detail/texas-instruments/TPS565208DDCR/7776393</t>
+  </si>
+  <si>
+    <t>TPS565208DDCR</t>
+  </si>
+  <si>
+    <t>5A, 500kHz</t>
   </si>
 </sst>
 </file>
@@ -931,7 +958,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -971,6 +998,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1477,6 +1510,15 @@
     <xf numFmtId="166" fontId="3" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1501,15 +1543,6 @@
     <xf numFmtId="165" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1900,11 +1933,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AD82"/>
+  <dimension ref="A1:AD84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V93" sqref="V92:V93"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1914,8 +1947,8 @@
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="35.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="8.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="3" hidden="1" customWidth="1"/>
@@ -1929,8 +1962,8 @@
     <col min="18" max="18" width="24.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" customWidth="1"/>
     <col min="20" max="20" width="14.42578125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="17" hidden="1" customWidth="1"/>
-    <col min="22" max="23" width="17" customWidth="1"/>
+    <col min="21" max="22" width="17" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="17" customWidth="1"/>
     <col min="24" max="25" width="9.140625" customWidth="1"/>
     <col min="26" max="26" width="11.5703125" customWidth="1"/>
     <col min="27" max="29" width="9.140625" customWidth="1"/>
@@ -1998,21 +2031,21 @@
       <c r="U1" t="s">
         <v>277</v>
       </c>
-      <c r="X1" s="51" t="s">
+      <c r="X1" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="Y1" s="52"/>
+      <c r="Y1" s="61"/>
       <c r="Z1" s="11">
-        <f>SUMIFS(P10:P60,Q10:Q60, "Nicht Gekauft",R10:R60,"Benötigt")</f>
+        <f>SUMIFS(P10:P62,Q10:Q62, "Nicht Gekauft",R10:R62,"Benötigt")</f>
         <v>64.3</v>
       </c>
-      <c r="AB1" s="49" t="s">
+      <c r="AB1" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="AC1" s="50"/>
+      <c r="AC1" s="59"/>
       <c r="AD1" s="10">
-        <f>SUM(P2:P60)</f>
-        <v>387.73</v>
+        <f>SUM(P2:P62)</f>
+        <v>391.23999999999995</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -2051,7 +2084,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="32">
-        <f t="shared" ref="P2:P60" si="0">N2*O2</f>
+        <f t="shared" ref="P2:P62" si="0">N2*O2</f>
         <v>9.91</v>
       </c>
       <c r="Q2" s="33" t="s">
@@ -2101,7 +2134,7 @@
         <v>27</v>
       </c>
       <c r="M3" s="31" t="str">
-        <f t="shared" ref="M3:M60" si="1">HYPERLINK(L3,J3)</f>
+        <f t="shared" ref="M3:M62" si="1">HYPERLINK(L3,J3)</f>
         <v>AZ-Delivery</v>
       </c>
       <c r="N3" s="40">
@@ -2121,7 +2154,7 @@
         <v>109</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U60" si="2">SUBTOTAL(103, G3)</f>
+        <f t="shared" ref="U3:U62" si="2">SUBTOTAL(103, G3)</f>
         <v>1</v>
       </c>
     </row>
@@ -2236,16 +2269,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X5" s="55" t="s">
+      <c r="X5" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="Y5" s="56"/>
+      <c r="Y5" s="65"/>
       <c r="Z5" s="12">
-        <f>SUBTOTAL(9,P1:P60)</f>
-        <v>203.44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>SUBTOTAL(9,P1:P62)</f>
+        <v>197.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>269</v>
       </c>
@@ -2354,12 +2387,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X7" s="53" t="s">
+      <c r="X7" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="Y7" s="54"/>
+      <c r="Y7" s="63"/>
       <c r="Z7" s="9">
-        <f>SUBTOTAL(9,T1:T60)</f>
+        <f>SUBTOTAL(9,T1:T62)</f>
         <v>30.18</v>
       </c>
     </row>
@@ -3579,7 +3612,7 @@
         <v>2</v>
       </c>
       <c r="P31" s="32">
-        <f t="shared" ref="P31:P41" si="6">N31*O31</f>
+        <f t="shared" ref="P31:P43" si="6">N31*O31</f>
         <v>5.82</v>
       </c>
       <c r="Q31" s="33"/>
@@ -3819,8 +3852,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>282</v>
+      </c>
       <c r="B37" s="28" t="s">
         <v>243</v>
       </c>
@@ -3865,8 +3900,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>282</v>
+      </c>
       <c r="B38" s="35" t="s">
         <v>247</v>
       </c>
@@ -3911,26 +3948,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
+    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
+        <v>283</v>
+      </c>
       <c r="B39" s="28" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="C39" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>211</v>
+        <v>285</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="F39" s="28">
-        <v>0.02</v>
-      </c>
-      <c r="G39" s="28">
-        <v>5</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="42"/>
       <c r="J39" s="42" t="s">
@@ -3938,49 +3973,43 @@
       </c>
       <c r="K39" s="42"/>
       <c r="L39" s="31" t="s">
-        <v>213</v>
+        <v>284</v>
       </c>
       <c r="M39" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N39" s="32">
-        <v>2.5499999999999998</v>
+        <v>2.34</v>
       </c>
       <c r="O39" s="33">
         <v>1</v>
       </c>
-      <c r="P39" s="32">
-        <f t="shared" si="6"/>
-        <v>2.5499999999999998</v>
+      <c r="P39" s="40">
+        <f t="shared" ref="P39:P40" si="7">N39*O39</f>
+        <v>2.34</v>
       </c>
       <c r="Q39" s="33"/>
       <c r="R39" s="34"/>
-      <c r="U39">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
+      <c r="A40" s="35" t="s">
+        <v>283</v>
+      </c>
       <c r="B40" s="35" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="C40" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>219</v>
+        <v>288</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="F40" s="35">
-        <v>0.04</v>
-      </c>
-      <c r="G40" s="35">
-        <v>5</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="35"/>
       <c r="I40" s="36"/>
       <c r="J40" s="36" t="s">
@@ -3988,42 +4017,38 @@
       </c>
       <c r="K40" s="36"/>
       <c r="L40" s="39" t="s">
-        <v>218</v>
+        <v>287</v>
       </c>
       <c r="M40" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N40" s="40">
-        <v>4.5999999999999996</v>
+        <v>1.17</v>
       </c>
       <c r="O40" s="41">
         <v>1</v>
       </c>
       <c r="P40" s="40">
-        <f t="shared" si="6"/>
-        <v>4.5999999999999996</v>
+        <f t="shared" si="7"/>
+        <v>1.17</v>
       </c>
       <c r="Q40" s="41"/>
       <c r="R40" s="25"/>
-      <c r="U40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="28" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C41" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F41" s="28">
         <v>0.02</v>
@@ -4038,21 +4063,21 @@
       </c>
       <c r="K41" s="42"/>
       <c r="L41" s="31" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="M41" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N41" s="32">
-        <v>0.6</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="O41" s="33">
         <v>1</v>
       </c>
       <c r="P41" s="32">
         <f t="shared" si="6"/>
-        <v>0.6</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="Q41" s="33"/>
       <c r="R41" s="34"/>
@@ -4064,126 +4089,116 @@
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
       <c r="B42" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>34</v>
+        <v>217</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>45</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>31</v>
+        <v>219</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
+        <v>220</v>
+      </c>
+      <c r="F42" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="G42" s="35">
+        <v>5</v>
+      </c>
       <c r="H42" s="35"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38" t="s">
+      <c r="I42" s="36"/>
+      <c r="J42" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="K42" s="38"/>
+      <c r="K42" s="36"/>
       <c r="L42" s="39" t="s">
-        <v>37</v>
+        <v>218</v>
       </c>
       <c r="M42" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N42" s="40">
-        <v>0.88</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="O42" s="41">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P42" s="40">
-        <f t="shared" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Q42" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R42" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="S42" s="6"/>
-      <c r="T42">
-        <f t="shared" ref="T42:T47" si="7">IF(AND(Q42="Nicht Gekauft", R42="Benötigt"), P42, 0)</f>
-        <v>8.8000000000000007</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="25"/>
       <c r="U42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>34</v>
+        <v>222</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
+        <v>224</v>
+      </c>
+      <c r="F43" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="G43" s="28">
+        <v>5</v>
+      </c>
       <c r="H43" s="28"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43" t="s">
+      <c r="I43" s="42"/>
+      <c r="J43" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="K43" s="43"/>
+      <c r="K43" s="42"/>
       <c r="L43" s="31" t="s">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="M43" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N43" s="32">
-        <v>0.56999999999999995</v>
+        <v>0.6</v>
       </c>
       <c r="O43" s="33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P43" s="32">
-        <f t="shared" si="0"/>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="Q43" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R43" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="S43" s="6"/>
-      <c r="T43">
-        <f t="shared" si="7"/>
-        <v>2.2799999999999998</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="34"/>
       <c r="U43">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
       <c r="B44" s="35" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C44" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
@@ -4194,21 +4209,21 @@
       </c>
       <c r="K44" s="38"/>
       <c r="L44" s="39" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M44" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N44" s="40">
-        <v>0.55000000000000004</v>
+        <v>0.88</v>
       </c>
       <c r="O44" s="41">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P44" s="40">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Q44" s="41" t="s">
         <v>21</v>
@@ -4218,65 +4233,63 @@
       </c>
       <c r="S44" s="6"/>
       <c r="T44">
-        <f t="shared" si="7"/>
-        <v>2.2000000000000002</v>
+        <f t="shared" ref="T44:T49" si="8">IF(AND(Q44="Nicht Gekauft", R44="Benötigt"), P44, 0)</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="U44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
-        <v>70</v>
-      </c>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
       <c r="B45" s="28" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42" t="s">
+      <c r="I45" s="43"/>
+      <c r="J45" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="K45" s="42"/>
+      <c r="K45" s="43"/>
       <c r="L45" s="31" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="M45" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N45" s="32">
-        <v>1.0900000000000001</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="O45" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P45" s="32">
         <f t="shared" si="0"/>
-        <v>2.1800000000000002</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="Q45" s="33" t="s">
         <v>21</v>
       </c>
       <c r="R45" s="34" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="S45" s="6"/>
       <c r="T45">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>2.2799999999999998</v>
       </c>
       <c r="U45">
         <f t="shared" si="2"/>
@@ -4284,58 +4297,54 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
-        <v>76</v>
-      </c>
+      <c r="A46" s="35"/>
       <c r="B46" s="35" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="35">
-        <v>4.0000000000000002E-4</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F46" s="35"/>
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36" t="s">
+      <c r="I46" s="38"/>
+      <c r="J46" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="K46" s="36"/>
+      <c r="K46" s="38"/>
       <c r="L46" s="39" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="M46" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N46" s="40">
-        <v>4.49</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O46" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P46" s="40">
         <f t="shared" si="0"/>
-        <v>8.98</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q46" s="41" t="s">
         <v>21</v>
       </c>
       <c r="R46" s="25" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="S46" s="6"/>
       <c r="T46">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="U46">
         <f t="shared" si="2"/>
@@ -4344,55 +4353,55 @@
     </row>
     <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C47" s="28" t="s">
         <v>72</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F47" s="28"/>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
       <c r="I47" s="42"/>
       <c r="J47" s="42" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K47" s="42"/>
       <c r="L47" s="31" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="M47" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>Mouser</v>
+        <v>DigiKey</v>
       </c>
       <c r="N47" s="32">
-        <v>2.81</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="O47" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P47" s="32">
         <f t="shared" si="0"/>
-        <v>11.24</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="Q47" s="33" t="s">
         <v>21</v>
       </c>
       <c r="R47" s="34" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="S47" s="6"/>
       <c r="T47">
-        <f t="shared" si="7"/>
-        <v>11.24</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="U47">
         <f t="shared" si="2"/>
@@ -4410,39 +4419,49 @@
         <v>72</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F48" s="35"/>
+        <v>79</v>
+      </c>
+      <c r="F48" s="35">
+        <v>4.0000000000000002E-4</v>
+      </c>
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
       <c r="I48" s="36"/>
       <c r="J48" s="36" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="K48" s="36"/>
       <c r="L48" s="39" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="M48" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>3D-Jake</v>
+        <v>DigiKey</v>
       </c>
       <c r="N48" s="40">
-        <v>5.99</v>
+        <v>4.49</v>
       </c>
       <c r="O48" s="41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P48" s="40">
-        <f>N48*O48</f>
-        <v>23.96</v>
-      </c>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="25"/>
+        <f t="shared" si="0"/>
+        <v>8.98</v>
+      </c>
+      <c r="Q48" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="R48" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="S48" s="6"/>
+      <c r="T48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="U48">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4450,91 +4469,101 @@
     </row>
     <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B49" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="28" t="s">
         <v>72</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E49" s="28"/>
+        <v>82</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="F49" s="28"/>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
       <c r="I49" s="42"/>
       <c r="J49" s="42" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="K49" s="42"/>
       <c r="L49" s="31" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="M49" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>3D-Jake</v>
+        <v>Mouser</v>
       </c>
       <c r="N49" s="32">
-        <v>2.99</v>
+        <v>2.81</v>
       </c>
       <c r="O49" s="33">
         <v>4</v>
       </c>
       <c r="P49" s="32">
-        <f>N49*O49</f>
-        <v>11.96</v>
-      </c>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="34"/>
+        <f t="shared" si="0"/>
+        <v>11.24</v>
+      </c>
+      <c r="Q49" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" s="34" t="s">
+        <v>109</v>
+      </c>
       <c r="S49" s="6"/>
+      <c r="T49">
+        <f t="shared" si="8"/>
+        <v>11.24</v>
+      </c>
       <c r="U49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="35" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="37" t="s">
-        <v>139</v>
+        <v>131</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>132</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
       <c r="I50" s="36"/>
       <c r="J50" s="36" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="K50" s="36"/>
       <c r="L50" s="39" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M50" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>DigiKey</v>
+        <v>3D-Jake</v>
       </c>
       <c r="N50" s="40">
-        <v>0.1</v>
+        <v>5.99</v>
       </c>
       <c r="O50" s="41">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P50" s="40">
         <f>N50*O50</f>
-        <v>1</v>
+        <v>23.96</v>
       </c>
       <c r="Q50" s="41"/>
       <c r="R50" s="25"/>
@@ -4549,41 +4578,39 @@
         <v>70</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="C51" s="42" t="s">
         <v>72</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>140</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E51" s="28"/>
       <c r="F51" s="28"/>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
       <c r="I51" s="42"/>
       <c r="J51" s="42" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="K51" s="42"/>
       <c r="L51" s="31" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M51" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>DigiKey</v>
+        <v>3D-Jake</v>
       </c>
       <c r="N51" s="32">
-        <v>5.54</v>
+        <v>2.99</v>
       </c>
       <c r="O51" s="33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P51" s="32">
         <f>N51*O51</f>
-        <v>5.54</v>
+        <v>11.96</v>
       </c>
       <c r="Q51" s="33"/>
       <c r="R51" s="34"/>
@@ -4595,19 +4622,19 @@
     </row>
     <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>237</v>
+        <v>135</v>
       </c>
       <c r="C52" s="36" t="s">
         <v>72</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>240</v>
+        <v>134</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>139</v>
       </c>
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
@@ -4618,21 +4645,21 @@
       </c>
       <c r="K52" s="36"/>
       <c r="L52" s="39" t="s">
-        <v>238</v>
+        <v>133</v>
       </c>
       <c r="M52" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N52" s="40">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="O52" s="41">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P52" s="40">
         <f>N52*O52</f>
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="41"/>
       <c r="R52" s="25"/>
@@ -4644,19 +4671,19 @@
     </row>
     <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C53" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="29" t="s">
-        <v>103</v>
+      <c r="D53" s="28" t="s">
+        <v>136</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="F53" s="28"/>
       <c r="G53" s="28"/>
@@ -4667,32 +4694,25 @@
       </c>
       <c r="K53" s="42"/>
       <c r="L53" s="31" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="M53" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N53" s="32">
-        <v>16.100000000000001</v>
+        <v>5.54</v>
       </c>
       <c r="O53" s="33">
         <v>1</v>
       </c>
       <c r="P53" s="32">
-        <f t="shared" si="0"/>
-        <v>16.100000000000001</v>
-      </c>
-      <c r="Q53" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R53" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="T53">
-        <f>IF(AND(Q53="Nicht Gekauft", R53="Benötigt"), P53, 0)</f>
-        <v>16.100000000000001</v>
-      </c>
+        <f>N53*O53</f>
+        <v>5.54</v>
+      </c>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="6"/>
       <c r="U53">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4700,55 +4720,56 @@
     </row>
     <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>102</v>
+        <v>237</v>
       </c>
       <c r="C54" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D54" s="37" t="s">
-        <v>145</v>
+      <c r="D54" s="35" t="s">
+        <v>239</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
       <c r="H54" s="35"/>
       <c r="I54" s="36"/>
       <c r="J54" s="36" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="K54" s="36"/>
       <c r="L54" s="39" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="M54" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>Amazon</v>
+        <v>DigiKey</v>
       </c>
       <c r="N54" s="40">
-        <v>6.99</v>
+        <v>0.19</v>
       </c>
       <c r="O54" s="41">
         <v>1</v>
       </c>
       <c r="P54" s="40">
         <f>N54*O54</f>
-        <v>6.99</v>
+        <v>0.19</v>
       </c>
       <c r="Q54" s="41"/>
       <c r="R54" s="25"/>
+      <c r="S54" s="6"/>
       <c r="U54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B55" s="28" t="s">
         <v>102</v>
@@ -4757,38 +4778,46 @@
         <v>72</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="F55" s="28"/>
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
       <c r="I55" s="42"/>
       <c r="J55" s="42" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="K55" s="42"/>
       <c r="L55" s="31" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="M55" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>RobotShop</v>
+        <v>DigiKey</v>
       </c>
       <c r="N55" s="32">
-        <v>9.33</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="O55" s="33">
         <v>1</v>
       </c>
       <c r="P55" s="32">
-        <f>N55*O55</f>
-        <v>9.33</v>
-      </c>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="34"/>
+        <f t="shared" si="0"/>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="Q55" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R55" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="T55">
+        <f>IF(AND(Q55="Nicht Gekauft", R55="Benötigt"), P55, 0)</f>
+        <v>16.100000000000001</v>
+      </c>
       <c r="U55">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4796,7 +4825,7 @@
     </row>
     <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>102</v>
@@ -4805,35 +4834,35 @@
         <v>72</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
       <c r="I56" s="36"/>
       <c r="J56" s="36" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="K56" s="36"/>
       <c r="L56" s="39" t="s">
-        <v>154</v>
+        <v>265</v>
       </c>
       <c r="M56" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>DigiKey</v>
+        <v>Amazon</v>
       </c>
       <c r="N56" s="40">
-        <v>3.39</v>
+        <v>6.99</v>
       </c>
       <c r="O56" s="41">
         <v>1</v>
       </c>
       <c r="P56" s="40">
         <f>N56*O56</f>
-        <v>3.39</v>
+        <v>6.99</v>
       </c>
       <c r="Q56" s="41"/>
       <c r="R56" s="25"/>
@@ -4842,57 +4871,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="28" t="s">
-        <v>60</v>
+        <v>102</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="F57" s="28"/>
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
       <c r="I57" s="42"/>
       <c r="J57" s="42" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="K57" s="42"/>
       <c r="L57" s="31" t="s">
-        <v>264</v>
+        <v>150</v>
       </c>
       <c r="M57" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>Amazon</v>
+        <v>RobotShop</v>
       </c>
       <c r="N57" s="32">
-        <v>16.13</v>
+        <v>9.33</v>
       </c>
       <c r="O57" s="33">
         <v>1</v>
       </c>
       <c r="P57" s="32">
-        <f t="shared" si="0"/>
-        <v>16.13</v>
-      </c>
-      <c r="Q57" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R57" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="T57">
-        <f>IF(AND(Q57="Nicht Gekauft", R57="Benötigt"), P57, 0)</f>
-        <v>16.13</v>
-      </c>
+        <f>N57*O57</f>
+        <v>9.33</v>
+      </c>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="34"/>
       <c r="U57">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4900,19 +4921,19 @@
     </row>
     <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>64</v>
+        <v>102</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>152</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
@@ -4923,28 +4944,24 @@
       </c>
       <c r="K58" s="36"/>
       <c r="L58" s="39" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="M58" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N58" s="40">
-        <v>2.97</v>
+        <v>3.39</v>
       </c>
       <c r="O58" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P58" s="40">
-        <f t="shared" si="0"/>
-        <v>5.94</v>
-      </c>
-      <c r="Q58" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R58" s="25" t="s">
-        <v>22</v>
-      </c>
+        <f>N58*O58</f>
+        <v>3.39</v>
+      </c>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="25"/>
       <c r="U58">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4952,50 +4969,54 @@
     </row>
     <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C59" s="28" t="s">
         <v>57</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F59" s="28"/>
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
       <c r="I59" s="42"/>
       <c r="J59" s="42" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="K59" s="42"/>
       <c r="L59" s="31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M59" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>DigiKey</v>
+        <v>Amazon</v>
       </c>
       <c r="N59" s="32">
-        <v>5.92</v>
+        <v>16.13</v>
       </c>
       <c r="O59" s="33">
         <v>1</v>
       </c>
       <c r="P59" s="32">
         <f t="shared" si="0"/>
-        <v>5.92</v>
+        <v>16.13</v>
       </c>
       <c r="Q59" s="33" t="s">
         <v>21</v>
       </c>
       <c r="R59" s="34" t="s">
-        <v>22</v>
+        <v>109</v>
+      </c>
+      <c r="T59">
+        <f>IF(AND(Q59="Nicht Gekauft", R59="Benötigt"), P59, 0)</f>
+        <v>16.13</v>
       </c>
       <c r="U59">
         <f t="shared" si="2"/>
@@ -5013,7 +5034,7 @@
         <v>57</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E60" s="35" t="s">
         <v>65</v>
@@ -5027,21 +5048,21 @@
       </c>
       <c r="K60" s="36"/>
       <c r="L60" s="39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M60" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N60" s="40">
-        <v>2.64</v>
+        <v>2.97</v>
       </c>
       <c r="O60" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P60" s="40">
         <f t="shared" si="0"/>
-        <v>2.64</v>
+        <v>5.94</v>
       </c>
       <c r="Q60" s="41" t="s">
         <v>21</v>
@@ -5049,186 +5070,291 @@
       <c r="R60" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="T60">
-        <f>IF(AND(Q60="Nicht Gekauft", R60="Benötigt"), P60, 0)</f>
-        <v>0</v>
-      </c>
       <c r="U60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="17"/>
-    </row>
-    <row r="63" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F63" s="5" t="s">
+    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K61" s="42"/>
+      <c r="L61" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="M61" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
+      <c r="N61" s="32">
+        <v>5.92</v>
+      </c>
+      <c r="O61" s="33">
+        <v>1</v>
+      </c>
+      <c r="P61" s="32">
+        <f t="shared" si="0"/>
+        <v>5.92</v>
+      </c>
+      <c r="Q61" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R61" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K62" s="36"/>
+      <c r="L62" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M62" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
+      <c r="N62" s="40">
+        <v>2.64</v>
+      </c>
+      <c r="O62" s="41">
+        <v>1</v>
+      </c>
+      <c r="P62" s="40">
+        <f t="shared" si="0"/>
+        <v>2.64</v>
+      </c>
+      <c r="Q62" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="R62" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="T62">
+        <f>IF(AND(Q62="Nicht Gekauft", R62="Benötigt"), P62, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="17"/>
+    </row>
+    <row r="65" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G65" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F64" s="60" t="s">
+    <row r="66" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="G64" s="60" t="s">
+      <c r="G66" s="52" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F65" s="61">
-        <f>SUMPRODUCT(F2:F60, O2:O60, U2:U60)</f>
+    <row r="67" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="53">
+        <f>SUMPRODUCT(F2:F62, O2:O62, U2:U62)</f>
         <v>4.1599999999999993</v>
       </c>
-      <c r="G65" s="61" cm="1">
-        <f t="array" ref="G65">SUMPRODUCT((G2:G60=12)*(F2:F60)*(O2:O60)*(U2:U60))</f>
+      <c r="G67" s="53" cm="1">
+        <f t="array" ref="G67">SUMPRODUCT((G2:G62=12)*(F2:F62)*(O2:O62)*(U2:U62))</f>
         <v>2.1800000000000002</v>
       </c>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G67" s="60" t="s">
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="52" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="68" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G68" s="61" cm="1">
-        <f t="array" ref="G68">SUMPRODUCT((G2:G60=5)*(F2:F60)*(O2:O60)*(U2:U60))</f>
+    <row r="70" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="53" cm="1">
+        <f t="array" ref="G70">SUMPRODUCT((G2:G62=5)*(F2:F62)*(O2:O62)*(U2:U62))</f>
         <v>1.98</v>
       </c>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F70" s="5" t="s">
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G72" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F71" s="47" t="s">
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="G71" s="47" t="s">
+      <c r="G73" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F72" s="48">
-        <f>F65*$F$75</f>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F74" s="48">
+        <f>F67*$F$77</f>
         <v>6.2399999999999984</v>
       </c>
-      <c r="G72" s="48">
-        <f>G65*$F$75</f>
+      <c r="G74" s="48">
+        <f>G67*$F$77</f>
         <v>3.2700000000000005</v>
       </c>
-      <c r="H72" s="3"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-    </row>
-    <row r="73" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F74" s="58" t="s">
+      <c r="H74" s="3"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+    </row>
+    <row r="75" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F76" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="G74" s="47" t="s">
+      <c r="G76" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F75" s="59">
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="51">
         <v>1.5</v>
       </c>
-      <c r="G75" s="48">
-        <f>G68*$F$75</f>
+      <c r="G77" s="48">
+        <f>G70*$F$77</f>
         <v>2.9699999999999998</v>
       </c>
-      <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H76" s="3"/>
-      <c r="I76" s="3" t="s">
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H78" s="3"/>
+      <c r="I78" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F77" s="5" t="s">
+    <row r="79" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F79" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G79" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="78" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F78" s="62" t="s">
+    <row r="80" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F80" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="G78" s="63" t="s">
+      <c r="G80" s="55" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="79" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F79" s="64">
+    <row r="81" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F81" s="56">
         <v>5.5888</v>
       </c>
-      <c r="G79" s="65">
+      <c r="G81" s="57">
         <v>3.04</v>
       </c>
     </row>
-    <row r="80" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F80" s="57"/>
-      <c r="G80" s="57"/>
-    </row>
-    <row r="81" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F81" s="57"/>
-      <c r="G81" s="62" t="s">
+    <row r="82" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F82" s="49"/>
+      <c r="G82" s="49"/>
+    </row>
+    <row r="83" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F83" s="49"/>
+      <c r="G83" s="54" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="82" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F82" s="57"/>
-      <c r="G82" s="64">
+    <row r="84" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F84" s="49"/>
+      <c r="G84" s="56">
         <v>2.548</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R60" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
+  <autoFilter ref="A1:R62" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
     <filterColumn colId="0">
       <filters blank="1">
         <filter val="ACC3"/>
         <filter val="BF4"/>
         <filter val="BP2"/>
         <filter val="F2"/>
+        <filter val="POW2"/>
         <filter val="S1"/>
         <filter val="SP2"/>
         <filter val="TP2"/>
@@ -5241,7 +5367,7 @@
       <selection pane="bottomLeft" activeCell="V1" sqref="U1:V1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R60" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
+      <autoFilter ref="A1:R60" xr:uid="{E2BDA448-DAC8-41AD-BD3D-4B9264387FE7}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -5260,7 +5386,7 @@
       <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R60" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
+      <autoFilter ref="A1:R60" xr:uid="{26006A1C-4393-4107-B501-8FDEF4119873}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -5279,14 +5405,34 @@
       <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R59" xr:uid="{A5DD41C9-8787-4B1B-8E0A-16F79FA3D3FA}"/>
+      <autoFilter ref="A1:R59" xr:uid="{E0BAA033-2707-4E86-9CFD-3701DFA9404F}"/>
     </customSheetView>
     <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R59" xr:uid="{C665A4D1-9C1D-40A9-A158-40AA84C6A363}"/>
+      <autoFilter ref="A1:R59" xr:uid="{9C3C45DC-E1C5-49F4-A14C-D55C5BABC124}"/>
+    </customSheetView>
+    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+      <autoFilter ref="A1:R62" xr:uid="{9E93D149-5141-4136-BF1F-E5236AB25F72}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="POW2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="4">
@@ -5295,6 +5441,7 @@
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="X5:Y5"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="P1:P1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -5307,7 +5454,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q25 Q28:Q66 Q68:Q1048576">
+  <conditionalFormatting sqref="Q1:Q25 Q28:Q68 Q70:Q1048576">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Nicht Gekauft"</formula>
     </cfRule>
@@ -5323,7 +5470,7 @@
       <formula>"Gekauft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R25 R28:R61">
+  <conditionalFormatting sqref="R2:R25 R28:R63">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Nicht benötigt"</formula>
     </cfRule>
@@ -5332,39 +5479,39 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R25 R28:R61" xr:uid="{DF639F38-DCBF-4FB0-9016-BE70B5447265}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R25 R28:R63" xr:uid="{DF639F38-DCBF-4FB0-9016-BE70B5447265}">
       <formula1>"Benötigt,Nicht benötigt"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q25 Q28:Q61" xr:uid="{BB82D80E-695D-4A38-A148-48463DFE8321}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q25 Q28:Q63" xr:uid="{BB82D80E-695D-4A38-A148-48463DFE8321}">
       <formula1>"Gekauft,Nicht Gekauft"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId5" xr:uid="{134576B2-6870-47F8-80B5-95CA9B97F9E2}"/>
-    <hyperlink ref="L42" r:id="rId6" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
-    <hyperlink ref="L43" r:id="rId7" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
-    <hyperlink ref="L44" r:id="rId8" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
-    <hyperlink ref="L28" r:id="rId9" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
-    <hyperlink ref="L58" r:id="rId10" xr:uid="{9A0B0992-EB9B-485C-8743-AB5373B961C2}"/>
-    <hyperlink ref="L60" r:id="rId11" xr:uid="{B67FB571-1B87-4184-A2B3-AF411BD87D35}"/>
-    <hyperlink ref="L46" r:id="rId12" xr:uid="{57963C92-CE56-4D91-B1F1-7FA05F5BC3A8}"/>
-    <hyperlink ref="L45" r:id="rId13" xr:uid="{9D795571-0999-43FF-9A1F-496FF99C86C0}"/>
-    <hyperlink ref="L47" r:id="rId14" xr:uid="{8465788D-FDE3-460C-960F-435D2FB5F396}"/>
-    <hyperlink ref="L10" r:id="rId15" xr:uid="{A9D6150D-3C06-4D81-AD60-047F4F409296}"/>
-    <hyperlink ref="L11" r:id="rId16" xr:uid="{411A7094-1AC1-4084-ABE4-5C0060EC1A2D}"/>
-    <hyperlink ref="L12" r:id="rId17" xr:uid="{3DDB6C5A-7DB3-4C65-B604-D02293535F49}"/>
-    <hyperlink ref="L7" r:id="rId18" xr:uid="{56E44BCE-942A-4E32-8574-907151789664}"/>
-    <hyperlink ref="L53" r:id="rId19" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
-    <hyperlink ref="L3" r:id="rId20" xr:uid="{C49F6822-A4DD-42C2-B3BF-0381D137937C}"/>
-    <hyperlink ref="L5" r:id="rId21" xr:uid="{BF0FEABB-4850-4BC5-A11D-D889C6B926FD}"/>
-    <hyperlink ref="L8" r:id="rId22" xr:uid="{21389653-C0FE-46E1-B136-04B9A0DE28C5}"/>
-    <hyperlink ref="L48" r:id="rId23" xr:uid="{1242A3DC-9FDC-4C47-9270-1B4A92E75E73}"/>
-    <hyperlink ref="L26" r:id="rId24" xr:uid="{3ED73B15-E49B-4E21-BF8D-06828BFBADB2}"/>
-    <hyperlink ref="L9" r:id="rId25" xr:uid="{E62708AD-A075-4D9D-9BC8-2CBD617B66EE}"/>
-    <hyperlink ref="L27" r:id="rId26" xr:uid="{488C7B18-56E0-4061-83E3-FAA678922DF9}"/>
-    <hyperlink ref="L32" r:id="rId27" xr:uid="{02A8F53B-7033-433E-97B4-37D43B10ABDE}"/>
+    <hyperlink ref="L2" r:id="rId6" xr:uid="{134576B2-6870-47F8-80B5-95CA9B97F9E2}"/>
+    <hyperlink ref="L44" r:id="rId7" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
+    <hyperlink ref="L45" r:id="rId8" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
+    <hyperlink ref="L46" r:id="rId9" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
+    <hyperlink ref="L28" r:id="rId10" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
+    <hyperlink ref="L60" r:id="rId11" xr:uid="{9A0B0992-EB9B-485C-8743-AB5373B961C2}"/>
+    <hyperlink ref="L62" r:id="rId12" xr:uid="{B67FB571-1B87-4184-A2B3-AF411BD87D35}"/>
+    <hyperlink ref="L48" r:id="rId13" xr:uid="{57963C92-CE56-4D91-B1F1-7FA05F5BC3A8}"/>
+    <hyperlink ref="L47" r:id="rId14" xr:uid="{9D795571-0999-43FF-9A1F-496FF99C86C0}"/>
+    <hyperlink ref="L49" r:id="rId15" xr:uid="{8465788D-FDE3-460C-960F-435D2FB5F396}"/>
+    <hyperlink ref="L10" r:id="rId16" xr:uid="{A9D6150D-3C06-4D81-AD60-047F4F409296}"/>
+    <hyperlink ref="L11" r:id="rId17" xr:uid="{411A7094-1AC1-4084-ABE4-5C0060EC1A2D}"/>
+    <hyperlink ref="L12" r:id="rId18" xr:uid="{3DDB6C5A-7DB3-4C65-B604-D02293535F49}"/>
+    <hyperlink ref="L7" r:id="rId19" xr:uid="{56E44BCE-942A-4E32-8574-907151789664}"/>
+    <hyperlink ref="L55" r:id="rId20" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
+    <hyperlink ref="L3" r:id="rId21" xr:uid="{C49F6822-A4DD-42C2-B3BF-0381D137937C}"/>
+    <hyperlink ref="L5" r:id="rId22" xr:uid="{BF0FEABB-4850-4BC5-A11D-D889C6B926FD}"/>
+    <hyperlink ref="L8" r:id="rId23" xr:uid="{21389653-C0FE-46E1-B136-04B9A0DE28C5}"/>
+    <hyperlink ref="L50" r:id="rId24" xr:uid="{1242A3DC-9FDC-4C47-9270-1B4A92E75E73}"/>
+    <hyperlink ref="L26" r:id="rId25" xr:uid="{3ED73B15-E49B-4E21-BF8D-06828BFBADB2}"/>
+    <hyperlink ref="L9" r:id="rId26" xr:uid="{E62708AD-A075-4D9D-9BC8-2CBD617B66EE}"/>
+    <hyperlink ref="L27" r:id="rId27" xr:uid="{488C7B18-56E0-4061-83E3-FAA678922DF9}"/>
+    <hyperlink ref="L32" r:id="rId28" xr:uid="{02A8F53B-7033-433E-97B4-37D43B10ABDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF92E76-6442-4D5A-99B8-9273B6DFE7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10076C2D-F6EA-4A92-8436-5CC08967089F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$62</definedName>
     <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$I:$I,'2ndMainBoard'!$M:$M,'2ndMainBoard'!$P:$R,'2ndMainBoard'!$T:$AD</definedName>
     <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$62</definedName>
-    <definedName name="Z_3588CADD_1546_4C2E_AC0F_42B7D53E68B9_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$V</definedName>
-    <definedName name="Z_3588CADD_1546_4C2E_AC0F_42B7D53E68B9_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$62</definedName>
     <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$H:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$U</definedName>
     <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$62</definedName>
     <definedName name="Z_AD0CFDC5_A886_4774_8323_B873BC9D36B7_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$V</definedName>
@@ -29,11 +27,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Schaltplan_V3" guid="{3588CADD-1546-4C2E-AC0F-42B7D53E68B9}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
     <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -77,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="296">
   <si>
     <t>Alternative</t>
   </si>
@@ -947,6 +944,24 @@
   </si>
   <si>
     <t>5A, 500kHz</t>
+  </si>
+  <si>
+    <t>Verfügbarer Strom</t>
+  </si>
+  <si>
+    <t>12V Buck</t>
+  </si>
+  <si>
+    <t>5V Buck</t>
+  </si>
+  <si>
+    <t>5V USB-C</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>5V</t>
   </si>
 </sst>
 </file>
@@ -1933,11 +1948,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AD84"/>
+  <dimension ref="A1:AD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1947,8 +1962,8 @@
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="35.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="8.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="3" hidden="1" customWidth="1"/>
@@ -1962,8 +1977,8 @@
     <col min="18" max="18" width="24.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" customWidth="1"/>
     <col min="20" max="20" width="14.42578125" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="17" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="17" customWidth="1"/>
+    <col min="21" max="21" width="17" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="17" customWidth="1"/>
     <col min="24" max="25" width="9.140625" customWidth="1"/>
     <col min="26" max="26" width="11.5703125" customWidth="1"/>
     <col min="27" max="29" width="9.140625" customWidth="1"/>
@@ -3964,8 +3979,12 @@
       <c r="E39" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
+      <c r="F39" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="G39" s="28">
+        <v>5</v>
+      </c>
       <c r="H39" s="28"/>
       <c r="I39" s="42"/>
       <c r="J39" s="42" t="s">
@@ -5346,6 +5365,58 @@
         <v>2.548</v>
       </c>
     </row>
+    <row r="86" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>291</v>
+      </c>
+      <c r="G87">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>292</v>
+      </c>
+      <c r="G88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>293</v>
+      </c>
+      <c r="G89">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>294</v>
+      </c>
+      <c r="G92">
+        <f>G87-G74</f>
+        <v>4.7299999999999995</v>
+      </c>
+    </row>
+    <row r="93" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>295</v>
+      </c>
+      <c r="G93">
+        <f>G88+G89-G77</f>
+        <v>2.08</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R62" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
     <filterColumn colId="0">
@@ -5362,18 +5433,19 @@
     </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{3588CADD-1546-4C2E-AC0F-42B7D53E68B9}" filter="1" showAutoFilter="1" hiddenColumns="1">
+    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V1" sqref="U1:V1048576"/>
+      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R60" xr:uid="{E2BDA448-DAC8-41AD-BD3D-4B9264387FE7}">
+      <autoFilter ref="A1:R62" xr:uid="{02D4D05E-22F6-4468-9979-51C6FBB75016}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
             <filter val="BF4"/>
             <filter val="BP2"/>
             <filter val="F2"/>
+            <filter val="POW2"/>
             <filter val="S1"/>
             <filter val="SP2"/>
             <filter val="TP2"/>
@@ -5381,52 +5453,32 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
+    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A1:R59" xr:uid="{80BB990E-581D-4117-B12D-9E1E3A3EDFF2}"/>
+    </customSheetView>
+    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A1:R59" xr:uid="{6817E049-AE4D-453D-9C70-25EEE41FA076}"/>
+    </customSheetView>
     <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R60" xr:uid="{26006A1C-4393-4107-B501-8FDEF4119873}">
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A1:R60" xr:uid="{05898425-2B4B-4922-8946-8D2313CCA35E}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
             <filter val="BF4"/>
             <filter val="BP2"/>
             <filter val="F2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R59" xr:uid="{E0BAA033-2707-4E86-9CFD-3701DFA9404F}"/>
-    </customSheetView>
-    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R59" xr:uid="{9C3C45DC-E1C5-49F4-A14C-D55C5BABC124}"/>
-    </customSheetView>
-    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-      <autoFilter ref="A1:R62" xr:uid="{9E93D149-5141-4136-BF1F-E5236AB25F72}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
-            <filter val="POW2"/>
             <filter val="S1"/>
             <filter val="SP2"/>
             <filter val="TP2"/>
@@ -5487,31 +5539,31 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId6" xr:uid="{134576B2-6870-47F8-80B5-95CA9B97F9E2}"/>
-    <hyperlink ref="L44" r:id="rId7" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
-    <hyperlink ref="L45" r:id="rId8" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
-    <hyperlink ref="L46" r:id="rId9" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
-    <hyperlink ref="L28" r:id="rId10" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
-    <hyperlink ref="L60" r:id="rId11" xr:uid="{9A0B0992-EB9B-485C-8743-AB5373B961C2}"/>
-    <hyperlink ref="L62" r:id="rId12" xr:uid="{B67FB571-1B87-4184-A2B3-AF411BD87D35}"/>
-    <hyperlink ref="L48" r:id="rId13" xr:uid="{57963C92-CE56-4D91-B1F1-7FA05F5BC3A8}"/>
-    <hyperlink ref="L47" r:id="rId14" xr:uid="{9D795571-0999-43FF-9A1F-496FF99C86C0}"/>
-    <hyperlink ref="L49" r:id="rId15" xr:uid="{8465788D-FDE3-460C-960F-435D2FB5F396}"/>
-    <hyperlink ref="L10" r:id="rId16" xr:uid="{A9D6150D-3C06-4D81-AD60-047F4F409296}"/>
-    <hyperlink ref="L11" r:id="rId17" xr:uid="{411A7094-1AC1-4084-ABE4-5C0060EC1A2D}"/>
-    <hyperlink ref="L12" r:id="rId18" xr:uid="{3DDB6C5A-7DB3-4C65-B604-D02293535F49}"/>
-    <hyperlink ref="L7" r:id="rId19" xr:uid="{56E44BCE-942A-4E32-8574-907151789664}"/>
-    <hyperlink ref="L55" r:id="rId20" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
-    <hyperlink ref="L3" r:id="rId21" xr:uid="{C49F6822-A4DD-42C2-B3BF-0381D137937C}"/>
-    <hyperlink ref="L5" r:id="rId22" xr:uid="{BF0FEABB-4850-4BC5-A11D-D889C6B926FD}"/>
-    <hyperlink ref="L8" r:id="rId23" xr:uid="{21389653-C0FE-46E1-B136-04B9A0DE28C5}"/>
-    <hyperlink ref="L50" r:id="rId24" xr:uid="{1242A3DC-9FDC-4C47-9270-1B4A92E75E73}"/>
-    <hyperlink ref="L26" r:id="rId25" xr:uid="{3ED73B15-E49B-4E21-BF8D-06828BFBADB2}"/>
-    <hyperlink ref="L9" r:id="rId26" xr:uid="{E62708AD-A075-4D9D-9BC8-2CBD617B66EE}"/>
-    <hyperlink ref="L27" r:id="rId27" xr:uid="{488C7B18-56E0-4061-83E3-FAA678922DF9}"/>
-    <hyperlink ref="L32" r:id="rId28" xr:uid="{02A8F53B-7033-433E-97B4-37D43B10ABDE}"/>
+    <hyperlink ref="L2" r:id="rId5" xr:uid="{134576B2-6870-47F8-80B5-95CA9B97F9E2}"/>
+    <hyperlink ref="L44" r:id="rId6" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
+    <hyperlink ref="L45" r:id="rId7" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
+    <hyperlink ref="L46" r:id="rId8" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
+    <hyperlink ref="L28" r:id="rId9" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
+    <hyperlink ref="L60" r:id="rId10" xr:uid="{9A0B0992-EB9B-485C-8743-AB5373B961C2}"/>
+    <hyperlink ref="L62" r:id="rId11" xr:uid="{B67FB571-1B87-4184-A2B3-AF411BD87D35}"/>
+    <hyperlink ref="L48" r:id="rId12" xr:uid="{57963C92-CE56-4D91-B1F1-7FA05F5BC3A8}"/>
+    <hyperlink ref="L47" r:id="rId13" xr:uid="{9D795571-0999-43FF-9A1F-496FF99C86C0}"/>
+    <hyperlink ref="L49" r:id="rId14" xr:uid="{8465788D-FDE3-460C-960F-435D2FB5F396}"/>
+    <hyperlink ref="L10" r:id="rId15" xr:uid="{A9D6150D-3C06-4D81-AD60-047F4F409296}"/>
+    <hyperlink ref="L11" r:id="rId16" xr:uid="{411A7094-1AC1-4084-ABE4-5C0060EC1A2D}"/>
+    <hyperlink ref="L12" r:id="rId17" xr:uid="{3DDB6C5A-7DB3-4C65-B604-D02293535F49}"/>
+    <hyperlink ref="L7" r:id="rId18" xr:uid="{56E44BCE-942A-4E32-8574-907151789664}"/>
+    <hyperlink ref="L55" r:id="rId19" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
+    <hyperlink ref="L3" r:id="rId20" xr:uid="{C49F6822-A4DD-42C2-B3BF-0381D137937C}"/>
+    <hyperlink ref="L5" r:id="rId21" xr:uid="{BF0FEABB-4850-4BC5-A11D-D889C6B926FD}"/>
+    <hyperlink ref="L8" r:id="rId22" xr:uid="{21389653-C0FE-46E1-B136-04B9A0DE28C5}"/>
+    <hyperlink ref="L50" r:id="rId23" xr:uid="{1242A3DC-9FDC-4C47-9270-1B4A92E75E73}"/>
+    <hyperlink ref="L26" r:id="rId24" xr:uid="{3ED73B15-E49B-4E21-BF8D-06828BFBADB2}"/>
+    <hyperlink ref="L9" r:id="rId25" xr:uid="{E62708AD-A075-4D9D-9BC8-2CBD617B66EE}"/>
+    <hyperlink ref="L27" r:id="rId26" xr:uid="{488C7B18-56E0-4061-83E3-FAA678922DF9}"/>
+    <hyperlink ref="L32" r:id="rId27" xr:uid="{02A8F53B-7033-433E-97B4-37D43B10ABDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10076C2D-F6EA-4A92-8436-5CC08967089F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13198BC6-8EBC-4816-A345-6974DA9DA442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,21 +16,21 @@
     <sheet name="2ndMainBoard" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$64</definedName>
     <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$I:$I,'2ndMainBoard'!$M:$M,'2ndMainBoard'!$P:$R,'2ndMainBoard'!$T:$AD</definedName>
-    <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$62</definedName>
+    <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$64</definedName>
     <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$H:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$U</definedName>
-    <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$62</definedName>
+    <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$64</definedName>
     <definedName name="Z_AD0CFDC5_A886_4774_8323_B873BC9D36B7_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$V</definedName>
-    <definedName name="Z_AD0CFDC5_A886_4774_8323_B873BC9D36B7_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$62</definedName>
-    <definedName name="Z_E3E09E1D_E21B_434F_8777_BA2F5DFE998D_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$62</definedName>
+    <definedName name="Z_AD0CFDC5_A886_4774_8323_B873BC9D36B7_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$64</definedName>
+    <definedName name="Z_E3E09E1D_E21B_434F_8777_BA2F5DFE998D_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
     <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="309">
   <si>
     <t>Alternative</t>
   </si>
@@ -688,9 +688,6 @@
     <t>44A0221-16-9/9CS3030</t>
   </si>
   <si>
-    <t>USB-C Stecker</t>
-  </si>
-  <si>
     <t>Schutzschlatung</t>
   </si>
   <si>
@@ -962,6 +959,48 @@
   </si>
   <si>
     <t>5V</t>
+  </si>
+  <si>
+    <t>Ferritperle</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/en/products/detail/tdk-corporation/MPZ1005S331ET000/3910121</t>
+  </si>
+  <si>
+    <t>MPZ1005S331ET000</t>
+  </si>
+  <si>
+    <t>330 Ω @ 100 MHz, 0,5 Ω DC, 700mA</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>USB-C Kabel</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/en/products/detail/assmann-wsw-components/A-USB31C-20A-150A/10408414</t>
+  </si>
+  <si>
+    <t>A-USB31C-20A-150A</t>
+  </si>
+  <si>
+    <t>22 AWG, 28 AWG, USB 2.0, 1.5m</t>
+  </si>
+  <si>
+    <t>USB-C Buchse</t>
+  </si>
+  <si>
+    <t>TD-103-T-A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/de/products/detail/samtec-inc/TD-103-T-A/1105555</t>
+  </si>
+  <si>
+    <t>TS-103-T-A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/de/products/detail/samtec-inc/TS-103-T-A/1105491</t>
   </si>
 </sst>
 </file>
@@ -1948,11 +1987,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AD93"/>
+  <dimension ref="A1:AD95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2002,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>122</v>
@@ -2017,13 +2056,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N1" s="24" t="s">
         <v>9</v>
@@ -2044,14 +2083,14 @@
         <v>14</v>
       </c>
       <c r="U1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X1" s="60" t="s">
         <v>106</v>
       </c>
       <c r="Y1" s="61"/>
       <c r="Z1" s="11">
-        <f>SUMIFS(P10:P62,Q10:Q62, "Nicht Gekauft",R10:R62,"Benötigt")</f>
+        <f>SUMIFS(P10:P64,Q10:Q64, "Nicht Gekauft",R10:R64,"Benötigt")</f>
         <v>64.3</v>
       </c>
       <c r="AB1" s="58" t="s">
@@ -2059,8 +2098,8 @@
       </c>
       <c r="AC1" s="59"/>
       <c r="AD1" s="10">
-        <f>SUM(P2:P62)</f>
-        <v>391.23999999999995</v>
+        <f>SUM(P2:P64)</f>
+        <v>400.78999999999996</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -2099,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="32">
-        <f t="shared" ref="P2:P62" si="0">N2*O2</f>
+        <f t="shared" ref="P2:P64" si="0">N2*O2</f>
         <v>9.91</v>
       </c>
       <c r="Q2" s="33" t="s">
@@ -2149,7 +2188,7 @@
         <v>27</v>
       </c>
       <c r="M3" s="31" t="str">
-        <f t="shared" ref="M3:M62" si="1">HYPERLINK(L3,J3)</f>
+        <f t="shared" ref="M3:M64" si="1">HYPERLINK(L3,J3)</f>
         <v>AZ-Delivery</v>
       </c>
       <c r="N3" s="40">
@@ -2169,7 +2208,7 @@
         <v>109</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U62" si="2">SUBTOTAL(103, G3)</f>
+        <f t="shared" ref="U3:U64" si="2">SUBTOTAL(103, G3)</f>
         <v>1</v>
       </c>
     </row>
@@ -2289,25 +2328,25 @@
       </c>
       <c r="Y5" s="65"/>
       <c r="Z5" s="12">
-        <f>SUBTOTAL(9,P1:P62)</f>
-        <v>197.02</v>
+        <f>SUBTOTAL(9,P1:P64)</f>
+        <v>202.76000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>269</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>270</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>272</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>273</v>
       </c>
       <c r="F6" s="35">
         <v>0.5</v>
@@ -2322,7 +2361,7 @@
       </c>
       <c r="K6" s="38"/>
       <c r="L6" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M6" s="31"/>
       <c r="N6" s="40">
@@ -2407,7 +2446,7 @@
       </c>
       <c r="Y7" s="63"/>
       <c r="Z7" s="9">
-        <f>SUBTOTAL(9,T1:T62)</f>
+        <f>SUBTOTAL(9,T1:T64)</f>
         <v>30.18</v>
       </c>
     </row>
@@ -2708,7 +2747,7 @@
       </c>
       <c r="K13" s="42"/>
       <c r="L13" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M13" s="31" t="str">
         <f t="shared" si="1"/>
@@ -2764,7 +2803,7 @@
       </c>
       <c r="K14" s="36"/>
       <c r="L14" s="39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M14" s="31" t="str">
         <f t="shared" si="1"/>
@@ -2812,7 +2851,7 @@
       </c>
       <c r="K15" s="42"/>
       <c r="L15" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M15" s="31" t="str">
         <f t="shared" si="1"/>
@@ -2994,16 +3033,16 @@
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="28" t="s">
-        <v>204</v>
+        <v>304</v>
       </c>
       <c r="C19" s="42" t="s">
         <v>87</v>
       </c>
       <c r="D19" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" s="28" t="s">
         <v>215</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>216</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
@@ -3014,7 +3053,7 @@
       </c>
       <c r="K19" s="42"/>
       <c r="L19" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M19" s="31" t="str">
         <f t="shared" si="1"/>
@@ -3370,7 +3409,8 @@
       <c r="O26" s="41">
         <v>10</v>
       </c>
-      <c r="P26" s="40">
+      <c r="P26" s="32">
+        <f>N26*O26</f>
         <v>1</v>
       </c>
       <c r="Q26" s="37"/>
@@ -3429,487 +3469,481 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35" t="s">
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" s="42"/>
+      <c r="L28" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="M28" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
+      <c r="N28" s="32">
+        <v>9.25</v>
+      </c>
+      <c r="O28" s="33">
+        <v>1</v>
+      </c>
+      <c r="P28" s="32">
+        <f>N28*O28</f>
+        <v>9.25</v>
+      </c>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C29" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D29" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E29" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38" t="s">
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="39" t="s">
+      <c r="K29" s="38"/>
+      <c r="L29" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="M28" s="31" t="str">
+      <c r="M29" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Amazon</v>
       </c>
-      <c r="N28" s="40">
+      <c r="N29" s="40">
         <v>8.66</v>
       </c>
-      <c r="O28" s="41">
+      <c r="O29" s="41">
         <v>1</v>
       </c>
-      <c r="P28" s="40">
+      <c r="P29" s="40">
         <f t="shared" si="0"/>
         <v>8.66</v>
       </c>
-      <c r="Q28" s="41" t="s">
+      <c r="Q29" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="R28" s="25" t="s">
+      <c r="R29" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="T28">
-        <f>IF(AND(Q28="Nicht Gekauft", R28="Benötigt"), P28, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="U28">
+      <c r="T29">
+        <f>IF(AND(Q29="Nicht Gekauft", R29="Benötigt"), P29, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28" t="s">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C30" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D30" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E30" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42" t="s">
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="K29" s="42"/>
-      <c r="L29" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="M29" s="31" t="str">
+      <c r="K30" s="42"/>
+      <c r="L30" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="M30" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Amazon</v>
       </c>
-      <c r="N29" s="32">
+      <c r="N30" s="32">
         <v>5.99</v>
       </c>
-      <c r="O29" s="33">
+      <c r="O30" s="33">
         <v>1</v>
       </c>
-      <c r="P29" s="32">
+      <c r="P30" s="32">
         <f t="shared" si="0"/>
         <v>5.99</v>
       </c>
-      <c r="Q29" s="33" t="s">
+      <c r="Q30" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="R29" s="34" t="s">
+      <c r="R30" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="T29">
-        <f>IF(AND(Q29="Nicht Gekauft", R29="Benötigt"), P29, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="U29">
+      <c r="T30">
+        <f>IF(AND(Q30="Nicht Gekauft", R30="Benötigt"), P30, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35" t="s">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C31" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D31" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E31" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36" t="s">
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="K30" s="36"/>
-      <c r="L30" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="M30" s="31" t="str">
+      <c r="K31" s="36"/>
+      <c r="L31" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="M31" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Amazon</v>
       </c>
-      <c r="N30" s="40">
+      <c r="N31" s="40">
         <v>18.14</v>
       </c>
-      <c r="O30" s="41">
+      <c r="O31" s="41">
         <v>1</v>
       </c>
-      <c r="P30" s="40">
+      <c r="P31" s="40">
         <f t="shared" si="0"/>
         <v>18.14</v>
       </c>
-      <c r="Q30" s="41" t="s">
+      <c r="Q31" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="R30" s="25" t="s">
+      <c r="R31" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="T30">
-        <f>IF(AND(Q30="Nicht Gekauft", R30="Benötigt"), P30, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="K31" s="42"/>
-      <c r="L31" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="M31" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>DigiKey</v>
-      </c>
-      <c r="N31" s="32">
-        <v>2.91</v>
-      </c>
-      <c r="O31" s="33">
-        <v>2</v>
-      </c>
-      <c r="P31" s="32">
-        <f t="shared" ref="P31:P43" si="6">N31*O31</f>
-        <v>5.82</v>
-      </c>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="34"/>
+      <c r="T31">
+        <f>IF(AND(Q31="Nicht Gekauft", R31="Benötigt"), P31, 0)</f>
+        <v>0</v>
+      </c>
       <c r="U31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="C32" s="36" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="D32" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36" t="s">
+      <c r="C32" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="K32" s="36"/>
-      <c r="L32" s="39" t="s">
-        <v>254</v>
+      <c r="K32" s="42"/>
+      <c r="L32" s="31" t="s">
+        <v>234</v>
       </c>
       <c r="M32" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N32" s="40">
-        <v>0.41</v>
-      </c>
-      <c r="O32" s="41">
-        <v>1</v>
-      </c>
-      <c r="P32" s="40">
-        <f>N32*O32</f>
-        <v>0.41</v>
-      </c>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="25"/>
+      <c r="N32" s="32">
+        <v>2.91</v>
+      </c>
+      <c r="O32" s="33">
+        <v>2</v>
+      </c>
+      <c r="P32" s="32">
+        <f t="shared" ref="P32:P45" si="6">N32*O32</f>
+        <v>5.82</v>
+      </c>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="34"/>
       <c r="U32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42" t="s">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="K33" s="42"/>
-      <c r="L33" s="31" t="s">
-        <v>256</v>
+      <c r="K33" s="36"/>
+      <c r="L33" s="39" t="s">
+        <v>253</v>
       </c>
       <c r="M33" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N33" s="32">
-        <v>0.23</v>
-      </c>
-      <c r="O33" s="33">
+      <c r="N33" s="40">
+        <v>0.41</v>
+      </c>
+      <c r="O33" s="41">
         <v>1</v>
       </c>
-      <c r="P33" s="32">
+      <c r="P33" s="40">
         <f>N33*O33</f>
-        <v>0.23</v>
-      </c>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="34"/>
+        <v>0.41</v>
+      </c>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="25"/>
       <c r="U33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="E34" s="35" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36" t="s">
+      <c r="D34" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="K34" s="36"/>
-      <c r="L34" s="39" t="s">
-        <v>230</v>
+      <c r="K34" s="42"/>
+      <c r="L34" s="31" t="s">
+        <v>255</v>
       </c>
       <c r="M34" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N34" s="40">
-        <v>1.56</v>
-      </c>
-      <c r="O34" s="41">
+      <c r="N34" s="32">
+        <v>0.23</v>
+      </c>
+      <c r="O34" s="33">
         <v>1</v>
       </c>
-      <c r="P34" s="40">
+      <c r="P34" s="32">
         <f>N34*O34</f>
-        <v>1.56</v>
-      </c>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="25"/>
+        <v>0.23</v>
+      </c>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="34"/>
       <c r="U34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28" t="s">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K35" s="36"/>
+      <c r="L35" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="M35" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
+      <c r="N35" s="40">
+        <v>1.56</v>
+      </c>
+      <c r="O35" s="41">
+        <v>1</v>
+      </c>
+      <c r="P35" s="40">
+        <f>N35*O35</f>
+        <v>1.56</v>
+      </c>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="25"/>
+      <c r="U35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36" s="42"/>
+      <c r="L36" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="C35" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="K35" s="42"/>
-      <c r="L35" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="M35" s="31" t="str">
+      <c r="M36" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N35" s="32">
+      <c r="N36" s="32">
         <v>0.47</v>
       </c>
-      <c r="O35" s="33">
+      <c r="O36" s="33">
         <v>1</v>
       </c>
-      <c r="P35" s="32">
+      <c r="P36" s="32">
         <f t="shared" si="6"/>
         <v>0.47</v>
       </c>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="34"/>
-      <c r="U35">
+      <c r="Q36" s="33"/>
+      <c r="R36" s="34"/>
+      <c r="U36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35" t="s">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="35">
+        <v>824521241</v>
+      </c>
+      <c r="E37" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="K37" s="36"/>
+      <c r="L37" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="D36" s="35">
-        <v>824521241</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="K36" s="36"/>
-      <c r="L36" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="M36" s="31" t="str">
+      <c r="M37" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Digikey</v>
       </c>
-      <c r="N36" s="40">
+      <c r="N37" s="40">
         <v>0.3</v>
       </c>
-      <c r="O36" s="41">
+      <c r="O37" s="41">
         <v>1</v>
       </c>
-      <c r="P36" s="40">
+      <c r="P37" s="40">
         <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="25"/>
-      <c r="U36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="K37" s="42"/>
-      <c r="L37" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="M37" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>DigiKey</v>
-      </c>
-      <c r="N37" s="32">
-        <v>5.79</v>
-      </c>
-      <c r="O37" s="33">
-        <v>1</v>
-      </c>
-      <c r="P37" s="32">
-        <f>N37*O37</f>
-        <v>5.79</v>
-      </c>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="34"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="25"/>
       <c r="U37">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3917,19 +3951,19 @@
     </row>
     <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
@@ -3940,51 +3974,40 @@
       </c>
       <c r="K38" s="36"/>
       <c r="L38" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="M38" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>DigiKey</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M38" s="31"/>
       <c r="N38" s="40">
-        <v>4.1399999999999997</v>
+        <v>0.3</v>
       </c>
       <c r="O38" s="41">
         <v>1</v>
       </c>
       <c r="P38" s="40">
-        <f>N38*O38</f>
-        <v>4.1399999999999997</v>
+        <f t="shared" si="6"/>
+        <v>0.3</v>
       </c>
       <c r="Q38" s="41"/>
       <c r="R38" s="25"/>
-      <c r="U38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C39" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="F39" s="28">
-        <v>0.05</v>
-      </c>
-      <c r="G39" s="28">
-        <v>5</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="42"/>
       <c r="J39" s="42" t="s">
@@ -3992,40 +4015,44 @@
       </c>
       <c r="K39" s="42"/>
       <c r="L39" s="31" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="M39" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N39" s="32">
-        <v>2.34</v>
+        <v>5.79</v>
       </c>
       <c r="O39" s="33">
         <v>1</v>
       </c>
-      <c r="P39" s="40">
-        <f t="shared" ref="P39:P40" si="7">N39*O39</f>
-        <v>2.34</v>
+      <c r="P39" s="32">
+        <f>N39*O39</f>
+        <v>5.79</v>
       </c>
       <c r="Q39" s="33"/>
       <c r="R39" s="34"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C40" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
@@ -4036,41 +4063,47 @@
       </c>
       <c r="K40" s="36"/>
       <c r="L40" s="39" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="M40" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N40" s="40">
-        <v>1.17</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="O40" s="41">
         <v>1</v>
       </c>
       <c r="P40" s="40">
-        <f t="shared" si="7"/>
-        <v>1.17</v>
+        <f>N40*O40</f>
+        <v>4.1399999999999997</v>
       </c>
       <c r="Q40" s="41"/>
       <c r="R40" s="25"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
+      <c r="U40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>282</v>
+      </c>
       <c r="B41" s="28" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="C41" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>211</v>
+        <v>284</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>212</v>
+        <v>285</v>
       </c>
       <c r="F41" s="28">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="G41" s="28">
         <v>5</v>
@@ -4082,49 +4115,43 @@
       </c>
       <c r="K41" s="42"/>
       <c r="L41" s="31" t="s">
-        <v>213</v>
+        <v>283</v>
       </c>
       <c r="M41" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N41" s="32">
-        <v>2.5499999999999998</v>
+        <v>2.34</v>
       </c>
       <c r="O41" s="33">
         <v>1</v>
       </c>
-      <c r="P41" s="32">
-        <f t="shared" si="6"/>
-        <v>2.5499999999999998</v>
+      <c r="P41" s="40">
+        <f t="shared" ref="P41:P42" si="7">N41*O41</f>
+        <v>2.34</v>
       </c>
       <c r="Q41" s="33"/>
       <c r="R41" s="34"/>
-      <c r="U41">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
+    </row>
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
+        <v>282</v>
+      </c>
       <c r="B42" s="35" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="C42" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="F42" s="35">
-        <v>0.04</v>
-      </c>
-      <c r="G42" s="35">
-        <v>5</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
       <c r="H42" s="35"/>
       <c r="I42" s="36"/>
       <c r="J42" s="36" t="s">
@@ -4132,42 +4159,38 @@
       </c>
       <c r="K42" s="36"/>
       <c r="L42" s="39" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="M42" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N42" s="40">
-        <v>4.5999999999999996</v>
+        <v>1.17</v>
       </c>
       <c r="O42" s="41">
         <v>1</v>
       </c>
       <c r="P42" s="40">
-        <f t="shared" si="6"/>
-        <v>4.5999999999999996</v>
+        <f t="shared" si="7"/>
+        <v>1.17</v>
       </c>
       <c r="Q42" s="41"/>
       <c r="R42" s="25"/>
-      <c r="U42">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="28" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C43" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F43" s="28">
         <v>0.02</v>
@@ -4182,21 +4205,21 @@
       </c>
       <c r="K43" s="42"/>
       <c r="L43" s="31" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="M43" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N43" s="32">
-        <v>0.6</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="O43" s="33">
         <v>1</v>
       </c>
       <c r="P43" s="32">
         <f t="shared" si="6"/>
-        <v>0.6</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="Q43" s="33"/>
       <c r="R43" s="34"/>
@@ -4208,126 +4231,116 @@
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
       <c r="B44" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>34</v>
+        <v>216</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>45</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
+        <v>219</v>
+      </c>
+      <c r="F44" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="G44" s="35">
+        <v>5</v>
+      </c>
       <c r="H44" s="35"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38" t="s">
+      <c r="I44" s="36"/>
+      <c r="J44" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="K44" s="38"/>
+      <c r="K44" s="36"/>
       <c r="L44" s="39" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="M44" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N44" s="40">
-        <v>0.88</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="O44" s="41">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P44" s="40">
-        <f t="shared" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Q44" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R44" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="S44" s="6"/>
-      <c r="T44">
-        <f t="shared" ref="T44:T49" si="8">IF(AND(Q44="Nicht Gekauft", R44="Benötigt"), P44, 0)</f>
-        <v>8.8000000000000007</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="25"/>
       <c r="U44">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>34</v>
+        <v>221</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
+        <v>223</v>
+      </c>
+      <c r="F45" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="G45" s="28">
+        <v>5</v>
+      </c>
       <c r="H45" s="28"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43" t="s">
+      <c r="I45" s="42"/>
+      <c r="J45" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="K45" s="43"/>
+      <c r="K45" s="42"/>
       <c r="L45" s="31" t="s">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="M45" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N45" s="32">
-        <v>0.56999999999999995</v>
+        <v>0.6</v>
       </c>
       <c r="O45" s="33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P45" s="32">
-        <f t="shared" si="0"/>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="Q45" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R45" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="S45" s="6"/>
-      <c r="T45">
-        <f t="shared" si="8"/>
-        <v>2.2799999999999998</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="34"/>
       <c r="U45">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="35"/>
       <c r="B46" s="35" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C46" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
@@ -4338,21 +4351,21 @@
       </c>
       <c r="K46" s="38"/>
       <c r="L46" s="39" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M46" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N46" s="40">
-        <v>0.55000000000000004</v>
+        <v>0.88</v>
       </c>
       <c r="O46" s="41">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P46" s="40">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Q46" s="41" t="s">
         <v>21</v>
@@ -4362,65 +4375,63 @@
       </c>
       <c r="S46" s="6"/>
       <c r="T46">
-        <f t="shared" si="8"/>
-        <v>2.2000000000000002</v>
+        <f t="shared" ref="T46:T51" si="8">IF(AND(Q46="Nicht Gekauft", R46="Benötigt"), P46, 0)</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="U46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
-        <v>70</v>
-      </c>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
       <c r="B47" s="28" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="F47" s="28"/>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42" t="s">
+      <c r="I47" s="43"/>
+      <c r="J47" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="42"/>
+      <c r="K47" s="43"/>
       <c r="L47" s="31" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="M47" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N47" s="32">
-        <v>1.0900000000000001</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="O47" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P47" s="32">
         <f t="shared" si="0"/>
-        <v>2.1800000000000002</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="Q47" s="33" t="s">
         <v>21</v>
       </c>
       <c r="R47" s="34" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="S47" s="6"/>
       <c r="T47">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="U47">
         <f t="shared" si="2"/>
@@ -4428,58 +4439,54 @@
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="35" t="s">
-        <v>76</v>
-      </c>
+      <c r="A48" s="35"/>
       <c r="B48" s="35" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" s="35">
-        <v>4.0000000000000002E-4</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F48" s="35"/>
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36" t="s">
+      <c r="I48" s="38"/>
+      <c r="J48" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="K48" s="36"/>
+      <c r="K48" s="38"/>
       <c r="L48" s="39" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="M48" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N48" s="40">
-        <v>4.49</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O48" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P48" s="40">
         <f t="shared" si="0"/>
-        <v>8.98</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q48" s="41" t="s">
         <v>21</v>
       </c>
       <c r="R48" s="25" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="S48" s="6"/>
       <c r="T48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="U48">
         <f t="shared" si="2"/>
@@ -4488,55 +4495,55 @@
     </row>
     <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C49" s="28" t="s">
         <v>72</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
       <c r="I49" s="42"/>
       <c r="J49" s="42" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K49" s="42"/>
       <c r="L49" s="31" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="M49" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>Mouser</v>
+        <v>DigiKey</v>
       </c>
       <c r="N49" s="32">
-        <v>2.81</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="O49" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P49" s="32">
         <f t="shared" si="0"/>
-        <v>11.24</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="Q49" s="33" t="s">
         <v>21</v>
       </c>
       <c r="R49" s="34" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="S49" s="6"/>
       <c r="T49">
         <f t="shared" si="8"/>
-        <v>11.24</v>
+        <v>0</v>
       </c>
       <c r="U49">
         <f t="shared" si="2"/>
@@ -4554,39 +4561,49 @@
         <v>72</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F50" s="35"/>
+        <v>79</v>
+      </c>
+      <c r="F50" s="35">
+        <v>4.0000000000000002E-4</v>
+      </c>
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
       <c r="I50" s="36"/>
       <c r="J50" s="36" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="K50" s="36"/>
       <c r="L50" s="39" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="M50" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>3D-Jake</v>
+        <v>DigiKey</v>
       </c>
       <c r="N50" s="40">
-        <v>5.99</v>
+        <v>4.49</v>
       </c>
       <c r="O50" s="41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P50" s="40">
-        <f>N50*O50</f>
-        <v>23.96</v>
-      </c>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="25"/>
+        <f t="shared" si="0"/>
+        <v>8.98</v>
+      </c>
+      <c r="Q50" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="S50" s="6"/>
+      <c r="T50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="U50">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4594,91 +4611,101 @@
     </row>
     <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B51" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="28" t="s">
         <v>72</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" s="28"/>
+        <v>82</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="F51" s="28"/>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
       <c r="I51" s="42"/>
       <c r="J51" s="42" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="K51" s="42"/>
       <c r="L51" s="31" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="M51" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>3D-Jake</v>
+        <v>Mouser</v>
       </c>
       <c r="N51" s="32">
-        <v>2.99</v>
+        <v>2.81</v>
       </c>
       <c r="O51" s="33">
         <v>4</v>
       </c>
       <c r="P51" s="32">
-        <f>N51*O51</f>
-        <v>11.96</v>
-      </c>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="34"/>
+        <f t="shared" si="0"/>
+        <v>11.24</v>
+      </c>
+      <c r="Q51" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R51" s="34" t="s">
+        <v>109</v>
+      </c>
       <c r="S51" s="6"/>
+      <c r="T51">
+        <f t="shared" si="8"/>
+        <v>11.24</v>
+      </c>
       <c r="U51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="35" t="s">
         <v>72</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="E52" s="37" t="s">
-        <v>139</v>
+        <v>131</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>132</v>
       </c>
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
       <c r="I52" s="36"/>
       <c r="J52" s="36" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="K52" s="36"/>
       <c r="L52" s="39" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M52" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>DigiKey</v>
+        <v>3D-Jake</v>
       </c>
       <c r="N52" s="40">
-        <v>0.1</v>
+        <v>5.99</v>
       </c>
       <c r="O52" s="41">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P52" s="40">
         <f>N52*O52</f>
-        <v>1</v>
+        <v>23.96</v>
       </c>
       <c r="Q52" s="41"/>
       <c r="R52" s="25"/>
@@ -4693,41 +4720,39 @@
         <v>70</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="C53" s="42" t="s">
         <v>72</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E53" s="28" t="s">
-        <v>140</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E53" s="28"/>
       <c r="F53" s="28"/>
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
       <c r="I53" s="42"/>
       <c r="J53" s="42" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="K53" s="42"/>
       <c r="L53" s="31" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M53" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>DigiKey</v>
+        <v>3D-Jake</v>
       </c>
       <c r="N53" s="32">
-        <v>5.54</v>
+        <v>2.99</v>
       </c>
       <c r="O53" s="33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P53" s="32">
         <f>N53*O53</f>
-        <v>5.54</v>
+        <v>11.96</v>
       </c>
       <c r="Q53" s="33"/>
       <c r="R53" s="34"/>
@@ -4739,19 +4764,19 @@
     </row>
     <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>237</v>
+        <v>135</v>
       </c>
       <c r="C54" s="36" t="s">
         <v>72</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>240</v>
+        <v>134</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>139</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
@@ -4762,21 +4787,21 @@
       </c>
       <c r="K54" s="36"/>
       <c r="L54" s="39" t="s">
-        <v>238</v>
+        <v>133</v>
       </c>
       <c r="M54" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N54" s="40">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="O54" s="41">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P54" s="40">
         <f>N54*O54</f>
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="41"/>
       <c r="R54" s="25"/>
@@ -4788,19 +4813,19 @@
     </row>
     <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C55" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="29" t="s">
-        <v>103</v>
+      <c r="D55" s="28" t="s">
+        <v>136</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="F55" s="28"/>
       <c r="G55" s="28"/>
@@ -4811,32 +4836,25 @@
       </c>
       <c r="K55" s="42"/>
       <c r="L55" s="31" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="M55" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N55" s="32">
-        <v>16.100000000000001</v>
+        <v>5.54</v>
       </c>
       <c r="O55" s="33">
         <v>1</v>
       </c>
       <c r="P55" s="32">
-        <f t="shared" si="0"/>
-        <v>16.100000000000001</v>
-      </c>
-      <c r="Q55" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R55" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="T55">
-        <f>IF(AND(Q55="Nicht Gekauft", R55="Benötigt"), P55, 0)</f>
-        <v>16.100000000000001</v>
-      </c>
+        <f>N55*O55</f>
+        <v>5.54</v>
+      </c>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="6"/>
       <c r="U55">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4844,55 +4862,56 @@
     </row>
     <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
-        <v>146</v>
+        <v>235</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>102</v>
+        <v>236</v>
       </c>
       <c r="C56" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="37" t="s">
-        <v>145</v>
+      <c r="D56" s="35" t="s">
+        <v>238</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
       <c r="I56" s="36"/>
       <c r="J56" s="36" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="K56" s="36"/>
       <c r="L56" s="39" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="M56" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>Amazon</v>
+        <v>DigiKey</v>
       </c>
       <c r="N56" s="40">
-        <v>6.99</v>
+        <v>0.19</v>
       </c>
       <c r="O56" s="41">
         <v>1</v>
       </c>
       <c r="P56" s="40">
         <f>N56*O56</f>
-        <v>6.99</v>
+        <v>0.19</v>
       </c>
       <c r="Q56" s="41"/>
       <c r="R56" s="25"/>
+      <c r="S56" s="6"/>
       <c r="U56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B57" s="28" t="s">
         <v>102</v>
@@ -4901,38 +4920,46 @@
         <v>72</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="F57" s="28"/>
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
       <c r="I57" s="42"/>
       <c r="J57" s="42" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="K57" s="42"/>
       <c r="L57" s="31" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="M57" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>RobotShop</v>
+        <v>DigiKey</v>
       </c>
       <c r="N57" s="32">
-        <v>9.33</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="O57" s="33">
         <v>1</v>
       </c>
       <c r="P57" s="32">
-        <f>N57*O57</f>
-        <v>9.33</v>
-      </c>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="34"/>
+        <f t="shared" si="0"/>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="Q57" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R57" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="T57">
+        <f>IF(AND(Q57="Nicht Gekauft", R57="Benötigt"), P57, 0)</f>
+        <v>16.100000000000001</v>
+      </c>
       <c r="U57">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4940,7 +4967,7 @@
     </row>
     <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>102</v>
@@ -4949,35 +4976,35 @@
         <v>72</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
       <c r="I58" s="36"/>
       <c r="J58" s="36" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="K58" s="36"/>
       <c r="L58" s="39" t="s">
-        <v>154</v>
+        <v>264</v>
       </c>
       <c r="M58" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>DigiKey</v>
+        <v>Amazon</v>
       </c>
       <c r="N58" s="40">
-        <v>3.39</v>
+        <v>6.99</v>
       </c>
       <c r="O58" s="41">
         <v>1</v>
       </c>
       <c r="P58" s="40">
         <f>N58*O58</f>
-        <v>3.39</v>
+        <v>6.99</v>
       </c>
       <c r="Q58" s="41"/>
       <c r="R58" s="25"/>
@@ -4986,57 +5013,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>60</v>
+        <v>102</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="F59" s="28"/>
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
       <c r="I59" s="42"/>
       <c r="J59" s="42" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="K59" s="42"/>
       <c r="L59" s="31" t="s">
-        <v>264</v>
+        <v>150</v>
       </c>
       <c r="M59" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>Amazon</v>
+        <v>RobotShop</v>
       </c>
       <c r="N59" s="32">
-        <v>16.13</v>
+        <v>9.33</v>
       </c>
       <c r="O59" s="33">
         <v>1</v>
       </c>
       <c r="P59" s="32">
-        <f t="shared" si="0"/>
-        <v>16.13</v>
-      </c>
-      <c r="Q59" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R59" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="T59">
-        <f>IF(AND(Q59="Nicht Gekauft", R59="Benötigt"), P59, 0)</f>
-        <v>16.13</v>
-      </c>
+        <f>N59*O59</f>
+        <v>9.33</v>
+      </c>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="34"/>
       <c r="U59">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5044,19 +5063,19 @@
     </row>
     <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="35" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>64</v>
+        <v>102</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>152</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
@@ -5067,28 +5086,24 @@
       </c>
       <c r="K60" s="36"/>
       <c r="L60" s="39" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="M60" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N60" s="40">
-        <v>2.97</v>
+        <v>3.39</v>
       </c>
       <c r="O60" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P60" s="40">
-        <f t="shared" si="0"/>
-        <v>5.94</v>
-      </c>
-      <c r="Q60" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R60" s="25" t="s">
-        <v>22</v>
-      </c>
+        <f>N60*O60</f>
+        <v>3.39</v>
+      </c>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="25"/>
       <c r="U60">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5096,26 +5111,26 @@
     </row>
     <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>57</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E61" s="28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F61" s="28"/>
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
       <c r="I61" s="42"/>
       <c r="J61" s="42" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="K61" s="42"/>
       <c r="L61" s="31" t="s">
@@ -5123,23 +5138,27 @@
       </c>
       <c r="M61" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>DigiKey</v>
+        <v>Amazon</v>
       </c>
       <c r="N61" s="32">
-        <v>5.92</v>
+        <v>16.13</v>
       </c>
       <c r="O61" s="33">
         <v>1</v>
       </c>
       <c r="P61" s="32">
         <f t="shared" si="0"/>
-        <v>5.92</v>
+        <v>16.13</v>
       </c>
       <c r="Q61" s="33" t="s">
         <v>21</v>
       </c>
       <c r="R61" s="34" t="s">
-        <v>22</v>
+        <v>109</v>
+      </c>
+      <c r="T61">
+        <f>IF(AND(Q61="Nicht Gekauft", R61="Benötigt"), P61, 0)</f>
+        <v>16.13</v>
       </c>
       <c r="U61">
         <f t="shared" si="2"/>
@@ -5157,7 +5176,7 @@
         <v>57</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E62" s="35" t="s">
         <v>65</v>
@@ -5171,21 +5190,21 @@
       </c>
       <c r="K62" s="36"/>
       <c r="L62" s="39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M62" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N62" s="40">
-        <v>2.64</v>
+        <v>2.97</v>
       </c>
       <c r="O62" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P62" s="40">
         <f t="shared" si="0"/>
-        <v>2.64</v>
+        <v>5.94</v>
       </c>
       <c r="Q62" s="41" t="s">
         <v>21</v>
@@ -5193,239 +5212,354 @@
       <c r="R62" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="T62">
-        <f>IF(AND(Q62="Nicht Gekauft", R62="Benötigt"), P62, 0)</f>
-        <v>0</v>
-      </c>
       <c r="U62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="17"/>
-    </row>
-    <row r="65" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F65" s="5" t="s">
+    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K63" s="42"/>
+      <c r="L63" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="M63" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
+      <c r="N63" s="32">
+        <v>5.92</v>
+      </c>
+      <c r="O63" s="33">
+        <v>1</v>
+      </c>
+      <c r="P63" s="32">
+        <f t="shared" si="0"/>
+        <v>5.92</v>
+      </c>
+      <c r="Q63" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R63" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K64" s="36"/>
+      <c r="L64" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M64" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
+      <c r="N64" s="40">
+        <v>2.64</v>
+      </c>
+      <c r="O64" s="41">
+        <v>1</v>
+      </c>
+      <c r="P64" s="40">
+        <f t="shared" si="0"/>
+        <v>2.64</v>
+      </c>
+      <c r="Q64" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="R64" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="T64">
+        <f>IF(AND(Q64="Nicht Gekauft", R64="Benötigt"), P64, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="17"/>
+    </row>
+    <row r="67" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F68" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="G68" s="52" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="53">
+        <f>SUMPRODUCT(F2:F64, O2:O64, U2:U64)</f>
+        <v>4.2199999999999989</v>
+      </c>
+      <c r="G69" s="53" cm="1">
+        <f t="array" ref="G69">SUMPRODUCT((G2:G64=12)*(F2:F64)*(O2:O64)*(U2:U64))</f>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>305</v>
+      </c>
+      <c r="C70" t="s">
+        <v>306</v>
+      </c>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>307</v>
+      </c>
+      <c r="C71" t="s">
+        <v>308</v>
+      </c>
+      <c r="G71" s="52" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G72" s="53" cm="1">
+        <f t="array" ref="G72">SUMPRODUCT((G2:G64=5)*(F2:F64)*(O2:O64)*(U2:U64))</f>
+        <v>2.04</v>
+      </c>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F74" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G74" s="5" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="66" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F66" s="52" t="s">
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F75" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="G75" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="G66" s="52" t="s">
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F76" s="48">
+        <f>F69*$F$79</f>
+        <v>6.3299999999999983</v>
+      </c>
+      <c r="G76" s="48">
+        <f>G69*$F$79</f>
+        <v>3.2700000000000005</v>
+      </c>
+      <c r="H76" s="3"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+    </row>
+    <row r="77" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F78" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="G78" s="47" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="67" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F67" s="53">
-        <f>SUMPRODUCT(F2:F62, O2:O62, U2:U62)</f>
-        <v>4.1599999999999993</v>
-      </c>
-      <c r="G67" s="53" cm="1">
-        <f t="array" ref="G67">SUMPRODUCT((G2:G62=12)*(F2:F62)*(O2:O62)*(U2:U62))</f>
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G69" s="52" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="70" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G70" s="53" cm="1">
-        <f t="array" ref="G70">SUMPRODUCT((G2:G62=5)*(F2:F62)*(O2:O62)*(U2:U62))</f>
-        <v>1.98</v>
-      </c>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F72" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F73" s="47" t="s">
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F79" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="G79" s="48">
+        <f>G72*$F$79</f>
+        <v>3.06</v>
+      </c>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H80" s="3"/>
+      <c r="I80" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F81" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="G82" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="G73" s="47" t="s">
-        <v>275</v>
-      </c>
-      <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F74" s="48">
-        <f>F67*$F$77</f>
-        <v>6.2399999999999984</v>
-      </c>
-      <c r="G74" s="48">
-        <f>G67*$F$77</f>
-        <v>3.2700000000000005</v>
-      </c>
-      <c r="H74" s="3"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-    </row>
-    <row r="75" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F76" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="G76" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F77" s="51">
-        <v>1.5</v>
-      </c>
-      <c r="G77" s="48">
-        <f>G70*$F$77</f>
-        <v>2.9699999999999998</v>
-      </c>
-      <c r="H77" s="3"/>
-    </row>
-    <row r="78" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H78" s="3"/>
-      <c r="I78" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F79" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="80" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F80" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="G80" s="55" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="81" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F81" s="56">
+    </row>
+    <row r="83" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="56">
         <v>5.5888</v>
       </c>
-      <c r="G81" s="57">
+      <c r="G83" s="57">
         <v>3.04</v>
-      </c>
-    </row>
-    <row r="82" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F82" s="49"/>
-      <c r="G82" s="49"/>
-    </row>
-    <row r="83" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F83" s="49"/>
-      <c r="G83" s="54" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="84" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F84" s="49"/>
-      <c r="G84" s="56">
+      <c r="G84" s="49"/>
+    </row>
+    <row r="85" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F85" s="49"/>
+      <c r="G85" s="54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F86" s="49"/>
+      <c r="G86" s="56">
         <v>2.548</v>
-      </c>
-    </row>
-    <row r="86" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F86" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="87" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F87" t="s">
-        <v>291</v>
-      </c>
-      <c r="G87">
-        <v>8</v>
       </c>
     </row>
     <row r="88" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
-        <v>292</v>
-      </c>
-      <c r="G88">
-        <v>5</v>
+        <v>289</v>
       </c>
     </row>
     <row r="89" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G89">
-        <v>0.05</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>291</v>
+      </c>
+      <c r="G90">
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="92" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F92" t="s">
-        <v>294</v>
-      </c>
-      <c r="G92">
-        <f>G87-G74</f>
-        <v>4.7299999999999995</v>
+        <v>292</v>
+      </c>
+      <c r="G91">
+        <v>0.05</v>
       </c>
     </row>
     <row r="93" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
-        <v>295</v>
-      </c>
-      <c r="G93">
-        <f>G88+G89-G77</f>
-        <v>2.08</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>293</v>
+      </c>
+      <c r="G94">
+        <f>G89-G76</f>
+        <v>4.7299999999999995</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>294</v>
+      </c>
+      <c r="G95">
+        <f>G90+G91-G79</f>
+        <v>1.9899999999999998</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R62" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
+  <autoFilter ref="A1:R64" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
     <filterColumn colId="0">
       <filters blank="1">
         <filter val="ACC3"/>
         <filter val="BF4"/>
         <filter val="BP2"/>
         <filter val="F2"/>
-        <filter val="POW2"/>
         <filter val="S1"/>
         <filter val="SP2"/>
         <filter val="TP2"/>
@@ -5433,12 +5567,45 @@
     </filterColumn>
   </autoFilter>
   <customSheetViews>
+    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A1:R60" xr:uid="{5C2FA3F9-BB88-4AE9-BDB1-2634FA3DE481}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A1:R59" xr:uid="{EB4F4FEB-B098-4AD4-A8CB-E1EF5FA87052}"/>
+    </customSheetView>
+    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A1:R59" xr:uid="{12137C77-B4BF-4599-9E37-142A08AB832F}"/>
+    </customSheetView>
     <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R62" xr:uid="{02D4D05E-22F6-4468-9979-51C6FBB75016}">
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A1:R62" xr:uid="{D499083E-E6EE-4BCD-A092-38E8A2F94FCA}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -5446,39 +5613,6 @@
             <filter val="BP2"/>
             <filter val="F2"/>
             <filter val="POW2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R59" xr:uid="{80BB990E-581D-4117-B12D-9E1E3A3EDFF2}"/>
-    </customSheetView>
-    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R59" xr:uid="{6817E049-AE4D-453D-9C70-25EEE41FA076}"/>
-    </customSheetView>
-    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R60" xr:uid="{05898425-2B4B-4922-8946-8D2313CCA35E}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
             <filter val="S1"/>
             <filter val="SP2"/>
             <filter val="TP2"/>
@@ -5506,7 +5640,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q25 Q28:Q68 Q70:Q1048576">
+  <conditionalFormatting sqref="Q1:Q25 Q29:Q70 Q72:Q1048576">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Nicht Gekauft"</formula>
     </cfRule>
@@ -5522,7 +5656,7 @@
       <formula>"Gekauft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R25 R28:R63">
+  <conditionalFormatting sqref="R2:R25 R29:R65">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Nicht benötigt"</formula>
     </cfRule>
@@ -5531,37 +5665,37 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R25 R28:R63" xr:uid="{DF639F38-DCBF-4FB0-9016-BE70B5447265}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R25 R29:R65" xr:uid="{DF639F38-DCBF-4FB0-9016-BE70B5447265}">
       <formula1>"Benötigt,Nicht benötigt"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q25 Q28:Q63" xr:uid="{BB82D80E-695D-4A38-A148-48463DFE8321}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q25 Q29:Q65" xr:uid="{BB82D80E-695D-4A38-A148-48463DFE8321}">
       <formula1>"Gekauft,Nicht Gekauft"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId5" xr:uid="{134576B2-6870-47F8-80B5-95CA9B97F9E2}"/>
-    <hyperlink ref="L44" r:id="rId6" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
-    <hyperlink ref="L45" r:id="rId7" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
-    <hyperlink ref="L46" r:id="rId8" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
-    <hyperlink ref="L28" r:id="rId9" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
-    <hyperlink ref="L60" r:id="rId10" xr:uid="{9A0B0992-EB9B-485C-8743-AB5373B961C2}"/>
-    <hyperlink ref="L62" r:id="rId11" xr:uid="{B67FB571-1B87-4184-A2B3-AF411BD87D35}"/>
-    <hyperlink ref="L48" r:id="rId12" xr:uid="{57963C92-CE56-4D91-B1F1-7FA05F5BC3A8}"/>
-    <hyperlink ref="L47" r:id="rId13" xr:uid="{9D795571-0999-43FF-9A1F-496FF99C86C0}"/>
-    <hyperlink ref="L49" r:id="rId14" xr:uid="{8465788D-FDE3-460C-960F-435D2FB5F396}"/>
+    <hyperlink ref="L46" r:id="rId6" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
+    <hyperlink ref="L47" r:id="rId7" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
+    <hyperlink ref="L48" r:id="rId8" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
+    <hyperlink ref="L29" r:id="rId9" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
+    <hyperlink ref="L62" r:id="rId10" xr:uid="{9A0B0992-EB9B-485C-8743-AB5373B961C2}"/>
+    <hyperlink ref="L64" r:id="rId11" xr:uid="{B67FB571-1B87-4184-A2B3-AF411BD87D35}"/>
+    <hyperlink ref="L50" r:id="rId12" xr:uid="{57963C92-CE56-4D91-B1F1-7FA05F5BC3A8}"/>
+    <hyperlink ref="L49" r:id="rId13" xr:uid="{9D795571-0999-43FF-9A1F-496FF99C86C0}"/>
+    <hyperlink ref="L51" r:id="rId14" xr:uid="{8465788D-FDE3-460C-960F-435D2FB5F396}"/>
     <hyperlink ref="L10" r:id="rId15" xr:uid="{A9D6150D-3C06-4D81-AD60-047F4F409296}"/>
     <hyperlink ref="L11" r:id="rId16" xr:uid="{411A7094-1AC1-4084-ABE4-5C0060EC1A2D}"/>
     <hyperlink ref="L12" r:id="rId17" xr:uid="{3DDB6C5A-7DB3-4C65-B604-D02293535F49}"/>
     <hyperlink ref="L7" r:id="rId18" xr:uid="{56E44BCE-942A-4E32-8574-907151789664}"/>
-    <hyperlink ref="L55" r:id="rId19" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
+    <hyperlink ref="L57" r:id="rId19" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
     <hyperlink ref="L3" r:id="rId20" xr:uid="{C49F6822-A4DD-42C2-B3BF-0381D137937C}"/>
     <hyperlink ref="L5" r:id="rId21" xr:uid="{BF0FEABB-4850-4BC5-A11D-D889C6B926FD}"/>
     <hyperlink ref="L8" r:id="rId22" xr:uid="{21389653-C0FE-46E1-B136-04B9A0DE28C5}"/>
-    <hyperlink ref="L50" r:id="rId23" xr:uid="{1242A3DC-9FDC-4C47-9270-1B4A92E75E73}"/>
+    <hyperlink ref="L52" r:id="rId23" xr:uid="{1242A3DC-9FDC-4C47-9270-1B4A92E75E73}"/>
     <hyperlink ref="L26" r:id="rId24" xr:uid="{3ED73B15-E49B-4E21-BF8D-06828BFBADB2}"/>
     <hyperlink ref="L9" r:id="rId25" xr:uid="{E62708AD-A075-4D9D-9BC8-2CBD617B66EE}"/>
     <hyperlink ref="L27" r:id="rId26" xr:uid="{488C7B18-56E0-4061-83E3-FAA678922DF9}"/>
-    <hyperlink ref="L32" r:id="rId27" xr:uid="{02A8F53B-7033-433E-97B4-37D43B10ABDE}"/>
+    <hyperlink ref="L33" r:id="rId27" xr:uid="{02A8F53B-7033-433E-97B4-37D43B10ABDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>

--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13198BC6-8EBC-4816-A345-6974DA9DA442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD2D1EC-0194-46FE-8F74-BFD10B371034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
     <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="337">
   <si>
     <t>Alternative</t>
   </si>
@@ -1001,6 +1001,90 @@
   </si>
   <si>
     <t>https://www.digikey.at/de/products/detail/samtec-inc/TS-103-T-A/1105491</t>
+  </si>
+  <si>
+    <t>M40-3200345R</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/en/products/detail/harwin-inc/M40-3200345R/2657728</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/en/products/detail/molex-llc/5013300200/1531499</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/en/products/detail/wurth-electronics-inc/665103131822/5047562</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/en/products/detail/w%C3%BCrth-elektronik/665003113322/5047511</t>
+  </si>
+  <si>
+    <t>3 pin header</t>
+  </si>
+  <si>
+    <t>3 pin bridge</t>
+  </si>
+  <si>
+    <t>2 pin bridge</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/en/products/detail/w%C3%BCrth-elektronik/665002113322/5047510</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/en/products/detail/wurth-electronics-inc/665102131822/5047561</t>
+  </si>
+  <si>
+    <t>2 pin header</t>
+  </si>
+  <si>
+    <t>FTSH-103-01-L-DH</t>
+  </si>
+  <si>
+    <t>3x2 pin header 1mm pitch</t>
+  </si>
+  <si>
+    <t>3x2 pin header 1.27mm pitch</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/en/products/detail/harwin-inc/M50-1900005/2890862</t>
+  </si>
+  <si>
+    <t>M50-1900005</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/en/products/detail/samtec-inc/FTSH-103-01-L-DH/1110175</t>
+  </si>
+  <si>
+    <t>3 pin Header</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/en/products/detail/samtec-inc/FTS-103-01-F-S/6691816?curr=eur&amp;utm_campaign=buynow&amp;utm_medium=aggregator&amp;utm_source=octopart</t>
+  </si>
+  <si>
+    <t>FTS-103-01-F-S</t>
+  </si>
+  <si>
+    <t>1mm pitch</t>
+  </si>
+  <si>
+    <t>1.27mm pitch</t>
+  </si>
+  <si>
+    <t>SPM10040T-4R7M-HZ</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/en/products/detail/tdk-corporation/SPM10040T-4R7M-HZ/8637498</t>
+  </si>
+  <si>
+    <t>IHLP2525CZER3R3M11</t>
+  </si>
+  <si>
+    <t>Spule, 4u7, 13A</t>
+  </si>
+  <si>
+    <t>Spule 3u3, 7A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/en/products/detail/vishay-dale/IHLP2525CZER3R3M11/5419141</t>
   </si>
 </sst>
 </file>
@@ -1990,8 +2074,8 @@
   <dimension ref="A1:AD95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5392,6 +5476,9 @@
       </c>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>329</v>
+      </c>
       <c r="G72" s="53" cm="1">
         <f t="array" ref="G72">SUMPRODUCT((G2:G64=5)*(F2:F64)*(O2:O64)*(U2:U64))</f>
         <v>2.04</v>
@@ -5399,9 +5486,27 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>321</v>
+      </c>
+      <c r="B73" t="s">
+        <v>309</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>316</v>
+      </c>
+      <c r="B74">
+        <v>5013300200</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>311</v>
+      </c>
       <c r="F74" s="5" t="s">
         <v>279</v>
       </c>
@@ -5411,6 +5516,15 @@
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>314</v>
+      </c>
+      <c r="B75">
+        <v>665103131822</v>
+      </c>
+      <c r="C75" t="s">
+        <v>312</v>
+      </c>
       <c r="F75" s="47" t="s">
         <v>273</v>
       </c>
@@ -5420,6 +5534,15 @@
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>315</v>
+      </c>
+      <c r="B76">
+        <v>665003113322</v>
+      </c>
+      <c r="C76" t="s">
+        <v>313</v>
+      </c>
       <c r="F76" s="48">
         <f>F69*$F$79</f>
         <v>6.3299999999999983</v>
@@ -5436,6 +5559,9 @@
       <c r="H77" s="3"/>
     </row>
     <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>330</v>
+      </c>
       <c r="F78" s="50" t="s">
         <v>280</v>
       </c>
@@ -5445,6 +5571,15 @@
       <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>322</v>
+      </c>
+      <c r="B79" t="s">
+        <v>320</v>
+      </c>
+      <c r="C79" t="s">
+        <v>325</v>
+      </c>
       <c r="F79" s="51">
         <v>1.5</v>
       </c>
@@ -5455,12 +5590,21 @@
       <c r="H79" s="3"/>
     </row>
     <row r="80" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>316</v>
+      </c>
+      <c r="B80" t="s">
+        <v>324</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>323</v>
+      </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F81" s="5" t="s">
         <v>277</v>
       </c>
@@ -5468,7 +5612,16 @@
         <v>277</v>
       </c>
     </row>
-    <row r="82" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>326</v>
+      </c>
+      <c r="B82" t="s">
+        <v>328</v>
+      </c>
+      <c r="C82" t="s">
+        <v>327</v>
+      </c>
       <c r="F82" s="54" t="s">
         <v>273</v>
       </c>
@@ -5476,7 +5629,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="83" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F83" s="56">
         <v>5.5888</v>
       </c>
@@ -5484,28 +5637,58 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="84" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>329</v>
+      </c>
       <c r="F84" s="49"/>
       <c r="G84" s="49"/>
     </row>
-    <row r="85" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>316</v>
+      </c>
+      <c r="B85">
+        <v>665002113322</v>
+      </c>
+      <c r="C85" t="s">
+        <v>317</v>
+      </c>
       <c r="F85" s="49"/>
       <c r="G85" s="54" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="86" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>319</v>
+      </c>
+      <c r="B86">
+        <v>665102131822</v>
+      </c>
+      <c r="C86" t="s">
+        <v>318</v>
+      </c>
       <c r="F86" s="49"/>
       <c r="G86" s="56">
         <v>2.548</v>
       </c>
     </row>
-    <row r="88" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="89" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>334</v>
+      </c>
+      <c r="B89" t="s">
+        <v>331</v>
+      </c>
+      <c r="C89" t="s">
+        <v>332</v>
+      </c>
       <c r="F89" t="s">
         <v>290</v>
       </c>
@@ -5513,7 +5696,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>335</v>
+      </c>
+      <c r="B90" t="s">
+        <v>333</v>
+      </c>
+      <c r="C90" t="s">
+        <v>336</v>
+      </c>
       <c r="F90" t="s">
         <v>291</v>
       </c>
@@ -5521,7 +5713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
         <v>292</v>
       </c>
@@ -5529,12 +5721,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="93" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F94" t="s">
         <v>293</v>
       </c>
@@ -5543,7 +5735,7 @@
         <v>4.7299999999999995</v>
       </c>
     </row>
-    <row r="95" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F95" t="s">
         <v>294</v>
       </c>
@@ -5567,18 +5759,19 @@
     </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
+    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
+      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R60" xr:uid="{5C2FA3F9-BB88-4AE9-BDB1-2634FA3DE481}">
+      <autoFilter ref="A1:R62" xr:uid="{B9F09819-A578-4ECF-BA74-FAFDC459E46B}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
             <filter val="BF4"/>
             <filter val="BP2"/>
             <filter val="F2"/>
+            <filter val="POW2"/>
             <filter val="S1"/>
             <filter val="SP2"/>
             <filter val="TP2"/>
@@ -5586,33 +5779,32 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
+    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A1:R59" xr:uid="{211813FF-25D2-4D25-9B65-9257461376E3}"/>
+    </customSheetView>
     <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R59" xr:uid="{EB4F4FEB-B098-4AD4-A8CB-E1EF5FA87052}"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A1:R59" xr:uid="{5E167558-ED27-409A-BDDA-6C1F2E99EB4F}"/>
     </customSheetView>
-    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
+    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R59" xr:uid="{12137C77-B4BF-4599-9E37-142A08AB832F}"/>
-    </customSheetView>
-    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R62" xr:uid="{D499083E-E6EE-4BCD-A092-38E8A2F94FCA}">
+      <autoFilter ref="A1:R60" xr:uid="{A7860AD1-FE22-449E-85C3-EA62C3528D15}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
             <filter val="BF4"/>
             <filter val="BP2"/>
             <filter val="F2"/>
-            <filter val="POW2"/>
             <filter val="S1"/>
             <filter val="SP2"/>
             <filter val="TP2"/>
@@ -5696,8 +5888,11 @@
     <hyperlink ref="L9" r:id="rId25" xr:uid="{E62708AD-A075-4D9D-9BC8-2CBD617B66EE}"/>
     <hyperlink ref="L27" r:id="rId26" xr:uid="{488C7B18-56E0-4061-83E3-FAA678922DF9}"/>
     <hyperlink ref="L33" r:id="rId27" xr:uid="{02A8F53B-7033-433E-97B4-37D43B10ABDE}"/>
+    <hyperlink ref="C73" r:id="rId28" xr:uid="{F989E443-6F04-45A5-A5B6-83699464B796}"/>
+    <hyperlink ref="C74" r:id="rId29" xr:uid="{EA26BA1A-7CE5-4F25-9686-9C9961368AD7}"/>
+    <hyperlink ref="C80" r:id="rId30" xr:uid="{627D7733-F0E4-49C3-A927-788CACD174D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD2D1EC-0194-46FE-8F74-BFD10B371034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAA40FB-4947-499C-9F07-3B0A3DAD9FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
     <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2074,8 +2074,8 @@
   <dimension ref="A1:AD95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5759,12 +5759,45 @@
     </filterColumn>
   </autoFilter>
   <customSheetViews>
+    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A1:R60" xr:uid="{295BE6A1-DF71-41DB-94C7-7837EDCDE11B}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A1:R59" xr:uid="{9A3F37CD-16ED-4594-BA05-4EDD4C42FF90}"/>
+    </customSheetView>
+    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A1:R59" xr:uid="{EDDF351F-117D-4CBE-9584-2D660F584372}"/>
+    </customSheetView>
     <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R62" xr:uid="{B9F09819-A578-4ECF-BA74-FAFDC459E46B}">
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A1:R62" xr:uid="{D2F7AB5A-BFBE-4552-87D4-1589C9F803D8}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -5772,39 +5805,6 @@
             <filter val="BP2"/>
             <filter val="F2"/>
             <filter val="POW2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R59" xr:uid="{211813FF-25D2-4D25-9B65-9257461376E3}"/>
-    </customSheetView>
-    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R59" xr:uid="{5E167558-ED27-409A-BDDA-6C1F2E99EB4F}"/>
-    </customSheetView>
-    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R60" xr:uid="{A7860AD1-FE22-449E-85C3-EA62C3528D15}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
             <filter val="S1"/>
             <filter val="SP2"/>
             <filter val="TP2"/>

--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAA40FB-4947-499C-9F07-3B0A3DAD9FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925D9FAF-93FD-4548-B576-1E185057F4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
     <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="353">
   <si>
     <t>Alternative</t>
   </si>
@@ -1085,6 +1085,54 @@
   </si>
   <si>
     <t>https://www.digikey.at/en/products/detail/vishay-dale/IHLP2525CZER3R3M11/5419141</t>
+  </si>
+  <si>
+    <t>Neuer stecker</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>samtec-config</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>https://suddendocs.samtec.com/catalog_english/hle.pdf</t>
+  </si>
+  <si>
+    <t>HLE-107-02-L-DV</t>
+  </si>
+  <si>
+    <t>https://www.samtec.com/products/hle-107-02-l-dv</t>
+  </si>
+  <si>
+    <t>digikey</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/en/products/detail/samtec-inc/HLE-107-02-L-DV/6693078</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>allgemeine ressources</t>
+  </si>
+  <si>
+    <t>https://www.samtec.com/flex-stacking/standard/100-pitch-terminals/</t>
+  </si>
+  <si>
+    <t>https://suddendocs.samtec.com/catalog_english/a-tsm.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSM-107-04-L-DV </t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/en/products/detail/samtec-inc/TSM-107-04-L-DV/7638934</t>
+  </si>
+  <si>
+    <t>https://www.samtec.com/products/tsm-107-04-l-dv</t>
   </si>
 </sst>
 </file>
@@ -2071,11 +2119,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AD95"/>
+  <dimension ref="A1:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5721,12 +5769,35 @@
         <v>0.05</v>
       </c>
     </row>
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>337</v>
+      </c>
+      <c r="B92" t="s">
+        <v>347</v>
+      </c>
+      <c r="C92" t="s">
+        <v>348</v>
+      </c>
+    </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>338</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="F93" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>339</v>
+      </c>
+      <c r="C94" t="s">
+        <v>343</v>
+      </c>
       <c r="F94" t="s">
         <v>293</v>
       </c>
@@ -5736,12 +5807,59 @@
       </c>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>340</v>
+      </c>
+      <c r="C95" t="s">
+        <v>341</v>
+      </c>
       <c r="F95" t="s">
         <v>294</v>
       </c>
       <c r="G95">
         <f>G90+G91-G79</f>
         <v>1.9899999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>344</v>
+      </c>
+      <c r="C96" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>346</v>
+      </c>
+      <c r="B99" s="6"/>
+    </row>
+    <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>339</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>340</v>
+      </c>
+      <c r="C101" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>344</v>
+      </c>
+      <c r="C102" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -5759,18 +5877,19 @@
     </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
+    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
+      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R60" xr:uid="{295BE6A1-DF71-41DB-94C7-7837EDCDE11B}">
+      <autoFilter ref="A1:R62" xr:uid="{EEE402BD-B8CC-49C7-A446-2FE651B6D7AC}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
             <filter val="BF4"/>
             <filter val="BP2"/>
             <filter val="F2"/>
+            <filter val="POW2"/>
             <filter val="S1"/>
             <filter val="SP2"/>
             <filter val="TP2"/>
@@ -5778,33 +5897,32 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
+    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A1:R59" xr:uid="{79D92D3E-286D-4993-A74E-06CBA6A73131}"/>
+    </customSheetView>
     <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R59" xr:uid="{9A3F37CD-16ED-4594-BA05-4EDD4C42FF90}"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A1:R59" xr:uid="{4814F0E0-479A-4F73-9BA7-7AA1FD9D690E}"/>
     </customSheetView>
-    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
+    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R59" xr:uid="{EDDF351F-117D-4CBE-9584-2D660F584372}"/>
-    </customSheetView>
-    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R62" xr:uid="{D2F7AB5A-BFBE-4552-87D4-1589C9F803D8}">
+      <autoFilter ref="A1:R60" xr:uid="{8A29F857-18B3-4055-8510-7E8A92279CCD}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
             <filter val="BF4"/>
             <filter val="BP2"/>
             <filter val="F2"/>
-            <filter val="POW2"/>
             <filter val="S1"/>
             <filter val="SP2"/>
             <filter val="TP2"/>
@@ -5891,8 +6009,11 @@
     <hyperlink ref="C73" r:id="rId28" xr:uid="{F989E443-6F04-45A5-A5B6-83699464B796}"/>
     <hyperlink ref="C74" r:id="rId29" xr:uid="{EA26BA1A-7CE5-4F25-9686-9C9961368AD7}"/>
     <hyperlink ref="C80" r:id="rId30" xr:uid="{627D7733-F0E4-49C3-A927-788CACD174D1}"/>
+    <hyperlink ref="B93" r:id="rId31" display="https://www.samtec.com/products/hle-107-02-l-dv" xr:uid="{05E67635-DC20-4D0B-937A-E1A05B41BF9B}"/>
+    <hyperlink ref="B100" r:id="rId32" display="https://www.samtec.com/products/tsm-107-04-l-dv" xr:uid="{1C96A744-ED9F-48B3-AD1D-5704F3392B1B}"/>
+    <hyperlink ref="C100" r:id="rId33" xr:uid="{9FC22445-D9EC-4755-88E1-E765234394E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925D9FAF-93FD-4548-B576-1E185057F4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0609FFDC-508A-49A3-91A4-9A336BB6D373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
     <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="352">
   <si>
     <t>Alternative</t>
   </si>
@@ -779,9 +779,6 @@
   </si>
   <si>
     <t>https://www.digikey.de/en/products/detail/renesas-electronics-corporation/RJK0456DPB-00-J5/2694914</t>
-  </si>
-  <si>
-    <t>TP4</t>
   </si>
   <si>
     <t>SMD Temperatursensor</t>
@@ -2122,8 +2119,8 @@
   <dimension ref="A1:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M91" sqref="M91"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2173,7 +2170,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>122</v>
@@ -2188,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N1" s="24" t="s">
         <v>9</v>
@@ -2215,7 +2212,7 @@
         <v>14</v>
       </c>
       <c r="U1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X1" s="60" t="s">
         <v>106</v>
@@ -2461,24 +2458,24 @@
       <c r="Y5" s="65"/>
       <c r="Z5" s="12">
         <f>SUBTOTAL(9,P1:P64)</f>
-        <v>202.76000000000002</v>
+        <v>234.87000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>268</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>269</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>271</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>272</v>
       </c>
       <c r="F6" s="35">
         <v>0.5</v>
@@ -2493,7 +2490,7 @@
       </c>
       <c r="K6" s="38"/>
       <c r="L6" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M6" s="31"/>
       <c r="N6" s="40">
@@ -2579,7 +2576,7 @@
       <c r="Y7" s="63"/>
       <c r="Z7" s="9">
         <f>SUBTOTAL(9,T1:T64)</f>
-        <v>30.18</v>
+        <v>41.42</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -2879,7 +2876,7 @@
       </c>
       <c r="K13" s="42"/>
       <c r="L13" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M13" s="31" t="str">
         <f t="shared" si="1"/>
@@ -2935,7 +2932,7 @@
       </c>
       <c r="K14" s="36"/>
       <c r="L14" s="39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M14" s="31" t="str">
         <f t="shared" si="1"/>
@@ -2983,7 +2980,7 @@
       </c>
       <c r="K15" s="42"/>
       <c r="L15" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M15" s="31" t="str">
         <f t="shared" si="1"/>
@@ -3165,7 +3162,7 @@
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C19" s="42" t="s">
         <v>87</v>
@@ -3604,16 +3601,16 @@
     <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
       <c r="B28" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>85</v>
       </c>
       <c r="D28" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="E28" s="28" t="s">
         <v>302</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>303</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
@@ -3624,7 +3621,7 @@
       </c>
       <c r="K28" s="42"/>
       <c r="L28" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M28" s="31" t="str">
         <f t="shared" si="1"/>
@@ -3720,7 +3717,7 @@
       </c>
       <c r="K30" s="42"/>
       <c r="L30" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M30" s="31" t="str">
         <f t="shared" si="1"/>
@@ -3774,7 +3771,7 @@
       </c>
       <c r="K31" s="36"/>
       <c r="L31" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M31" s="31" t="str">
         <f t="shared" si="1"/>
@@ -3814,10 +3811,10 @@
         <v>232</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
@@ -3854,16 +3851,16 @@
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C33" s="36" t="s">
         <v>232</v>
       </c>
       <c r="D33" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="E33" s="35" t="s">
         <v>251</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>252</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
@@ -3874,7 +3871,7 @@
       </c>
       <c r="K33" s="36"/>
       <c r="L33" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M33" s="31" t="str">
         <f t="shared" si="1"/>
@@ -3900,16 +3897,16 @@
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
       <c r="B34" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C34" s="42" t="s">
         <v>232</v>
       </c>
       <c r="D34" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="E34" s="28" t="s">
         <v>256</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>257</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
@@ -3920,7 +3917,7 @@
       </c>
       <c r="K34" s="42"/>
       <c r="L34" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M34" s="31" t="str">
         <f t="shared" si="1"/>
@@ -4083,19 +4080,19 @@
     </row>
     <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C38" s="36" t="s">
         <v>204</v>
       </c>
       <c r="D38" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="E38" s="35" t="s">
         <v>297</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>298</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
@@ -4106,7 +4103,7 @@
       </c>
       <c r="K38" s="36"/>
       <c r="L38" s="39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M38" s="31"/>
       <c r="N38" s="40">
@@ -4124,19 +4121,19 @@
     </row>
     <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C39" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
@@ -4147,7 +4144,7 @@
       </c>
       <c r="K39" s="42"/>
       <c r="L39" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M39" s="31" t="str">
         <f t="shared" si="1"/>
@@ -4172,19 +4169,19 @@
     </row>
     <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C40" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
@@ -4195,7 +4192,7 @@
       </c>
       <c r="K40" s="36"/>
       <c r="L40" s="39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M40" s="31" t="str">
         <f t="shared" si="1"/>
@@ -4220,19 +4217,19 @@
     </row>
     <row r="41" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C41" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D41" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="E41" s="28" t="s">
         <v>284</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>285</v>
       </c>
       <c r="F41" s="28">
         <v>0.05</v>
@@ -4247,7 +4244,7 @@
       </c>
       <c r="K41" s="42"/>
       <c r="L41" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M41" s="31" t="str">
         <f t="shared" si="1"/>
@@ -4268,19 +4265,19 @@
     </row>
     <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C42" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D42" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="E42" s="35" t="s">
         <v>287</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>288</v>
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
@@ -4291,7 +4288,7 @@
       </c>
       <c r="K42" s="36"/>
       <c r="L42" s="39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M42" s="31" t="str">
         <f t="shared" si="1"/>
@@ -4625,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>70</v>
       </c>
@@ -4741,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>81</v>
       </c>
@@ -4847,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>70</v>
       </c>
@@ -4894,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
         <v>70</v>
       </c>
@@ -4943,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>70</v>
       </c>
@@ -4992,21 +4989,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="35" t="s">
         <v>235</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>236</v>
       </c>
       <c r="C56" s="36" t="s">
         <v>72</v>
       </c>
       <c r="D56" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E56" s="35" t="s">
         <v>238</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>239</v>
       </c>
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
@@ -5017,7 +5014,7 @@
       </c>
       <c r="K56" s="36"/>
       <c r="L56" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M56" s="31" t="str">
         <f t="shared" si="1"/>
@@ -5122,7 +5119,7 @@
       </c>
       <c r="K58" s="36"/>
       <c r="L58" s="39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M58" s="31" t="str">
         <f t="shared" si="1"/>
@@ -5266,7 +5263,7 @@
       </c>
       <c r="K61" s="42"/>
       <c r="L61" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M61" s="31" t="str">
         <f t="shared" si="1"/>
@@ -5374,7 +5371,7 @@
       </c>
       <c r="K63" s="42"/>
       <c r="L63" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M63" s="31" t="str">
         <f t="shared" si="1"/>
@@ -5478,18 +5475,18 @@
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F67" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F68" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="G68" s="52" t="s">
         <v>273</v>
-      </c>
-      <c r="G68" s="52" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5505,27 +5502,27 @@
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
+        <v>304</v>
+      </c>
+      <c r="C70" t="s">
         <v>305</v>
-      </c>
-      <c r="C70" t="s">
-        <v>306</v>
       </c>
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
+        <v>306</v>
+      </c>
+      <c r="C71" t="s">
         <v>307</v>
       </c>
-      <c r="C71" t="s">
-        <v>308</v>
-      </c>
       <c r="G71" s="52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G72" s="53" cm="1">
         <f t="array" ref="G72">SUMPRODUCT((G2:G64=5)*(F2:F64)*(O2:O64)*(U2:U64))</f>
@@ -5535,61 +5532,61 @@
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B73" t="s">
+        <v>308</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B74">
         <v>5013300200</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B75">
         <v>665103131822</v>
       </c>
       <c r="C75" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F75" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="G75" s="47" t="s">
         <v>273</v>
-      </c>
-      <c r="G75" s="47" t="s">
-        <v>274</v>
       </c>
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B76">
         <v>665003113322</v>
       </c>
       <c r="C76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F76" s="48">
         <f>F69*$F$79</f>
@@ -5608,25 +5605,25 @@
     </row>
     <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F78" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G78" s="47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B79" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C79" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F79" s="51">
         <v>1.5</v>
@@ -5639,13 +5636,13 @@
     </row>
     <row r="80" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B80" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3" t="s">
@@ -5654,27 +5651,27 @@
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F81" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>325</v>
+      </c>
+      <c r="B82" t="s">
+        <v>327</v>
+      </c>
+      <c r="C82" t="s">
         <v>326</v>
       </c>
-      <c r="B82" t="s">
-        <v>328</v>
-      </c>
-      <c r="C82" t="s">
-        <v>327</v>
-      </c>
       <c r="F82" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="G82" s="55" t="s">
         <v>273</v>
-      </c>
-      <c r="G82" s="55" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5687,35 +5684,35 @@
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F84" s="49"/>
       <c r="G84" s="49"/>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B85">
         <v>665002113322</v>
       </c>
       <c r="C85" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F85" s="49"/>
       <c r="G85" s="54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B86">
         <v>665102131822</v>
       </c>
       <c r="C86" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F86" s="49"/>
       <c r="G86" s="56">
@@ -5724,21 +5721,21 @@
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B89" t="s">
+        <v>330</v>
+      </c>
+      <c r="C89" t="s">
         <v>331</v>
       </c>
-      <c r="C89" t="s">
-        <v>332</v>
-      </c>
       <c r="F89" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G89">
         <v>8</v>
@@ -5746,16 +5743,16 @@
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>334</v>
+      </c>
+      <c r="B90" t="s">
+        <v>332</v>
+      </c>
+      <c r="C90" t="s">
         <v>335</v>
       </c>
-      <c r="B90" t="s">
-        <v>333</v>
-      </c>
-      <c r="C90" t="s">
-        <v>336</v>
-      </c>
       <c r="F90" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G90">
         <v>5</v>
@@ -5763,7 +5760,7 @@
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G91">
         <v>0.05</v>
@@ -5771,35 +5768,35 @@
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B92" t="s">
+        <v>346</v>
+      </c>
+      <c r="C92" t="s">
         <v>347</v>
-      </c>
-      <c r="C92" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F93" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C94" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F94" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G94">
         <f>G89-G76</f>
@@ -5808,13 +5805,13 @@
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>339</v>
+      </c>
+      <c r="C95" t="s">
         <v>340</v>
       </c>
-      <c r="C95" t="s">
-        <v>341</v>
-      </c>
       <c r="F95" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G95">
         <f>G90+G91-G79</f>
@@ -5823,43 +5820,43 @@
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>343</v>
+      </c>
+      <c r="C96" t="s">
         <v>344</v>
-      </c>
-      <c r="C96" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B99" s="6"/>
     </row>
     <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C101" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C102" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -5872,17 +5869,53 @@
         <filter val="F2"/>
         <filter val="S1"/>
         <filter val="SP2"/>
+        <filter val="TP1"/>
         <filter val="TP2"/>
+        <filter val="TP3"/>
+        <filter val="TP4"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <customSheetViews>
+    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A1:R60" xr:uid="{9318D7C5-BB88-46CA-A8C1-36A98106D671}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A1:R59" xr:uid="{2B7F3B6F-0E15-4C3E-8D6D-5245EE5C7AB0}"/>
+    </customSheetView>
+    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A1:R59" xr:uid="{621AC93C-B101-41D2-95C0-2F4DCE866C83}"/>
+    </customSheetView>
     <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R62" xr:uid="{EEE402BD-B8CC-49C7-A446-2FE651B6D7AC}">
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A1:R62" xr:uid="{F8BED1B4-F047-4BB8-94CC-FB3D2C336220}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -5890,39 +5923,6 @@
             <filter val="BP2"/>
             <filter val="F2"/>
             <filter val="POW2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R59" xr:uid="{79D92D3E-286D-4993-A74E-06CBA6A73131}"/>
-    </customSheetView>
-    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R59" xr:uid="{4814F0E0-479A-4F73-9BA7-7AA1FD9D690E}"/>
-    </customSheetView>
-    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R60" xr:uid="{8A29F857-18B3-4055-8510-7E8A92279CCD}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
             <filter val="S1"/>
             <filter val="SP2"/>
             <filter val="TP2"/>

--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -5,32 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\2nd_mainboard_bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\GitHub\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0609FFDC-508A-49A3-91A4-9A336BB6D373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1041F62-4A74-45AB-8CFB-5125338366BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2ndMainBoard" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
     <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$I:$I,'2ndMainBoard'!$M:$M,'2ndMainBoard'!$P:$R,'2ndMainBoard'!$T:$AD</definedName>
-    <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$64</definedName>
+    <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
     <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$H:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$U</definedName>
-    <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$64</definedName>
+    <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
     <definedName name="Z_AD0CFDC5_A886_4774_8323_B873BC9D36B7_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$V</definedName>
-    <definedName name="Z_AD0CFDC5_A886_4774_8323_B873BC9D36B7_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$64</definedName>
-    <definedName name="Z_E3E09E1D_E21B_434F_8777_BA2F5DFE998D_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$64</definedName>
+    <definedName name="Z_AD0CFDC5_A886_4774_8323_B873BC9D36B7_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
+    <definedName name="Z_E3E09E1D_E21B_434F_8777_BA2F5DFE998D_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
     <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="362">
   <si>
     <t>Alternative</t>
   </si>
@@ -178,9 +178,6 @@
     <t>Abstandhalter</t>
   </si>
   <si>
-    <t>PCB-Printhead</t>
-  </si>
-  <si>
     <t>7mm Abstandhalter</t>
   </si>
   <si>
@@ -715,15 +712,6 @@
     <t>https://www.digikey.de/en/products/detail/microchip-technology/ATMEGA328P-AU/1832260</t>
   </si>
   <si>
-    <t>https://www.digikey.at/en/products/detail/gct/USB4085-GF-A/9859662</t>
-  </si>
-  <si>
-    <t>USB4085-GF-A</t>
-  </si>
-  <si>
-    <t>USB 2.0, Shielded</t>
-  </si>
-  <si>
     <t>USB-Serial Wandler</t>
   </si>
   <si>
@@ -985,9 +973,6 @@
     <t>22 AWG, 28 AWG, USB 2.0, 1.5m</t>
   </si>
   <si>
-    <t>USB-C Buchse</t>
-  </si>
-  <si>
     <t>TD-103-T-A</t>
   </si>
   <si>
@@ -1015,33 +1000,15 @@
     <t>https://www.digikey.at/en/products/detail/w%C3%BCrth-elektronik/665003113322/5047511</t>
   </si>
   <si>
-    <t>3 pin header</t>
-  </si>
-  <si>
-    <t>3 pin bridge</t>
-  </si>
-  <si>
-    <t>2 pin bridge</t>
-  </si>
-  <si>
     <t>https://www.digikey.at/en/products/detail/w%C3%BCrth-elektronik/665002113322/5047510</t>
   </si>
   <si>
     <t>https://www.digikey.at/en/products/detail/wurth-electronics-inc/665102131822/5047561</t>
   </si>
   <si>
-    <t>2 pin header</t>
-  </si>
-  <si>
     <t>FTSH-103-01-L-DH</t>
   </si>
   <si>
-    <t>3x2 pin header 1mm pitch</t>
-  </si>
-  <si>
-    <t>3x2 pin header 1.27mm pitch</t>
-  </si>
-  <si>
     <t>https://www.digikey.at/en/products/detail/harwin-inc/M50-1900005/2890862</t>
   </si>
   <si>
@@ -1051,21 +1018,9 @@
     <t>https://www.digikey.at/en/products/detail/samtec-inc/FTSH-103-01-L-DH/1110175</t>
   </si>
   <si>
-    <t>3 pin Header</t>
-  </si>
-  <si>
-    <t>https://www.digikey.at/en/products/detail/samtec-inc/FTS-103-01-F-S/6691816?curr=eur&amp;utm_campaign=buynow&amp;utm_medium=aggregator&amp;utm_source=octopart</t>
-  </si>
-  <si>
     <t>FTS-103-01-F-S</t>
   </si>
   <si>
-    <t>1mm pitch</t>
-  </si>
-  <si>
-    <t>1.27mm pitch</t>
-  </si>
-  <si>
     <t>SPM10040T-4R7M-HZ</t>
   </si>
   <si>
@@ -1084,52 +1039,127 @@
     <t>https://www.digikey.at/en/products/detail/vishay-dale/IHLP2525CZER3R3M11/5419141</t>
   </si>
   <si>
-    <t>Neuer stecker</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>samtec-config</t>
-  </si>
-  <si>
-    <t>pdf</t>
-  </si>
-  <si>
-    <t>https://suddendocs.samtec.com/catalog_english/hle.pdf</t>
-  </si>
-  <si>
     <t>HLE-107-02-L-DV</t>
   </si>
   <si>
-    <t>https://www.samtec.com/products/hle-107-02-l-dv</t>
-  </si>
-  <si>
-    <t>digikey</t>
-  </si>
-  <si>
     <t>https://www.digikey.de/en/products/detail/samtec-inc/HLE-107-02-L-DV/6693078</t>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>allgemeine ressources</t>
-  </si>
-  <si>
-    <t>https://www.samtec.com/flex-stacking/standard/100-pitch-terminals/</t>
-  </si>
-  <si>
-    <t>https://suddendocs.samtec.com/catalog_english/a-tsm.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">TSM-107-04-L-DV </t>
   </si>
   <si>
     <t>https://www.digikey.de/en/products/detail/samtec-inc/TSM-107-04-L-DV/7638934</t>
   </si>
   <si>
-    <t>https://www.samtec.com/products/tsm-107-04-l-dv</t>
+    <t>Stapel-Design</t>
+  </si>
+  <si>
+    <t>SV1</t>
+  </si>
+  <si>
+    <t>config: https://www.samtec.com/products/hle-107-02-l-dv pdf: https://suddendocs.samtec.com/catalog_english/hle.pdf</t>
+  </si>
+  <si>
+    <t>7 Reihenpaare, ohne Location Peg</t>
+  </si>
+  <si>
+    <t>SV2</t>
+  </si>
+  <si>
+    <t>8 Reihenpaare, ohne Location Peg</t>
+  </si>
+  <si>
+    <t>config: https://www.samtec.com/products/tsm-107-04-l-dv pdf: https://suddendocs.samtec.com/catalog_english/a-tsm.pdf allgemein: https://www.samtec.com/flex-stacking/standard/100-pitch-terminals/</t>
+  </si>
+  <si>
+    <t>Leistung</t>
+  </si>
+  <si>
+    <t>ST1</t>
+  </si>
+  <si>
+    <t>3x1 Stecker</t>
+  </si>
+  <si>
+    <t>03x01, 2.54mm Pitch</t>
+  </si>
+  <si>
+    <t>3x2 Stecker</t>
+  </si>
+  <si>
+    <t>03x02, 2.54mm Pitch</t>
+  </si>
+  <si>
+    <t>ST2</t>
+  </si>
+  <si>
+    <t>3x2 SMD Stecker</t>
+  </si>
+  <si>
+    <t>2 Pin Bridge</t>
+  </si>
+  <si>
+    <t>03x02, 1mm Pitch, SMD</t>
+  </si>
+  <si>
+    <t>2 pin Bridge</t>
+  </si>
+  <si>
+    <t>03x01, 1mm Pitch, SMD</t>
+  </si>
+  <si>
+    <t>3x1 Bridge/Stecker</t>
+  </si>
+  <si>
+    <t>03x01, 1mm Pitch, Free-Hanging</t>
+  </si>
+  <si>
+    <t>ST3</t>
+  </si>
+  <si>
+    <t>3x2 Stecker/Pin Header</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>03x02, 1.27mm, SMD, rechtwinkelig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stecker </t>
+  </si>
+  <si>
+    <t>2 Pin Bridge, 1.27mm Pitch</t>
+  </si>
+  <si>
+    <t>3 Pin Header</t>
+  </si>
+  <si>
+    <t>3 Pin Header, 1.27mm Pitch, THT</t>
+  </si>
+  <si>
+    <t>ST4</t>
+  </si>
+  <si>
+    <t>2 Pin Bridge, 1mm Pitch</t>
+  </si>
+  <si>
+    <t>2 Pin Stecker f. Temperatursensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Pin Buchse f. Temperatursensor </t>
+  </si>
+  <si>
+    <t>Stecker Temperatursensor</t>
+  </si>
+  <si>
+    <t>Buchse SMD, rechtwk., 2 Pin, 1mm Pitch</t>
+  </si>
+  <si>
+    <t>Spule 12V Buck</t>
+  </si>
+  <si>
+    <t>Spule 5V Buck</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1726,10 +1756,13 @@
     <xf numFmtId="165" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2115,15 +2148,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AD102"/>
+  <dimension ref="A1:AD112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
@@ -2132,25 +2164,24 @@
     <col min="5" max="5" width="35.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="4" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.28515625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="23.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="24.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" customWidth="1"/>
     <col min="20" max="20" width="14.42578125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="17" hidden="1" customWidth="1"/>
-    <col min="22" max="23" width="17" customWidth="1"/>
-    <col min="24" max="25" width="9.140625" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" customWidth="1"/>
-    <col min="27" max="29" width="9.140625" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" customWidth="1"/>
+    <col min="21" max="23" width="17" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="27" max="29" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2170,10 +2201,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>5</v>
@@ -2185,13 +2216,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N1" s="24" t="s">
         <v>9</v>
@@ -2212,23 +2243,23 @@
         <v>14</v>
       </c>
       <c r="U1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="X1" s="60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y1" s="61"/>
       <c r="Z1" s="11">
-        <f>SUMIFS(P10:P64,Q10:Q64, "Nicht Gekauft",R10:R64,"Benötigt")</f>
+        <f>SUMIFS(P10:P78,Q10:Q78, "Nicht Gekauft",R10:R78,"Benötigt")</f>
         <v>64.3</v>
       </c>
       <c r="AB1" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC1" s="59"/>
       <c r="AD1" s="10">
-        <f>SUM(P2:P64)</f>
-        <v>400.78999999999996</v>
+        <f>SUM(P2:P78)</f>
+        <v>413.45</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -2267,14 +2298,14 @@
         <v>1</v>
       </c>
       <c r="P2" s="32">
-        <f t="shared" ref="P2:P64" si="0">N2*O2</f>
+        <f t="shared" ref="P2:P78" si="0">N2*O2</f>
         <v>9.91</v>
       </c>
       <c r="Q2" s="33" t="s">
         <v>21</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T2">
         <f>IF(AND(Q2="Nicht Gekauft", R2="Benötigt"), P2, 0)</f>
@@ -2285,9 +2316,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>23</v>
@@ -2317,7 +2348,7 @@
         <v>27</v>
       </c>
       <c r="M3" s="31" t="str">
-        <f t="shared" ref="M3:M64" si="1">HYPERLINK(L3,J3)</f>
+        <f t="shared" ref="M3:M78" si="1">HYPERLINK(L3,J3)</f>
         <v>AZ-Delivery</v>
       </c>
       <c r="N3" s="40">
@@ -2334,16 +2365,16 @@
         <v>21</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U64" si="2">SUBTOTAL(103, G3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="U3:U78" si="2">SUBTOTAL(103, G3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>23</v>
@@ -2352,10 +2383,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>118</v>
       </c>
       <c r="F4" s="28">
         <v>1.2</v>
@@ -2366,11 +2397,11 @@
       <c r="H4" s="28"/>
       <c r="I4" s="43"/>
       <c r="J4" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K4" s="43"/>
       <c r="L4" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M4" s="31" t="str">
         <f t="shared" si="1"/>
@@ -2390,7 +2421,7 @@
       <c r="R4" s="34"/>
       <c r="U4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="5"/>
@@ -2442,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T5">
         <f t="shared" ref="T5:T15" si="3">IF(AND(Q5="Nicht Gekauft", R5="Benötigt"), P5, 0)</f>
@@ -2453,29 +2484,29 @@
         <v>1</v>
       </c>
       <c r="X5" s="64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y5" s="65"/>
       <c r="Z5" s="12">
-        <f>SUBTOTAL(9,P1:P64)</f>
-        <v>234.87000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+        <f>SUBTOTAL(9,P1:P78)</f>
+        <v>413.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F6" s="35">
         <v>0.5</v>
@@ -2486,11 +2517,11 @@
       <c r="H6" s="35"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K6" s="38"/>
       <c r="L6" s="39" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M6" s="31"/>
       <c r="N6" s="40">
@@ -2504,27 +2535,27 @@
       <c r="R6" s="25"/>
       <c r="U6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="44"/>
       <c r="Y6" s="45"/>
       <c r="Z6" s="46"/>
     </row>
-    <row r="7" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" s="28">
         <f>0.053*O7</f>
@@ -2536,11 +2567,11 @@
       <c r="H7" s="28"/>
       <c r="I7" s="42"/>
       <c r="J7" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7" s="42"/>
       <c r="L7" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M7" s="31" t="str">
         <f t="shared" si="1"/>
@@ -2560,7 +2591,7 @@
         <v>21</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T7">
         <f t="shared" si="3"/>
@@ -2568,32 +2599,32 @@
       </c>
       <c r="U7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y7" s="63"/>
       <c r="Z7" s="9">
-        <f>SUBTOTAL(9,T1:T64)</f>
-        <v>41.42</v>
+        <f>SUBTOTAL(9,T1:T78)</f>
+        <v>115.32</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>126</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>127</v>
       </c>
       <c r="F8" s="35">
         <v>0.17</v>
@@ -2604,11 +2635,11 @@
       <c r="H8" s="35"/>
       <c r="I8" s="36"/>
       <c r="J8" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" s="36"/>
       <c r="L8" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M8" s="31" t="str">
         <f t="shared" si="1"/>
@@ -2633,19 +2664,19 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F9" s="28">
         <v>0.35</v>
@@ -2656,11 +2687,11 @@
       <c r="H9" s="28"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" s="42"/>
       <c r="L9" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M9" s="31" t="str">
         <f t="shared" si="1"/>
@@ -2683,32 +2714,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="D10" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="35" t="s">
-        <v>88</v>
-      </c>
       <c r="E10" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="H10" s="35">
+        <v>2.5</v>
+      </c>
       <c r="I10" s="36"/>
       <c r="J10" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" s="36"/>
       <c r="L10" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M10" s="31" t="str">
         <f t="shared" si="1"/>
@@ -2739,32 +2772,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="H11" s="28">
+        <v>2.5</v>
+      </c>
       <c r="I11" s="42"/>
       <c r="J11" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="42"/>
       <c r="L11" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="31" t="str">
         <f t="shared" si="1"/>
@@ -2795,32 +2830,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="H12" s="35">
+        <v>2.5</v>
+      </c>
       <c r="I12" s="36"/>
       <c r="J12" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12" s="36"/>
       <c r="L12" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M12" s="31" t="str">
         <f t="shared" si="1"/>
@@ -2851,32 +2888,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="H13" s="28">
+        <v>2</v>
+      </c>
       <c r="I13" s="42"/>
       <c r="J13" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="42"/>
       <c r="L13" s="31" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M13" s="31" t="str">
         <f t="shared" si="1"/>
@@ -2907,32 +2946,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="H14" s="35">
+        <v>2.54</v>
+      </c>
       <c r="I14" s="36"/>
       <c r="J14" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14" s="36"/>
       <c r="L14" s="39" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M14" s="31" t="str">
         <f t="shared" si="1"/>
@@ -2955,32 +2996,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="H15" s="28">
+        <v>2.54</v>
+      </c>
       <c r="I15" s="42"/>
       <c r="J15" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K15" s="42"/>
       <c r="L15" s="31" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M15" s="31" t="str">
         <f t="shared" si="1"/>
@@ -3000,7 +3043,7 @@
         <v>21</v>
       </c>
       <c r="R15" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S15" s="8"/>
       <c r="T15">
@@ -3014,30 +3057,30 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>87</v>
-      </c>
       <c r="D16" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K16" s="36"/>
       <c r="L16" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M16" s="31" t="str">
         <f t="shared" si="1"/>
@@ -3063,30 +3106,30 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="42"/>
       <c r="J17" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17" s="42"/>
       <c r="L17" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M17" s="31" t="str">
         <f t="shared" si="1"/>
@@ -3099,7 +3142,7 @@
         <v>2</v>
       </c>
       <c r="P17" s="32">
-        <f t="shared" ref="P17:P24" si="5">N17*O17</f>
+        <f t="shared" ref="P17:P34" si="5">N17*O17</f>
         <v>0.36</v>
       </c>
       <c r="Q17" s="33"/>
@@ -3112,30 +3155,30 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="36"/>
       <c r="J18" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18" s="36"/>
       <c r="L18" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M18" s="31" t="str">
         <f t="shared" si="1"/>
@@ -3160,1520 +3203,1410 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="31" t="s">
-        <v>213</v>
+      <c r="A19" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35">
+        <v>2.54</v>
+      </c>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="36"/>
+      <c r="L19" s="39" t="s">
+        <v>302</v>
       </c>
       <c r="M19" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N19" s="32">
-        <v>0.84</v>
-      </c>
-      <c r="O19" s="33">
-        <v>1</v>
-      </c>
-      <c r="P19" s="32">
-        <f>N19*O19</f>
-        <v>0.84</v>
-      </c>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="34"/>
+      <c r="N19" s="40">
+        <v>0.78</v>
+      </c>
+      <c r="O19" s="41">
+        <v>1</v>
+      </c>
+      <c r="P19" s="40">
+        <f t="shared" si="5"/>
+        <v>0.78</v>
+      </c>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="25"/>
       <c r="S19" s="8"/>
-      <c r="U19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
-        <v>180</v>
+        <v>333</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>179</v>
+        <v>336</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>178</v>
+        <v>299</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>177</v>
+        <v>337</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
+      <c r="H20" s="35">
+        <v>2.54</v>
+      </c>
       <c r="I20" s="36"/>
       <c r="J20" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="35" t="s">
-        <v>173</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="K20" s="36"/>
       <c r="L20" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="M20" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>DigiKey</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="M20" s="31"/>
       <c r="N20" s="40">
-        <v>3.24</v>
+        <v>1.73</v>
       </c>
       <c r="O20" s="41">
         <v>1</v>
       </c>
       <c r="P20" s="40">
         <f t="shared" si="5"/>
-        <v>3.24</v>
+        <v>1.73</v>
       </c>
       <c r="Q20" s="41"/>
       <c r="R20" s="25"/>
       <c r="S20" s="8"/>
-      <c r="U20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="M21" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>DigiKey</v>
-      </c>
-      <c r="N21" s="32">
-        <v>1.7</v>
-      </c>
-      <c r="O21" s="33">
-        <v>1</v>
-      </c>
-      <c r="P21" s="32">
-        <f t="shared" si="5"/>
-        <v>1.7</v>
-      </c>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="34"/>
+      <c r="A21" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35">
+        <v>1</v>
+      </c>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="36"/>
+      <c r="L21" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="M21" s="31"/>
+      <c r="N21" s="40">
+        <v>1.46</v>
+      </c>
+      <c r="O21" s="41"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="25"/>
       <c r="S21" s="8"/>
-      <c r="U21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
-        <v>194</v>
+        <v>338</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>187</v>
+        <v>340</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="35">
+        <v>5013300200</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>186</v>
+        <v>342</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+      <c r="H22" s="35">
+        <v>1</v>
+      </c>
       <c r="I22" s="36"/>
       <c r="J22" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" s="36" t="s">
-        <v>176</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="K22" s="36"/>
       <c r="L22" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="M22" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>DigiKey</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="M22" s="31"/>
       <c r="N22" s="40">
-        <v>0.82</v>
+        <v>0.21</v>
       </c>
       <c r="O22" s="41">
         <v>1</v>
       </c>
-      <c r="P22" s="40">
-        <f t="shared" si="5"/>
-        <v>0.82</v>
-      </c>
+      <c r="P22" s="40"/>
       <c r="Q22" s="41"/>
       <c r="R22" s="25"/>
       <c r="S22" s="8"/>
-      <c r="U22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="K23" s="42"/>
-      <c r="L23" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="M23" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>DigiKey</v>
-      </c>
-      <c r="N23" s="32">
-        <v>0.94</v>
-      </c>
-      <c r="O23" s="33">
-        <v>1</v>
-      </c>
-      <c r="P23" s="32">
-        <f t="shared" si="5"/>
-        <v>0.94</v>
-      </c>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="34"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="35">
+        <v>665103131822</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35">
+        <v>1</v>
+      </c>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="36"/>
+      <c r="L23" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="M23" s="31"/>
+      <c r="N23" s="40">
+        <v>0.75</v>
+      </c>
+      <c r="O23" s="41">
+        <v>1</v>
+      </c>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="25"/>
       <c r="S23" s="8"/>
-      <c r="U23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
-        <v>196</v>
+        <v>338</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>191</v>
+        <v>344</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="35">
+        <v>665003113322</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>192</v>
+        <v>345</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+      <c r="H24" s="35">
+        <v>1</v>
+      </c>
       <c r="I24" s="36"/>
       <c r="J24" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24" s="36"/>
       <c r="L24" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="M24" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>DigiKey</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="M24" s="31"/>
       <c r="N24" s="40">
-        <v>1.33</v>
+        <v>0.2</v>
       </c>
       <c r="O24" s="41">
         <v>1</v>
       </c>
-      <c r="P24" s="40">
-        <f t="shared" si="5"/>
-        <v>1.33</v>
-      </c>
+      <c r="P24" s="40"/>
       <c r="Q24" s="41"/>
       <c r="R24" s="25"/>
       <c r="S24" s="8"/>
-      <c r="U24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" s="42"/>
-      <c r="L25" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="M25" s="31" t="str">
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35">
+        <v>1.27</v>
+      </c>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="36"/>
+      <c r="L25" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="M25" s="31"/>
+      <c r="N25" s="40">
+        <v>1.24</v>
+      </c>
+      <c r="O25" s="41">
+        <v>1</v>
+      </c>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="8"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35">
+        <v>1.27</v>
+      </c>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="36"/>
+      <c r="L26" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="M26" s="31"/>
+      <c r="N26" s="40">
+        <v>0.32</v>
+      </c>
+      <c r="O26" s="41">
+        <v>1</v>
+      </c>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="8"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35">
+        <v>1.27</v>
+      </c>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="36"/>
+      <c r="L27" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="M27" s="31"/>
+      <c r="N27" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="O27" s="41">
+        <v>1</v>
+      </c>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="8"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="D28" s="35">
+        <v>665002113322</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35">
+        <v>1</v>
+      </c>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="36"/>
+      <c r="L28" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="M28" s="31"/>
+      <c r="N28" s="40">
+        <v>0.13</v>
+      </c>
+      <c r="O28" s="41">
+        <v>1</v>
+      </c>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="8"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="D29" s="35">
+        <v>665102131822</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35">
+        <v>1</v>
+      </c>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="36"/>
+      <c r="L29" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="M29" s="31"/>
+      <c r="N29" s="40">
+        <v>0.61</v>
+      </c>
+      <c r="O29" s="41">
+        <v>1</v>
+      </c>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="8"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="L30" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="M30" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N25" s="32">
-        <v>2.04</v>
-      </c>
-      <c r="O25" s="33">
-        <v>1</v>
-      </c>
-      <c r="P25" s="32">
-        <f>N25*O25</f>
-        <v>2.04</v>
-      </c>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="34"/>
-      <c r="U25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="L26" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="M26" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>DigiKey</v>
-      </c>
-      <c r="N26" s="40">
-        <v>0.1</v>
-      </c>
-      <c r="O26" s="41">
-        <v>10</v>
-      </c>
-      <c r="P26" s="32">
-        <f>N26*O26</f>
-        <v>1</v>
-      </c>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="U26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="L27" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="M27" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>DigiKey</v>
-      </c>
-      <c r="N27" s="32">
-        <v>5.54</v>
-      </c>
-      <c r="O27" s="33">
-        <v>1</v>
-      </c>
-      <c r="P27" s="32">
-        <v>5.54</v>
-      </c>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="U27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="K28" s="42"/>
-      <c r="L28" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="M28" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>DigiKey</v>
-      </c>
-      <c r="N28" s="32">
-        <v>9.25</v>
-      </c>
-      <c r="O28" s="33">
-        <v>1</v>
-      </c>
-      <c r="P28" s="32">
-        <f>N28*O28</f>
-        <v>9.25</v>
-      </c>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="M29" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>Amazon</v>
-      </c>
-      <c r="N29" s="40">
-        <v>8.66</v>
-      </c>
-      <c r="O29" s="41">
-        <v>1</v>
-      </c>
-      <c r="P29" s="40">
-        <f t="shared" si="0"/>
-        <v>8.66</v>
-      </c>
-      <c r="Q29" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="R29" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="T29">
-        <f>IF(AND(Q29="Nicht Gekauft", R29="Benötigt"), P29, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30" s="42"/>
-      <c r="L30" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="M30" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>Amazon</v>
-      </c>
-      <c r="N30" s="32">
-        <v>5.99</v>
-      </c>
-      <c r="O30" s="33">
-        <v>1</v>
-      </c>
-      <c r="P30" s="32">
-        <f t="shared" si="0"/>
-        <v>5.99</v>
-      </c>
-      <c r="Q30" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="R30" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="T30">
-        <f>IF(AND(Q30="Nicht Gekauft", R30="Benötigt"), P30, 0)</f>
-        <v>0</v>
-      </c>
+      <c r="N30" s="40">
+        <v>3.24</v>
+      </c>
+      <c r="O30" s="41">
+        <v>1</v>
+      </c>
+      <c r="P30" s="40">
+        <f t="shared" si="5"/>
+        <v>3.24</v>
+      </c>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="8"/>
       <c r="U30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="K31" s="36"/>
-      <c r="L31" s="39" t="s">
-        <v>260</v>
+      <c r="A31" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" s="42"/>
+      <c r="L31" s="31" t="s">
+        <v>182</v>
       </c>
       <c r="M31" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>Amazon</v>
-      </c>
-      <c r="N31" s="40">
-        <v>18.14</v>
-      </c>
-      <c r="O31" s="41">
-        <v>1</v>
-      </c>
-      <c r="P31" s="40">
-        <f t="shared" si="0"/>
-        <v>18.14</v>
-      </c>
-      <c r="Q31" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="R31" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="T31">
-        <f>IF(AND(Q31="Nicht Gekauft", R31="Benötigt"), P31, 0)</f>
-        <v>0</v>
-      </c>
+        <v>DigiKey</v>
+      </c>
+      <c r="N31" s="32">
+        <v>1.7</v>
+      </c>
+      <c r="O31" s="33">
+        <v>1</v>
+      </c>
+      <c r="P31" s="32">
+        <f t="shared" si="5"/>
+        <v>1.7</v>
+      </c>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="8"/>
       <c r="U31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="K32" s="42"/>
-      <c r="L32" s="31" t="s">
-        <v>234</v>
+    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="L32" s="39" t="s">
+        <v>174</v>
       </c>
       <c r="M32" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N32" s="32">
-        <v>2.91</v>
-      </c>
-      <c r="O32" s="33">
-        <v>2</v>
-      </c>
-      <c r="P32" s="32">
-        <f t="shared" ref="P32:P45" si="6">N32*O32</f>
-        <v>5.82</v>
-      </c>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="34"/>
+      <c r="N32" s="40">
+        <v>0.82</v>
+      </c>
+      <c r="O32" s="41">
+        <v>1</v>
+      </c>
+      <c r="P32" s="40">
+        <f t="shared" si="5"/>
+        <v>0.82</v>
+      </c>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="8"/>
       <c r="U32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K33" s="36"/>
-      <c r="L33" s="39" t="s">
-        <v>252</v>
+    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="42"/>
+      <c r="L33" s="31" t="s">
+        <v>187</v>
       </c>
       <c r="M33" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N33" s="40">
-        <v>0.41</v>
-      </c>
-      <c r="O33" s="41">
-        <v>1</v>
-      </c>
-      <c r="P33" s="40">
-        <f>N33*O33</f>
-        <v>0.41</v>
-      </c>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="25"/>
+      <c r="N33" s="32">
+        <v>0.94</v>
+      </c>
+      <c r="O33" s="33">
+        <v>1</v>
+      </c>
+      <c r="P33" s="32">
+        <f t="shared" si="5"/>
+        <v>0.94</v>
+      </c>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="8"/>
       <c r="U33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="K34" s="42"/>
-      <c r="L34" s="31" t="s">
-        <v>254</v>
+    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" s="36"/>
+      <c r="L34" s="39" t="s">
+        <v>192</v>
       </c>
       <c r="M34" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N34" s="32">
-        <v>0.23</v>
-      </c>
-      <c r="O34" s="33">
-        <v>1</v>
-      </c>
-      <c r="P34" s="32">
-        <f>N34*O34</f>
-        <v>0.23</v>
-      </c>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="34"/>
+      <c r="N34" s="40">
+        <v>1.33</v>
+      </c>
+      <c r="O34" s="41">
+        <v>1</v>
+      </c>
+      <c r="P34" s="40">
+        <f t="shared" si="5"/>
+        <v>1.33</v>
+      </c>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="8"/>
       <c r="U34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K35" s="36"/>
-      <c r="L35" s="39" t="s">
-        <v>229</v>
+    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" s="42"/>
+      <c r="L35" s="31" t="s">
+        <v>197</v>
       </c>
       <c r="M35" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N35" s="40">
-        <v>1.56</v>
-      </c>
-      <c r="O35" s="41">
-        <v>1</v>
-      </c>
-      <c r="P35" s="40">
+      <c r="N35" s="32">
+        <v>2.04</v>
+      </c>
+      <c r="O35" s="33">
+        <v>1</v>
+      </c>
+      <c r="P35" s="32">
         <f>N35*O35</f>
-        <v>1.56</v>
-      </c>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="25"/>
+        <v>2.04</v>
+      </c>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="34"/>
       <c r="U35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="K36" s="42"/>
-      <c r="L36" s="31" t="s">
-        <v>225</v>
+      <c r="A36" s="37"/>
+      <c r="B36" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="L36" s="39" t="s">
+        <v>132</v>
       </c>
       <c r="M36" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N36" s="32">
-        <v>0.47</v>
-      </c>
-      <c r="O36" s="33">
-        <v>1</v>
+      <c r="N36" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="O36" s="41">
+        <v>10</v>
       </c>
       <c r="P36" s="32">
-        <f t="shared" si="6"/>
-        <v>0.47</v>
-      </c>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="34"/>
+        <f>N36*O36</f>
+        <v>1</v>
+      </c>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
       <c r="U36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="D37" s="35">
-        <v>824521241</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="K37" s="36"/>
-      <c r="L37" s="39" t="s">
-        <v>205</v>
+    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="L37" s="31" t="s">
+        <v>136</v>
       </c>
       <c r="M37" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>Digikey</v>
-      </c>
-      <c r="N37" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="O37" s="41">
-        <v>1</v>
-      </c>
-      <c r="P37" s="40">
-        <f t="shared" si="6"/>
-        <v>0.3</v>
-      </c>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="25"/>
+        <v>DigiKey</v>
+      </c>
+      <c r="N37" s="32">
+        <v>5.54</v>
+      </c>
+      <c r="O37" s="33">
+        <v>1</v>
+      </c>
+      <c r="P37" s="32">
+        <v>5.54</v>
+      </c>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
       <c r="U37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
+    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
+      <c r="B38" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="E38" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="B38" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="D38" s="35" t="s">
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K38" s="42"/>
+      <c r="L38" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="E38" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K38" s="36"/>
-      <c r="L38" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="M38" s="31"/>
-      <c r="N38" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="O38" s="41">
-        <v>1</v>
-      </c>
-      <c r="P38" s="40">
-        <f t="shared" si="6"/>
-        <v>0.3</v>
-      </c>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="25"/>
-    </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="K39" s="42"/>
-      <c r="L39" s="31" t="s">
-        <v>243</v>
+      <c r="M38" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
+      <c r="N38" s="32">
+        <v>9.25</v>
+      </c>
+      <c r="O38" s="33">
+        <v>1</v>
+      </c>
+      <c r="P38" s="32">
+        <f>N38*O38</f>
+        <v>9.25</v>
+      </c>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39" s="38"/>
+      <c r="L39" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="M39" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>DigiKey</v>
-      </c>
-      <c r="N39" s="32">
-        <v>5.79</v>
-      </c>
-      <c r="O39" s="33">
-        <v>1</v>
-      </c>
-      <c r="P39" s="32">
-        <f>N39*O39</f>
-        <v>5.79</v>
-      </c>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="34"/>
+        <v>Amazon</v>
+      </c>
+      <c r="N39" s="40">
+        <v>8.66</v>
+      </c>
+      <c r="O39" s="41">
+        <v>1</v>
+      </c>
+      <c r="P39" s="40">
+        <f t="shared" si="0"/>
+        <v>8.66</v>
+      </c>
+      <c r="Q39" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="R39" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="T39">
+        <f>IF(AND(Q39="Nicht Gekauft", R39="Benötigt"), P39, 0)</f>
+        <v>0</v>
+      </c>
       <c r="U39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K40" s="36"/>
-      <c r="L40" s="39" t="s">
-        <v>246</v>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40" s="42"/>
+      <c r="L40" s="31" t="s">
+        <v>256</v>
       </c>
       <c r="M40" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>DigiKey</v>
-      </c>
-      <c r="N40" s="40">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="O40" s="41">
-        <v>1</v>
-      </c>
-      <c r="P40" s="40">
-        <f>N40*O40</f>
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="25"/>
+        <v>Amazon</v>
+      </c>
+      <c r="N40" s="32">
+        <v>5.99</v>
+      </c>
+      <c r="O40" s="33">
+        <v>1</v>
+      </c>
+      <c r="P40" s="32">
+        <f t="shared" si="0"/>
+        <v>5.99</v>
+      </c>
+      <c r="Q40" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="R40" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="T40">
+        <f>IF(AND(Q40="Nicht Gekauft", R40="Benötigt"), P40, 0)</f>
+        <v>0</v>
+      </c>
       <c r="U40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="F41" s="28">
-        <v>0.05</v>
-      </c>
-      <c r="G41" s="28">
-        <v>5</v>
-      </c>
-      <c r="H41" s="28"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="K41" s="42"/>
-      <c r="L41" s="31" t="s">
-        <v>282</v>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="K41" s="36"/>
+      <c r="L41" s="39" t="s">
+        <v>256</v>
       </c>
       <c r="M41" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>DigiKey</v>
-      </c>
-      <c r="N41" s="32">
-        <v>2.34</v>
-      </c>
-      <c r="O41" s="33">
+        <v>Amazon</v>
+      </c>
+      <c r="N41" s="40">
+        <v>18.14</v>
+      </c>
+      <c r="O41" s="41">
         <v>1</v>
       </c>
       <c r="P41" s="40">
-        <f t="shared" ref="P41:P42" si="7">N41*O41</f>
-        <v>2.34</v>
-      </c>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="34"/>
-    </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K42" s="36"/>
-      <c r="L42" s="39" t="s">
-        <v>285</v>
+        <f t="shared" si="0"/>
+        <v>18.14</v>
+      </c>
+      <c r="Q41" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="R41" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="T41">
+        <f>IF(AND(Q41="Nicht Gekauft", R41="Benötigt"), P41, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K42" s="42"/>
+      <c r="L42" s="31" t="s">
+        <v>230</v>
       </c>
       <c r="M42" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N42" s="40">
-        <v>1.17</v>
-      </c>
-      <c r="O42" s="41">
-        <v>1</v>
-      </c>
-      <c r="P42" s="40">
-        <f t="shared" si="7"/>
-        <v>1.17</v>
-      </c>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="25"/>
+      <c r="N42" s="32">
+        <v>2.91</v>
+      </c>
+      <c r="O42" s="33">
+        <v>2</v>
+      </c>
+      <c r="P42" s="32">
+        <f t="shared" ref="P42:P57" si="6">N42*O42</f>
+        <v>5.82</v>
+      </c>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="34"/>
+      <c r="U42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="F43" s="28">
-        <v>0.02</v>
-      </c>
-      <c r="G43" s="28">
-        <v>5</v>
-      </c>
-      <c r="H43" s="28"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="K43" s="42"/>
-      <c r="L43" s="31" t="s">
-        <v>212</v>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" s="36"/>
+      <c r="L43" s="39" t="s">
+        <v>248</v>
       </c>
       <c r="M43" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N43" s="32">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="O43" s="33">
-        <v>1</v>
-      </c>
-      <c r="P43" s="32">
-        <f t="shared" si="6"/>
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="34"/>
+      <c r="N43" s="40">
+        <v>0.41</v>
+      </c>
+      <c r="O43" s="41">
+        <v>1</v>
+      </c>
+      <c r="P43" s="40">
+        <f>N43*O43</f>
+        <v>0.41</v>
+      </c>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="25"/>
       <c r="U43">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="F44" s="35">
-        <v>0.1</v>
-      </c>
-      <c r="G44" s="35">
-        <v>5</v>
-      </c>
-      <c r="H44" s="35"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K44" s="36"/>
-      <c r="L44" s="39" t="s">
-        <v>217</v>
+      <c r="A44" s="28"/>
+      <c r="B44" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44" s="42"/>
+      <c r="L44" s="31" t="s">
+        <v>250</v>
       </c>
       <c r="M44" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N44" s="40">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="O44" s="41">
-        <v>1</v>
-      </c>
-      <c r="P44" s="40">
-        <f t="shared" si="6"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="25"/>
+      <c r="N44" s="32">
+        <v>0.23</v>
+      </c>
+      <c r="O44" s="33">
+        <v>1</v>
+      </c>
+      <c r="P44" s="32">
+        <f>N44*O44</f>
+        <v>0.23</v>
+      </c>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="34"/>
       <c r="U44">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28" t="s">
-        <v>221</v>
+        <v>360</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>222</v>
+        <v>228</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>315</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="F45" s="28">
-        <v>0.02</v>
-      </c>
-      <c r="G45" s="28">
-        <v>5</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
       <c r="H45" s="28"/>
       <c r="I45" s="42"/>
       <c r="J45" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K45" s="42"/>
       <c r="L45" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="M45" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>DigiKey</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="M45" s="31"/>
       <c r="N45" s="32">
-        <v>0.6</v>
+        <v>1.78</v>
       </c>
       <c r="O45" s="33">
         <v>1</v>
       </c>
       <c r="P45" s="32">
-        <f t="shared" si="6"/>
-        <v>0.6</v>
+        <f>N45*O45</f>
+        <v>1.78</v>
       </c>
       <c r="Q45" s="33"/>
       <c r="R45" s="34"/>
-      <c r="U45">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" s="35" t="s">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="K46" s="38"/>
-      <c r="L46" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="M46" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>DigiKey</v>
-      </c>
-      <c r="N46" s="40">
-        <v>0.88</v>
-      </c>
-      <c r="O46" s="41">
-        <v>10</v>
-      </c>
-      <c r="P46" s="40">
-        <f t="shared" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Q46" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R46" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="S46" s="6"/>
-      <c r="T46">
-        <f t="shared" ref="T46:T51" si="8">IF(AND(Q46="Nicht Gekauft", R46="Benötigt"), P46, 0)</f>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="U46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="K46" s="42"/>
+      <c r="L46" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="M46" s="31"/>
+      <c r="N46" s="32">
+        <v>0.95</v>
+      </c>
+      <c r="O46" s="33">
+        <v>1</v>
+      </c>
+      <c r="P46" s="32">
+        <f>N46*O46</f>
+        <v>0.95</v>
+      </c>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="34"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="K47" s="43"/>
-      <c r="L47" s="31" t="s">
-        <v>41</v>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K47" s="36"/>
+      <c r="L47" s="39" t="s">
+        <v>225</v>
       </c>
       <c r="M47" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N47" s="32">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="O47" s="33">
-        <v>4</v>
-      </c>
-      <c r="P47" s="32">
-        <f t="shared" si="0"/>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="Q47" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R47" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="S47" s="6"/>
-      <c r="T47">
-        <f t="shared" si="8"/>
-        <v>2.2799999999999998</v>
-      </c>
+      <c r="N47" s="40">
+        <v>1.56</v>
+      </c>
+      <c r="O47" s="41">
+        <v>1</v>
+      </c>
+      <c r="P47" s="40">
+        <f>N47*O47</f>
+        <v>1.56</v>
+      </c>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="25"/>
       <c r="U47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="K48" s="38"/>
-      <c r="L48" s="39" t="s">
-        <v>44</v>
+    <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K48" s="42"/>
+      <c r="L48" s="31" t="s">
+        <v>221</v>
       </c>
       <c r="M48" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N48" s="40">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="O48" s="41">
-        <v>4</v>
-      </c>
-      <c r="P48" s="40">
-        <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q48" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R48" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="S48" s="6"/>
-      <c r="T48">
-        <f t="shared" si="8"/>
-        <v>2.2000000000000002</v>
-      </c>
+      <c r="N48" s="32">
+        <v>0.47</v>
+      </c>
+      <c r="O48" s="33">
+        <v>1</v>
+      </c>
+      <c r="P48" s="32">
+        <f t="shared" si="6"/>
+        <v>0.47</v>
+      </c>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="34"/>
       <c r="U48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="K49" s="42"/>
-      <c r="L49" s="31" t="s">
-        <v>75</v>
+      <c r="A49" s="35"/>
+      <c r="B49" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" s="35">
+        <v>824521241</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="K49" s="36"/>
+      <c r="L49" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="M49" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>DigiKey</v>
-      </c>
-      <c r="N49" s="32">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="O49" s="33">
-        <v>2</v>
-      </c>
-      <c r="P49" s="32">
-        <f t="shared" si="0"/>
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="Q49" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R49" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="S49" s="6"/>
-      <c r="T49">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+        <v>Digikey</v>
+      </c>
+      <c r="N49" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="O49" s="41">
+        <v>1</v>
+      </c>
+      <c r="P49" s="40">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="25"/>
       <c r="U49">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4681,115 +4614,88 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>72</v>
+        <v>290</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>203</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F50" s="35">
-        <v>4.0000000000000002E-4</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="F50" s="35"/>
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
       <c r="I50" s="36"/>
       <c r="J50" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K50" s="36"/>
       <c r="L50" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="M50" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>DigiKey</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="M50" s="31"/>
       <c r="N50" s="40">
-        <v>4.49</v>
+        <v>0.3</v>
       </c>
       <c r="O50" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P50" s="40">
-        <f t="shared" si="0"/>
-        <v>8.98</v>
-      </c>
-      <c r="Q50" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R50" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="S50" s="6"/>
-      <c r="T50">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="25"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>72</v>
+        <v>237</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>44</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
       <c r="I51" s="42"/>
       <c r="J51" s="42" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K51" s="42"/>
       <c r="L51" s="31" t="s">
-        <v>84</v>
+        <v>239</v>
       </c>
       <c r="M51" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>Mouser</v>
+        <v>DigiKey</v>
       </c>
       <c r="N51" s="32">
-        <v>2.81</v>
+        <v>5.79</v>
       </c>
       <c r="O51" s="33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P51" s="32">
-        <f t="shared" si="0"/>
-        <v>11.24</v>
-      </c>
-      <c r="Q51" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R51" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="S51" s="6"/>
-      <c r="T51">
-        <f t="shared" si="8"/>
-        <v>11.24</v>
-      </c>
+        <f>N51*O51</f>
+        <v>5.79</v>
+      </c>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="34"/>
       <c r="U51">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4797,346 +4703,344 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>72</v>
+        <v>241</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>132</v>
+        <v>243</v>
       </c>
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
       <c r="I52" s="36"/>
       <c r="J52" s="36" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="K52" s="36"/>
       <c r="L52" s="39" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
       <c r="M52" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>3D-Jake</v>
+        <v>DigiKey</v>
       </c>
       <c r="N52" s="40">
-        <v>5.99</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="O52" s="41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P52" s="40">
         <f>N52*O52</f>
-        <v>23.96</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="Q52" s="41"/>
       <c r="R52" s="25"/>
-      <c r="S52" s="6"/>
       <c r="U52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
-        <v>70</v>
+        <v>277</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
+        <v>279</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="F53" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="G53" s="28">
+        <v>5</v>
+      </c>
       <c r="H53" s="28"/>
       <c r="I53" s="42"/>
       <c r="J53" s="42" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="K53" s="42"/>
       <c r="L53" s="31" t="s">
-        <v>141</v>
+        <v>278</v>
       </c>
       <c r="M53" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>3D-Jake</v>
+        <v>DigiKey</v>
       </c>
       <c r="N53" s="32">
-        <v>2.99</v>
+        <v>2.34</v>
       </c>
       <c r="O53" s="33">
-        <v>4</v>
-      </c>
-      <c r="P53" s="32">
-        <f>N53*O53</f>
-        <v>11.96</v>
+        <v>1</v>
+      </c>
+      <c r="P53" s="40">
+        <f t="shared" ref="P53:P54" si="7">N53*O53</f>
+        <v>2.34</v>
       </c>
       <c r="Q53" s="33"/>
       <c r="R53" s="34"/>
-      <c r="S53" s="6"/>
-      <c r="U53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
-        <v>70</v>
+        <v>277</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>139</v>
+        <v>282</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>283</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
       <c r="H54" s="35"/>
       <c r="I54" s="36"/>
       <c r="J54" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K54" s="36"/>
       <c r="L54" s="39" t="s">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="M54" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N54" s="40">
-        <v>0.1</v>
+        <v>1.17</v>
       </c>
       <c r="O54" s="41">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P54" s="40">
-        <f>N54*O54</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1.17</v>
       </c>
       <c r="Q54" s="41"/>
       <c r="R54" s="25"/>
-      <c r="S54" s="6"/>
-      <c r="U54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A55" s="28"/>
       <c r="B55" s="28" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
+        <v>210</v>
+      </c>
+      <c r="F55" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="G55" s="28">
+        <v>5</v>
+      </c>
       <c r="H55" s="28"/>
       <c r="I55" s="42"/>
       <c r="J55" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K55" s="42"/>
       <c r="L55" s="31" t="s">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="M55" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N55" s="32">
-        <v>5.54</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="O55" s="33">
         <v>1</v>
       </c>
       <c r="P55" s="32">
-        <f>N55*O55</f>
-        <v>5.54</v>
+        <f t="shared" si="6"/>
+        <v>2.5499999999999998</v>
       </c>
       <c r="Q55" s="33"/>
       <c r="R55" s="34"/>
-      <c r="S55" s="6"/>
       <c r="U55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
-        <v>76</v>
-      </c>
+      <c r="A56" s="35"/>
       <c r="B56" s="35" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
+        <v>215</v>
+      </c>
+      <c r="F56" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="G56" s="35">
+        <v>5</v>
+      </c>
       <c r="H56" s="35"/>
       <c r="I56" s="36"/>
       <c r="J56" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K56" s="36"/>
       <c r="L56" s="39" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="M56" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N56" s="40">
-        <v>0.19</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="O56" s="41">
         <v>1</v>
       </c>
       <c r="P56" s="40">
-        <f>N56*O56</f>
-        <v>0.19</v>
+        <f t="shared" si="6"/>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Q56" s="41"/>
       <c r="R56" s="25"/>
-      <c r="S56" s="6"/>
       <c r="U56">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
-        <v>143</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="28"/>
       <c r="B57" s="28" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" s="29" t="s">
-        <v>103</v>
+        <v>44</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>218</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
+        <v>219</v>
+      </c>
+      <c r="F57" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="G57" s="28">
+        <v>5</v>
+      </c>
       <c r="H57" s="28"/>
       <c r="I57" s="42"/>
       <c r="J57" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K57" s="42"/>
       <c r="L57" s="31" t="s">
-        <v>105</v>
+        <v>216</v>
       </c>
       <c r="M57" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N57" s="32">
-        <v>16.100000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="O57" s="33">
         <v>1</v>
       </c>
       <c r="P57" s="32">
-        <f t="shared" si="0"/>
-        <v>16.100000000000001</v>
-      </c>
-      <c r="Q57" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R57" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="T57">
-        <f>IF(AND(Q57="Nicht Gekauft", R57="Benötigt"), P57, 0)</f>
-        <v>16.100000000000001</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="34"/>
       <c r="U57">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="35" t="s">
-        <v>146</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="35"/>
       <c r="B58" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="37" t="s">
-        <v>145</v>
+        <v>33</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>31</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="K58" s="36"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K58" s="38"/>
       <c r="L58" s="39" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="M58" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>Amazon</v>
+        <v>DigiKey</v>
       </c>
       <c r="N58" s="40">
-        <v>6.99</v>
+        <v>0.88</v>
       </c>
       <c r="O58" s="41">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P58" s="40">
-        <f>N58*O58</f>
-        <v>6.99</v>
-      </c>
-      <c r="Q58" s="41"/>
-      <c r="R58" s="25"/>
+        <f t="shared" si="0"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Q58" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="R58" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="S58" s="6"/>
+      <c r="T58">
+        <f t="shared" ref="T58:T65" si="8">IF(AND(Q58="Nicht Gekauft", R58="Benötigt"), P58, 0)</f>
+        <v>8.8000000000000007</v>
+      </c>
       <c r="U58">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5144,300 +5048,308 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
-        <v>144</v>
+        <v>326</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C59" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D59" s="29" t="s">
-        <v>147</v>
+        <v>37</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="F59" s="28"/>
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="K59" s="42"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="K59" s="43"/>
       <c r="L59" s="31" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="M59" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>RobotShop</v>
+        <v>DigiKey</v>
       </c>
       <c r="N59" s="32">
-        <v>9.33</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="O59" s="33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P59" s="32">
-        <f>N59*O59</f>
-        <v>9.33</v>
-      </c>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="34"/>
+        <f t="shared" si="0"/>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="Q59" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R59" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="S59" s="6"/>
+      <c r="T59">
+        <f t="shared" si="8"/>
+        <v>2.2799999999999998</v>
+      </c>
       <c r="U59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="35" t="s">
-        <v>151</v>
+        <v>326</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D60" s="37" t="s">
-        <v>152</v>
+        <v>41</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>42</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K60" s="36"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K60" s="38"/>
       <c r="L60" s="39" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M60" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N60" s="40">
-        <v>3.39</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O60" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P60" s="40">
-        <f>N60*O60</f>
-        <v>3.39</v>
-      </c>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="25"/>
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q60" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="R60" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="S60" s="6"/>
+      <c r="T60">
+        <f t="shared" si="8"/>
+        <v>2.2000000000000002</v>
+      </c>
       <c r="U60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E61" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="K61" s="42"/>
-      <c r="L61" s="31" t="s">
-        <v>262</v>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K61" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="L61" s="39" t="s">
+        <v>322</v>
       </c>
       <c r="M61" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>Amazon</v>
-      </c>
-      <c r="N61" s="32">
-        <v>16.13</v>
-      </c>
-      <c r="O61" s="33">
-        <v>1</v>
-      </c>
-      <c r="P61" s="32">
+        <v>DigiKey</v>
+      </c>
+      <c r="N61" s="40">
+        <v>2.6</v>
+      </c>
+      <c r="O61" s="41">
+        <v>2</v>
+      </c>
+      <c r="P61" s="40">
         <f t="shared" si="0"/>
-        <v>16.13</v>
-      </c>
-      <c r="Q61" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R61" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="T61">
-        <f>IF(AND(Q61="Nicht Gekauft", R61="Benötigt"), P61, 0)</f>
-        <v>16.13</v>
-      </c>
-      <c r="U61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.2</v>
+      </c>
+      <c r="Q61" s="41"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="6"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="35" t="s">
-        <v>62</v>
+        <v>329</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>57</v>
+        <v>325</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>64</v>
+        <v>323</v>
       </c>
       <c r="E62" s="35" t="s">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K62" s="36"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K62" s="66" t="s">
+        <v>331</v>
+      </c>
       <c r="L62" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="M62" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>DigiKey</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M62" s="31"/>
       <c r="N62" s="40">
-        <v>2.97</v>
+        <v>1.53</v>
       </c>
       <c r="O62" s="41">
         <v>2</v>
       </c>
       <c r="P62" s="40">
         <f t="shared" si="0"/>
-        <v>5.94</v>
-      </c>
-      <c r="Q62" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="R62" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="U62">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.06</v>
+      </c>
+      <c r="Q62" s="41"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="6"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="28" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" s="28"/>
       <c r="H63" s="28"/>
       <c r="I63" s="42"/>
       <c r="J63" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K63" s="42"/>
       <c r="L63" s="31" t="s">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="M63" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N63" s="32">
-        <v>5.92</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="O63" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P63" s="32">
         <f t="shared" si="0"/>
-        <v>5.92</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="Q63" s="33" t="s">
         <v>21</v>
       </c>
       <c r="R63" s="34" t="s">
         <v>22</v>
+      </c>
+      <c r="S63" s="6"/>
+      <c r="T63">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="U63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="35" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F64" s="35"/>
+        <v>78</v>
+      </c>
+      <c r="F64" s="35">
+        <v>4.0000000000000002E-4</v>
+      </c>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
       <c r="I64" s="36"/>
       <c r="J64" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K64" s="36"/>
       <c r="L64" s="39" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="M64" s="31" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N64" s="40">
-        <v>2.64</v>
+        <v>4.49</v>
       </c>
       <c r="O64" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P64" s="40">
         <f t="shared" si="0"/>
-        <v>2.64</v>
+        <v>8.98</v>
       </c>
       <c r="Q64" s="41" t="s">
         <v>21</v>
@@ -5445,8 +5357,9 @@
       <c r="R64" s="25" t="s">
         <v>22</v>
       </c>
+      <c r="S64" s="6"/>
       <c r="T64">
-        <f>IF(AND(Q64="Nicht Gekauft", R64="Benötigt"), P64, 0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U64">
@@ -5454,441 +5367,958 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="17"/>
-    </row>
-    <row r="67" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F67" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F68" s="52" t="s">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="K65" s="42"/>
+      <c r="L65" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="M65" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>Mouser</v>
+      </c>
+      <c r="N65" s="32">
+        <v>2.81</v>
+      </c>
+      <c r="O65" s="33">
+        <v>4</v>
+      </c>
+      <c r="P65" s="32">
+        <f t="shared" si="0"/>
+        <v>11.24</v>
+      </c>
+      <c r="Q65" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R65" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="S65" s="6"/>
+      <c r="T65">
+        <f t="shared" si="8"/>
+        <v>11.24</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="K66" s="36"/>
+      <c r="L66" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="M66" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>3D-Jake</v>
+      </c>
+      <c r="N66" s="40">
+        <v>5.99</v>
+      </c>
+      <c r="O66" s="41">
+        <v>4</v>
+      </c>
+      <c r="P66" s="40">
+        <f>N66*O66</f>
+        <v>23.96</v>
+      </c>
+      <c r="Q66" s="41"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="6"/>
+      <c r="U66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="K67" s="42"/>
+      <c r="L67" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="M67" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>3D-Jake</v>
+      </c>
+      <c r="N67" s="32">
+        <v>2.99</v>
+      </c>
+      <c r="O67" s="33">
+        <v>4</v>
+      </c>
+      <c r="P67" s="32">
+        <f>N67*O67</f>
+        <v>11.96</v>
+      </c>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="6"/>
+      <c r="U67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E68" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K68" s="36"/>
+      <c r="L68" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="M68" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
+      <c r="N68" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="O68" s="41">
+        <v>10</v>
+      </c>
+      <c r="P68" s="40">
+        <f>N68*O68</f>
+        <v>1</v>
+      </c>
+      <c r="Q68" s="41"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="6"/>
+      <c r="U68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K69" s="42"/>
+      <c r="L69" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="M69" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
+      <c r="N69" s="32">
+        <v>5.54</v>
+      </c>
+      <c r="O69" s="33">
+        <v>1</v>
+      </c>
+      <c r="P69" s="32">
+        <f>N69*O69</f>
+        <v>5.54</v>
+      </c>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="34"/>
+      <c r="S69" s="6"/>
+      <c r="U69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="E70" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K70" s="36"/>
+      <c r="L70" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="M70" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
+      <c r="N70" s="40">
+        <v>0.19</v>
+      </c>
+      <c r="O70" s="41">
+        <v>1</v>
+      </c>
+      <c r="P70" s="40">
+        <f>N70*O70</f>
+        <v>0.19</v>
+      </c>
+      <c r="Q70" s="41"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="6"/>
+      <c r="U70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K71" s="42"/>
+      <c r="L71" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="M71" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
+      <c r="N71" s="32">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="O71" s="33">
+        <v>1</v>
+      </c>
+      <c r="P71" s="32">
+        <f t="shared" si="0"/>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="Q71" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R71" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="T71">
+        <f>IF(AND(Q71="Nicht Gekauft", R71="Benötigt"), P71, 0)</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="K72" s="36"/>
+      <c r="L72" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="M72" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>Amazon</v>
+      </c>
+      <c r="N72" s="40">
+        <v>6.99</v>
+      </c>
+      <c r="O72" s="41">
+        <v>1</v>
+      </c>
+      <c r="P72" s="40">
+        <f>N72*O72</f>
+        <v>6.99</v>
+      </c>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="25"/>
+      <c r="U72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E73" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="K73" s="42"/>
+      <c r="L73" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="M73" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>RobotShop</v>
+      </c>
+      <c r="N73" s="32">
+        <v>9.33</v>
+      </c>
+      <c r="O73" s="33">
+        <v>1</v>
+      </c>
+      <c r="P73" s="32">
+        <f>N73*O73</f>
+        <v>9.33</v>
+      </c>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="34"/>
+      <c r="U73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D74" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="E74" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K74" s="36"/>
+      <c r="L74" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="M74" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
+      <c r="N74" s="40">
+        <v>3.39</v>
+      </c>
+      <c r="O74" s="41">
+        <v>1</v>
+      </c>
+      <c r="P74" s="40">
+        <f>N74*O74</f>
+        <v>3.39</v>
+      </c>
+      <c r="Q74" s="41"/>
+      <c r="R74" s="25"/>
+      <c r="U74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="K75" s="42"/>
+      <c r="L75" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="M75" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>Amazon</v>
+      </c>
+      <c r="N75" s="32">
+        <v>16.13</v>
+      </c>
+      <c r="O75" s="33">
+        <v>1</v>
+      </c>
+      <c r="P75" s="32">
+        <f t="shared" si="0"/>
+        <v>16.13</v>
+      </c>
+      <c r="Q75" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R75" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="T75">
+        <f>IF(AND(Q75="Nicht Gekauft", R75="Benötigt"), P75, 0)</f>
+        <v>16.13</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B76" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E76" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K76" s="36"/>
+      <c r="L76" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="M76" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
+      <c r="N76" s="40">
+        <v>2.97</v>
+      </c>
+      <c r="O76" s="41">
+        <v>2</v>
+      </c>
+      <c r="P76" s="40">
+        <f t="shared" si="0"/>
+        <v>5.94</v>
+      </c>
+      <c r="Q76" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="R76" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K77" s="42"/>
+      <c r="L77" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="M77" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
+      <c r="N77" s="32">
+        <v>5.92</v>
+      </c>
+      <c r="O77" s="33">
+        <v>1</v>
+      </c>
+      <c r="P77" s="32">
+        <f t="shared" si="0"/>
+        <v>5.92</v>
+      </c>
+      <c r="Q77" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R77" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E78" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K78" s="36"/>
+      <c r="L78" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M78" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
+      <c r="N78" s="40">
+        <v>2.64</v>
+      </c>
+      <c r="O78" s="41">
+        <v>1</v>
+      </c>
+      <c r="P78" s="40">
+        <f t="shared" si="0"/>
+        <v>2.64</v>
+      </c>
+      <c r="Q78" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="R78" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="T78">
+        <f>IF(AND(Q78="Nicht Gekauft", R78="Benötigt"), P78, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="17"/>
+    </row>
+    <row r="81" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F81" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="82" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="G82" s="52" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="83" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="53">
+        <f>SUMPRODUCT(F2:F78, O2:O78, U2:U78)</f>
+        <v>6.7679999999999989</v>
+      </c>
+      <c r="G83" s="53" t="e" cm="1">
+        <f t="array" ref="G83">SUMPRODUCT((G2:G78=12)*(F2:F78)*(O2:O78)*(U2:U78))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G85" s="52" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="86" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G86" s="53" t="e" cm="1">
+        <f t="array" ref="G86">SUMPRODUCT((G2:G78=5)*(F2:F78)*(O2:O78)*(U2:U78))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F88" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F89" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="G89" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F90" s="48">
+        <f>F83*$F$93</f>
+        <v>10.151999999999997</v>
+      </c>
+      <c r="G90" s="48" t="e">
+        <f>G83*$F$93</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H90" s="3"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+    </row>
+    <row r="91" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F92" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="G92" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F93" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="G93" s="48" t="e">
+        <f>G86*$F$93</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H94" s="3"/>
+      <c r="I94" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="G68" s="52" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F69" s="53">
-        <f>SUMPRODUCT(F2:F64, O2:O64, U2:U64)</f>
-        <v>4.2199999999999989</v>
-      </c>
-      <c r="G69" s="53" cm="1">
-        <f t="array" ref="G69">SUMPRODUCT((G2:G64=12)*(F2:F64)*(O2:O64)*(U2:U64))</f>
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>304</v>
-      </c>
-      <c r="C70" t="s">
-        <v>305</v>
-      </c>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>306</v>
-      </c>
-      <c r="C71" t="s">
-        <v>307</v>
-      </c>
-      <c r="G71" s="52" t="s">
+      <c r="G95" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="96" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F96" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="G96" s="55" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F97" s="56">
+        <v>5.5888</v>
+      </c>
+      <c r="G97" s="57">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F98" s="49"/>
+      <c r="G98" s="49"/>
+    </row>
+    <row r="99" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F99" s="49"/>
+      <c r="G99" s="54" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F100" s="49"/>
+      <c r="G100" s="56">
+        <v>2.548</v>
+      </c>
+    </row>
+    <row r="102" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>285</v>
+      </c>
+      <c r="G103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>286</v>
+      </c>
+      <c r="G104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>287</v>
+      </c>
+      <c r="G105">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="107" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>328</v>
-      </c>
-      <c r="G72" s="53" cm="1">
-        <f t="array" ref="G72">SUMPRODUCT((G2:G64=5)*(F2:F64)*(O2:O64)*(U2:U64))</f>
-        <v>2.04</v>
-      </c>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>320</v>
-      </c>
-      <c r="B73" t="s">
-        <v>308</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>315</v>
-      </c>
-      <c r="B74">
-        <v>5013300200</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>313</v>
-      </c>
-      <c r="B75">
-        <v>665103131822</v>
-      </c>
-      <c r="C75" t="s">
-        <v>311</v>
-      </c>
-      <c r="F75" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="G75" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>314</v>
-      </c>
-      <c r="B76">
-        <v>665003113322</v>
-      </c>
-      <c r="C76" t="s">
-        <v>312</v>
-      </c>
-      <c r="F76" s="48">
-        <f>F69*$F$79</f>
-        <v>6.3299999999999983</v>
-      </c>
-      <c r="G76" s="48">
-        <f>G69*$F$79</f>
-        <v>3.2700000000000005</v>
-      </c>
-      <c r="H76" s="3"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-    </row>
-    <row r="77" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H77" s="3"/>
-    </row>
-    <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="108" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>288</v>
+      </c>
+      <c r="G108" t="e">
+        <f>G103-G90</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="109" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>289</v>
+      </c>
+      <c r="G109" t="e">
+        <f>G104+G105-G93</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="112" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
         <v>329</v>
       </c>
-      <c r="F78" s="50" t="s">
-        <v>279</v>
-      </c>
-      <c r="G78" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="H78" s="3"/>
-    </row>
-    <row r="79" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>321</v>
-      </c>
-      <c r="B79" t="s">
-        <v>319</v>
-      </c>
-      <c r="C79" t="s">
-        <v>324</v>
-      </c>
-      <c r="F79" s="51">
-        <v>1.5</v>
-      </c>
-      <c r="G79" s="48">
-        <f>G72*$F$79</f>
-        <v>3.06</v>
-      </c>
-      <c r="H79" s="3"/>
-    </row>
-    <row r="80" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>315</v>
-      </c>
-      <c r="B80" t="s">
-        <v>323</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F81" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>325</v>
-      </c>
-      <c r="B82" t="s">
-        <v>327</v>
-      </c>
-      <c r="C82" t="s">
-        <v>326</v>
-      </c>
-      <c r="F82" s="54" t="s">
-        <v>272</v>
-      </c>
-      <c r="G82" s="55" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F83" s="56">
-        <v>5.5888</v>
-      </c>
-      <c r="G83" s="57">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>328</v>
-      </c>
-      <c r="F84" s="49"/>
-      <c r="G84" s="49"/>
-    </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>315</v>
-      </c>
-      <c r="B85">
-        <v>665002113322</v>
-      </c>
-      <c r="C85" t="s">
-        <v>316</v>
-      </c>
-      <c r="F85" s="49"/>
-      <c r="G85" s="54" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>318</v>
-      </c>
-      <c r="B86">
-        <v>665102131822</v>
-      </c>
-      <c r="C86" t="s">
-        <v>317</v>
-      </c>
-      <c r="F86" s="49"/>
-      <c r="G86" s="56">
-        <v>2.548</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F88" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>333</v>
-      </c>
-      <c r="B89" t="s">
-        <v>330</v>
-      </c>
-      <c r="C89" t="s">
-        <v>331</v>
-      </c>
-      <c r="F89" t="s">
-        <v>289</v>
-      </c>
-      <c r="G89">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>334</v>
-      </c>
-      <c r="B90" t="s">
-        <v>332</v>
-      </c>
-      <c r="C90" t="s">
-        <v>335</v>
-      </c>
-      <c r="F90" t="s">
-        <v>290</v>
-      </c>
-      <c r="G90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F91" t="s">
-        <v>291</v>
-      </c>
-      <c r="G91">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>336</v>
-      </c>
-      <c r="B92" t="s">
-        <v>346</v>
-      </c>
-      <c r="C92" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>337</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="F93" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>338</v>
-      </c>
-      <c r="C94" t="s">
-        <v>342</v>
-      </c>
-      <c r="F94" t="s">
-        <v>292</v>
-      </c>
-      <c r="G94">
-        <f>G89-G76</f>
-        <v>4.7299999999999995</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>339</v>
-      </c>
-      <c r="C95" t="s">
-        <v>340</v>
-      </c>
-      <c r="F95" t="s">
-        <v>293</v>
-      </c>
-      <c r="G95">
-        <f>G90+G91-G79</f>
-        <v>1.9899999999999998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>343</v>
-      </c>
-      <c r="C96" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>345</v>
-      </c>
-      <c r="B99" s="6"/>
-    </row>
-    <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>338</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>339</v>
-      </c>
-      <c r="C101" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>343</v>
-      </c>
-      <c r="C102" t="s">
-        <v>350</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R64" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
-    <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="ACC3"/>
-        <filter val="BF4"/>
-        <filter val="BP2"/>
-        <filter val="F2"/>
-        <filter val="S1"/>
-        <filter val="SP2"/>
-        <filter val="TP1"/>
-        <filter val="TP2"/>
-        <filter val="TP3"/>
-        <filter val="TP4"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R78" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}"/>
   <customSheetViews>
-    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
+    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
+      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R60" xr:uid="{9318D7C5-BB88-46CA-A8C1-36A98106D671}">
+      <autoFilter ref="A1:R62" xr:uid="{B3EEE366-3320-4720-B1EE-967BDD259E9C}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
             <filter val="BF4"/>
             <filter val="BP2"/>
             <filter val="F2"/>
+            <filter val="POW2"/>
             <filter val="S1"/>
             <filter val="SP2"/>
             <filter val="TP2"/>
@@ -5896,33 +6326,32 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
+    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A1:R59" xr:uid="{72BDA816-FF6D-42C2-8294-163AE6142FE4}"/>
+    </customSheetView>
     <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R59" xr:uid="{2B7F3B6F-0E15-4C3E-8D6D-5245EE5C7AB0}"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A1:R59" xr:uid="{74F3614A-4B57-483C-8C56-7E2835385F53}"/>
     </customSheetView>
-    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
+    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R59" xr:uid="{621AC93C-B101-41D2-95C0-2F4DCE866C83}"/>
-    </customSheetView>
-    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R62" xr:uid="{F8BED1B4-F047-4BB8-94CC-FB3D2C336220}">
+      <autoFilter ref="A1:R60" xr:uid="{07180EFF-1CDA-422E-89D3-3E85C7685E9A}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
             <filter val="BF4"/>
             <filter val="BP2"/>
             <filter val="F2"/>
-            <filter val="POW2"/>
             <filter val="S1"/>
             <filter val="SP2"/>
             <filter val="TP2"/>
@@ -5950,7 +6379,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q25 Q29:Q70 Q72:Q1048576">
+  <conditionalFormatting sqref="Q39:Q84 Q86:Q1048576 Q1:Q35">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Nicht Gekauft"</formula>
     </cfRule>
@@ -5966,7 +6395,7 @@
       <formula>"Gekauft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R25 R29:R65">
+  <conditionalFormatting sqref="R39:R79 R2:R35">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Nicht benötigt"</formula>
     </cfRule>
@@ -5975,45 +6404,44 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R25 R29:R65" xr:uid="{DF639F38-DCBF-4FB0-9016-BE70B5447265}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R39:R79 R2:R35" xr:uid="{DF639F38-DCBF-4FB0-9016-BE70B5447265}">
       <formula1>"Benötigt,Nicht benötigt"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q25 Q29:Q65" xr:uid="{BB82D80E-695D-4A38-A148-48463DFE8321}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q39:Q79 Q2:Q35" xr:uid="{BB82D80E-695D-4A38-A148-48463DFE8321}">
       <formula1>"Gekauft,Nicht Gekauft"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId5" xr:uid="{134576B2-6870-47F8-80B5-95CA9B97F9E2}"/>
-    <hyperlink ref="L46" r:id="rId6" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
-    <hyperlink ref="L47" r:id="rId7" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
-    <hyperlink ref="L48" r:id="rId8" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
-    <hyperlink ref="L29" r:id="rId9" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
-    <hyperlink ref="L62" r:id="rId10" xr:uid="{9A0B0992-EB9B-485C-8743-AB5373B961C2}"/>
-    <hyperlink ref="L64" r:id="rId11" xr:uid="{B67FB571-1B87-4184-A2B3-AF411BD87D35}"/>
-    <hyperlink ref="L50" r:id="rId12" xr:uid="{57963C92-CE56-4D91-B1F1-7FA05F5BC3A8}"/>
-    <hyperlink ref="L49" r:id="rId13" xr:uid="{9D795571-0999-43FF-9A1F-496FF99C86C0}"/>
-    <hyperlink ref="L51" r:id="rId14" xr:uid="{8465788D-FDE3-460C-960F-435D2FB5F396}"/>
+    <hyperlink ref="L58" r:id="rId6" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
+    <hyperlink ref="L59" r:id="rId7" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
+    <hyperlink ref="L60" r:id="rId8" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
+    <hyperlink ref="L39" r:id="rId9" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
+    <hyperlink ref="L76" r:id="rId10" xr:uid="{9A0B0992-EB9B-485C-8743-AB5373B961C2}"/>
+    <hyperlink ref="L78" r:id="rId11" xr:uid="{B67FB571-1B87-4184-A2B3-AF411BD87D35}"/>
+    <hyperlink ref="L64" r:id="rId12" xr:uid="{57963C92-CE56-4D91-B1F1-7FA05F5BC3A8}"/>
+    <hyperlink ref="L63" r:id="rId13" xr:uid="{9D795571-0999-43FF-9A1F-496FF99C86C0}"/>
+    <hyperlink ref="L65" r:id="rId14" xr:uid="{8465788D-FDE3-460C-960F-435D2FB5F396}"/>
     <hyperlink ref="L10" r:id="rId15" xr:uid="{A9D6150D-3C06-4D81-AD60-047F4F409296}"/>
     <hyperlink ref="L11" r:id="rId16" xr:uid="{411A7094-1AC1-4084-ABE4-5C0060EC1A2D}"/>
     <hyperlink ref="L12" r:id="rId17" xr:uid="{3DDB6C5A-7DB3-4C65-B604-D02293535F49}"/>
     <hyperlink ref="L7" r:id="rId18" xr:uid="{56E44BCE-942A-4E32-8574-907151789664}"/>
-    <hyperlink ref="L57" r:id="rId19" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
+    <hyperlink ref="L71" r:id="rId19" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
     <hyperlink ref="L3" r:id="rId20" xr:uid="{C49F6822-A4DD-42C2-B3BF-0381D137937C}"/>
     <hyperlink ref="L5" r:id="rId21" xr:uid="{BF0FEABB-4850-4BC5-A11D-D889C6B926FD}"/>
     <hyperlink ref="L8" r:id="rId22" xr:uid="{21389653-C0FE-46E1-B136-04B9A0DE28C5}"/>
-    <hyperlink ref="L52" r:id="rId23" xr:uid="{1242A3DC-9FDC-4C47-9270-1B4A92E75E73}"/>
-    <hyperlink ref="L26" r:id="rId24" xr:uid="{3ED73B15-E49B-4E21-BF8D-06828BFBADB2}"/>
+    <hyperlink ref="L66" r:id="rId23" xr:uid="{1242A3DC-9FDC-4C47-9270-1B4A92E75E73}"/>
+    <hyperlink ref="L36" r:id="rId24" xr:uid="{3ED73B15-E49B-4E21-BF8D-06828BFBADB2}"/>
     <hyperlink ref="L9" r:id="rId25" xr:uid="{E62708AD-A075-4D9D-9BC8-2CBD617B66EE}"/>
-    <hyperlink ref="L27" r:id="rId26" xr:uid="{488C7B18-56E0-4061-83E3-FAA678922DF9}"/>
-    <hyperlink ref="L33" r:id="rId27" xr:uid="{02A8F53B-7033-433E-97B4-37D43B10ABDE}"/>
-    <hyperlink ref="C73" r:id="rId28" xr:uid="{F989E443-6F04-45A5-A5B6-83699464B796}"/>
-    <hyperlink ref="C74" r:id="rId29" xr:uid="{EA26BA1A-7CE5-4F25-9686-9C9961368AD7}"/>
-    <hyperlink ref="C80" r:id="rId30" xr:uid="{627D7733-F0E4-49C3-A927-788CACD174D1}"/>
-    <hyperlink ref="B93" r:id="rId31" display="https://www.samtec.com/products/hle-107-02-l-dv" xr:uid="{05E67635-DC20-4D0B-937A-E1A05B41BF9B}"/>
-    <hyperlink ref="B100" r:id="rId32" display="https://www.samtec.com/products/tsm-107-04-l-dv" xr:uid="{1C96A744-ED9F-48B3-AD1D-5704F3392B1B}"/>
-    <hyperlink ref="C100" r:id="rId33" xr:uid="{9FC22445-D9EC-4755-88E1-E765234394E2}"/>
+    <hyperlink ref="L37" r:id="rId26" xr:uid="{488C7B18-56E0-4061-83E3-FAA678922DF9}"/>
+    <hyperlink ref="L43" r:id="rId27" xr:uid="{02A8F53B-7033-433E-97B4-37D43B10ABDE}"/>
+    <hyperlink ref="K61" r:id="rId28" display="https://www.samtec.com/products/hle-107-02-l-dv" xr:uid="{AF2D4394-67CE-4447-B187-DA356AB0AFD4}"/>
+    <hyperlink ref="L61" r:id="rId29" xr:uid="{3CAA47B9-FD6F-4B23-A59B-6E4BF51797D7}"/>
+    <hyperlink ref="L21" r:id="rId30" xr:uid="{8FDFC79B-94E5-4C68-84E1-D5C8679D313C}"/>
+    <hyperlink ref="L22" r:id="rId31" xr:uid="{3CB626FF-165C-4A7E-A7FE-D41E681D5EC5}"/>
+    <hyperlink ref="L68" r:id="rId32" xr:uid="{B06D0A87-6477-4382-AFA7-5ACA40E62DA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\GitHub\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1041F62-4A74-45AB-8CFB-5125338366BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD90D6A-D5EF-4B19-BF0D-ED3EC137FD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,14 +23,17 @@
     <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
     <definedName name="Z_AD0CFDC5_A886_4774_8323_B873BC9D36B7_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$V</definedName>
     <definedName name="Z_AD0CFDC5_A886_4774_8323_B873BC9D36B7_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
+    <definedName name="Z_B27C99E1_F194_4CDD_BEEF_0E7944A43981_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$V</definedName>
+    <definedName name="Z_B27C99E1_F194_4CDD_BEEF_0E7944A43981_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
     <definedName name="Z_E3E09E1D_E21B_434F_8777_BA2F5DFE998D_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Schaltplan_V5" guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
     <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +55,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -74,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="362">
   <si>
     <t>Alternative</t>
   </si>
@@ -1732,6 +1735,9 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1755,9 +1761,6 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2148,11 +2151,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W55" sqref="W55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2162,26 +2166,27 @@
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="35.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="4" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.28515625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
     <col min="17" max="17" width="23.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="24.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" customWidth="1"/>
     <col min="20" max="20" width="14.42578125" hidden="1" customWidth="1"/>
-    <col min="21" max="23" width="17" hidden="1" customWidth="1"/>
-    <col min="24" max="25" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="27" max="29" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="17" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="17" customWidth="1"/>
+    <col min="24" max="25" width="9.140625" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" customWidth="1"/>
+    <col min="27" max="29" width="9.140625" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2245,21 +2250,21 @@
       <c r="U1" t="s">
         <v>271</v>
       </c>
-      <c r="X1" s="60" t="s">
+      <c r="X1" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="Y1" s="61"/>
+      <c r="Y1" s="62"/>
       <c r="Z1" s="11">
         <f>SUMIFS(P10:P78,Q10:Q78, "Nicht Gekauft",R10:R78,"Benötigt")</f>
         <v>64.3</v>
       </c>
-      <c r="AB1" s="58" t="s">
+      <c r="AB1" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="AC1" s="59"/>
+      <c r="AC1" s="60"/>
       <c r="AD1" s="10">
         <f>SUM(P2:P78)</f>
-        <v>413.45</v>
+        <v>457.60000000000008</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -2316,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>114</v>
       </c>
@@ -2348,7 +2353,7 @@
         <v>27</v>
       </c>
       <c r="M3" s="31" t="str">
-        <f t="shared" ref="M3:M78" si="1">HYPERLINK(L3,J3)</f>
+        <f t="shared" ref="M3:M66" si="1">HYPERLINK(L3,J3)</f>
         <v>AZ-Delivery</v>
       </c>
       <c r="N3" s="40">
@@ -2372,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>115</v>
       </c>
@@ -2421,7 +2426,7 @@
       <c r="R4" s="34"/>
       <c r="U4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="5"/>
@@ -2466,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="40">
-        <f t="shared" si="0"/>
+        <f>N5*O5</f>
         <v>6.99</v>
       </c>
       <c r="Q5" s="41" t="s">
@@ -2483,16 +2488,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X5" s="64" t="s">
+      <c r="X5" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="Y5" s="65"/>
+      <c r="Y5" s="66"/>
       <c r="Z5" s="12">
         <f>SUBTOTAL(9,P1:P78)</f>
-        <v>413.45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>252.85999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>263</v>
       </c>
@@ -2523,14 +2528,20 @@
       <c r="L6" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="M6" s="31"/>
+      <c r="M6" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>3D-Jake</v>
+      </c>
       <c r="N6" s="40">
         <v>39.99</v>
       </c>
       <c r="O6" s="41">
         <v>1</v>
       </c>
-      <c r="P6" s="40"/>
+      <c r="P6" s="40">
+        <f t="shared" si="0"/>
+        <v>39.99</v>
+      </c>
       <c r="Q6" s="41"/>
       <c r="R6" s="25"/>
       <c r="U6">
@@ -2541,7 +2552,7 @@
       <c r="Y6" s="45"/>
       <c r="Z6" s="46"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>122</v>
       </c>
@@ -2583,7 +2594,7 @@
       <c r="O7" s="33">
         <v>4</v>
       </c>
-      <c r="P7" s="32">
+      <c r="P7" s="40">
         <f t="shared" si="0"/>
         <v>34.119999999999997</v>
       </c>
@@ -2599,15 +2610,15 @@
       </c>
       <c r="U7">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X7" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="Y7" s="63"/>
+      <c r="Y7" s="64"/>
       <c r="Z7" s="9">
         <f>SUBTOTAL(9,T1:T78)</f>
-        <v>115.32</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -2652,7 +2663,7 @@
         <v>4</v>
       </c>
       <c r="P8" s="40">
-        <f>N8*O8</f>
+        <f t="shared" si="0"/>
         <v>26.92</v>
       </c>
       <c r="Q8" s="41"/>
@@ -2703,8 +2714,8 @@
       <c r="O9" s="33">
         <v>4</v>
       </c>
-      <c r="P9" s="32">
-        <f>N9*O9</f>
+      <c r="P9" s="40">
+        <f t="shared" si="0"/>
         <v>29.6</v>
       </c>
       <c r="Q9" s="33"/>
@@ -2714,7 +2725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>166</v>
       </c>
@@ -2772,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>166</v>
       </c>
@@ -2811,7 +2822,7 @@
       <c r="O11" s="33">
         <v>9</v>
       </c>
-      <c r="P11" s="32">
+      <c r="P11" s="40">
         <f t="shared" si="0"/>
         <v>4.7700000000000005</v>
       </c>
@@ -2830,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>166</v>
       </c>
@@ -2888,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>167</v>
       </c>
@@ -2927,7 +2938,7 @@
       <c r="O13" s="33">
         <v>1</v>
       </c>
-      <c r="P13" s="32">
+      <c r="P13" s="40">
         <f t="shared" si="0"/>
         <v>17.14</v>
       </c>
@@ -2946,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>168</v>
       </c>
@@ -2986,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="40">
-        <f>N14*O14</f>
+        <f t="shared" si="0"/>
         <v>8.0500000000000007</v>
       </c>
       <c r="Q14" s="41"/>
@@ -2996,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>169</v>
       </c>
@@ -3035,7 +3046,7 @@
       <c r="O15" s="33">
         <v>1</v>
       </c>
-      <c r="P15" s="32">
+      <c r="P15" s="40">
         <f t="shared" si="0"/>
         <v>7.55</v>
       </c>
@@ -3093,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="40">
-        <f t="shared" ref="P16" si="4">N16*O16</f>
+        <f t="shared" si="0"/>
         <v>0.22</v>
       </c>
       <c r="Q16" s="41"/>
@@ -3141,8 +3152,8 @@
       <c r="O17" s="33">
         <v>2</v>
       </c>
-      <c r="P17" s="32">
-        <f t="shared" ref="P17:P34" si="5">N17*O17</f>
+      <c r="P17" s="40">
+        <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
       <c r="Q17" s="33"/>
@@ -3191,7 +3202,7 @@
         <v>8</v>
       </c>
       <c r="P18" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="Q18" s="41"/>
@@ -3202,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>333</v>
       </c>
@@ -3242,14 +3253,14 @@
         <v>1</v>
       </c>
       <c r="P19" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.78</v>
       </c>
       <c r="Q19" s="41"/>
       <c r="R19" s="25"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>333</v>
       </c>
@@ -3278,7 +3289,10 @@
       <c r="L20" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="M20" s="31"/>
+      <c r="M20" s="31" t="str">
+        <f>HYPERLINK(L20,J20)</f>
+        <v>DigiKey</v>
+      </c>
       <c r="N20" s="40">
         <v>1.73</v>
       </c>
@@ -3286,14 +3300,14 @@
         <v>1</v>
       </c>
       <c r="P20" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1.73</v>
       </c>
       <c r="Q20" s="41"/>
       <c r="R20" s="25"/>
       <c r="S20" s="8"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>338</v>
       </c>
@@ -3322,17 +3336,23 @@
       <c r="L21" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="M21" s="31"/>
+      <c r="M21" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
       <c r="N21" s="40">
         <v>1.46</v>
       </c>
       <c r="O21" s="41"/>
-      <c r="P21" s="40"/>
+      <c r="P21" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q21" s="41"/>
       <c r="R21" s="25"/>
       <c r="S21" s="8"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>338</v>
       </c>
@@ -3361,19 +3381,25 @@
       <c r="L22" s="39" t="s">
         <v>305</v>
       </c>
-      <c r="M22" s="31"/>
+      <c r="M22" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
       <c r="N22" s="40">
         <v>0.21</v>
       </c>
       <c r="O22" s="41">
         <v>1</v>
       </c>
-      <c r="P22" s="40"/>
+      <c r="P22" s="40">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
       <c r="Q22" s="41"/>
       <c r="R22" s="25"/>
       <c r="S22" s="8"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>338</v>
       </c>
@@ -3402,19 +3428,25 @@
       <c r="L23" s="39" t="s">
         <v>306</v>
       </c>
-      <c r="M23" s="31"/>
+      <c r="M23" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
       <c r="N23" s="40">
         <v>0.75</v>
       </c>
       <c r="O23" s="41">
         <v>1</v>
       </c>
-      <c r="P23" s="40"/>
+      <c r="P23" s="40">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
       <c r="Q23" s="41"/>
       <c r="R23" s="25"/>
       <c r="S23" s="8"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>338</v>
       </c>
@@ -3443,19 +3475,25 @@
       <c r="L24" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="M24" s="31"/>
+      <c r="M24" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
       <c r="N24" s="40">
         <v>0.2</v>
       </c>
       <c r="O24" s="41">
         <v>1</v>
       </c>
-      <c r="P24" s="40"/>
+      <c r="P24" s="40">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
       <c r="Q24" s="41"/>
       <c r="R24" s="25"/>
       <c r="S24" s="8"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>346</v>
       </c>
@@ -3486,19 +3524,25 @@
       <c r="L25" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="M25" s="31"/>
+      <c r="M25" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
       <c r="N25" s="40">
         <v>1.24</v>
       </c>
       <c r="O25" s="41">
         <v>1</v>
       </c>
-      <c r="P25" s="40"/>
+      <c r="P25" s="40">
+        <f t="shared" si="0"/>
+        <v>1.24</v>
+      </c>
       <c r="Q25" s="41"/>
       <c r="R25" s="25"/>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>346</v>
       </c>
@@ -3527,19 +3571,25 @@
       <c r="L26" s="39" t="s">
         <v>311</v>
       </c>
-      <c r="M26" s="31"/>
+      <c r="M26" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
       <c r="N26" s="40">
         <v>0.32</v>
       </c>
       <c r="O26" s="41">
         <v>1</v>
       </c>
-      <c r="P26" s="40"/>
+      <c r="P26" s="40">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
       <c r="Q26" s="41"/>
       <c r="R26" s="25"/>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>346</v>
       </c>
@@ -3568,14 +3618,20 @@
       <c r="L27" s="39" t="s">
         <v>311</v>
       </c>
-      <c r="M27" s="31"/>
+      <c r="M27" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
       <c r="N27" s="40">
         <v>0.7</v>
       </c>
       <c r="O27" s="41">
         <v>1</v>
       </c>
-      <c r="P27" s="40"/>
+      <c r="P27" s="40">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
       <c r="Q27" s="41"/>
       <c r="R27" s="25"/>
       <c r="S27" s="8"/>
@@ -3609,14 +3665,20 @@
       <c r="L28" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="M28" s="31"/>
+      <c r="M28" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
       <c r="N28" s="40">
         <v>0.13</v>
       </c>
       <c r="O28" s="41">
         <v>1</v>
       </c>
-      <c r="P28" s="40"/>
+      <c r="P28" s="40">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
       <c r="Q28" s="41"/>
       <c r="R28" s="25"/>
       <c r="S28" s="8"/>
@@ -3650,19 +3712,25 @@
       <c r="L29" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="M29" s="31"/>
+      <c r="M29" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
       <c r="N29" s="40">
         <v>0.61</v>
       </c>
       <c r="O29" s="41">
         <v>1</v>
       </c>
-      <c r="P29" s="40"/>
+      <c r="P29" s="40">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
       <c r="Q29" s="41"/>
       <c r="R29" s="25"/>
       <c r="S29" s="8"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
         <v>179</v>
       </c>
@@ -3692,7 +3760,7 @@
         <v>171</v>
       </c>
       <c r="M30" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L30,J30)</f>
         <v>DigiKey</v>
       </c>
       <c r="N30" s="40">
@@ -3702,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="P30" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>3.24</v>
       </c>
       <c r="Q30" s="41"/>
@@ -3750,8 +3818,8 @@
       <c r="O31" s="33">
         <v>1</v>
       </c>
-      <c r="P31" s="32">
-        <f t="shared" si="5"/>
+      <c r="P31" s="40">
+        <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
       <c r="Q31" s="33"/>
@@ -3762,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
         <v>193</v>
       </c>
@@ -3802,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="P32" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="P17:P34" si="4">N32*O32</f>
         <v>0.82</v>
       </c>
       <c r="Q32" s="41"/>
@@ -3851,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="P33" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.94</v>
       </c>
       <c r="Q33" s="33"/>
@@ -3862,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
         <v>195</v>
       </c>
@@ -3900,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="P34" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.33</v>
       </c>
       <c r="Q34" s="41"/>
@@ -4005,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>199</v>
       </c>
@@ -4294,7 +4362,7 @@
         <v>2</v>
       </c>
       <c r="P42" s="32">
-        <f t="shared" ref="P42:P57" si="6">N42*O42</f>
+        <f t="shared" ref="P42:P57" si="5">N42*O42</f>
         <v>5.82</v>
       </c>
       <c r="Q42" s="33"/>
@@ -4421,7 +4489,10 @@
       <c r="L45" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="M45" s="31"/>
+      <c r="M45" s="31" t="str">
+        <f>HYPERLINK(L45,J45)</f>
+        <v>DigiKey</v>
+      </c>
       <c r="N45" s="32">
         <v>1.78</v>
       </c>
@@ -4460,7 +4531,10 @@
       <c r="L46" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="M46" s="31"/>
+      <c r="M46" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
       <c r="N46" s="32">
         <v>0.95</v>
       </c>
@@ -4500,7 +4574,7 @@
         <v>225</v>
       </c>
       <c r="M47" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L47,J47)</f>
         <v>DigiKey</v>
       </c>
       <c r="N47" s="40">
@@ -4556,7 +4630,7 @@
         <v>1</v>
       </c>
       <c r="P48" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.47</v>
       </c>
       <c r="Q48" s="33"/>
@@ -4602,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="P49" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="Q49" s="41"/>
@@ -4612,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
         <v>294</v>
       </c>
@@ -4639,7 +4713,10 @@
       <c r="L50" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="M50" s="31"/>
+      <c r="M50" s="31" t="str">
+        <f>HYPERLINK(L50,J50)</f>
+        <v>DigiKey</v>
+      </c>
       <c r="N50" s="40">
         <v>0.3</v>
       </c>
@@ -4647,13 +4724,13 @@
         <v>1</v>
       </c>
       <c r="P50" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="Q50" s="41"/>
       <c r="R50" s="25"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>276</v>
       </c>
@@ -4701,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
         <v>276</v>
       </c>
@@ -4791,7 +4868,7 @@
         <v>1</v>
       </c>
       <c r="P53" s="40">
-        <f t="shared" ref="P53:P54" si="7">N53*O53</f>
+        <f t="shared" ref="P53:P54" si="6">N53*O53</f>
         <v>2.34</v>
       </c>
       <c r="Q53" s="33"/>
@@ -4835,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="P54" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.17</v>
       </c>
       <c r="Q54" s="41"/>
@@ -4881,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="P55" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="Q55" s="33"/>
@@ -4931,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="P56" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="Q56" s="41"/>
@@ -4981,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="P57" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
       <c r="Q57" s="33"/>
@@ -5038,7 +5115,7 @@
       </c>
       <c r="S58" s="6"/>
       <c r="T58">
-        <f t="shared" ref="T58:T65" si="8">IF(AND(Q58="Nicht Gekauft", R58="Benötigt"), P58, 0)</f>
+        <f t="shared" ref="T58:T65" si="7">IF(AND(Q58="Nicht Gekauft", R58="Benötigt"), P58, 0)</f>
         <v>8.8000000000000007</v>
       </c>
       <c r="U58">
@@ -5046,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
         <v>326</v>
       </c>
@@ -5095,7 +5172,7 @@
       </c>
       <c r="S59" s="6"/>
       <c r="T59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.2799999999999998</v>
       </c>
       <c r="U59">
@@ -5103,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="35" t="s">
         <v>326</v>
       </c>
@@ -5152,7 +5229,7 @@
       </c>
       <c r="S60" s="6"/>
       <c r="T60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="U60">
@@ -5230,13 +5307,16 @@
       <c r="J62" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="K62" s="66" t="s">
+      <c r="K62" s="58" t="s">
         <v>331</v>
       </c>
       <c r="L62" s="39" t="s">
         <v>324</v>
       </c>
-      <c r="M62" s="31"/>
+      <c r="M62" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
+      </c>
       <c r="N62" s="40">
         <v>1.53</v>
       </c>
@@ -5251,7 +5331,7 @@
       <c r="R62" s="25"/>
       <c r="S62" s="6"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="28" t="s">
         <v>69</v>
       </c>
@@ -5300,7 +5380,7 @@
       </c>
       <c r="S63" s="6"/>
       <c r="T63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U63">
@@ -5359,7 +5439,7 @@
       </c>
       <c r="S64" s="6"/>
       <c r="T64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U64">
@@ -5367,7 +5447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
         <v>80</v>
       </c>
@@ -5416,7 +5496,7 @@
       </c>
       <c r="S65" s="6"/>
       <c r="T65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>11.24</v>
       </c>
       <c r="U65">
@@ -5473,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
         <v>69</v>
       </c>
@@ -5499,7 +5579,7 @@
         <v>140</v>
       </c>
       <c r="M67" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M67:M77" si="8">HYPERLINK(L67,J67)</f>
         <v>3D-Jake</v>
       </c>
       <c r="N67" s="32">
@@ -5520,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="35" t="s">
         <v>69</v>
       </c>
@@ -5548,7 +5628,7 @@
         <v>132</v>
       </c>
       <c r="M68" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L68,J68)</f>
         <v>DigiKey</v>
       </c>
       <c r="N68" s="40">
@@ -5569,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="28" t="s">
         <v>69</v>
       </c>
@@ -5597,7 +5677,7 @@
         <v>136</v>
       </c>
       <c r="M69" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
       <c r="N69" s="32">
@@ -5646,7 +5726,7 @@
         <v>232</v>
       </c>
       <c r="M70" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
       <c r="N70" s="40">
@@ -5667,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
         <v>142</v>
       </c>
@@ -5695,7 +5775,7 @@
         <v>104</v>
       </c>
       <c r="M71" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
       <c r="N71" s="32">
@@ -5723,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="35" t="s">
         <v>145</v>
       </c>
@@ -5751,7 +5831,7 @@
         <v>259</v>
       </c>
       <c r="M72" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Amazon</v>
       </c>
       <c r="N72" s="40">
@@ -5799,7 +5879,7 @@
         <v>149</v>
       </c>
       <c r="M73" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>RobotShop</v>
       </c>
       <c r="N73" s="32">
@@ -5819,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="35" t="s">
         <v>150</v>
       </c>
@@ -5847,7 +5927,7 @@
         <v>153</v>
       </c>
       <c r="M74" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
       <c r="N74" s="40">
@@ -5867,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
         <v>57</v>
       </c>
@@ -5895,7 +5975,7 @@
         <v>258</v>
       </c>
       <c r="M75" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Amazon</v>
       </c>
       <c r="N75" s="32">
@@ -5923,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
         <v>61</v>
       </c>
@@ -5951,7 +6031,7 @@
         <v>65</v>
       </c>
       <c r="M76" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
       <c r="N76" s="40">
@@ -5975,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
         <v>61</v>
       </c>
@@ -6003,7 +6083,7 @@
         <v>257</v>
       </c>
       <c r="M77" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
       <c r="N77" s="32">
@@ -6027,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
         <v>61</v>
       </c>
@@ -6055,7 +6135,7 @@
         <v>68</v>
       </c>
       <c r="M78" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L78,J78)</f>
         <v>DigiKey</v>
       </c>
       <c r="N78" s="40">
@@ -6121,7 +6201,7 @@
     <row r="83" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F83" s="53">
         <f>SUMPRODUCT(F2:F78, O2:O78, U2:U78)</f>
-        <v>6.7679999999999989</v>
+        <v>4.7199999999999989</v>
       </c>
       <c r="G83" s="53" t="e" cm="1">
         <f t="array" ref="G83">SUMPRODUCT((G2:G78=12)*(F2:F78)*(O2:O78)*(U2:U78))</f>
@@ -6168,7 +6248,7 @@
     <row r="90" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F90" s="48">
         <f>F83*$F$93</f>
-        <v>10.151999999999997</v>
+        <v>7.0799999999999983</v>
       </c>
       <c r="G90" s="48" t="e">
         <f>G83*$F$93</f>
@@ -6214,18 +6294,16 @@
         <v>272</v>
       </c>
     </row>
-    <row r="96" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F96" s="54" t="s">
-        <v>268</v>
+    <row r="96" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="56">
+        <f>SUM(F2:F78)</f>
+        <v>4.622399999999999</v>
       </c>
       <c r="G96" s="55" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="97" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F97" s="56">
-        <v>5.5888</v>
-      </c>
       <c r="G97" s="57">
         <v>3.04</v>
       </c>
@@ -6304,14 +6382,86 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R78" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}"/>
+  <autoFilter ref="A1:R78" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="ACC3"/>
+        <filter val="BF4"/>
+        <filter val="BL"/>
+        <filter val="BP2"/>
+        <filter val="F2"/>
+        <filter val="POW2"/>
+        <filter val="S1"/>
+        <filter val="SP2"/>
+        <filter val="ST4"/>
+        <filter val="SV2"/>
+        <filter val="TP2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <customSheetViews>
+    <customSheetView guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A1:R78" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BL"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="POW2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="ST4"/>
+            <filter val="SV2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A1:R60" xr:uid="{34471DF3-E3E0-498A-AED4-AB2121395580}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A1:R59" xr:uid="{407DEAD0-B544-488E-97A9-315DC0B4431F}"/>
+    </customSheetView>
+    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A1:R59" xr:uid="{5F3BF8EB-ACB1-4491-BE15-2111FBFA9D4C}"/>
+    </customSheetView>
     <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R62" xr:uid="{B3EEE366-3320-4720-B1EE-967BDD259E9C}">
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+      <autoFilter ref="A1:R62" xr:uid="{9E3CD13C-9BAC-408D-B214-20200E48120F}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6319,39 +6469,6 @@
             <filter val="BP2"/>
             <filter val="F2"/>
             <filter val="POW2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R59" xr:uid="{72BDA816-FF6D-42C2-8294-163AE6142FE4}"/>
-    </customSheetView>
-    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R59" xr:uid="{74F3614A-4B57-483C-8C56-7E2835385F53}"/>
-    </customSheetView>
-    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R60" xr:uid="{07180EFF-1CDA-422E-89D3-3E85C7685E9A}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
             <filter val="S1"/>
             <filter val="SP2"/>
             <filter val="TP2"/>
@@ -6379,7 +6496,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q39:Q84 Q86:Q1048576 Q1:Q35">
+  <conditionalFormatting sqref="Q1:Q35 Q39:Q84 Q86:Q1048576">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Nicht Gekauft"</formula>
     </cfRule>
@@ -6395,7 +6512,7 @@
       <formula>"Gekauft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R39:R79 R2:R35">
+  <conditionalFormatting sqref="R2:R35 R39:R79">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Nicht benötigt"</formula>
     </cfRule>
@@ -6412,36 +6529,36 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId5" xr:uid="{134576B2-6870-47F8-80B5-95CA9B97F9E2}"/>
-    <hyperlink ref="L58" r:id="rId6" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
-    <hyperlink ref="L59" r:id="rId7" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
-    <hyperlink ref="L60" r:id="rId8" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
-    <hyperlink ref="L39" r:id="rId9" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
-    <hyperlink ref="L76" r:id="rId10" xr:uid="{9A0B0992-EB9B-485C-8743-AB5373B961C2}"/>
-    <hyperlink ref="L78" r:id="rId11" xr:uid="{B67FB571-1B87-4184-A2B3-AF411BD87D35}"/>
-    <hyperlink ref="L64" r:id="rId12" xr:uid="{57963C92-CE56-4D91-B1F1-7FA05F5BC3A8}"/>
-    <hyperlink ref="L63" r:id="rId13" xr:uid="{9D795571-0999-43FF-9A1F-496FF99C86C0}"/>
-    <hyperlink ref="L65" r:id="rId14" xr:uid="{8465788D-FDE3-460C-960F-435D2FB5F396}"/>
-    <hyperlink ref="L10" r:id="rId15" xr:uid="{A9D6150D-3C06-4D81-AD60-047F4F409296}"/>
-    <hyperlink ref="L11" r:id="rId16" xr:uid="{411A7094-1AC1-4084-ABE4-5C0060EC1A2D}"/>
-    <hyperlink ref="L12" r:id="rId17" xr:uid="{3DDB6C5A-7DB3-4C65-B604-D02293535F49}"/>
-    <hyperlink ref="L7" r:id="rId18" xr:uid="{56E44BCE-942A-4E32-8574-907151789664}"/>
-    <hyperlink ref="L71" r:id="rId19" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
-    <hyperlink ref="L3" r:id="rId20" xr:uid="{C49F6822-A4DD-42C2-B3BF-0381D137937C}"/>
-    <hyperlink ref="L5" r:id="rId21" xr:uid="{BF0FEABB-4850-4BC5-A11D-D889C6B926FD}"/>
-    <hyperlink ref="L8" r:id="rId22" xr:uid="{21389653-C0FE-46E1-B136-04B9A0DE28C5}"/>
-    <hyperlink ref="L66" r:id="rId23" xr:uid="{1242A3DC-9FDC-4C47-9270-1B4A92E75E73}"/>
-    <hyperlink ref="L36" r:id="rId24" xr:uid="{3ED73B15-E49B-4E21-BF8D-06828BFBADB2}"/>
-    <hyperlink ref="L9" r:id="rId25" xr:uid="{E62708AD-A075-4D9D-9BC8-2CBD617B66EE}"/>
-    <hyperlink ref="L37" r:id="rId26" xr:uid="{488C7B18-56E0-4061-83E3-FAA678922DF9}"/>
-    <hyperlink ref="L43" r:id="rId27" xr:uid="{02A8F53B-7033-433E-97B4-37D43B10ABDE}"/>
-    <hyperlink ref="K61" r:id="rId28" display="https://www.samtec.com/products/hle-107-02-l-dv" xr:uid="{AF2D4394-67CE-4447-B187-DA356AB0AFD4}"/>
-    <hyperlink ref="L61" r:id="rId29" xr:uid="{3CAA47B9-FD6F-4B23-A59B-6E4BF51797D7}"/>
-    <hyperlink ref="L21" r:id="rId30" xr:uid="{8FDFC79B-94E5-4C68-84E1-D5C8679D313C}"/>
-    <hyperlink ref="L22" r:id="rId31" xr:uid="{3CB626FF-165C-4A7E-A7FE-D41E681D5EC5}"/>
-    <hyperlink ref="L68" r:id="rId32" xr:uid="{B06D0A87-6477-4382-AFA7-5ACA40E62DA0}"/>
+    <hyperlink ref="L2" r:id="rId6" xr:uid="{134576B2-6870-47F8-80B5-95CA9B97F9E2}"/>
+    <hyperlink ref="L58" r:id="rId7" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
+    <hyperlink ref="L59" r:id="rId8" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
+    <hyperlink ref="L60" r:id="rId9" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
+    <hyperlink ref="L39" r:id="rId10" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
+    <hyperlink ref="L76" r:id="rId11" xr:uid="{9A0B0992-EB9B-485C-8743-AB5373B961C2}"/>
+    <hyperlink ref="L78" r:id="rId12" xr:uid="{B67FB571-1B87-4184-A2B3-AF411BD87D35}"/>
+    <hyperlink ref="L64" r:id="rId13" xr:uid="{57963C92-CE56-4D91-B1F1-7FA05F5BC3A8}"/>
+    <hyperlink ref="L63" r:id="rId14" xr:uid="{9D795571-0999-43FF-9A1F-496FF99C86C0}"/>
+    <hyperlink ref="L65" r:id="rId15" xr:uid="{8465788D-FDE3-460C-960F-435D2FB5F396}"/>
+    <hyperlink ref="L10" r:id="rId16" xr:uid="{A9D6150D-3C06-4D81-AD60-047F4F409296}"/>
+    <hyperlink ref="L11" r:id="rId17" xr:uid="{411A7094-1AC1-4084-ABE4-5C0060EC1A2D}"/>
+    <hyperlink ref="L12" r:id="rId18" xr:uid="{3DDB6C5A-7DB3-4C65-B604-D02293535F49}"/>
+    <hyperlink ref="L7" r:id="rId19" xr:uid="{56E44BCE-942A-4E32-8574-907151789664}"/>
+    <hyperlink ref="L71" r:id="rId20" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
+    <hyperlink ref="L3" r:id="rId21" xr:uid="{C49F6822-A4DD-42C2-B3BF-0381D137937C}"/>
+    <hyperlink ref="L5" r:id="rId22" xr:uid="{BF0FEABB-4850-4BC5-A11D-D889C6B926FD}"/>
+    <hyperlink ref="L8" r:id="rId23" xr:uid="{21389653-C0FE-46E1-B136-04B9A0DE28C5}"/>
+    <hyperlink ref="L66" r:id="rId24" xr:uid="{1242A3DC-9FDC-4C47-9270-1B4A92E75E73}"/>
+    <hyperlink ref="L36" r:id="rId25" xr:uid="{3ED73B15-E49B-4E21-BF8D-06828BFBADB2}"/>
+    <hyperlink ref="L9" r:id="rId26" xr:uid="{E62708AD-A075-4D9D-9BC8-2CBD617B66EE}"/>
+    <hyperlink ref="L37" r:id="rId27" xr:uid="{488C7B18-56E0-4061-83E3-FAA678922DF9}"/>
+    <hyperlink ref="L43" r:id="rId28" xr:uid="{02A8F53B-7033-433E-97B4-37D43B10ABDE}"/>
+    <hyperlink ref="K61" r:id="rId29" display="https://www.samtec.com/products/hle-107-02-l-dv" xr:uid="{AF2D4394-67CE-4447-B187-DA356AB0AFD4}"/>
+    <hyperlink ref="L61" r:id="rId30" xr:uid="{3CAA47B9-FD6F-4B23-A59B-6E4BF51797D7}"/>
+    <hyperlink ref="L21" r:id="rId31" xr:uid="{8FDFC79B-94E5-4C68-84E1-D5C8679D313C}"/>
+    <hyperlink ref="L22" r:id="rId32" xr:uid="{3CB626FF-165C-4A7E-A7FE-D41E681D5EC5}"/>
+    <hyperlink ref="L68" r:id="rId33" xr:uid="{B06D0A87-6477-4382-AFA7-5ACA40E62DA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\GitHub\fiberprinter-electronics\2nd_mainboard_bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD90D6A-D5EF-4B19-BF0D-ED3EC137FD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0479B0E-63F9-4531-9F00-25FEE34CD421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2ndMainBoard" sheetId="5" r:id="rId1"/>
@@ -29,11 +29,11 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
     <customWorkbookView name="Schaltplan_V5" guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="362">
   <si>
     <t>Alternative</t>
   </si>
@@ -1174,7 +1174,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1224,8 +1224,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1296,6 +1303,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -1600,11 +1613,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1673,16 +1687,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1692,30 +1697,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1735,9 +1722,6 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1762,10 +1746,27 @@
     <xf numFmtId="165" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2155,11 +2156,11 @@
   <dimension ref="A1:AD112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W55" sqref="W55"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P73" sqref="A1:P73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
@@ -2174,7 +2175,7 @@
     <col min="11" max="11" width="15.5703125" style="3" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="1" customWidth="1"/>
     <col min="15" max="15" width="7.28515625" style="5" customWidth="1"/>
     <col min="16" max="16" width="15.28515625" customWidth="1"/>
     <col min="17" max="17" width="23.42578125" style="2" hidden="1" customWidth="1"/>
@@ -2250,71 +2251,71 @@
       <c r="U1" t="s">
         <v>271</v>
       </c>
-      <c r="X1" s="61" t="s">
+      <c r="X1" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="Y1" s="62"/>
+      <c r="Y1" s="52"/>
       <c r="Z1" s="11">
         <f>SUMIFS(P10:P78,Q10:Q78, "Nicht Gekauft",R10:R78,"Benötigt")</f>
         <v>64.3</v>
       </c>
-      <c r="AB1" s="59" t="s">
+      <c r="AB1" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="AC1" s="60"/>
+      <c r="AC1" s="50"/>
       <c r="AD1" s="10">
         <f>SUM(P2:P78)</f>
         <v>457.60000000000008</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30" t="s">
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31" t="s">
+      <c r="K2" s="58"/>
+      <c r="L2" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="31" t="str">
+      <c r="M2" s="58" t="str">
         <f>HYPERLINK(L2,J2)</f>
         <v>Stepperonline</v>
       </c>
-      <c r="N2" s="32">
+      <c r="N2" s="60">
         <v>9.91</v>
       </c>
-      <c r="O2" s="33">
-        <v>1</v>
-      </c>
-      <c r="P2" s="32">
+      <c r="O2" s="61">
+        <v>1</v>
+      </c>
+      <c r="P2" s="29">
         <f t="shared" ref="P2:P78" si="0">N2*O2</f>
         <v>9.91</v>
       </c>
-      <c r="Q2" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="34" t="s">
+      <c r="Q2" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="31" t="s">
         <v>108</v>
       </c>
       <c r="T2">
         <f>IF(AND(Q2="Nicht Gekauft", R2="Benötigt"), P2, 0)</f>
-        <v>9.91</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <f>SUBTOTAL(103, G2)</f>
@@ -2322,51 +2323,51 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="58">
         <v>1.5</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="58">
         <v>12</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38" t="s">
+      <c r="H3" s="58"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="39" t="s">
+      <c r="K3" s="62"/>
+      <c r="L3" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="31" t="str">
+      <c r="M3" s="58" t="str">
         <f t="shared" ref="M3:M66" si="1">HYPERLINK(L3,J3)</f>
         <v>AZ-Delivery</v>
       </c>
-      <c r="N3" s="40">
+      <c r="N3" s="60">
         <v>6.99</v>
       </c>
-      <c r="O3" s="41">
-        <v>1</v>
-      </c>
-      <c r="P3" s="40">
+      <c r="O3" s="61">
+        <v>1</v>
+      </c>
+      <c r="P3" s="33">
         <f t="shared" si="0"/>
         <v>6.99</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="34" t="s">
         <v>21</v>
       </c>
       <c r="R3" s="25" t="s">
@@ -2378,52 +2379,52 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="58">
         <v>1.2</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="58">
         <v>12</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43" t="s">
+      <c r="H4" s="58"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="31" t="s">
+      <c r="K4" s="62"/>
+      <c r="L4" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="31" t="str">
+      <c r="M4" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3D-Jake</v>
       </c>
-      <c r="N4" s="32">
+      <c r="N4" s="60">
         <v>6.99</v>
       </c>
-      <c r="O4" s="33">
-        <v>1</v>
-      </c>
-      <c r="P4" s="32">
+      <c r="O4" s="61">
+        <v>1</v>
+      </c>
+      <c r="P4" s="29">
         <f>N4*O4</f>
         <v>6.99</v>
       </c>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="34"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="31"/>
       <c r="U4">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2432,49 +2433,49 @@
       <c r="Y4" s="5"/>
     </row>
     <row r="5" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="58">
         <v>0.5</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="58">
         <v>5</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38" t="s">
+      <c r="H5" s="58"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="39" t="s">
+      <c r="K5" s="62"/>
+      <c r="L5" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="31" t="str">
+      <c r="M5" s="58" t="str">
         <f t="shared" si="1"/>
         <v>AZ-Delivery</v>
       </c>
-      <c r="N5" s="40">
+      <c r="N5" s="60">
         <v>6.99</v>
       </c>
-      <c r="O5" s="41">
-        <v>1</v>
-      </c>
-      <c r="P5" s="40">
+      <c r="O5" s="61">
+        <v>1</v>
+      </c>
+      <c r="P5" s="33">
         <f>N5*O5</f>
         <v>6.99</v>
       </c>
-      <c r="Q5" s="41" t="s">
+      <c r="Q5" s="34" t="s">
         <v>21</v>
       </c>
       <c r="R5" s="25" t="s">
@@ -2488,120 +2489,122 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X5" s="65" t="s">
+      <c r="X5" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="Y5" s="66"/>
+      <c r="Y5" s="56"/>
       <c r="Z5" s="12">
         <f>SUBTOTAL(9,P1:P78)</f>
         <v>252.85999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="58">
         <v>0.5</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="58">
         <v>5</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38" t="s">
+      <c r="H6" s="58"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="39" t="s">
+      <c r="K6" s="62"/>
+      <c r="L6" s="58" t="s">
         <v>265</v>
       </c>
-      <c r="M6" s="31" t="str">
+      <c r="M6" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3D-Jake</v>
       </c>
-      <c r="N6" s="40">
+      <c r="N6" s="60">
         <v>39.99</v>
       </c>
-      <c r="O6" s="41">
-        <v>1</v>
-      </c>
-      <c r="P6" s="40">
+      <c r="O6" s="61">
+        <v>1</v>
+      </c>
+      <c r="P6" s="33">
         <f t="shared" si="0"/>
         <v>39.99</v>
       </c>
-      <c r="Q6" s="41"/>
+      <c r="Q6" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="R6" s="25"/>
       <c r="U6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="46"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="37"/>
     </row>
     <row r="7" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="58">
         <f>0.053*O7</f>
         <v>0.21199999999999999</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="58">
         <v>5</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42" t="s">
+      <c r="H7" s="58"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="31" t="s">
+      <c r="K7" s="62"/>
+      <c r="L7" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="M7" s="31" t="str">
+      <c r="M7" s="58" t="str">
         <f t="shared" si="1"/>
         <v>Amazon</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N7" s="60">
         <v>8.5299999999999994</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="61">
         <v>4</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P7" s="33">
         <f t="shared" si="0"/>
         <v>34.119999999999997</v>
       </c>
-      <c r="Q7" s="33" t="s">
+      <c r="Q7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="34" t="s">
+      <c r="R7" s="31" t="s">
         <v>108</v>
       </c>
       <c r="T7">
@@ -2612,61 +2615,63 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X7" s="63" t="s">
+      <c r="X7" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="Y7" s="64"/>
+      <c r="Y7" s="54"/>
       <c r="Z7" s="9">
         <f>SUBTOTAL(9,T1:T78)</f>
-        <v>25.7</v>
+        <v>15.790000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="58">
         <v>0.17</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="58">
         <v>12</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36" t="s">
+      <c r="H8" s="58"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="39" t="s">
+      <c r="K8" s="62"/>
+      <c r="L8" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="M8" s="31" t="str">
+      <c r="M8" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N8" s="40">
+      <c r="N8" s="60">
         <v>6.73</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="61">
         <v>4</v>
       </c>
-      <c r="P8" s="40">
+      <c r="P8" s="33">
         <f t="shared" si="0"/>
         <v>26.92</v>
       </c>
-      <c r="Q8" s="41"/>
+      <c r="Q8" s="34" t="s">
+        <v>51</v>
+      </c>
       <c r="R8" s="25"/>
       <c r="U8">
         <f t="shared" si="2"/>
@@ -2674,101 +2679,103 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="58">
         <v>0.35</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="58">
         <v>5</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42" t="s">
+      <c r="H9" s="58"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="31" t="s">
+      <c r="K9" s="62"/>
+      <c r="L9" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="M9" s="31" t="str">
+      <c r="M9" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N9" s="32">
+      <c r="N9" s="60">
         <v>7.4</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="61">
         <v>4</v>
       </c>
-      <c r="P9" s="40">
+      <c r="P9" s="33">
         <f t="shared" si="0"/>
         <v>29.6</v>
       </c>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="34"/>
+      <c r="Q9" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="31"/>
       <c r="U9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35">
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58">
         <v>2.5</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36" t="s">
+      <c r="I10" s="62"/>
+      <c r="J10" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="39" t="s">
+      <c r="K10" s="62"/>
+      <c r="L10" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="M10" s="31" t="str">
+      <c r="M10" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N10" s="40">
+      <c r="N10" s="60">
         <v>0.69</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="61">
         <v>3</v>
       </c>
-      <c r="P10" s="40">
+      <c r="P10" s="33">
         <f t="shared" si="0"/>
         <v>2.0699999999999998</v>
       </c>
-      <c r="Q10" s="41" t="s">
+      <c r="Q10" s="34" t="s">
         <v>21</v>
       </c>
       <c r="R10" s="25" t="s">
@@ -2784,52 +2791,52 @@
       </c>
     </row>
     <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28">
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58">
         <v>2.5</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42" t="s">
+      <c r="I11" s="62"/>
+      <c r="J11" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="42"/>
-      <c r="L11" s="31" t="s">
+      <c r="K11" s="62"/>
+      <c r="L11" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="M11" s="31" t="str">
+      <c r="M11" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N11" s="32">
+      <c r="N11" s="60">
         <v>0.53</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="61">
         <v>9</v>
       </c>
-      <c r="P11" s="40">
+      <c r="P11" s="33">
         <f t="shared" si="0"/>
         <v>4.7700000000000005</v>
       </c>
-      <c r="Q11" s="33" t="s">
+      <c r="Q11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="R11" s="34" t="s">
+      <c r="R11" s="31" t="s">
         <v>22</v>
       </c>
       <c r="T11">
@@ -2842,49 +2849,49 @@
       </c>
     </row>
     <row r="12" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35">
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58">
         <v>2.5</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36" t="s">
+      <c r="I12" s="62"/>
+      <c r="J12" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="39" t="s">
+      <c r="K12" s="62"/>
+      <c r="L12" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="M12" s="31" t="str">
+      <c r="M12" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N12" s="40">
+      <c r="N12" s="60">
         <v>0.69</v>
       </c>
-      <c r="O12" s="41">
+      <c r="O12" s="61">
         <v>5</v>
       </c>
-      <c r="P12" s="40">
+      <c r="P12" s="33">
         <f t="shared" si="0"/>
         <v>3.4499999999999997</v>
       </c>
-      <c r="Q12" s="41" t="s">
+      <c r="Q12" s="34" t="s">
         <v>21</v>
       </c>
       <c r="R12" s="25" t="s">
@@ -2900,52 +2907,52 @@
       </c>
     </row>
     <row r="13" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28">
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58">
         <v>2</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42" t="s">
+      <c r="I13" s="62"/>
+      <c r="J13" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="31" t="s">
+      <c r="K13" s="62"/>
+      <c r="L13" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="M13" s="31" t="str">
+      <c r="M13" s="58" t="str">
         <f t="shared" si="1"/>
         <v>Amazon</v>
       </c>
-      <c r="N13" s="32">
+      <c r="N13" s="60">
         <v>17.14</v>
       </c>
-      <c r="O13" s="33">
-        <v>1</v>
-      </c>
-      <c r="P13" s="40">
+      <c r="O13" s="61">
+        <v>1</v>
+      </c>
+      <c r="P13" s="33">
         <f t="shared" si="0"/>
         <v>17.14</v>
       </c>
-      <c r="Q13" s="33" t="s">
+      <c r="Q13" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="R13" s="34" t="s">
+      <c r="R13" s="31" t="s">
         <v>22</v>
       </c>
       <c r="T13">
@@ -2958,49 +2965,49 @@
       </c>
     </row>
     <row r="14" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35">
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58">
         <v>2.54</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36" t="s">
+      <c r="I14" s="62"/>
+      <c r="J14" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="39" t="s">
+      <c r="K14" s="62"/>
+      <c r="L14" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="M14" s="31" t="str">
+      <c r="M14" s="58" t="str">
         <f t="shared" si="1"/>
         <v>Amazon</v>
       </c>
-      <c r="N14" s="40">
+      <c r="N14" s="60">
         <v>8.0500000000000007</v>
       </c>
-      <c r="O14" s="41">
-        <v>1</v>
-      </c>
-      <c r="P14" s="40">
+      <c r="O14" s="61">
+        <v>1</v>
+      </c>
+      <c r="P14" s="33">
         <f t="shared" si="0"/>
         <v>8.0500000000000007</v>
       </c>
-      <c r="Q14" s="41"/>
+      <c r="Q14" s="34"/>
       <c r="R14" s="25"/>
       <c r="U14">
         <f t="shared" si="2"/>
@@ -3008,52 +3015,52 @@
       </c>
     </row>
     <row r="15" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28">
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58">
         <v>2.54</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42" t="s">
+      <c r="I15" s="62"/>
+      <c r="J15" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="31" t="s">
+      <c r="K15" s="62"/>
+      <c r="L15" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="M15" s="31" t="str">
+      <c r="M15" s="58" t="str">
         <f t="shared" si="1"/>
         <v>Amazon</v>
       </c>
-      <c r="N15" s="32">
+      <c r="N15" s="60">
         <v>7.55</v>
       </c>
-      <c r="O15" s="33">
-        <v>1</v>
-      </c>
-      <c r="P15" s="40">
+      <c r="O15" s="61">
+        <v>1</v>
+      </c>
+      <c r="P15" s="33">
         <f t="shared" si="0"/>
         <v>7.55</v>
       </c>
-      <c r="Q15" s="33" t="s">
+      <c r="Q15" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="R15" s="34" t="s">
+      <c r="R15" s="31" t="s">
         <v>108</v>
       </c>
       <c r="S15" s="8"/>
@@ -3067,47 +3074,47 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36" t="s">
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="39" t="s">
+      <c r="K16" s="62"/>
+      <c r="L16" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="M16" s="31" t="str">
+      <c r="M16" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N16" s="40">
+      <c r="N16" s="60">
         <v>0.22</v>
       </c>
-      <c r="O16" s="41">
-        <v>1</v>
-      </c>
-      <c r="P16" s="40">
+      <c r="O16" s="61">
+        <v>1</v>
+      </c>
+      <c r="P16" s="33">
         <f t="shared" si="0"/>
         <v>0.22</v>
       </c>
-      <c r="Q16" s="41"/>
+      <c r="Q16" s="34"/>
       <c r="R16" s="25"/>
       <c r="S16" s="8"/>
       <c r="U16">
@@ -3116,48 +3123,48 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42" t="s">
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="31" t="s">
+      <c r="K17" s="62"/>
+      <c r="L17" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="M17" s="31" t="str">
+      <c r="M17" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N17" s="32">
+      <c r="N17" s="60">
         <v>0.18</v>
       </c>
-      <c r="O17" s="33">
+      <c r="O17" s="61">
         <v>2</v>
       </c>
-      <c r="P17" s="40">
+      <c r="P17" s="33">
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="34"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="31"/>
       <c r="S17" s="8"/>
       <c r="U17">
         <f t="shared" si="2"/>
@@ -3165,47 +3172,47 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36" t="s">
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="39" t="s">
+      <c r="K18" s="62"/>
+      <c r="L18" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="M18" s="31" t="str">
+      <c r="M18" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N18" s="40">
+      <c r="N18" s="60">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O18" s="41">
+      <c r="O18" s="61">
         <v>8</v>
       </c>
-      <c r="P18" s="40">
+      <c r="P18" s="33">
         <f t="shared" si="0"/>
         <v>1.1200000000000001</v>
       </c>
-      <c r="Q18" s="41"/>
+      <c r="Q18" s="34"/>
       <c r="R18" s="25"/>
       <c r="S18" s="8"/>
       <c r="U18">
@@ -3214,566 +3221,566 @@
       </c>
     </row>
     <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="58" t="s">
         <v>333</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="58" t="s">
         <v>334</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="58" t="s">
         <v>335</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35">
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58">
         <v>2.54</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36" t="s">
+      <c r="I19" s="62"/>
+      <c r="J19" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="39" t="s">
+      <c r="K19" s="62"/>
+      <c r="L19" s="58" t="s">
         <v>302</v>
       </c>
-      <c r="M19" s="31" t="str">
+      <c r="M19" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N19" s="40">
+      <c r="N19" s="60">
         <v>0.78</v>
       </c>
-      <c r="O19" s="41">
-        <v>1</v>
-      </c>
-      <c r="P19" s="40">
+      <c r="O19" s="61">
+        <v>1</v>
+      </c>
+      <c r="P19" s="33">
         <f t="shared" si="0"/>
         <v>0.78</v>
       </c>
-      <c r="Q19" s="41"/>
+      <c r="Q19" s="34"/>
       <c r="R19" s="25"/>
       <c r="S19" s="8"/>
     </row>
     <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="58" t="s">
         <v>333</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="58" t="s">
         <v>336</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35">
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58">
         <v>2.54</v>
       </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36" t="s">
+      <c r="I20" s="62"/>
+      <c r="J20" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="36"/>
-      <c r="L20" s="39" t="s">
+      <c r="K20" s="62"/>
+      <c r="L20" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="M20" s="31" t="str">
+      <c r="M20" s="58" t="str">
         <f>HYPERLINK(L20,J20)</f>
         <v>DigiKey</v>
       </c>
-      <c r="N20" s="40">
+      <c r="N20" s="60">
         <v>1.73</v>
       </c>
-      <c r="O20" s="41">
-        <v>1</v>
-      </c>
-      <c r="P20" s="40">
+      <c r="O20" s="61">
+        <v>1</v>
+      </c>
+      <c r="P20" s="33">
         <f t="shared" si="0"/>
         <v>1.73</v>
       </c>
-      <c r="Q20" s="41"/>
+      <c r="Q20" s="34"/>
       <c r="R20" s="25"/>
       <c r="S20" s="8"/>
     </row>
     <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="58" t="s">
         <v>338</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="58" t="s">
         <v>303</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35">
-        <v>1</v>
-      </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36" t="s">
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58">
+        <v>1</v>
+      </c>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="36"/>
-      <c r="L21" s="39" t="s">
+      <c r="K21" s="62"/>
+      <c r="L21" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="M21" s="31" t="str">
+      <c r="M21" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N21" s="40">
+      <c r="N21" s="60">
         <v>1.46</v>
       </c>
-      <c r="O21" s="41"/>
-      <c r="P21" s="40">
+      <c r="O21" s="61"/>
+      <c r="P21" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="41"/>
+      <c r="Q21" s="34"/>
       <c r="R21" s="25"/>
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="58" t="s">
         <v>338</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="58">
         <v>5013300200</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="58" t="s">
         <v>342</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35">
-        <v>1</v>
-      </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36" t="s">
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58">
+        <v>1</v>
+      </c>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K22" s="36"/>
-      <c r="L22" s="39" t="s">
+      <c r="K22" s="62"/>
+      <c r="L22" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="M22" s="31" t="str">
+      <c r="M22" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N22" s="40">
+      <c r="N22" s="60">
         <v>0.21</v>
       </c>
-      <c r="O22" s="41">
-        <v>1</v>
-      </c>
-      <c r="P22" s="40">
+      <c r="O22" s="61">
+        <v>1</v>
+      </c>
+      <c r="P22" s="33">
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="Q22" s="41"/>
+      <c r="Q22" s="34"/>
       <c r="R22" s="25"/>
       <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="58" t="s">
         <v>338</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="58" t="s">
         <v>334</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="58">
         <v>665103131822</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35">
-        <v>1</v>
-      </c>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36" t="s">
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58">
+        <v>1</v>
+      </c>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="36"/>
-      <c r="L23" s="39" t="s">
+      <c r="K23" s="62"/>
+      <c r="L23" s="58" t="s">
         <v>306</v>
       </c>
-      <c r="M23" s="31" t="str">
+      <c r="M23" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N23" s="40">
+      <c r="N23" s="60">
         <v>0.75</v>
       </c>
-      <c r="O23" s="41">
-        <v>1</v>
-      </c>
-      <c r="P23" s="40">
+      <c r="O23" s="61">
+        <v>1</v>
+      </c>
+      <c r="P23" s="33">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="Q23" s="41"/>
+      <c r="Q23" s="34"/>
       <c r="R23" s="25"/>
       <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="58" t="s">
         <v>338</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="58" t="s">
         <v>344</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="58">
         <v>665003113322</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="58" t="s">
         <v>345</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35">
-        <v>1</v>
-      </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36" t="s">
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58">
+        <v>1</v>
+      </c>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="36"/>
-      <c r="L24" s="39" t="s">
+      <c r="K24" s="62"/>
+      <c r="L24" s="58" t="s">
         <v>307</v>
       </c>
-      <c r="M24" s="31" t="str">
+      <c r="M24" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N24" s="40">
+      <c r="N24" s="60">
         <v>0.2</v>
       </c>
-      <c r="O24" s="41">
-        <v>1</v>
-      </c>
-      <c r="P24" s="40">
+      <c r="O24" s="61">
+        <v>1</v>
+      </c>
+      <c r="P24" s="33">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="Q24" s="41"/>
+      <c r="Q24" s="34"/>
       <c r="R24" s="25"/>
       <c r="S24" s="8"/>
     </row>
     <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="58" t="s">
         <v>349</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="58" t="s">
         <v>348</v>
       </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35">
+      <c r="G25" s="58"/>
+      <c r="H25" s="58">
         <v>1.27</v>
       </c>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36" t="s">
+      <c r="I25" s="62"/>
+      <c r="J25" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K25" s="36"/>
-      <c r="L25" s="39" t="s">
+      <c r="K25" s="62"/>
+      <c r="L25" s="58" t="s">
         <v>313</v>
       </c>
-      <c r="M25" s="31" t="str">
+      <c r="M25" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N25" s="40">
+      <c r="N25" s="60">
         <v>1.24</v>
       </c>
-      <c r="O25" s="41">
-        <v>1</v>
-      </c>
-      <c r="P25" s="40">
+      <c r="O25" s="61">
+        <v>1</v>
+      </c>
+      <c r="P25" s="33">
         <f t="shared" si="0"/>
         <v>1.24</v>
       </c>
-      <c r="Q25" s="41"/>
+      <c r="Q25" s="34"/>
       <c r="R25" s="25"/>
       <c r="S25" s="8"/>
     </row>
     <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="58" t="s">
         <v>350</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="58" t="s">
         <v>351</v>
       </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35">
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58">
         <v>1.27</v>
       </c>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36" t="s">
+      <c r="I26" s="62"/>
+      <c r="J26" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K26" s="36"/>
-      <c r="L26" s="39" t="s">
+      <c r="K26" s="62"/>
+      <c r="L26" s="58" t="s">
         <v>311</v>
       </c>
-      <c r="M26" s="31" t="str">
+      <c r="M26" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N26" s="40">
+      <c r="N26" s="60">
         <v>0.32</v>
       </c>
-      <c r="O26" s="41">
-        <v>1</v>
-      </c>
-      <c r="P26" s="40">
+      <c r="O26" s="61">
+        <v>1</v>
+      </c>
+      <c r="P26" s="33">
         <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
-      <c r="Q26" s="41"/>
+      <c r="Q26" s="34"/>
       <c r="R26" s="25"/>
       <c r="S26" s="8"/>
     </row>
     <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="58" t="s">
         <v>314</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="58" t="s">
         <v>353</v>
       </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35">
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58">
         <v>1.27</v>
       </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36" t="s">
+      <c r="I27" s="62"/>
+      <c r="J27" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="36"/>
-      <c r="L27" s="39" t="s">
+      <c r="K27" s="62"/>
+      <c r="L27" s="58" t="s">
         <v>311</v>
       </c>
-      <c r="M27" s="31" t="str">
+      <c r="M27" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N27" s="40">
+      <c r="N27" s="60">
         <v>0.7</v>
       </c>
-      <c r="O27" s="41">
-        <v>1</v>
-      </c>
-      <c r="P27" s="40">
+      <c r="O27" s="61">
+        <v>1</v>
+      </c>
+      <c r="P27" s="33">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="Q27" s="41"/>
+      <c r="Q27" s="34"/>
       <c r="R27" s="25"/>
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="58" t="s">
         <v>354</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="58" t="s">
         <v>356</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="58" t="s">
         <v>358</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="58">
         <v>665002113322</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="58" t="s">
         <v>355</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35">
-        <v>1</v>
-      </c>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36" t="s">
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58">
+        <v>1</v>
+      </c>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="36"/>
-      <c r="L28" s="39" t="s">
+      <c r="K28" s="62"/>
+      <c r="L28" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="M28" s="31" t="str">
+      <c r="M28" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N28" s="40">
+      <c r="N28" s="60">
         <v>0.13</v>
       </c>
-      <c r="O28" s="41">
-        <v>1</v>
-      </c>
-      <c r="P28" s="40">
+      <c r="O28" s="61">
+        <v>1</v>
+      </c>
+      <c r="P28" s="33">
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
-      <c r="Q28" s="41"/>
+      <c r="Q28" s="34"/>
       <c r="R28" s="25"/>
       <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="58" t="s">
         <v>354</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="58" t="s">
         <v>357</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="58" t="s">
         <v>358</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="58">
         <v>665102131822</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="58" t="s">
         <v>359</v>
       </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35">
-        <v>1</v>
-      </c>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36" t="s">
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58">
+        <v>1</v>
+      </c>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K29" s="36"/>
-      <c r="L29" s="39" t="s">
+      <c r="K29" s="62"/>
+      <c r="L29" s="58" t="s">
         <v>309</v>
       </c>
-      <c r="M29" s="31" t="str">
+      <c r="M29" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N29" s="40">
+      <c r="N29" s="60">
         <v>0.61</v>
       </c>
-      <c r="O29" s="41">
-        <v>1</v>
-      </c>
-      <c r="P29" s="40">
+      <c r="O29" s="61">
+        <v>1</v>
+      </c>
+      <c r="P29" s="33">
         <f t="shared" si="0"/>
         <v>0.61</v>
       </c>
-      <c r="Q29" s="41"/>
+      <c r="Q29" s="34"/>
       <c r="R29" s="25"/>
       <c r="S29" s="8"/>
     </row>
     <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="58" t="s">
         <v>332</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36" t="s">
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K30" s="35" t="s">
+      <c r="K30" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="L30" s="39" t="s">
+      <c r="L30" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="M30" s="31" t="str">
+      <c r="M30" s="58" t="str">
         <f>HYPERLINK(L30,J30)</f>
         <v>DigiKey</v>
       </c>
-      <c r="N30" s="40">
+      <c r="N30" s="60">
         <v>3.24</v>
       </c>
-      <c r="O30" s="41">
-        <v>1</v>
-      </c>
-      <c r="P30" s="40">
+      <c r="O30" s="61">
+        <v>1</v>
+      </c>
+      <c r="P30" s="33">
         <f t="shared" si="0"/>
         <v>3.24</v>
       </c>
-      <c r="Q30" s="41"/>
+      <c r="Q30" s="34"/>
       <c r="R30" s="25"/>
       <c r="S30" s="8"/>
       <c r="U30">
@@ -3782,48 +3789,48 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="58" t="s">
         <v>332</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42" t="s">
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="42"/>
-      <c r="L31" s="31" t="s">
+      <c r="K31" s="62"/>
+      <c r="L31" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="M31" s="31" t="str">
+      <c r="M31" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N31" s="32">
+      <c r="N31" s="60">
         <v>1.7</v>
       </c>
-      <c r="O31" s="33">
-        <v>1</v>
-      </c>
-      <c r="P31" s="40">
+      <c r="O31" s="61">
+        <v>1</v>
+      </c>
+      <c r="P31" s="33">
         <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="34"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="31"/>
       <c r="S31" s="8"/>
       <c r="U31">
         <f t="shared" si="2"/>
@@ -3831,49 +3838,49 @@
       </c>
     </row>
     <row r="32" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36" t="s">
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K32" s="36" t="s">
+      <c r="K32" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="L32" s="39" t="s">
+      <c r="L32" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="M32" s="31" t="str">
+      <c r="M32" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N32" s="40">
+      <c r="N32" s="60">
         <v>0.82</v>
       </c>
-      <c r="O32" s="41">
-        <v>1</v>
-      </c>
-      <c r="P32" s="40">
-        <f t="shared" ref="P17:P34" si="4">N32*O32</f>
+      <c r="O32" s="61">
+        <v>1</v>
+      </c>
+      <c r="P32" s="33">
+        <f t="shared" ref="P32:P34" si="4">N32*O32</f>
         <v>0.82</v>
       </c>
-      <c r="Q32" s="41"/>
+      <c r="Q32" s="34"/>
       <c r="R32" s="25"/>
       <c r="S32" s="8"/>
       <c r="U32">
@@ -3882,48 +3889,48 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42" t="s">
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K33" s="42"/>
-      <c r="L33" s="31" t="s">
+      <c r="K33" s="62"/>
+      <c r="L33" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="M33" s="31" t="str">
+      <c r="M33" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N33" s="32">
+      <c r="N33" s="60">
         <v>0.94</v>
       </c>
-      <c r="O33" s="33">
-        <v>1</v>
-      </c>
-      <c r="P33" s="32">
+      <c r="O33" s="61">
+        <v>1</v>
+      </c>
+      <c r="P33" s="29">
         <f t="shared" si="4"/>
         <v>0.94</v>
       </c>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="34"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="31"/>
       <c r="S33" s="8"/>
       <c r="U33">
         <f t="shared" si="2"/>
@@ -3931,47 +3938,47 @@
       </c>
     </row>
     <row r="34" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36" t="s">
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K34" s="36"/>
-      <c r="L34" s="39" t="s">
+      <c r="K34" s="62"/>
+      <c r="L34" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="M34" s="31" t="str">
+      <c r="M34" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N34" s="40">
+      <c r="N34" s="60">
         <v>1.33</v>
       </c>
-      <c r="O34" s="41">
-        <v>1</v>
-      </c>
-      <c r="P34" s="40">
+      <c r="O34" s="61">
+        <v>1</v>
+      </c>
+      <c r="P34" s="33">
         <f t="shared" si="4"/>
         <v>1.33</v>
       </c>
-      <c r="Q34" s="41"/>
+      <c r="Q34" s="34"/>
       <c r="R34" s="25"/>
       <c r="S34" s="8"/>
       <c r="U34">
@@ -3980,230 +3987,230 @@
       </c>
     </row>
     <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28" t="s">
+      <c r="A35" s="58"/>
+      <c r="B35" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="42" t="s">
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K35" s="42"/>
-      <c r="L35" s="31" t="s">
+      <c r="K35" s="62"/>
+      <c r="L35" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="M35" s="31" t="str">
+      <c r="M35" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N35" s="32">
+      <c r="N35" s="60">
         <v>2.04</v>
       </c>
-      <c r="O35" s="33">
-        <v>1</v>
-      </c>
-      <c r="P35" s="32">
+      <c r="O35" s="61">
+        <v>1</v>
+      </c>
+      <c r="P35" s="29">
         <f>N35*O35</f>
         <v>2.04</v>
       </c>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="34"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="31"/>
       <c r="U35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="35" t="s">
+      <c r="A36" s="59"/>
+      <c r="B36" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="36" t="s">
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K36" s="36" t="s">
+      <c r="K36" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="L36" s="39" t="s">
+      <c r="L36" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="M36" s="31" t="str">
+      <c r="M36" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N36" s="40">
+      <c r="N36" s="60">
         <v>0.1</v>
       </c>
-      <c r="O36" s="41">
+      <c r="O36" s="61">
         <v>10</v>
       </c>
-      <c r="P36" s="32">
+      <c r="P36" s="29">
         <f>N36*O36</f>
         <v>1</v>
       </c>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
       <c r="U36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="42" t="s">
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="42" t="s">
+      <c r="K37" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="L37" s="31" t="s">
+      <c r="L37" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="M37" s="31" t="str">
+      <c r="M37" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N37" s="32">
+      <c r="N37" s="60">
         <v>5.54</v>
       </c>
-      <c r="O37" s="33">
-        <v>1</v>
-      </c>
-      <c r="P37" s="32">
+      <c r="O37" s="61">
+        <v>1</v>
+      </c>
+      <c r="P37" s="29">
         <v>5.54</v>
       </c>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
       <c r="U37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="28" t="s">
+      <c r="A38" s="59"/>
+      <c r="B38" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="42" t="s">
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K38" s="42"/>
-      <c r="L38" s="31" t="s">
+      <c r="K38" s="62"/>
+      <c r="L38" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="M38" s="31" t="str">
+      <c r="M38" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N38" s="32">
+      <c r="N38" s="60">
         <v>9.25</v>
       </c>
-      <c r="O38" s="33">
-        <v>1</v>
-      </c>
-      <c r="P38" s="32">
+      <c r="O38" s="61">
+        <v>1</v>
+      </c>
+      <c r="P38" s="29">
         <f>N38*O38</f>
         <v>9.25</v>
       </c>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38" t="s">
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K39" s="38"/>
-      <c r="L39" s="39" t="s">
+      <c r="K39" s="62"/>
+      <c r="L39" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="M39" s="31" t="str">
+      <c r="M39" s="58" t="str">
         <f t="shared" si="1"/>
         <v>Amazon</v>
       </c>
-      <c r="N39" s="40">
+      <c r="N39" s="60">
         <v>8.66</v>
       </c>
-      <c r="O39" s="41">
-        <v>1</v>
-      </c>
-      <c r="P39" s="40">
+      <c r="O39" s="61">
+        <v>1</v>
+      </c>
+      <c r="P39" s="33">
         <f t="shared" si="0"/>
         <v>8.66</v>
       </c>
-      <c r="Q39" s="41" t="s">
+      <c r="Q39" s="34" t="s">
         <v>51</v>
       </c>
       <c r="R39" s="25" t="s">
@@ -4219,48 +4226,48 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28" t="s">
+      <c r="A40" s="58"/>
+      <c r="B40" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42" t="s">
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K40" s="42"/>
-      <c r="L40" s="31" t="s">
+      <c r="K40" s="62"/>
+      <c r="L40" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="M40" s="31" t="str">
+      <c r="M40" s="58" t="str">
         <f t="shared" si="1"/>
         <v>Amazon</v>
       </c>
-      <c r="N40" s="32">
+      <c r="N40" s="60">
         <v>5.99</v>
       </c>
-      <c r="O40" s="33">
-        <v>1</v>
-      </c>
-      <c r="P40" s="32">
+      <c r="O40" s="61">
+        <v>1</v>
+      </c>
+      <c r="P40" s="29">
         <f t="shared" si="0"/>
         <v>5.99</v>
       </c>
-      <c r="Q40" s="33" t="s">
+      <c r="Q40" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="R40" s="34" t="s">
+      <c r="R40" s="31" t="s">
         <v>108</v>
       </c>
       <c r="T40">
@@ -4273,45 +4280,45 @@
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35" t="s">
+      <c r="A41" s="58"/>
+      <c r="B41" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36" t="s">
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K41" s="36"/>
-      <c r="L41" s="39" t="s">
+      <c r="K41" s="62"/>
+      <c r="L41" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="M41" s="31" t="str">
+      <c r="M41" s="58" t="str">
         <f t="shared" si="1"/>
         <v>Amazon</v>
       </c>
-      <c r="N41" s="40">
+      <c r="N41" s="60">
         <v>18.14</v>
       </c>
-      <c r="O41" s="41">
-        <v>1</v>
-      </c>
-      <c r="P41" s="40">
+      <c r="O41" s="61">
+        <v>1</v>
+      </c>
+      <c r="P41" s="33">
         <f t="shared" si="0"/>
         <v>18.14</v>
       </c>
-      <c r="Q41" s="41" t="s">
+      <c r="Q41" s="34" t="s">
         <v>51</v>
       </c>
       <c r="R41" s="25" t="s">
@@ -4327,91 +4334,91 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28" t="s">
+      <c r="A42" s="58"/>
+      <c r="B42" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="C42" s="42" t="s">
+      <c r="C42" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="E42" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42" t="s">
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="42"/>
-      <c r="L42" s="31" t="s">
+      <c r="K42" s="62"/>
+      <c r="L42" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="M42" s="31" t="str">
+      <c r="M42" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N42" s="32">
+      <c r="N42" s="60">
         <v>2.91</v>
       </c>
-      <c r="O42" s="33">
+      <c r="O42" s="61">
         <v>2</v>
       </c>
-      <c r="P42" s="32">
+      <c r="P42" s="29">
         <f t="shared" ref="P42:P57" si="5">N42*O42</f>
         <v>5.82</v>
       </c>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="34"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="31"/>
       <c r="U42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35" t="s">
+      <c r="A43" s="58"/>
+      <c r="B43" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="59" t="s">
         <v>246</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36" t="s">
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K43" s="36"/>
-      <c r="L43" s="39" t="s">
+      <c r="K43" s="62"/>
+      <c r="L43" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="M43" s="31" t="str">
+      <c r="M43" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N43" s="40">
+      <c r="N43" s="60">
         <v>0.41</v>
       </c>
-      <c r="O43" s="41">
-        <v>1</v>
-      </c>
-      <c r="P43" s="40">
+      <c r="O43" s="61">
+        <v>1</v>
+      </c>
+      <c r="P43" s="33">
         <f>N43*O43</f>
         <v>0.41</v>
       </c>
-      <c r="Q43" s="41"/>
+      <c r="Q43" s="34"/>
       <c r="R43" s="25"/>
       <c r="U43">
         <f t="shared" si="2"/>
@@ -4419,175 +4426,175 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28" t="s">
+      <c r="A44" s="58"/>
+      <c r="B44" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="C44" s="42" t="s">
+      <c r="C44" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42" t="s">
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K44" s="42"/>
-      <c r="L44" s="31" t="s">
+      <c r="K44" s="62"/>
+      <c r="L44" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="M44" s="31" t="str">
+      <c r="M44" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N44" s="32">
+      <c r="N44" s="60">
         <v>0.23</v>
       </c>
-      <c r="O44" s="33">
-        <v>1</v>
-      </c>
-      <c r="P44" s="32">
+      <c r="O44" s="61">
+        <v>1</v>
+      </c>
+      <c r="P44" s="29">
         <f>N44*O44</f>
         <v>0.23</v>
       </c>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="34"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="31"/>
       <c r="U44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28" t="s">
+      <c r="A45" s="58"/>
+      <c r="B45" s="58" t="s">
         <v>360</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42" t="s">
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K45" s="42"/>
-      <c r="L45" s="31" t="s">
+      <c r="K45" s="62"/>
+      <c r="L45" s="58" t="s">
         <v>316</v>
       </c>
-      <c r="M45" s="31" t="str">
+      <c r="M45" s="58" t="str">
         <f>HYPERLINK(L45,J45)</f>
         <v>DigiKey</v>
       </c>
-      <c r="N45" s="32">
+      <c r="N45" s="60">
         <v>1.78</v>
       </c>
-      <c r="O45" s="33">
-        <v>1</v>
-      </c>
-      <c r="P45" s="32">
+      <c r="O45" s="61">
+        <v>1</v>
+      </c>
+      <c r="P45" s="29">
         <f>N45*O45</f>
         <v>1.78</v>
       </c>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="34"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="31"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28" t="s">
+      <c r="A46" s="58"/>
+      <c r="B46" s="58" t="s">
         <v>361</v>
       </c>
-      <c r="C46" s="42" t="s">
+      <c r="C46" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="59" t="s">
         <v>317</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E46" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42" t="s">
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="42"/>
-      <c r="L46" s="31" t="s">
+      <c r="K46" s="62"/>
+      <c r="L46" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="M46" s="31" t="str">
+      <c r="M46" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N46" s="32">
+      <c r="N46" s="60">
         <v>0.95</v>
       </c>
-      <c r="O46" s="33">
-        <v>1</v>
-      </c>
-      <c r="P46" s="32">
+      <c r="O46" s="61">
+        <v>1</v>
+      </c>
+      <c r="P46" s="29">
         <f>N46*O46</f>
         <v>0.95</v>
       </c>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="34"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="31"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35" t="s">
+      <c r="A47" s="58"/>
+      <c r="B47" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E47" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36" t="s">
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K47" s="36"/>
-      <c r="L47" s="39" t="s">
+      <c r="K47" s="62"/>
+      <c r="L47" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="M47" s="31" t="str">
+      <c r="M47" s="58" t="str">
         <f>HYPERLINK(L47,J47)</f>
         <v>DigiKey</v>
       </c>
-      <c r="N47" s="40">
+      <c r="N47" s="60">
         <v>1.56</v>
       </c>
-      <c r="O47" s="41">
-        <v>1</v>
-      </c>
-      <c r="P47" s="40">
+      <c r="O47" s="61">
+        <v>1</v>
+      </c>
+      <c r="P47" s="33">
         <f>N47*O47</f>
         <v>1.56</v>
       </c>
-      <c r="Q47" s="41"/>
+      <c r="Q47" s="34"/>
       <c r="R47" s="25"/>
       <c r="U47">
         <f t="shared" si="2"/>
@@ -4595,91 +4602,91 @@
       </c>
     </row>
     <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28" t="s">
+      <c r="A48" s="58"/>
+      <c r="B48" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="E48" s="28" t="s">
+      <c r="E48" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42" t="s">
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K48" s="42"/>
-      <c r="L48" s="31" t="s">
+      <c r="K48" s="62"/>
+      <c r="L48" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="M48" s="31" t="str">
+      <c r="M48" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N48" s="32">
+      <c r="N48" s="60">
         <v>0.47</v>
       </c>
-      <c r="O48" s="33">
-        <v>1</v>
-      </c>
-      <c r="P48" s="32">
+      <c r="O48" s="61">
+        <v>1</v>
+      </c>
+      <c r="P48" s="29">
         <f t="shared" si="5"/>
         <v>0.47</v>
       </c>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="34"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="31"/>
       <c r="U48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35" t="s">
+      <c r="A49" s="58"/>
+      <c r="B49" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D49" s="35">
+      <c r="D49" s="58">
         <v>824521241</v>
       </c>
-      <c r="E49" s="35" t="s">
+      <c r="E49" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36" t="s">
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="K49" s="36"/>
-      <c r="L49" s="39" t="s">
+      <c r="K49" s="62"/>
+      <c r="L49" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="M49" s="31" t="str">
+      <c r="M49" s="58" t="str">
         <f t="shared" si="1"/>
         <v>Digikey</v>
       </c>
-      <c r="N49" s="40">
+      <c r="N49" s="60">
         <v>0.3</v>
       </c>
-      <c r="O49" s="41">
-        <v>1</v>
-      </c>
-      <c r="P49" s="40">
+      <c r="O49" s="61">
+        <v>1</v>
+      </c>
+      <c r="P49" s="33">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="Q49" s="41"/>
+      <c r="Q49" s="34"/>
       <c r="R49" s="25"/>
       <c r="U49">
         <f t="shared" si="2"/>
@@ -4687,139 +4694,139 @@
       </c>
     </row>
     <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="58" t="s">
         <v>294</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="58" t="s">
         <v>290</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="E50" s="35" t="s">
+      <c r="E50" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36" t="s">
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K50" s="36"/>
-      <c r="L50" s="39" t="s">
+      <c r="K50" s="62"/>
+      <c r="L50" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="M50" s="31" t="str">
+      <c r="M50" s="58" t="str">
         <f>HYPERLINK(L50,J50)</f>
         <v>DigiKey</v>
       </c>
-      <c r="N50" s="40">
+      <c r="N50" s="60">
         <v>0.3</v>
       </c>
-      <c r="O50" s="41">
-        <v>1</v>
-      </c>
-      <c r="P50" s="40">
+      <c r="O50" s="61">
+        <v>1</v>
+      </c>
+      <c r="P50" s="33">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="Q50" s="41"/>
+      <c r="Q50" s="34"/>
       <c r="R50" s="25"/>
     </row>
     <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="E51" s="28" t="s">
+      <c r="E51" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42" t="s">
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="42"/>
-      <c r="L51" s="31" t="s">
+      <c r="K51" s="62"/>
+      <c r="L51" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="M51" s="31" t="str">
+      <c r="M51" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N51" s="32">
+      <c r="N51" s="60">
         <v>5.79</v>
       </c>
-      <c r="O51" s="33">
-        <v>1</v>
-      </c>
-      <c r="P51" s="32">
+      <c r="O51" s="61">
+        <v>1</v>
+      </c>
+      <c r="P51" s="29">
         <f>N51*O51</f>
         <v>5.79</v>
       </c>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="34"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="31"/>
       <c r="U51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="E52" s="35" t="s">
+      <c r="E52" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36" t="s">
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K52" s="36"/>
-      <c r="L52" s="39" t="s">
+      <c r="K52" s="62"/>
+      <c r="L52" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="M52" s="31" t="str">
+      <c r="M52" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N52" s="40">
+      <c r="N52" s="60">
         <v>4.1399999999999997</v>
       </c>
-      <c r="O52" s="41">
-        <v>1</v>
-      </c>
-      <c r="P52" s="40">
+      <c r="O52" s="61">
+        <v>1</v>
+      </c>
+      <c r="P52" s="33">
         <f>N52*O52</f>
         <v>4.1399999999999997</v>
       </c>
-      <c r="Q52" s="41"/>
+      <c r="Q52" s="34"/>
       <c r="R52" s="25"/>
       <c r="U52">
         <f t="shared" si="2"/>
@@ -4827,191 +4834,191 @@
       </c>
     </row>
     <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="C53" s="42" t="s">
+      <c r="C53" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="F53" s="28">
+      <c r="F53" s="58">
         <v>0.05</v>
       </c>
-      <c r="G53" s="28">
+      <c r="G53" s="58">
         <v>5</v>
       </c>
-      <c r="H53" s="28"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42" t="s">
+      <c r="H53" s="58"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K53" s="42"/>
-      <c r="L53" s="31" t="s">
+      <c r="K53" s="62"/>
+      <c r="L53" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="M53" s="31" t="str">
+      <c r="M53" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N53" s="32">
+      <c r="N53" s="60">
         <v>2.34</v>
       </c>
-      <c r="O53" s="33">
-        <v>1</v>
-      </c>
-      <c r="P53" s="40">
+      <c r="O53" s="61">
+        <v>1</v>
+      </c>
+      <c r="P53" s="33">
         <f t="shared" ref="P53:P54" si="6">N53*O53</f>
         <v>2.34</v>
       </c>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="34"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="31"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="E54" s="35" t="s">
+      <c r="E54" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36" t="s">
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K54" s="36"/>
-      <c r="L54" s="39" t="s">
+      <c r="K54" s="62"/>
+      <c r="L54" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="M54" s="31" t="str">
+      <c r="M54" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N54" s="40">
+      <c r="N54" s="60">
         <v>1.17</v>
       </c>
-      <c r="O54" s="41">
-        <v>1</v>
-      </c>
-      <c r="P54" s="40">
+      <c r="O54" s="61">
+        <v>1</v>
+      </c>
+      <c r="P54" s="33">
         <f t="shared" si="6"/>
         <v>1.17</v>
       </c>
-      <c r="Q54" s="41"/>
+      <c r="Q54" s="34"/>
       <c r="R54" s="25"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28" t="s">
+      <c r="A55" s="58"/>
+      <c r="B55" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="E55" s="28" t="s">
+      <c r="E55" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="F55" s="28">
+      <c r="F55" s="58">
         <v>0.02</v>
       </c>
-      <c r="G55" s="28">
+      <c r="G55" s="58">
         <v>5</v>
       </c>
-      <c r="H55" s="28"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42" t="s">
+      <c r="H55" s="58"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K55" s="42"/>
-      <c r="L55" s="31" t="s">
+      <c r="K55" s="62"/>
+      <c r="L55" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="M55" s="31" t="str">
+      <c r="M55" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N55" s="32">
+      <c r="N55" s="60">
         <v>2.5499999999999998</v>
       </c>
-      <c r="O55" s="33">
-        <v>1</v>
-      </c>
-      <c r="P55" s="32">
+      <c r="O55" s="61">
+        <v>1</v>
+      </c>
+      <c r="P55" s="29">
         <f t="shared" si="5"/>
         <v>2.5499999999999998</v>
       </c>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="34"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="31"/>
       <c r="U55">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35" t="s">
+      <c r="A56" s="58"/>
+      <c r="B56" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="E56" s="35" t="s">
+      <c r="E56" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="F56" s="35">
+      <c r="F56" s="58">
         <v>0.1</v>
       </c>
-      <c r="G56" s="35">
+      <c r="G56" s="58">
         <v>5</v>
       </c>
-      <c r="H56" s="35"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36" t="s">
+      <c r="H56" s="58"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K56" s="36"/>
-      <c r="L56" s="39" t="s">
+      <c r="K56" s="62"/>
+      <c r="L56" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="M56" s="31" t="str">
+      <c r="M56" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N56" s="40">
+      <c r="N56" s="60">
         <v>4.5999999999999996</v>
       </c>
-      <c r="O56" s="41">
-        <v>1</v>
-      </c>
-      <c r="P56" s="40">
+      <c r="O56" s="61">
+        <v>1</v>
+      </c>
+      <c r="P56" s="33">
         <f t="shared" si="5"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q56" s="41"/>
+      <c r="Q56" s="34"/>
       <c r="R56" s="25"/>
       <c r="U56">
         <f t="shared" si="2"/>
@@ -5019,95 +5026,95 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28" t="s">
+      <c r="A57" s="58"/>
+      <c r="B57" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="F57" s="28">
+      <c r="F57" s="58">
         <v>0.02</v>
       </c>
-      <c r="G57" s="28">
+      <c r="G57" s="58">
         <v>5</v>
       </c>
-      <c r="H57" s="28"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42" t="s">
+      <c r="H57" s="58"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K57" s="42"/>
-      <c r="L57" s="31" t="s">
+      <c r="K57" s="62"/>
+      <c r="L57" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="M57" s="31" t="str">
+      <c r="M57" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N57" s="32">
+      <c r="N57" s="60">
         <v>0.6</v>
       </c>
-      <c r="O57" s="33">
-        <v>1</v>
-      </c>
-      <c r="P57" s="32">
+      <c r="O57" s="61">
+        <v>1</v>
+      </c>
+      <c r="P57" s="29">
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="34"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="31"/>
       <c r="U57">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
-      <c r="B58" s="35" t="s">
+      <c r="A58" s="58"/>
+      <c r="B58" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="58" t="s">
         <v>325</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E58" s="35" t="s">
+      <c r="E58" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38" t="s">
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K58" s="38"/>
-      <c r="L58" s="39" t="s">
+      <c r="K58" s="62"/>
+      <c r="L58" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="M58" s="31" t="str">
+      <c r="M58" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N58" s="40">
+      <c r="N58" s="60">
         <v>0.88</v>
       </c>
-      <c r="O58" s="41">
+      <c r="O58" s="61">
         <v>10</v>
       </c>
-      <c r="P58" s="40">
+      <c r="P58" s="33">
         <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="Q58" s="41" t="s">
+      <c r="Q58" s="34" t="s">
         <v>21</v>
       </c>
       <c r="R58" s="25" t="s">
@@ -5124,50 +5131,50 @@
       </c>
     </row>
     <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="58" t="s">
         <v>326</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="58" t="s">
         <v>325</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43" t="s">
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K59" s="43"/>
-      <c r="L59" s="31" t="s">
+      <c r="K59" s="62"/>
+      <c r="L59" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="M59" s="31" t="str">
+      <c r="M59" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N59" s="32">
+      <c r="N59" s="60">
         <v>0.56999999999999995</v>
       </c>
-      <c r="O59" s="33">
+      <c r="O59" s="61">
         <v>4</v>
       </c>
-      <c r="P59" s="32">
+      <c r="P59" s="29">
         <f t="shared" si="0"/>
         <v>2.2799999999999998</v>
       </c>
-      <c r="Q59" s="33" t="s">
+      <c r="Q59" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="R59" s="34" t="s">
+      <c r="R59" s="31" t="s">
         <v>108</v>
       </c>
       <c r="S59" s="6"/>
@@ -5181,47 +5188,47 @@
       </c>
     </row>
     <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="35" t="s">
+      <c r="A60" s="58" t="s">
         <v>326</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="58" t="s">
         <v>325</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="D60" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="35" t="s">
+      <c r="E60" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38" t="s">
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K60" s="38"/>
-      <c r="L60" s="39" t="s">
+      <c r="K60" s="62"/>
+      <c r="L60" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="M60" s="31" t="str">
+      <c r="M60" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N60" s="40">
+      <c r="N60" s="60">
         <v>0.55000000000000004</v>
       </c>
-      <c r="O60" s="41">
+      <c r="O60" s="61">
         <v>4</v>
       </c>
-      <c r="P60" s="40">
+      <c r="P60" s="33">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q60" s="41" t="s">
+      <c r="Q60" s="34" t="s">
         <v>21</v>
       </c>
       <c r="R60" s="25" t="s">
@@ -5238,144 +5245,144 @@
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="58" t="s">
         <v>329</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="58" t="s">
         <v>325</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="D61" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="E61" s="35" t="s">
+      <c r="E61" s="58" t="s">
         <v>328</v>
       </c>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38" t="s">
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K61" s="39" t="s">
+      <c r="K61" s="58" t="s">
         <v>327</v>
       </c>
-      <c r="L61" s="39" t="s">
+      <c r="L61" s="58" t="s">
         <v>322</v>
       </c>
-      <c r="M61" s="31" t="str">
+      <c r="M61" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N61" s="40">
+      <c r="N61" s="60">
         <v>2.6</v>
       </c>
-      <c r="O61" s="41">
+      <c r="O61" s="61">
         <v>2</v>
       </c>
-      <c r="P61" s="40">
+      <c r="P61" s="33">
         <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
-      <c r="Q61" s="41"/>
+      <c r="Q61" s="34"/>
       <c r="R61" s="25"/>
       <c r="S61" s="6"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="58" t="s">
         <v>329</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="58" t="s">
         <v>325</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="E62" s="35" t="s">
+      <c r="E62" s="58" t="s">
         <v>330</v>
       </c>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38" t="s">
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="62" t="s">
         <v>35</v>
       </c>
       <c r="K62" s="58" t="s">
         <v>331</v>
       </c>
-      <c r="L62" s="39" t="s">
+      <c r="L62" s="58" t="s">
         <v>324</v>
       </c>
-      <c r="M62" s="31" t="str">
+      <c r="M62" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N62" s="40">
+      <c r="N62" s="60">
         <v>1.53</v>
       </c>
-      <c r="O62" s="41">
+      <c r="O62" s="61">
         <v>2</v>
       </c>
-      <c r="P62" s="40">
+      <c r="P62" s="33">
         <f t="shared" si="0"/>
         <v>3.06</v>
       </c>
-      <c r="Q62" s="41"/>
+      <c r="Q62" s="34"/>
       <c r="R62" s="25"/>
       <c r="S62" s="6"/>
     </row>
     <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="28" t="s">
+      <c r="C63" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="D63" s="28" t="s">
+      <c r="D63" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E63" s="28" t="s">
+      <c r="E63" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42" t="s">
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K63" s="42"/>
-      <c r="L63" s="31" t="s">
+      <c r="K63" s="62"/>
+      <c r="L63" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="M63" s="31" t="str">
+      <c r="M63" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N63" s="32">
+      <c r="N63" s="60">
         <v>1.0900000000000001</v>
       </c>
-      <c r="O63" s="33">
+      <c r="O63" s="61">
         <v>2</v>
       </c>
-      <c r="P63" s="32">
+      <c r="P63" s="29">
         <f t="shared" si="0"/>
         <v>2.1800000000000002</v>
       </c>
-      <c r="Q63" s="33" t="s">
+      <c r="Q63" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="R63" s="34" t="s">
+      <c r="R63" s="31" t="s">
         <v>22</v>
       </c>
       <c r="S63" s="6"/>
@@ -5389,49 +5396,49 @@
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="D64" s="35" t="s">
+      <c r="D64" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="E64" s="35" t="s">
+      <c r="E64" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="F64" s="35">
+      <c r="F64" s="58">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36" t="s">
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="62"/>
+      <c r="J64" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K64" s="36"/>
-      <c r="L64" s="39" t="s">
+      <c r="K64" s="62"/>
+      <c r="L64" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="M64" s="31" t="str">
+      <c r="M64" s="58" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N64" s="40">
+      <c r="N64" s="60">
         <v>4.49</v>
       </c>
-      <c r="O64" s="41">
+      <c r="O64" s="61">
         <v>2</v>
       </c>
-      <c r="P64" s="40">
+      <c r="P64" s="33">
         <f t="shared" si="0"/>
         <v>8.98</v>
       </c>
-      <c r="Q64" s="41" t="s">
+      <c r="Q64" s="34" t="s">
         <v>21</v>
       </c>
       <c r="R64" s="25" t="s">
@@ -5448,50 +5455,50 @@
       </c>
     </row>
     <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B65" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42" t="s">
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="K65" s="42"/>
-      <c r="L65" s="31" t="s">
+      <c r="K65" s="62"/>
+      <c r="L65" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="M65" s="31" t="str">
+      <c r="M65" s="58" t="str">
         <f t="shared" si="1"/>
         <v>Mouser</v>
       </c>
-      <c r="N65" s="32">
+      <c r="N65" s="60">
         <v>2.81</v>
       </c>
-      <c r="O65" s="33">
+      <c r="O65" s="61">
         <v>4</v>
       </c>
-      <c r="P65" s="32">
+      <c r="P65" s="29">
         <f t="shared" si="0"/>
         <v>11.24</v>
       </c>
-      <c r="Q65" s="33" t="s">
+      <c r="Q65" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="R65" s="34" t="s">
+      <c r="R65" s="31" t="s">
         <v>108</v>
       </c>
       <c r="S65" s="6"/>
@@ -5505,47 +5512,49 @@
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A66" s="35" t="s">
+      <c r="A66" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C66" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="E66" s="35" t="s">
+      <c r="E66" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36" t="s">
+      <c r="F66" s="58"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="K66" s="36"/>
-      <c r="L66" s="39" t="s">
+      <c r="K66" s="62"/>
+      <c r="L66" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="M66" s="31" t="str">
+      <c r="M66" s="58" t="str">
         <f t="shared" si="1"/>
         <v>3D-Jake</v>
       </c>
-      <c r="N66" s="40">
+      <c r="N66" s="60">
         <v>5.99</v>
       </c>
-      <c r="O66" s="41">
+      <c r="O66" s="61">
         <v>4</v>
       </c>
-      <c r="P66" s="40">
+      <c r="P66" s="33">
         <f>N66*O66</f>
         <v>23.96</v>
       </c>
-      <c r="Q66" s="41"/>
+      <c r="Q66" s="34" t="s">
+        <v>51</v>
+      </c>
       <c r="R66" s="25"/>
       <c r="S66" s="6"/>
       <c r="U66">
@@ -5554,46 +5563,46 @@
       </c>
     </row>
     <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="C67" s="42" t="s">
+      <c r="C67" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42" t="s">
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="K67" s="42"/>
-      <c r="L67" s="31" t="s">
+      <c r="K67" s="62"/>
+      <c r="L67" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="M67" s="31" t="str">
+      <c r="M67" s="58" t="str">
         <f t="shared" ref="M67:M77" si="8">HYPERLINK(L67,J67)</f>
         <v>3D-Jake</v>
       </c>
-      <c r="N67" s="32">
+      <c r="N67" s="60">
         <v>2.99</v>
       </c>
-      <c r="O67" s="33">
+      <c r="O67" s="61">
         <v>4</v>
       </c>
-      <c r="P67" s="32">
+      <c r="P67" s="29">
         <f>N67*O67</f>
         <v>11.96</v>
       </c>
-      <c r="Q67" s="33"/>
-      <c r="R67" s="34"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="31"/>
       <c r="S67" s="6"/>
       <c r="U67">
         <f t="shared" si="2"/>
@@ -5601,47 +5610,47 @@
       </c>
     </row>
     <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="D68" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="E68" s="37" t="s">
+      <c r="E68" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36" t="s">
+      <c r="F68" s="58"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K68" s="36"/>
-      <c r="L68" s="39" t="s">
+      <c r="K68" s="62"/>
+      <c r="L68" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="M68" s="31" t="str">
+      <c r="M68" s="58" t="str">
         <f>HYPERLINK(L68,J68)</f>
         <v>DigiKey</v>
       </c>
-      <c r="N68" s="40">
+      <c r="N68" s="60">
         <v>0.1</v>
       </c>
-      <c r="O68" s="41">
+      <c r="O68" s="61">
         <v>10</v>
       </c>
-      <c r="P68" s="40">
+      <c r="P68" s="33">
         <f>N68*O68</f>
         <v>1</v>
       </c>
-      <c r="Q68" s="41"/>
+      <c r="Q68" s="34"/>
       <c r="R68" s="25"/>
       <c r="S68" s="6"/>
       <c r="U68">
@@ -5650,48 +5659,48 @@
       </c>
     </row>
     <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="42" t="s">
+      <c r="C69" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="D69" s="28" t="s">
+      <c r="D69" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="E69" s="28" t="s">
+      <c r="E69" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42" t="s">
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K69" s="42"/>
-      <c r="L69" s="31" t="s">
+      <c r="K69" s="62"/>
+      <c r="L69" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="M69" s="31" t="str">
+      <c r="M69" s="58" t="str">
         <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
-      <c r="N69" s="32">
+      <c r="N69" s="60">
         <v>5.54</v>
       </c>
-      <c r="O69" s="33">
-        <v>1</v>
-      </c>
-      <c r="P69" s="32">
+      <c r="O69" s="61">
+        <v>1</v>
+      </c>
+      <c r="P69" s="29">
         <f>N69*O69</f>
         <v>5.54</v>
       </c>
-      <c r="Q69" s="33"/>
-      <c r="R69" s="34"/>
+      <c r="Q69" s="30"/>
+      <c r="R69" s="31"/>
       <c r="S69" s="6"/>
       <c r="U69">
         <f t="shared" si="2"/>
@@ -5699,47 +5708,47 @@
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="35" t="s">
+      <c r="B70" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="E70" s="35" t="s">
+      <c r="E70" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36" t="s">
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="62"/>
+      <c r="J70" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K70" s="36"/>
-      <c r="L70" s="39" t="s">
+      <c r="K70" s="62"/>
+      <c r="L70" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="M70" s="31" t="str">
+      <c r="M70" s="58" t="str">
         <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
-      <c r="N70" s="40">
+      <c r="N70" s="60">
         <v>0.19</v>
       </c>
-      <c r="O70" s="41">
-        <v>1</v>
-      </c>
-      <c r="P70" s="40">
+      <c r="O70" s="61">
+        <v>1</v>
+      </c>
+      <c r="P70" s="33">
         <f>N70*O70</f>
         <v>0.19</v>
       </c>
-      <c r="Q70" s="41"/>
+      <c r="Q70" s="34"/>
       <c r="R70" s="25"/>
       <c r="S70" s="6"/>
       <c r="U70">
@@ -5748,50 +5757,50 @@
       </c>
     </row>
     <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="C71" s="42" t="s">
+      <c r="C71" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D71" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="E71" s="28" t="s">
+      <c r="E71" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42" t="s">
+      <c r="F71" s="58"/>
+      <c r="G71" s="58"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K71" s="42"/>
-      <c r="L71" s="31" t="s">
+      <c r="K71" s="62"/>
+      <c r="L71" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="M71" s="31" t="str">
+      <c r="M71" s="58" t="str">
         <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
-      <c r="N71" s="32">
+      <c r="N71" s="60">
         <v>16.100000000000001</v>
       </c>
-      <c r="O71" s="33">
-        <v>1</v>
-      </c>
-      <c r="P71" s="32">
+      <c r="O71" s="61">
+        <v>1</v>
+      </c>
+      <c r="P71" s="29">
         <f t="shared" si="0"/>
         <v>16.100000000000001</v>
       </c>
-      <c r="Q71" s="33" t="s">
+      <c r="Q71" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="R71" s="34" t="s">
+      <c r="R71" s="31" t="s">
         <v>108</v>
       </c>
       <c r="T71">
@@ -5804,47 +5813,47 @@
       </c>
     </row>
     <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="B72" s="35" t="s">
+      <c r="B72" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="36" t="s">
+      <c r="C72" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="D72" s="37" t="s">
+      <c r="D72" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="E72" s="35" t="s">
+      <c r="E72" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36" t="s">
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K72" s="36"/>
-      <c r="L72" s="39" t="s">
+      <c r="K72" s="62"/>
+      <c r="L72" s="58" t="s">
         <v>259</v>
       </c>
-      <c r="M72" s="31" t="str">
+      <c r="M72" s="58" t="str">
         <f t="shared" si="8"/>
         <v>Amazon</v>
       </c>
-      <c r="N72" s="40">
+      <c r="N72" s="60">
         <v>6.99</v>
       </c>
-      <c r="O72" s="41">
-        <v>1</v>
-      </c>
-      <c r="P72" s="40">
+      <c r="O72" s="61">
+        <v>1</v>
+      </c>
+      <c r="P72" s="33">
         <f>N72*O72</f>
         <v>6.99</v>
       </c>
-      <c r="Q72" s="41"/>
+      <c r="Q72" s="34"/>
       <c r="R72" s="25"/>
       <c r="U72">
         <f t="shared" si="2"/>
@@ -5852,95 +5861,95 @@
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="C73" s="42" t="s">
+      <c r="C73" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D73" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="E73" s="28" t="s">
+      <c r="E73" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42" t="s">
+      <c r="F73" s="58"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="62"/>
+      <c r="J73" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="K73" s="42"/>
-      <c r="L73" s="31" t="s">
+      <c r="K73" s="62"/>
+      <c r="L73" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="M73" s="31" t="str">
+      <c r="M73" s="58" t="str">
         <f t="shared" si="8"/>
         <v>RobotShop</v>
       </c>
-      <c r="N73" s="32">
+      <c r="N73" s="60">
         <v>9.33</v>
       </c>
-      <c r="O73" s="33">
-        <v>1</v>
-      </c>
-      <c r="P73" s="32">
+      <c r="O73" s="61">
+        <v>1</v>
+      </c>
+      <c r="P73" s="29">
         <f>N73*O73</f>
         <v>9.33</v>
       </c>
-      <c r="Q73" s="33"/>
-      <c r="R73" s="34"/>
+      <c r="Q73" s="30"/>
+      <c r="R73" s="31"/>
       <c r="U73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="D74" s="37" t="s">
+      <c r="D74" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="E74" s="35" t="s">
+      <c r="E74" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36" t="s">
+      <c r="F74" s="58"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K74" s="36"/>
-      <c r="L74" s="39" t="s">
+      <c r="K74" s="62"/>
+      <c r="L74" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="M74" s="31" t="str">
+      <c r="M74" s="58" t="str">
         <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
-      <c r="N74" s="40">
+      <c r="N74" s="60">
         <v>3.39</v>
       </c>
-      <c r="O74" s="41">
-        <v>1</v>
-      </c>
-      <c r="P74" s="40">
+      <c r="O74" s="61">
+        <v>1</v>
+      </c>
+      <c r="P74" s="33">
         <f>N74*O74</f>
         <v>3.39</v>
       </c>
-      <c r="Q74" s="41"/>
+      <c r="Q74" s="34"/>
       <c r="R74" s="25"/>
       <c r="U74">
         <f t="shared" si="2"/>
@@ -5948,50 +5957,50 @@
       </c>
     </row>
     <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="D75" s="28" t="s">
+      <c r="D75" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="E75" s="28" t="s">
+      <c r="E75" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42" t="s">
+      <c r="F75" s="58"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K75" s="42"/>
-      <c r="L75" s="31" t="s">
+      <c r="K75" s="62"/>
+      <c r="L75" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="M75" s="31" t="str">
+      <c r="M75" s="58" t="str">
         <f t="shared" si="8"/>
         <v>Amazon</v>
       </c>
-      <c r="N75" s="32">
+      <c r="N75" s="60">
         <v>16.13</v>
       </c>
-      <c r="O75" s="33">
-        <v>1</v>
-      </c>
-      <c r="P75" s="32">
+      <c r="O75" s="61">
+        <v>1</v>
+      </c>
+      <c r="P75" s="29">
         <f t="shared" si="0"/>
         <v>16.13</v>
       </c>
-      <c r="Q75" s="33" t="s">
+      <c r="Q75" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="R75" s="34" t="s">
+      <c r="R75" s="31" t="s">
         <v>108</v>
       </c>
       <c r="T75">
@@ -6004,47 +6013,47 @@
       </c>
     </row>
     <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="35" t="s">
+      <c r="A76" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="D76" s="35" t="s">
+      <c r="D76" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="E76" s="35" t="s">
+      <c r="E76" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36" t="s">
+      <c r="F76" s="58"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="58"/>
+      <c r="I76" s="62"/>
+      <c r="J76" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K76" s="36"/>
-      <c r="L76" s="39" t="s">
+      <c r="K76" s="62"/>
+      <c r="L76" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="M76" s="31" t="str">
+      <c r="M76" s="58" t="str">
         <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
-      <c r="N76" s="40">
+      <c r="N76" s="60">
         <v>2.97</v>
       </c>
-      <c r="O76" s="41">
+      <c r="O76" s="61">
         <v>2</v>
       </c>
-      <c r="P76" s="40">
+      <c r="P76" s="33">
         <f t="shared" si="0"/>
         <v>5.94</v>
       </c>
-      <c r="Q76" s="41" t="s">
+      <c r="Q76" s="34" t="s">
         <v>21</v>
       </c>
       <c r="R76" s="25" t="s">
@@ -6056,50 +6065,50 @@
       </c>
     </row>
     <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="C77" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42" t="s">
+      <c r="F77" s="58"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="58"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K77" s="42"/>
-      <c r="L77" s="31" t="s">
+      <c r="K77" s="62"/>
+      <c r="L77" s="58" t="s">
         <v>257</v>
       </c>
-      <c r="M77" s="31" t="str">
+      <c r="M77" s="58" t="str">
         <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
-      <c r="N77" s="32">
+      <c r="N77" s="60">
         <v>5.92</v>
       </c>
-      <c r="O77" s="33">
-        <v>1</v>
-      </c>
-      <c r="P77" s="32">
+      <c r="O77" s="61">
+        <v>1</v>
+      </c>
+      <c r="P77" s="29">
         <f t="shared" si="0"/>
         <v>5.92</v>
       </c>
-      <c r="Q77" s="33" t="s">
+      <c r="Q77" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="R77" s="34" t="s">
+      <c r="R77" s="31" t="s">
         <v>22</v>
       </c>
       <c r="U77">
@@ -6108,47 +6117,47 @@
       </c>
     </row>
     <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B78" s="35" t="s">
+      <c r="B78" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="D78" s="35" t="s">
+      <c r="D78" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E78" s="35" t="s">
+      <c r="E78" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36" t="s">
+      <c r="F78" s="58"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="58"/>
+      <c r="I78" s="62"/>
+      <c r="J78" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="K78" s="36"/>
-      <c r="L78" s="39" t="s">
+      <c r="K78" s="62"/>
+      <c r="L78" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="M78" s="31" t="str">
+      <c r="M78" s="58" t="str">
         <f>HYPERLINK(L78,J78)</f>
         <v>DigiKey</v>
       </c>
-      <c r="N78" s="40">
+      <c r="N78" s="60">
         <v>2.64</v>
       </c>
-      <c r="O78" s="41">
-        <v>1</v>
-      </c>
-      <c r="P78" s="40">
+      <c r="O78" s="61">
+        <v>1</v>
+      </c>
+      <c r="P78" s="33">
         <f t="shared" si="0"/>
         <v>2.64</v>
       </c>
-      <c r="Q78" s="41" t="s">
+      <c r="Q78" s="34" t="s">
         <v>21</v>
       </c>
       <c r="R78" s="25" t="s">
@@ -6182,6 +6191,9 @@
       <c r="P79" s="16"/>
       <c r="Q79" s="17"/>
     </row>
+    <row r="80" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P80" s="57"/>
+    </row>
     <row r="81" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F81" s="5" t="s">
         <v>273</v>
@@ -6191,19 +6203,19 @@
       </c>
     </row>
     <row r="82" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F82" s="52" t="s">
+      <c r="F82" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="G82" s="52" t="s">
+      <c r="G82" s="43" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="83" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F83" s="53">
+      <c r="F83" s="44">
         <f>SUMPRODUCT(F2:F78, O2:O78, U2:U78)</f>
         <v>4.7199999999999989</v>
       </c>
-      <c r="G83" s="53" t="e" cm="1">
+      <c r="G83" s="44" t="e" cm="1">
         <f t="array" ref="G83">SUMPRODUCT((G2:G78=12)*(F2:F78)*(O2:O78)*(U2:U78))</f>
         <v>#VALUE!</v>
       </c>
@@ -6213,12 +6225,12 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G85" s="52" t="s">
+      <c r="G85" s="43" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="86" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G86" s="53" t="e" cm="1">
+      <c r="G86" s="44" t="e" cm="1">
         <f t="array" ref="G86">SUMPRODUCT((G2:G78=5)*(F2:F78)*(O2:O78)*(U2:U78))</f>
         <v>#VALUE!</v>
       </c>
@@ -6237,20 +6249,20 @@
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F89" s="47" t="s">
+      <c r="F89" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="G89" s="47" t="s">
+      <c r="G89" s="38" t="s">
         <v>269</v>
       </c>
       <c r="H89" s="3"/>
     </row>
     <row r="90" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F90" s="48">
+      <c r="F90" s="39">
         <f>F83*$F$93</f>
         <v>7.0799999999999983</v>
       </c>
-      <c r="G90" s="48" t="e">
+      <c r="G90" s="39" t="e">
         <f>G83*$F$93</f>
         <v>#VALUE!</v>
       </c>
@@ -6262,19 +6274,19 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F92" s="50" t="s">
+      <c r="F92" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="G92" s="47" t="s">
+      <c r="G92" s="38" t="s">
         <v>270</v>
       </c>
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F93" s="51">
+      <c r="F93" s="42">
         <v>1.5</v>
       </c>
-      <c r="G93" s="48" t="e">
+      <c r="G93" s="39" t="e">
         <f>G86*$F$93</f>
         <v>#VALUE!</v>
       </c>
@@ -6295,32 +6307,32 @@
       </c>
     </row>
     <row r="96" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F96" s="56">
+      <c r="F96" s="47">
         <f>SUM(F2:F78)</f>
         <v>4.622399999999999</v>
       </c>
-      <c r="G96" s="55" t="s">
+      <c r="G96" s="46" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="97" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G97" s="57">
+      <c r="G97" s="48">
         <v>3.04</v>
       </c>
     </row>
     <row r="98" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F98" s="49"/>
-      <c r="G98" s="49"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
     </row>
     <row r="99" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F99" s="49"/>
-      <c r="G99" s="54" t="s">
+      <c r="F99" s="40"/>
+      <c r="G99" s="45" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="100" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F100" s="49"/>
-      <c r="G100" s="56">
+      <c r="F100" s="40"/>
+      <c r="G100" s="47">
         <v>2.548</v>
       </c>
     </row>
@@ -6400,35 +6412,46 @@
     </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" filter="1" showAutoFilter="1" hiddenColumns="1">
+    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
+      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R78" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
+      <autoFilter ref="A1:R62" xr:uid="{E598CCD3-B344-4D4C-9CAF-51ED1BDC272F}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
             <filter val="BF4"/>
-            <filter val="BL"/>
             <filter val="BP2"/>
             <filter val="F2"/>
             <filter val="POW2"/>
             <filter val="S1"/>
             <filter val="SP2"/>
-            <filter val="ST4"/>
-            <filter val="SV2"/>
             <filter val="TP2"/>
           </filters>
         </filterColumn>
       </autoFilter>
     </customSheetView>
+    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A1:R59" xr:uid="{153E1EFA-15FA-4E38-B3E1-F79F2BCB419D}"/>
+    </customSheetView>
+    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A1:R59" xr:uid="{1A34C5EB-613E-4E32-AB90-0F2BEA506457}"/>
+    </customSheetView>
     <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R60" xr:uid="{34471DF3-E3E0-498A-AED4-AB2121395580}">
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A1:R60" xr:uid="{682D2D4E-D486-40B8-985E-52959B9432E6}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6442,35 +6465,24 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R59" xr:uid="{407DEAD0-B544-488E-97A9-315DC0B4431F}"/>
-    </customSheetView>
-    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
+    <customSheetView guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R59" xr:uid="{5F3BF8EB-ACB1-4491-BE15-2111FBFA9D4C}"/>
-    </customSheetView>
-    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
+      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-      <autoFilter ref="A1:R62" xr:uid="{9E3CD13C-9BAC-408D-B214-20200E48120F}">
+      <autoFilter ref="A1:R78" xr:uid="{A458395C-4036-4AAF-A218-F12FE78D5379}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
             <filter val="BF4"/>
+            <filter val="BL"/>
             <filter val="BP2"/>
             <filter val="F2"/>
             <filter val="POW2"/>
             <filter val="S1"/>
             <filter val="SP2"/>
+            <filter val="ST4"/>
+            <filter val="SV2"/>
             <filter val="TP2"/>
           </filters>
         </filterColumn>

--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\2nd_mainboard_bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\GitHub\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0479B0E-63F9-4531-9F00-25FEE34CD421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054031BB-82EF-44E1-BAE9-2D109C6ABA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2ndMainBoard" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
     <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$I:$I,'2ndMainBoard'!$M:$M,'2ndMainBoard'!$P:$R,'2ndMainBoard'!$T:$AD</definedName>
     <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
+    <definedName name="Z_36C50999_9392_45D3_927D_2C21A30118D3_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$L,'2ndMainBoard'!$O:$AD</definedName>
+    <definedName name="Z_36C50999_9392_45D3_927D_2C21A30118D3_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
     <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$H:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$U</definedName>
     <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
     <definedName name="Z_AD0CFDC5_A886_4774_8323_B873BC9D36B7_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$V</definedName>
@@ -29,11 +31,12 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Anforderungen_Auswahl" guid="{36C50999-9392-45D3-927D-2C21A30118D3}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan_V5" guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
     <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_V5" guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,7 +58,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -77,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="407">
   <si>
     <t>Alternative</t>
   </si>
@@ -1163,6 +1166,141 @@
   </si>
   <si>
     <t>Spule 5V Buck</t>
+  </si>
+  <si>
+    <t>Anforderungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extruder fuer faservorschub, soll eine moeglichst kleine bauform haben. Deswegen fuer stepper motor entschieden weil es ueblich fuer extruder bei 3d druckern ist und damit auch leicht kompatibel mit klipper. Ausserdem die voraussetzungen erfuellt wie eine endlose ansteuerung (kann sich unendlich drehen im vergleich zu einigen servo motoren), </t>
+  </si>
+  <si>
+    <t>ueblicher schrittmotor treiber der mit klipper kompatibel ist, alternative: tmc2009 der hat auch strom feedback, was dabei helfen koennte um zu schauen ob die faser gerade mitgezogen wird von dem filament (wenn der strom steigt beim stepper motor um die faser zurueckzuhalten, dann bedeutet dass dass die faser mitgezogen wird), wir haben es als optionale anschlussmoeglichkeit im schaltplan inkludiert verwenden jedoch aufgrund der einfachkeit halber den drv8825</t>
+  </si>
+  <si>
+    <t>kleine bauform, leicht anzusteuern, kraft muss ausreichen. Zur kraft, die der servo motor schneiden muss -&gt; kraftaufbau v. nico! Hier herferenzieren</t>
+  </si>
+  <si>
+    <t>sensor zur kalibrierung des druckbetts. Soll in klipper leicht integrierbar sein. (Bl touch ist weit verbreitet, deswegen in dieser hinsicht eine gute option). Ist aber nicht fuer die grundfunktion des druckkopfes notwendig, deswegen wird am anfang noch nicht verbaut.</t>
+  </si>
+  <si>
+    <t>referenzieren auf lasten/pflichtenheft nummer</t>
+  </si>
+  <si>
+    <t>um das coldend kuehl zu halten, um das bauteil zu kuehlen (bauteilkuehlung, anforderung druckqualitaet), um die platine zu kuehlen. Anforderungen waren kompakte bauform und hohe leistung.</t>
+  </si>
+  <si>
+    <t>muss mit stepper motor kompatibel sein, am besten auch rechtwinkeliger stecker sein</t>
+  </si>
+  <si>
+    <t>muss mit fans kompatibel und am besten rechtwinkelig sein</t>
+  </si>
+  <si>
+    <t>muss mit servo kompatibel sein und am besten rechtwinkelig sein</t>
+  </si>
+  <si>
+    <t>kompakte bauform und am besten smd</t>
+  </si>
+  <si>
+    <t>muss mit der buchse fuer den temperatursensor kompatibel sein</t>
+  </si>
+  <si>
+    <t>muss 8A aushalten, 2polig sein, einer maximalspannung von ca. 28V vom netzteil (referenzieren auf spannungen) aushalten</t>
+  </si>
+  <si>
+    <t>muss zur leistungs buchse passen und sollte 8A aushalten</t>
+  </si>
+  <si>
+    <t>VERGLEICHEN</t>
+  </si>
+  <si>
+    <t>VERGLEICHEn</t>
+  </si>
+  <si>
+    <t>ausserdem sollte es fuer die groesse des leistungskabels geeignet sein</t>
+  </si>
+  <si>
+    <t>sollte 10A aushalten</t>
+  </si>
+  <si>
+    <t>WELCHES KABEL IST DAS? FUER WAS?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sollte daten uebetragen koennen, nicht zu kompliziert sein. </t>
+  </si>
+  <si>
+    <t>hier mit datasheet der usbc buchse arbeiten fuer den alternativen vergleich</t>
+  </si>
+  <si>
+    <t>sollte eine kompakte bauform haben, am besten smd, der fan-spannung standhalten (also 14V max.) und der fan leistung standhalten ca. 0.5A max</t>
+  </si>
+  <si>
+    <t>sollte fuer den atmega328p geeignet sein</t>
+  </si>
+  <si>
+    <t>kompakte bauform</t>
+  </si>
+  <si>
+    <t>sollte richtig dimensioniert fuer die spannungsumwandler sein</t>
+  </si>
+  <si>
+    <t>hier siehe simulation und vorgaben von ti power systems</t>
+  </si>
+  <si>
+    <t>sollte 28V aushalten und den typischen strom ca. 8A</t>
+  </si>
+  <si>
+    <t>sollte die mosfet gate-spannung stabilisieren also mit diesem abgestimmt sein</t>
+  </si>
+  <si>
+    <t>nicht sicher</t>
+  </si>
+  <si>
+    <t>sollte mit ca. 500Khz schalten -&gt; hier erklaerung einfuegen warum</t>
+  </si>
+  <si>
+    <t>sollte mit 8A arbeiten koennen</t>
+  </si>
+  <si>
+    <t>sollte eine moeglichst kleine bauform haben</t>
+  </si>
+  <si>
+    <t>sollte mit 5A arbeiten koennen</t>
+  </si>
+  <si>
+    <t>eine moeglichst kompakte bauform haben</t>
+  </si>
+  <si>
+    <t>auf chatgpt chat zurueckgreifen und erklaeren</t>
+  </si>
+  <si>
+    <t>ist aber ueblich in vielen arduino anwendungen</t>
+  </si>
+  <si>
+    <t>sollte zwei kleine fans betrieben koennen, mit 5V od. 12V arbeitsspannung arbeiten koennen</t>
+  </si>
+  <si>
+    <t>und faehig sein die richtung des motors zu aendern</t>
+  </si>
+  <si>
+    <t>sollte mit den steckverbindern abgestimmt sein</t>
+  </si>
+  <si>
+    <t>sollte die maximale laenge von 18mm einhalten, 14 pinis haben (hier herschreiben welche pins uebetragen werden) und einen moeglichst grossen pitch haben um am pcb gut zwischen den pins leitungen setzen zu koennen</t>
+  </si>
+  <si>
+    <t>hier das gleiche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sollte fuer einen temperaturbereich von 0-300 grad geeignet sein fuer das hotend, mit einem kabel ab und anschliessbar sein, </t>
+  </si>
+  <si>
+    <t>ist fuer die platine gedacht smd-maessig</t>
+  </si>
+  <si>
+    <t>und sollte leicht in klipper integrierbar sein</t>
+  </si>
+  <si>
+    <t>sollte mit klipper kompatibel sein und eine moeglichst kleine bauform haben und unkompliziert sein, sowie ueber i2c auslesbar sein.</t>
   </si>
 </sst>
 </file>
@@ -1722,6 +1860,22 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1746,27 +1900,11 @@
     <xf numFmtId="165" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="20 % - Akzent1" xfId="2" builtinId="30"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2153,14 +2291,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AD112"/>
+  <dimension ref="A1:AK112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P73" sqref="A1:P73"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
@@ -2176,21 +2314,20 @@
     <col min="12" max="12" width="12.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" style="4" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="5" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="23.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="24.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="14.42578125" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="17" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="17" customWidth="1"/>
-    <col min="24" max="25" width="9.140625" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" customWidth="1"/>
-    <col min="27" max="29" width="9.140625" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" customWidth="1"/>
+    <col min="21" max="23" width="17" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="27" max="29" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2251,56 +2388,62 @@
       <c r="U1" t="s">
         <v>271</v>
       </c>
-      <c r="X1" s="51" t="s">
+      <c r="X1" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="Y1" s="52"/>
+      <c r="Y1" s="58"/>
       <c r="Z1" s="11">
         <f>SUMIFS(P10:P78,Q10:Q78, "Nicht Gekauft",R10:R78,"Benötigt")</f>
         <v>64.3</v>
       </c>
-      <c r="AB1" s="49" t="s">
+      <c r="AB1" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="AC1" s="50"/>
+      <c r="AC1" s="56"/>
       <c r="AD1" s="10">
         <f>SUM(P2:P78)</f>
         <v>457.60000000000008</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58" t="s">
+      <c r="AF1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58" t="s">
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58" t="s">
+      <c r="K2" s="50"/>
+      <c r="L2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="58" t="str">
+      <c r="M2" s="50" t="str">
         <f>HYPERLINK(L2,J2)</f>
         <v>Stepperonline</v>
       </c>
-      <c r="N2" s="60">
+      <c r="N2" s="52">
         <v>9.91</v>
       </c>
-      <c r="O2" s="61">
+      <c r="O2" s="53">
         <v>1</v>
       </c>
       <c r="P2" s="29">
@@ -2321,46 +2464,49 @@
         <f>SUBTOTAL(103, G2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="AF2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="50">
         <v>1.5</v>
       </c>
-      <c r="G3" s="58">
+      <c r="G3" s="50">
         <v>12</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62" t="s">
+      <c r="H3" s="50"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="58" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="58" t="str">
+      <c r="M3" s="50" t="str">
         <f t="shared" ref="M3:M66" si="1">HYPERLINK(L3,J3)</f>
         <v>AZ-Delivery</v>
       </c>
-      <c r="N3" s="60">
+      <c r="N3" s="52">
         <v>6.99</v>
       </c>
-      <c r="O3" s="61">
+      <c r="O3" s="53">
         <v>1</v>
       </c>
       <c r="P3" s="33">
@@ -2377,46 +2523,49 @@
         <f t="shared" ref="U3:U78" si="2">SUBTOTAL(103, G3)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="AF3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="50">
         <v>1.2</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G4" s="50">
         <v>12</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="H4" s="50"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="58" t="s">
+      <c r="K4" s="54"/>
+      <c r="L4" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="58" t="str">
+      <c r="M4" s="50" t="str">
         <f t="shared" si="1"/>
         <v>3D-Jake</v>
       </c>
-      <c r="N4" s="60">
+      <c r="N4" s="52">
         <v>6.99</v>
       </c>
-      <c r="O4" s="61">
+      <c r="O4" s="53">
         <v>1</v>
       </c>
       <c r="P4" s="29">
@@ -2427,48 +2576,48 @@
       <c r="R4" s="31"/>
       <c r="U4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="5"/>
     </row>
-    <row r="5" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58" t="s">
+    <row r="5" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="50">
         <v>0.5</v>
       </c>
-      <c r="G5" s="58">
+      <c r="G5" s="50">
         <v>5</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62" t="s">
+      <c r="H5" s="50"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="58" t="s">
+      <c r="K5" s="54"/>
+      <c r="L5" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="58" t="str">
+      <c r="M5" s="50" t="str">
         <f t="shared" si="1"/>
         <v>AZ-Delivery</v>
       </c>
-      <c r="N5" s="60">
+      <c r="N5" s="52">
         <v>6.99</v>
       </c>
-      <c r="O5" s="61">
+      <c r="O5" s="53">
         <v>1</v>
       </c>
       <c r="P5" s="33">
@@ -2489,54 +2638,57 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X5" s="55" t="s">
+      <c r="X5" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="Y5" s="56"/>
+      <c r="Y5" s="62"/>
       <c r="Z5" s="12">
         <f>SUBTOTAL(9,P1:P78)</f>
-        <v>252.85999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+        <v>421.13000000000011</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="50">
         <v>0.5</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="50">
         <v>5</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62" t="s">
+      <c r="H6" s="50"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="58" t="s">
+      <c r="K6" s="54"/>
+      <c r="L6" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="M6" s="58" t="str">
+      <c r="M6" s="50" t="str">
         <f t="shared" si="1"/>
         <v>3D-Jake</v>
       </c>
-      <c r="N6" s="60">
+      <c r="N6" s="52">
         <v>39.99</v>
       </c>
-      <c r="O6" s="61">
+      <c r="O6" s="53">
         <v>1</v>
       </c>
       <c r="P6" s="33">
@@ -2554,47 +2706,50 @@
       <c r="X6" s="35"/>
       <c r="Y6" s="36"/>
       <c r="Z6" s="37"/>
-    </row>
-    <row r="7" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="AF6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="50">
         <f>0.053*O7</f>
         <v>0.21199999999999999</v>
       </c>
-      <c r="G7" s="58">
+      <c r="G7" s="50">
         <v>5</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62" t="s">
+      <c r="H7" s="50"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="62"/>
-      <c r="L7" s="58" t="s">
+      <c r="K7" s="54"/>
+      <c r="L7" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="M7" s="58" t="str">
+      <c r="M7" s="50" t="str">
         <f t="shared" si="1"/>
         <v>Amazon</v>
       </c>
-      <c r="N7" s="60">
+      <c r="N7" s="52">
         <v>8.5299999999999994</v>
       </c>
-      <c r="O7" s="61">
+      <c r="O7" s="53">
         <v>4</v>
       </c>
       <c r="P7" s="33">
@@ -2613,56 +2768,56 @@
       </c>
       <c r="U7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="X7" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="Y7" s="54"/>
+      <c r="Y7" s="60"/>
       <c r="Z7" s="9">
         <f>SUBTOTAL(9,T1:T78)</f>
-        <v>15.790000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+        <v>89.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="50">
         <v>0.17</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="50">
         <v>12</v>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62" t="s">
+      <c r="H8" s="50"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="62"/>
-      <c r="L8" s="58" t="s">
+      <c r="K8" s="54"/>
+      <c r="L8" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="M8" s="58" t="str">
+      <c r="M8" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N8" s="60">
+      <c r="N8" s="52">
         <v>6.73</v>
       </c>
-      <c r="O8" s="61">
+      <c r="O8" s="53">
         <v>4</v>
       </c>
       <c r="P8" s="33">
@@ -2677,46 +2832,49 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="AF8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="50">
         <v>0.35</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G9" s="50">
         <v>5</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62" t="s">
+      <c r="H9" s="50"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="62"/>
-      <c r="L9" s="58" t="s">
+      <c r="K9" s="54"/>
+      <c r="L9" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="M9" s="58" t="str">
+      <c r="M9" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N9" s="60">
+      <c r="N9" s="52">
         <v>7.4</v>
       </c>
-      <c r="O9" s="61">
+      <c r="O9" s="53">
         <v>4</v>
       </c>
       <c r="P9" s="33">
@@ -2732,43 +2890,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58">
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50">
         <v>2.5</v>
       </c>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62" t="s">
+      <c r="I10" s="54"/>
+      <c r="J10" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="62"/>
-      <c r="L10" s="58" t="s">
+      <c r="K10" s="54"/>
+      <c r="L10" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="M10" s="58" t="str">
+      <c r="M10" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N10" s="60">
+      <c r="N10" s="52">
         <v>0.69</v>
       </c>
-      <c r="O10" s="61">
+      <c r="O10" s="53">
         <v>3</v>
       </c>
       <c r="P10" s="33">
@@ -2790,43 +2948,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58">
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50">
         <v>2.5</v>
       </c>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62" t="s">
+      <c r="I11" s="54"/>
+      <c r="J11" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="62"/>
-      <c r="L11" s="58" t="s">
+      <c r="K11" s="54"/>
+      <c r="L11" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="M11" s="58" t="str">
+      <c r="M11" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N11" s="60">
+      <c r="N11" s="52">
         <v>0.53</v>
       </c>
-      <c r="O11" s="61">
+      <c r="O11" s="53">
         <v>9</v>
       </c>
       <c r="P11" s="33">
@@ -2848,43 +3006,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58">
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50">
         <v>2.5</v>
       </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62" t="s">
+      <c r="I12" s="54"/>
+      <c r="J12" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="62"/>
-      <c r="L12" s="58" t="s">
+      <c r="K12" s="54"/>
+      <c r="L12" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="M12" s="58" t="str">
+      <c r="M12" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N12" s="60">
+      <c r="N12" s="52">
         <v>0.69</v>
       </c>
-      <c r="O12" s="61">
+      <c r="O12" s="53">
         <v>5</v>
       </c>
       <c r="P12" s="33">
@@ -2906,43 +3064,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58">
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50">
         <v>2</v>
       </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62" t="s">
+      <c r="I13" s="54"/>
+      <c r="J13" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="62"/>
-      <c r="L13" s="58" t="s">
+      <c r="K13" s="54"/>
+      <c r="L13" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="M13" s="58" t="str">
+      <c r="M13" s="50" t="str">
         <f t="shared" si="1"/>
         <v>Amazon</v>
       </c>
-      <c r="N13" s="60">
+      <c r="N13" s="52">
         <v>17.14</v>
       </c>
-      <c r="O13" s="61">
+      <c r="O13" s="53">
         <v>1</v>
       </c>
       <c r="P13" s="33">
@@ -2964,43 +3122,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58">
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50">
         <v>2.54</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62" t="s">
+      <c r="I14" s="54"/>
+      <c r="J14" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="62"/>
-      <c r="L14" s="58" t="s">
+      <c r="K14" s="54"/>
+      <c r="L14" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="M14" s="58" t="str">
+      <c r="M14" s="50" t="str">
         <f t="shared" si="1"/>
         <v>Amazon</v>
       </c>
-      <c r="N14" s="60">
+      <c r="N14" s="52">
         <v>8.0500000000000007</v>
       </c>
-      <c r="O14" s="61">
+      <c r="O14" s="53">
         <v>1</v>
       </c>
       <c r="P14" s="33">
@@ -3014,43 +3172,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58">
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50">
         <v>2.54</v>
       </c>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62" t="s">
+      <c r="I15" s="54"/>
+      <c r="J15" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="62"/>
-      <c r="L15" s="58" t="s">
+      <c r="K15" s="54"/>
+      <c r="L15" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="M15" s="58" t="str">
+      <c r="M15" s="50" t="str">
         <f t="shared" si="1"/>
         <v>Amazon</v>
       </c>
-      <c r="N15" s="60">
+      <c r="N15" s="52">
         <v>7.55</v>
       </c>
-      <c r="O15" s="61">
+      <c r="O15" s="53">
         <v>1</v>
       </c>
       <c r="P15" s="33">
@@ -3073,41 +3231,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62" t="s">
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="62"/>
-      <c r="L16" s="58" t="s">
+      <c r="K16" s="54"/>
+      <c r="L16" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="M16" s="58" t="str">
+      <c r="M16" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N16" s="60">
+      <c r="N16" s="52">
         <v>0.22</v>
       </c>
-      <c r="O16" s="61">
+      <c r="O16" s="53">
         <v>1</v>
       </c>
       <c r="P16" s="33">
@@ -3121,42 +3279,45 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="AF16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62" t="s">
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="62"/>
-      <c r="L17" s="58" t="s">
+      <c r="K17" s="54"/>
+      <c r="L17" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="M17" s="58" t="str">
+      <c r="M17" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N17" s="60">
+      <c r="N17" s="52">
         <v>0.18</v>
       </c>
-      <c r="O17" s="61">
+      <c r="O17" s="53">
         <v>2</v>
       </c>
       <c r="P17" s="33">
@@ -3170,42 +3331,45 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="AF17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62" t="s">
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="62"/>
-      <c r="L18" s="58" t="s">
+      <c r="K18" s="54"/>
+      <c r="L18" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="M18" s="58" t="str">
+      <c r="M18" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N18" s="60">
+      <c r="N18" s="52">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O18" s="61">
+      <c r="O18" s="53">
         <v>8</v>
       </c>
       <c r="P18" s="33">
@@ -3219,44 +3383,47 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
+      <c r="AF18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="50" t="s">
         <v>333</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="50" t="s">
         <v>335</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58">
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50">
         <v>2.54</v>
       </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62" t="s">
+      <c r="I19" s="54"/>
+      <c r="J19" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="62"/>
-      <c r="L19" s="58" t="s">
+      <c r="K19" s="54"/>
+      <c r="L19" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="M19" s="58" t="str">
+      <c r="M19" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N19" s="60">
+      <c r="N19" s="52">
         <v>0.78</v>
       </c>
-      <c r="O19" s="61">
+      <c r="O19" s="53">
         <v>1</v>
       </c>
       <c r="P19" s="33">
@@ -3267,43 +3434,43 @@
       <c r="R19" s="25"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="50" t="s">
         <v>333</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="50" t="s">
         <v>336</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58">
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50">
         <v>2.54</v>
       </c>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62" t="s">
+      <c r="I20" s="54"/>
+      <c r="J20" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="62"/>
-      <c r="L20" s="58" t="s">
+      <c r="K20" s="54"/>
+      <c r="L20" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="M20" s="58" t="str">
+      <c r="M20" s="50" t="str">
         <f>HYPERLINK(L20,J20)</f>
         <v>DigiKey</v>
       </c>
-      <c r="N20" s="60">
+      <c r="N20" s="52">
         <v>1.73</v>
       </c>
-      <c r="O20" s="61">
+      <c r="O20" s="53">
         <v>1</v>
       </c>
       <c r="P20" s="33">
@@ -3314,43 +3481,43 @@
       <c r="R20" s="25"/>
       <c r="S20" s="8"/>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="50" t="s">
         <v>339</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58">
-        <v>1</v>
-      </c>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62" t="s">
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50">
+        <v>1</v>
+      </c>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="62"/>
-      <c r="L21" s="58" t="s">
+      <c r="K21" s="54"/>
+      <c r="L21" s="50" t="s">
         <v>304</v>
       </c>
-      <c r="M21" s="58" t="str">
+      <c r="M21" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N21" s="60">
+      <c r="N21" s="52">
         <v>1.46</v>
       </c>
-      <c r="O21" s="61"/>
+      <c r="O21" s="53"/>
       <c r="P21" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3359,43 +3526,43 @@
       <c r="R21" s="25"/>
       <c r="S21" s="8"/>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="50" t="s">
         <v>340</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="58">
+      <c r="D22" s="50">
         <v>5013300200</v>
       </c>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="50" t="s">
         <v>342</v>
       </c>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58">
-        <v>1</v>
-      </c>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62" t="s">
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50">
+        <v>1</v>
+      </c>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K22" s="62"/>
-      <c r="L22" s="58" t="s">
+      <c r="K22" s="54"/>
+      <c r="L22" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="M22" s="58" t="str">
+      <c r="M22" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N22" s="60">
+      <c r="N22" s="52">
         <v>0.21</v>
       </c>
-      <c r="O22" s="61">
+      <c r="O22" s="53">
         <v>1</v>
       </c>
       <c r="P22" s="33">
@@ -3406,43 +3573,43 @@
       <c r="R22" s="25"/>
       <c r="S22" s="8"/>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="58">
+      <c r="D23" s="50">
         <v>665103131822</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="50" t="s">
         <v>343</v>
       </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58">
-        <v>1</v>
-      </c>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62" t="s">
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50">
+        <v>1</v>
+      </c>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="62"/>
-      <c r="L23" s="58" t="s">
+      <c r="K23" s="54"/>
+      <c r="L23" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="M23" s="58" t="str">
+      <c r="M23" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N23" s="60">
+      <c r="N23" s="52">
         <v>0.75</v>
       </c>
-      <c r="O23" s="61">
+      <c r="O23" s="53">
         <v>1</v>
       </c>
       <c r="P23" s="33">
@@ -3453,43 +3620,43 @@
       <c r="R23" s="25"/>
       <c r="S23" s="8"/>
     </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58" t="s">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D24" s="58">
+      <c r="D24" s="50">
         <v>665003113322</v>
       </c>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58">
-        <v>1</v>
-      </c>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62" t="s">
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50">
+        <v>1</v>
+      </c>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="62"/>
-      <c r="L24" s="58" t="s">
+      <c r="K24" s="54"/>
+      <c r="L24" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="M24" s="58" t="str">
+      <c r="M24" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N24" s="60">
+      <c r="N24" s="52">
         <v>0.2</v>
       </c>
-      <c r="O24" s="61">
+      <c r="O24" s="53">
         <v>1</v>
       </c>
       <c r="P24" s="33">
@@ -3500,45 +3667,45 @@
       <c r="R24" s="25"/>
       <c r="S24" s="8"/>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="50" t="s">
         <v>346</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="F25" s="58" t="s">
+      <c r="F25" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58">
+      <c r="G25" s="50"/>
+      <c r="H25" s="50">
         <v>1.27</v>
       </c>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62" t="s">
+      <c r="I25" s="54"/>
+      <c r="J25" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K25" s="62"/>
-      <c r="L25" s="58" t="s">
+      <c r="K25" s="54"/>
+      <c r="L25" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="M25" s="58" t="str">
+      <c r="M25" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N25" s="60">
+      <c r="N25" s="52">
         <v>1.24</v>
       </c>
-      <c r="O25" s="61">
+      <c r="O25" s="53">
         <v>1</v>
       </c>
       <c r="P25" s="33">
@@ -3549,43 +3716,43 @@
       <c r="R25" s="25"/>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" s="50" t="s">
         <v>346</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="50" t="s">
         <v>340</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="50" t="s">
         <v>350</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="50" t="s">
         <v>312</v>
       </c>
-      <c r="E26" s="58" t="s">
+      <c r="E26" s="50" t="s">
         <v>351</v>
       </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58">
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50">
         <v>1.27</v>
       </c>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62" t="s">
+      <c r="I26" s="54"/>
+      <c r="J26" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K26" s="62"/>
-      <c r="L26" s="58" t="s">
+      <c r="K26" s="54"/>
+      <c r="L26" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="M26" s="58" t="str">
+      <c r="M26" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N26" s="60">
+      <c r="N26" s="52">
         <v>0.32</v>
       </c>
-      <c r="O26" s="61">
+      <c r="O26" s="53">
         <v>1</v>
       </c>
       <c r="P26" s="33">
@@ -3596,43 +3763,43 @@
       <c r="R26" s="25"/>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58" t="s">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="50" t="s">
         <v>346</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="50" t="s">
         <v>352</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="50" t="s">
         <v>314</v>
       </c>
-      <c r="E27" s="58" t="s">
+      <c r="E27" s="50" t="s">
         <v>353</v>
       </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58">
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50">
         <v>1.27</v>
       </c>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62" t="s">
+      <c r="I27" s="54"/>
+      <c r="J27" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="62"/>
-      <c r="L27" s="58" t="s">
+      <c r="K27" s="54"/>
+      <c r="L27" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="M27" s="58" t="str">
+      <c r="M27" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N27" s="60">
+      <c r="N27" s="52">
         <v>0.7</v>
       </c>
-      <c r="O27" s="61">
+      <c r="O27" s="53">
         <v>1</v>
       </c>
       <c r="P27" s="33">
@@ -3643,43 +3810,43 @@
       <c r="R27" s="25"/>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="50" t="s">
         <v>354</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="50" t="s">
         <v>356</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="50" t="s">
         <v>358</v>
       </c>
-      <c r="D28" s="58">
+      <c r="D28" s="50">
         <v>665002113322</v>
       </c>
-      <c r="E28" s="58" t="s">
+      <c r="E28" s="50" t="s">
         <v>355</v>
       </c>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58">
-        <v>1</v>
-      </c>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62" t="s">
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50">
+        <v>1</v>
+      </c>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="62"/>
-      <c r="L28" s="58" t="s">
+      <c r="K28" s="54"/>
+      <c r="L28" s="50" t="s">
         <v>308</v>
       </c>
-      <c r="M28" s="58" t="str">
+      <c r="M28" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N28" s="60">
+      <c r="N28" s="52">
         <v>0.13</v>
       </c>
-      <c r="O28" s="61">
+      <c r="O28" s="53">
         <v>1</v>
       </c>
       <c r="P28" s="33">
@@ -3689,44 +3856,47 @@
       <c r="Q28" s="34"/>
       <c r="R28" s="25"/>
       <c r="S28" s="8"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="58" t="s">
+      <c r="AF28" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="50" t="s">
         <v>354</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="50" t="s">
         <v>357</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="50" t="s">
         <v>358</v>
       </c>
-      <c r="D29" s="58">
+      <c r="D29" s="50">
         <v>665102131822</v>
       </c>
-      <c r="E29" s="58" t="s">
+      <c r="E29" s="50" t="s">
         <v>359</v>
       </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58">
-        <v>1</v>
-      </c>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62" t="s">
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50">
+        <v>1</v>
+      </c>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K29" s="62"/>
-      <c r="L29" s="58" t="s">
+      <c r="K29" s="54"/>
+      <c r="L29" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="M29" s="58" t="str">
+      <c r="M29" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N29" s="60">
+      <c r="N29" s="52">
         <v>0.61</v>
       </c>
-      <c r="O29" s="61">
+      <c r="O29" s="53">
         <v>1</v>
       </c>
       <c r="P29" s="33">
@@ -3736,44 +3906,47 @@
       <c r="Q29" s="34"/>
       <c r="R29" s="25"/>
       <c r="S29" s="8"/>
-    </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
+      <c r="AF29" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="D30" s="58" t="s">
+      <c r="D30" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="58" t="s">
+      <c r="E30" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62" t="s">
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K30" s="58" t="s">
+      <c r="K30" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="L30" s="58" t="s">
+      <c r="L30" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="M30" s="58" t="str">
+      <c r="M30" s="50" t="str">
         <f>HYPERLINK(L30,J30)</f>
         <v>DigiKey</v>
       </c>
-      <c r="N30" s="60">
+      <c r="N30" s="52">
         <v>3.24</v>
       </c>
-      <c r="O30" s="61">
+      <c r="O30" s="53">
         <v>1</v>
       </c>
       <c r="P30" s="33">
@@ -3788,41 +3961,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62" t="s">
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="62"/>
-      <c r="L31" s="58" t="s">
+      <c r="K31" s="54"/>
+      <c r="L31" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="M31" s="58" t="str">
+      <c r="M31" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N31" s="60">
+      <c r="N31" s="52">
         <v>1.7</v>
       </c>
-      <c r="O31" s="61">
+      <c r="O31" s="53">
         <v>1</v>
       </c>
       <c r="P31" s="33">
@@ -3836,44 +4009,50 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58" t="s">
+      <c r="AE31" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="58" t="s">
+      <c r="E32" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62" t="s">
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K32" s="62" t="s">
+      <c r="K32" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="L32" s="58" t="s">
+      <c r="L32" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="M32" s="58" t="str">
+      <c r="M32" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N32" s="60">
+      <c r="N32" s="52">
         <v>0.82</v>
       </c>
-      <c r="O32" s="61">
+      <c r="O32" s="53">
         <v>1</v>
       </c>
       <c r="P32" s="33">
@@ -3888,41 +4067,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="58" t="s">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="E33" s="58" t="s">
+      <c r="E33" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62" t="s">
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K33" s="62"/>
-      <c r="L33" s="58" t="s">
+      <c r="K33" s="54"/>
+      <c r="L33" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="M33" s="58" t="str">
+      <c r="M33" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N33" s="60">
+      <c r="N33" s="52">
         <v>0.94</v>
       </c>
-      <c r="O33" s="61">
+      <c r="O33" s="53">
         <v>1</v>
       </c>
       <c r="P33" s="29">
@@ -3936,42 +4115,51 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58" t="s">
+      <c r="AE33" t="s">
+        <v>377</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="E34" s="58" t="s">
+      <c r="E34" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62" t="s">
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K34" s="62"/>
-      <c r="L34" s="58" t="s">
+      <c r="K34" s="54"/>
+      <c r="L34" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="M34" s="58" t="str">
+      <c r="M34" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N34" s="60">
+      <c r="N34" s="52">
         <v>1.33</v>
       </c>
-      <c r="O34" s="61">
+      <c r="O34" s="53">
         <v>1</v>
       </c>
       <c r="P34" s="33">
@@ -3986,39 +4174,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58" t="s">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="D35" s="58" t="s">
+      <c r="D35" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="E35" s="58" t="s">
+      <c r="E35" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62" t="s">
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K35" s="62"/>
-      <c r="L35" s="58" t="s">
+      <c r="K35" s="54"/>
+      <c r="L35" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="M35" s="58" t="str">
+      <c r="M35" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N35" s="60">
+      <c r="N35" s="52">
         <v>2.04</v>
       </c>
-      <c r="O35" s="61">
+      <c r="O35" s="53">
         <v>1</v>
       </c>
       <c r="P35" s="29">
@@ -4031,42 +4219,45 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="58" t="s">
+      <c r="AF35" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="58" t="s">
+      <c r="D36" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="E36" s="59" t="s">
+      <c r="E36" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="62" t="s">
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K36" s="62" t="s">
+      <c r="K36" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="L36" s="58" t="s">
+      <c r="L36" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="M36" s="58" t="str">
+      <c r="M36" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N36" s="60">
+      <c r="N36" s="52">
         <v>0.1</v>
       </c>
-      <c r="O36" s="61">
+      <c r="O36" s="53">
         <v>10</v>
       </c>
       <c r="P36" s="29">
@@ -4079,44 +4270,47 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59" t="s">
+      <c r="AE36" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="58" t="s">
+      <c r="D37" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="58" t="s">
+      <c r="E37" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="62" t="s">
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="62" t="s">
+      <c r="K37" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="L37" s="58" t="s">
+      <c r="L37" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="M37" s="58" t="str">
+      <c r="M37" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N37" s="60">
+      <c r="N37" s="52">
         <v>5.54</v>
       </c>
-      <c r="O37" s="61">
+      <c r="O37" s="53">
         <v>1</v>
       </c>
       <c r="P37" s="29">
@@ -4129,39 +4323,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" s="58" t="s">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="51"/>
+      <c r="B38" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="58" t="s">
+      <c r="D38" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="E38" s="58" t="s">
+      <c r="E38" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="62" t="s">
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K38" s="62"/>
-      <c r="L38" s="58" t="s">
+      <c r="K38" s="54"/>
+      <c r="L38" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="M38" s="58" t="str">
+      <c r="M38" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N38" s="60">
+      <c r="N38" s="52">
         <v>9.25</v>
       </c>
-      <c r="O38" s="61">
+      <c r="O38" s="53">
         <v>1</v>
       </c>
       <c r="P38" s="29">
@@ -4170,40 +4364,46 @@
       </c>
       <c r="Q38" s="28"/>
       <c r="R38" s="28"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58" t="s">
+      <c r="AF38" t="s">
+        <v>381</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A39" s="50"/>
+      <c r="B39" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="58" t="s">
+      <c r="D39" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="62" t="s">
+      <c r="E39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62" t="s">
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="K39" s="62"/>
-      <c r="L39" s="58" t="s">
+      <c r="K39" s="54"/>
+      <c r="L39" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="M39" s="58" t="str">
+      <c r="M39" s="50" t="str">
         <f t="shared" si="1"/>
         <v>Amazon</v>
       </c>
-      <c r="N39" s="60">
+      <c r="N39" s="52">
         <v>8.66</v>
       </c>
-      <c r="O39" s="61">
+      <c r="O39" s="53">
         <v>1</v>
       </c>
       <c r="P39" s="33">
@@ -4225,39 +4425,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
-      <c r="B40" s="58" t="s">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="58" t="s">
+      <c r="D40" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="58" t="s">
+      <c r="E40" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62" t="s">
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="K40" s="62"/>
-      <c r="L40" s="58" t="s">
+      <c r="K40" s="54"/>
+      <c r="L40" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="M40" s="58" t="str">
+      <c r="M40" s="50" t="str">
         <f t="shared" si="1"/>
         <v>Amazon</v>
       </c>
-      <c r="N40" s="60">
+      <c r="N40" s="52">
         <v>5.99</v>
       </c>
-      <c r="O40" s="61">
+      <c r="O40" s="53">
         <v>1</v>
       </c>
       <c r="P40" s="29">
@@ -4279,39 +4479,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
-      <c r="B41" s="58" t="s">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A41" s="50"/>
+      <c r="B41" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="58" t="s">
+      <c r="D41" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="58" t="s">
+      <c r="E41" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62" t="s">
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="K41" s="62"/>
-      <c r="L41" s="58" t="s">
+      <c r="K41" s="54"/>
+      <c r="L41" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="M41" s="58" t="str">
+      <c r="M41" s="50" t="str">
         <f t="shared" si="1"/>
         <v>Amazon</v>
       </c>
-      <c r="N41" s="60">
+      <c r="N41" s="52">
         <v>18.14</v>
       </c>
-      <c r="O41" s="61">
+      <c r="O41" s="53">
         <v>1</v>
       </c>
       <c r="P41" s="33">
@@ -4333,39 +4533,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
-      <c r="B42" s="58" t="s">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A42" s="50"/>
+      <c r="B42" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="59" t="s">
+      <c r="D42" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="E42" s="58" t="s">
+      <c r="E42" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62" t="s">
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="62"/>
-      <c r="L42" s="58" t="s">
+      <c r="K42" s="54"/>
+      <c r="L42" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="M42" s="58" t="str">
+      <c r="M42" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N42" s="60">
+      <c r="N42" s="52">
         <v>2.91</v>
       </c>
-      <c r="O42" s="61">
+      <c r="O42" s="53">
         <v>2</v>
       </c>
       <c r="P42" s="29">
@@ -4378,40 +4578,43 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58" t="s">
+      <c r="AF42" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A43" s="50"/>
+      <c r="B43" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="C43" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="D43" s="59" t="s">
+      <c r="D43" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="E43" s="58" t="s">
+      <c r="E43" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62" t="s">
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K43" s="62"/>
-      <c r="L43" s="58" t="s">
+      <c r="K43" s="54"/>
+      <c r="L43" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="M43" s="58" t="str">
+      <c r="M43" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N43" s="60">
+      <c r="N43" s="52">
         <v>0.41</v>
       </c>
-      <c r="O43" s="61">
+      <c r="O43" s="53">
         <v>1</v>
       </c>
       <c r="P43" s="33">
@@ -4424,40 +4627,43 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58" t="s">
+      <c r="AF43" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A44" s="50"/>
+      <c r="B44" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="C44" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="D44" s="59" t="s">
+      <c r="D44" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="E44" s="58" t="s">
+      <c r="E44" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62" t="s">
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K44" s="62"/>
-      <c r="L44" s="58" t="s">
+      <c r="K44" s="54"/>
+      <c r="L44" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="M44" s="58" t="str">
+      <c r="M44" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N44" s="60">
+      <c r="N44" s="52">
         <v>0.23</v>
       </c>
-      <c r="O44" s="61">
+      <c r="O44" s="53">
         <v>1</v>
       </c>
       <c r="P44" s="29">
@@ -4470,40 +4676,43 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58" t="s">
+      <c r="AF44" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A45" s="50"/>
+      <c r="B45" s="50" t="s">
         <v>360</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="E45" s="58" t="s">
+      <c r="E45" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62" t="s">
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K45" s="62"/>
-      <c r="L45" s="58" t="s">
+      <c r="K45" s="54"/>
+      <c r="L45" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M45" s="58" t="str">
+      <c r="M45" s="50" t="str">
         <f>HYPERLINK(L45,J45)</f>
         <v>DigiKey</v>
       </c>
-      <c r="N45" s="60">
+      <c r="N45" s="52">
         <v>1.78</v>
       </c>
-      <c r="O45" s="61">
+      <c r="O45" s="53">
         <v>1</v>
       </c>
       <c r="P45" s="29">
@@ -4512,40 +4721,46 @@
       </c>
       <c r="Q45" s="30"/>
       <c r="R45" s="31"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58" t="s">
+      <c r="AF45" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A46" s="50"/>
+      <c r="B46" s="50" t="s">
         <v>361</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="C46" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="D46" s="59" t="s">
+      <c r="D46" s="51" t="s">
         <v>317</v>
       </c>
-      <c r="E46" s="58" t="s">
+      <c r="E46" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62" t="s">
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="62"/>
-      <c r="L46" s="58" t="s">
+      <c r="K46" s="54"/>
+      <c r="L46" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="M46" s="58" t="str">
+      <c r="M46" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N46" s="60">
+      <c r="N46" s="52">
         <v>0.95</v>
       </c>
-      <c r="O46" s="61">
+      <c r="O46" s="53">
         <v>1</v>
       </c>
       <c r="P46" s="29">
@@ -4554,40 +4769,46 @@
       </c>
       <c r="Q46" s="30"/>
       <c r="R46" s="31"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58" t="s">
+      <c r="AF46" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A47" s="50"/>
+      <c r="B47" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="D47" s="58" t="s">
+      <c r="D47" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="E47" s="58" t="s">
+      <c r="E47" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62" t="s">
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K47" s="62"/>
-      <c r="L47" s="58" t="s">
+      <c r="K47" s="54"/>
+      <c r="L47" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="M47" s="58" t="str">
+      <c r="M47" s="50" t="str">
         <f>HYPERLINK(L47,J47)</f>
         <v>DigiKey</v>
       </c>
-      <c r="N47" s="60">
+      <c r="N47" s="52">
         <v>1.56</v>
       </c>
-      <c r="O47" s="61">
+      <c r="O47" s="53">
         <v>1</v>
       </c>
       <c r="P47" s="33">
@@ -4600,40 +4821,43 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
-      <c r="B48" s="58" t="s">
+      <c r="AF47" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="50"/>
+      <c r="B48" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="D48" s="58" t="s">
+      <c r="D48" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="E48" s="58" t="s">
+      <c r="E48" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62" t="s">
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K48" s="62"/>
-      <c r="L48" s="58" t="s">
+      <c r="K48" s="54"/>
+      <c r="L48" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="M48" s="58" t="str">
+      <c r="M48" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N48" s="60">
+      <c r="N48" s="52">
         <v>0.47</v>
       </c>
-      <c r="O48" s="61">
+      <c r="O48" s="53">
         <v>1</v>
       </c>
       <c r="P48" s="29">
@@ -4646,40 +4870,43 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
-      <c r="B49" s="58" t="s">
+      <c r="AF48" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A49" s="50"/>
+      <c r="B49" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="D49" s="58">
+      <c r="D49" s="50">
         <v>824521241</v>
       </c>
-      <c r="E49" s="58" t="s">
+      <c r="E49" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62" t="s">
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="K49" s="62"/>
-      <c r="L49" s="58" t="s">
+      <c r="K49" s="54"/>
+      <c r="L49" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="M49" s="58" t="str">
+      <c r="M49" s="50" t="str">
         <f t="shared" si="1"/>
         <v>Digikey</v>
       </c>
-      <c r="N49" s="60">
+      <c r="N49" s="52">
         <v>0.3</v>
       </c>
-      <c r="O49" s="61">
+      <c r="O49" s="53">
         <v>1</v>
       </c>
       <c r="P49" s="33">
@@ -4692,42 +4919,45 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="58" t="s">
+      <c r="AF49" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="C50" s="62" t="s">
+      <c r="C50" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="D50" s="58" t="s">
+      <c r="D50" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="E50" s="58" t="s">
+      <c r="E50" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62" t="s">
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K50" s="62"/>
-      <c r="L50" s="58" t="s">
+      <c r="K50" s="54"/>
+      <c r="L50" s="50" t="s">
         <v>291</v>
       </c>
-      <c r="M50" s="58" t="str">
+      <c r="M50" s="50" t="str">
         <f>HYPERLINK(L50,J50)</f>
         <v>DigiKey</v>
       </c>
-      <c r="N50" s="60">
+      <c r="N50" s="52">
         <v>0.3</v>
       </c>
-      <c r="O50" s="61">
+      <c r="O50" s="53">
         <v>1</v>
       </c>
       <c r="P50" s="33">
@@ -4737,41 +4967,41 @@
       <c r="Q50" s="34"/>
       <c r="R50" s="25"/>
     </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="58" t="s">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A51" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="58" t="s">
+      <c r="D51" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="E51" s="58" t="s">
+      <c r="E51" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62" t="s">
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="62"/>
-      <c r="L51" s="58" t="s">
+      <c r="K51" s="54"/>
+      <c r="L51" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="M51" s="58" t="str">
+      <c r="M51" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N51" s="60">
+      <c r="N51" s="52">
         <v>5.79</v>
       </c>
-      <c r="O51" s="61">
+      <c r="O51" s="53">
         <v>1</v>
       </c>
       <c r="P51" s="29">
@@ -4785,41 +5015,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="58" t="s">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A52" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="C52" s="62" t="s">
+      <c r="C52" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="58" t="s">
+      <c r="D52" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="E52" s="58" t="s">
+      <c r="E52" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62" t="s">
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K52" s="62"/>
-      <c r="L52" s="58" t="s">
+      <c r="K52" s="54"/>
+      <c r="L52" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="M52" s="58" t="str">
+      <c r="M52" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N52" s="60">
+      <c r="N52" s="52">
         <v>4.1399999999999997</v>
       </c>
-      <c r="O52" s="61">
+      <c r="O52" s="53">
         <v>1</v>
       </c>
       <c r="P52" s="33">
@@ -4833,45 +5063,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="58" t="s">
+    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="C53" s="62" t="s">
+      <c r="C53" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="58" t="s">
+      <c r="D53" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="E53" s="58" t="s">
+      <c r="E53" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="F53" s="58">
+      <c r="F53" s="50">
         <v>0.05</v>
       </c>
-      <c r="G53" s="58">
+      <c r="G53" s="50">
         <v>5</v>
       </c>
-      <c r="H53" s="58"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62" t="s">
+      <c r="H53" s="50"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K53" s="62"/>
-      <c r="L53" s="58" t="s">
+      <c r="K53" s="54"/>
+      <c r="L53" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="M53" s="58" t="str">
+      <c r="M53" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N53" s="60">
+      <c r="N53" s="52">
         <v>2.34</v>
       </c>
-      <c r="O53" s="61">
+      <c r="O53" s="53">
         <v>1</v>
       </c>
       <c r="P53" s="33">
@@ -4880,42 +5110,51 @@
       </c>
       <c r="Q53" s="30"/>
       <c r="R53" s="31"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="58" t="s">
+      <c r="AF53" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>392</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A54" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="C54" s="62" t="s">
+      <c r="C54" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="58" t="s">
+      <c r="D54" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="E54" s="58" t="s">
+      <c r="E54" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62" t="s">
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K54" s="62"/>
-      <c r="L54" s="58" t="s">
+      <c r="K54" s="54"/>
+      <c r="L54" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="M54" s="58" t="str">
+      <c r="M54" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N54" s="60">
+      <c r="N54" s="52">
         <v>1.17</v>
       </c>
-      <c r="O54" s="61">
+      <c r="O54" s="53">
         <v>1</v>
       </c>
       <c r="P54" s="33">
@@ -4924,44 +5163,53 @@
       </c>
       <c r="Q54" s="34"/>
       <c r="R54" s="25"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="B55" s="58" t="s">
+      <c r="AF54" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>394</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A55" s="50"/>
+      <c r="B55" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="E55" s="58" t="s">
+      <c r="E55" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="F55" s="58">
+      <c r="F55" s="50">
         <v>0.02</v>
       </c>
-      <c r="G55" s="58">
+      <c r="G55" s="50">
         <v>5</v>
       </c>
-      <c r="H55" s="58"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62" t="s">
+      <c r="H55" s="50"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K55" s="62"/>
-      <c r="L55" s="58" t="s">
+      <c r="K55" s="54"/>
+      <c r="L55" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="M55" s="58" t="str">
+      <c r="M55" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N55" s="60">
+      <c r="N55" s="52">
         <v>2.5499999999999998</v>
       </c>
-      <c r="O55" s="61">
+      <c r="O55" s="53">
         <v>1</v>
       </c>
       <c r="P55" s="29">
@@ -4974,44 +5222,47 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="58" t="s">
+      <c r="AF55" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A56" s="50"/>
+      <c r="B56" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="C56" s="62" t="s">
+      <c r="C56" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="58" t="s">
+      <c r="D56" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="E56" s="58" t="s">
+      <c r="E56" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="F56" s="58">
+      <c r="F56" s="50">
         <v>0.1</v>
       </c>
-      <c r="G56" s="58">
+      <c r="G56" s="50">
         <v>5</v>
       </c>
-      <c r="H56" s="58"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62" t="s">
+      <c r="H56" s="50"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K56" s="62"/>
-      <c r="L56" s="58" t="s">
+      <c r="K56" s="54"/>
+      <c r="L56" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="M56" s="58" t="str">
+      <c r="M56" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N56" s="60">
+      <c r="N56" s="52">
         <v>4.5999999999999996</v>
       </c>
-      <c r="O56" s="61">
+      <c r="O56" s="53">
         <v>1</v>
       </c>
       <c r="P56" s="33">
@@ -5024,44 +5275,50 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="58" t="s">
+      <c r="AF56" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A57" s="50"/>
+      <c r="B57" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="58" t="s">
+      <c r="D57" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="E57" s="58" t="s">
+      <c r="E57" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="F57" s="58">
+      <c r="F57" s="50">
         <v>0.02</v>
       </c>
-      <c r="G57" s="58">
+      <c r="G57" s="50">
         <v>5</v>
       </c>
-      <c r="H57" s="58"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="62" t="s">
+      <c r="H57" s="50"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K57" s="62"/>
-      <c r="L57" s="58" t="s">
+      <c r="K57" s="54"/>
+      <c r="L57" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="M57" s="58" t="str">
+      <c r="M57" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N57" s="60">
+      <c r="N57" s="52">
         <v>0.6</v>
       </c>
-      <c r="O57" s="61">
+      <c r="O57" s="53">
         <v>1</v>
       </c>
       <c r="P57" s="29">
@@ -5074,40 +5331,46 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="58" t="s">
+      <c r="AF57" t="s">
+        <v>398</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A58" s="50"/>
+      <c r="B58" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="58" t="s">
+      <c r="C58" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="D58" s="58" t="s">
+      <c r="D58" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E58" s="58" t="s">
+      <c r="E58" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="62" t="s">
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K58" s="62"/>
-      <c r="L58" s="58" t="s">
+      <c r="K58" s="54"/>
+      <c r="L58" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="M58" s="58" t="str">
+      <c r="M58" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N58" s="60">
+      <c r="N58" s="52">
         <v>0.88</v>
       </c>
-      <c r="O58" s="61">
+      <c r="O58" s="53">
         <v>10</v>
       </c>
       <c r="P58" s="33">
@@ -5129,42 +5392,45 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="58" t="s">
+      <c r="AF58" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A59" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="58" t="s">
+      <c r="C59" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="D59" s="58" t="s">
+      <c r="D59" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="E59" s="58" t="s">
+      <c r="E59" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="62"/>
-      <c r="J59" s="62" t="s">
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K59" s="62"/>
-      <c r="L59" s="58" t="s">
+      <c r="K59" s="54"/>
+      <c r="L59" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="M59" s="58" t="str">
+      <c r="M59" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N59" s="60">
+      <c r="N59" s="52">
         <v>0.56999999999999995</v>
       </c>
-      <c r="O59" s="61">
+      <c r="O59" s="53">
         <v>4</v>
       </c>
       <c r="P59" s="29">
@@ -5187,41 +5453,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="58" t="s">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A60" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="B60" s="58" t="s">
+      <c r="B60" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="58" t="s">
+      <c r="C60" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="D60" s="58" t="s">
+      <c r="D60" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="58" t="s">
+      <c r="E60" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="62" t="s">
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K60" s="62"/>
-      <c r="L60" s="58" t="s">
+      <c r="K60" s="54"/>
+      <c r="L60" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="M60" s="58" t="str">
+      <c r="M60" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N60" s="60">
+      <c r="N60" s="52">
         <v>0.55000000000000004</v>
       </c>
-      <c r="O60" s="61">
+      <c r="O60" s="53">
         <v>4</v>
       </c>
       <c r="P60" s="33">
@@ -5244,43 +5510,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="58" t="s">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A61" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="58" t="s">
+      <c r="C61" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="D61" s="58" t="s">
+      <c r="D61" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="E61" s="58" t="s">
+      <c r="E61" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="62" t="s">
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K61" s="58" t="s">
+      <c r="K61" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="L61" s="58" t="s">
+      <c r="L61" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="M61" s="58" t="str">
+      <c r="M61" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N61" s="60">
+      <c r="N61" s="52">
         <v>2.6</v>
       </c>
-      <c r="O61" s="61">
+      <c r="O61" s="53">
         <v>2</v>
       </c>
       <c r="P61" s="33">
@@ -5290,44 +5556,47 @@
       <c r="Q61" s="34"/>
       <c r="R61" s="25"/>
       <c r="S61" s="6"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="58" t="s">
+      <c r="AF61" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A62" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="B62" s="58" t="s">
+      <c r="B62" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="58" t="s">
+      <c r="C62" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="D62" s="58" t="s">
+      <c r="D62" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="E62" s="58" t="s">
+      <c r="E62" s="50" t="s">
         <v>330</v>
       </c>
-      <c r="F62" s="58"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="62"/>
-      <c r="J62" s="62" t="s">
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K62" s="58" t="s">
+      <c r="K62" s="50" t="s">
         <v>331</v>
       </c>
-      <c r="L62" s="58" t="s">
+      <c r="L62" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="M62" s="58" t="str">
+      <c r="M62" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N62" s="60">
+      <c r="N62" s="52">
         <v>1.53</v>
       </c>
-      <c r="O62" s="61">
+      <c r="O62" s="53">
         <v>2</v>
       </c>
       <c r="P62" s="33">
@@ -5337,42 +5606,45 @@
       <c r="Q62" s="34"/>
       <c r="R62" s="25"/>
       <c r="S62" s="6"/>
-    </row>
-    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="58" t="s">
+      <c r="AF62" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A63" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="58" t="s">
+      <c r="B63" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D63" s="58" t="s">
+      <c r="D63" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E63" s="58" t="s">
+      <c r="E63" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62" t="s">
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K63" s="62"/>
-      <c r="L63" s="58" t="s">
+      <c r="K63" s="54"/>
+      <c r="L63" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="M63" s="58" t="str">
+      <c r="M63" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N63" s="60">
+      <c r="N63" s="52">
         <v>1.0900000000000001</v>
       </c>
-      <c r="O63" s="61">
+      <c r="O63" s="53">
         <v>2</v>
       </c>
       <c r="P63" s="29">
@@ -5395,43 +5667,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="58" t="s">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A64" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="58" t="s">
+      <c r="B64" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="58" t="s">
+      <c r="C64" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D64" s="58" t="s">
+      <c r="D64" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="E64" s="58" t="s">
+      <c r="E64" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="F64" s="58">
+      <c r="F64" s="50">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="62"/>
-      <c r="J64" s="62" t="s">
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K64" s="62"/>
-      <c r="L64" s="58" t="s">
+      <c r="K64" s="54"/>
+      <c r="L64" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="M64" s="58" t="str">
+      <c r="M64" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N64" s="60">
+      <c r="N64" s="52">
         <v>4.49</v>
       </c>
-      <c r="O64" s="61">
+      <c r="O64" s="53">
         <v>2</v>
       </c>
       <c r="P64" s="33">
@@ -5453,42 +5725,48 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="58" t="s">
+      <c r="AF64" t="s">
+        <v>403</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A65" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="58" t="s">
+      <c r="B65" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D65" s="58" t="s">
+      <c r="D65" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="E65" s="58" t="s">
+      <c r="E65" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="62" t="s">
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="K65" s="62"/>
-      <c r="L65" s="58" t="s">
+      <c r="K65" s="54"/>
+      <c r="L65" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="M65" s="58" t="str">
+      <c r="M65" s="50" t="str">
         <f t="shared" si="1"/>
         <v>Mouser</v>
       </c>
-      <c r="N65" s="60">
+      <c r="N65" s="52">
         <v>2.81</v>
       </c>
-      <c r="O65" s="61">
+      <c r="O65" s="53">
         <v>4</v>
       </c>
       <c r="P65" s="29">
@@ -5511,41 +5789,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A66" s="58" t="s">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A66" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="58" t="s">
+      <c r="B66" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="58" t="s">
+      <c r="C66" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="58" t="s">
+      <c r="D66" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="E66" s="58" t="s">
+      <c r="E66" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="F66" s="58"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="62"/>
-      <c r="J66" s="62" t="s">
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="K66" s="62"/>
-      <c r="L66" s="58" t="s">
+      <c r="K66" s="54"/>
+      <c r="L66" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="M66" s="58" t="str">
+      <c r="M66" s="50" t="str">
         <f t="shared" si="1"/>
         <v>3D-Jake</v>
       </c>
-      <c r="N66" s="60">
+      <c r="N66" s="52">
         <v>5.99</v>
       </c>
-      <c r="O66" s="61">
+      <c r="O66" s="53">
         <v>4</v>
       </c>
       <c r="P66" s="33">
@@ -5562,39 +5840,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="58" t="s">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A67" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="58" t="s">
+      <c r="B67" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D67" s="58" t="s">
+      <c r="D67" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="62" t="s">
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="K67" s="62"/>
-      <c r="L67" s="58" t="s">
+      <c r="K67" s="54"/>
+      <c r="L67" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="M67" s="58" t="str">
+      <c r="M67" s="50" t="str">
         <f t="shared" ref="M67:M77" si="8">HYPERLINK(L67,J67)</f>
         <v>3D-Jake</v>
       </c>
-      <c r="N67" s="60">
+      <c r="N67" s="52">
         <v>2.99</v>
       </c>
-      <c r="O67" s="61">
+      <c r="O67" s="53">
         <v>4</v>
       </c>
       <c r="P67" s="29">
@@ -5609,41 +5887,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="58" t="s">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A68" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="58" t="s">
+      <c r="B68" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="62" t="s">
+      <c r="C68" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D68" s="58" t="s">
+      <c r="D68" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="E68" s="59" t="s">
+      <c r="E68" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="58"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="58"/>
-      <c r="I68" s="62"/>
-      <c r="J68" s="62" t="s">
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K68" s="62"/>
-      <c r="L68" s="58" t="s">
+      <c r="K68" s="54"/>
+      <c r="L68" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="M68" s="58" t="str">
+      <c r="M68" s="50" t="str">
         <f>HYPERLINK(L68,J68)</f>
         <v>DigiKey</v>
       </c>
-      <c r="N68" s="60">
+      <c r="N68" s="52">
         <v>0.1</v>
       </c>
-      <c r="O68" s="61">
+      <c r="O68" s="53">
         <v>10</v>
       </c>
       <c r="P68" s="33">
@@ -5658,41 +5936,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="58" t="s">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A69" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="58" t="s">
+      <c r="B69" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="62" t="s">
+      <c r="C69" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D69" s="58" t="s">
+      <c r="D69" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="E69" s="58" t="s">
+      <c r="E69" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="F69" s="58"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="58"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62" t="s">
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K69" s="62"/>
-      <c r="L69" s="58" t="s">
+      <c r="K69" s="54"/>
+      <c r="L69" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="M69" s="58" t="str">
+      <c r="M69" s="50" t="str">
         <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
-      <c r="N69" s="60">
+      <c r="N69" s="52">
         <v>5.54</v>
       </c>
-      <c r="O69" s="61">
+      <c r="O69" s="53">
         <v>1</v>
       </c>
       <c r="P69" s="29">
@@ -5707,41 +5985,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A70" s="58" t="s">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A70" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="C70" s="62" t="s">
+      <c r="C70" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D70" s="58" t="s">
+      <c r="D70" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="E70" s="58" t="s">
+      <c r="E70" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="62"/>
-      <c r="J70" s="62" t="s">
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K70" s="62"/>
-      <c r="L70" s="58" t="s">
+      <c r="K70" s="54"/>
+      <c r="L70" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="M70" s="58" t="str">
+      <c r="M70" s="50" t="str">
         <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
-      <c r="N70" s="60">
+      <c r="N70" s="52">
         <v>0.19</v>
       </c>
-      <c r="O70" s="61">
+      <c r="O70" s="53">
         <v>1</v>
       </c>
       <c r="P70" s="33">
@@ -5755,42 +6033,45 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="58" t="s">
+      <c r="AF70" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A71" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="B71" s="58" t="s">
+      <c r="B71" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C71" s="62" t="s">
+      <c r="C71" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="59" t="s">
+      <c r="D71" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="E71" s="58" t="s">
+      <c r="E71" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="F71" s="58"/>
-      <c r="G71" s="58"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="62"/>
-      <c r="J71" s="62" t="s">
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K71" s="62"/>
-      <c r="L71" s="58" t="s">
+      <c r="K71" s="54"/>
+      <c r="L71" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="M71" s="58" t="str">
+      <c r="M71" s="50" t="str">
         <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
-      <c r="N71" s="60">
+      <c r="N71" s="52">
         <v>16.100000000000001</v>
       </c>
-      <c r="O71" s="61">
+      <c r="O71" s="53">
         <v>1</v>
       </c>
       <c r="P71" s="29">
@@ -5812,41 +6093,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="58" t="s">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A72" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="B72" s="58" t="s">
+      <c r="B72" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="62" t="s">
+      <c r="C72" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D72" s="59" t="s">
+      <c r="D72" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="E72" s="58" t="s">
+      <c r="E72" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="62"/>
-      <c r="J72" s="62" t="s">
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="K72" s="62"/>
-      <c r="L72" s="58" t="s">
+      <c r="K72" s="54"/>
+      <c r="L72" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="M72" s="58" t="str">
+      <c r="M72" s="50" t="str">
         <f t="shared" si="8"/>
         <v>Amazon</v>
       </c>
-      <c r="N72" s="60">
+      <c r="N72" s="52">
         <v>6.99</v>
       </c>
-      <c r="O72" s="61">
+      <c r="O72" s="53">
         <v>1</v>
       </c>
       <c r="P72" s="33">
@@ -5860,41 +6141,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A73" s="58" t="s">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A73" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="B73" s="58" t="s">
+      <c r="B73" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C73" s="62" t="s">
+      <c r="C73" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D73" s="59" t="s">
+      <c r="D73" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="E73" s="58" t="s">
+      <c r="E73" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="F73" s="58"/>
-      <c r="G73" s="58"/>
-      <c r="H73" s="58"/>
-      <c r="I73" s="62"/>
-      <c r="J73" s="62" t="s">
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="K73" s="62"/>
-      <c r="L73" s="58" t="s">
+      <c r="K73" s="54"/>
+      <c r="L73" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="M73" s="58" t="str">
+      <c r="M73" s="50" t="str">
         <f t="shared" si="8"/>
         <v>RobotShop</v>
       </c>
-      <c r="N73" s="60">
+      <c r="N73" s="52">
         <v>9.33</v>
       </c>
-      <c r="O73" s="61">
+      <c r="O73" s="53">
         <v>1</v>
       </c>
       <c r="P73" s="29">
@@ -5907,42 +6188,45 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="58" t="s">
+      <c r="AF73" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A74" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="B74" s="58" t="s">
+      <c r="B74" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C74" s="62" t="s">
+      <c r="C74" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D74" s="59" t="s">
+      <c r="D74" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="E74" s="58" t="s">
+      <c r="E74" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="F74" s="58"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="62" t="s">
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K74" s="62"/>
-      <c r="L74" s="58" t="s">
+      <c r="K74" s="54"/>
+      <c r="L74" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="M74" s="58" t="str">
+      <c r="M74" s="50" t="str">
         <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
-      <c r="N74" s="60">
+      <c r="N74" s="52">
         <v>3.39</v>
       </c>
-      <c r="O74" s="61">
+      <c r="O74" s="53">
         <v>1</v>
       </c>
       <c r="P74" s="33">
@@ -5956,41 +6240,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="58" t="s">
+    <row r="75" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="58" t="s">
+      <c r="C75" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D75" s="58" t="s">
+      <c r="D75" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="E75" s="58" t="s">
+      <c r="E75" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="62" t="s">
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="K75" s="62"/>
-      <c r="L75" s="58" t="s">
+      <c r="K75" s="54"/>
+      <c r="L75" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="M75" s="58" t="str">
+      <c r="M75" s="50" t="str">
         <f t="shared" si="8"/>
         <v>Amazon</v>
       </c>
-      <c r="N75" s="60">
+      <c r="N75" s="52">
         <v>16.13</v>
       </c>
-      <c r="O75" s="61">
+      <c r="O75" s="53">
         <v>1</v>
       </c>
       <c r="P75" s="29">
@@ -6012,41 +6296,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="58" t="s">
+    <row r="76" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B76" s="58" t="s">
+      <c r="B76" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="58" t="s">
+      <c r="C76" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D76" s="58" t="s">
+      <c r="D76" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E76" s="58" t="s">
+      <c r="E76" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="F76" s="58"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="58"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="62" t="s">
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K76" s="62"/>
-      <c r="L76" s="58" t="s">
+      <c r="K76" s="54"/>
+      <c r="L76" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="M76" s="58" t="str">
+      <c r="M76" s="50" t="str">
         <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
-      <c r="N76" s="60">
+      <c r="N76" s="52">
         <v>2.97</v>
       </c>
-      <c r="O76" s="61">
+      <c r="O76" s="53">
         <v>2</v>
       </c>
       <c r="P76" s="33">
@@ -6064,41 +6348,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="58" t="s">
+    <row r="77" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B77" s="58" t="s">
+      <c r="B77" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C77" s="58" t="s">
+      <c r="C77" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D77" s="58" t="s">
+      <c r="D77" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E77" s="58" t="s">
+      <c r="E77" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="F77" s="58"/>
-      <c r="G77" s="58"/>
-      <c r="H77" s="58"/>
-      <c r="I77" s="62"/>
-      <c r="J77" s="62" t="s">
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K77" s="62"/>
-      <c r="L77" s="58" t="s">
+      <c r="K77" s="54"/>
+      <c r="L77" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="M77" s="58" t="str">
+      <c r="M77" s="50" t="str">
         <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
-      <c r="N77" s="60">
+      <c r="N77" s="52">
         <v>5.92</v>
       </c>
-      <c r="O77" s="61">
+      <c r="O77" s="53">
         <v>1</v>
       </c>
       <c r="P77" s="29">
@@ -6116,41 +6400,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="58" t="s">
+    <row r="78" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B78" s="58" t="s">
+      <c r="B78" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C78" s="58" t="s">
+      <c r="C78" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D78" s="58" t="s">
+      <c r="D78" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E78" s="58" t="s">
+      <c r="E78" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="F78" s="58"/>
-      <c r="G78" s="58"/>
-      <c r="H78" s="58"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="62" t="s">
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K78" s="62"/>
-      <c r="L78" s="58" t="s">
+      <c r="K78" s="54"/>
+      <c r="L78" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="M78" s="58" t="str">
+      <c r="M78" s="50" t="str">
         <f>HYPERLINK(L78,J78)</f>
         <v>DigiKey</v>
       </c>
-      <c r="N78" s="60">
+      <c r="N78" s="52">
         <v>2.64</v>
       </c>
-      <c r="O78" s="61">
+      <c r="O78" s="53">
         <v>1</v>
       </c>
       <c r="P78" s="33">
@@ -6172,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -6191,8 +6475,8 @@
       <c r="P79" s="16"/>
       <c r="Q79" s="17"/>
     </row>
-    <row r="80" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P80" s="57"/>
+    <row r="80" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P80" s="49"/>
     </row>
     <row r="81" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F81" s="5" t="s">
@@ -6213,7 +6497,7 @@
     <row r="83" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F83" s="44">
         <f>SUMPRODUCT(F2:F78, O2:O78, U2:U78)</f>
-        <v>4.7199999999999989</v>
+        <v>6.7679999999999989</v>
       </c>
       <c r="G83" s="44" t="e" cm="1">
         <f t="array" ref="G83">SUMPRODUCT((G2:G78=12)*(F2:F78)*(O2:O78)*(U2:U78))</f>
@@ -6260,7 +6544,7 @@
     <row r="90" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F90" s="39">
         <f>F83*$F$93</f>
-        <v>7.0799999999999983</v>
+        <v>10.151999999999997</v>
       </c>
       <c r="G90" s="39" t="e">
         <f>G83*$F$93</f>
@@ -6397,61 +6681,92 @@
   <autoFilter ref="A1:R78" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
     <filterColumn colId="0">
       <filters blank="1">
+        <filter val="ACC1"/>
+        <filter val="ACC2"/>
         <filter val="ACC3"/>
+        <filter val="ACC4"/>
+        <filter val="BF1"/>
+        <filter val="BF2"/>
+        <filter val="BF2.1"/>
+        <filter val="BF3"/>
         <filter val="BF4"/>
         <filter val="BL"/>
+        <filter val="BP1"/>
         <filter val="BP2"/>
+        <filter val="F1"/>
         <filter val="F2"/>
+        <filter val="POW1"/>
         <filter val="POW2"/>
         <filter val="S1"/>
+        <filter val="S2"/>
+        <filter val="SP1"/>
         <filter val="SP2"/>
+        <filter val="SP3"/>
+        <filter val="ST1"/>
+        <filter val="ST2"/>
+        <filter val="ST3"/>
         <filter val="ST4"/>
+        <filter val="SV1"/>
         <filter val="SV2"/>
+        <filter val="TP1"/>
         <filter val="TP2"/>
+        <filter val="TP3"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
+    <customSheetView guid="{36C50999-9392-45D3-927D-2C21A30118D3}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
+      <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R62" xr:uid="{E598CCD3-B344-4D4C-9CAF-51ED1BDC272F}">
+      <autoFilter ref="A1:R78" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
             <filter val="BF4"/>
+            <filter val="BL"/>
             <filter val="BP2"/>
             <filter val="F2"/>
             <filter val="POW2"/>
             <filter val="S1"/>
             <filter val="SP2"/>
+            <filter val="ST4"/>
+            <filter val="SV2"/>
             <filter val="TP2"/>
           </filters>
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
+    <customSheetView guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R59" xr:uid="{153E1EFA-15FA-4E38-B3E1-F79F2BCB419D}"/>
-    </customSheetView>
-    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R59" xr:uid="{1A34C5EB-613E-4E32-AB90-0F2BEA506457}"/>
+      <autoFilter ref="A1:R78" xr:uid="{69666EDC-EA15-4DCB-9AAF-D8F292B9F5C3}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BL"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="POW2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="ST4"/>
+            <filter val="SV2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
     </customSheetView>
     <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R60" xr:uid="{682D2D4E-D486-40B8-985E-52959B9432E6}">
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A1:R60" xr:uid="{3C7ADA09-9C6F-4B79-ADE7-012DC39EF190}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6465,24 +6780,35 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" filter="1" showAutoFilter="1" hiddenColumns="1">
+    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A1:R59" xr:uid="{A29F13EA-2EFA-457E-8488-3154111B2199}"/>
+    </customSheetView>
+    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-      <autoFilter ref="A1:R78" xr:uid="{A458395C-4036-4AAF-A218-F12FE78D5379}">
+      <autoFilter ref="A1:R59" xr:uid="{A1C8DBF2-DBB8-4FDF-9577-BDDF7145CDDC}"/>
+    </customSheetView>
+    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+      <autoFilter ref="A1:R62" xr:uid="{0C0CC385-32C0-44F4-B8AB-5812863E13FD}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
             <filter val="BF4"/>
-            <filter val="BL"/>
             <filter val="BP2"/>
             <filter val="F2"/>
             <filter val="POW2"/>
             <filter val="S1"/>
             <filter val="SP2"/>
-            <filter val="ST4"/>
-            <filter val="SV2"/>
             <filter val="TP2"/>
           </filters>
         </filterColumn>
@@ -6541,36 +6867,36 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId6" xr:uid="{134576B2-6870-47F8-80B5-95CA9B97F9E2}"/>
-    <hyperlink ref="L58" r:id="rId7" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
-    <hyperlink ref="L59" r:id="rId8" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
-    <hyperlink ref="L60" r:id="rId9" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
-    <hyperlink ref="L39" r:id="rId10" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
-    <hyperlink ref="L76" r:id="rId11" xr:uid="{9A0B0992-EB9B-485C-8743-AB5373B961C2}"/>
-    <hyperlink ref="L78" r:id="rId12" xr:uid="{B67FB571-1B87-4184-A2B3-AF411BD87D35}"/>
-    <hyperlink ref="L64" r:id="rId13" xr:uid="{57963C92-CE56-4D91-B1F1-7FA05F5BC3A8}"/>
-    <hyperlink ref="L63" r:id="rId14" xr:uid="{9D795571-0999-43FF-9A1F-496FF99C86C0}"/>
-    <hyperlink ref="L65" r:id="rId15" xr:uid="{8465788D-FDE3-460C-960F-435D2FB5F396}"/>
-    <hyperlink ref="L10" r:id="rId16" xr:uid="{A9D6150D-3C06-4D81-AD60-047F4F409296}"/>
-    <hyperlink ref="L11" r:id="rId17" xr:uid="{411A7094-1AC1-4084-ABE4-5C0060EC1A2D}"/>
-    <hyperlink ref="L12" r:id="rId18" xr:uid="{3DDB6C5A-7DB3-4C65-B604-D02293535F49}"/>
-    <hyperlink ref="L7" r:id="rId19" xr:uid="{56E44BCE-942A-4E32-8574-907151789664}"/>
-    <hyperlink ref="L71" r:id="rId20" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
-    <hyperlink ref="L3" r:id="rId21" xr:uid="{C49F6822-A4DD-42C2-B3BF-0381D137937C}"/>
-    <hyperlink ref="L5" r:id="rId22" xr:uid="{BF0FEABB-4850-4BC5-A11D-D889C6B926FD}"/>
-    <hyperlink ref="L8" r:id="rId23" xr:uid="{21389653-C0FE-46E1-B136-04B9A0DE28C5}"/>
-    <hyperlink ref="L66" r:id="rId24" xr:uid="{1242A3DC-9FDC-4C47-9270-1B4A92E75E73}"/>
-    <hyperlink ref="L36" r:id="rId25" xr:uid="{3ED73B15-E49B-4E21-BF8D-06828BFBADB2}"/>
-    <hyperlink ref="L9" r:id="rId26" xr:uid="{E62708AD-A075-4D9D-9BC8-2CBD617B66EE}"/>
-    <hyperlink ref="L37" r:id="rId27" xr:uid="{488C7B18-56E0-4061-83E3-FAA678922DF9}"/>
-    <hyperlink ref="L43" r:id="rId28" xr:uid="{02A8F53B-7033-433E-97B4-37D43B10ABDE}"/>
-    <hyperlink ref="K61" r:id="rId29" display="https://www.samtec.com/products/hle-107-02-l-dv" xr:uid="{AF2D4394-67CE-4447-B187-DA356AB0AFD4}"/>
-    <hyperlink ref="L61" r:id="rId30" xr:uid="{3CAA47B9-FD6F-4B23-A59B-6E4BF51797D7}"/>
-    <hyperlink ref="L21" r:id="rId31" xr:uid="{8FDFC79B-94E5-4C68-84E1-D5C8679D313C}"/>
-    <hyperlink ref="L22" r:id="rId32" xr:uid="{3CB626FF-165C-4A7E-A7FE-D41E681D5EC5}"/>
-    <hyperlink ref="L68" r:id="rId33" xr:uid="{B06D0A87-6477-4382-AFA7-5ACA40E62DA0}"/>
+    <hyperlink ref="L2" r:id="rId7" xr:uid="{134576B2-6870-47F8-80B5-95CA9B97F9E2}"/>
+    <hyperlink ref="L58" r:id="rId8" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
+    <hyperlink ref="L59" r:id="rId9" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
+    <hyperlink ref="L60" r:id="rId10" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
+    <hyperlink ref="L39" r:id="rId11" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
+    <hyperlink ref="L76" r:id="rId12" xr:uid="{9A0B0992-EB9B-485C-8743-AB5373B961C2}"/>
+    <hyperlink ref="L78" r:id="rId13" xr:uid="{B67FB571-1B87-4184-A2B3-AF411BD87D35}"/>
+    <hyperlink ref="L64" r:id="rId14" xr:uid="{57963C92-CE56-4D91-B1F1-7FA05F5BC3A8}"/>
+    <hyperlink ref="L63" r:id="rId15" xr:uid="{9D795571-0999-43FF-9A1F-496FF99C86C0}"/>
+    <hyperlink ref="L65" r:id="rId16" xr:uid="{8465788D-FDE3-460C-960F-435D2FB5F396}"/>
+    <hyperlink ref="L10" r:id="rId17" xr:uid="{A9D6150D-3C06-4D81-AD60-047F4F409296}"/>
+    <hyperlink ref="L11" r:id="rId18" xr:uid="{411A7094-1AC1-4084-ABE4-5C0060EC1A2D}"/>
+    <hyperlink ref="L12" r:id="rId19" xr:uid="{3DDB6C5A-7DB3-4C65-B604-D02293535F49}"/>
+    <hyperlink ref="L7" r:id="rId20" xr:uid="{56E44BCE-942A-4E32-8574-907151789664}"/>
+    <hyperlink ref="L71" r:id="rId21" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
+    <hyperlink ref="L3" r:id="rId22" xr:uid="{C49F6822-A4DD-42C2-B3BF-0381D137937C}"/>
+    <hyperlink ref="L5" r:id="rId23" xr:uid="{BF0FEABB-4850-4BC5-A11D-D889C6B926FD}"/>
+    <hyperlink ref="L8" r:id="rId24" xr:uid="{21389653-C0FE-46E1-B136-04B9A0DE28C5}"/>
+    <hyperlink ref="L66" r:id="rId25" xr:uid="{1242A3DC-9FDC-4C47-9270-1B4A92E75E73}"/>
+    <hyperlink ref="L36" r:id="rId26" xr:uid="{3ED73B15-E49B-4E21-BF8D-06828BFBADB2}"/>
+    <hyperlink ref="L9" r:id="rId27" xr:uid="{E62708AD-A075-4D9D-9BC8-2CBD617B66EE}"/>
+    <hyperlink ref="L37" r:id="rId28" xr:uid="{488C7B18-56E0-4061-83E3-FAA678922DF9}"/>
+    <hyperlink ref="L43" r:id="rId29" xr:uid="{02A8F53B-7033-433E-97B4-37D43B10ABDE}"/>
+    <hyperlink ref="K61" r:id="rId30" display="https://www.samtec.com/products/hle-107-02-l-dv" xr:uid="{AF2D4394-67CE-4447-B187-DA356AB0AFD4}"/>
+    <hyperlink ref="L61" r:id="rId31" xr:uid="{3CAA47B9-FD6F-4B23-A59B-6E4BF51797D7}"/>
+    <hyperlink ref="L21" r:id="rId32" xr:uid="{8FDFC79B-94E5-4C68-84E1-D5C8679D313C}"/>
+    <hyperlink ref="L22" r:id="rId33" xr:uid="{3CB626FF-165C-4A7E-A7FE-D41E681D5EC5}"/>
+    <hyperlink ref="L68" r:id="rId34" xr:uid="{B06D0A87-6477-4382-AFA7-5ACA40E62DA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\GitHub\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054031BB-82EF-44E1-BAE9-2D109C6ABA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5783017-188A-4CC9-BB6D-3E5AEC5B66AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,12 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan_V5" guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
     <customWorkbookView name="Anforderungen_Auswahl" guid="{36C50999-9392-45D3-927D-2C21A30118D3}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_V5" guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="406">
   <si>
     <t>Alternative</t>
   </si>
@@ -1268,9 +1268,6 @@
   </si>
   <si>
     <t>eine moeglichst kompakte bauform haben</t>
-  </si>
-  <si>
-    <t>auf chatgpt chat zurueckgreifen und erklaeren</t>
   </si>
   <si>
     <t>ist aber ueblich in vielen arduino anwendungen</t>
@@ -2294,8 +2291,8 @@
   <dimension ref="A1:AK112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE40" sqref="AE40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5222,9 +5219,6 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AF55" t="s">
-        <v>396</v>
-      </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" s="50"/>
@@ -5275,11 +5269,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AF56" t="s">
-        <v>390</v>
-      </c>
       <c r="AG56" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
@@ -5332,10 +5323,10 @@
         <v>1</v>
       </c>
       <c r="AF57" t="s">
+        <v>397</v>
+      </c>
+      <c r="AG57" t="s">
         <v>398</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
@@ -5393,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="AF58" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
@@ -5557,7 +5548,7 @@
       <c r="R61" s="25"/>
       <c r="S61" s="6"/>
       <c r="AF61" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
@@ -5607,7 +5598,7 @@
       <c r="R62" s="25"/>
       <c r="S62" s="6"/>
       <c r="AF62" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
@@ -5726,10 +5717,10 @@
         <v>0</v>
       </c>
       <c r="AF64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG64" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
@@ -6034,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="AF70" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
@@ -6189,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="AF73" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
@@ -6715,12 +6706,65 @@
     </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{36C50999-9392-45D3-927D-2C21A30118D3}" filter="1" showAutoFilter="1" hiddenColumns="1">
+    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
+      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R78" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
+      <autoFilter ref="A1:R62" xr:uid="{22EDE2E3-EB50-4243-A545-1DA468F7D7EC}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="POW2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A1:R59" xr:uid="{DC384772-D41A-4AFA-B796-4B9FC8B40975}"/>
+    </customSheetView>
+    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A1:R59" xr:uid="{D75C0060-9AC9-49C2-B86D-0B3FD3CD1453}"/>
+    </customSheetView>
+    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A1:R60" xr:uid="{320774CF-15CF-4906-8E75-067330130449}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+      <autoFilter ref="A1:R78" xr:uid="{392506BF-AE36-465C-AC3C-37C6CDF509DC}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6738,12 +6782,12 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" filter="1" showAutoFilter="1" hiddenColumns="1">
+    <customSheetView guid="{36C50999-9392-45D3-927D-2C21A30118D3}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
+      <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R78" xr:uid="{69666EDC-EA15-4DCB-9AAF-D8F292B9F5C3}">
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+      <autoFilter ref="A1:R78" xr:uid="{4B887387-0E7C-4084-8500-5925343836C9}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6756,59 +6800,6 @@
             <filter val="SP2"/>
             <filter val="ST4"/>
             <filter val="SV2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R60" xr:uid="{3C7ADA09-9C6F-4B79-ADE7-012DC39EF190}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R59" xr:uid="{A29F13EA-2EFA-457E-8488-3154111B2199}"/>
-    </customSheetView>
-    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-      <autoFilter ref="A1:R59" xr:uid="{A1C8DBF2-DBB8-4FDF-9577-BDDF7145CDDC}"/>
-    </customSheetView>
-    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-      <autoFilter ref="A1:R62" xr:uid="{0C0CC385-32C0-44F4-B8AB-5812863E13FD}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
-            <filter val="POW2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
             <filter val="TP2"/>
           </filters>
         </filterColumn>

--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\GitHub\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5783017-188A-4CC9-BB6D-3E5AEC5B66AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC420AB-903B-4CB3-B60F-8FE472EC5106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,12 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Anforderungen_Auswahl" guid="{36C50999-9392-45D3-927D-2C21A30118D3}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan_V5" guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
     <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_V5" guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
-    <customWorkbookView name="Anforderungen_Auswahl" guid="{36C50999-9392-45D3-927D-2C21A30118D3}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2292,7 +2292,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE40" sqref="AE40"/>
+      <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6706,65 +6706,12 @@
     </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
+    <customSheetView guid="{36C50999-9392-45D3-927D-2C21A30118D3}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
+      <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R62" xr:uid="{22EDE2E3-EB50-4243-A545-1DA468F7D7EC}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
-            <filter val="POW2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R59" xr:uid="{DC384772-D41A-4AFA-B796-4B9FC8B40975}"/>
-    </customSheetView>
-    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R59" xr:uid="{D75C0060-9AC9-49C2-B86D-0B3FD3CD1453}"/>
-    </customSheetView>
-    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R60" xr:uid="{320774CF-15CF-4906-8E75-067330130449}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-      <autoFilter ref="A1:R78" xr:uid="{392506BF-AE36-465C-AC3C-37C6CDF509DC}">
+      <autoFilter ref="A1:R78" xr:uid="{B4F3BF44-7F35-4143-9930-25E8186FF7E9}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6782,12 +6729,12 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{36C50999-9392-45D3-927D-2C21A30118D3}" filter="1" showAutoFilter="1" hiddenColumns="1">
+    <customSheetView guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
+      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-      <autoFilter ref="A1:R78" xr:uid="{4B887387-0E7C-4084-8500-5925343836C9}">
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A1:R78" xr:uid="{FBEFBE2B-D72E-4F13-947F-7414729BFF82}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6800,6 +6747,59 @@
             <filter val="SP2"/>
             <filter val="ST4"/>
             <filter val="SV2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A1:R60" xr:uid="{EA93ABE8-2E41-4C2A-8766-8D8CA804B251}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A1:R59" xr:uid="{41BA9B40-8A1F-4113-8953-025FFA734C02}"/>
+    </customSheetView>
+    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+      <autoFilter ref="A1:R59" xr:uid="{D96542F2-6C6A-44BF-82CF-19E96D686E62}"/>
+    </customSheetView>
+    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+      <autoFilter ref="A1:R62" xr:uid="{D5AD703C-60F1-4B87-AFA2-FE08B386F63B}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="POW2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
             <filter val="TP2"/>
           </filters>
         </filterColumn>

--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -5,38 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\GitHub\fiberprinter-electronics\2nd_mainboard_bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC420AB-903B-4CB3-B60F-8FE472EC5106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3044CC-9660-4855-9570-7ABB49C6B4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2ndMainBoard" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$80</definedName>
     <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$I:$I,'2ndMainBoard'!$M:$M,'2ndMainBoard'!$P:$R,'2ndMainBoard'!$T:$AD</definedName>
-    <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
+    <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$80</definedName>
     <definedName name="Z_36C50999_9392_45D3_927D_2C21A30118D3_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$L,'2ndMainBoard'!$O:$AD</definedName>
-    <definedName name="Z_36C50999_9392_45D3_927D_2C21A30118D3_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
+    <definedName name="Z_36C50999_9392_45D3_927D_2C21A30118D3_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$80</definedName>
     <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$H:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$U</definedName>
-    <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
+    <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$80</definedName>
     <definedName name="Z_AD0CFDC5_A886_4774_8323_B873BC9D36B7_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$V</definedName>
-    <definedName name="Z_AD0CFDC5_A886_4774_8323_B873BC9D36B7_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
+    <definedName name="Z_AD0CFDC5_A886_4774_8323_B873BC9D36B7_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$80</definedName>
     <definedName name="Z_B27C99E1_F194_4CDD_BEEF_0E7944A43981_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$V</definedName>
-    <definedName name="Z_B27C99E1_F194_4CDD_BEEF_0E7944A43981_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
-    <definedName name="Z_E3E09E1D_E21B_434F_8777_BA2F5DFE998D_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
+    <definedName name="Z_B27C99E1_F194_4CDD_BEEF_0E7944A43981_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$80</definedName>
+    <definedName name="Z_E3E09E1D_E21B_434F_8777_BA2F5DFE998D_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan_V5" guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
     <customWorkbookView name="Anforderungen_Auswahl" guid="{36C50999-9392-45D3-927D-2C21A30118D3}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_V5" guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="417">
   <si>
     <t>Alternative</t>
   </si>
@@ -1072,9 +1072,6 @@
     <t>SV2</t>
   </si>
   <si>
-    <t>8 Reihenpaare, ohne Location Peg</t>
-  </si>
-  <si>
     <t>config: https://www.samtec.com/products/tsm-107-04-l-dv pdf: https://suddendocs.samtec.com/catalog_english/a-tsm.pdf allgemein: https://www.samtec.com/flex-stacking/standard/100-pitch-terminals/</t>
   </si>
   <si>
@@ -1298,6 +1295,42 @@
   </si>
   <si>
     <t>sollte mit klipper kompatibel sein und eine moeglichst kleine bauform haben und unkompliziert sein, sowie ueber i2c auslesbar sein.</t>
+  </si>
+  <si>
+    <t>Steckverbinder Male, Hoch</t>
+  </si>
+  <si>
+    <t>HW-07-08-L-D-250-SM</t>
+  </si>
+  <si>
+    <t>7 Reihenpaare, ohne Location Peg, 11mm hoch</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Samtec/HW-07-08-L-D-250-SM?qs=3%252BjIH0OdpA8a62QJxWcTNw%3D%3D</t>
+  </si>
+  <si>
+    <t>ist auf DigiKey nur in 32er Pakten erähtlich; config: https://www.samtec.com/products/hw-07-08-l-d-250-sm</t>
+  </si>
+  <si>
+    <t>soll in der hoehe gestapelt so niedrig wie moeglich sein</t>
+  </si>
+  <si>
+    <t>soll zur female-buchse passen und eine gesamthoehe von ca 7mm ergeben</t>
+  </si>
+  <si>
+    <t>das gleiche</t>
+  </si>
+  <si>
+    <t>soll zur female-buchse passen und eine gesamthoehe von ca 11-12mm haben, damit sich die leistungsbuchse von der hoehe her ausgeht</t>
+  </si>
+  <si>
+    <t>ist fuer die verbindung zwischen fan und leistungsplatine gedacht, sollte also ca 7mm hoch sein</t>
+  </si>
+  <si>
+    <t>11mm Abstandhalter</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/en/products/detail/w%C3%BCrth-elektronik/971110154/9488627</t>
   </si>
 </sst>
 </file>
@@ -1899,9 +1932,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="20 % - Akzent1" xfId="2" builtinId="30"/>
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2288,14 +2321,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AK112"/>
+  <dimension ref="A1:AK114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF85" sqref="AF85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
@@ -2390,22 +2423,22 @@
       </c>
       <c r="Y1" s="58"/>
       <c r="Z1" s="11">
-        <f>SUMIFS(P10:P78,Q10:Q78, "Nicht Gekauft",R10:R78,"Benötigt")</f>
-        <v>64.3</v>
+        <f>SUMIFS(P10:P80,Q10:Q80, "Nicht Gekauft",R10:R80,"Benötigt")</f>
+        <v>59.019999999999996</v>
       </c>
       <c r="AB1" s="55" t="s">
         <v>106</v>
       </c>
       <c r="AC1" s="56"/>
       <c r="AD1" s="10">
-        <f>SUM(P2:P78)</f>
-        <v>457.60000000000008</v>
+        <f>SUM(P2:P80)</f>
+        <v>457.49000000000007</v>
       </c>
       <c r="AF1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AH1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -2444,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="29">
-        <f t="shared" ref="P2:P78" si="0">N2*O2</f>
+        <f t="shared" ref="P2:P80" si="0">N2*O2</f>
         <v>9.91</v>
       </c>
       <c r="Q2" s="30" t="s">
@@ -2462,10 +2495,10 @@
         <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
         <v>114</v>
       </c>
@@ -2497,7 +2530,7 @@
         <v>27</v>
       </c>
       <c r="M3" s="50" t="str">
-        <f t="shared" ref="M3:M66" si="1">HYPERLINK(L3,J3)</f>
+        <f t="shared" ref="M3:M68" si="1">HYPERLINK(L3,J3)</f>
         <v>AZ-Delivery</v>
       </c>
       <c r="N3" s="52">
@@ -2517,14 +2550,14 @@
         <v>108</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U78" si="2">SUBTOTAL(103, G3)</f>
+        <f t="shared" ref="U3:U80" si="2">SUBTOTAL(103, G3)</f>
         <v>1</v>
       </c>
       <c r="AF3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
         <v>115</v>
       </c>
@@ -2573,7 +2606,7 @@
       <c r="R4" s="31"/>
       <c r="U4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="5"/>
@@ -2640,14 +2673,14 @@
       </c>
       <c r="Y5" s="62"/>
       <c r="Z5" s="12">
-        <f>SUBTOTAL(9,P1:P78)</f>
-        <v>421.13000000000011</v>
+        <f>SUBTOTAL(9,P1:P80)</f>
+        <v>252.74999999999997</v>
       </c>
       <c r="AF5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>263</v>
       </c>
@@ -2704,10 +2737,10 @@
       <c r="Y6" s="36"/>
       <c r="Z6" s="37"/>
       <c r="AF6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
         <v>122</v>
       </c>
@@ -2765,15 +2798,15 @@
       </c>
       <c r="U7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="59" t="s">
         <v>109</v>
       </c>
       <c r="Y7" s="60"/>
       <c r="Z7" s="9">
-        <f>SUBTOTAL(9,T1:T78)</f>
-        <v>89.28</v>
+        <f>SUBTOTAL(9,T1:T80)</f>
+        <v>10.51</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -2830,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="AF8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -2887,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>166</v>
       </c>
@@ -2945,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>166</v>
       </c>
@@ -3003,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>166</v>
       </c>
@@ -3061,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>167</v>
       </c>
@@ -3119,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>168</v>
       </c>
@@ -3169,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>169</v>
       </c>
@@ -3277,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="AF16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -3329,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="AF17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -3381,15 +3414,15 @@
         <v>0</v>
       </c>
       <c r="AF18" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="B19" s="50" t="s">
         <v>333</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>334</v>
       </c>
       <c r="C19" s="50" t="s">
         <v>173</v>
@@ -3398,7 +3431,7 @@
         <v>301</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
@@ -3431,12 +3464,12 @@
       <c r="R19" s="25"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C20" s="50" t="s">
         <v>173</v>
@@ -3445,7 +3478,7 @@
         <v>299</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
@@ -3478,12 +3511,12 @@
       <c r="R20" s="25"/>
       <c r="S20" s="8"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="B21" s="50" t="s">
         <v>338</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>339</v>
       </c>
       <c r="C21" s="50" t="s">
         <v>173</v>
@@ -3492,7 +3525,7 @@
         <v>303</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
@@ -3523,12 +3556,12 @@
       <c r="R21" s="25"/>
       <c r="S21" s="8"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C22" s="50" t="s">
         <v>173</v>
@@ -3537,7 +3570,7 @@
         <v>5013300200</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
@@ -3570,12 +3603,12 @@
       <c r="R22" s="25"/>
       <c r="S22" s="8"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C23" s="50" t="s">
         <v>173</v>
@@ -3584,7 +3617,7 @@
         <v>665103131822</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
@@ -3617,12 +3650,12 @@
       <c r="R23" s="25"/>
       <c r="S23" s="8"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C24" s="50" t="s">
         <v>173</v>
@@ -3631,7 +3664,7 @@
         <v>665003113322</v>
       </c>
       <c r="E24" s="50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
@@ -3664,12 +3697,12 @@
       <c r="R24" s="25"/>
       <c r="S24" s="8"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="B25" s="50" t="s">
         <v>346</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>347</v>
       </c>
       <c r="C25" s="50" t="s">
         <v>173</v>
@@ -3678,10 +3711,10 @@
         <v>310</v>
       </c>
       <c r="E25" s="50" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F25" s="50" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G25" s="50"/>
       <c r="H25" s="50">
@@ -3713,21 +3746,21 @@
       <c r="R25" s="25"/>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D26" s="50" t="s">
         <v>312</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
@@ -3760,12 +3793,12 @@
       <c r="R26" s="25"/>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C27" s="50" t="s">
         <v>173</v>
@@ -3774,7 +3807,7 @@
         <v>314</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F27" s="50"/>
       <c r="G27" s="50"/>
@@ -3809,19 +3842,19 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D28" s="50">
         <v>665002113322</v>
       </c>
       <c r="E28" s="50" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F28" s="50"/>
       <c r="G28" s="50"/>
@@ -3854,24 +3887,24 @@
       <c r="R28" s="25"/>
       <c r="S28" s="8"/>
       <c r="AF28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B29" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="C29" s="50" t="s">
         <v>357</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>358</v>
       </c>
       <c r="D29" s="50">
         <v>665102131822</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F29" s="50"/>
       <c r="G29" s="50"/>
@@ -3904,10 +3937,10 @@
       <c r="R29" s="25"/>
       <c r="S29" s="8"/>
       <c r="AF29" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
         <v>179</v>
       </c>
@@ -3915,7 +3948,7 @@
         <v>178</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D30" s="50" t="s">
         <v>177</v>
@@ -3966,7 +3999,7 @@
         <v>178</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D31" s="50" t="s">
         <v>181</v>
@@ -4007,13 +4040,13 @@
         <v>0</v>
       </c>
       <c r="AE31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF31" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
         <v>193</v>
       </c>
@@ -4021,7 +4054,7 @@
         <v>184</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D32" s="50" t="s">
         <v>186</v>
@@ -4072,7 +4105,7 @@
         <v>184</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D33" s="50" t="s">
         <v>189</v>
@@ -4113,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="AE33" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG33" t="s">
         <v>377</v>
       </c>
-      <c r="AF33" t="s">
-        <v>375</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:37" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>195</v>
       </c>
@@ -4130,7 +4163,7 @@
         <v>184</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D34" s="50" t="s">
         <v>190</v>
@@ -4177,7 +4210,7 @@
         <v>201</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D35" s="50" t="s">
         <v>202</v>
@@ -4217,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="AF35" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4268,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="AE36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:37" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4362,10 +4395,10 @@
       <c r="Q38" s="28"/>
       <c r="R38" s="28"/>
       <c r="AF38" t="s">
+        <v>380</v>
+      </c>
+      <c r="AG38" t="s">
         <v>381</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
@@ -4576,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="AF42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.25">
@@ -4625,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="AF43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.25">
@@ -4674,13 +4707,13 @@
         <v>0</v>
       </c>
       <c r="AF44" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
       <c r="B45" s="50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C45" s="54" t="s">
         <v>228</v>
@@ -4719,16 +4752,16 @@
       <c r="Q45" s="30"/>
       <c r="R45" s="31"/>
       <c r="AF45" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK45" t="s">
         <v>386</v>
-      </c>
-      <c r="AK45" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="50"/>
       <c r="B46" s="50" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C46" s="54" t="s">
         <v>228</v>
@@ -4767,10 +4800,10 @@
       <c r="Q46" s="30"/>
       <c r="R46" s="31"/>
       <c r="AF46" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK46" t="s">
         <v>386</v>
-      </c>
-      <c r="AK46" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.25">
@@ -4819,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="AF47" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4868,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="AF48" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
@@ -4917,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="AF49" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
@@ -4964,7 +4997,7 @@
       <c r="Q50" s="34"/>
       <c r="R50" s="25"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="50" t="s">
         <v>276</v>
       </c>
@@ -5012,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="50" t="s">
         <v>276</v>
       </c>
@@ -5108,13 +5141,13 @@
       <c r="Q53" s="30"/>
       <c r="R53" s="31"/>
       <c r="AF53" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG53" t="s">
         <v>391</v>
       </c>
-      <c r="AG53" t="s">
+      <c r="AH53" t="s">
         <v>392</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
@@ -5161,13 +5194,13 @@
       <c r="Q54" s="34"/>
       <c r="R54" s="25"/>
       <c r="AF54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG54" t="s">
+        <v>393</v>
+      </c>
+      <c r="AH54" t="s">
         <v>394</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
@@ -5270,7 +5303,7 @@
         <v>1</v>
       </c>
       <c r="AG56" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
@@ -5323,10 +5356,10 @@
         <v>1</v>
       </c>
       <c r="AF57" t="s">
+        <v>396</v>
+      </c>
+      <c r="AG57" t="s">
         <v>397</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
@@ -5337,8 +5370,8 @@
       <c r="C58" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="D58" s="50" t="s">
-        <v>31</v>
+      <c r="D58" s="50">
+        <v>971070154</v>
       </c>
       <c r="E58" s="50" t="s">
         <v>34</v>
@@ -5362,11 +5395,11 @@
         <v>0.88</v>
       </c>
       <c r="O58" s="53">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P58" s="33">
         <f t="shared" si="0"/>
-        <v>8.8000000000000007</v>
+        <v>3.52</v>
       </c>
       <c r="Q58" s="34" t="s">
         <v>21</v>
@@ -5376,32 +5409,33 @@
       </c>
       <c r="S58" s="6"/>
       <c r="T58">
-        <f t="shared" ref="T58:T65" si="7">IF(AND(Q58="Nicht Gekauft", R58="Benötigt"), P58, 0)</f>
-        <v>8.8000000000000007</v>
+        <f t="shared" ref="T58:T67" si="7">IF(AND(Q58="Nicht Gekauft", R58="Benötigt"), P58, 0)</f>
+        <v>3.52</v>
       </c>
       <c r="U58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF58" t="s">
-        <v>399</v>
+        <v>398</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="50" t="s">
-        <v>326</v>
-      </c>
+      <c r="A59" s="50"/>
       <c r="B59" s="50" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C59" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="D59" s="50" t="s">
-        <v>38</v>
+      <c r="D59" s="50">
+        <v>971110154</v>
       </c>
       <c r="E59" s="50" t="s">
-        <v>39</v>
+        <v>415</v>
       </c>
       <c r="F59" s="50"/>
       <c r="G59" s="50"/>
@@ -5412,50 +5446,38 @@
       </c>
       <c r="K59" s="54"/>
       <c r="L59" s="50" t="s">
-        <v>40</v>
+        <v>416</v>
       </c>
       <c r="M59" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N59" s="52">
-        <v>0.56999999999999995</v>
+        <v>0.75</v>
       </c>
       <c r="O59" s="53">
         <v>4</v>
       </c>
-      <c r="P59" s="29">
+      <c r="P59" s="33">
         <f t="shared" si="0"/>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="Q59" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R59" s="31" t="s">
-        <v>108</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="25"/>
       <c r="S59" s="6"/>
-      <c r="T59">
-        <f t="shared" si="7"/>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="U59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="50" t="s">
         <v>326</v>
       </c>
       <c r="B60" s="50" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C60" s="50" t="s">
         <v>325</v>
       </c>
       <c r="D60" s="50" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E60" s="50" t="s">
         <v>39</v>
@@ -5469,53 +5491,53 @@
       </c>
       <c r="K60" s="54"/>
       <c r="L60" s="50" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M60" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N60" s="52">
-        <v>0.55000000000000004</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="O60" s="53">
         <v>4</v>
       </c>
       <c r="P60" s="33">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q60" s="34" t="s">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="Q60" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="R60" s="25" t="s">
+      <c r="R60" s="31" t="s">
         <v>108</v>
       </c>
       <c r="S60" s="6"/>
       <c r="T60">
         <f t="shared" si="7"/>
-        <v>2.2000000000000002</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="U60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="50" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B61" s="50" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C61" s="50" t="s">
         <v>325</v>
       </c>
       <c r="D61" s="50" t="s">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="E61" s="50" t="s">
-        <v>328</v>
+        <v>39</v>
       </c>
       <c r="F61" s="50"/>
       <c r="G61" s="50"/>
@@ -5524,31 +5546,38 @@
       <c r="J61" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K61" s="50" t="s">
-        <v>327</v>
-      </c>
+      <c r="K61" s="54"/>
       <c r="L61" s="50" t="s">
-        <v>322</v>
+        <v>43</v>
       </c>
       <c r="M61" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N61" s="52">
-        <v>2.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O61" s="53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P61" s="33">
         <f t="shared" si="0"/>
-        <v>5.2</v>
-      </c>
-      <c r="Q61" s="34"/>
-      <c r="R61" s="25"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q61" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R61" s="25" t="s">
+        <v>108</v>
+      </c>
       <c r="S61" s="6"/>
-      <c r="AF61" t="s">
-        <v>400</v>
+      <c r="T61">
+        <f t="shared" si="7"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
@@ -5556,16 +5585,16 @@
         <v>329</v>
       </c>
       <c r="B62" s="50" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C62" s="50" t="s">
         <v>325</v>
       </c>
       <c r="D62" s="50" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E62" s="50" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F62" s="50"/>
       <c r="G62" s="50"/>
@@ -5575,47 +5604,50 @@
         <v>35</v>
       </c>
       <c r="K62" s="50" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L62" s="50" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M62" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N62" s="52">
-        <v>1.53</v>
+        <v>2.6</v>
       </c>
       <c r="O62" s="53">
         <v>2</v>
       </c>
       <c r="P62" s="33">
         <f t="shared" si="0"/>
-        <v>3.06</v>
+        <v>5.2</v>
       </c>
       <c r="Q62" s="34"/>
       <c r="R62" s="25"/>
       <c r="S62" s="6"/>
       <c r="AF62" t="s">
-        <v>401</v>
+        <v>399</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" s="50" t="s">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="B63" s="50" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C63" s="50" t="s">
-        <v>71</v>
+        <v>325</v>
       </c>
       <c r="D63" s="50" t="s">
-        <v>72</v>
+        <v>323</v>
       </c>
       <c r="E63" s="50" t="s">
-        <v>73</v>
+        <v>328</v>
       </c>
       <c r="F63" s="50"/>
       <c r="G63" s="50"/>
@@ -5624,163 +5656,147 @@
       <c r="J63" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K63" s="54"/>
+      <c r="K63" s="50" t="s">
+        <v>330</v>
+      </c>
       <c r="L63" s="50" t="s">
-        <v>74</v>
+        <v>324</v>
       </c>
       <c r="M63" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N63" s="52">
-        <v>1.0900000000000001</v>
+        <v>1.53</v>
       </c>
       <c r="O63" s="53">
         <v>2</v>
       </c>
-      <c r="P63" s="29">
+      <c r="P63" s="33">
         <f t="shared" si="0"/>
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="Q63" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R63" s="31" t="s">
-        <v>22</v>
-      </c>
+        <v>3.06</v>
+      </c>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="25"/>
       <c r="S63" s="6"/>
-      <c r="T63">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="AF63" t="s">
+        <v>400</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="50" t="s">
-        <v>75</v>
+        <v>329</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>76</v>
+        <v>405</v>
       </c>
       <c r="C64" s="50" t="s">
-        <v>71</v>
+        <v>325</v>
       </c>
       <c r="D64" s="50" t="s">
-        <v>77</v>
+        <v>406</v>
       </c>
       <c r="E64" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="F64" s="50">
-        <v>4.0000000000000002E-4</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="F64" s="50"/>
       <c r="G64" s="50"/>
       <c r="H64" s="50"/>
       <c r="I64" s="54"/>
       <c r="J64" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="K64" s="54"/>
+        <v>45</v>
+      </c>
+      <c r="K64" s="50" t="s">
+        <v>409</v>
+      </c>
       <c r="L64" s="50" t="s">
-        <v>79</v>
+        <v>408</v>
       </c>
       <c r="M64" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>DigiKey</v>
+        <v>Mouser</v>
       </c>
       <c r="N64" s="52">
-        <v>4.49</v>
+        <v>2.17</v>
       </c>
       <c r="O64" s="53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P64" s="33">
         <f t="shared" si="0"/>
-        <v>8.98</v>
-      </c>
-      <c r="Q64" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R64" s="25" t="s">
-        <v>22</v>
-      </c>
+        <v>2.17</v>
+      </c>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="25"/>
       <c r="S64" s="6"/>
-      <c r="T64">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AF64" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AG64" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="50" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B65" s="50" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C65" s="50" t="s">
         <v>71</v>
       </c>
       <c r="D65" s="50" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E65" s="50" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F65" s="50"/>
       <c r="G65" s="50"/>
       <c r="H65" s="50"/>
       <c r="I65" s="54"/>
       <c r="J65" s="54" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K65" s="54"/>
       <c r="L65" s="50" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="M65" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>Mouser</v>
+        <v>DigiKey</v>
       </c>
       <c r="N65" s="52">
-        <v>2.81</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="O65" s="53">
-        <v>4</v>
-      </c>
-      <c r="P65" s="29">
+        <v>2</v>
+      </c>
+      <c r="P65" s="33">
         <f t="shared" si="0"/>
-        <v>11.24</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="Q65" s="30" t="s">
         <v>21</v>
       </c>
       <c r="R65" s="31" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="S65" s="6"/>
       <c r="T65">
         <f t="shared" si="7"/>
-        <v>11.24</v>
+        <v>0</v>
       </c>
       <c r="U65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="50" t="s">
         <v>75</v>
       </c>
@@ -5791,135 +5807,161 @@
         <v>71</v>
       </c>
       <c r="D66" s="50" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="E66" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="F66" s="50"/>
+        <v>78</v>
+      </c>
+      <c r="F66" s="50">
+        <v>4.0000000000000002E-4</v>
+      </c>
       <c r="G66" s="50"/>
       <c r="H66" s="50"/>
       <c r="I66" s="54"/>
       <c r="J66" s="54" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="K66" s="54"/>
       <c r="L66" s="50" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="M66" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>3D-Jake</v>
+        <v>DigiKey</v>
       </c>
       <c r="N66" s="52">
-        <v>5.99</v>
+        <v>4.49</v>
       </c>
       <c r="O66" s="53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P66" s="33">
-        <f>N66*O66</f>
-        <v>23.96</v>
+        <f t="shared" si="0"/>
+        <v>8.98</v>
       </c>
       <c r="Q66" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="R66" s="25"/>
+        <v>21</v>
+      </c>
+      <c r="R66" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="S66" s="6"/>
+      <c r="T66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="U66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF66" t="s">
+        <v>401</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="50" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B67" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C67" s="54" t="s">
+      <c r="C67" s="50" t="s">
         <v>71</v>
       </c>
       <c r="D67" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="E67" s="50"/>
+        <v>81</v>
+      </c>
+      <c r="E67" s="50" t="s">
+        <v>82</v>
+      </c>
       <c r="F67" s="50"/>
       <c r="G67" s="50"/>
       <c r="H67" s="50"/>
       <c r="I67" s="54"/>
       <c r="J67" s="54" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="K67" s="54"/>
       <c r="L67" s="50" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="M67" s="50" t="str">
-        <f t="shared" ref="M67:M77" si="8">HYPERLINK(L67,J67)</f>
-        <v>3D-Jake</v>
+        <f t="shared" si="1"/>
+        <v>Mouser</v>
       </c>
       <c r="N67" s="52">
-        <v>2.99</v>
+        <v>2.81</v>
       </c>
       <c r="O67" s="53">
         <v>4</v>
       </c>
-      <c r="P67" s="29">
-        <f>N67*O67</f>
-        <v>11.96</v>
-      </c>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="31"/>
+      <c r="P67" s="33">
+        <f t="shared" si="0"/>
+        <v>11.24</v>
+      </c>
+      <c r="Q67" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R67" s="31" t="s">
+        <v>108</v>
+      </c>
       <c r="S67" s="6"/>
+      <c r="T67">
+        <f t="shared" si="7"/>
+        <v>11.24</v>
+      </c>
       <c r="U67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="50" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B68" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="50" t="s">
         <v>71</v>
       </c>
       <c r="D68" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="E68" s="51" t="s">
-        <v>138</v>
+        <v>130</v>
+      </c>
+      <c r="E68" s="50" t="s">
+        <v>131</v>
       </c>
       <c r="F68" s="50"/>
       <c r="G68" s="50"/>
       <c r="H68" s="50"/>
       <c r="I68" s="54"/>
       <c r="J68" s="54" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="K68" s="54"/>
       <c r="L68" s="50" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M68" s="50" t="str">
-        <f>HYPERLINK(L68,J68)</f>
-        <v>DigiKey</v>
+        <f t="shared" si="1"/>
+        <v>3D-Jake</v>
       </c>
       <c r="N68" s="52">
-        <v>0.1</v>
+        <v>5.99</v>
       </c>
       <c r="O68" s="53">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P68" s="33">
         <f>N68*O68</f>
-        <v>1</v>
-      </c>
-      <c r="Q68" s="34"/>
+        <v>23.96</v>
+      </c>
+      <c r="Q68" s="34" t="s">
+        <v>51</v>
+      </c>
       <c r="R68" s="25"/>
       <c r="S68" s="6"/>
       <c r="U68">
@@ -5927,46 +5969,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="50" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="50" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="C69" s="54" t="s">
         <v>71</v>
       </c>
       <c r="D69" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="E69" s="50" t="s">
-        <v>139</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="E69" s="50"/>
       <c r="F69" s="50"/>
       <c r="G69" s="50"/>
       <c r="H69" s="50"/>
       <c r="I69" s="54"/>
       <c r="J69" s="54" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="K69" s="54"/>
       <c r="L69" s="50" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M69" s="50" t="str">
-        <f t="shared" si="8"/>
-        <v>DigiKey</v>
+        <f t="shared" ref="M69:M79" si="8">HYPERLINK(L69,J69)</f>
+        <v>3D-Jake</v>
       </c>
       <c r="N69" s="52">
-        <v>5.54</v>
+        <v>2.99</v>
       </c>
       <c r="O69" s="53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P69" s="29">
         <f>N69*O69</f>
-        <v>5.54</v>
+        <v>11.96</v>
       </c>
       <c r="Q69" s="30"/>
       <c r="R69" s="31"/>
@@ -5976,21 +6016,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="50" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B70" s="50" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="C70" s="54" t="s">
         <v>71</v>
       </c>
       <c r="D70" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="E70" s="50" t="s">
-        <v>234</v>
+        <v>133</v>
+      </c>
+      <c r="E70" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="F70" s="50"/>
       <c r="G70" s="50"/>
@@ -6001,21 +6041,21 @@
       </c>
       <c r="K70" s="54"/>
       <c r="L70" s="50" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="M70" s="50" t="str">
-        <f t="shared" si="8"/>
+        <f>HYPERLINK(L70,J70)</f>
         <v>DigiKey</v>
       </c>
       <c r="N70" s="52">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="O70" s="53">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P70" s="33">
         <f>N70*O70</f>
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="Q70" s="34"/>
       <c r="R70" s="25"/>
@@ -6024,25 +6064,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF70" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="50" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="C71" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="51" t="s">
-        <v>102</v>
+      <c r="D71" s="50" t="s">
+        <v>135</v>
       </c>
       <c r="E71" s="50" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="F71" s="50"/>
       <c r="G71" s="50"/>
@@ -6053,88 +6090,85 @@
       </c>
       <c r="K71" s="54"/>
       <c r="L71" s="50" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="M71" s="50" t="str">
         <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
       <c r="N71" s="52">
-        <v>16.100000000000001</v>
+        <v>5.54</v>
       </c>
       <c r="O71" s="53">
         <v>1</v>
       </c>
       <c r="P71" s="29">
-        <f t="shared" si="0"/>
-        <v>16.100000000000001</v>
-      </c>
-      <c r="Q71" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R71" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="T71">
-        <f>IF(AND(Q71="Nicht Gekauft", R71="Benötigt"), P71, 0)</f>
-        <v>16.100000000000001</v>
-      </c>
+        <f>N71*O71</f>
+        <v>5.54</v>
+      </c>
+      <c r="Q71" s="30"/>
+      <c r="R71" s="31"/>
+      <c r="S71" s="6"/>
       <c r="U71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="50" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="C72" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D72" s="51" t="s">
-        <v>144</v>
+      <c r="D72" s="50" t="s">
+        <v>233</v>
       </c>
       <c r="E72" s="50" t="s">
-        <v>103</v>
+        <v>234</v>
       </c>
       <c r="F72" s="50"/>
       <c r="G72" s="50"/>
       <c r="H72" s="50"/>
       <c r="I72" s="54"/>
       <c r="J72" s="54" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K72" s="54"/>
       <c r="L72" s="50" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="M72" s="50" t="str">
         <f t="shared" si="8"/>
-        <v>Amazon</v>
+        <v>DigiKey</v>
       </c>
       <c r="N72" s="52">
-        <v>6.99</v>
+        <v>0.19</v>
       </c>
       <c r="O72" s="53">
         <v>1</v>
       </c>
       <c r="P72" s="33">
         <f>N72*O72</f>
-        <v>6.99</v>
+        <v>0.19</v>
       </c>
       <c r="Q72" s="34"/>
       <c r="R72" s="25"/>
+      <c r="S72" s="6"/>
       <c r="U72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF72" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B73" s="50" t="s">
         <v>101</v>
@@ -6143,49 +6177,54 @@
         <v>71</v>
       </c>
       <c r="D73" s="51" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="E73" s="50" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="F73" s="50"/>
       <c r="G73" s="50"/>
       <c r="H73" s="50"/>
       <c r="I73" s="54"/>
       <c r="J73" s="54" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="K73" s="54"/>
       <c r="L73" s="50" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="M73" s="50" t="str">
         <f t="shared" si="8"/>
-        <v>RobotShop</v>
+        <v>DigiKey</v>
       </c>
       <c r="N73" s="52">
-        <v>9.33</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="O73" s="53">
         <v>1</v>
       </c>
       <c r="P73" s="29">
-        <f>N73*O73</f>
-        <v>9.33</v>
-      </c>
-      <c r="Q73" s="30"/>
-      <c r="R73" s="31"/>
+        <f t="shared" si="0"/>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="Q73" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R73" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="T73">
+        <f>IF(AND(Q73="Nicht Gekauft", R73="Benötigt"), P73, 0)</f>
+        <v>16.100000000000001</v>
+      </c>
       <c r="U73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF73" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="50" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B74" s="50" t="s">
         <v>101</v>
@@ -6194,35 +6233,35 @@
         <v>71</v>
       </c>
       <c r="D74" s="51" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E74" s="50" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="F74" s="50"/>
       <c r="G74" s="50"/>
       <c r="H74" s="50"/>
       <c r="I74" s="54"/>
       <c r="J74" s="54" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K74" s="54"/>
       <c r="L74" s="50" t="s">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="M74" s="50" t="str">
         <f t="shared" si="8"/>
-        <v>DigiKey</v>
+        <v>Amazon</v>
       </c>
       <c r="N74" s="52">
-        <v>3.39</v>
+        <v>6.99</v>
       </c>
       <c r="O74" s="53">
         <v>1</v>
       </c>
       <c r="P74" s="33">
         <f>N74*O74</f>
-        <v>3.39</v>
+        <v>6.99</v>
       </c>
       <c r="Q74" s="34"/>
       <c r="R74" s="25"/>
@@ -6231,77 +6270,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="50" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="B75" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C75" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D75" s="50" t="s">
-        <v>59</v>
+        <v>101</v>
+      </c>
+      <c r="C75" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="51" t="s">
+        <v>146</v>
       </c>
       <c r="E75" s="50" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="F75" s="50"/>
       <c r="G75" s="50"/>
       <c r="H75" s="50"/>
       <c r="I75" s="54"/>
       <c r="J75" s="54" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="K75" s="54"/>
       <c r="L75" s="50" t="s">
-        <v>258</v>
+        <v>149</v>
       </c>
       <c r="M75" s="50" t="str">
         <f t="shared" si="8"/>
-        <v>Amazon</v>
+        <v>RobotShop</v>
       </c>
       <c r="N75" s="52">
-        <v>16.13</v>
+        <v>9.33</v>
       </c>
       <c r="O75" s="53">
         <v>1</v>
       </c>
       <c r="P75" s="29">
-        <f t="shared" si="0"/>
-        <v>16.13</v>
-      </c>
-      <c r="Q75" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R75" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="T75">
-        <f>IF(AND(Q75="Nicht Gekauft", R75="Benötigt"), P75, 0)</f>
-        <v>16.13</v>
-      </c>
+        <f>N75*O75</f>
+        <v>9.33</v>
+      </c>
+      <c r="Q75" s="30"/>
+      <c r="R75" s="31"/>
       <c r="U75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AF75" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="50" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="B76" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C76" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D76" s="50" t="s">
-        <v>63</v>
+        <v>101</v>
+      </c>
+      <c r="C76" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D76" s="51" t="s">
+        <v>151</v>
       </c>
       <c r="E76" s="50" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="F76" s="50"/>
       <c r="G76" s="50"/>
@@ -6312,86 +6346,86 @@
       </c>
       <c r="K76" s="54"/>
       <c r="L76" s="50" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="M76" s="50" t="str">
         <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
       <c r="N76" s="52">
-        <v>2.97</v>
+        <v>3.39</v>
       </c>
       <c r="O76" s="53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P76" s="33">
-        <f t="shared" si="0"/>
-        <v>5.94</v>
-      </c>
-      <c r="Q76" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R76" s="25" t="s">
-        <v>22</v>
-      </c>
+        <f>N76*O76</f>
+        <v>3.39</v>
+      </c>
+      <c r="Q76" s="34"/>
+      <c r="R76" s="25"/>
       <c r="U76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="50" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B77" s="50" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C77" s="50" t="s">
         <v>56</v>
       </c>
       <c r="D77" s="50" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E77" s="50" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F77" s="50"/>
       <c r="G77" s="50"/>
       <c r="H77" s="50"/>
       <c r="I77" s="54"/>
       <c r="J77" s="54" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K77" s="54"/>
       <c r="L77" s="50" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M77" s="50" t="str">
         <f t="shared" si="8"/>
-        <v>DigiKey</v>
+        <v>Amazon</v>
       </c>
       <c r="N77" s="52">
-        <v>5.92</v>
+        <v>16.13</v>
       </c>
       <c r="O77" s="53">
         <v>1</v>
       </c>
       <c r="P77" s="29">
         <f t="shared" si="0"/>
-        <v>5.92</v>
+        <v>16.13</v>
       </c>
       <c r="Q77" s="30" t="s">
         <v>21</v>
       </c>
       <c r="R77" s="31" t="s">
-        <v>22</v>
+        <v>108</v>
+      </c>
+      <c r="T77">
+        <f>IF(AND(Q77="Nicht Gekauft", R77="Benötigt"), P77, 0)</f>
+        <v>16.13</v>
       </c>
       <c r="U77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="50" t="s">
         <v>61</v>
       </c>
@@ -6402,7 +6436,7 @@
         <v>56</v>
       </c>
       <c r="D78" s="50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E78" s="50" t="s">
         <v>64</v>
@@ -6416,302 +6450,440 @@
       </c>
       <c r="K78" s="54"/>
       <c r="L78" s="50" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M78" s="50" t="str">
-        <f>HYPERLINK(L78,J78)</f>
+        <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
       <c r="N78" s="52">
-        <v>2.64</v>
+        <v>2.97</v>
       </c>
       <c r="O78" s="53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P78" s="33">
         <f t="shared" si="0"/>
-        <v>2.64</v>
+        <v>5.94</v>
       </c>
       <c r="Q78" s="34" t="s">
         <v>21</v>
       </c>
       <c r="R78" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="T78">
-        <f>IF(AND(Q78="Nicht Gekauft", R78="Benötigt"), P78, 0)</f>
-        <v>0</v>
       </c>
       <c r="U78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="16"/>
-      <c r="Q79" s="17"/>
-    </row>
-    <row r="80" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P80" s="49"/>
-    </row>
-    <row r="81" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F81" s="5" t="s">
+    <row r="79" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="K79" s="54"/>
+      <c r="L79" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="M79" s="50" t="str">
+        <f t="shared" si="8"/>
+        <v>DigiKey</v>
+      </c>
+      <c r="N79" s="52">
+        <v>5.92</v>
+      </c>
+      <c r="O79" s="53">
+        <v>1</v>
+      </c>
+      <c r="P79" s="29">
+        <f t="shared" si="0"/>
+        <v>5.92</v>
+      </c>
+      <c r="Q79" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R79" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E80" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="K80" s="54"/>
+      <c r="L80" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="M80" s="50" t="str">
+        <f>HYPERLINK(L80,J80)</f>
+        <v>DigiKey</v>
+      </c>
+      <c r="N80" s="52">
+        <v>2.64</v>
+      </c>
+      <c r="O80" s="53">
+        <v>1</v>
+      </c>
+      <c r="P80" s="33">
+        <f t="shared" si="0"/>
+        <v>2.64</v>
+      </c>
+      <c r="Q80" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R80" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="T80">
+        <f>IF(AND(Q80="Nicht Gekauft", R80="Benötigt"), P80, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="16"/>
+      <c r="Q81" s="17"/>
+    </row>
+    <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P82" s="49"/>
+    </row>
+    <row r="83" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G83" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="82" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F82" s="43" t="s">
+    <row r="84" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F84" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="G82" s="43" t="s">
+      <c r="G84" s="43" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="83" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F83" s="44">
-        <f>SUMPRODUCT(F2:F78, O2:O78, U2:U78)</f>
-        <v>6.7679999999999989</v>
-      </c>
-      <c r="G83" s="44" t="e" cm="1">
-        <f t="array" ref="G83">SUMPRODUCT((G2:G78=12)*(F2:F78)*(O2:O78)*(U2:U78))</f>
+    <row r="85" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F85" s="44">
+        <f>SUMPRODUCT(F2:F80, O2:O80, U2:U80)</f>
+        <v>4.7199999999999989</v>
+      </c>
+      <c r="G85" s="44" t="e" cm="1">
+        <f t="array" ref="G85">SUMPRODUCT((G2:G80=12)*(F2:F80)*(O2:O80)*(U2:U80))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H83" s="3"/>
-    </row>
-    <row r="84" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H84" s="3"/>
-    </row>
-    <row r="85" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G85" s="43" t="s">
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G87" s="43" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="86" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G86" s="44" t="e" cm="1">
-        <f t="array" ref="G86">SUMPRODUCT((G2:G78=5)*(F2:F78)*(O2:O78)*(U2:U78))</f>
+    <row r="88" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G88" s="44" t="e" cm="1">
+        <f t="array" ref="G88">SUMPRODUCT((G2:G80=5)*(F2:F80)*(O2:O80)*(U2:U80))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H86" s="3"/>
-    </row>
-    <row r="87" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H87" s="3"/>
-    </row>
-    <row r="88" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F88" s="5" t="s">
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F90" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G90" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="H88" s="3"/>
-    </row>
-    <row r="89" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F89" s="38" t="s">
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F91" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="G89" s="38" t="s">
+      <c r="G91" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F90" s="39">
-        <f>F83*$F$93</f>
-        <v>10.151999999999997</v>
-      </c>
-      <c r="G90" s="39" t="e">
-        <f>G83*$F$93</f>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F92" s="39">
+        <f>F85*$F$95</f>
+        <v>7.0799999999999983</v>
+      </c>
+      <c r="G92" s="39" t="e">
+        <f>G85*$F$95</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H90" s="3"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-    </row>
-    <row r="91" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H91" s="3"/>
-    </row>
-    <row r="92" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F92" s="41" t="s">
+      <c r="H92" s="3"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+    </row>
+    <row r="93" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F94" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="G92" s="38" t="s">
+      <c r="G94" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="H92" s="3"/>
-    </row>
-    <row r="93" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F93" s="42">
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="42">
         <v>1.5</v>
       </c>
-      <c r="G93" s="39" t="e">
-        <f>G86*$F$93</f>
+      <c r="G95" s="39" t="e">
+        <f>G88*$F$95</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H93" s="3"/>
-    </row>
-    <row r="94" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H94" s="3"/>
-      <c r="I94" s="3" t="s">
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H96" s="3"/>
+      <c r="I96" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F95" s="5" t="s">
+    <row r="97" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F97" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="G97" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="96" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F96" s="47">
-        <f>SUM(F2:F78)</f>
+    <row r="98" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F98" s="47">
+        <f>SUM(F2:F80)</f>
         <v>4.622399999999999</v>
       </c>
-      <c r="G96" s="46" t="s">
+      <c r="G98" s="46" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="97" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G97" s="48">
+    <row r="99" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G99" s="48">
         <v>3.04</v>
-      </c>
-    </row>
-    <row r="98" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F98" s="40"/>
-      <c r="G98" s="40"/>
-    </row>
-    <row r="99" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F99" s="40"/>
-      <c r="G99" s="45" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="100" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F100" s="40"/>
-      <c r="G100" s="47">
+      <c r="G100" s="40"/>
+    </row>
+    <row r="101" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F101" s="40"/>
+      <c r="G101" s="45" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="102" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F102" s="40"/>
+      <c r="G102" s="47">
         <v>2.548</v>
-      </c>
-    </row>
-    <row r="102" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F102" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="103" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F103" t="s">
-        <v>285</v>
-      </c>
-      <c r="G103">
-        <v>8</v>
       </c>
     </row>
     <row r="104" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
-        <v>286</v>
-      </c>
-      <c r="G104">
-        <v>5</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F105" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G105">
-        <v>0.05</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>286</v>
+      </c>
+      <c r="G106">
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F107" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="108" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F108" t="s">
-        <v>288</v>
-      </c>
-      <c r="G108" t="e">
-        <f>G103-G90</f>
-        <v>#VALUE!</v>
+        <v>287</v>
+      </c>
+      <c r="G107">
+        <v>0.05</v>
       </c>
     </row>
     <row r="109" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F109" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="110" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>288</v>
+      </c>
+      <c r="G110" t="e">
+        <f>G105-G92</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="111" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F111" t="s">
         <v>289</v>
       </c>
-      <c r="G109" t="e">
-        <f>G104+G105-G93</f>
+      <c r="G111" t="e">
+        <f>G106+G107-G95</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="112" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F112" t="s">
+    <row r="114" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
         <v>329</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R78" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
+  <autoFilter ref="A1:R80" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
     <filterColumn colId="0">
       <filters blank="1">
-        <filter val="ACC1"/>
-        <filter val="ACC2"/>
         <filter val="ACC3"/>
-        <filter val="ACC4"/>
-        <filter val="BF1"/>
-        <filter val="BF2"/>
-        <filter val="BF2.1"/>
-        <filter val="BF3"/>
         <filter val="BF4"/>
         <filter val="BL"/>
-        <filter val="BP1"/>
         <filter val="BP2"/>
-        <filter val="F1"/>
         <filter val="F2"/>
-        <filter val="POW1"/>
         <filter val="POW2"/>
         <filter val="S1"/>
-        <filter val="S2"/>
-        <filter val="SP1"/>
         <filter val="SP2"/>
-        <filter val="SP3"/>
-        <filter val="ST1"/>
-        <filter val="ST2"/>
-        <filter val="ST3"/>
         <filter val="ST4"/>
-        <filter val="SV1"/>
         <filter val="SV2"/>
-        <filter val="TP1"/>
         <filter val="TP2"/>
-        <filter val="TP3"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{36C50999-9392-45D3-927D-2C21A30118D3}" filter="1" showAutoFilter="1" hiddenColumns="1">
+    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
+      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R78" xr:uid="{B4F3BF44-7F35-4143-9930-25E8186FF7E9}">
+      <autoFilter ref="A1:R62" xr:uid="{DACF0EC9-E953-4566-81C6-E0B5C1F29F19}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="POW2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A1:R59" xr:uid="{5A177483-DA3F-4128-A022-84F0543D6468}"/>
+    </customSheetView>
+    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A1:R59" xr:uid="{BF617042-15E5-462F-9740-087C5A669362}"/>
+    </customSheetView>
+    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A1:R60" xr:uid="{BCFD0613-FAA5-4F1E-8905-AC0D6DD8AAFE}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+      <autoFilter ref="A1:R78" xr:uid="{8B2E7D8C-ED53-44A7-AA2B-6543D1A4AD8C}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6729,12 +6901,12 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" filter="1" showAutoFilter="1" hiddenColumns="1">
+    <customSheetView guid="{36C50999-9392-45D3-927D-2C21A30118D3}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
+      <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R78" xr:uid="{FBEFBE2B-D72E-4F13-947F-7414729BFF82}">
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+      <autoFilter ref="A1:R78" xr:uid="{E1F712C2-8EC8-436E-87AE-D6F619D55EE9}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6747,59 +6919,6 @@
             <filter val="SP2"/>
             <filter val="ST4"/>
             <filter val="SV2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R60" xr:uid="{EA93ABE8-2E41-4C2A-8766-8D8CA804B251}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R59" xr:uid="{41BA9B40-8A1F-4113-8953-025FFA734C02}"/>
-    </customSheetView>
-    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-      <autoFilter ref="A1:R59" xr:uid="{D96542F2-6C6A-44BF-82CF-19E96D686E62}"/>
-    </customSheetView>
-    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-      <autoFilter ref="A1:R62" xr:uid="{D5AD703C-60F1-4B87-AFA2-FE08B386F63B}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
-            <filter val="POW2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
             <filter val="TP2"/>
           </filters>
         </filterColumn>
@@ -6825,7 +6944,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q35 Q39:Q84 Q86:Q1048576">
+  <conditionalFormatting sqref="Q1:Q35 Q39:Q86 Q88:Q1048576">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Nicht Gekauft"</formula>
     </cfRule>
@@ -6841,7 +6960,7 @@
       <formula>"Gekauft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R35 R39:R79">
+  <conditionalFormatting sqref="R2:R35 R39:R81">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Nicht benötigt"</formula>
     </cfRule>
@@ -6849,43 +6968,43 @@
       <formula>"Benötigt"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R39:R79 R2:R35" xr:uid="{DF639F38-DCBF-4FB0-9016-BE70B5447265}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R39:R81 R2:R35" xr:uid="{DF639F38-DCBF-4FB0-9016-BE70B5447265}">
       <formula1>"Benötigt,Nicht benötigt"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q39:Q79 Q2:Q35" xr:uid="{BB82D80E-695D-4A38-A148-48463DFE8321}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q39:Q81 Q2:Q35" xr:uid="{BB82D80E-695D-4A38-A148-48463DFE8321}">
       <formula1>"Gekauft,Nicht Gekauft"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId7" xr:uid="{134576B2-6870-47F8-80B5-95CA9B97F9E2}"/>
     <hyperlink ref="L58" r:id="rId8" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
-    <hyperlink ref="L59" r:id="rId9" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
-    <hyperlink ref="L60" r:id="rId10" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
+    <hyperlink ref="L60" r:id="rId9" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
+    <hyperlink ref="L61" r:id="rId10" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
     <hyperlink ref="L39" r:id="rId11" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
-    <hyperlink ref="L76" r:id="rId12" xr:uid="{9A0B0992-EB9B-485C-8743-AB5373B961C2}"/>
-    <hyperlink ref="L78" r:id="rId13" xr:uid="{B67FB571-1B87-4184-A2B3-AF411BD87D35}"/>
-    <hyperlink ref="L64" r:id="rId14" xr:uid="{57963C92-CE56-4D91-B1F1-7FA05F5BC3A8}"/>
-    <hyperlink ref="L63" r:id="rId15" xr:uid="{9D795571-0999-43FF-9A1F-496FF99C86C0}"/>
-    <hyperlink ref="L65" r:id="rId16" xr:uid="{8465788D-FDE3-460C-960F-435D2FB5F396}"/>
+    <hyperlink ref="L78" r:id="rId12" xr:uid="{9A0B0992-EB9B-485C-8743-AB5373B961C2}"/>
+    <hyperlink ref="L80" r:id="rId13" xr:uid="{B67FB571-1B87-4184-A2B3-AF411BD87D35}"/>
+    <hyperlink ref="L66" r:id="rId14" xr:uid="{57963C92-CE56-4D91-B1F1-7FA05F5BC3A8}"/>
+    <hyperlink ref="L65" r:id="rId15" xr:uid="{9D795571-0999-43FF-9A1F-496FF99C86C0}"/>
+    <hyperlink ref="L67" r:id="rId16" xr:uid="{8465788D-FDE3-460C-960F-435D2FB5F396}"/>
     <hyperlink ref="L10" r:id="rId17" xr:uid="{A9D6150D-3C06-4D81-AD60-047F4F409296}"/>
     <hyperlink ref="L11" r:id="rId18" xr:uid="{411A7094-1AC1-4084-ABE4-5C0060EC1A2D}"/>
     <hyperlink ref="L12" r:id="rId19" xr:uid="{3DDB6C5A-7DB3-4C65-B604-D02293535F49}"/>
     <hyperlink ref="L7" r:id="rId20" xr:uid="{56E44BCE-942A-4E32-8574-907151789664}"/>
-    <hyperlink ref="L71" r:id="rId21" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
+    <hyperlink ref="L73" r:id="rId21" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
     <hyperlink ref="L3" r:id="rId22" xr:uid="{C49F6822-A4DD-42C2-B3BF-0381D137937C}"/>
     <hyperlink ref="L5" r:id="rId23" xr:uid="{BF0FEABB-4850-4BC5-A11D-D889C6B926FD}"/>
     <hyperlink ref="L8" r:id="rId24" xr:uid="{21389653-C0FE-46E1-B136-04B9A0DE28C5}"/>
-    <hyperlink ref="L66" r:id="rId25" xr:uid="{1242A3DC-9FDC-4C47-9270-1B4A92E75E73}"/>
+    <hyperlink ref="L68" r:id="rId25" xr:uid="{1242A3DC-9FDC-4C47-9270-1B4A92E75E73}"/>
     <hyperlink ref="L36" r:id="rId26" xr:uid="{3ED73B15-E49B-4E21-BF8D-06828BFBADB2}"/>
     <hyperlink ref="L9" r:id="rId27" xr:uid="{E62708AD-A075-4D9D-9BC8-2CBD617B66EE}"/>
     <hyperlink ref="L37" r:id="rId28" xr:uid="{488C7B18-56E0-4061-83E3-FAA678922DF9}"/>
     <hyperlink ref="L43" r:id="rId29" xr:uid="{02A8F53B-7033-433E-97B4-37D43B10ABDE}"/>
-    <hyperlink ref="K61" r:id="rId30" display="https://www.samtec.com/products/hle-107-02-l-dv" xr:uid="{AF2D4394-67CE-4447-B187-DA356AB0AFD4}"/>
-    <hyperlink ref="L61" r:id="rId31" xr:uid="{3CAA47B9-FD6F-4B23-A59B-6E4BF51797D7}"/>
+    <hyperlink ref="K62" r:id="rId30" display="https://www.samtec.com/products/hle-107-02-l-dv" xr:uid="{AF2D4394-67CE-4447-B187-DA356AB0AFD4}"/>
+    <hyperlink ref="L62" r:id="rId31" xr:uid="{3CAA47B9-FD6F-4B23-A59B-6E4BF51797D7}"/>
     <hyperlink ref="L21" r:id="rId32" xr:uid="{8FDFC79B-94E5-4C68-84E1-D5C8679D313C}"/>
     <hyperlink ref="L22" r:id="rId33" xr:uid="{3CB626FF-165C-4A7E-A7FE-D41E681D5EC5}"/>
-    <hyperlink ref="L68" r:id="rId34" xr:uid="{B06D0A87-6477-4382-AFA7-5ACA40E62DA0}"/>
+    <hyperlink ref="L70" r:id="rId34" xr:uid="{B06D0A87-6477-4382-AFA7-5ACA40E62DA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>

--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3044CC-9660-4855-9570-7ABB49C6B4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5811135A-3269-4B3C-B483-6AC84850DAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,12 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Anforderungen_Auswahl" guid="{36C50999-9392-45D3-927D-2C21A30118D3}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan_V5" guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
     <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_V5" guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
-    <customWorkbookView name="Anforderungen_Auswahl" guid="{36C50999-9392-45D3-927D-2C21A30118D3}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2325,7 +2325,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF85" sqref="AF85"/>
+      <selection pane="bottomLeft" activeCell="AH43" sqref="AH43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6825,65 +6825,12 @@
     </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
+    <customSheetView guid="{36C50999-9392-45D3-927D-2C21A30118D3}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
+      <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R62" xr:uid="{DACF0EC9-E953-4566-81C6-E0B5C1F29F19}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
-            <filter val="POW2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R59" xr:uid="{5A177483-DA3F-4128-A022-84F0543D6468}"/>
-    </customSheetView>
-    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R59" xr:uid="{BF617042-15E5-462F-9740-087C5A669362}"/>
-    </customSheetView>
-    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R60" xr:uid="{BCFD0613-FAA5-4F1E-8905-AC0D6DD8AAFE}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-      <autoFilter ref="A1:R78" xr:uid="{8B2E7D8C-ED53-44A7-AA2B-6543D1A4AD8C}">
+      <autoFilter ref="A1:R78" xr:uid="{866DB171-5A9F-4ABC-8446-481850455A5C}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6901,12 +6848,12 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{36C50999-9392-45D3-927D-2C21A30118D3}" filter="1" showAutoFilter="1" hiddenColumns="1">
+    <customSheetView guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
+      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-      <autoFilter ref="A1:R78" xr:uid="{E1F712C2-8EC8-436E-87AE-D6F619D55EE9}">
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A1:R78" xr:uid="{7A8D1900-6B1E-4078-9115-0559E93B902D}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6919,6 +6866,59 @@
             <filter val="SP2"/>
             <filter val="ST4"/>
             <filter val="SV2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A1:R60" xr:uid="{2D030F04-C276-4F91-9566-E76DABFE6468}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A1:R59" xr:uid="{7B2D1A97-B915-4418-B033-120F76639409}"/>
+    </customSheetView>
+    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+      <autoFilter ref="A1:R59" xr:uid="{51D0E344-FCAE-4B47-904C-BD512212525A}"/>
+    </customSheetView>
+    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+      <autoFilter ref="A1:R62" xr:uid="{D833ADFC-7378-4355-86DE-7EAF4004F659}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="POW2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
             <filter val="TP2"/>
           </filters>
         </filterColumn>

--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5811135A-3269-4B3C-B483-6AC84850DAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0E3445-F13B-4E39-93AE-E0B67D3C8BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2ndMainBoard" sheetId="5" r:id="rId1"/>
@@ -2325,7 +2325,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH43" sqref="AH43"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2344,17 +2344,18 @@
     <col min="12" max="12" width="12.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" style="4" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="5" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
     <col min="17" max="17" width="23.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="24.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" customWidth="1"/>
     <col min="20" max="20" width="14.42578125" hidden="1" customWidth="1"/>
-    <col min="21" max="23" width="17" hidden="1" customWidth="1"/>
-    <col min="24" max="25" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="27" max="29" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="17" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="17" customWidth="1"/>
+    <col min="24" max="25" width="9.140625" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" customWidth="1"/>
+    <col min="27" max="29" width="9.140625" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2674,7 +2675,7 @@
       <c r="Y5" s="62"/>
       <c r="Z5" s="12">
         <f>SUBTOTAL(9,P1:P80)</f>
-        <v>252.74999999999997</v>
+        <v>262.67999999999995</v>
       </c>
       <c r="AF5" t="s">
         <v>364</v>
@@ -4997,7 +4998,7 @@
       <c r="Q50" s="34"/>
       <c r="R50" s="25"/>
     </row>
-    <row r="51" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" s="50" t="s">
         <v>276</v>
       </c>
@@ -5045,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="50" t="s">
         <v>276</v>
       </c>
@@ -6815,6 +6816,7 @@
         <filter val="BL"/>
         <filter val="BP2"/>
         <filter val="F2"/>
+        <filter val="POW1"/>
         <filter val="POW2"/>
         <filter val="S1"/>
         <filter val="SP2"/>
@@ -6830,7 +6832,7 @@
       <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R78" xr:uid="{866DB171-5A9F-4ABC-8446-481850455A5C}">
+      <autoFilter ref="A1:R78" xr:uid="{0FDDA5BD-E889-4482-8303-2644EE3A63B3}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6853,7 +6855,7 @@
       <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R78" xr:uid="{7A8D1900-6B1E-4078-9115-0559E93B902D}">
+      <autoFilter ref="A1:R78" xr:uid="{7477A24A-9A92-4B9E-920B-4B3A2FBC589F}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6876,7 +6878,7 @@
       <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R60" xr:uid="{2D030F04-C276-4F91-9566-E76DABFE6468}">
+      <autoFilter ref="A1:R60" xr:uid="{C8209875-D1EF-4CE1-A145-69DB7949B778}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6895,21 +6897,21 @@
       <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R59" xr:uid="{7B2D1A97-B915-4418-B033-120F76639409}"/>
+      <autoFilter ref="A1:R59" xr:uid="{C093EBB5-CB3A-493E-A2F2-809E4BF94865}"/>
     </customSheetView>
     <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-      <autoFilter ref="A1:R59" xr:uid="{51D0E344-FCAE-4B47-904C-BD512212525A}"/>
+      <autoFilter ref="A1:R59" xr:uid="{4EA4EDE7-A15E-449C-ABB9-9CF20D2D808C}"/>
     </customSheetView>
     <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-      <autoFilter ref="A1:R62" xr:uid="{D833ADFC-7378-4355-86DE-7EAF4004F659}">
+      <autoFilter ref="A1:R62" xr:uid="{44F3EF3D-DCCE-4B20-B4AF-FF23C63314B4}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6968,7 +6970,7 @@
       <formula>"Benötigt"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R39:R81 R2:R35" xr:uid="{DF639F38-DCBF-4FB0-9016-BE70B5447265}">
       <formula1>"Benötigt,Nicht benötigt"</formula1>
     </dataValidation>

--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -8,35 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0E3445-F13B-4E39-93AE-E0B67D3C8BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4D067D-2172-4C2B-9579-0A19EC96E31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2ndMainBoard" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
     <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$I:$I,'2ndMainBoard'!$M:$M,'2ndMainBoard'!$P:$R,'2ndMainBoard'!$T:$AD</definedName>
-    <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$80</definedName>
+    <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
     <definedName name="Z_36C50999_9392_45D3_927D_2C21A30118D3_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$L,'2ndMainBoard'!$O:$AD</definedName>
-    <definedName name="Z_36C50999_9392_45D3_927D_2C21A30118D3_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$80</definedName>
+    <definedName name="Z_36C50999_9392_45D3_927D_2C21A30118D3_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
+    <definedName name="Z_4ADDCB5A_9875_4DD2_8A02_FCBFEAA50499_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$V</definedName>
+    <definedName name="Z_4ADDCB5A_9875_4DD2_8A02_FCBFEAA50499_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
     <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$H:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$U</definedName>
-    <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$80</definedName>
+    <definedName name="Z_86D49B71_F0A7_4EDF_9F83_437E8F1DE26F_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
     <definedName name="Z_AD0CFDC5_A886_4774_8323_B873BC9D36B7_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$V</definedName>
-    <definedName name="Z_AD0CFDC5_A886_4774_8323_B873BC9D36B7_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$80</definedName>
+    <definedName name="Z_AD0CFDC5_A886_4774_8323_B873BC9D36B7_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
     <definedName name="Z_B27C99E1_F194_4CDD_BEEF_0E7944A43981_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$V</definedName>
-    <definedName name="Z_B27C99E1_F194_4CDD_BEEF_0E7944A43981_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$80</definedName>
-    <definedName name="Z_E3E09E1D_E21B_434F_8777_BA2F5DFE998D_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$80</definedName>
+    <definedName name="Z_B27C99E1_F194_4CDD_BEEF_0E7944A43981_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
+    <definedName name="Z_E3E09E1D_E21B_434F_8777_BA2F5DFE998D_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Schaltplan_V6" guid="{4ADDCB5A-9875-4DD2-8A02-FCBFEAA50499}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan_V5" guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
     <customWorkbookView name="Anforderungen_Auswahl" guid="{36C50999-9392-45D3-927D-2C21A30118D3}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_V5" guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_Strombudget_V3" guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Default_V2" guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan_V4" guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -80,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="411">
   <si>
     <t>Alternative</t>
   </si>
@@ -250,45 +253,6 @@
     <t>0.1uF, 0.22uF, 4.7uf</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>DI2</t>
-  </si>
-  <si>
-    <t>SMD to DIP Adapter SET</t>
-  </si>
-  <si>
-    <t>SOP8/10/14/16/20/24/28; SOT23/89/223</t>
-  </si>
-  <si>
-    <t>Testboard set von amazon</t>
-  </si>
-  <si>
-    <t>DI3</t>
-  </si>
-  <si>
-    <t>SMD to DIP One Piece</t>
-  </si>
-  <si>
-    <t>SOP10</t>
-  </si>
-  <si>
-    <t>Einzel-Anschaffung Testboard</t>
-  </si>
-  <si>
-    <t>https://www.digikey.at/en/products/detail/LCQT-MSOP10/A881AR-ND/4754589?curr=eur&amp;utm_campaign=buynow&amp;utm_medium=aggregator&amp;utm_source=octopart</t>
-  </si>
-  <si>
-    <t>SOP20</t>
-  </si>
-  <si>
-    <t>SOT23</t>
-  </si>
-  <si>
-    <t>https://www.digikey.at/en/products/detail/LCQT-SOT23-6/A879AR-ND/4754587?curr=eur&amp;utm_campaign=buynow&amp;utm_medium=aggregator&amp;utm_source=octopart</t>
-  </si>
-  <si>
     <t>TP3</t>
   </si>
   <si>
@@ -853,12 +817,6 @@
     <t>https://amzn.eu/d/9fCRYtQ</t>
   </si>
   <si>
-    <t>https://www.digikey.at/en/products/detail/aries-electronics/LCQT-TSSOP20/4754596?s=N4IgTCBcDaIDIGECKAVAtCgypg8gBTAAYQBdAXyA</t>
-  </si>
-  <si>
-    <t>https://amzn.eu/d/7DwDgyq</t>
-  </si>
-  <si>
     <t>https://a.co/d/iPL1bnw</t>
   </si>
   <si>
@@ -1081,27 +1039,15 @@
     <t>ST1</t>
   </si>
   <si>
-    <t>3x1 Stecker</t>
-  </si>
-  <si>
     <t>03x01, 2.54mm Pitch</t>
   </si>
   <si>
-    <t>3x2 Stecker</t>
-  </si>
-  <si>
     <t>03x02, 2.54mm Pitch</t>
   </si>
   <si>
     <t>ST2</t>
   </si>
   <si>
-    <t>3x2 SMD Stecker</t>
-  </si>
-  <si>
-    <t>2 Pin Bridge</t>
-  </si>
-  <si>
     <t>03x02, 1mm Pitch, SMD</t>
   </si>
   <si>
@@ -1111,18 +1057,12 @@
     <t>03x01, 1mm Pitch, SMD</t>
   </si>
   <si>
-    <t>3x1 Bridge/Stecker</t>
-  </si>
-  <si>
     <t>03x01, 1mm Pitch, Free-Hanging</t>
   </si>
   <si>
     <t>ST3</t>
   </si>
   <si>
-    <t>3x2 Stecker/Pin Header</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -1135,9 +1075,6 @@
     <t>2 Pin Bridge, 1.27mm Pitch</t>
   </si>
   <si>
-    <t>3 Pin Header</t>
-  </si>
-  <si>
     <t>3 Pin Header, 1.27mm Pitch, THT</t>
   </si>
   <si>
@@ -1216,12 +1153,6 @@
     <t>ausserdem sollte es fuer die groesse des leistungskabels geeignet sein</t>
   </si>
   <si>
-    <t>sollte 10A aushalten</t>
-  </si>
-  <si>
-    <t>WELCHES KABEL IST DAS? FUER WAS?</t>
-  </si>
-  <si>
     <t xml:space="preserve">sollte daten uebetragen koennen, nicht zu kompliziert sein. </t>
   </si>
   <si>
@@ -1331,6 +1262,60 @@
   </si>
   <si>
     <t>https://www.digikey.de/en/products/detail/w%C3%BCrth-elektronik/971110154/9488627</t>
+  </si>
+  <si>
+    <t>LK1</t>
+  </si>
+  <si>
+    <t>Lk2</t>
+  </si>
+  <si>
+    <t>16AWG, shielded</t>
+  </si>
+  <si>
+    <t>CF881-15-02</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/en/products/detail/igus/CF881-15-02/21280642</t>
+  </si>
+  <si>
+    <t>sollte 10A aushalten, sollte shielded sein!</t>
+  </si>
+  <si>
+    <t>TP4</t>
+  </si>
+  <si>
+    <t>USB-C Buchse</t>
+  </si>
+  <si>
+    <t>USB4085-GF-A</t>
+  </si>
+  <si>
+    <t>3x1 Stecker (Versorgungsspannung)</t>
+  </si>
+  <si>
+    <t>3x2 Stecker (Auswahl)</t>
+  </si>
+  <si>
+    <t>3x2 SMD Stecker (Microstepping)</t>
+  </si>
+  <si>
+    <t>2 Pin Bridge (Auswahl Microstepping)</t>
+  </si>
+  <si>
+    <t>3x1 Bridge/Stecker (Auswahl)</t>
+  </si>
+  <si>
+    <t>3x2 Stecker/Pin Header (Microstepping)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Pin Header </t>
+  </si>
+  <si>
+    <t>Kabelstecker-Gehäuse f. BL-Touch Switch</t>
+  </si>
+  <si>
+    <t>nur noetig, falls der stecker nicht passt der beim bl-touch ist</t>
   </si>
 </sst>
 </file>
@@ -1786,7 +1771,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1930,6 +1915,10 @@
     <xf numFmtId="165" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -2320,12 +2309,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AK114"/>
+  <dimension ref="A1:AK112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="AE33" sqref="AE33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2335,27 +2324,28 @@
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="35.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="8.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="4" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" style="4" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" customWidth="1"/>
     <col min="15" max="15" width="7.28515625" style="5" customWidth="1"/>
     <col min="16" max="16" width="15.28515625" customWidth="1"/>
     <col min="17" max="17" width="23.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="24.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="14.42578125" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="17" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="17" customWidth="1"/>
-    <col min="24" max="25" width="9.140625" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" customWidth="1"/>
-    <col min="27" max="29" width="9.140625" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="17" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="17" customWidth="1"/>
+    <col min="23" max="23" width="17" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="27" max="29" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2375,10 +2365,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>5</v>
@@ -2390,13 +2380,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="N1" s="24" t="s">
         <v>9</v>
@@ -2417,29 +2407,29 @@
         <v>14</v>
       </c>
       <c r="U1" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="X1" s="57" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="Y1" s="58"/>
       <c r="Z1" s="11">
-        <f>SUMIFS(P10:P80,Q10:Q80, "Nicht Gekauft",R10:R80,"Benötigt")</f>
-        <v>59.019999999999996</v>
+        <f>SUMIFS(P49:P78,Q49:Q78, "Nicht Gekauft",R49:R78,"Benötigt")</f>
+        <v>15.55</v>
       </c>
       <c r="AB1" s="55" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="AC1" s="56"/>
       <c r="AD1" s="10">
-        <f>SUM(P2:P80)</f>
-        <v>457.49000000000007</v>
+        <f>SUM(P2:P78)</f>
+        <v>429.73</v>
       </c>
       <c r="AF1" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="AH1" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -2478,14 +2468,14 @@
         <v>1</v>
       </c>
       <c r="P2" s="29">
-        <f t="shared" ref="P2:P80" si="0">N2*O2</f>
+        <f t="shared" ref="P2:P78" si="0">N2*O2</f>
         <v>9.91</v>
       </c>
       <c r="Q2" s="30" t="s">
         <v>51</v>
       </c>
       <c r="R2" s="31" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="T2">
         <f>IF(AND(Q2="Nicht Gekauft", R2="Benötigt"), P2, 0)</f>
@@ -2496,12 +2486,12 @@
         <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
-        <v>114</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>23</v>
@@ -2531,7 +2521,7 @@
         <v>27</v>
       </c>
       <c r="M3" s="50" t="str">
-        <f t="shared" ref="M3:M68" si="1">HYPERLINK(L3,J3)</f>
+        <f t="shared" ref="M3:M78" si="1">HYPERLINK(L3,J3)</f>
         <v>AZ-Delivery</v>
       </c>
       <c r="N3" s="52">
@@ -2548,19 +2538,19 @@
         <v>21</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U80" si="2">SUBTOTAL(103, G3)</f>
+        <f>SUBTOTAL(103, G3)</f>
         <v>1</v>
       </c>
       <c r="AF3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B4" s="50" t="s">
         <v>23</v>
@@ -2569,10 +2559,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F4" s="50">
         <v>1.2</v>
@@ -2583,11 +2573,11 @@
       <c r="H4" s="50"/>
       <c r="I4" s="54"/>
       <c r="J4" s="54" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="K4" s="54"/>
       <c r="L4" s="50" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="M4" s="50" t="str">
         <f t="shared" si="1"/>
@@ -2606,13 +2596,13 @@
       <c r="Q4" s="30"/>
       <c r="R4" s="31"/>
       <c r="U4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUBTOTAL(103, G4)</f>
+        <v>1</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="5"/>
     </row>
-    <row r="5" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
       <c r="B5" s="50" t="s">
         <v>28</v>
@@ -2659,43 +2649,35 @@
         <v>21</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T5:T15" si="3">IF(AND(Q5="Nicht Gekauft", R5="Benötigt"), P5, 0)</f>
+        <f>IF(AND(Q5="Nicht Gekauft", R5="Benötigt"), P5, 0)</f>
         <v>6.99</v>
       </c>
       <c r="U5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X5" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="12">
-        <f>SUBTOTAL(9,P1:P80)</f>
-        <v>262.67999999999995</v>
+        <f>SUBTOTAL(103, G5)</f>
+        <v>1</v>
       </c>
       <c r="AF5" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>263</v>
+      <c r="A6" s="63" t="s">
+        <v>248</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C6" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="F6" s="50">
         <v>0.5</v>
@@ -2706,11 +2688,11 @@
       <c r="H6" s="50"/>
       <c r="I6" s="54"/>
       <c r="J6" s="54" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="K6" s="54"/>
       <c r="L6" s="50" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="M6" s="50" t="str">
         <f t="shared" si="1"/>
@@ -2731,164 +2713,131 @@
       </c>
       <c r="R6" s="25"/>
       <c r="U6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="37"/>
+        <f>SUBTOTAL(103, G6)</f>
+        <v>1</v>
+      </c>
       <c r="AF6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="50" t="str">
+        <f>HYPERLINK(L7,J7)</f>
+        <v>DigiKey</v>
+      </c>
+      <c r="N7" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="53">
+        <v>10</v>
+      </c>
+      <c r="P7" s="29">
+        <f>N7*O7</f>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="U7">
+        <f>SUBTOTAL(103, G7)</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="50" t="s">
         <v>122</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="50">
-        <f>0.053*O7</f>
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="G7" s="50">
-        <v>5</v>
-      </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="M7" s="50" t="str">
-        <f t="shared" si="1"/>
-        <v>Amazon</v>
-      </c>
-      <c r="N7" s="52">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="O7" s="53">
-        <v>4</v>
-      </c>
-      <c r="P7" s="33">
-        <f t="shared" si="0"/>
-        <v>34.119999999999997</v>
-      </c>
-      <c r="Q7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="3"/>
-        <v>34.119999999999997</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="9">
-        <f>SUBTOTAL(9,T1:T80)</f>
-        <v>10.51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>125</v>
       </c>
       <c r="E8" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="50">
-        <v>0.17</v>
-      </c>
-      <c r="G8" s="50">
-        <v>12</v>
-      </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="54"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="54"/>
+      <c r="K8" s="54" t="s">
+        <v>187</v>
+      </c>
       <c r="L8" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M8" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L8,J8)</f>
         <v>DigiKey</v>
       </c>
       <c r="N8" s="52">
-        <v>6.73</v>
+        <v>5.54</v>
       </c>
       <c r="O8" s="53">
-        <v>4</v>
-      </c>
-      <c r="P8" s="33">
-        <f t="shared" si="0"/>
-        <v>26.92</v>
-      </c>
-      <c r="Q8" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="R8" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="P8" s="29">
+        <v>5.54</v>
+      </c>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
       <c r="U8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>367</v>
+        <f>SUBTOTAL(103, G8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="50">
-        <v>0.35</v>
-      </c>
-      <c r="G9" s="50">
-        <v>5</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="50"/>
       <c r="I9" s="54"/>
       <c r="J9" s="54" t="s">
@@ -2896,387 +2845,349 @@
       </c>
       <c r="K9" s="54"/>
       <c r="L9" s="50" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="M9" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M9:M12" si="2">HYPERLINK(L9,J9)</f>
         <v>DigiKey</v>
       </c>
       <c r="N9" s="52">
-        <v>7.4</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="O9" s="53">
-        <v>4</v>
-      </c>
-      <c r="P9" s="33">
-        <f t="shared" si="0"/>
-        <v>29.6</v>
+        <v>1</v>
+      </c>
+      <c r="P9" s="29">
+        <f>N9*O9</f>
+        <v>16.100000000000001</v>
       </c>
       <c r="Q9" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R9" s="31"/>
+        <v>21</v>
+      </c>
+      <c r="R9" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="T9">
+        <f>IF(AND(Q9="Nicht Gekauft", R9="Benötigt"), P9, 0)</f>
+        <v>16.100000000000001</v>
+      </c>
       <c r="U9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+        <f>SUBTOTAL(103, G9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>131</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
-      <c r="H10" s="50">
-        <v>2.5</v>
-      </c>
+      <c r="H10" s="50"/>
       <c r="I10" s="54"/>
       <c r="J10" s="54" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K10" s="54"/>
       <c r="L10" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="M10" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>Amazon</v>
+      </c>
+      <c r="N10" s="52">
+        <v>6.99</v>
+      </c>
+      <c r="O10" s="53">
+        <v>1</v>
+      </c>
+      <c r="P10" s="33">
+        <f>N10*O10</f>
+        <v>6.99</v>
+      </c>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="25"/>
+      <c r="U10">
+        <f>SUBTOTAL(103, G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="M10" s="50" t="str">
-        <f t="shared" si="1"/>
-        <v>DigiKey</v>
-      </c>
-      <c r="N10" s="52">
-        <v>0.69</v>
-      </c>
-      <c r="O10" s="53">
-        <v>3</v>
-      </c>
-      <c r="P10" s="33">
-        <f t="shared" si="0"/>
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="Q10" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>90</v>
+      <c r="C11" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>133</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
-      <c r="H11" s="50">
-        <v>2.5</v>
-      </c>
+      <c r="H11" s="50"/>
       <c r="I11" s="54"/>
       <c r="J11" s="54" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="K11" s="54"/>
       <c r="L11" s="50" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="M11" s="50" t="str">
-        <f t="shared" si="1"/>
-        <v>DigiKey</v>
+        <f t="shared" si="2"/>
+        <v>RobotShop</v>
       </c>
       <c r="N11" s="52">
-        <v>0.53</v>
+        <v>9.33</v>
       </c>
       <c r="O11" s="53">
-        <v>9</v>
-      </c>
-      <c r="P11" s="33">
-        <f t="shared" si="0"/>
-        <v>4.7700000000000005</v>
-      </c>
-      <c r="Q11" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R11" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="29">
+        <f>N11*O11</f>
+        <v>9.33</v>
+      </c>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="31"/>
+      <c r="U11">
+        <f>SUBTOTAL(103, G11)</f>
         <v>0</v>
       </c>
-      <c r="U11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AF11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
-      <c r="H12" s="50">
-        <v>2.5</v>
-      </c>
+      <c r="H12" s="50"/>
       <c r="I12" s="54"/>
       <c r="J12" s="54" t="s">
         <v>35</v>
       </c>
       <c r="K12" s="54"/>
       <c r="L12" s="50" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="M12" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DigiKey</v>
       </c>
       <c r="N12" s="52">
-        <v>0.69</v>
+        <v>3.39</v>
       </c>
       <c r="O12" s="53">
+        <v>1</v>
+      </c>
+      <c r="P12" s="33">
+        <f>N12*O12</f>
+        <v>3.39</v>
+      </c>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="25"/>
+      <c r="U12">
+        <f>SUBTOTAL(103, G12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="G13" s="50">
         <v>5</v>
       </c>
-      <c r="P12" s="33">
-        <f t="shared" si="0"/>
-        <v>3.4499999999999997</v>
-      </c>
-      <c r="Q12" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50">
-        <v>2</v>
-      </c>
+      <c r="H13" s="50"/>
       <c r="I13" s="54"/>
       <c r="J13" s="54" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K13" s="54"/>
       <c r="L13" s="50" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="M13" s="50" t="str">
-        <f t="shared" si="1"/>
-        <v>Amazon</v>
+        <f>HYPERLINK(L13,J13)</f>
+        <v>DigiKey</v>
       </c>
       <c r="N13" s="52">
-        <v>17.14</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="O13" s="53">
         <v>1</v>
       </c>
-      <c r="P13" s="33">
-        <f t="shared" si="0"/>
-        <v>17.14</v>
-      </c>
-      <c r="Q13" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R13" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="P13" s="29">
+        <f>N13*O13</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="31"/>
       <c r="U13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
-        <v>168</v>
-      </c>
+        <f>SUBTOTAL(103, G13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
       <c r="B14" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>86</v>
+        <v>199</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>44</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50">
-        <v>2.54</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="F14" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="50">
+        <v>5</v>
+      </c>
+      <c r="H14" s="50"/>
       <c r="I14" s="54"/>
       <c r="J14" s="54" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K14" s="54"/>
       <c r="L14" s="50" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="M14" s="50" t="str">
-        <f t="shared" si="1"/>
-        <v>Amazon</v>
+        <f>HYPERLINK(L14,J14)</f>
+        <v>DigiKey</v>
       </c>
       <c r="N14" s="52">
-        <v>8.0500000000000007</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="O14" s="53">
         <v>1</v>
       </c>
       <c r="P14" s="33">
-        <f t="shared" si="0"/>
-        <v>8.0500000000000007</v>
+        <f>N14*O14</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Q14" s="34"/>
       <c r="R14" s="25"/>
       <c r="U14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
-        <v>169</v>
-      </c>
+        <f>SUBTOTAL(103, G14)</f>
+        <v>1</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="50"/>
       <c r="B15" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>31</v>
+        <v>232</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>233</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>97</v>
+        <v>234</v>
       </c>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="50">
-        <v>2.54</v>
-      </c>
+      <c r="H15" s="50"/>
       <c r="I15" s="54"/>
       <c r="J15" s="54" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K15" s="54"/>
       <c r="L15" s="50" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="M15" s="50" t="str">
-        <f t="shared" si="1"/>
-        <v>Amazon</v>
+        <f>HYPERLINK(L15,J15)</f>
+        <v>DigiKey</v>
       </c>
       <c r="N15" s="52">
-        <v>7.55</v>
+        <v>0.41</v>
       </c>
       <c r="O15" s="53">
         <v>1</v>
       </c>
       <c r="P15" s="33">
-        <f t="shared" si="0"/>
-        <v>7.55</v>
-      </c>
-      <c r="Q15" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="S15" s="8"/>
-      <c r="T15">
-        <f t="shared" si="3"/>
-        <v>7.55</v>
-      </c>
+        <f>N15*O15</f>
+        <v>0.41</v>
+      </c>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="25"/>
       <c r="U15">
-        <f t="shared" si="2"/>
+        <f>SUBTOTAL(103, G15)</f>
         <v>0</v>
       </c>
+      <c r="AF15" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
-        <v>170</v>
-      </c>
+      <c r="A16" s="50"/>
       <c r="B16" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>155</v>
+        <v>236</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>238</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
@@ -3287,103 +3198,115 @@
       </c>
       <c r="K16" s="54"/>
       <c r="L16" s="50" t="s">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="M16" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L16,J16)</f>
         <v>DigiKey</v>
       </c>
       <c r="N16" s="52">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="O16" s="53">
         <v>1</v>
       </c>
-      <c r="P16" s="33">
-        <f t="shared" si="0"/>
-        <v>0.22</v>
-      </c>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="8"/>
+      <c r="P16" s="29">
+        <f>N16*O16</f>
+        <v>0.23</v>
+      </c>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="31"/>
       <c r="U16">
-        <f t="shared" si="2"/>
+        <f>SUBTOTAL(103, G16)</f>
         <v>0</v>
       </c>
       <c r="AF16" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="50" t="s">
-        <v>162</v>
-      </c>
       <c r="E17" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
+        <v>115</v>
+      </c>
+      <c r="F17" s="50">
+        <f>0.053*O17</f>
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="G17" s="50">
+        <v>5</v>
+      </c>
       <c r="H17" s="50"/>
       <c r="I17" s="54"/>
       <c r="J17" s="54" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K17" s="54"/>
       <c r="L17" s="50" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="M17" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>DigiKey</v>
+        <v>Amazon</v>
       </c>
       <c r="N17" s="52">
-        <v>0.18</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="O17" s="53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P17" s="33">
         <f t="shared" si="0"/>
-        <v>0.36</v>
-      </c>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="8"/>
+        <v>34.119999999999997</v>
+      </c>
+      <c r="Q17" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="T17">
+        <f>IF(AND(Q17="Nicht Gekauft", R17="Benötigt"), P17, 0)</f>
+        <v>34.119999999999997</v>
+      </c>
       <c r="U17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
-        <v>170</v>
+        <f>SUBTOTAL(103, G17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A18" s="63" t="s">
+        <v>110</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>16</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
+        <v>113</v>
+      </c>
+      <c r="F18" s="50">
+        <v>0.17</v>
+      </c>
+      <c r="G18" s="50">
+        <v>12</v>
+      </c>
       <c r="H18" s="50"/>
       <c r="I18" s="54"/>
       <c r="J18" s="54" t="s">
@@ -3391,622 +3314,683 @@
       </c>
       <c r="K18" s="54"/>
       <c r="L18" s="50" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="M18" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N18" s="52">
-        <v>0.14000000000000001</v>
+        <v>6.73</v>
       </c>
       <c r="O18" s="53">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P18" s="33">
         <f t="shared" si="0"/>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="Q18" s="34"/>
+        <v>26.92</v>
+      </c>
+      <c r="Q18" s="34" t="s">
+        <v>51</v>
+      </c>
       <c r="R18" s="25"/>
-      <c r="S18" s="8"/>
       <c r="U18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUBTOTAL(103, G18)</f>
+        <v>1</v>
       </c>
       <c r="AF18" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
-        <v>332</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" s="63" t="s">
+        <v>110</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>333</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>301</v>
+        <v>85</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>114</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>334</v>
-      </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50">
-        <v>2.54</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F19" s="50">
+        <v>0.35</v>
+      </c>
+      <c r="G19" s="50">
+        <v>5</v>
+      </c>
+      <c r="H19" s="50"/>
       <c r="I19" s="54"/>
       <c r="J19" s="54" t="s">
         <v>35</v>
       </c>
       <c r="K19" s="54"/>
       <c r="L19" s="50" t="s">
-        <v>302</v>
+        <v>111</v>
       </c>
       <c r="M19" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N19" s="52">
-        <v>0.78</v>
+        <v>7.4</v>
       </c>
       <c r="O19" s="53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P19" s="33">
         <f t="shared" si="0"/>
-        <v>0.78</v>
-      </c>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="8"/>
-    </row>
-    <row r="20" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+        <v>29.6</v>
+      </c>
+      <c r="Q19" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R19" s="31"/>
+      <c r="U19">
+        <f>SUBTOTAL(103, G19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>332</v>
+        <v>67</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>335</v>
+        <v>63</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>299</v>
+        <v>68</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>336</v>
+        <v>69</v>
       </c>
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
-      <c r="H20" s="50">
-        <v>2.54</v>
-      </c>
+      <c r="H20" s="50"/>
       <c r="I20" s="54"/>
       <c r="J20" s="54" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K20" s="54"/>
       <c r="L20" s="50" t="s">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="M20" s="50" t="str">
         <f>HYPERLINK(L20,J20)</f>
-        <v>DigiKey</v>
+        <v>Mouser</v>
       </c>
       <c r="N20" s="52">
-        <v>1.73</v>
+        <v>2.81</v>
       </c>
       <c r="O20" s="53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P20" s="33">
-        <f t="shared" si="0"/>
-        <v>1.73</v>
-      </c>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="8"/>
-    </row>
-    <row r="21" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
-        <v>337</v>
+        <f>N20*O20</f>
+        <v>11.24</v>
+      </c>
+      <c r="Q20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="S20" s="6"/>
+      <c r="T20">
+        <f>IF(AND(Q20="Nicht Gekauft", R20="Benötigt"), P20, 0)</f>
+        <v>11.24</v>
+      </c>
+      <c r="U20">
+        <f>SUBTOTAL(103, G20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" s="63" t="s">
+        <v>62</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>338</v>
+        <v>63</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>303</v>
+        <v>117</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>340</v>
+        <v>118</v>
       </c>
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
-      <c r="H21" s="50">
-        <v>1</v>
-      </c>
+      <c r="H21" s="50"/>
       <c r="I21" s="54"/>
       <c r="J21" s="54" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="K21" s="54"/>
       <c r="L21" s="50" t="s">
-        <v>304</v>
+        <v>116</v>
       </c>
       <c r="M21" s="50" t="str">
-        <f t="shared" si="1"/>
-        <v>DigiKey</v>
+        <f>HYPERLINK(L21,J21)</f>
+        <v>3D-Jake</v>
       </c>
       <c r="N21" s="52">
-        <v>1.46</v>
-      </c>
-      <c r="O21" s="53"/>
+        <v>5.99</v>
+      </c>
+      <c r="O21" s="53">
+        <v>4</v>
+      </c>
       <c r="P21" s="33">
-        <f t="shared" si="0"/>
+        <f>N21*O21</f>
+        <v>23.96</v>
+      </c>
+      <c r="Q21" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="R21" s="25"/>
+      <c r="S21" s="6"/>
+      <c r="U21">
+        <f>SUBTOTAL(103, G21)</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="8"/>
-    </row>
-    <row r="22" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
-        <v>337</v>
+      <c r="AF21" t="s">
+        <v>377</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" s="63" t="s">
+        <v>62</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>339</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="50">
-        <v>5013300200</v>
+        <v>218</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>220</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>341</v>
+        <v>221</v>
       </c>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
-      <c r="H22" s="50">
-        <v>1</v>
-      </c>
+      <c r="H22" s="50"/>
       <c r="I22" s="54"/>
       <c r="J22" s="54" t="s">
         <v>35</v>
       </c>
       <c r="K22" s="54"/>
       <c r="L22" s="50" t="s">
-        <v>305</v>
+        <v>219</v>
       </c>
       <c r="M22" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L22,J22)</f>
         <v>DigiKey</v>
       </c>
       <c r="N22" s="52">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="O22" s="53">
         <v>1</v>
       </c>
       <c r="P22" s="33">
-        <f t="shared" si="0"/>
-        <v>0.21</v>
+        <f>N22*O22</f>
+        <v>0.19</v>
       </c>
       <c r="Q22" s="34"/>
       <c r="R22" s="25"/>
-      <c r="S22" s="8"/>
-    </row>
-    <row r="23" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S22" s="6"/>
+      <c r="U22">
+        <f>SUBTOTAL(103, G22)</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>337</v>
+        <v>56</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>333</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="50">
-        <v>665103131822</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>342</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="50"/>
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
-      <c r="H23" s="50">
-        <v>1</v>
-      </c>
+      <c r="H23" s="50"/>
       <c r="I23" s="54"/>
       <c r="J23" s="54" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="K23" s="54"/>
       <c r="L23" s="50" t="s">
-        <v>306</v>
+        <v>127</v>
       </c>
       <c r="M23" s="50" t="str">
-        <f t="shared" si="1"/>
-        <v>DigiKey</v>
+        <f>HYPERLINK(L23,J23)</f>
+        <v>3D-Jake</v>
       </c>
       <c r="N23" s="52">
-        <v>0.75</v>
+        <v>2.99</v>
       </c>
       <c r="O23" s="53">
-        <v>1</v>
-      </c>
-      <c r="P23" s="33">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="8"/>
-    </row>
-    <row r="24" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="P23" s="29">
+        <f>N23*O23</f>
+        <v>11.96</v>
+      </c>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="6"/>
+      <c r="U23">
+        <f>SUBTOTAL(103, G23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>337</v>
+        <v>56</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>343</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="50">
-        <v>665003113322</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>344</v>
+        <v>121</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>125</v>
       </c>
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
-      <c r="H24" s="50">
-        <v>1</v>
-      </c>
+      <c r="H24" s="50"/>
       <c r="I24" s="54"/>
       <c r="J24" s="54" t="s">
         <v>35</v>
       </c>
       <c r="K24" s="54"/>
       <c r="L24" s="50" t="s">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="M24" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L24,J24)</f>
         <v>DigiKey</v>
       </c>
       <c r="N24" s="52">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O24" s="53">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P24" s="33">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f>N24*O24</f>
+        <v>1</v>
       </c>
       <c r="Q24" s="34"/>
       <c r="R24" s="25"/>
-      <c r="S24" s="8"/>
-    </row>
-    <row r="25" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S24" s="6"/>
+      <c r="U24">
+        <f>SUBTOTAL(103, G24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>345</v>
+        <v>56</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>346</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>173</v>
+        <v>124</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>58</v>
       </c>
       <c r="D25" s="50" t="s">
-        <v>310</v>
+        <v>122</v>
       </c>
       <c r="E25" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>347</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="F25" s="50"/>
       <c r="G25" s="50"/>
-      <c r="H25" s="50">
-        <v>1.27</v>
-      </c>
+      <c r="H25" s="50"/>
       <c r="I25" s="54"/>
       <c r="J25" s="54" t="s">
         <v>35</v>
       </c>
       <c r="K25" s="54"/>
       <c r="L25" s="50" t="s">
-        <v>313</v>
+        <v>123</v>
       </c>
       <c r="M25" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L25,J25)</f>
         <v>DigiKey</v>
       </c>
       <c r="N25" s="52">
-        <v>1.24</v>
+        <v>5.54</v>
       </c>
       <c r="O25" s="53">
         <v>1</v>
       </c>
-      <c r="P25" s="33">
-        <f t="shared" si="0"/>
-        <v>1.24</v>
-      </c>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="8"/>
-    </row>
-    <row r="26" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="29">
+        <f>N25*O25</f>
+        <v>5.54</v>
+      </c>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="6"/>
+      <c r="U25">
+        <f>SUBTOTAL(103, G25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>345</v>
+        <v>56</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>339</v>
+        <v>57</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>349</v>
+        <v>58</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>312</v>
+        <v>59</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
-      <c r="H26" s="50">
-        <v>1.27</v>
-      </c>
+      <c r="H26" s="50"/>
       <c r="I26" s="54"/>
       <c r="J26" s="54" t="s">
         <v>35</v>
       </c>
       <c r="K26" s="54"/>
       <c r="L26" s="50" t="s">
-        <v>311</v>
+        <v>61</v>
       </c>
       <c r="M26" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L26,J26)</f>
         <v>DigiKey</v>
       </c>
       <c r="N26" s="52">
-        <v>0.32</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="O26" s="53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P26" s="33">
-        <f t="shared" si="0"/>
-        <v>0.32</v>
-      </c>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="8"/>
-    </row>
-    <row r="27" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+        <f>N26*O26</f>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="Q26" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="S26" s="6"/>
+      <c r="T26">
+        <f>IF(AND(Q26="Nicht Gekauft", R26="Benötigt"), P26, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f>SUBTOTAL(103, G26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>351</v>
+        <v>63</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="D27" s="50" t="s">
-        <v>314</v>
+        <v>64</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>352</v>
-      </c>
-      <c r="F27" s="50"/>
+        <v>65</v>
+      </c>
+      <c r="F27" s="50">
+        <v>4.0000000000000002E-4</v>
+      </c>
       <c r="G27" s="50"/>
-      <c r="H27" s="50">
-        <v>1.27</v>
-      </c>
+      <c r="H27" s="50"/>
       <c r="I27" s="54"/>
       <c r="J27" s="54" t="s">
         <v>35</v>
       </c>
       <c r="K27" s="54"/>
       <c r="L27" s="50" t="s">
-        <v>311</v>
+        <v>66</v>
       </c>
       <c r="M27" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L27,J27)</f>
         <v>DigiKey</v>
       </c>
       <c r="N27" s="52">
-        <v>0.7</v>
+        <v>4.49</v>
       </c>
       <c r="O27" s="53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P27" s="33">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="8"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+        <f>N27*O27</f>
+        <v>8.98</v>
+      </c>
+      <c r="Q27" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="S27" s="6"/>
+      <c r="T27">
+        <f>IF(AND(Q27="Nicht Gekauft", R27="Benötigt"), P27, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f>SUBTOTAL(103, G27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>353</v>
+        <v>261</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>355</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>357</v>
-      </c>
-      <c r="D28" s="50">
-        <v>665002113322</v>
+        <v>224</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>225</v>
       </c>
       <c r="E28" s="50" t="s">
-        <v>354</v>
+        <v>227</v>
       </c>
       <c r="F28" s="50"/>
       <c r="G28" s="50"/>
-      <c r="H28" s="50">
-        <v>1</v>
-      </c>
+      <c r="H28" s="50"/>
       <c r="I28" s="54"/>
       <c r="J28" s="54" t="s">
         <v>35</v>
       </c>
       <c r="K28" s="54"/>
       <c r="L28" s="50" t="s">
-        <v>308</v>
+        <v>226</v>
       </c>
       <c r="M28" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L28,J28)</f>
         <v>DigiKey</v>
       </c>
       <c r="N28" s="52">
-        <v>0.13</v>
+        <v>5.79</v>
       </c>
       <c r="O28" s="53">
         <v>1</v>
       </c>
-      <c r="P28" s="33">
-        <f t="shared" si="0"/>
-        <v>0.13</v>
-      </c>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="8"/>
-      <c r="AF28" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="P28" s="29">
+        <f>N28*O28</f>
+        <v>5.79</v>
+      </c>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="31"/>
+      <c r="U28">
+        <f>SUBTOTAL(103, G28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>353</v>
+        <v>261</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>356</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>357</v>
-      </c>
-      <c r="D29" s="50">
-        <v>665102131822</v>
+        <v>228</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>231</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>358</v>
+        <v>230</v>
       </c>
       <c r="F29" s="50"/>
       <c r="G29" s="50"/>
-      <c r="H29" s="50">
-        <v>1</v>
-      </c>
+      <c r="H29" s="50"/>
       <c r="I29" s="54"/>
       <c r="J29" s="54" t="s">
         <v>35</v>
       </c>
       <c r="K29" s="54"/>
       <c r="L29" s="50" t="s">
-        <v>309</v>
+        <v>229</v>
       </c>
       <c r="M29" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L29,J29)</f>
         <v>DigiKey</v>
       </c>
       <c r="N29" s="52">
-        <v>0.61</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="O29" s="53">
         <v>1</v>
       </c>
       <c r="P29" s="33">
-        <f t="shared" si="0"/>
-        <v>0.61</v>
+        <f>N29*O29</f>
+        <v>4.1399999999999997</v>
       </c>
       <c r="Q29" s="34"/>
       <c r="R29" s="25"/>
-      <c r="S29" s="8"/>
-      <c r="AF29" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
-        <v>179</v>
+      <c r="U29">
+        <f>SUBTOTAL(103, G29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="63" t="s">
+        <v>262</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>331</v>
+        <v>224</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>44</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
+        <v>265</v>
+      </c>
+      <c r="F30" s="50">
+        <v>0.05</v>
+      </c>
+      <c r="G30" s="50">
+        <v>5</v>
+      </c>
       <c r="H30" s="50"/>
       <c r="I30" s="54"/>
       <c r="J30" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K30" s="50" t="s">
-        <v>172</v>
-      </c>
+      <c r="K30" s="54"/>
       <c r="L30" s="50" t="s">
-        <v>171</v>
+        <v>263</v>
       </c>
       <c r="M30" s="50" t="str">
         <f>HYPERLINK(L30,J30)</f>
         <v>DigiKey</v>
       </c>
       <c r="N30" s="52">
-        <v>3.24</v>
+        <v>2.34</v>
       </c>
       <c r="O30" s="53">
         <v>1</v>
       </c>
       <c r="P30" s="33">
-        <f t="shared" si="0"/>
-        <v>3.24</v>
-      </c>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="8"/>
-      <c r="U30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
-        <v>180</v>
+        <f t="shared" ref="P30:P31" si="3">N30*O30</f>
+        <v>2.34</v>
+      </c>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="31"/>
+      <c r="AF30" t="s">
+        <v>366</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>367</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A31" s="63" t="s">
+        <v>262</v>
       </c>
       <c r="B31" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>331</v>
+        <v>228</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>44</v>
       </c>
       <c r="D31" s="50" t="s">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>183</v>
+        <v>268</v>
       </c>
       <c r="F31" s="50"/>
       <c r="G31" s="50"/>
@@ -4017,51 +4001,47 @@
       </c>
       <c r="K31" s="54"/>
       <c r="L31" s="50" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="M31" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L31,J31)</f>
         <v>DigiKey</v>
       </c>
       <c r="N31" s="52">
-        <v>1.7</v>
+        <v>1.17</v>
       </c>
       <c r="O31" s="53">
         <v>1</v>
       </c>
       <c r="P31" s="33">
-        <f t="shared" si="0"/>
-        <v>1.7</v>
-      </c>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="8"/>
-      <c r="U31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>375</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>1.17</v>
+      </c>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="25"/>
       <c r="AF31" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
-        <v>193</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>369</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
       <c r="B32" s="50" t="s">
-        <v>184</v>
+        <v>337</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>331</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>186</v>
+        <v>215</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>300</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>185</v>
+        <v>303</v>
       </c>
       <c r="F32" s="50"/>
       <c r="G32" s="50"/>
@@ -4070,49 +4050,46 @@
       <c r="J32" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K32" s="54" t="s">
-        <v>175</v>
-      </c>
+      <c r="K32" s="54"/>
       <c r="L32" s="50" t="s">
-        <v>174</v>
+        <v>301</v>
       </c>
       <c r="M32" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L32,J32)</f>
         <v>DigiKey</v>
       </c>
       <c r="N32" s="52">
-        <v>0.82</v>
+        <v>1.78</v>
       </c>
       <c r="O32" s="53">
         <v>1</v>
       </c>
-      <c r="P32" s="33">
-        <f t="shared" ref="P32:P34" si="4">N32*O32</f>
-        <v>0.82</v>
-      </c>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="8"/>
-      <c r="U32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
-        <v>194</v>
-      </c>
+      <c r="P32" s="29">
+        <f>N32*O32</f>
+        <v>1.78</v>
+      </c>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="31"/>
+      <c r="AF32" t="s">
+        <v>361</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
       <c r="B33" s="50" t="s">
-        <v>184</v>
+        <v>338</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>331</v>
-      </c>
-      <c r="D33" s="50" t="s">
-        <v>189</v>
+        <v>215</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>302</v>
       </c>
       <c r="E33" s="50" t="s">
-        <v>188</v>
+        <v>304</v>
       </c>
       <c r="F33" s="50"/>
       <c r="G33" s="50"/>
@@ -4123,54 +4100,44 @@
       </c>
       <c r="K33" s="54"/>
       <c r="L33" s="50" t="s">
-        <v>187</v>
+        <v>305</v>
       </c>
       <c r="M33" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L33,J33)</f>
         <v>DigiKey</v>
       </c>
       <c r="N33" s="52">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="O33" s="53">
         <v>1</v>
       </c>
       <c r="P33" s="29">
-        <f t="shared" si="4"/>
-        <v>0.94</v>
+        <f>N33*O33</f>
+        <v>0.95</v>
       </c>
       <c r="Q33" s="30"/>
       <c r="R33" s="31"/>
-      <c r="S33" s="8"/>
-      <c r="U33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>376</v>
-      </c>
       <c r="AF33" t="s">
-        <v>374</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
-        <v>195</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
       <c r="B34" s="50" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>331</v>
+        <v>190</v>
       </c>
       <c r="D34" s="50" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="E34" s="50" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="F34" s="50"/>
       <c r="G34" s="50"/>
@@ -4181,43 +4148,45 @@
       </c>
       <c r="K34" s="54"/>
       <c r="L34" s="50" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="M34" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L34,J34)</f>
         <v>DigiKey</v>
       </c>
       <c r="N34" s="52">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="O34" s="53">
         <v>1</v>
       </c>
       <c r="P34" s="33">
-        <f t="shared" si="4"/>
-        <v>1.33</v>
+        <f>N34*O34</f>
+        <v>1.56</v>
       </c>
       <c r="Q34" s="34"/>
       <c r="R34" s="25"/>
-      <c r="S34" s="8"/>
       <c r="U34">
-        <f t="shared" si="2"/>
+        <f>SUBTOTAL(103, G34)</f>
         <v>0</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50"/>
       <c r="B35" s="50" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>331</v>
+        <v>190</v>
       </c>
       <c r="D35" s="50" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E35" s="50" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F35" s="50"/>
       <c r="G35" s="50"/>
@@ -4228,355 +4197,319 @@
       </c>
       <c r="K35" s="54"/>
       <c r="L35" s="50" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="M35" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L35,J35)</f>
         <v>DigiKey</v>
       </c>
       <c r="N35" s="52">
-        <v>2.04</v>
+        <v>0.47</v>
       </c>
       <c r="O35" s="53">
         <v>1</v>
       </c>
       <c r="P35" s="29">
         <f>N35*O35</f>
-        <v>2.04</v>
+        <v>0.47</v>
       </c>
       <c r="Q35" s="30"/>
       <c r="R35" s="31"/>
       <c r="U35">
-        <f t="shared" si="2"/>
+        <f>SUBTOTAL(103, G35)</f>
         <v>0</v>
       </c>
       <c r="AF35" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A36" s="50"/>
       <c r="B36" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="E36" s="51" t="s">
-        <v>138</v>
+        <v>192</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="50">
+        <v>824521241</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>193</v>
       </c>
       <c r="F36" s="50"/>
       <c r="G36" s="50"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="54"/>
       <c r="J36" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="K36" s="54" t="s">
-        <v>196</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="K36" s="54"/>
       <c r="L36" s="50" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="M36" s="50" t="str">
-        <f t="shared" si="1"/>
-        <v>DigiKey</v>
+        <f>HYPERLINK(L36,J36)</f>
+        <v>Digikey</v>
       </c>
       <c r="N36" s="52">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="O36" s="53">
-        <v>10</v>
-      </c>
-      <c r="P36" s="29">
+        <v>1</v>
+      </c>
+      <c r="P36" s="33">
         <f>N36*O36</f>
-        <v>1</v>
-      </c>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="25"/>
       <c r="U36">
-        <f t="shared" si="2"/>
+        <f>SUBTOTAL(103, G36)</f>
         <v>0</v>
       </c>
-      <c r="AE36" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="37" spans="1:37" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="51" t="s">
-        <v>199</v>
+      <c r="AF36" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A37" s="50" t="s">
+        <v>279</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>84</v>
+        <v>275</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>190</v>
       </c>
       <c r="D37" s="50" t="s">
-        <v>135</v>
+        <v>277</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="F37" s="50"/>
       <c r="G37" s="50"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="54" t="s">
-        <v>200</v>
-      </c>
+      <c r="K37" s="54"/>
       <c r="L37" s="50" t="s">
-        <v>136</v>
+        <v>276</v>
       </c>
       <c r="M37" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L37,J37)</f>
         <v>DigiKey</v>
       </c>
       <c r="N37" s="52">
-        <v>5.54</v>
+        <v>0.3</v>
       </c>
       <c r="O37" s="53">
         <v>1</v>
       </c>
-      <c r="P37" s="29">
-        <v>5.54</v>
-      </c>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="U37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
+      <c r="P37" s="33">
+        <f>N37*O37</f>
+        <v>0.3</v>
+      </c>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="25"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
       <c r="B38" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="C38" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>297</v>
+        <v>216</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>223</v>
       </c>
       <c r="E38" s="50" t="s">
-        <v>298</v>
+        <v>222</v>
       </c>
       <c r="F38" s="50"/>
       <c r="G38" s="50"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="54"/>
       <c r="J38" s="54" t="s">
         <v>35</v>
       </c>
       <c r="K38" s="54"/>
       <c r="L38" s="50" t="s">
-        <v>296</v>
+        <v>217</v>
       </c>
       <c r="M38" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L38,J38)</f>
         <v>DigiKey</v>
       </c>
       <c r="N38" s="52">
-        <v>9.25</v>
+        <v>2.91</v>
       </c>
       <c r="O38" s="53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P38" s="29">
-        <f>N38*O38</f>
-        <v>9.25</v>
-      </c>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
+        <f t="shared" ref="P38:P39" si="4">N38*O38</f>
+        <v>5.82</v>
+      </c>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="31"/>
+      <c r="U38">
+        <f>SUBTOTAL(103, G38)</f>
+        <v>0</v>
+      </c>
       <c r="AF38" t="s">
-        <v>380</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="50"/>
       <c r="B39" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>47</v>
+        <v>204</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>44</v>
       </c>
       <c r="D39" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
+        <v>205</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="F39" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="G39" s="50">
+        <v>5</v>
+      </c>
       <c r="H39" s="50"/>
       <c r="I39" s="54"/>
       <c r="J39" s="54" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K39" s="54"/>
       <c r="L39" s="50" t="s">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c r="M39" s="50" t="str">
-        <f t="shared" si="1"/>
-        <v>Amazon</v>
+        <f>HYPERLINK(L39,J39)</f>
+        <v>DigiKey</v>
       </c>
       <c r="N39" s="52">
-        <v>8.66</v>
+        <v>0.6</v>
       </c>
       <c r="O39" s="53">
         <v>1</v>
       </c>
-      <c r="P39" s="33">
-        <f t="shared" si="0"/>
-        <v>8.66</v>
-      </c>
-      <c r="Q39" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="R39" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="T39">
-        <f>IF(AND(Q39="Nicht Gekauft", R39="Benötigt"), P39, 0)</f>
-        <v>0</v>
-      </c>
+      <c r="P39" s="29">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="31"/>
       <c r="U39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
+        <f>SUBTOTAL(103, G39)</f>
+        <v>1</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>372</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
       <c r="B40" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="50" t="s">
-        <v>47</v>
+        <v>280</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>71</v>
       </c>
       <c r="D40" s="50" t="s">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>53</v>
+        <v>283</v>
       </c>
       <c r="F40" s="50"/>
       <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="50"/>
       <c r="J40" s="54" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K40" s="54"/>
       <c r="L40" s="50" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="M40" s="50" t="str">
-        <f t="shared" si="1"/>
-        <v>Amazon</v>
+        <f>HYPERLINK(L40,J40)</f>
+        <v>DigiKey</v>
       </c>
       <c r="N40" s="52">
-        <v>5.99</v>
+        <v>9.25</v>
       </c>
       <c r="O40" s="53">
         <v>1</v>
       </c>
       <c r="P40" s="29">
-        <f t="shared" si="0"/>
-        <v>5.99</v>
-      </c>
-      <c r="Q40" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R40" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="T40">
-        <f>IF(AND(Q40="Nicht Gekauft", R40="Benötigt"), P40, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
+        <f>N40*O40</f>
+        <v>9.25</v>
+      </c>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="AF40" t="s">
+        <v>356</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
       <c r="B41" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="50" t="s">
-        <v>47</v>
+        <v>400</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>71</v>
       </c>
       <c r="D41" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="50" t="s">
-        <v>55</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="E41" s="50"/>
       <c r="F41" s="50"/>
       <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54" t="s">
-        <v>49</v>
-      </c>
+      <c r="H41" s="54"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="54"/>
       <c r="K41" s="54"/>
-      <c r="L41" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="M41" s="50" t="str">
-        <f t="shared" si="1"/>
-        <v>Amazon</v>
-      </c>
-      <c r="N41" s="52">
-        <v>18.14</v>
-      </c>
-      <c r="O41" s="53">
-        <v>1</v>
-      </c>
-      <c r="P41" s="33">
-        <f t="shared" si="0"/>
-        <v>18.14</v>
-      </c>
-      <c r="Q41" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="R41" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="T41">
-        <f>IF(AND(Q41="Nicht Gekauft", R41="Benötigt"), P41, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
+      <c r="A42" s="50" t="s">
+        <v>166</v>
+      </c>
       <c r="B42" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="C42" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="D42" s="51" t="s">
-        <v>236</v>
+        <v>165</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>164</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="F42" s="50"/>
       <c r="G42" s="50"/>
@@ -4585,47 +4518,49 @@
       <c r="J42" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="54"/>
+      <c r="K42" s="50" t="s">
+        <v>159</v>
+      </c>
       <c r="L42" s="50" t="s">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="M42" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L42,J42)</f>
         <v>DigiKey</v>
       </c>
       <c r="N42" s="52">
-        <v>2.91</v>
+        <v>3.24</v>
       </c>
       <c r="O42" s="53">
-        <v>2</v>
-      </c>
-      <c r="P42" s="29">
-        <f t="shared" ref="P42:P57" si="5">N42*O42</f>
-        <v>5.82</v>
-      </c>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="P42" s="33">
+        <f>N42*O42</f>
+        <v>3.24</v>
+      </c>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="8"/>
       <c r="U42">
-        <f t="shared" si="2"/>
+        <f>SUBTOTAL(103, G42)</f>
         <v>0</v>
       </c>
-      <c r="AF42" t="s">
-        <v>382</v>
-      </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
+      <c r="A43" s="63" t="s">
+        <v>167</v>
+      </c>
       <c r="B43" s="50" t="s">
-        <v>245</v>
-      </c>
-      <c r="C43" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="D43" s="51" t="s">
-        <v>246</v>
+        <v>165</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>168</v>
       </c>
       <c r="E43" s="50" t="s">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="F43" s="50"/>
       <c r="G43" s="50"/>
@@ -4636,45 +4571,51 @@
       </c>
       <c r="K43" s="54"/>
       <c r="L43" s="50" t="s">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="M43" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L43,J43)</f>
         <v>DigiKey</v>
       </c>
       <c r="N43" s="52">
-        <v>0.41</v>
+        <v>1.7</v>
       </c>
       <c r="O43" s="53">
         <v>1</v>
       </c>
       <c r="P43" s="33">
         <f>N43*O43</f>
-        <v>0.41</v>
-      </c>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="25"/>
+        <v>1.7</v>
+      </c>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="8"/>
       <c r="U43">
-        <f t="shared" si="2"/>
+        <f>SUBTOTAL(103, G43)</f>
         <v>0</v>
       </c>
+      <c r="AE43" t="s">
+        <v>353</v>
+      </c>
       <c r="AF43" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="50" t="s">
+        <v>180</v>
+      </c>
       <c r="B44" s="50" t="s">
-        <v>249</v>
+        <v>171</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="D44" s="51" t="s">
-        <v>251</v>
+        <v>316</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>173</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="F44" s="50"/>
       <c r="G44" s="50"/>
@@ -4683,47 +4624,49 @@
       <c r="J44" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K44" s="54"/>
+      <c r="K44" s="54" t="s">
+        <v>162</v>
+      </c>
       <c r="L44" s="50" t="s">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="M44" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L44,J44)</f>
         <v>DigiKey</v>
       </c>
       <c r="N44" s="52">
-        <v>0.23</v>
+        <v>0.82</v>
       </c>
       <c r="O44" s="53">
         <v>1</v>
       </c>
-      <c r="P44" s="29">
-        <f>N44*O44</f>
-        <v>0.23</v>
-      </c>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="31"/>
+      <c r="P44" s="33">
+        <f t="shared" ref="P44:P46" si="5">N44*O44</f>
+        <v>0.82</v>
+      </c>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="8"/>
       <c r="U44">
-        <f t="shared" si="2"/>
+        <f>SUBTOTAL(103, G44)</f>
         <v>0</v>
       </c>
-      <c r="AF44" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
+    </row>
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="63" t="s">
+        <v>181</v>
+      </c>
       <c r="B45" s="50" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
       <c r="C45" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="D45" s="51" t="s">
-        <v>315</v>
+        <v>316</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>176</v>
       </c>
       <c r="E45" s="50" t="s">
-        <v>318</v>
+        <v>175</v>
       </c>
       <c r="F45" s="50"/>
       <c r="G45" s="50"/>
@@ -4734,44 +4677,54 @@
       </c>
       <c r="K45" s="54"/>
       <c r="L45" s="50" t="s">
-        <v>316</v>
+        <v>174</v>
       </c>
       <c r="M45" s="50" t="str">
         <f>HYPERLINK(L45,J45)</f>
         <v>DigiKey</v>
       </c>
       <c r="N45" s="52">
-        <v>1.78</v>
+        <v>0.94</v>
       </c>
       <c r="O45" s="53">
         <v>1</v>
       </c>
       <c r="P45" s="29">
-        <f>N45*O45</f>
-        <v>1.78</v>
+        <f t="shared" si="5"/>
+        <v>0.94</v>
       </c>
       <c r="Q45" s="30"/>
       <c r="R45" s="31"/>
+      <c r="S45" s="8"/>
+      <c r="U45">
+        <f>SUBTOTAL(103, G45)</f>
+        <v>0</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>354</v>
+      </c>
       <c r="AF45" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK45" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
+        <v>352</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="50" t="s">
+        <v>182</v>
+      </c>
       <c r="B46" s="50" t="s">
-        <v>360</v>
+        <v>171</v>
       </c>
       <c r="C46" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="D46" s="51" t="s">
-        <v>317</v>
+        <v>316</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>177</v>
       </c>
       <c r="E46" s="50" t="s">
-        <v>319</v>
+        <v>178</v>
       </c>
       <c r="F46" s="50"/>
       <c r="G46" s="50"/>
@@ -4782,44 +4735,45 @@
       </c>
       <c r="K46" s="54"/>
       <c r="L46" s="50" t="s">
-        <v>320</v>
+        <v>179</v>
       </c>
       <c r="M46" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L46,J46)</f>
         <v>DigiKey</v>
       </c>
       <c r="N46" s="52">
-        <v>0.95</v>
+        <v>1.33</v>
       </c>
       <c r="O46" s="53">
         <v>1</v>
       </c>
-      <c r="P46" s="29">
-        <f>N46*O46</f>
-        <v>0.95</v>
-      </c>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="31"/>
-      <c r="AF46" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK46" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
+      <c r="P46" s="33">
+        <f t="shared" si="5"/>
+        <v>1.33</v>
+      </c>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="8"/>
+      <c r="U46">
+        <f>SUBTOTAL(103, G46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="50" t="s">
+        <v>393</v>
+      </c>
       <c r="B47" s="50" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="C47" s="54" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="D47" s="50" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="E47" s="50" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="F47" s="50"/>
       <c r="G47" s="50"/>
@@ -4830,45 +4784,44 @@
       </c>
       <c r="K47" s="54"/>
       <c r="L47" s="50" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="M47" s="50" t="str">
         <f>HYPERLINK(L47,J47)</f>
         <v>DigiKey</v>
       </c>
       <c r="N47" s="52">
-        <v>1.56</v>
+        <v>2.04</v>
       </c>
       <c r="O47" s="53">
         <v>1</v>
       </c>
-      <c r="P47" s="33">
+      <c r="P47" s="29">
         <f>N47*O47</f>
-        <v>1.56</v>
-      </c>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="25"/>
+        <v>2.04</v>
+      </c>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="31"/>
       <c r="U47">
-        <f t="shared" si="2"/>
+        <f>SUBTOTAL(103, G47)</f>
         <v>0</v>
       </c>
-      <c r="AF47" t="s">
-        <v>387</v>
-      </c>
     </row>
     <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
+      <c r="A48" s="63" t="s">
+        <v>394</v>
+      </c>
       <c r="B48" s="50" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="D48" s="50" t="s">
-        <v>222</v>
+        <v>396</v>
       </c>
       <c r="E48" s="50" t="s">
-        <v>223</v>
+        <v>395</v>
       </c>
       <c r="F48" s="50"/>
       <c r="G48" s="50"/>
@@ -4879,351 +4832,387 @@
       </c>
       <c r="K48" s="54"/>
       <c r="L48" s="50" t="s">
-        <v>221</v>
+        <v>397</v>
       </c>
       <c r="M48" s="50" t="str">
+        <f>HYPERLINK(L48,J48)</f>
+        <v>DigiKey</v>
+      </c>
+      <c r="N48" s="52">
+        <v>2.87</v>
+      </c>
+      <c r="O48" s="53">
+        <v>1</v>
+      </c>
+      <c r="P48" s="29">
+        <f>N48*O48</f>
+        <v>2.87</v>
+      </c>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="31"/>
+      <c r="AF48" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="K49" s="54"/>
+      <c r="L49" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="M49" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
-      <c r="N48" s="52">
-        <v>0.47</v>
-      </c>
-      <c r="O48" s="53">
-        <v>1</v>
-      </c>
-      <c r="P48" s="29">
-        <f t="shared" si="5"/>
-        <v>0.47</v>
-      </c>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="31"/>
-      <c r="U48">
-        <f t="shared" si="2"/>
+      <c r="N49" s="52">
+        <v>0.69</v>
+      </c>
+      <c r="O49" s="53">
+        <v>3</v>
+      </c>
+      <c r="P49" s="33">
+        <f t="shared" si="0"/>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="Q49" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="T49">
+        <f>IF(AND(Q49="Nicht Gekauft", R49="Benötigt"), P49, 0)</f>
         <v>0</v>
       </c>
-      <c r="AF48" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
-      <c r="B49" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="C49" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="D49" s="50">
-        <v>824521241</v>
-      </c>
-      <c r="E49" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="K49" s="54"/>
-      <c r="L49" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="M49" s="50" t="str">
-        <f t="shared" si="1"/>
-        <v>Digikey</v>
-      </c>
-      <c r="N49" s="52">
-        <v>0.3</v>
-      </c>
-      <c r="O49" s="53">
-        <v>1</v>
-      </c>
-      <c r="P49" s="33">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="25"/>
       <c r="U49">
-        <f t="shared" si="2"/>
+        <f>SUBTOTAL(103, G49)</f>
         <v>0</v>
       </c>
-      <c r="AF49" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="50" t="s">
-        <v>294</v>
+        <v>153</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>290</v>
-      </c>
-      <c r="C50" s="54" t="s">
-        <v>203</v>
+        <v>79</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>73</v>
       </c>
       <c r="D50" s="50" t="s">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>293</v>
+        <v>144</v>
       </c>
       <c r="F50" s="50"/>
       <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
+      <c r="H50" s="50">
+        <v>2.5</v>
+      </c>
       <c r="I50" s="54"/>
       <c r="J50" s="54" t="s">
         <v>35</v>
       </c>
       <c r="K50" s="54"/>
       <c r="L50" s="50" t="s">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="M50" s="50" t="str">
-        <f>HYPERLINK(L50,J50)</f>
+        <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N50" s="52">
-        <v>0.3</v>
+        <v>0.53</v>
       </c>
       <c r="O50" s="53">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P50" s="33">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="25"/>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>4.7700000000000005</v>
+      </c>
+      <c r="Q50" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="T50">
+        <f>IF(AND(Q50="Nicht Gekauft", R50="Benötigt"), P50, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <f>SUBTOTAL(103, G50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="50" t="s">
-        <v>276</v>
+        <v>153</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="C51" s="54" t="s">
-        <v>44</v>
+        <v>76</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>73</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="E51" s="50" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="F51" s="50"/>
       <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
+      <c r="H51" s="50">
+        <v>2.5</v>
+      </c>
       <c r="I51" s="54"/>
       <c r="J51" s="54" t="s">
         <v>35</v>
       </c>
       <c r="K51" s="54"/>
       <c r="L51" s="50" t="s">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="M51" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N51" s="52">
-        <v>5.79</v>
+        <v>0.69</v>
       </c>
       <c r="O51" s="53">
-        <v>1</v>
-      </c>
-      <c r="P51" s="29">
-        <f>N51*O51</f>
-        <v>5.79</v>
-      </c>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="31"/>
+        <v>5</v>
+      </c>
+      <c r="P51" s="33">
+        <f t="shared" si="0"/>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="Q51" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R51" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="T51">
+        <f>IF(AND(Q51="Nicht Gekauft", R51="Benötigt"), P51, 0)</f>
+        <v>0</v>
+      </c>
       <c r="U51">
-        <f t="shared" si="2"/>
+        <f>SUBTOTAL(103, G51)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="50" t="s">
-        <v>276</v>
+        <v>154</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="C52" s="54" t="s">
-        <v>44</v>
+        <v>82</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>73</v>
       </c>
       <c r="D52" s="50" t="s">
-        <v>244</v>
+        <v>31</v>
       </c>
       <c r="E52" s="50" t="s">
-        <v>243</v>
+        <v>83</v>
       </c>
       <c r="F52" s="50"/>
       <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
+      <c r="H52" s="50">
+        <v>2</v>
+      </c>
       <c r="I52" s="54"/>
       <c r="J52" s="54" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K52" s="54"/>
       <c r="L52" s="50" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M52" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>DigiKey</v>
+        <v>Amazon</v>
       </c>
       <c r="N52" s="52">
-        <v>4.1399999999999997</v>
+        <v>17.14</v>
       </c>
       <c r="O52" s="53">
         <v>1</v>
       </c>
       <c r="P52" s="33">
-        <f>N52*O52</f>
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="25"/>
+        <f t="shared" si="0"/>
+        <v>17.14</v>
+      </c>
+      <c r="Q52" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="T52">
+        <f>IF(AND(Q52="Nicht Gekauft", R52="Benötigt"), P52, 0)</f>
+        <v>0</v>
+      </c>
       <c r="U52">
-        <f t="shared" si="2"/>
+        <f>SUBTOTAL(103, G52)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="50" t="s">
-        <v>277</v>
+        <v>155</v>
       </c>
       <c r="B53" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="C53" s="54" t="s">
-        <v>44</v>
+        <v>99</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>73</v>
       </c>
       <c r="D53" s="50" t="s">
-        <v>279</v>
+        <v>31</v>
       </c>
       <c r="E53" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="F53" s="50">
-        <v>0.05</v>
-      </c>
-      <c r="G53" s="50">
-        <v>5</v>
-      </c>
-      <c r="H53" s="50"/>
+        <v>100</v>
+      </c>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50">
+        <v>2.54</v>
+      </c>
       <c r="I53" s="54"/>
       <c r="J53" s="54" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K53" s="54"/>
       <c r="L53" s="50" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="M53" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>DigiKey</v>
+        <v>Amazon</v>
       </c>
       <c r="N53" s="52">
-        <v>2.34</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="O53" s="53">
         <v>1</v>
       </c>
       <c r="P53" s="33">
-        <f t="shared" ref="P53:P54" si="6">N53*O53</f>
-        <v>2.34</v>
-      </c>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="31"/>
-      <c r="AF53" t="s">
-        <v>390</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>391</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="25"/>
+      <c r="U53">
+        <f>SUBTOTAL(103, G53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="50" t="s">
-        <v>277</v>
+        <v>156</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="C54" s="54" t="s">
-        <v>44</v>
+        <v>98</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>73</v>
       </c>
       <c r="D54" s="50" t="s">
-        <v>282</v>
+        <v>31</v>
       </c>
       <c r="E54" s="50" t="s">
-        <v>283</v>
+        <v>84</v>
       </c>
       <c r="F54" s="50"/>
       <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
+      <c r="H54" s="50">
+        <v>2.54</v>
+      </c>
       <c r="I54" s="54"/>
       <c r="J54" s="54" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K54" s="54"/>
       <c r="L54" s="50" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="M54" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>DigiKey</v>
+        <v>Amazon</v>
       </c>
       <c r="N54" s="52">
-        <v>1.17</v>
+        <v>7.55</v>
       </c>
       <c r="O54" s="53">
         <v>1</v>
       </c>
       <c r="P54" s="33">
-        <f t="shared" si="6"/>
-        <v>1.17</v>
-      </c>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="25"/>
-      <c r="AF54" t="s">
-        <v>390</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>393</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
+        <f t="shared" si="0"/>
+        <v>7.55</v>
+      </c>
+      <c r="Q54" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R54" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="S54" s="8"/>
+      <c r="T54">
+        <f>IF(AND(Q54="Nicht Gekauft", R54="Benötigt"), P54, 0)</f>
+        <v>7.55</v>
+      </c>
+      <c r="U54">
+        <f>SUBTOTAL(103, G54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A55" s="63" t="s">
+        <v>157</v>
+      </c>
       <c r="B55" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="C55" s="54" t="s">
-        <v>44</v>
+        <v>72</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>73</v>
       </c>
       <c r="D55" s="50" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="E55" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="F55" s="50">
-        <v>0.02</v>
-      </c>
-      <c r="G55" s="50">
-        <v>5</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
       <c r="H55" s="50"/>
       <c r="I55" s="54"/>
       <c r="J55" s="54" t="s">
@@ -5231,49 +5220,51 @@
       </c>
       <c r="K55" s="54"/>
       <c r="L55" s="50" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="M55" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N55" s="52">
-        <v>2.5499999999999998</v>
+        <v>0.22</v>
       </c>
       <c r="O55" s="53">
         <v>1</v>
       </c>
-      <c r="P55" s="29">
-        <f t="shared" si="5"/>
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="31"/>
+      <c r="P55" s="33">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="8"/>
       <c r="U55">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
+        <f>SUBTOTAL(103, G55)</f>
+        <v>0</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A56" s="63" t="s">
+        <v>157</v>
+      </c>
       <c r="B56" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="C56" s="54" t="s">
-        <v>44</v>
+        <v>79</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>73</v>
       </c>
       <c r="D56" s="50" t="s">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="E56" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="F56" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="G56" s="50">
-        <v>5</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
       <c r="H56" s="50"/>
       <c r="I56" s="54"/>
       <c r="J56" s="54" t="s">
@@ -5281,52 +5272,51 @@
       </c>
       <c r="K56" s="54"/>
       <c r="L56" s="50" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="M56" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N56" s="52">
-        <v>4.5999999999999996</v>
+        <v>0.18</v>
       </c>
       <c r="O56" s="53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P56" s="33">
-        <f t="shared" si="5"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="25"/>
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="8"/>
       <c r="U56">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
+        <f>SUBTOTAL(103, G56)</f>
+        <v>0</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A57" s="63" t="s">
+        <v>157</v>
+      </c>
       <c r="B57" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="C57" s="54" t="s">
-        <v>44</v>
+        <v>76</v>
+      </c>
+      <c r="C57" s="50" t="s">
+        <v>73</v>
       </c>
       <c r="D57" s="50" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="E57" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="F57" s="50">
-        <v>0.02</v>
-      </c>
-      <c r="G57" s="50">
-        <v>5</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
       <c r="H57" s="50"/>
       <c r="I57" s="54"/>
       <c r="J57" s="54" t="s">
@@ -5334,802 +5324,731 @@
       </c>
       <c r="K57" s="54"/>
       <c r="L57" s="50" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="M57" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N57" s="52">
-        <v>0.6</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O57" s="53">
-        <v>1</v>
-      </c>
-      <c r="P57" s="29">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
-      </c>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="P57" s="33">
+        <f t="shared" si="0"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="8"/>
       <c r="U57">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>SUBTOTAL(103, G57)</f>
+        <v>0</v>
       </c>
       <c r="AF57" t="s">
-        <v>396</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A58" s="50" t="s">
+        <v>317</v>
+      </c>
       <c r="B58" s="50" t="s">
-        <v>33</v>
+        <v>402</v>
       </c>
       <c r="C58" s="50" t="s">
-        <v>325</v>
-      </c>
-      <c r="D58" s="50">
-        <v>971070154</v>
+        <v>160</v>
+      </c>
+      <c r="D58" s="50" t="s">
+        <v>286</v>
       </c>
       <c r="E58" s="50" t="s">
-        <v>34</v>
+        <v>318</v>
       </c>
       <c r="F58" s="50"/>
       <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
+      <c r="H58" s="50">
+        <v>2.54</v>
+      </c>
       <c r="I58" s="54"/>
       <c r="J58" s="54" t="s">
         <v>35</v>
       </c>
       <c r="K58" s="54"/>
       <c r="L58" s="50" t="s">
-        <v>36</v>
+        <v>287</v>
       </c>
       <c r="M58" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N58" s="52">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="O58" s="53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P58" s="33">
         <f t="shared" si="0"/>
-        <v>3.52</v>
-      </c>
-      <c r="Q58" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R58" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="S58" s="6"/>
-      <c r="T58">
-        <f t="shared" ref="T58:T67" si="7">IF(AND(Q58="Nicht Gekauft", R58="Benötigt"), P58, 0)</f>
-        <v>3.52</v>
-      </c>
-      <c r="U58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF58" t="s">
-        <v>398</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
+        <v>0.78</v>
+      </c>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="8"/>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A59" s="50" t="s">
+        <v>317</v>
+      </c>
       <c r="B59" s="50" t="s">
-        <v>33</v>
+        <v>403</v>
       </c>
       <c r="C59" s="50" t="s">
-        <v>325</v>
-      </c>
-      <c r="D59" s="50">
-        <v>971110154</v>
+        <v>160</v>
+      </c>
+      <c r="D59" s="50" t="s">
+        <v>284</v>
       </c>
       <c r="E59" s="50" t="s">
-        <v>415</v>
+        <v>319</v>
       </c>
       <c r="F59" s="50"/>
       <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
+      <c r="H59" s="50">
+        <v>2.54</v>
+      </c>
       <c r="I59" s="54"/>
       <c r="J59" s="54" t="s">
         <v>35</v>
       </c>
       <c r="K59" s="54"/>
       <c r="L59" s="50" t="s">
-        <v>416</v>
+        <v>285</v>
       </c>
       <c r="M59" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK(L59,J59)</f>
         <v>DigiKey</v>
       </c>
       <c r="N59" s="52">
-        <v>0.75</v>
+        <v>1.73</v>
       </c>
       <c r="O59" s="53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P59" s="33">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1.73</v>
       </c>
       <c r="Q59" s="34"/>
       <c r="R59" s="25"/>
-      <c r="S59" s="6"/>
-    </row>
-    <row r="60" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S59" s="8"/>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="50" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B60" s="50" t="s">
-        <v>37</v>
+        <v>404</v>
       </c>
       <c r="C60" s="50" t="s">
-        <v>325</v>
+        <v>160</v>
       </c>
       <c r="D60" s="50" t="s">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="E60" s="50" t="s">
-        <v>39</v>
+        <v>321</v>
       </c>
       <c r="F60" s="50"/>
       <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
+      <c r="H60" s="50">
+        <v>1</v>
+      </c>
       <c r="I60" s="54"/>
       <c r="J60" s="54" t="s">
         <v>35</v>
       </c>
       <c r="K60" s="54"/>
       <c r="L60" s="50" t="s">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="M60" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N60" s="52">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="O60" s="53">
-        <v>4</v>
-      </c>
+        <v>1.46</v>
+      </c>
+      <c r="O60" s="53"/>
       <c r="P60" s="33">
         <f t="shared" si="0"/>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="Q60" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R60" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="S60" s="6"/>
-      <c r="T60">
-        <f t="shared" si="7"/>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="U60">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q60" s="34"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="8"/>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="50" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B61" s="50" t="s">
-        <v>41</v>
+        <v>405</v>
       </c>
       <c r="C61" s="50" t="s">
-        <v>325</v>
-      </c>
-      <c r="D61" s="50" t="s">
-        <v>42</v>
+        <v>160</v>
+      </c>
+      <c r="D61" s="50">
+        <v>5013300200</v>
       </c>
       <c r="E61" s="50" t="s">
-        <v>39</v>
+        <v>322</v>
       </c>
       <c r="F61" s="50"/>
       <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
+      <c r="H61" s="50">
+        <v>1</v>
+      </c>
       <c r="I61" s="54"/>
       <c r="J61" s="54" t="s">
         <v>35</v>
       </c>
       <c r="K61" s="54"/>
       <c r="L61" s="50" t="s">
-        <v>43</v>
+        <v>290</v>
       </c>
       <c r="M61" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N61" s="52">
-        <v>0.55000000000000004</v>
+        <v>0.21</v>
       </c>
       <c r="O61" s="53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P61" s="33">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q61" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R61" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="S61" s="6"/>
-      <c r="T61">
-        <f t="shared" si="7"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="U61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+        <v>0.21</v>
+      </c>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="8"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="50" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B62" s="50" t="s">
-        <v>37</v>
+        <v>402</v>
       </c>
       <c r="C62" s="50" t="s">
-        <v>325</v>
-      </c>
-      <c r="D62" s="50" t="s">
-        <v>321</v>
+        <v>160</v>
+      </c>
+      <c r="D62" s="50">
+        <v>665103131822</v>
       </c>
       <c r="E62" s="50" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F62" s="50"/>
       <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
+      <c r="H62" s="50">
+        <v>1</v>
+      </c>
       <c r="I62" s="54"/>
       <c r="J62" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K62" s="50" t="s">
-        <v>327</v>
-      </c>
+      <c r="K62" s="54"/>
       <c r="L62" s="50" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="M62" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N62" s="52">
-        <v>2.6</v>
+        <v>0.75</v>
       </c>
       <c r="O62" s="53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P62" s="33">
         <f t="shared" si="0"/>
-        <v>5.2</v>
+        <v>0.75</v>
       </c>
       <c r="Q62" s="34"/>
       <c r="R62" s="25"/>
-      <c r="S62" s="6"/>
-      <c r="AF62" t="s">
-        <v>399</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="S62" s="8"/>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="50" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B63" s="50" t="s">
-        <v>41</v>
+        <v>406</v>
       </c>
       <c r="C63" s="50" t="s">
-        <v>325</v>
-      </c>
-      <c r="D63" s="50" t="s">
-        <v>323</v>
+        <v>160</v>
+      </c>
+      <c r="D63" s="50">
+        <v>665003113322</v>
       </c>
       <c r="E63" s="50" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F63" s="50"/>
       <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
+      <c r="H63" s="50">
+        <v>1</v>
+      </c>
       <c r="I63" s="54"/>
       <c r="J63" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K63" s="50" t="s">
-        <v>330</v>
-      </c>
+      <c r="K63" s="54"/>
       <c r="L63" s="50" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="M63" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N63" s="52">
-        <v>1.53</v>
+        <v>0.2</v>
       </c>
       <c r="O63" s="53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P63" s="33">
         <f t="shared" si="0"/>
-        <v>3.06</v>
+        <v>0.2</v>
       </c>
       <c r="Q63" s="34"/>
       <c r="R63" s="25"/>
-      <c r="S63" s="6"/>
-      <c r="AF63" t="s">
-        <v>400</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="S63" s="8"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="50" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C64" s="50" t="s">
-        <v>325</v>
+        <v>160</v>
       </c>
       <c r="D64" s="50" t="s">
-        <v>406</v>
+        <v>295</v>
       </c>
       <c r="E64" s="50" t="s">
-        <v>407</v>
-      </c>
-      <c r="F64" s="50"/>
+        <v>327</v>
+      </c>
+      <c r="F64" s="50" t="s">
+        <v>326</v>
+      </c>
       <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
+      <c r="H64" s="50">
+        <v>1.27</v>
+      </c>
       <c r="I64" s="54"/>
       <c r="J64" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="K64" s="50" t="s">
-        <v>409</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="K64" s="54"/>
       <c r="L64" s="50" t="s">
-        <v>408</v>
+        <v>298</v>
       </c>
       <c r="M64" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>Mouser</v>
+        <v>DigiKey</v>
       </c>
       <c r="N64" s="52">
-        <v>2.17</v>
+        <v>1.24</v>
       </c>
       <c r="O64" s="53">
         <v>1</v>
       </c>
       <c r="P64" s="33">
         <f t="shared" si="0"/>
-        <v>2.17</v>
+        <v>1.24</v>
       </c>
       <c r="Q64" s="34"/>
       <c r="R64" s="25"/>
-      <c r="S64" s="6"/>
-      <c r="AF64" t="s">
-        <v>412</v>
-      </c>
-      <c r="AG64" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="65" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S64" s="8"/>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="50" t="s">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="B65" s="50" t="s">
-        <v>70</v>
+        <v>405</v>
       </c>
       <c r="C65" s="50" t="s">
-        <v>71</v>
+        <v>328</v>
       </c>
       <c r="D65" s="50" t="s">
-        <v>72</v>
+        <v>297</v>
       </c>
       <c r="E65" s="50" t="s">
-        <v>73</v>
+        <v>329</v>
       </c>
       <c r="F65" s="50"/>
       <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
+      <c r="H65" s="50">
+        <v>1.27</v>
+      </c>
       <c r="I65" s="54"/>
       <c r="J65" s="54" t="s">
         <v>35</v>
       </c>
       <c r="K65" s="54"/>
       <c r="L65" s="50" t="s">
-        <v>74</v>
+        <v>296</v>
       </c>
       <c r="M65" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N65" s="52">
-        <v>1.0900000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="O65" s="53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P65" s="33">
         <f t="shared" si="0"/>
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="Q65" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R65" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="S65" s="6"/>
-      <c r="T65">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>0.32</v>
+      </c>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="8"/>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="50" t="s">
-        <v>75</v>
+        <v>325</v>
       </c>
       <c r="B66" s="50" t="s">
-        <v>76</v>
+        <v>408</v>
       </c>
       <c r="C66" s="50" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="D66" s="50" t="s">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="E66" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="F66" s="50">
-        <v>4.0000000000000002E-4</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="F66" s="50"/>
       <c r="G66" s="50"/>
-      <c r="H66" s="50"/>
+      <c r="H66" s="50">
+        <v>1.27</v>
+      </c>
       <c r="I66" s="54"/>
       <c r="J66" s="54" t="s">
         <v>35</v>
       </c>
       <c r="K66" s="54"/>
       <c r="L66" s="50" t="s">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="M66" s="50" t="str">
         <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N66" s="52">
-        <v>4.49</v>
+        <v>0.7</v>
       </c>
       <c r="O66" s="53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P66" s="33">
         <f t="shared" si="0"/>
-        <v>8.98</v>
-      </c>
-      <c r="Q66" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R66" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="S66" s="6"/>
-      <c r="T66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U66">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF66" t="s">
-        <v>401</v>
-      </c>
-      <c r="AG66" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="50" t="s">
-        <v>80</v>
+        <v>0.7</v>
+      </c>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="8"/>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A67" s="63" t="s">
+        <v>331</v>
       </c>
       <c r="B67" s="50" t="s">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="C67" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="50" t="s">
-        <v>81</v>
+        <v>335</v>
+      </c>
+      <c r="D67" s="50">
+        <v>665002113322</v>
       </c>
       <c r="E67" s="50" t="s">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="F67" s="50"/>
       <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
+      <c r="H67" s="50">
+        <v>1</v>
+      </c>
       <c r="I67" s="54"/>
       <c r="J67" s="54" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K67" s="54"/>
       <c r="L67" s="50" t="s">
-        <v>83</v>
+        <v>293</v>
       </c>
       <c r="M67" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>Mouser</v>
+        <v>DigiKey</v>
       </c>
       <c r="N67" s="52">
-        <v>2.81</v>
+        <v>0.13</v>
       </c>
       <c r="O67" s="53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P67" s="33">
         <f t="shared" si="0"/>
-        <v>11.24</v>
-      </c>
-      <c r="Q67" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R67" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="S67" s="6"/>
-      <c r="T67">
-        <f t="shared" si="7"/>
-        <v>11.24</v>
-      </c>
-      <c r="U67">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.13</v>
+      </c>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="8"/>
+      <c r="AF67" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A68" s="50" t="s">
-        <v>75</v>
+      <c r="A68" s="63" t="s">
+        <v>331</v>
       </c>
       <c r="B68" s="50" t="s">
-        <v>76</v>
+        <v>334</v>
       </c>
       <c r="C68" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" s="50" t="s">
-        <v>130</v>
+        <v>335</v>
+      </c>
+      <c r="D68" s="50">
+        <v>665102131822</v>
       </c>
       <c r="E68" s="50" t="s">
-        <v>131</v>
+        <v>336</v>
       </c>
       <c r="F68" s="50"/>
       <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
+      <c r="H68" s="50">
+        <v>1</v>
+      </c>
       <c r="I68" s="54"/>
       <c r="J68" s="54" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="K68" s="54"/>
       <c r="L68" s="50" t="s">
-        <v>129</v>
+        <v>294</v>
       </c>
       <c r="M68" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>3D-Jake</v>
+        <v>DigiKey</v>
       </c>
       <c r="N68" s="52">
-        <v>5.99</v>
+        <v>0.61</v>
       </c>
       <c r="O68" s="53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P68" s="33">
-        <f>N68*O68</f>
-        <v>23.96</v>
-      </c>
-      <c r="Q68" s="34" t="s">
-        <v>51</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="Q68" s="34"/>
       <c r="R68" s="25"/>
-      <c r="S68" s="6"/>
-      <c r="U68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="50" t="s">
-        <v>69</v>
-      </c>
+      <c r="S68" s="8"/>
+      <c r="AF68" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A69" s="50"/>
       <c r="B69" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C69" s="54" t="s">
-        <v>71</v>
+        <v>46</v>
+      </c>
+      <c r="C69" s="50" t="s">
+        <v>47</v>
       </c>
       <c r="D69" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="E69" s="50"/>
+        <v>31</v>
+      </c>
+      <c r="E69" s="54" t="s">
+        <v>48</v>
+      </c>
       <c r="F69" s="50"/>
       <c r="G69" s="50"/>
       <c r="H69" s="50"/>
       <c r="I69" s="54"/>
       <c r="J69" s="54" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="K69" s="54"/>
       <c r="L69" s="50" t="s">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="M69" s="50" t="str">
-        <f t="shared" ref="M69:M79" si="8">HYPERLINK(L69,J69)</f>
-        <v>3D-Jake</v>
+        <f t="shared" si="1"/>
+        <v>Amazon</v>
       </c>
       <c r="N69" s="52">
-        <v>2.99</v>
+        <v>8.66</v>
       </c>
       <c r="O69" s="53">
-        <v>4</v>
-      </c>
-      <c r="P69" s="29">
-        <f>N69*O69</f>
-        <v>11.96</v>
-      </c>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="31"/>
-      <c r="S69" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="P69" s="33">
+        <f t="shared" si="0"/>
+        <v>8.66</v>
+      </c>
+      <c r="Q69" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="R69" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="T69">
+        <f>IF(AND(Q69="Nicht Gekauft", R69="Benötigt"), P69, 0)</f>
+        <v>0</v>
+      </c>
       <c r="U69">
-        <f t="shared" si="2"/>
+        <f>SUBTOTAL(103, G69)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="50" t="s">
-        <v>69</v>
-      </c>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A70" s="50"/>
       <c r="B70" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" s="54" t="s">
-        <v>71</v>
+        <v>52</v>
+      </c>
+      <c r="C70" s="50" t="s">
+        <v>47</v>
       </c>
       <c r="D70" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="E70" s="51" t="s">
-        <v>138</v>
+        <v>31</v>
+      </c>
+      <c r="E70" s="50" t="s">
+        <v>53</v>
       </c>
       <c r="F70" s="50"/>
       <c r="G70" s="50"/>
       <c r="H70" s="50"/>
       <c r="I70" s="54"/>
       <c r="J70" s="54" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K70" s="54"/>
       <c r="L70" s="50" t="s">
-        <v>132</v>
+        <v>243</v>
       </c>
       <c r="M70" s="50" t="str">
-        <f>HYPERLINK(L70,J70)</f>
-        <v>DigiKey</v>
+        <f t="shared" si="1"/>
+        <v>Amazon</v>
       </c>
       <c r="N70" s="52">
-        <v>0.1</v>
+        <v>5.99</v>
       </c>
       <c r="O70" s="53">
-        <v>10</v>
-      </c>
-      <c r="P70" s="33">
-        <f>N70*O70</f>
-        <v>1</v>
-      </c>
-      <c r="Q70" s="34"/>
-      <c r="R70" s="25"/>
-      <c r="S70" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="P70" s="29">
+        <f t="shared" si="0"/>
+        <v>5.99</v>
+      </c>
+      <c r="Q70" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R70" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="T70">
+        <f>IF(AND(Q70="Nicht Gekauft", R70="Benötigt"), P70, 0)</f>
+        <v>0</v>
+      </c>
       <c r="U70">
-        <f t="shared" si="2"/>
+        <f>SUBTOTAL(103, G70)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="50" t="s">
-        <v>69</v>
-      </c>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A71" s="50"/>
       <c r="B71" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="C71" s="54" t="s">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="C71" s="50" t="s">
+        <v>47</v>
       </c>
       <c r="D71" s="50" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="E71" s="50" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="F71" s="50"/>
       <c r="G71" s="50"/>
       <c r="H71" s="50"/>
       <c r="I71" s="54"/>
       <c r="J71" s="54" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K71" s="54"/>
       <c r="L71" s="50" t="s">
-        <v>136</v>
+        <v>243</v>
       </c>
       <c r="M71" s="50" t="str">
-        <f t="shared" si="8"/>
-        <v>DigiKey</v>
+        <f t="shared" si="1"/>
+        <v>Amazon</v>
       </c>
       <c r="N71" s="52">
-        <v>5.54</v>
+        <v>18.14</v>
       </c>
       <c r="O71" s="53">
         <v>1</v>
       </c>
-      <c r="P71" s="29">
-        <f>N71*O71</f>
-        <v>5.54</v>
-      </c>
-      <c r="Q71" s="30"/>
-      <c r="R71" s="31"/>
-      <c r="S71" s="6"/>
+      <c r="P71" s="33">
+        <f t="shared" si="0"/>
+        <v>18.14</v>
+      </c>
+      <c r="Q71" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="R71" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="T71">
+        <f>IF(AND(Q71="Nicht Gekauft", R71="Benötigt"), P71, 0)</f>
+        <v>0</v>
+      </c>
       <c r="U71">
-        <f t="shared" si="2"/>
+        <f>SUBTOTAL(103, G71)</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A72" s="50" t="s">
-        <v>75</v>
-      </c>
+      <c r="A72" s="50"/>
       <c r="B72" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="C72" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" s="50" t="s">
-        <v>233</v>
+        <v>33</v>
+      </c>
+      <c r="C72" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="D72" s="50">
+        <v>971070154</v>
       </c>
       <c r="E72" s="50" t="s">
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="F72" s="50"/>
       <c r="G72" s="50"/>
@@ -6140,48 +6059,57 @@
       </c>
       <c r="K72" s="54"/>
       <c r="L72" s="50" t="s">
-        <v>232</v>
+        <v>36</v>
       </c>
       <c r="M72" s="50" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N72" s="52">
-        <v>0.19</v>
+        <v>0.88</v>
       </c>
       <c r="O72" s="53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P72" s="33">
-        <f>N72*O72</f>
-        <v>0.19</v>
-      </c>
-      <c r="Q72" s="34"/>
-      <c r="R72" s="25"/>
+        <f t="shared" si="0"/>
+        <v>3.52</v>
+      </c>
+      <c r="Q72" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R72" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S72" s="6"/>
+      <c r="T72">
+        <f>IF(AND(Q72="Nicht Gekauft", R72="Benötigt"), P72, 0)</f>
+        <v>3.52</v>
+      </c>
       <c r="U72">
-        <f t="shared" si="2"/>
+        <f>SUBTOTAL(103, G72)</f>
         <v>0</v>
       </c>
       <c r="AF72" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="73" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="50" t="s">
-        <v>142</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A73" s="50"/>
       <c r="B73" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C73" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="D73" s="51" t="s">
-        <v>102</v>
+        <v>33</v>
+      </c>
+      <c r="C73" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="D73" s="50">
+        <v>971110154</v>
       </c>
       <c r="E73" s="50" t="s">
-        <v>103</v>
+        <v>391</v>
       </c>
       <c r="F73" s="50"/>
       <c r="G73" s="50"/>
@@ -6192,151 +6120,155 @@
       </c>
       <c r="K73" s="54"/>
       <c r="L73" s="50" t="s">
-        <v>104</v>
+        <v>392</v>
       </c>
       <c r="M73" s="50" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N73" s="52">
-        <v>16.100000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="O73" s="53">
-        <v>1</v>
-      </c>
-      <c r="P73" s="29">
+        <v>4</v>
+      </c>
+      <c r="P73" s="33">
         <f t="shared" si="0"/>
-        <v>16.100000000000001</v>
-      </c>
-      <c r="Q73" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R73" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="T73">
-        <f>IF(AND(Q73="Nicht Gekauft", R73="Benötigt"), P73, 0)</f>
-        <v>16.100000000000001</v>
-      </c>
-      <c r="U73">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="Q73" s="34"/>
+      <c r="R73" s="25"/>
+      <c r="S73" s="6"/>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="50" t="s">
-        <v>145</v>
+        <v>311</v>
       </c>
       <c r="B74" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C74" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="D74" s="51" t="s">
-        <v>144</v>
+        <v>37</v>
+      </c>
+      <c r="C74" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="D74" s="50" t="s">
+        <v>38</v>
       </c>
       <c r="E74" s="50" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="F74" s="50"/>
       <c r="G74" s="50"/>
       <c r="H74" s="50"/>
       <c r="I74" s="54"/>
       <c r="J74" s="54" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K74" s="54"/>
       <c r="L74" s="50" t="s">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="M74" s="50" t="str">
-        <f t="shared" si="8"/>
-        <v>Amazon</v>
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
       </c>
       <c r="N74" s="52">
-        <v>6.99</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="O74" s="53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P74" s="33">
-        <f>N74*O74</f>
-        <v>6.99</v>
-      </c>
-      <c r="Q74" s="34"/>
-      <c r="R74" s="25"/>
+        <f t="shared" si="0"/>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="Q74" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R74" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="S74" s="6"/>
+      <c r="T74">
+        <f>IF(AND(Q74="Nicht Gekauft", R74="Benötigt"), P74, 0)</f>
+        <v>2.2799999999999998</v>
+      </c>
       <c r="U74">
-        <f t="shared" si="2"/>
+        <f>SUBTOTAL(103, G74)</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="50" t="s">
-        <v>143</v>
+        <v>311</v>
       </c>
       <c r="B75" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C75" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="D75" s="51" t="s">
-        <v>146</v>
+        <v>41</v>
+      </c>
+      <c r="C75" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="D75" s="50" t="s">
+        <v>42</v>
       </c>
       <c r="E75" s="50" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="F75" s="50"/>
       <c r="G75" s="50"/>
       <c r="H75" s="50"/>
       <c r="I75" s="54"/>
       <c r="J75" s="54" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="K75" s="54"/>
       <c r="L75" s="50" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="M75" s="50" t="str">
-        <f t="shared" si="8"/>
-        <v>RobotShop</v>
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
       </c>
       <c r="N75" s="52">
-        <v>9.33</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O75" s="53">
-        <v>1</v>
-      </c>
-      <c r="P75" s="29">
-        <f>N75*O75</f>
-        <v>9.33</v>
-      </c>
-      <c r="Q75" s="30"/>
-      <c r="R75" s="31"/>
+        <v>4</v>
+      </c>
+      <c r="P75" s="33">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q75" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R75" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="S75" s="6"/>
+      <c r="T75">
+        <f>IF(AND(Q75="Nicht Gekauft", R75="Benötigt"), P75, 0)</f>
+        <v>2.2000000000000002</v>
+      </c>
       <c r="U75">
-        <f t="shared" si="2"/>
+        <f>SUBTOTAL(103, G75)</f>
         <v>0</v>
       </c>
-      <c r="AF75" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="76" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="50" t="s">
-        <v>150</v>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A76" s="63" t="s">
+        <v>314</v>
       </c>
       <c r="B76" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C76" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="D76" s="51" t="s">
-        <v>151</v>
+        <v>37</v>
+      </c>
+      <c r="C76" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="D76" s="50" t="s">
+        <v>306</v>
       </c>
       <c r="E76" s="50" t="s">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="F76" s="50"/>
       <c r="G76" s="50"/>
@@ -6345,494 +6277,468 @@
       <c r="J76" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="K76" s="54"/>
+      <c r="K76" s="50" t="s">
+        <v>312</v>
+      </c>
       <c r="L76" s="50" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
       <c r="M76" s="50" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>DigiKey</v>
       </c>
       <c r="N76" s="52">
-        <v>3.39</v>
+        <v>2.6</v>
       </c>
       <c r="O76" s="53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P76" s="33">
-        <f>N76*O76</f>
-        <v>3.39</v>
+        <f t="shared" si="0"/>
+        <v>5.2</v>
       </c>
       <c r="Q76" s="34"/>
       <c r="R76" s="25"/>
-      <c r="U76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="50" t="s">
-        <v>57</v>
+      <c r="S76" s="6"/>
+      <c r="AF76" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A77" s="63" t="s">
+        <v>314</v>
       </c>
       <c r="B77" s="50" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C77" s="50" t="s">
-        <v>56</v>
+        <v>310</v>
       </c>
       <c r="D77" s="50" t="s">
-        <v>59</v>
+        <v>308</v>
       </c>
       <c r="E77" s="50" t="s">
-        <v>60</v>
+        <v>313</v>
       </c>
       <c r="F77" s="50"/>
       <c r="G77" s="50"/>
       <c r="H77" s="50"/>
       <c r="I77" s="54"/>
       <c r="J77" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="K77" s="54"/>
+        <v>35</v>
+      </c>
+      <c r="K77" s="50" t="s">
+        <v>315</v>
+      </c>
       <c r="L77" s="50" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="M77" s="50" t="str">
-        <f t="shared" si="8"/>
-        <v>Amazon</v>
+        <f t="shared" si="1"/>
+        <v>DigiKey</v>
       </c>
       <c r="N77" s="52">
-        <v>16.13</v>
+        <v>1.53</v>
       </c>
       <c r="O77" s="53">
-        <v>1</v>
-      </c>
-      <c r="P77" s="29">
+        <v>2</v>
+      </c>
+      <c r="P77" s="33">
         <f t="shared" si="0"/>
-        <v>16.13</v>
-      </c>
-      <c r="Q77" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R77" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="T77">
-        <f>IF(AND(Q77="Nicht Gekauft", R77="Benötigt"), P77, 0)</f>
-        <v>16.13</v>
-      </c>
-      <c r="U77">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="50" t="s">
-        <v>61</v>
+        <v>3.06</v>
+      </c>
+      <c r="Q77" s="34"/>
+      <c r="R77" s="25"/>
+      <c r="S77" s="6"/>
+      <c r="AF77" t="s">
+        <v>376</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A78" s="63" t="s">
+        <v>314</v>
       </c>
       <c r="B78" s="50" t="s">
-        <v>62</v>
+        <v>381</v>
       </c>
       <c r="C78" s="50" t="s">
-        <v>56</v>
+        <v>310</v>
       </c>
       <c r="D78" s="50" t="s">
-        <v>63</v>
+        <v>382</v>
       </c>
       <c r="E78" s="50" t="s">
-        <v>64</v>
+        <v>383</v>
       </c>
       <c r="F78" s="50"/>
       <c r="G78" s="50"/>
       <c r="H78" s="50"/>
       <c r="I78" s="54"/>
       <c r="J78" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="K78" s="54"/>
+        <v>45</v>
+      </c>
+      <c r="K78" s="50" t="s">
+        <v>385</v>
+      </c>
       <c r="L78" s="50" t="s">
-        <v>65</v>
+        <v>384</v>
       </c>
       <c r="M78" s="50" t="str">
-        <f t="shared" si="8"/>
-        <v>DigiKey</v>
+        <f t="shared" si="1"/>
+        <v>Mouser</v>
       </c>
       <c r="N78" s="52">
-        <v>2.97</v>
+        <v>2.17</v>
       </c>
       <c r="O78" s="53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P78" s="33">
         <f t="shared" si="0"/>
-        <v>5.94</v>
-      </c>
-      <c r="Q78" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R78" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="U78">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B79" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C79" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D79" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E79" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="F79" s="50"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="54"/>
-      <c r="J79" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="K79" s="54"/>
-      <c r="L79" s="50" t="s">
+        <v>2.17</v>
+      </c>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="25"/>
+      <c r="S78" s="6"/>
+      <c r="AF78" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="17"/>
+    </row>
+    <row r="80" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P80" s="49"/>
+    </row>
+    <row r="81" spans="6:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F81" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="82" spans="6:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G82" s="43" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="83" spans="6:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="44">
+        <f>SUMPRODUCT(F2:F78, O2:O78, U2:U78)</f>
+        <v>6.7679999999999989</v>
+      </c>
+      <c r="G83" s="44" t="e" cm="1">
+        <f t="array" ref="G83">SUMPRODUCT((G2:G78=12)*(F2:F78)*(O2:O78)*(U2:U78))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="6:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="6:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G85" s="43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="86" spans="6:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G86" s="44" t="e" cm="1">
+        <f t="array" ref="G86">SUMPRODUCT((G2:G78=5)*(F2:F78)*(O2:O78)*(U2:U78))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="6:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="6:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F88" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="6:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F89" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="G89" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="6:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F90" s="39">
+        <f>F83*$F$93</f>
+        <v>10.151999999999997</v>
+      </c>
+      <c r="G90" s="39" t="e">
+        <f>G83*$F$93</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H90" s="3"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+    </row>
+    <row r="91" spans="6:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="6:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F92" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="G92" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="6:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F93" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="G93" s="39" t="e">
+        <f>G86*$F$93</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H93" s="3"/>
+      <c r="L93" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="M93" s="62"/>
+      <c r="N93" s="12">
+        <f>SUBTOTAL(9,P1:P78)</f>
+        <v>429.73</v>
+      </c>
+    </row>
+    <row r="94" spans="6:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H94" s="3"/>
+      <c r="I94" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L94" s="35"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="37"/>
+    </row>
+    <row r="95" spans="6:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="M79" s="50" t="str">
-        <f t="shared" si="8"/>
-        <v>DigiKey</v>
-      </c>
-      <c r="N79" s="52">
-        <v>5.92</v>
-      </c>
-      <c r="O79" s="53">
-        <v>1</v>
-      </c>
-      <c r="P79" s="29">
-        <f t="shared" si="0"/>
-        <v>5.92</v>
-      </c>
-      <c r="Q79" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R79" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="U79">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B80" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C80" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D80" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="E80" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="F80" s="50"/>
-      <c r="G80" s="50"/>
-      <c r="H80" s="50"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="K80" s="54"/>
-      <c r="L80" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="M80" s="50" t="str">
-        <f>HYPERLINK(L80,J80)</f>
-        <v>DigiKey</v>
-      </c>
-      <c r="N80" s="52">
-        <v>2.64</v>
-      </c>
-      <c r="O80" s="53">
-        <v>1</v>
-      </c>
-      <c r="P80" s="33">
-        <f t="shared" si="0"/>
-        <v>2.64</v>
-      </c>
-      <c r="Q80" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R80" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="T80">
-        <f>IF(AND(Q80="Nicht Gekauft", R80="Benötigt"), P80, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="U80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="16"/>
-      <c r="Q81" s="17"/>
-    </row>
-    <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P82" s="49"/>
-    </row>
-    <row r="83" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F83" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F84" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="G84" s="43" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F85" s="44">
-        <f>SUMPRODUCT(F2:F80, O2:O80, U2:U80)</f>
-        <v>4.7199999999999989</v>
-      </c>
-      <c r="G85" s="44" t="e" cm="1">
-        <f t="array" ref="G85">SUMPRODUCT((G2:G80=12)*(F2:F80)*(O2:O80)*(U2:U80))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H85" s="3"/>
-    </row>
-    <row r="86" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H86" s="3"/>
-    </row>
-    <row r="87" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G87" s="43" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G88" s="44" t="e" cm="1">
-        <f t="array" ref="G88">SUMPRODUCT((G2:G80=5)*(F2:F80)*(O2:O80)*(U2:U80))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H88" s="3"/>
-    </row>
-    <row r="89" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F90" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F91" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="G91" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="H91" s="3"/>
-    </row>
-    <row r="92" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F92" s="39">
-        <f>F85*$F$95</f>
-        <v>7.0799999999999983</v>
-      </c>
-      <c r="G92" s="39" t="e">
-        <f>G85*$F$95</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H92" s="3"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-    </row>
-    <row r="93" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H93" s="3"/>
-    </row>
-    <row r="94" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F94" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="G94" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="H94" s="3"/>
-    </row>
-    <row r="95" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F95" s="42">
-        <v>1.5</v>
-      </c>
-      <c r="G95" s="39" t="e">
-        <f>G88*$F$95</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H95" s="3"/>
-    </row>
-    <row r="96" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H96" s="3"/>
-      <c r="I96" s="3" t="s">
-        <v>107</v>
+      <c r="G95" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="L95" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="M95" s="60"/>
+      <c r="N95" s="9">
+        <f>SUBTOTAL(9,T1:T78)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="6:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="47">
+        <f>SUM(F2:F78)</f>
+        <v>4.622399999999999</v>
+      </c>
+      <c r="G96" s="46" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="97" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F97" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>272</v>
+      <c r="G97" s="48">
+        <v>3.04</v>
       </c>
     </row>
     <row r="98" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F98" s="47">
-        <f>SUM(F2:F80)</f>
-        <v>4.622399999999999</v>
-      </c>
-      <c r="G98" s="46" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="99" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G99" s="48">
-        <v>3.04</v>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+    </row>
+    <row r="99" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F99" s="40"/>
+      <c r="G99" s="45" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F100" s="40"/>
-      <c r="G100" s="40"/>
-    </row>
-    <row r="101" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F101" s="40"/>
-      <c r="G101" s="45" t="s">
+      <c r="G100" s="47">
+        <v>2.548</v>
+      </c>
+    </row>
+    <row r="102" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="103" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="102" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F102" s="40"/>
-      <c r="G102" s="47">
-        <v>2.548</v>
+      <c r="G103">
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
-        <v>284</v>
+        <v>271</v>
+      </c>
+      <c r="G104">
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F105" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="G105">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F106" t="s">
-        <v>286</v>
-      </c>
-      <c r="G106">
-        <v>5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="107" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F107" t="s">
-        <v>287</v>
-      </c>
-      <c r="G107">
-        <v>0.05</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="108" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>273</v>
+      </c>
+      <c r="G108" t="e">
+        <f>G103-G90</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="109" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F109" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="110" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F110" t="s">
-        <v>288</v>
-      </c>
-      <c r="G110" t="e">
-        <f>G105-G92</f>
+      <c r="G109" t="e">
+        <f>G104+G105-G93</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="111" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F111" t="s">
-        <v>289</v>
-      </c>
-      <c r="G111" t="e">
-        <f>G106+G107-G95</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="114" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F114" t="s">
-        <v>329</v>
+    <row r="112" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R80" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
-    <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="ACC3"/>
-        <filter val="BF4"/>
-        <filter val="BL"/>
-        <filter val="BP2"/>
-        <filter val="F2"/>
-        <filter val="POW1"/>
-        <filter val="POW2"/>
-        <filter val="S1"/>
-        <filter val="SP2"/>
-        <filter val="ST4"/>
-        <filter val="SV2"/>
-        <filter val="TP2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R78" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}"/>
   <customSheetViews>
-    <customSheetView guid="{36C50999-9392-45D3-927D-2C21A30118D3}" filter="1" showAutoFilter="1" hiddenColumns="1">
+    <customSheetView guid="{4ADDCB5A-9875-4DD2-8A02-FCBFEAA50499}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
+      <selection pane="bottomLeft" activeCell="AF35" sqref="AF35"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R78" xr:uid="{0FDDA5BD-E889-4482-8303-2644EE3A63B3}">
+      <autoFilter ref="A1:R81" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BL"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="Lk2"/>
+            <filter val="POW2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="ST4"/>
+            <filter val="SV2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A1:R62" xr:uid="{771F6DD4-C662-421D-A74B-7CF2CE563FD1}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="POW2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A1:R59" xr:uid="{775256AC-4499-4E2A-A23D-55F7B6707A97}"/>
+    </customSheetView>
+    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A1:R59" xr:uid="{732F3B48-258D-4EFB-99ED-E3AEA4385938}"/>
+    </customSheetView>
+    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+      <autoFilter ref="A1:R60" xr:uid="{E129EF21-93A3-4DD3-B8A0-C657075B41C9}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+      <autoFilter ref="A1:R78" xr:uid="{16DF4560-FD70-48CA-8564-865E4B272D23}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6850,12 +6756,12 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{B27C99E1-F194-4CDD-BEEF-0E7944A43981}" filter="1" showAutoFilter="1" hiddenColumns="1">
+    <customSheetView guid="{36C50999-9392-45D3-927D-2C21A30118D3}" filter="1" showAutoFilter="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
+      <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R78" xr:uid="{7477A24A-9A92-4B9E-920B-4B3A2FBC589F}">
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+      <autoFilter ref="A1:R78" xr:uid="{DF593A1E-C3D0-4B78-A147-8B1F56D3F25A}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6873,65 +6779,12 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{86D49B71-F0A7-4EDF-9F83-437E8F1DE26F}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R60" xr:uid="{C8209875-D1EF-4CE1-A145-69DB7949B778}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R59" xr:uid="{C093EBB5-CB3A-493E-A2F2-809E4BF94865}"/>
-    </customSheetView>
-    <customSheetView guid="{E3E09E1D-E21B-434F-8777-BA2F5DFE998D}" showAutoFilter="1" topLeftCell="B1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-      <autoFilter ref="A1:R59" xr:uid="{4EA4EDE7-A15E-449C-ABB9-9CF20D2D808C}"/>
-    </customSheetView>
-    <customSheetView guid="{AD0CFDC5-A886-4774-8323-B873BC9D36B7}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-      <autoFilter ref="A1:R62" xr:uid="{44F3EF3D-DCCE-4B20-B4AF-FF23C63314B4}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
-            <filter val="POW2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
   </customSheetViews>
   <mergeCells count="4">
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="L93:M93"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="P1:P1048576">
@@ -6946,7 +6799,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q35 Q39:Q86 Q88:Q1048576">
+  <conditionalFormatting sqref="Q86:Q1048576 Q1:Q84">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Nicht Gekauft"</formula>
     </cfRule>
@@ -6962,7 +6815,7 @@
       <formula>"Gekauft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R35 R39:R81">
+  <conditionalFormatting sqref="R2:R79">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Nicht benötigt"</formula>
     </cfRule>
@@ -6971,44 +6824,42 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R39:R81 R2:R35" xr:uid="{DF639F38-DCBF-4FB0-9016-BE70B5447265}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R69:R79 R2:R48 R49:R68" xr:uid="{DF639F38-DCBF-4FB0-9016-BE70B5447265}">
       <formula1>"Benötigt,Nicht benötigt"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q39:Q81 Q2:Q35" xr:uid="{BB82D80E-695D-4A38-A148-48463DFE8321}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q69:Q79 Q2:Q48 Q49:Q68" xr:uid="{BB82D80E-695D-4A38-A148-48463DFE8321}">
       <formula1>"Gekauft,Nicht Gekauft"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId7" xr:uid="{134576B2-6870-47F8-80B5-95CA9B97F9E2}"/>
-    <hyperlink ref="L58" r:id="rId8" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
-    <hyperlink ref="L60" r:id="rId9" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
-    <hyperlink ref="L61" r:id="rId10" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
-    <hyperlink ref="L39" r:id="rId11" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
-    <hyperlink ref="L78" r:id="rId12" xr:uid="{9A0B0992-EB9B-485C-8743-AB5373B961C2}"/>
-    <hyperlink ref="L80" r:id="rId13" xr:uid="{B67FB571-1B87-4184-A2B3-AF411BD87D35}"/>
-    <hyperlink ref="L66" r:id="rId14" xr:uid="{57963C92-CE56-4D91-B1F1-7FA05F5BC3A8}"/>
-    <hyperlink ref="L65" r:id="rId15" xr:uid="{9D795571-0999-43FF-9A1F-496FF99C86C0}"/>
-    <hyperlink ref="L67" r:id="rId16" xr:uid="{8465788D-FDE3-460C-960F-435D2FB5F396}"/>
-    <hyperlink ref="L10" r:id="rId17" xr:uid="{A9D6150D-3C06-4D81-AD60-047F4F409296}"/>
-    <hyperlink ref="L11" r:id="rId18" xr:uid="{411A7094-1AC1-4084-ABE4-5C0060EC1A2D}"/>
-    <hyperlink ref="L12" r:id="rId19" xr:uid="{3DDB6C5A-7DB3-4C65-B604-D02293535F49}"/>
-    <hyperlink ref="L7" r:id="rId20" xr:uid="{56E44BCE-942A-4E32-8574-907151789664}"/>
-    <hyperlink ref="L73" r:id="rId21" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
-    <hyperlink ref="L3" r:id="rId22" xr:uid="{C49F6822-A4DD-42C2-B3BF-0381D137937C}"/>
-    <hyperlink ref="L5" r:id="rId23" xr:uid="{BF0FEABB-4850-4BC5-A11D-D889C6B926FD}"/>
-    <hyperlink ref="L8" r:id="rId24" xr:uid="{21389653-C0FE-46E1-B136-04B9A0DE28C5}"/>
-    <hyperlink ref="L68" r:id="rId25" xr:uid="{1242A3DC-9FDC-4C47-9270-1B4A92E75E73}"/>
-    <hyperlink ref="L36" r:id="rId26" xr:uid="{3ED73B15-E49B-4E21-BF8D-06828BFBADB2}"/>
-    <hyperlink ref="L9" r:id="rId27" xr:uid="{E62708AD-A075-4D9D-9BC8-2CBD617B66EE}"/>
-    <hyperlink ref="L37" r:id="rId28" xr:uid="{488C7B18-56E0-4061-83E3-FAA678922DF9}"/>
-    <hyperlink ref="L43" r:id="rId29" xr:uid="{02A8F53B-7033-433E-97B4-37D43B10ABDE}"/>
-    <hyperlink ref="K62" r:id="rId30" display="https://www.samtec.com/products/hle-107-02-l-dv" xr:uid="{AF2D4394-67CE-4447-B187-DA356AB0AFD4}"/>
-    <hyperlink ref="L62" r:id="rId31" xr:uid="{3CAA47B9-FD6F-4B23-A59B-6E4BF51797D7}"/>
-    <hyperlink ref="L21" r:id="rId32" xr:uid="{8FDFC79B-94E5-4C68-84E1-D5C8679D313C}"/>
-    <hyperlink ref="L22" r:id="rId33" xr:uid="{3CB626FF-165C-4A7E-A7FE-D41E681D5EC5}"/>
-    <hyperlink ref="L70" r:id="rId34" xr:uid="{B06D0A87-6477-4382-AFA7-5ACA40E62DA0}"/>
+    <hyperlink ref="L2" r:id="rId8" xr:uid="{134576B2-6870-47F8-80B5-95CA9B97F9E2}"/>
+    <hyperlink ref="L72" r:id="rId9" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
+    <hyperlink ref="L74" r:id="rId10" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
+    <hyperlink ref="L75" r:id="rId11" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
+    <hyperlink ref="L69" r:id="rId12" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
+    <hyperlink ref="L27" r:id="rId13" xr:uid="{57963C92-CE56-4D91-B1F1-7FA05F5BC3A8}"/>
+    <hyperlink ref="L26" r:id="rId14" xr:uid="{9D795571-0999-43FF-9A1F-496FF99C86C0}"/>
+    <hyperlink ref="L20" r:id="rId15" xr:uid="{8465788D-FDE3-460C-960F-435D2FB5F396}"/>
+    <hyperlink ref="L49" r:id="rId16" xr:uid="{A9D6150D-3C06-4D81-AD60-047F4F409296}"/>
+    <hyperlink ref="L50" r:id="rId17" xr:uid="{411A7094-1AC1-4084-ABE4-5C0060EC1A2D}"/>
+    <hyperlink ref="L51" r:id="rId18" xr:uid="{3DDB6C5A-7DB3-4C65-B604-D02293535F49}"/>
+    <hyperlink ref="L17" r:id="rId19" xr:uid="{56E44BCE-942A-4E32-8574-907151789664}"/>
+    <hyperlink ref="L9" r:id="rId20" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
+    <hyperlink ref="L3" r:id="rId21" xr:uid="{C49F6822-A4DD-42C2-B3BF-0381D137937C}"/>
+    <hyperlink ref="L5" r:id="rId22" xr:uid="{BF0FEABB-4850-4BC5-A11D-D889C6B926FD}"/>
+    <hyperlink ref="L18" r:id="rId23" xr:uid="{21389653-C0FE-46E1-B136-04B9A0DE28C5}"/>
+    <hyperlink ref="L21" r:id="rId24" xr:uid="{1242A3DC-9FDC-4C47-9270-1B4A92E75E73}"/>
+    <hyperlink ref="L7" r:id="rId25" xr:uid="{3ED73B15-E49B-4E21-BF8D-06828BFBADB2}"/>
+    <hyperlink ref="L19" r:id="rId26" xr:uid="{E62708AD-A075-4D9D-9BC8-2CBD617B66EE}"/>
+    <hyperlink ref="L8" r:id="rId27" xr:uid="{488C7B18-56E0-4061-83E3-FAA678922DF9}"/>
+    <hyperlink ref="L15" r:id="rId28" xr:uid="{02A8F53B-7033-433E-97B4-37D43B10ABDE}"/>
+    <hyperlink ref="K76" r:id="rId29" display="https://www.samtec.com/products/hle-107-02-l-dv" xr:uid="{AF2D4394-67CE-4447-B187-DA356AB0AFD4}"/>
+    <hyperlink ref="L76" r:id="rId30" xr:uid="{3CAA47B9-FD6F-4B23-A59B-6E4BF51797D7}"/>
+    <hyperlink ref="L60" r:id="rId31" xr:uid="{8FDFC79B-94E5-4C68-84E1-D5C8679D313C}"/>
+    <hyperlink ref="L61" r:id="rId32" xr:uid="{3CB626FF-165C-4A7E-A7FE-D41E681D5EC5}"/>
+    <hyperlink ref="L24" r:id="rId33" xr:uid="{B06D0A87-6477-4382-AFA7-5ACA40E62DA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1418D845-F1EC-4863-B06F-E4E18F10895C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B709A894-C19E-4036-A5D0-05576A484E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,29 +16,29 @@
     <sheet name="2ndMainBoard" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$77</definedName>
     <definedName name="Z_0C0F82AC_DC21_4B4A_94AC_E96E30BF52DE_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$H:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$AK</definedName>
-    <definedName name="Z_0C0F82AC_DC21_4B4A_94AC_E96E30BF52DE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$76</definedName>
-    <definedName name="Z_0C0F82AC_DC21_4B4A_94AC_E96E30BF52DE_.wvu.Rows" localSheetId="0" hidden="1">'2ndMainBoard'!$78:$78,'2ndMainBoard'!$86:$110</definedName>
+    <definedName name="Z_0C0F82AC_DC21_4B4A_94AC_E96E30BF52DE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$77</definedName>
+    <definedName name="Z_0C0F82AC_DC21_4B4A_94AC_E96E30BF52DE_.wvu.Rows" localSheetId="0" hidden="1">'2ndMainBoard'!$79:$79,'2ndMainBoard'!$87:$111</definedName>
+    <definedName name="Z_1253E34A_3A91_496E_8486_95C1D21A2085_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$I,'2ndMainBoard'!$P:$U,'2ndMainBoard'!$W:$AD</definedName>
+    <definedName name="Z_1253E34A_3A91_496E_8486_95C1D21A2085_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$77</definedName>
     <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$I:$I,'2ndMainBoard'!$M:$M,'2ndMainBoard'!$P:$R,'2ndMainBoard'!$T:$AD</definedName>
-    <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$76</definedName>
+    <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$77</definedName>
     <definedName name="Z_3411E606_57DF_4B4E_942D_8A879EBC3FAD_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$V</definedName>
-    <definedName name="Z_3411E606_57DF_4B4E_942D_8A879EBC3FAD_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$76</definedName>
-    <definedName name="Z_36C50999_9392_45D3_927D_2C21A30118D3_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$L,'2ndMainBoard'!$O:$AD</definedName>
-    <definedName name="Z_36C50999_9392_45D3_927D_2C21A30118D3_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$76</definedName>
-    <definedName name="Z_4300A442_0A40_4FB1_A9F3_2AB99D5A4993_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$76</definedName>
+    <definedName name="Z_3411E606_57DF_4B4E_942D_8A879EBC3FAD_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$77</definedName>
+    <definedName name="Z_4300A442_0A40_4FB1_A9F3_2AB99D5A4993_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$77</definedName>
     <definedName name="Z_E35F6895_3697_4266_BC90_C5022F400E13_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$A:$A,'2ndMainBoard'!$C:$C,'2ndMainBoard'!$E:$E,'2ndMainBoard'!$H:$N,'2ndMainBoard'!$P:$R,'2ndMainBoard'!$T:$AK</definedName>
-    <definedName name="Z_E35F6895_3697_4266_BC90_C5022F400E13_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$76</definedName>
-    <definedName name="Z_E35F6895_3697_4266_BC90_C5022F400E13_.wvu.Rows" localSheetId="0" hidden="1">'2ndMainBoard'!$78:$78,'2ndMainBoard'!$86:$110</definedName>
+    <definedName name="Z_E35F6895_3697_4266_BC90_C5022F400E13_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$77</definedName>
+    <definedName name="Z_E35F6895_3697_4266_BC90_C5022F400E13_.wvu.Rows" localSheetId="0" hidden="1">'2ndMainBoard'!$79:$79,'2ndMainBoard'!$87:$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Anforderungen_prompt" guid="{1253E34A-3A91-496E-8486-95C1D21A2085}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan" guid="{3411E606-57DF-4B4E-942D-8A879EBC3FAD}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Strombudget" guid="{0C0F82AC-DC21-4B4A-94AC-E96E30BF52DE}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Default" guid="{4300A442-0A40-4FB1-A9F3-2AB99D5A4993}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
     <customWorkbookView name="Strombudget_Foto" guid="{E35F6895-3697-4266-BC90-C5022F400E13}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Default" guid="{4300A442-0A40-4FB1-A9F3-2AB99D5A4993}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Strombudget" guid="{0C0F82AC-DC21-4B4A-94AC-E96E30BF52DE}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan" guid="{3411E606-57DF-4B4E-942D-8A879EBC3FAD}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Anforderungen_Auswahl" guid="{36C50999-9392-45D3-927D-2C21A30118D3}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="5"/>
-    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="415">
   <si>
     <t>Alternative</t>
   </si>
@@ -489,12 +489,6 @@
     <t>I2C, 3 Axis, +-2, 4, 8, 16g</t>
   </si>
   <si>
-    <t>RobotShop</t>
-  </si>
-  <si>
-    <t>https://eu.robotshop.com/products/sunfounder-gy-521-mpu-6050-6-dof-gyro-accelerometer-imu</t>
-  </si>
-  <si>
     <t>ACC4</t>
   </si>
   <si>
@@ -1318,6 +1312,21 @@
   </si>
   <si>
     <t>S2B-Xh Buchse, 100k Ohm NTC</t>
+  </si>
+  <si>
+    <t>https://www.az-delivery.de/en/products/gy-521-6-achsen-gyroskop-und-beschleunigungssensor</t>
+  </si>
+  <si>
+    <t>https://www.3djake.com/creality-3d-printers-spare-parts/thermistor-kit</t>
+  </si>
+  <si>
+    <t>Thermistor Kit, Glass Bead</t>
+  </si>
+  <si>
+    <t>300mm lang</t>
+  </si>
+  <si>
+    <t>TP_SMD</t>
   </si>
 </sst>
 </file>
@@ -1788,7 +1797,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1907,6 +1916,18 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1931,17 +1952,8 @@
     <xf numFmtId="165" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2336,12 +2348,11 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AK107"/>
+  <dimension ref="A1:AK108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="V39" sqref="V39"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2351,9 +2362,9 @@
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="35.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="3" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" style="3" customWidth="1"/>
@@ -2364,14 +2375,14 @@
     <col min="16" max="16" width="15.28515625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="23.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="21.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" customWidth="1"/>
     <col min="20" max="20" width="14.42578125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="17" hidden="1" customWidth="1"/>
-    <col min="22" max="23" width="17" customWidth="1"/>
-    <col min="24" max="25" width="9.140625" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" customWidth="1"/>
-    <col min="27" max="29" width="9.140625" customWidth="1"/>
-    <col min="30" max="39" width="11.42578125" customWidth="1"/>
+    <col min="21" max="23" width="17" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="27" max="29" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="31" max="39" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2391,7 +2402,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>108</v>
@@ -2406,21 +2417,21 @@
         <v>7</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="62" t="s">
+      <c r="O1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="55" t="s">
         <v>11</v>
       </c>
       <c r="Q1" s="26" t="s">
@@ -2433,29 +2444,29 @@
         <v>14</v>
       </c>
       <c r="U1" t="s">
-        <v>253</v>
-      </c>
-      <c r="X1" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="X1" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="Y1" s="57"/>
+      <c r="Y1" s="61"/>
       <c r="Z1" s="11">
-        <f>SUMIFS(P47:P76,Q47:Q76, "Nicht Gekauft",R47:R76,"Benötigt")</f>
+        <f>SUMIFS(P50:P77,Q50:Q77, "Nicht Gekauft",R50:R77,"Benötigt")</f>
         <v>19.07</v>
       </c>
-      <c r="AB1" s="54" t="s">
+      <c r="AB1" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="AC1" s="55"/>
+      <c r="AC1" s="59"/>
       <c r="AD1" s="10">
-        <f>SUM(P2:P76)</f>
-        <v>425.87999999999982</v>
+        <f>SUM(P2:P77)</f>
+        <v>426.52999999999986</v>
       </c>
       <c r="AF1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AH1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2494,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="29">
-        <f t="shared" ref="P2:P76" si="0">N2*O2</f>
+        <f t="shared" ref="P2:P77" si="0">N2*O2</f>
         <v>9.91</v>
       </c>
       <c r="Q2" s="30" t="s">
@@ -2508,19 +2519,19 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U31" si="1">SUBTOTAL(103, G2)</f>
+        <f t="shared" ref="U2:U34" si="1">SUBTOTAL(103, G2)</f>
         <v>0</v>
       </c>
-      <c r="X2" s="60" t="s">
+      <c r="X2" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="Y2" s="61"/>
+      <c r="Y2" s="65"/>
       <c r="Z2" s="12">
-        <f>SUBTOTAL(9,P1:P76)</f>
-        <v>425.87999999999982</v>
+        <f>SUBTOTAL(9,P1:P77)</f>
+        <v>426.52999999999986</v>
       </c>
       <c r="AF2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2555,7 +2566,7 @@
         <v>27</v>
       </c>
       <c r="M3" s="48" t="str">
-        <f t="shared" ref="M3:M76" si="2">HYPERLINK(L3,J3)</f>
+        <f t="shared" ref="M3:M77" si="2">HYPERLINK(L3,J3)</f>
         <v>AZ-Delivery</v>
       </c>
       <c r="N3" s="50">
@@ -2582,7 +2593,7 @@
       <c r="Y3" s="35"/>
       <c r="Z3" s="36"/>
       <c r="AF3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -2636,12 +2647,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="X4" s="58" t="s">
+      <c r="X4" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="Y4" s="59"/>
+      <c r="Y4" s="63"/>
       <c r="Z4" s="9">
-        <f>SUBTOTAL(9,T1:T76)</f>
+        <f>SUBTOTAL(9,T1:T77)</f>
         <v>87.52000000000001</v>
       </c>
     </row>
@@ -2703,24 +2714,24 @@
         <v>1</v>
       </c>
       <c r="AF5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C6" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F6" s="48">
         <v>0.5</v>
@@ -2735,7 +2746,7 @@
       </c>
       <c r="K6" s="52"/>
       <c r="L6" s="48" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M6" s="48" t="str">
         <f t="shared" si="2"/>
@@ -2760,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="AF6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -2844,7 +2855,7 @@
       </c>
       <c r="K8" s="52"/>
       <c r="L8" s="48" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M8" s="48" t="str">
         <f t="shared" si="3"/>
@@ -2888,25 +2899,25 @@
       <c r="H9" s="48"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="K9" s="52"/>
       <c r="L9" s="48" t="s">
-        <v>136</v>
+        <v>410</v>
       </c>
       <c r="M9" s="48" t="str">
         <f t="shared" si="3"/>
-        <v>RobotShop</v>
+        <v>AZ-Delivery</v>
       </c>
       <c r="N9" s="50">
-        <v>9.33</v>
+        <v>5.99</v>
       </c>
       <c r="O9" s="51">
         <v>1</v>
       </c>
       <c r="P9" s="29">
         <f t="shared" si="4"/>
-        <v>9.33</v>
+        <v>5.99</v>
       </c>
       <c r="Q9" s="30"/>
       <c r="R9" s="31"/>
@@ -2915,12 +2926,12 @@
         <v>0</v>
       </c>
       <c r="AF9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>88</v>
@@ -2929,10 +2940,10 @@
         <v>58</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
@@ -2943,7 +2954,7 @@
       </c>
       <c r="K10" s="52"/>
       <c r="L10" s="48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M10" s="48" t="str">
         <f t="shared" si="3"/>
@@ -2969,16 +2980,16 @@
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" s="48" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F11" s="48">
         <v>0.02</v>
@@ -2993,7 +3004,7 @@
       </c>
       <c r="K11" s="52"/>
       <c r="L11" s="48" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M11" s="48" t="str">
         <f>HYPERLINK(L11,J11)</f>
@@ -3019,16 +3030,16 @@
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
       <c r="B12" s="48" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C12" s="52" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F12" s="48">
         <v>0.1</v>
@@ -3043,7 +3054,7 @@
       </c>
       <c r="K12" s="52"/>
       <c r="L12" s="48" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M12" s="48" t="str">
         <f>HYPERLINK(L12,J12)</f>
@@ -3066,22 +3077,22 @@
         <v>1</v>
       </c>
       <c r="AG12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
       <c r="B13" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="48" t="s">
         <v>229</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>231</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
@@ -3092,7 +3103,7 @@
       </c>
       <c r="K13" s="52"/>
       <c r="L13" s="48" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M13" s="48" t="str">
         <f>HYPERLINK(L13,J13)</f>
@@ -3115,22 +3126,22 @@
         <v>0</v>
       </c>
       <c r="AF13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
       <c r="B14" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>235</v>
-      </c>
       <c r="E14" s="48" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F14" s="48"/>
       <c r="G14" s="48"/>
@@ -3141,7 +3152,7 @@
       </c>
       <c r="K14" s="52"/>
       <c r="L14" s="48" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M14" s="48" t="str">
         <f>HYPERLINK(L14,J14)</f>
@@ -3164,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="AF14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
@@ -3282,13 +3293,13 @@
         <v>1</v>
       </c>
       <c r="AA16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AF16" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>110</v>
       </c>
@@ -3342,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>67</v>
       </c>
@@ -3370,7 +3381,7 @@
         <v>70</v>
       </c>
       <c r="M18" s="48" t="str">
-        <f t="shared" ref="M18:M39" si="5">HYPERLINK(L18,J18)</f>
+        <f t="shared" ref="M18:M40" si="5">HYPERLINK(L18,J18)</f>
         <v>Mouser</v>
       </c>
       <c r="N18" s="50">
@@ -3380,7 +3391,7 @@
         <v>4</v>
       </c>
       <c r="P18" s="32">
-        <f t="shared" ref="P18:P27" si="6">N18*O18</f>
+        <f t="shared" ref="P18:P30" si="6">N18*O18</f>
         <v>11.24</v>
       </c>
       <c r="Q18" s="30" t="s">
@@ -3399,8 +3410,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="66" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="48" t="s">
@@ -3450,65 +3461,58 @@
         <v>0</v>
       </c>
       <c r="AF19" t="s">
+        <v>371</v>
+      </c>
+      <c r="AG19" t="s">
         <v>373</v>
       </c>
-      <c r="AG19" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
-        <v>62</v>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="66" t="s">
+        <v>56</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>215</v>
+        <v>63</v>
       </c>
       <c r="C20" s="52" t="s">
         <v>58</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>217</v>
+        <v>412</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>218</v>
+        <v>413</v>
       </c>
       <c r="F20" s="48"/>
       <c r="G20" s="48"/>
       <c r="H20" s="48"/>
       <c r="I20" s="52"/>
       <c r="J20" s="52" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="K20" s="52"/>
       <c r="L20" s="48" t="s">
-        <v>216</v>
+        <v>411</v>
       </c>
       <c r="M20" s="48" t="str">
         <f t="shared" si="5"/>
-        <v>DigiKey</v>
+        <v>3D-Jake</v>
       </c>
       <c r="N20" s="50">
-        <v>0.19</v>
+        <v>3.99</v>
       </c>
       <c r="O20" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P20" s="32">
         <f t="shared" si="6"/>
-        <v>0.38</v>
+        <v>3.99</v>
       </c>
       <c r="Q20" s="33"/>
       <c r="R20" s="25"/>
       <c r="S20" s="6"/>
-      <c r="U20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>56</v>
       </c>
@@ -3521,14 +3525,14 @@
       <c r="D21" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="64" t="s">
-        <v>411</v>
+      <c r="E21" s="56" t="s">
+        <v>409</v>
       </c>
       <c r="F21" s="48"/>
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
       <c r="I21" s="52"/>
-      <c r="J21" s="65" t="s">
+      <c r="J21" s="57" t="s">
         <v>105</v>
       </c>
       <c r="K21" s="52"/>
@@ -3557,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>56</v>
       </c>
@@ -3606,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>56</v>
       </c>
@@ -3655,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>56</v>
       </c>
@@ -3712,9 +3716,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B25" s="48" t="s">
         <v>63</v>
@@ -3771,124 +3775,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
-        <v>258</v>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="53" t="s">
+        <v>403</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>222</v>
+        <v>327</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="D26" s="48">
+        <v>665002113322</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>224</v>
+        <v>326</v>
       </c>
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
+      <c r="H26" s="48">
+        <v>1</v>
+      </c>
       <c r="I26" s="52"/>
       <c r="J26" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K26" s="52"/>
       <c r="L26" s="48" t="s">
-        <v>223</v>
+        <v>288</v>
       </c>
       <c r="M26" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f>HYPERLINK(L26,J26)</f>
         <v>DigiKey</v>
       </c>
       <c r="N26" s="50">
-        <v>5.79</v>
+        <v>0.13</v>
       </c>
       <c r="O26" s="51">
-        <v>1</v>
-      </c>
-      <c r="P26" s="29">
-        <f t="shared" si="6"/>
-        <v>5.79</v>
-      </c>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="31"/>
+        <v>4</v>
+      </c>
+      <c r="P26" s="32">
+        <f>N26*O26</f>
+        <v>0.52</v>
+      </c>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="8"/>
       <c r="U26">
-        <f t="shared" si="1"/>
+        <f>SUBTOTAL(103, G26)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
-        <v>258</v>
+      <c r="AF26" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="53" t="s">
+        <v>403</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>228</v>
+        <v>328</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="D27" s="48">
+        <v>665102131822</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>227</v>
+        <v>330</v>
       </c>
       <c r="F27" s="48"/>
       <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
+      <c r="H27" s="48">
+        <v>1</v>
+      </c>
       <c r="I27" s="52"/>
       <c r="J27" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K27" s="52"/>
       <c r="L27" s="48" t="s">
-        <v>226</v>
+        <v>289</v>
       </c>
       <c r="M27" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f>HYPERLINK(L27,J27)</f>
         <v>DigiKey</v>
       </c>
       <c r="N27" s="50">
-        <v>4.1399999999999997</v>
+        <v>0.61</v>
       </c>
       <c r="O27" s="51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P27" s="32">
-        <f t="shared" si="6"/>
-        <v>4.1399999999999997</v>
+        <f>N27*O27</f>
+        <v>2.44</v>
       </c>
       <c r="Q27" s="33"/>
       <c r="R27" s="25"/>
+      <c r="S27" s="8"/>
       <c r="U27">
-        <f t="shared" si="1"/>
+        <f>SUBTOTAL(103, G27)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF27" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
-        <v>259</v>
+        <v>414</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="F28" s="48">
-        <v>0.05</v>
-      </c>
-      <c r="G28" s="48">
-        <v>5</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="48"/>
       <c r="I28" s="52"/>
       <c r="J28" s="52" t="s">
@@ -3896,53 +3908,48 @@
       </c>
       <c r="K28" s="52"/>
       <c r="L28" s="48" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="M28" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f>HYPERLINK(L28,J28)</f>
         <v>DigiKey</v>
       </c>
       <c r="N28" s="50">
-        <v>2.34</v>
+        <v>0.19</v>
       </c>
       <c r="O28" s="51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P28" s="32">
-        <f t="shared" ref="P28:P29" si="7">N28*O28</f>
-        <v>2.34</v>
-      </c>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="31"/>
+        <f>N28*O28</f>
+        <v>0.38</v>
+      </c>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="6"/>
       <c r="U28">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUBTOTAL(103, G28)</f>
+        <v>0</v>
       </c>
       <c r="AF28" t="s">
-        <v>362</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>363</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
-        <v>259</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>256</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C29" s="52" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="F29" s="48"/>
       <c r="G29" s="48"/>
@@ -3953,51 +3960,44 @@
       </c>
       <c r="K29" s="52"/>
       <c r="L29" s="48" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="M29" s="48" t="str">
         <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N29" s="50">
-        <v>1.17</v>
+        <v>5.79</v>
       </c>
       <c r="O29" s="51">
         <v>1</v>
       </c>
-      <c r="P29" s="32">
-        <f t="shared" si="7"/>
-        <v>1.17</v>
-      </c>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="25"/>
+      <c r="P29" s="29">
+        <f t="shared" si="6"/>
+        <v>5.79</v>
+      </c>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="31"/>
       <c r="U29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF29" t="s">
-        <v>362</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>365</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>256</v>
+      </c>
       <c r="B30" s="48" t="s">
-        <v>333</v>
+        <v>223</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="D30" s="49" t="s">
-        <v>297</v>
+        <v>44</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>226</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="F30" s="48"/>
       <c r="G30" s="48"/>
@@ -4008,51 +4008,51 @@
       </c>
       <c r="K30" s="52"/>
       <c r="L30" s="48" t="s">
-        <v>298</v>
+        <v>224</v>
       </c>
       <c r="M30" s="48" t="str">
         <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N30" s="50">
-        <v>1.78</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="O30" s="51">
         <v>1</v>
       </c>
-      <c r="P30" s="29">
-        <f t="shared" ref="P30:P35" si="8">N30*O30</f>
-        <v>1.78</v>
-      </c>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="31"/>
+      <c r="P30" s="32">
+        <f t="shared" si="6"/>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="25"/>
       <c r="U30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF30" t="s">
-        <v>357</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+    </row>
+    <row r="31" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="53" t="s">
+        <v>257</v>
+      </c>
       <c r="B31" s="48" t="s">
-        <v>334</v>
+        <v>219</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="D31" s="49" t="s">
-        <v>299</v>
+        <v>44</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>259</v>
       </c>
       <c r="E31" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
+        <v>260</v>
+      </c>
+      <c r="F31" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="G31" s="48">
+        <v>5</v>
+      </c>
       <c r="H31" s="48"/>
       <c r="I31" s="52"/>
       <c r="J31" s="52" t="s">
@@ -4060,48 +4060,53 @@
       </c>
       <c r="K31" s="52"/>
       <c r="L31" s="48" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="M31" s="48" t="str">
         <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N31" s="50">
-        <v>0.95</v>
+        <v>2.34</v>
       </c>
       <c r="O31" s="51">
         <v>1</v>
       </c>
-      <c r="P31" s="29">
-        <f t="shared" si="8"/>
-        <v>0.95</v>
+      <c r="P31" s="32">
+        <f t="shared" ref="P31:P32" si="7">N31*O31</f>
+        <v>2.34</v>
       </c>
       <c r="Q31" s="30"/>
       <c r="R31" s="31"/>
       <c r="U31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF31" t="s">
-        <v>357</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+        <v>360</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>361</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" s="53" t="s">
+        <v>257</v>
+      </c>
       <c r="B32" s="48" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E32" s="48" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="F32" s="48"/>
       <c r="G32" s="48"/>
@@ -4112,45 +4117,51 @@
       </c>
       <c r="K32" s="52"/>
       <c r="L32" s="48" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="M32" s="48" t="str">
         <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N32" s="50">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="O32" s="51">
         <v>1</v>
       </c>
       <c r="P32" s="32">
-        <f t="shared" si="8"/>
-        <v>1.56</v>
+        <f t="shared" si="7"/>
+        <v>1.17</v>
       </c>
       <c r="Q32" s="33"/>
       <c r="R32" s="25"/>
       <c r="U32">
-        <f>SUBTOTAL(103, G32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF32" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>363</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="48" t="s">
-        <v>204</v>
+        <v>331</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>206</v>
+        <v>210</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>295</v>
       </c>
       <c r="E33" s="48" t="s">
-        <v>207</v>
+        <v>298</v>
       </c>
       <c r="F33" s="48"/>
       <c r="G33" s="48"/>
@@ -4161,96 +4172,100 @@
       </c>
       <c r="K33" s="52"/>
       <c r="L33" s="48" t="s">
-        <v>205</v>
+        <v>296</v>
       </c>
       <c r="M33" s="48" t="str">
         <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N33" s="50">
-        <v>0.47</v>
+        <v>1.78</v>
       </c>
       <c r="O33" s="51">
         <v>1</v>
       </c>
       <c r="P33" s="29">
-        <f t="shared" si="8"/>
-        <v>0.47</v>
+        <f t="shared" ref="P33:P38" si="8">N33*O33</f>
+        <v>1.78</v>
       </c>
       <c r="Q33" s="30"/>
       <c r="R33" s="31"/>
       <c r="U33">
-        <f>SUBTOTAL(103, G33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF33" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="B34" s="48" t="s">
-        <v>189</v>
+        <v>332</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="D34" s="48">
-        <v>824521241</v>
+        <v>210</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>297</v>
       </c>
       <c r="E34" s="48" t="s">
-        <v>190</v>
+        <v>299</v>
       </c>
       <c r="F34" s="48"/>
       <c r="G34" s="48"/>
       <c r="H34" s="48"/>
       <c r="I34" s="52"/>
       <c r="J34" s="52" t="s">
-        <v>191</v>
+        <v>35</v>
       </c>
       <c r="K34" s="52"/>
       <c r="L34" s="48" t="s">
-        <v>188</v>
+        <v>300</v>
       </c>
       <c r="M34" s="48" t="str">
         <f t="shared" si="5"/>
-        <v>Digikey</v>
+        <v>DigiKey</v>
       </c>
       <c r="N34" s="50">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="O34" s="51">
-        <v>2</v>
-      </c>
-      <c r="P34" s="32">
+        <v>1</v>
+      </c>
+      <c r="P34" s="29">
         <f t="shared" si="8"/>
-        <v>0.6</v>
-      </c>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="25"/>
+        <v>0.95</v>
+      </c>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="31"/>
       <c r="U34">
-        <f>SUBTOTAL(103, G34)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF34" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
-        <v>276</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A35" s="48"/>
       <c r="B35" s="48" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="E35" s="48" t="s">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="F35" s="48"/>
       <c r="G35" s="48"/>
@@ -4261,38 +4276,45 @@
       </c>
       <c r="K35" s="52"/>
       <c r="L35" s="48" t="s">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="M35" s="48" t="str">
         <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N35" s="50">
-        <v>0.3</v>
+        <v>1.56</v>
       </c>
       <c r="O35" s="51">
         <v>1</v>
       </c>
       <c r="P35" s="32">
         <f t="shared" si="8"/>
-        <v>0.3</v>
+        <v>1.56</v>
       </c>
       <c r="Q35" s="33"/>
       <c r="R35" s="25"/>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <f>SUBTOTAL(103, G35)</f>
+        <v>0</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48"/>
       <c r="B36" s="48" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>220</v>
+        <v>185</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>204</v>
       </c>
       <c r="E36" s="48" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="F36" s="48"/>
       <c r="G36" s="48"/>
@@ -4303,21 +4325,21 @@
       </c>
       <c r="K36" s="52"/>
       <c r="L36" s="48" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="M36" s="48" t="str">
         <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N36" s="50">
-        <v>2.91</v>
+        <v>0.47</v>
       </c>
       <c r="O36" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P36" s="29">
-        <f t="shared" ref="P36:P37" si="9">N36*O36</f>
-        <v>5.82</v>
+        <f t="shared" si="8"/>
+        <v>0.47</v>
       </c>
       <c r="Q36" s="30"/>
       <c r="R36" s="31"/>
@@ -4326,335 +4348,320 @@
         <v>0</v>
       </c>
       <c r="AF36" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="48"/>
       <c r="B37" s="48" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>202</v>
+        <v>185</v>
+      </c>
+      <c r="D37" s="48">
+        <v>824521241</v>
       </c>
       <c r="E37" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="F37" s="48">
-        <v>0.02</v>
-      </c>
-      <c r="G37" s="48">
-        <v>5</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
       <c r="H37" s="48"/>
       <c r="I37" s="52"/>
       <c r="J37" s="52" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="K37" s="52"/>
       <c r="L37" s="48" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="M37" s="48" t="str">
         <f t="shared" si="5"/>
-        <v>DigiKey</v>
+        <v>Digikey</v>
       </c>
       <c r="N37" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="O37" s="51">
+        <v>2</v>
+      </c>
+      <c r="P37" s="32">
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
-      <c r="O37" s="51">
-        <v>1</v>
-      </c>
-      <c r="P37" s="29">
-        <f t="shared" si="9"/>
-        <v>0.6</v>
-      </c>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="31"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="25"/>
       <c r="U37">
         <f>SUBTOTAL(103, G37)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="s">
-        <v>368</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
+        <v>274</v>
+      </c>
       <c r="B38" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>71</v>
+        <v>270</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>185</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F38" s="48"/>
       <c r="G38" s="48"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="52"/>
       <c r="J38" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K38" s="52"/>
       <c r="L38" s="48" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M38" s="48" t="str">
-        <f>HYPERLINK(L38,J39)</f>
+        <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N38" s="50">
-        <v>9.25</v>
+        <v>0.3</v>
       </c>
       <c r="O38" s="51">
         <v>1</v>
       </c>
-      <c r="P38" s="29">
-        <f>N38*O38</f>
-        <v>9.25</v>
-      </c>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="U38">
-        <f t="shared" ref="U38:U39" si="10">SUBTOTAL(103, G38)</f>
-        <v>0</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>352</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
+      <c r="P38" s="32">
+        <f t="shared" si="8"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="25"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A39" s="48"/>
       <c r="B39" s="48" t="s">
-        <v>396</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="48" t="s">
-        <v>397</v>
+        <v>211</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>218</v>
       </c>
       <c r="E39" s="48" t="s">
-        <v>407</v>
+        <v>217</v>
       </c>
       <c r="F39" s="48"/>
       <c r="G39" s="48"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="52"/>
       <c r="J39" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K39" s="52"/>
       <c r="L39" s="48" t="s">
-        <v>406</v>
+        <v>212</v>
       </c>
       <c r="M39" s="48" t="str">
-        <f>HYPERLINK(L39,J40)</f>
+        <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N39" s="50">
-        <v>0.84</v>
+        <v>2.91</v>
       </c>
       <c r="O39" s="51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P39" s="29">
-        <f>N39*O39</f>
-        <v>0.84</v>
-      </c>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
+        <f t="shared" ref="P39:P40" si="9">N39*O39</f>
+        <v>5.82</v>
+      </c>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="31"/>
       <c r="U39">
-        <f t="shared" si="10"/>
+        <f>SUBTOTAL(103, G39)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
-        <v>166</v>
-      </c>
+      <c r="AF39" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A40" s="48"/>
       <c r="B40" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>313</v>
+        <v>199</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>44</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="E40" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
+        <v>201</v>
+      </c>
+      <c r="F40" s="48">
+        <v>0.02</v>
+      </c>
+      <c r="G40" s="48">
+        <v>5</v>
+      </c>
       <c r="H40" s="48"/>
       <c r="I40" s="52"/>
       <c r="J40" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K40" s="48" t="s">
-        <v>159</v>
-      </c>
+      <c r="K40" s="52"/>
       <c r="L40" s="48" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="M40" s="48" t="str">
-        <f t="shared" ref="M40:M46" si="11">HYPERLINK(L40,J40)</f>
+        <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N40" s="50">
-        <v>3.24</v>
+        <v>0.6</v>
       </c>
       <c r="O40" s="51">
         <v>1</v>
       </c>
-      <c r="P40" s="32">
-        <f>N40*O40</f>
-        <v>3.24</v>
-      </c>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="8"/>
+      <c r="P40" s="29">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="31"/>
       <c r="U40">
-        <f t="shared" ref="U40:U45" si="12">SUBTOTAL(103, G40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" s="53" t="s">
-        <v>167</v>
-      </c>
+        <f>SUBTOTAL(103, G40)</f>
+        <v>1</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>366</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="49"/>
       <c r="B41" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>313</v>
+        <v>275</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>71</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>168</v>
+        <v>277</v>
       </c>
       <c r="E41" s="48" t="s">
-        <v>170</v>
+        <v>278</v>
       </c>
       <c r="F41" s="48"/>
       <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="48"/>
       <c r="J41" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K41" s="52"/>
       <c r="L41" s="48" t="s">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="M41" s="48" t="str">
-        <f t="shared" si="11"/>
+        <f>HYPERLINK(L41,J42)</f>
         <v>DigiKey</v>
       </c>
       <c r="N41" s="50">
-        <v>1.7</v>
+        <v>9.25</v>
       </c>
       <c r="O41" s="51">
         <v>1</v>
       </c>
-      <c r="P41" s="32">
+      <c r="P41" s="29">
         <f>N41*O41</f>
-        <v>1.7</v>
-      </c>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="8"/>
+        <v>9.25</v>
+      </c>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
       <c r="U41">
-        <f>SUBTOTAL(103, G41)</f>
+        <f t="shared" ref="U41:U42" si="10">SUBTOTAL(103, G41)</f>
         <v>0</v>
       </c>
-      <c r="AE41" t="s">
-        <v>349</v>
-      </c>
       <c r="AF41" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
-        <v>180</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="49"/>
       <c r="B42" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>313</v>
+        <v>394</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>71</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>173</v>
+        <v>395</v>
       </c>
       <c r="E42" s="48" t="s">
-        <v>172</v>
+        <v>405</v>
       </c>
       <c r="F42" s="48"/>
       <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="48"/>
       <c r="J42" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="K42" s="52"/>
       <c r="L42" s="48" t="s">
-        <v>161</v>
+        <v>404</v>
       </c>
       <c r="M42" s="48" t="str">
-        <f t="shared" si="11"/>
+        <f>HYPERLINK(L42,J43)</f>
         <v>DigiKey</v>
       </c>
       <c r="N42" s="50">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="O42" s="51">
         <v>1</v>
       </c>
-      <c r="P42" s="32">
-        <f t="shared" ref="P42:P44" si="13">N42*O42</f>
-        <v>0.82</v>
-      </c>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="8"/>
+      <c r="P42" s="29">
+        <f>N42*O42</f>
+        <v>0.84</v>
+      </c>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
       <c r="U42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="53" t="s">
-        <v>181</v>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="s">
+        <v>164</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>313</v>
+        <v>163</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>311</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E43" s="48" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
@@ -4663,56 +4670,49 @@
       <c r="J43" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K43" s="52"/>
+      <c r="K43" s="48" t="s">
+        <v>157</v>
+      </c>
       <c r="L43" s="48" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="M43" s="48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="M43:M49" si="11">HYPERLINK(L43,J43)</f>
         <v>DigiKey</v>
       </c>
       <c r="N43" s="50">
-        <v>0.94</v>
+        <v>3.24</v>
       </c>
       <c r="O43" s="51">
         <v>1</v>
       </c>
-      <c r="P43" s="29">
-        <f t="shared" si="13"/>
-        <v>0.94</v>
-      </c>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="31"/>
+      <c r="P43" s="32">
+        <f>N43*O43</f>
+        <v>3.24</v>
+      </c>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="25"/>
       <c r="S43" s="8"/>
       <c r="U43">
-        <f>SUBTOTAL(103, G43)</f>
+        <f t="shared" ref="U43:U48" si="12">SUBTOTAL(103, G43)</f>
         <v>0</v>
       </c>
-      <c r="AE43" t="s">
-        <v>350</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>348</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
-        <v>182</v>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A44" s="53" t="s">
+        <v>165</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>313</v>
+        <v>163</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>311</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E44" s="48" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F44" s="48"/>
       <c r="G44" s="48"/>
@@ -4723,45 +4723,51 @@
       </c>
       <c r="K44" s="52"/>
       <c r="L44" s="48" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="M44" s="48" t="str">
         <f t="shared" si="11"/>
         <v>DigiKey</v>
       </c>
       <c r="N44" s="50">
-        <v>1.33</v>
+        <v>1.7</v>
       </c>
       <c r="O44" s="51">
         <v>1</v>
       </c>
       <c r="P44" s="32">
-        <f t="shared" si="13"/>
-        <v>1.33</v>
-      </c>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="25"/>
+        <f>N44*O44</f>
+        <v>1.7</v>
+      </c>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="31"/>
       <c r="S44" s="8"/>
       <c r="U44">
-        <f t="shared" si="12"/>
+        <f>SUBTOTAL(103, G44)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE44" t="s">
+        <v>347</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
-        <v>389</v>
+        <v>178</v>
       </c>
       <c r="B45" s="48" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="E45" s="48" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F45" s="48"/>
       <c r="G45" s="48"/>
@@ -4770,46 +4776,49 @@
       <c r="J45" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K45" s="52"/>
+      <c r="K45" s="52" t="s">
+        <v>160</v>
+      </c>
       <c r="L45" s="48" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="M45" s="48" t="str">
         <f t="shared" si="11"/>
         <v>DigiKey</v>
       </c>
       <c r="N45" s="50">
-        <v>2.04</v>
+        <v>0.82</v>
       </c>
       <c r="O45" s="51">
-        <v>6</v>
-      </c>
-      <c r="P45" s="29">
-        <f>N45*O45</f>
-        <v>12.24</v>
-      </c>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="P45" s="32">
+        <f t="shared" ref="P45:P47" si="13">N45*O45</f>
+        <v>0.82</v>
+      </c>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="8"/>
       <c r="U45">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
-        <v>390</v>
+        <v>179</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>392</v>
+        <v>174</v>
       </c>
       <c r="E46" s="48" t="s">
-        <v>391</v>
+        <v>173</v>
       </c>
       <c r="F46" s="48"/>
       <c r="G46" s="48"/>
@@ -4820,253 +4829,234 @@
       </c>
       <c r="K46" s="52"/>
       <c r="L46" s="48" t="s">
-        <v>393</v>
+        <v>172</v>
       </c>
       <c r="M46" s="48" t="str">
         <f t="shared" si="11"/>
         <v>DigiKey</v>
       </c>
       <c r="N46" s="50">
-        <v>2.87</v>
+        <v>0.94</v>
       </c>
       <c r="O46" s="51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P46" s="29">
-        <f>N46*O46</f>
-        <v>17.22</v>
+        <f t="shared" si="13"/>
+        <v>0.94</v>
       </c>
       <c r="Q46" s="30"/>
       <c r="R46" s="31"/>
+      <c r="S46" s="8"/>
       <c r="U46">
         <f>SUBTOTAL(103, G46)</f>
         <v>0</v>
       </c>
+      <c r="AE46" t="s">
+        <v>348</v>
+      </c>
       <c r="AF46" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="B47" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="48" t="s">
-        <v>73</v>
+        <v>169</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>311</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="E47" s="48" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
-      <c r="H47" s="48">
-        <v>2.5</v>
-      </c>
+      <c r="H47" s="48"/>
       <c r="I47" s="52"/>
       <c r="J47" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K47" s="52"/>
       <c r="L47" s="48" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="M47" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>DigiKey</v>
       </c>
       <c r="N47" s="50">
-        <v>0.69</v>
+        <v>1.33</v>
       </c>
       <c r="O47" s="51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P47" s="32">
-        <f t="shared" si="0"/>
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="Q47" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R47" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="T47">
-        <f>IF(AND(Q47="Nicht Gekauft", R47="Benötigt"), P47, 0)</f>
+        <f t="shared" si="13"/>
+        <v>1.33</v>
+      </c>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="8"/>
+      <c r="U47">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U47">
-        <f t="shared" ref="U47:U55" si="14">SUBTOTAL(103, G47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
-        <v>153</v>
+        <v>387</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="48" t="s">
-        <v>73</v>
+        <v>183</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>311</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="E48" s="48" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="F48" s="48"/>
       <c r="G48" s="48"/>
-      <c r="H48" s="48">
-        <v>2.5</v>
-      </c>
+      <c r="H48" s="48"/>
       <c r="I48" s="52"/>
       <c r="J48" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K48" s="52"/>
       <c r="L48" s="48" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="M48" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>DigiKey</v>
       </c>
       <c r="N48" s="50">
-        <v>0.53</v>
+        <v>2.04</v>
       </c>
       <c r="O48" s="51">
-        <v>9</v>
-      </c>
-      <c r="P48" s="32">
-        <f t="shared" si="0"/>
-        <v>4.7700000000000005</v>
-      </c>
-      <c r="Q48" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R48" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="T48">
-        <f>IF(AND(Q48="Nicht Gekauft", R48="Benötigt"), P48, 0)</f>
+        <v>6</v>
+      </c>
+      <c r="P48" s="29">
+        <f>N48*O48</f>
+        <v>12.24</v>
+      </c>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="31"/>
+      <c r="U48">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U48">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A49" s="48" t="s">
-        <v>153</v>
+    </row>
+    <row r="49" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="53" t="s">
+        <v>388</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="48" t="s">
-        <v>73</v>
+        <v>183</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>311</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="E49" s="48" t="s">
-        <v>145</v>
+        <v>389</v>
       </c>
       <c r="F49" s="48"/>
       <c r="G49" s="48"/>
-      <c r="H49" s="48">
-        <v>2.5</v>
-      </c>
+      <c r="H49" s="48"/>
       <c r="I49" s="52"/>
       <c r="J49" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K49" s="52"/>
       <c r="L49" s="48" t="s">
-        <v>81</v>
+        <v>391</v>
       </c>
       <c r="M49" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>DigiKey</v>
       </c>
       <c r="N49" s="50">
-        <v>0.69</v>
+        <v>2.87</v>
       </c>
       <c r="O49" s="51">
-        <v>5</v>
-      </c>
-      <c r="P49" s="32">
-        <f t="shared" si="0"/>
-        <v>3.4499999999999997</v>
-      </c>
-      <c r="Q49" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R49" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="T49">
-        <f>IF(AND(Q49="Nicht Gekauft", R49="Benötigt"), P49, 0)</f>
+        <v>6</v>
+      </c>
+      <c r="P49" s="29">
+        <f>N49*O49</f>
+        <v>17.22</v>
+      </c>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="31"/>
+      <c r="U49">
+        <f>SUBTOTAL(103, G49)</f>
         <v>0</v>
       </c>
-      <c r="U49">
-        <f t="shared" si="14"/>
-        <v>0</v>
+      <c r="AF49" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C50" s="48" t="s">
         <v>73</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="F50" s="48"/>
       <c r="G50" s="48"/>
       <c r="H50" s="48">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I50" s="52"/>
       <c r="J50" s="52" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K50" s="52"/>
       <c r="L50" s="48" t="s">
-        <v>242</v>
+        <v>75</v>
       </c>
       <c r="M50" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>Amazon</v>
+        <v>DigiKey</v>
       </c>
       <c r="N50" s="50">
-        <v>17.14</v>
+        <v>0.69</v>
       </c>
       <c r="O50" s="51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P50" s="32">
         <f t="shared" si="0"/>
-        <v>17.14</v>
-      </c>
-      <c r="Q50" s="30" t="s">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="Q50" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="R50" s="31" t="s">
+      <c r="R50" s="25" t="s">
         <v>22</v>
       </c>
       <c r="T50">
@@ -5074,55 +5064,63 @@
         <v>0</v>
       </c>
       <c r="U50">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="U50:U58" si="14">SUBTOTAL(103, G50)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C51" s="48" t="s">
         <v>73</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
       <c r="H51" s="48">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="I51" s="52"/>
       <c r="J51" s="52" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K51" s="52"/>
       <c r="L51" s="48" t="s">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="M51" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>Amazon</v>
+        <v>DigiKey</v>
       </c>
       <c r="N51" s="50">
-        <v>8.0500000000000007</v>
+        <v>0.53</v>
       </c>
       <c r="O51" s="51">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P51" s="32">
         <f t="shared" si="0"/>
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="25"/>
+        <v>4.7700000000000005</v>
+      </c>
+      <c r="Q51" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R51" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="T51">
+        <f>IF(AND(Q51="Nicht Gekauft", R51="Benötigt"), P51, 0)</f>
+        <v>0</v>
+      </c>
       <c r="U51">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -5130,57 +5128,56 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C52" s="48" t="s">
         <v>73</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="F52" s="48"/>
       <c r="G52" s="48"/>
       <c r="H52" s="48">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="I52" s="52"/>
       <c r="J52" s="52" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K52" s="52"/>
       <c r="L52" s="48" t="s">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="M52" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>Amazon</v>
+        <v>DigiKey</v>
       </c>
       <c r="N52" s="50">
-        <v>7.55</v>
+        <v>0.69</v>
       </c>
       <c r="O52" s="51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P52" s="32">
         <f t="shared" si="0"/>
-        <v>7.55</v>
-      </c>
-      <c r="Q52" s="30" t="s">
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="Q52" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="R52" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="S52" s="8"/>
+      <c r="R52" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="T52">
         <f>IF(AND(Q52="Nicht Gekauft", R52="Benötigt"), P52, 0)</f>
-        <v>7.55</v>
+        <v>0</v>
       </c>
       <c r="U52">
         <f t="shared" si="14"/>
@@ -5188,320 +5185,348 @@
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A53" s="53" t="s">
-        <v>157</v>
+      <c r="A53" s="48" t="s">
+        <v>152</v>
       </c>
       <c r="B53" s="48" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C53" s="48" t="s">
         <v>73</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="F53" s="48"/>
       <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
+      <c r="H53" s="48">
+        <v>2</v>
+      </c>
       <c r="I53" s="52"/>
       <c r="J53" s="52" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K53" s="52"/>
       <c r="L53" s="48" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c r="M53" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>DigiKey</v>
+        <v>Amazon</v>
       </c>
       <c r="N53" s="50">
-        <v>0.22</v>
+        <v>17.14</v>
       </c>
       <c r="O53" s="51">
         <v>1</v>
       </c>
       <c r="P53" s="32">
         <f t="shared" si="0"/>
-        <v>0.22</v>
-      </c>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="25"/>
-      <c r="S53" s="8"/>
+        <v>17.14</v>
+      </c>
+      <c r="Q53" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R53" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="T53">
+        <f>IF(AND(Q53="Nicht Gekauft", R53="Benötigt"), P53, 0)</f>
+        <v>0</v>
+      </c>
       <c r="U53">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AF53" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A54" s="53" t="s">
-        <v>157</v>
+      <c r="A54" s="48" t="s">
+        <v>153</v>
       </c>
       <c r="B54" s="48" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C54" s="48" t="s">
         <v>73</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="E54" s="48" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="F54" s="48"/>
       <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
+      <c r="H54" s="48">
+        <v>2.54</v>
+      </c>
       <c r="I54" s="52"/>
       <c r="J54" s="52" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K54" s="52"/>
       <c r="L54" s="48" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="M54" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>DigiKey</v>
+        <v>Amazon</v>
       </c>
       <c r="N54" s="50">
-        <v>0.18</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="O54" s="51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P54" s="32">
         <f t="shared" si="0"/>
-        <v>0.72</v>
-      </c>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="8"/>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="25"/>
       <c r="U54">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AF54" t="s">
-        <v>344</v>
-      </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A55" s="53" t="s">
-        <v>157</v>
+      <c r="A55" s="48" t="s">
+        <v>154</v>
       </c>
       <c r="B55" s="48" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C55" s="48" t="s">
         <v>73</v>
       </c>
       <c r="D55" s="48" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="E55" s="48" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="F55" s="48"/>
       <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
+      <c r="H55" s="48">
+        <v>2.54</v>
+      </c>
       <c r="I55" s="52"/>
       <c r="J55" s="52" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K55" s="52"/>
       <c r="L55" s="48" t="s">
-        <v>152</v>
+        <v>241</v>
       </c>
       <c r="M55" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>DigiKey</v>
+        <v>Amazon</v>
       </c>
       <c r="N55" s="50">
-        <v>0.14000000000000001</v>
+        <v>7.55</v>
       </c>
       <c r="O55" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P55" s="32">
         <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="25"/>
+        <v>7.55</v>
+      </c>
+      <c r="Q55" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R55" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="S55" s="8"/>
+      <c r="T55">
+        <f>IF(AND(Q55="Nicht Gekauft", R55="Benötigt"), P55, 0)</f>
+        <v>7.55</v>
+      </c>
       <c r="U55">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AF55" t="s">
-        <v>343</v>
-      </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A56" s="48" t="s">
-        <v>314</v>
+      <c r="A56" s="53" t="s">
+        <v>155</v>
       </c>
       <c r="B56" s="48" t="s">
-        <v>398</v>
+        <v>72</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="D56" s="48" t="s">
-        <v>283</v>
+        <v>140</v>
       </c>
       <c r="E56" s="48" t="s">
-        <v>315</v>
+        <v>144</v>
       </c>
       <c r="F56" s="48"/>
       <c r="G56" s="48"/>
-      <c r="H56" s="48">
-        <v>2.54</v>
-      </c>
+      <c r="H56" s="48"/>
       <c r="I56" s="52"/>
       <c r="J56" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K56" s="52"/>
       <c r="L56" s="48" t="s">
-        <v>284</v>
+        <v>139</v>
       </c>
       <c r="M56" s="48" t="str">
         <f t="shared" si="2"/>
         <v>DigiKey</v>
       </c>
       <c r="N56" s="50">
-        <v>0.78</v>
+        <v>0.22</v>
       </c>
       <c r="O56" s="51">
         <v>1</v>
       </c>
       <c r="P56" s="32">
         <f t="shared" si="0"/>
-        <v>0.78</v>
+        <v>0.22</v>
       </c>
       <c r="Q56" s="33"/>
       <c r="R56" s="25"/>
       <c r="S56" s="8"/>
+      <c r="U56">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A57" s="48" t="s">
-        <v>314</v>
+      <c r="A57" s="53" t="s">
+        <v>155</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="C57" s="48" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="D57" s="48" t="s">
-        <v>281</v>
+        <v>147</v>
       </c>
       <c r="E57" s="48" t="s">
-        <v>316</v>
+        <v>145</v>
       </c>
       <c r="F57" s="48"/>
       <c r="G57" s="48"/>
-      <c r="H57" s="48">
-        <v>2.54</v>
-      </c>
+      <c r="H57" s="48"/>
       <c r="I57" s="52"/>
       <c r="J57" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K57" s="52"/>
       <c r="L57" s="48" t="s">
-        <v>282</v>
+        <v>149</v>
       </c>
       <c r="M57" s="48" t="str">
-        <f>HYPERLINK(L57,J57)</f>
+        <f t="shared" si="2"/>
         <v>DigiKey</v>
       </c>
       <c r="N57" s="50">
-        <v>1.73</v>
+        <v>0.18</v>
       </c>
       <c r="O57" s="51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P57" s="32">
         <f t="shared" si="0"/>
-        <v>1.73</v>
-      </c>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="25"/>
+        <v>0.72</v>
+      </c>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="31"/>
       <c r="S57" s="8"/>
+      <c r="U57">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A58" s="48" t="s">
-        <v>317</v>
+      <c r="A58" s="53" t="s">
+        <v>155</v>
       </c>
       <c r="B58" s="48" t="s">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="C58" s="48" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="D58" s="48" t="s">
-        <v>285</v>
+        <v>148</v>
       </c>
       <c r="E58" s="48" t="s">
-        <v>318</v>
+        <v>146</v>
       </c>
       <c r="F58" s="48"/>
       <c r="G58" s="48"/>
-      <c r="H58" s="48">
-        <v>1</v>
-      </c>
+      <c r="H58" s="48"/>
       <c r="I58" s="52"/>
       <c r="J58" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K58" s="52"/>
       <c r="L58" s="48" t="s">
-        <v>286</v>
+        <v>150</v>
       </c>
       <c r="M58" s="48" t="str">
         <f t="shared" si="2"/>
         <v>DigiKey</v>
       </c>
       <c r="N58" s="50">
-        <v>1.46</v>
-      </c>
-      <c r="O58" s="51"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O58" s="51">
+        <v>2</v>
+      </c>
       <c r="P58" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q58" s="33"/>
       <c r="R58" s="25"/>
       <c r="S58" s="8"/>
+      <c r="U58">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B59" s="48" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C59" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="D59" s="48">
-        <v>5013300200</v>
+        <v>158</v>
+      </c>
+      <c r="D59" s="48" t="s">
+        <v>281</v>
       </c>
       <c r="E59" s="48" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F59" s="48"/>
       <c r="G59" s="48"/>
       <c r="H59" s="48">
-        <v>1</v>
+        <v>2.54</v>
       </c>
       <c r="I59" s="52"/>
       <c r="J59" s="52" t="s">
@@ -5509,21 +5534,21 @@
       </c>
       <c r="K59" s="52"/>
       <c r="L59" s="48" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="M59" s="48" t="str">
         <f t="shared" si="2"/>
         <v>DigiKey</v>
       </c>
       <c r="N59" s="50">
-        <v>0.21</v>
+        <v>0.78</v>
       </c>
       <c r="O59" s="51">
         <v>1</v>
       </c>
       <c r="P59" s="32">
         <f t="shared" si="0"/>
-        <v>0.21</v>
+        <v>0.78</v>
       </c>
       <c r="Q59" s="33"/>
       <c r="R59" s="25"/>
@@ -5531,24 +5556,24 @@
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B60" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C60" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="D60" s="48">
-        <v>665103131822</v>
+        <v>158</v>
+      </c>
+      <c r="D60" s="48" t="s">
+        <v>279</v>
       </c>
       <c r="E60" s="48" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F60" s="48"/>
       <c r="G60" s="48"/>
       <c r="H60" s="48">
-        <v>1</v>
+        <v>2.54</v>
       </c>
       <c r="I60" s="52"/>
       <c r="J60" s="52" t="s">
@@ -5556,21 +5581,21 @@
       </c>
       <c r="K60" s="52"/>
       <c r="L60" s="48" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="M60" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK(L60,J60)</f>
         <v>DigiKey</v>
       </c>
       <c r="N60" s="50">
-        <v>0.75</v>
+        <v>1.73</v>
       </c>
       <c r="O60" s="51">
         <v>1</v>
       </c>
       <c r="P60" s="32">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q60" s="33"/>
       <c r="R60" s="25"/>
@@ -5578,19 +5603,19 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C61" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="D61" s="48">
-        <v>665003113322</v>
+        <v>158</v>
+      </c>
+      <c r="D61" s="48" t="s">
+        <v>283</v>
       </c>
       <c r="E61" s="48" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F61" s="48"/>
       <c r="G61" s="48"/>
@@ -5603,48 +5628,44 @@
       </c>
       <c r="K61" s="52"/>
       <c r="L61" s="48" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M61" s="48" t="str">
         <f t="shared" si="2"/>
         <v>DigiKey</v>
       </c>
       <c r="N61" s="50">
-        <v>0.2</v>
-      </c>
-      <c r="O61" s="51">
-        <v>1</v>
-      </c>
+        <v>1.46</v>
+      </c>
+      <c r="O61" s="51"/>
       <c r="P61" s="32">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="33"/>
       <c r="R61" s="25"/>
       <c r="S61" s="8"/>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A62" s="53" t="s">
-        <v>322</v>
+      <c r="A62" s="48" t="s">
+        <v>315</v>
       </c>
       <c r="B62" s="48" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C62" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="D62" s="48" t="s">
-        <v>292</v>
+        <v>158</v>
+      </c>
+      <c r="D62" s="48">
+        <v>5013300200</v>
       </c>
       <c r="E62" s="48" t="s">
-        <v>324</v>
-      </c>
-      <c r="F62" s="48" t="s">
-        <v>323</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="F62" s="48"/>
       <c r="G62" s="48"/>
       <c r="H62" s="48">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="I62" s="52"/>
       <c r="J62" s="52" t="s">
@@ -5652,50 +5673,46 @@
       </c>
       <c r="K62" s="52"/>
       <c r="L62" s="48" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="M62" s="48" t="str">
         <f t="shared" si="2"/>
         <v>DigiKey</v>
       </c>
       <c r="N62" s="50">
-        <v>1.24</v>
+        <v>0.21</v>
       </c>
       <c r="O62" s="51">
         <v>1</v>
       </c>
       <c r="P62" s="32">
         <f t="shared" si="0"/>
-        <v>1.24</v>
+        <v>0.21</v>
       </c>
       <c r="Q62" s="33"/>
       <c r="R62" s="25"/>
       <c r="S62" s="8"/>
-      <c r="U62">
-        <f t="shared" ref="U62:U68" si="15">SUBTOTAL(103, G62)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A63" s="53" t="s">
-        <v>322</v>
-      </c>
-      <c r="B63" s="64" t="s">
-        <v>410</v>
+      <c r="A63" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="B63" s="48" t="s">
+        <v>396</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>325</v>
-      </c>
-      <c r="D63" s="48" t="s">
-        <v>294</v>
+        <v>158</v>
+      </c>
+      <c r="D63" s="48">
+        <v>665103131822</v>
       </c>
       <c r="E63" s="48" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F63" s="48"/>
       <c r="G63" s="48"/>
       <c r="H63" s="48">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="I63" s="52"/>
       <c r="J63" s="52" t="s">
@@ -5703,50 +5720,46 @@
       </c>
       <c r="K63" s="52"/>
       <c r="L63" s="48" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="M63" s="48" t="str">
         <f t="shared" si="2"/>
         <v>DigiKey</v>
       </c>
       <c r="N63" s="50">
-        <v>0.32</v>
+        <v>0.75</v>
       </c>
       <c r="O63" s="51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P63" s="32">
         <f t="shared" si="0"/>
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="Q63" s="33"/>
       <c r="R63" s="25"/>
       <c r="S63" s="8"/>
-      <c r="U63">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A64" s="53" t="s">
-        <v>322</v>
+      <c r="A64" s="48" t="s">
+        <v>315</v>
       </c>
       <c r="B64" s="48" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="D64" s="48" t="s">
-        <v>296</v>
+        <v>158</v>
+      </c>
+      <c r="D64" s="48">
+        <v>665003113322</v>
       </c>
       <c r="E64" s="48" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F64" s="48"/>
       <c r="G64" s="48"/>
       <c r="H64" s="48">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="I64" s="52"/>
       <c r="J64" s="52" t="s">
@@ -5754,50 +5767,48 @@
       </c>
       <c r="K64" s="52"/>
       <c r="L64" s="48" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M64" s="48" t="str">
         <f t="shared" si="2"/>
         <v>DigiKey</v>
       </c>
       <c r="N64" s="50">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="O64" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P64" s="32">
         <f t="shared" si="0"/>
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="Q64" s="33"/>
       <c r="R64" s="25"/>
       <c r="S64" s="8"/>
-      <c r="U64">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="53" t="s">
-        <v>405</v>
+        <v>320</v>
       </c>
       <c r="B65" s="48" t="s">
-        <v>329</v>
+        <v>401</v>
       </c>
       <c r="C65" s="48" t="s">
-        <v>331</v>
-      </c>
-      <c r="D65" s="48">
-        <v>665002113322</v>
+        <v>158</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>290</v>
       </c>
       <c r="E65" s="48" t="s">
-        <v>328</v>
-      </c>
-      <c r="F65" s="48"/>
+        <v>322</v>
+      </c>
+      <c r="F65" s="48" t="s">
+        <v>321</v>
+      </c>
       <c r="G65" s="48"/>
       <c r="H65" s="48">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="I65" s="52"/>
       <c r="J65" s="52" t="s">
@@ -5805,53 +5816,50 @@
       </c>
       <c r="K65" s="52"/>
       <c r="L65" s="48" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M65" s="48" t="str">
         <f t="shared" si="2"/>
         <v>DigiKey</v>
       </c>
       <c r="N65" s="50">
-        <v>0.13</v>
+        <v>1.24</v>
       </c>
       <c r="O65" s="51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P65" s="32">
         <f t="shared" si="0"/>
-        <v>0.52</v>
+        <v>1.24</v>
       </c>
       <c r="Q65" s="33"/>
       <c r="R65" s="25"/>
       <c r="S65" s="8"/>
       <c r="U65">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="U65:U69" si="15">SUBTOTAL(103, G65)</f>
         <v>0</v>
-      </c>
-      <c r="AF65" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="53" t="s">
-        <v>405</v>
-      </c>
-      <c r="B66" s="48" t="s">
-        <v>330</v>
+        <v>320</v>
+      </c>
+      <c r="B66" s="56" t="s">
+        <v>408</v>
       </c>
       <c r="C66" s="48" t="s">
-        <v>331</v>
-      </c>
-      <c r="D66" s="48">
-        <v>665102131822</v>
+        <v>323</v>
+      </c>
+      <c r="D66" s="48" t="s">
+        <v>292</v>
       </c>
       <c r="E66" s="48" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="F66" s="48"/>
       <c r="G66" s="48"/>
       <c r="H66" s="48">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="I66" s="52"/>
       <c r="J66" s="52" t="s">
@@ -5866,14 +5874,14 @@
         <v>DigiKey</v>
       </c>
       <c r="N66" s="50">
-        <v>0.61</v>
+        <v>0.32</v>
       </c>
       <c r="O66" s="51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P66" s="32">
         <f t="shared" si="0"/>
-        <v>2.44</v>
+        <v>0.96</v>
       </c>
       <c r="Q66" s="33"/>
       <c r="R66" s="25"/>
@@ -5882,69 +5890,56 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AF66" t="s">
-        <v>345</v>
-      </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
+      <c r="A67" s="53" t="s">
+        <v>320</v>
+      </c>
       <c r="B67" s="48" t="s">
-        <v>33</v>
+        <v>402</v>
       </c>
       <c r="C67" s="48" t="s">
-        <v>307</v>
-      </c>
-      <c r="D67" s="48">
-        <v>971070154</v>
+        <v>158</v>
+      </c>
+      <c r="D67" s="48" t="s">
+        <v>294</v>
       </c>
       <c r="E67" s="48" t="s">
-        <v>34</v>
+        <v>325</v>
       </c>
       <c r="F67" s="48"/>
       <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
+      <c r="H67" s="48">
+        <v>1.27</v>
+      </c>
       <c r="I67" s="52"/>
       <c r="J67" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K67" s="52"/>
       <c r="L67" s="48" t="s">
-        <v>36</v>
+        <v>291</v>
       </c>
       <c r="M67" s="48" t="str">
-        <f>HYPERLINK(L67,J67)</f>
+        <f t="shared" si="2"/>
         <v>DigiKey</v>
       </c>
       <c r="N67" s="50">
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
       <c r="O67" s="51">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P67" s="32">
-        <f>N67*O67</f>
-        <v>7.04</v>
-      </c>
-      <c r="Q67" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R67" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="S67" s="6"/>
-      <c r="T67">
-        <f>IF(AND(Q67="Nicht Gekauft", R67="Benötigt"), P67, 0)</f>
-        <v>7.04</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="8"/>
       <c r="U67">
         <f t="shared" si="15"/>
         <v>0</v>
-      </c>
-      <c r="AF67" t="s">
-        <v>370</v>
-      </c>
-      <c r="AG67" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
@@ -5953,13 +5948,13 @@
         <v>33</v>
       </c>
       <c r="C68" s="48" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D68" s="48">
-        <v>971110154</v>
+        <v>971070154</v>
       </c>
       <c r="E68" s="48" t="s">
-        <v>387</v>
+        <v>34</v>
       </c>
       <c r="F68" s="48"/>
       <c r="G68" s="48"/>
@@ -5970,45 +5965,57 @@
       </c>
       <c r="K68" s="52"/>
       <c r="L68" s="48" t="s">
-        <v>388</v>
+        <v>36</v>
       </c>
       <c r="M68" s="48" t="str">
-        <f>HYPERLINK(L68,J68)</f>
+        <f t="shared" ref="M68:M74" si="16">HYPERLINK(L68,J68)</f>
         <v>DigiKey</v>
       </c>
       <c r="N68" s="50">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="O68" s="51">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P68" s="32">
-        <f>N68*O68</f>
-        <v>3</v>
-      </c>
-      <c r="Q68" s="33"/>
-      <c r="R68" s="25"/>
+        <f t="shared" ref="P68:P74" si="17">N68*O68</f>
+        <v>7.04</v>
+      </c>
+      <c r="Q68" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R68" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S68" s="6"/>
+      <c r="T68">
+        <f>IF(AND(Q68="Nicht Gekauft", R68="Benötigt"), P68, 0)</f>
+        <v>7.04</v>
+      </c>
       <c r="U68">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="AF68" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A69" s="48" t="s">
-        <v>308</v>
-      </c>
+      <c r="A69" s="48"/>
       <c r="B69" s="48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C69" s="48" t="s">
-        <v>307</v>
-      </c>
-      <c r="D69" s="48" t="s">
-        <v>38</v>
+        <v>305</v>
+      </c>
+      <c r="D69" s="48">
+        <v>971110154</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>39</v>
+        <v>385</v>
       </c>
       <c r="F69" s="48"/>
       <c r="G69" s="48"/>
@@ -6019,50 +6026,42 @@
       </c>
       <c r="K69" s="52"/>
       <c r="L69" s="48" t="s">
-        <v>40</v>
+        <v>386</v>
       </c>
       <c r="M69" s="48" t="str">
-        <f>HYPERLINK(L69,J69)</f>
+        <f t="shared" si="16"/>
         <v>DigiKey</v>
       </c>
       <c r="N69" s="50">
-        <v>0.56999999999999995</v>
+        <v>0.75</v>
       </c>
       <c r="O69" s="51">
         <v>4</v>
       </c>
       <c r="P69" s="32">
-        <f>N69*O69</f>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="Q69" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R69" s="31" t="s">
-        <v>95</v>
-      </c>
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="25"/>
       <c r="S69" s="6"/>
-      <c r="T69">
-        <f>IF(AND(Q69="Nicht Gekauft", R69="Benötigt"), P69, 0)</f>
-        <v>2.2799999999999998</v>
-      </c>
       <c r="U69">
-        <f>SUBTOTAL(103, G69)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B70" s="48" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C70" s="48" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D70" s="48" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E70" s="48" t="s">
         <v>39</v>
@@ -6076,32 +6075,32 @@
       </c>
       <c r="K70" s="52"/>
       <c r="L70" s="48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M70" s="48" t="str">
-        <f>HYPERLINK(L70,J70)</f>
+        <f t="shared" si="16"/>
         <v>DigiKey</v>
       </c>
       <c r="N70" s="50">
-        <v>0.55000000000000004</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="O70" s="51">
         <v>4</v>
       </c>
       <c r="P70" s="32">
-        <f>N70*O70</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q70" s="33" t="s">
+        <f t="shared" si="17"/>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="Q70" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="R70" s="25" t="s">
+      <c r="R70" s="31" t="s">
         <v>95</v>
       </c>
       <c r="S70" s="6"/>
       <c r="T70">
         <f>IF(AND(Q70="Nicht Gekauft", R70="Benötigt"), P70, 0)</f>
-        <v>2.2000000000000002</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="U70">
         <f>SUBTOTAL(103, G70)</f>
@@ -6109,20 +6108,20 @@
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A71" s="53" t="s">
-        <v>311</v>
+      <c r="A71" s="48" t="s">
+        <v>306</v>
       </c>
       <c r="B71" s="48" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C71" s="48" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D71" s="48" t="s">
-        <v>303</v>
+        <v>42</v>
       </c>
       <c r="E71" s="48" t="s">
-        <v>310</v>
+        <v>39</v>
       </c>
       <c r="F71" s="48"/>
       <c r="G71" s="48"/>
@@ -6131,55 +6130,55 @@
       <c r="J71" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K71" s="48" t="s">
-        <v>309</v>
-      </c>
+      <c r="K71" s="52"/>
       <c r="L71" s="48" t="s">
-        <v>304</v>
+        <v>43</v>
       </c>
       <c r="M71" s="48" t="str">
-        <f>HYPERLINK(L71,J71)</f>
+        <f t="shared" si="16"/>
         <v>DigiKey</v>
       </c>
       <c r="N71" s="50">
-        <v>2.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O71" s="51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P71" s="32">
-        <f>N71*O71</f>
-        <v>5.2</v>
-      </c>
-      <c r="Q71" s="33"/>
-      <c r="R71" s="25"/>
+        <f t="shared" si="17"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q71" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R71" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S71" s="6"/>
+      <c r="T71">
+        <f>IF(AND(Q71="Nicht Gekauft", R71="Benötigt"), P71, 0)</f>
+        <v>2.2000000000000002</v>
+      </c>
       <c r="U71">
-        <f t="shared" ref="U71:U73" si="16">SUBTOTAL(103, G71)</f>
+        <f>SUBTOTAL(103, G71)</f>
         <v>0</v>
-      </c>
-      <c r="AF71" t="s">
-        <v>371</v>
-      </c>
-      <c r="AG71" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="53" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B72" s="48" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C72" s="48" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D72" s="48" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E72" s="48" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F72" s="48"/>
       <c r="G72" s="48"/>
@@ -6189,158 +6188,159 @@
         <v>35</v>
       </c>
       <c r="K72" s="48" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L72" s="48" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M72" s="48" t="str">
-        <f>HYPERLINK(L72,J72)</f>
+        <f t="shared" si="16"/>
         <v>DigiKey</v>
       </c>
       <c r="N72" s="50">
-        <v>1.53</v>
+        <v>2.6</v>
       </c>
       <c r="O72" s="51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P72" s="32">
-        <f>N72*O72</f>
-        <v>1.53</v>
+        <f t="shared" si="17"/>
+        <v>5.2</v>
       </c>
       <c r="Q72" s="33"/>
       <c r="R72" s="25"/>
       <c r="S72" s="6"/>
       <c r="U72">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="U72:U74" si="18">SUBTOTAL(103, G72)</f>
         <v>0</v>
       </c>
       <c r="AF72" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AG72" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="53" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B73" s="48" t="s">
-        <v>377</v>
+        <v>41</v>
       </c>
       <c r="C73" s="48" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D73" s="48" t="s">
-        <v>378</v>
+        <v>303</v>
       </c>
       <c r="E73" s="48" t="s">
-        <v>379</v>
+        <v>308</v>
       </c>
       <c r="F73" s="48"/>
       <c r="G73" s="48"/>
       <c r="H73" s="48"/>
       <c r="I73" s="52"/>
       <c r="J73" s="52" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K73" s="48" t="s">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="L73" s="48" t="s">
-        <v>380</v>
+        <v>304</v>
       </c>
       <c r="M73" s="48" t="str">
-        <f>HYPERLINK(L73,J73)</f>
-        <v>Mouser</v>
+        <f t="shared" si="16"/>
+        <v>DigiKey</v>
       </c>
       <c r="N73" s="50">
-        <v>2.17</v>
+        <v>1.53</v>
       </c>
       <c r="O73" s="51">
         <v>1</v>
       </c>
       <c r="P73" s="32">
-        <f>N73*O73</f>
-        <v>2.17</v>
+        <f t="shared" si="17"/>
+        <v>1.53</v>
       </c>
       <c r="Q73" s="33"/>
       <c r="R73" s="25"/>
       <c r="S73" s="6"/>
       <c r="U73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF73" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="AG73" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A74" s="48" t="s">
-        <v>408</v>
+      <c r="A74" s="53" t="s">
+        <v>309</v>
       </c>
       <c r="B74" s="48" t="s">
-        <v>46</v>
+        <v>375</v>
       </c>
       <c r="C74" s="48" t="s">
-        <v>47</v>
+        <v>305</v>
       </c>
       <c r="D74" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E74" s="52" t="s">
-        <v>48</v>
+        <v>376</v>
+      </c>
+      <c r="E74" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="F74" s="48"/>
       <c r="G74" s="48"/>
       <c r="H74" s="48"/>
       <c r="I74" s="52"/>
       <c r="J74" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="K74" s="52"/>
+        <v>45</v>
+      </c>
+      <c r="K74" s="48" t="s">
+        <v>379</v>
+      </c>
       <c r="L74" s="48" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="M74" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>Amazon</v>
+        <f t="shared" si="16"/>
+        <v>Mouser</v>
       </c>
       <c r="N74" s="50">
-        <v>8.66</v>
+        <v>2.17</v>
       </c>
       <c r="O74" s="51">
         <v>1</v>
       </c>
       <c r="P74" s="32">
-        <f t="shared" si="0"/>
-        <v>8.66</v>
-      </c>
-      <c r="Q74" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="R74" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="T74">
-        <f>IF(AND(Q74="Nicht Gekauft", R74="Benötigt"), P74, 0)</f>
+        <f t="shared" si="17"/>
+        <v>2.17</v>
+      </c>
+      <c r="Q74" s="33"/>
+      <c r="R74" s="25"/>
+      <c r="S74" s="6"/>
+      <c r="U74">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U74">
-        <f>SUBTOTAL(103, G74)</f>
-        <v>0</v>
+      <c r="AF74" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B75" s="48" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C75" s="48" t="s">
         <v>47</v>
@@ -6348,8 +6348,8 @@
       <c r="D75" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E75" s="48" t="s">
-        <v>53</v>
+      <c r="E75" s="52" t="s">
+        <v>48</v>
       </c>
       <c r="F75" s="48"/>
       <c r="G75" s="48"/>
@@ -6360,26 +6360,26 @@
       </c>
       <c r="K75" s="52"/>
       <c r="L75" s="48" t="s">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="M75" s="48" t="str">
         <f t="shared" si="2"/>
         <v>Amazon</v>
       </c>
       <c r="N75" s="50">
-        <v>5.99</v>
+        <v>8.66</v>
       </c>
       <c r="O75" s="51">
         <v>1</v>
       </c>
-      <c r="P75" s="29">
+      <c r="P75" s="32">
         <f t="shared" si="0"/>
-        <v>5.99</v>
-      </c>
-      <c r="Q75" s="30" t="s">
+        <v>8.66</v>
+      </c>
+      <c r="Q75" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="R75" s="31" t="s">
+      <c r="R75" s="25" t="s">
         <v>95</v>
       </c>
       <c r="T75">
@@ -6393,10 +6393,10 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B76" s="48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C76" s="48" t="s">
         <v>47</v>
@@ -6405,7 +6405,7 @@
         <v>31</v>
       </c>
       <c r="E76" s="48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F76" s="48"/>
       <c r="G76" s="48"/>
@@ -6416,26 +6416,26 @@
       </c>
       <c r="K76" s="52"/>
       <c r="L76" s="48" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M76" s="48" t="str">
         <f t="shared" si="2"/>
         <v>Amazon</v>
       </c>
       <c r="N76" s="50">
-        <v>18.14</v>
+        <v>5.99</v>
       </c>
       <c r="O76" s="51">
         <v>1</v>
       </c>
-      <c r="P76" s="32">
+      <c r="P76" s="29">
         <f t="shared" si="0"/>
-        <v>18.14</v>
-      </c>
-      <c r="Q76" s="33" t="s">
+        <v>5.99</v>
+      </c>
+      <c r="Q76" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="R76" s="25" t="s">
+      <c r="R76" s="31" t="s">
         <v>95</v>
       </c>
       <c r="T76">
@@ -6448,229 +6448,356 @@
       </c>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="17"/>
-    </row>
-    <row r="78" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F78" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="79" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F79" s="42" t="s">
+      <c r="A77" s="48" t="s">
+        <v>406</v>
+      </c>
+      <c r="B77" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="K77" s="52"/>
+      <c r="L77" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="M77" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>Amazon</v>
+      </c>
+      <c r="N77" s="50">
+        <v>18.14</v>
+      </c>
+      <c r="O77" s="51">
+        <v>1</v>
+      </c>
+      <c r="P77" s="32">
+        <f t="shared" si="0"/>
+        <v>18.14</v>
+      </c>
+      <c r="Q77" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="R77" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="T77">
+        <f>IF(AND(Q77="Nicht Gekauft", R77="Benötigt"), P77, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <f>SUBTOTAL(103, G77)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="16"/>
+      <c r="Q78" s="17"/>
+    </row>
+    <row r="79" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F79" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F80" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="G80" s="42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="81" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F81" s="43">
+        <f>SUMPRODUCT(F2:F77, O2:O77, U2:U77)</f>
+        <v>5.7779999999999996</v>
+      </c>
+      <c r="G81" s="43" cm="1">
+        <f t="array" ref="G81">SUMPRODUCT(--(G2:G77=12), F2:F77, O2:O77, U2:U77)</f>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="82" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G83" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="G79" s="42" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="80" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F80" s="43">
-        <f>SUMPRODUCT(F2:F76, O2:O76, U2:U76)</f>
-        <v>5.7779999999999996</v>
-      </c>
-      <c r="G80" s="43" cm="1">
-        <f t="array" ref="G80">SUMPRODUCT(--(G2:G76=12), F2:F76, O2:O76, U2:U76)</f>
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="81" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H81" s="3"/>
-    </row>
-    <row r="82" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G82" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="H82" s="3"/>
-    </row>
-    <row r="83" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G83" s="43" cm="1">
-        <f t="array" ref="G83">SUMPRODUCT(--(G2:G76=5), F2:F76, O2:O76, U2:U76)</f>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G84" s="43" cm="1">
+        <f t="array" ref="G84">SUMPRODUCT(--(G2:G77=5), F2:F77, O2:O77, U2:U77)</f>
         <v>2.738</v>
       </c>
-    </row>
-    <row r="84" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H84" s="3"/>
     </row>
     <row r="85" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F86" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>256</v>
-      </c>
+    <row r="86" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F87" s="37" t="s">
+    <row r="87" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F87" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F88" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="G88" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F89" s="38">
+        <f>F81*$F$92</f>
+        <v>8.6669999999999998</v>
+      </c>
+      <c r="G89" s="38">
+        <f>G81*$F$92</f>
+        <v>4.5600000000000005</v>
+      </c>
+      <c r="H89" s="3"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+    </row>
+    <row r="90" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F91" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="G91" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="G87" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="H87" s="3"/>
-    </row>
-    <row r="88" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F88" s="38">
-        <f>F80*$F$91</f>
-        <v>8.6669999999999998</v>
-      </c>
-      <c r="G88" s="38">
-        <f>G80*$F$91</f>
-        <v>4.5600000000000005</v>
-      </c>
-      <c r="H88" s="3"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-    </row>
-    <row r="89" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F90" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="G90" s="37" t="s">
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F92" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="G92" s="38">
+        <f>G84*$F$92</f>
+        <v>4.1070000000000002</v>
+      </c>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H93" s="3"/>
+      <c r="I93" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F94" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F91" s="41">
-        <v>1.5</v>
-      </c>
-      <c r="G91" s="38">
-        <f>G83*$F$91</f>
-        <v>4.1070000000000002</v>
-      </c>
-      <c r="H91" s="3"/>
-    </row>
-    <row r="92" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H92" s="3"/>
-      <c r="I92" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="93" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F93" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="94" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F94" s="46">
-        <f>SUM(F2:F76)</f>
+      <c r="G94" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="95" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="46">
+        <f>SUM(F2:F77)</f>
         <v>4.622399999999999</v>
       </c>
-      <c r="G94" s="45" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="95" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G95" s="47">
+      <c r="G95" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G96" s="47">
         <v>3.04</v>
       </c>
     </row>
-    <row r="96" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
-    </row>
-    <row r="97" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F97" s="39"/>
-      <c r="G97" s="44" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="98" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G97" s="39"/>
+    </row>
+    <row r="98" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F98" s="39"/>
-      <c r="G98" s="46">
+      <c r="G98" s="44" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F99" s="39"/>
+      <c r="G99" s="46">
         <v>2.548</v>
-      </c>
-    </row>
-    <row r="100" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F100" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="101" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F101" t="s">
-        <v>267</v>
-      </c>
-      <c r="G101">
-        <v>8</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G102">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F103" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>267</v>
+      </c>
+      <c r="G104">
         <v>0.05</v>
-      </c>
-    </row>
-    <row r="105" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F105" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="106" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F106" t="s">
-        <v>270</v>
-      </c>
-      <c r="G106">
-        <f>G101-G88</f>
-        <v>3.4399999999999995</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F107" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G107">
-        <f>G102+G103-G91</f>
+        <f>G102-G89</f>
+        <v>3.4399999999999995</v>
+      </c>
+    </row>
+    <row r="108" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>269</v>
+      </c>
+      <c r="G108">
+        <f>G103+G104-G92</f>
         <v>0.94299999999999962</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R76" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}"/>
+  <autoFilter ref="A1:R77" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}"/>
   <customSheetViews>
+    <customSheetView guid="{1253E34A-3A91-496E-8486-95C1D21A2085}" showAutoFilter="1" hiddenColumns="1" topLeftCell="B1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE10" sqref="AE10"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A1:R76" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}"/>
+    </customSheetView>
+    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A1:R59" xr:uid="{9DE29C60-E3C0-4B17-9F5F-7C375DB18647}"/>
+    </customSheetView>
+    <customSheetView guid="{3411E606-57DF-4B4E-942D-8A879EBC3FAD}" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A1:R76" xr:uid="{D91B947C-B158-4BD6-9390-4A4CD85ED453}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BL"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="Lk2"/>
+            <filter val="POW2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="ST_TEMP"/>
+            <filter val="ST3"/>
+            <filter val="SV2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{0C0F82AC-DC21-4B4A-94AC-E96E30BF52DE}" filter="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P79" sqref="P79"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A1:R76" xr:uid="{D3B25007-107E-4D62-AD20-FEC58E066D51}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BL"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="Lk2"/>
+            <filter val="POW2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="ST_TEMP"/>
+            <filter val="ST3"/>
+            <filter val="SV2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{4300A442-0A40-4FB1-A9F3-2AB99D5A4993}" showAutoFilter="1" topLeftCell="B1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+      <autoFilter ref="A1:R76" xr:uid="{0D642323-F386-4D64-930E-5472F8BC82C0}"/>
+    </customSheetView>
     <customSheetView guid="{E35F6895-3697-4266-BC90-C5022F400E13}" filter="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O83" sqref="B1:O83"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R76" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+      <autoFilter ref="A1:R76" xr:uid="{14FAAA51-3C1C-4CC0-9F91-399BF121EB4D}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6695,93 +6822,6 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{4300A442-0A40-4FB1-A9F3-2AB99D5A4993}" showAutoFilter="1" topLeftCell="B1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R76" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}"/>
-    </customSheetView>
-    <customSheetView guid="{0C0F82AC-DC21-4B4A-94AC-E96E30BF52DE}" filter="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P79" sqref="P79"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R76" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BL"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
-            <filter val="Lk2"/>
-            <filter val="POW2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="ST_TEMP"/>
-            <filter val="ST3"/>
-            <filter val="SV2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{3411E606-57DF-4B4E-942D-8A879EBC3FAD}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R76" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BL"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
-            <filter val="Lk2"/>
-            <filter val="POW2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="ST_TEMP"/>
-            <filter val="ST3"/>
-            <filter val="SV2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{36C50999-9392-45D3-927D-2C21A30118D3}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-      <autoFilter ref="A1:R78" xr:uid="{EF6EF37E-CEA4-4D65-A111-C9E496D2DB8F}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BL"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
-            <filter val="POW2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="ST4"/>
-            <filter val="SV2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-      <autoFilter ref="A1:R59" xr:uid="{29B9DE3D-B4EE-4846-97F5-85D680BC97C7}"/>
-    </customSheetView>
   </customSheetViews>
   <mergeCells count="4">
     <mergeCell ref="AB1:AC1"/>
@@ -6802,7 +6842,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q84:Q1048576 Q1:Q82">
+  <conditionalFormatting sqref="Q85:Q1048576 Q1:Q83">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Nicht Gekauft"</formula>
     </cfRule>
@@ -6818,7 +6858,7 @@
       <formula>"Gekauft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R77">
+  <conditionalFormatting sqref="R2:R78">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Nicht benötigt"</formula>
     </cfRule>
@@ -6827,25 +6867,25 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R77" xr:uid="{DF639F38-DCBF-4FB0-9016-BE70B5447265}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R19 R20:R78" xr:uid="{DF639F38-DCBF-4FB0-9016-BE70B5447265}">
       <formula1>"Benötigt,Nicht benötigt"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q77" xr:uid="{BB82D80E-695D-4A38-A148-48463DFE8321}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q19 Q20:Q78" xr:uid="{BB82D80E-695D-4A38-A148-48463DFE8321}">
       <formula1>"Gekauft,Nicht Gekauft"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId7" xr:uid="{134576B2-6870-47F8-80B5-95CA9B97F9E2}"/>
-    <hyperlink ref="L67" r:id="rId8" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
-    <hyperlink ref="L69" r:id="rId9" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
-    <hyperlink ref="L70" r:id="rId10" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
-    <hyperlink ref="L74" r:id="rId11" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
+    <hyperlink ref="L68" r:id="rId8" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
+    <hyperlink ref="L70" r:id="rId9" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
+    <hyperlink ref="L71" r:id="rId10" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
+    <hyperlink ref="L75" r:id="rId11" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
     <hyperlink ref="L25" r:id="rId12" xr:uid="{57963C92-CE56-4D91-B1F1-7FA05F5BC3A8}"/>
     <hyperlink ref="L24" r:id="rId13" xr:uid="{9D795571-0999-43FF-9A1F-496FF99C86C0}"/>
     <hyperlink ref="L18" r:id="rId14" xr:uid="{8465788D-FDE3-460C-960F-435D2FB5F396}"/>
-    <hyperlink ref="L47" r:id="rId15" xr:uid="{A9D6150D-3C06-4D81-AD60-047F4F409296}"/>
-    <hyperlink ref="L48" r:id="rId16" xr:uid="{411A7094-1AC1-4084-ABE4-5C0060EC1A2D}"/>
-    <hyperlink ref="L49" r:id="rId17" xr:uid="{3DDB6C5A-7DB3-4C65-B604-D02293535F49}"/>
+    <hyperlink ref="L50" r:id="rId15" xr:uid="{A9D6150D-3C06-4D81-AD60-047F4F409296}"/>
+    <hyperlink ref="L51" r:id="rId16" xr:uid="{411A7094-1AC1-4084-ABE4-5C0060EC1A2D}"/>
+    <hyperlink ref="L52" r:id="rId17" xr:uid="{3DDB6C5A-7DB3-4C65-B604-D02293535F49}"/>
     <hyperlink ref="L15" r:id="rId18" xr:uid="{56E44BCE-942A-4E32-8574-907151789664}"/>
     <hyperlink ref="L7" r:id="rId19" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
     <hyperlink ref="L3" r:id="rId20" xr:uid="{C49F6822-A4DD-42C2-B3BF-0381D137937C}"/>
@@ -6854,10 +6894,10 @@
     <hyperlink ref="L19" r:id="rId23" xr:uid="{1242A3DC-9FDC-4C47-9270-1B4A92E75E73}"/>
     <hyperlink ref="L17" r:id="rId24" xr:uid="{E62708AD-A075-4D9D-9BC8-2CBD617B66EE}"/>
     <hyperlink ref="L13" r:id="rId25" xr:uid="{02A8F53B-7033-433E-97B4-37D43B10ABDE}"/>
-    <hyperlink ref="K71" r:id="rId26" display="https://www.samtec.com/products/hle-107-02-l-dv" xr:uid="{AF2D4394-67CE-4447-B187-DA356AB0AFD4}"/>
-    <hyperlink ref="L71" r:id="rId27" xr:uid="{3CAA47B9-FD6F-4B23-A59B-6E4BF51797D7}"/>
-    <hyperlink ref="L58" r:id="rId28" xr:uid="{8FDFC79B-94E5-4C68-84E1-D5C8679D313C}"/>
-    <hyperlink ref="L59" r:id="rId29" xr:uid="{3CB626FF-165C-4A7E-A7FE-D41E681D5EC5}"/>
+    <hyperlink ref="K72" r:id="rId26" display="https://www.samtec.com/products/hle-107-02-l-dv" xr:uid="{AF2D4394-67CE-4447-B187-DA356AB0AFD4}"/>
+    <hyperlink ref="L72" r:id="rId27" xr:uid="{3CAA47B9-FD6F-4B23-A59B-6E4BF51797D7}"/>
+    <hyperlink ref="L61" r:id="rId28" xr:uid="{8FDFC79B-94E5-4C68-84E1-D5C8679D313C}"/>
+    <hyperlink ref="L62" r:id="rId29" xr:uid="{3CB626FF-165C-4A7E-A7FE-D41E681D5EC5}"/>
     <hyperlink ref="L22" r:id="rId30" xr:uid="{B06D0A87-6477-4382-AFA7-5ACA40E62DA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -8,37 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B709A894-C19E-4036-A5D0-05576A484E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989B5D9E-6314-4578-A699-3BDDD381E2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2ndMainBoard" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$69</definedName>
     <definedName name="Z_0C0F82AC_DC21_4B4A_94AC_E96E30BF52DE_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$H:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$AK</definedName>
-    <definedName name="Z_0C0F82AC_DC21_4B4A_94AC_E96E30BF52DE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$77</definedName>
-    <definedName name="Z_0C0F82AC_DC21_4B4A_94AC_E96E30BF52DE_.wvu.Rows" localSheetId="0" hidden="1">'2ndMainBoard'!$79:$79,'2ndMainBoard'!$87:$111</definedName>
+    <definedName name="Z_0C0F82AC_DC21_4B4A_94AC_E96E30BF52DE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$69</definedName>
+    <definedName name="Z_0C0F82AC_DC21_4B4A_94AC_E96E30BF52DE_.wvu.Rows" localSheetId="0" hidden="1">'2ndMainBoard'!$71:$71,'2ndMainBoard'!$79:$103</definedName>
     <definedName name="Z_1253E34A_3A91_496E_8486_95C1D21A2085_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$I,'2ndMainBoard'!$P:$U,'2ndMainBoard'!$W:$AD</definedName>
-    <definedName name="Z_1253E34A_3A91_496E_8486_95C1D21A2085_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$77</definedName>
+    <definedName name="Z_1253E34A_3A91_496E_8486_95C1D21A2085_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$69</definedName>
     <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$I:$I,'2ndMainBoard'!$M:$M,'2ndMainBoard'!$P:$R,'2ndMainBoard'!$T:$AD</definedName>
-    <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$77</definedName>
+    <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$69</definedName>
     <definedName name="Z_3411E606_57DF_4B4E_942D_8A879EBC3FAD_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$V</definedName>
-    <definedName name="Z_3411E606_57DF_4B4E_942D_8A879EBC3FAD_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$77</definedName>
-    <definedName name="Z_4300A442_0A40_4FB1_A9F3_2AB99D5A4993_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$77</definedName>
+    <definedName name="Z_3411E606_57DF_4B4E_942D_8A879EBC3FAD_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$69</definedName>
+    <definedName name="Z_4300A442_0A40_4FB1_A9F3_2AB99D5A4993_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$69</definedName>
     <definedName name="Z_E35F6895_3697_4266_BC90_C5022F400E13_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$A:$A,'2ndMainBoard'!$C:$C,'2ndMainBoard'!$E:$E,'2ndMainBoard'!$H:$N,'2ndMainBoard'!$P:$R,'2ndMainBoard'!$T:$AK</definedName>
-    <definedName name="Z_E35F6895_3697_4266_BC90_C5022F400E13_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$77</definedName>
-    <definedName name="Z_E35F6895_3697_4266_BC90_C5022F400E13_.wvu.Rows" localSheetId="0" hidden="1">'2ndMainBoard'!$79:$79,'2ndMainBoard'!$87:$111</definedName>
+    <definedName name="Z_E35F6895_3697_4266_BC90_C5022F400E13_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$69</definedName>
+    <definedName name="Z_E35F6895_3697_4266_BC90_C5022F400E13_.wvu.Rows" localSheetId="0" hidden="1">'2ndMainBoard'!$71:$71,'2ndMainBoard'!$79:$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Strombudget_Foto" guid="{E35F6895-3697-4266-BC90-C5022F400E13}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Default" guid="{4300A442-0A40-4FB1-A9F3-2AB99D5A4993}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Strombudget" guid="{0C0F82AC-DC21-4B4A-94AC-E96E30BF52DE}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan" guid="{3411E606-57DF-4B4E-942D-8A879EBC3FAD}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
     <customWorkbookView name="Anforderungen_prompt" guid="{1253E34A-3A91-496E-8486-95C1D21A2085}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan" guid="{3411E606-57DF-4B4E-942D-8A879EBC3FAD}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Strombudget" guid="{0C0F82AC-DC21-4B4A-94AC-E96E30BF52DE}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Default" guid="{4300A442-0A40-4FB1-A9F3-2AB99D5A4993}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Strombudget_Foto" guid="{E35F6895-3697-4266-BC90-C5022F400E13}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="382">
   <si>
     <t>Alternative</t>
   </si>
@@ -252,51 +252,9 @@
     <t>0.1uF, 0.22uF, 4.7uf</t>
   </si>
   <si>
-    <t>TP3</t>
-  </si>
-  <si>
-    <t>Temperatur Sensor Coldend</t>
-  </si>
-  <si>
     <t>Sensor</t>
   </si>
   <si>
-    <t>B57891M0104J000</t>
-  </si>
-  <si>
-    <t>-40/125 C; +-5%</t>
-  </si>
-  <si>
-    <t>https://www.digikey.at/en/products/detail/B57891M0104J000/495-2158-ND/739908?curr=eur&amp;utm_campaign=buynow&amp;utm_medium=aggregator&amp;utm_source=octopart</t>
-  </si>
-  <si>
-    <t>TP2</t>
-  </si>
-  <si>
-    <t>Temperatur Sensor Hotend</t>
-  </si>
-  <si>
-    <t>NB-PTCO-182</t>
-  </si>
-  <si>
-    <t>-30/300 C; +-0.12%</t>
-  </si>
-  <si>
-    <t>https://www.digikey.at/en/products/detail/NB-PTCO-182/223-NB-PTCO-182-ND/13916729?curr=eur&amp;utm_campaign=buynow&amp;utm_medium=aggregator&amp;utm_source=octopart</t>
-  </si>
-  <si>
-    <t>TP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">824-PTFC102B1G0 </t>
-  </si>
-  <si>
-    <t>-50/600 C; +-0.3C</t>
-  </si>
-  <si>
-    <t>https://www.mouser.at/ProductDetail/Measurement-Specialties/PTFC102B1G0?qs=sGAEpiMZZMunegBHAOsZD7a4quIT45DvLd4aSJIig1resq9FX4%2Fz9g%3D%3D</t>
-  </si>
-  <si>
     <t>Kabel</t>
   </si>
   <si>
@@ -432,45 +390,6 @@
     <t>25x25x10, 13000RPM</t>
   </si>
   <si>
-    <t>https://www.3djake.com/creality-3d-printers-spare-parts/hotend-thermistor</t>
-  </si>
-  <si>
-    <t>Hotend Thermistor, Ender 3 S1</t>
-  </si>
-  <si>
-    <t>100 kΩ bei 25 °C</t>
-  </si>
-  <si>
-    <t>https://www.digikey.at/de/products/detail/jst-sales-america-inc/XHP-2/555485</t>
-  </si>
-  <si>
-    <t>XHP-2</t>
-  </si>
-  <si>
-    <t>Kabelstecker-Gehäuse</t>
-  </si>
-  <si>
-    <t>SXH-001T-P0.6N</t>
-  </si>
-  <si>
-    <t>https://www.digikey.at/de/products/detail/jst-sales-america-inc/SXH-001T-P0-6N/7041446</t>
-  </si>
-  <si>
-    <t>Crimpkontakte für den Kabelstecker</t>
-  </si>
-  <si>
-    <t>2 Pole</t>
-  </si>
-  <si>
-    <t>100 Stück, 22-26 AWG</t>
-  </si>
-  <si>
-    <t>https://www.3djake.com/e3d/100k-ohm-ntc-thermistor-semitec</t>
-  </si>
-  <si>
-    <t>100k Ohm NTC Thermistor - Semitec</t>
-  </si>
-  <si>
     <t>ACC1</t>
   </si>
   <si>
@@ -1197,15 +1116,9 @@
     <t>hier das gleiche</t>
   </si>
   <si>
-    <t xml:space="preserve">sollte fuer einen temperaturbereich von 0-300 grad geeignet sein fuer das hotend, mit einem kabel ab und anschliessbar sein, </t>
-  </si>
-  <si>
     <t>ist fuer die platine gedacht smd-maessig</t>
   </si>
   <si>
-    <t>und sollte leicht in klipper integrierbar sein</t>
-  </si>
-  <si>
     <t>sollte mit klipper kompatibel sein und eine moeglichst kleine bauform haben und unkompliziert sein, sowie ueber i2c auslesbar sein.</t>
   </si>
   <si>
@@ -1263,9 +1176,6 @@
     <t>sollte 10A aushalten, sollte shielded sein!</t>
   </si>
   <si>
-    <t>TP4</t>
-  </si>
-  <si>
     <t>USB-C Buchse</t>
   </si>
   <si>
@@ -1311,22 +1221,13 @@
     <t>2 Pin Bridge (zur manuellen Auswahl)</t>
   </si>
   <si>
-    <t>S2B-Xh Buchse, 100k Ohm NTC</t>
-  </si>
-  <si>
     <t>https://www.az-delivery.de/en/products/gy-521-6-achsen-gyroskop-und-beschleunigungssensor</t>
   </si>
   <si>
-    <t>https://www.3djake.com/creality-3d-printers-spare-parts/thermistor-kit</t>
-  </si>
-  <si>
-    <t>Thermistor Kit, Glass Bead</t>
-  </si>
-  <si>
-    <t>300mm lang</t>
-  </si>
-  <si>
     <t>TP_SMD</t>
+  </si>
+  <si>
+    <t>es werden einfach die temperatur sensoren genommen, die der drucker bereitstellt. Es sind so gut wie alle kompatibel mit klipper, sie muessen nur konfektioniert werden mit den st_temp  stecker und sind ready to go!</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +1698,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1925,9 +1826,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1951,9 +1849,6 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2348,11 +2243,11 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AK108"/>
+  <dimension ref="A1:AK100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2402,10 +2297,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>5</v>
@@ -2417,13 +2312,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="N1" s="24" t="s">
         <v>9</v>
@@ -2444,29 +2339,29 @@
         <v>14</v>
       </c>
       <c r="U1" t="s">
-        <v>251</v>
-      </c>
-      <c r="X1" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y1" s="61"/>
+        <v>224</v>
+      </c>
+      <c r="X1" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y1" s="60"/>
       <c r="Z1" s="11">
-        <f>SUMIFS(P50:P77,Q50:Q77, "Nicht Gekauft",R50:R77,"Benötigt")</f>
+        <f>SUMIFS(P42:P69,Q42:Q69, "Nicht Gekauft",R42:R69,"Benötigt")</f>
         <v>19.07</v>
       </c>
-      <c r="AB1" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC1" s="59"/>
+      <c r="AB1" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="58"/>
       <c r="AD1" s="10">
-        <f>SUM(P2:P77)</f>
-        <v>426.52999999999986</v>
+        <f>SUM(P2:P69)</f>
+        <v>357.67999999999989</v>
       </c>
       <c r="AF1" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="AH1" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2505,38 +2400,38 @@
         <v>1</v>
       </c>
       <c r="P2" s="29">
-        <f t="shared" ref="P2:P77" si="0">N2*O2</f>
+        <f t="shared" ref="P2:P69" si="0">N2*O2</f>
         <v>9.91</v>
       </c>
       <c r="Q2" s="30" t="s">
         <v>51</v>
       </c>
       <c r="R2" s="31" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="T2">
         <f>IF(AND(Q2="Nicht Gekauft", R2="Benötigt"), P2, 0)</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U34" si="1">SUBTOTAL(103, G2)</f>
+        <f t="shared" ref="U2:U26" si="1">SUBTOTAL(103, G2)</f>
         <v>0</v>
       </c>
-      <c r="X2" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y2" s="65"/>
+      <c r="X2" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y2" s="64"/>
       <c r="Z2" s="12">
-        <f>SUBTOTAL(9,P1:P77)</f>
-        <v>426.52999999999986</v>
+        <f>SUBTOTAL(9,P1:P69)</f>
+        <v>357.67999999999989</v>
       </c>
       <c r="AF2" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B3" s="48" t="s">
         <v>23</v>
@@ -2566,7 +2461,7 @@
         <v>27</v>
       </c>
       <c r="M3" s="48" t="str">
-        <f t="shared" ref="M3:M77" si="2">HYPERLINK(L3,J3)</f>
+        <f t="shared" ref="M3:M69" si="2">HYPERLINK(L3,J3)</f>
         <v>AZ-Delivery</v>
       </c>
       <c r="N3" s="50">
@@ -2583,7 +2478,7 @@
         <v>21</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="U3">
         <f t="shared" si="1"/>
@@ -2593,12 +2488,12 @@
       <c r="Y3" s="35"/>
       <c r="Z3" s="36"/>
       <c r="AF3" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>23</v>
@@ -2607,10 +2502,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F4" s="48">
         <v>1.2</v>
@@ -2621,11 +2516,11 @@
       <c r="H4" s="48"/>
       <c r="I4" s="52"/>
       <c r="J4" s="52" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="K4" s="52"/>
       <c r="L4" s="48" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="M4" s="48" t="str">
         <f t="shared" si="2"/>
@@ -2647,13 +2542,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="X4" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y4" s="63"/>
+      <c r="X4" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y4" s="62"/>
       <c r="Z4" s="9">
-        <f>SUBTOTAL(9,T1:T77)</f>
-        <v>87.52000000000001</v>
+        <f>SUBTOTAL(9,T1:T69)</f>
+        <v>76.280000000000015</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -2703,7 +2598,7 @@
         <v>21</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="T5">
         <f>IF(AND(Q5="Nicht Gekauft", R5="Benötigt"), P5, 0)</f>
@@ -2714,24 +2609,24 @@
         <v>1</v>
       </c>
       <c r="AF5" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="C6" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="F6" s="48">
         <v>0.5</v>
@@ -2742,11 +2637,11 @@
       <c r="H6" s="48"/>
       <c r="I6" s="52"/>
       <c r="J6" s="52" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="K6" s="52"/>
       <c r="L6" s="48" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="M6" s="48" t="str">
         <f t="shared" si="2"/>
@@ -2771,24 +2666,24 @@
         <v>1</v>
       </c>
       <c r="AF6" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F7" s="48"/>
       <c r="G7" s="48"/>
@@ -2799,7 +2694,7 @@
       </c>
       <c r="K7" s="52"/>
       <c r="L7" s="48" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="M7" s="48" t="str">
         <f t="shared" ref="M7:M10" si="3">HYPERLINK(L7,J7)</f>
@@ -2819,7 +2714,7 @@
         <v>21</v>
       </c>
       <c r="R7" s="31" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="T7">
         <f>IF(AND(Q7="Nicht Gekauft", R7="Benötigt"), P7, 0)</f>
@@ -2832,19 +2727,19 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
@@ -2855,7 +2750,7 @@
       </c>
       <c r="K8" s="52"/>
       <c r="L8" s="48" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="M8" s="48" t="str">
         <f t="shared" si="3"/>
@@ -2880,19 +2775,19 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
@@ -2903,7 +2798,7 @@
       </c>
       <c r="K9" s="52"/>
       <c r="L9" s="48" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="M9" s="48" t="str">
         <f t="shared" si="3"/>
@@ -2926,24 +2821,24 @@
         <v>0</v>
       </c>
       <c r="AF9" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
@@ -2954,7 +2849,7 @@
       </c>
       <c r="K10" s="52"/>
       <c r="L10" s="48" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="M10" s="48" t="str">
         <f t="shared" si="3"/>
@@ -2980,16 +2875,16 @@
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" s="48" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="C11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="F11" s="48">
         <v>0.02</v>
@@ -3004,7 +2899,7 @@
       </c>
       <c r="K11" s="52"/>
       <c r="L11" s="48" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="M11" s="48" t="str">
         <f>HYPERLINK(L11,J11)</f>
@@ -3030,16 +2925,16 @@
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
       <c r="B12" s="48" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="C12" s="52" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="F12" s="48">
         <v>0.1</v>
@@ -3054,7 +2949,7 @@
       </c>
       <c r="K12" s="52"/>
       <c r="L12" s="48" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="M12" s="48" t="str">
         <f>HYPERLINK(L12,J12)</f>
@@ -3077,22 +2972,22 @@
         <v>1</v>
       </c>
       <c r="AG12" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
       <c r="B13" s="48" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
@@ -3103,7 +2998,7 @@
       </c>
       <c r="K13" s="52"/>
       <c r="L13" s="48" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="M13" s="48" t="str">
         <f>HYPERLINK(L13,J13)</f>
@@ -3126,22 +3021,22 @@
         <v>0</v>
       </c>
       <c r="AF13" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
       <c r="B14" s="48" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="F14" s="48"/>
       <c r="G14" s="48"/>
@@ -3152,7 +3047,7 @@
       </c>
       <c r="K14" s="52"/>
       <c r="L14" s="48" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="M14" s="48" t="str">
         <f>HYPERLINK(L14,J14)</f>
@@ -3175,24 +3070,24 @@
         <v>0</v>
       </c>
       <c r="AF14" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C15" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F15" s="48">
         <f>0.053*O15</f>
@@ -3208,7 +3103,7 @@
       </c>
       <c r="K15" s="52"/>
       <c r="L15" s="48" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="M15" s="48" t="str">
         <f t="shared" si="2"/>
@@ -3228,7 +3123,7 @@
         <v>21</v>
       </c>
       <c r="R15" s="31" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="T15">
         <f>IF(AND(Q15="Nicht Gekauft", R15="Benötigt"), P15, 0)</f>
@@ -3241,19 +3136,19 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C16" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F16" s="48">
         <v>0.17</v>
@@ -3268,7 +3163,7 @@
       </c>
       <c r="K16" s="52"/>
       <c r="L16" s="48" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="M16" s="48" t="str">
         <f t="shared" si="2"/>
@@ -3293,27 +3188,27 @@
         <v>1</v>
       </c>
       <c r="AA16" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="AF16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C17" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F17" s="48">
         <v>0.35</v>
@@ -3328,7 +3223,7 @@
       </c>
       <c r="K17" s="52"/>
       <c r="L17" s="48" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="M17" s="48" t="str">
         <f t="shared" si="2"/>
@@ -3353,229 +3248,232 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
-        <v>67</v>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
+        <v>373</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>63</v>
+        <v>300</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>68</v>
+        <v>302</v>
+      </c>
+      <c r="D18" s="48">
+        <v>665002113322</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>69</v>
+        <v>299</v>
       </c>
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
+      <c r="H18" s="48">
+        <v>1</v>
+      </c>
       <c r="I18" s="52"/>
       <c r="J18" s="52" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K18" s="52"/>
       <c r="L18" s="48" t="s">
-        <v>70</v>
+        <v>261</v>
       </c>
       <c r="M18" s="48" t="str">
-        <f t="shared" ref="M18:M40" si="5">HYPERLINK(L18,J18)</f>
-        <v>Mouser</v>
+        <f>HYPERLINK(L18,J18)</f>
+        <v>DigiKey</v>
       </c>
       <c r="N18" s="50">
-        <v>2.81</v>
+        <v>0.13</v>
       </c>
       <c r="O18" s="51">
         <v>4</v>
       </c>
       <c r="P18" s="32">
-        <f t="shared" ref="P18:P30" si="6">N18*O18</f>
-        <v>11.24</v>
-      </c>
-      <c r="Q18" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="S18" s="6"/>
-      <c r="T18">
-        <f>IF(AND(Q18="Nicht Gekauft", R18="Benötigt"), P18, 0)</f>
-        <v>11.24</v>
-      </c>
+        <f>N18*O18</f>
+        <v>0.52</v>
+      </c>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="8"/>
       <c r="U18">
-        <f t="shared" si="1"/>
+        <f>SUBTOTAL(103, G18)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
-        <v>62</v>
+      <c r="AF18" t="s">
+        <v>317</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
+        <v>373</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>63</v>
+        <v>301</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>117</v>
+        <v>302</v>
+      </c>
+      <c r="D19" s="48">
+        <v>665102131822</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c r="F19" s="48"/>
       <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
+      <c r="H19" s="48">
+        <v>1</v>
+      </c>
       <c r="I19" s="52"/>
       <c r="J19" s="52" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="K19" s="52"/>
       <c r="L19" s="48" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="M19" s="48" t="str">
-        <f t="shared" si="5"/>
-        <v>3D-Jake</v>
+        <f>HYPERLINK(L19,J19)</f>
+        <v>DigiKey</v>
       </c>
       <c r="N19" s="50">
-        <v>5.99</v>
+        <v>0.61</v>
       </c>
       <c r="O19" s="51">
         <v>4</v>
       </c>
       <c r="P19" s="32">
-        <f t="shared" si="6"/>
-        <v>23.96</v>
-      </c>
-      <c r="Q19" s="33" t="s">
-        <v>51</v>
-      </c>
+        <f>N19*O19</f>
+        <v>2.44</v>
+      </c>
+      <c r="Q19" s="33"/>
       <c r="R19" s="25"/>
-      <c r="S19" s="6"/>
+      <c r="S19" s="8"/>
       <c r="U19">
-        <f t="shared" si="1"/>
+        <f>SUBTOTAL(103, G19)</f>
         <v>0</v>
       </c>
       <c r="AF19" t="s">
-        <v>371</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
+        <v>380</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>58</v>
-      </c>
       <c r="D20" s="48" t="s">
-        <v>412</v>
+        <v>188</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>413</v>
+        <v>189</v>
       </c>
       <c r="F20" s="48"/>
       <c r="G20" s="48"/>
       <c r="H20" s="48"/>
       <c r="I20" s="52"/>
       <c r="J20" s="52" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="K20" s="52"/>
       <c r="L20" s="48" t="s">
-        <v>411</v>
+        <v>187</v>
       </c>
       <c r="M20" s="48" t="str">
-        <f t="shared" si="5"/>
-        <v>3D-Jake</v>
+        <f>HYPERLINK(L20,J20)</f>
+        <v>DigiKey</v>
       </c>
       <c r="N20" s="50">
-        <v>3.99</v>
+        <v>0.19</v>
       </c>
       <c r="O20" s="51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" s="32">
-        <f t="shared" si="6"/>
-        <v>3.99</v>
+        <f>N20*O20</f>
+        <v>0.38</v>
       </c>
       <c r="Q20" s="33"/>
       <c r="R20" s="25"/>
       <c r="S20" s="6"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <f>SUBTOTAL(103, G20)</f>
+        <v>0</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
-        <v>56</v>
+        <v>229</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="56" t="s">
-        <v>409</v>
+        <v>193</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>195</v>
       </c>
       <c r="F21" s="48"/>
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
       <c r="I21" s="52"/>
-      <c r="J21" s="57" t="s">
-        <v>105</v>
+      <c r="J21" s="52" t="s">
+        <v>35</v>
       </c>
       <c r="K21" s="52"/>
       <c r="L21" s="48" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="M21" s="48" t="str">
-        <f t="shared" si="5"/>
-        <v>3D-Jake</v>
+        <f t="shared" ref="M21:M32" si="5">HYPERLINK(L21,J21)</f>
+        <v>DigiKey</v>
       </c>
       <c r="N21" s="50">
-        <v>2.99</v>
+        <v>5.79</v>
       </c>
       <c r="O21" s="51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P21" s="29">
-        <f t="shared" si="6"/>
-        <v>11.96</v>
+        <f t="shared" ref="P21:P22" si="6">N21*O21</f>
+        <v>5.79</v>
       </c>
       <c r="Q21" s="30"/>
       <c r="R21" s="31"/>
-      <c r="S21" s="6"/>
       <c r="U21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
-        <v>56</v>
+        <v>229</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>125</v>
+        <v>199</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>198</v>
       </c>
       <c r="F22" s="48"/>
       <c r="G22" s="48"/>
@@ -3586,48 +3484,51 @@
       </c>
       <c r="K22" s="52"/>
       <c r="L22" s="48" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="M22" s="48" t="str">
         <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N22" s="50">
-        <v>0.1</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="O22" s="51">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P22" s="32">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="Q22" s="33"/>
       <c r="R22" s="25"/>
-      <c r="S22" s="6"/>
       <c r="U22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
-        <v>56</v>
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="53" t="s">
+        <v>230</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
+        <v>233</v>
+      </c>
+      <c r="F23" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="G23" s="48">
+        <v>5</v>
+      </c>
       <c r="H23" s="48"/>
       <c r="I23" s="52"/>
       <c r="J23" s="52" t="s">
@@ -3635,45 +3536,53 @@
       </c>
       <c r="K23" s="52"/>
       <c r="L23" s="48" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="M23" s="48" t="str">
         <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N23" s="50">
-        <v>5.54</v>
+        <v>2.34</v>
       </c>
       <c r="O23" s="51">
         <v>1</v>
       </c>
-      <c r="P23" s="29">
-        <f t="shared" si="6"/>
-        <v>5.54</v>
+      <c r="P23" s="32">
+        <f t="shared" ref="P23:P24" si="7">N23*O23</f>
+        <v>2.34</v>
       </c>
       <c r="Q23" s="30"/>
       <c r="R23" s="31"/>
-      <c r="S23" s="6"/>
       <c r="U23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>333</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>334</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" s="53" t="s">
+        <v>230</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>58</v>
+        <v>196</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>44</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>59</v>
+        <v>235</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="F24" s="48"/>
       <c r="G24" s="48"/>
@@ -3684,57 +3593,53 @@
       </c>
       <c r="K24" s="52"/>
       <c r="L24" s="48" t="s">
-        <v>61</v>
+        <v>234</v>
       </c>
       <c r="M24" s="48" t="str">
         <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N24" s="50">
-        <v>1.0900000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="O24" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P24" s="32">
-        <f t="shared" si="6"/>
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="Q24" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R24" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="S24" s="6"/>
-      <c r="T24">
-        <f>IF(AND(Q24="Nicht Gekauft", R24="Benötigt"), P24, 0)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>1.17</v>
+      </c>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="25"/>
       <c r="U24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
-        <v>393</v>
-      </c>
+      <c r="AF24" t="s">
+        <v>333</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>336</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25" s="48"/>
       <c r="B25" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>64</v>
+        <v>304</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>268</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="48">
-        <v>4.0000000000000002E-4</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="F25" s="48"/>
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
       <c r="I25" s="52"/>
@@ -3743,161 +3648,149 @@
       </c>
       <c r="K25" s="52"/>
       <c r="L25" s="48" t="s">
-        <v>66</v>
+        <v>269</v>
       </c>
       <c r="M25" s="48" t="str">
         <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N25" s="50">
-        <v>4.49</v>
+        <v>1.78</v>
       </c>
       <c r="O25" s="51">
-        <v>2</v>
-      </c>
-      <c r="P25" s="32">
-        <f t="shared" si="6"/>
-        <v>8.98</v>
-      </c>
-      <c r="Q25" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="6"/>
-      <c r="T25">
-        <f>IF(AND(Q25="Nicht Gekauft", R25="Benötigt"), P25, 0)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P25" s="29">
+        <f t="shared" ref="P25:P30" si="8">N25*O25</f>
+        <v>1.78</v>
+      </c>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="31"/>
       <c r="U25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
-        <v>403</v>
-      </c>
+      <c r="AF25" t="s">
+        <v>328</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" s="48"/>
       <c r="B26" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>329</v>
-      </c>
-      <c r="D26" s="48">
-        <v>665002113322</v>
+        <v>305</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>270</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
-      <c r="H26" s="48">
-        <v>1</v>
-      </c>
+      <c r="H26" s="48"/>
       <c r="I26" s="52"/>
       <c r="J26" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K26" s="52"/>
       <c r="L26" s="48" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="M26" s="48" t="str">
-        <f>HYPERLINK(L26,J26)</f>
+        <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N26" s="50">
-        <v>0.13</v>
+        <v>0.95</v>
       </c>
       <c r="O26" s="51">
-        <v>4</v>
-      </c>
-      <c r="P26" s="32">
-        <f>N26*O26</f>
-        <v>0.52</v>
-      </c>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="P26" s="29">
+        <f t="shared" si="8"/>
+        <v>0.95</v>
+      </c>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="31"/>
       <c r="U26">
-        <f>SUBTOTAL(103, G26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF26" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
-        <v>403</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
       <c r="B27" s="48" t="s">
-        <v>328</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>329</v>
-      </c>
-      <c r="D27" s="48">
-        <v>665102131822</v>
+        <v>179</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>181</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>330</v>
+        <v>182</v>
       </c>
       <c r="F27" s="48"/>
       <c r="G27" s="48"/>
-      <c r="H27" s="48">
-        <v>1</v>
-      </c>
+      <c r="H27" s="48"/>
       <c r="I27" s="52"/>
       <c r="J27" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K27" s="52"/>
       <c r="L27" s="48" t="s">
-        <v>289</v>
+        <v>180</v>
       </c>
       <c r="M27" s="48" t="str">
-        <f>HYPERLINK(L27,J27)</f>
+        <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N27" s="50">
-        <v>0.61</v>
+        <v>1.56</v>
       </c>
       <c r="O27" s="51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P27" s="32">
-        <f>N27*O27</f>
-        <v>2.44</v>
+        <f t="shared" si="8"/>
+        <v>1.56</v>
       </c>
       <c r="Q27" s="33"/>
       <c r="R27" s="25"/>
-      <c r="S27" s="8"/>
       <c r="U27">
         <f>SUBTOTAL(103, G27)</f>
         <v>0</v>
       </c>
       <c r="AF27" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
-        <v>414</v>
-      </c>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="48"/>
       <c r="B28" s="48" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="F28" s="48"/>
       <c r="G28" s="48"/>
@@ -3908,96 +3801,96 @@
       </c>
       <c r="K28" s="52"/>
       <c r="L28" s="48" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="M28" s="48" t="str">
-        <f>HYPERLINK(L28,J28)</f>
+        <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N28" s="50">
-        <v>0.19</v>
+        <v>0.47</v>
       </c>
       <c r="O28" s="51">
-        <v>2</v>
-      </c>
-      <c r="P28" s="32">
-        <f>N28*O28</f>
-        <v>0.38</v>
-      </c>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="P28" s="29">
+        <f t="shared" si="8"/>
+        <v>0.47</v>
+      </c>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="31"/>
       <c r="U28">
         <f>SUBTOTAL(103, G28)</f>
         <v>0</v>
       </c>
       <c r="AF28" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
-        <v>256</v>
-      </c>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
       <c r="B29" s="48" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>220</v>
+        <v>158</v>
+      </c>
+      <c r="D29" s="48">
+        <v>824521241</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="F29" s="48"/>
       <c r="G29" s="48"/>
       <c r="H29" s="48"/>
       <c r="I29" s="52"/>
       <c r="J29" s="52" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="K29" s="52"/>
       <c r="L29" s="48" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="M29" s="48" t="str">
         <f t="shared" si="5"/>
-        <v>DigiKey</v>
+        <v>Digikey</v>
       </c>
       <c r="N29" s="50">
-        <v>5.79</v>
+        <v>0.3</v>
       </c>
       <c r="O29" s="51">
-        <v>1</v>
-      </c>
-      <c r="P29" s="29">
-        <f t="shared" si="6"/>
-        <v>5.79</v>
-      </c>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="31"/>
+        <v>2</v>
+      </c>
+      <c r="P29" s="32">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="25"/>
       <c r="U29">
-        <f t="shared" si="1"/>
+        <f>SUBTOTAL(103, G29)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF29" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="F30" s="48"/>
       <c r="G30" s="48"/>
@@ -4008,51 +3901,41 @@
       </c>
       <c r="K30" s="52"/>
       <c r="L30" s="48" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="M30" s="48" t="str">
         <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N30" s="50">
-        <v>4.1399999999999997</v>
+        <v>0.3</v>
       </c>
       <c r="O30" s="51">
         <v>1</v>
       </c>
       <c r="P30" s="32">
-        <f t="shared" si="6"/>
-        <v>4.1399999999999997</v>
+        <f t="shared" si="8"/>
+        <v>0.3</v>
       </c>
       <c r="Q30" s="33"/>
       <c r="R30" s="25"/>
-      <c r="U30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
-        <v>257</v>
-      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A31" s="48"/>
       <c r="B31" s="48" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>259</v>
+        <v>183</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>191</v>
       </c>
       <c r="E31" s="48" t="s">
-        <v>260</v>
-      </c>
-      <c r="F31" s="48">
-        <v>0.05</v>
-      </c>
-      <c r="G31" s="48">
-        <v>5</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="48"/>
       <c r="I31" s="52"/>
       <c r="J31" s="52" t="s">
@@ -4060,56 +3943,52 @@
       </c>
       <c r="K31" s="52"/>
       <c r="L31" s="48" t="s">
-        <v>258</v>
+        <v>185</v>
       </c>
       <c r="M31" s="48" t="str">
         <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N31" s="50">
-        <v>2.34</v>
+        <v>2.91</v>
       </c>
       <c r="O31" s="51">
-        <v>1</v>
-      </c>
-      <c r="P31" s="32">
-        <f t="shared" ref="P31:P32" si="7">N31*O31</f>
-        <v>2.34</v>
+        <v>2</v>
+      </c>
+      <c r="P31" s="29">
+        <f t="shared" ref="P31:P32" si="9">N31*O31</f>
+        <v>5.82</v>
       </c>
       <c r="Q31" s="30"/>
       <c r="R31" s="31"/>
       <c r="U31">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUBTOTAL(103, G31)</f>
+        <v>0</v>
       </c>
       <c r="AF31" t="s">
-        <v>360</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>361</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
-        <v>257</v>
-      </c>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A32" s="48"/>
       <c r="B32" s="48" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="C32" s="52" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>262</v>
+        <v>173</v>
       </c>
       <c r="E32" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
+        <v>174</v>
+      </c>
+      <c r="F32" s="48">
+        <v>0.02</v>
+      </c>
+      <c r="G32" s="48">
+        <v>5</v>
+      </c>
       <c r="H32" s="48"/>
       <c r="I32" s="52"/>
       <c r="J32" s="52" t="s">
@@ -4117,155 +3996,148 @@
       </c>
       <c r="K32" s="52"/>
       <c r="L32" s="48" t="s">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c r="M32" s="48" t="str">
         <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N32" s="50">
-        <v>1.17</v>
+        <v>0.6</v>
       </c>
       <c r="O32" s="51">
         <v>1</v>
       </c>
-      <c r="P32" s="32">
-        <f t="shared" si="7"/>
-        <v>1.17</v>
-      </c>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="25"/>
+      <c r="P32" s="29">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="31"/>
       <c r="U32">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUBTOTAL(103, G32)</f>
+        <v>1</v>
       </c>
       <c r="AF32" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="AG32" t="s">
-        <v>363</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="49"/>
       <c r="B33" s="48" t="s">
-        <v>331</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>295</v>
+        <v>248</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>250</v>
       </c>
       <c r="E33" s="48" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="F33" s="48"/>
       <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="48"/>
       <c r="J33" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K33" s="52"/>
       <c r="L33" s="48" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="M33" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f>HYPERLINK(L33,J34)</f>
         <v>DigiKey</v>
       </c>
       <c r="N33" s="50">
-        <v>1.78</v>
+        <v>9.25</v>
       </c>
       <c r="O33" s="51">
         <v>1</v>
       </c>
       <c r="P33" s="29">
-        <f t="shared" ref="P33:P38" si="8">N33*O33</f>
-        <v>1.78</v>
-      </c>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="31"/>
+        <f>N33*O33</f>
+        <v>9.25</v>
+      </c>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
       <c r="U33">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="U33:U34" si="10">SUBTOTAL(103, G33)</f>
         <v>0</v>
       </c>
       <c r="AF33" t="s">
-        <v>355</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+        <v>323</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="49"/>
       <c r="B34" s="48" t="s">
-        <v>332</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>297</v>
+        <v>364</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>365</v>
       </c>
       <c r="E34" s="48" t="s">
-        <v>299</v>
+        <v>375</v>
       </c>
       <c r="F34" s="48"/>
       <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="48"/>
       <c r="J34" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K34" s="52"/>
       <c r="L34" s="48" t="s">
-        <v>300</v>
+        <v>374</v>
       </c>
       <c r="M34" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f>HYPERLINK(L34,J35)</f>
         <v>DigiKey</v>
       </c>
       <c r="N34" s="50">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="O34" s="51">
         <v>1</v>
       </c>
       <c r="P34" s="29">
-        <f t="shared" si="8"/>
-        <v>0.95</v>
-      </c>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="31"/>
+        <f>N34*O34</f>
+        <v>0.84</v>
+      </c>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
       <c r="U34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF34" t="s">
-        <v>355</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
+        <v>137</v>
+      </c>
       <c r="B35" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>185</v>
+        <v>136</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>284</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="E35" s="48" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="F35" s="48"/>
       <c r="G35" s="48"/>
@@ -4274,47 +4146,49 @@
       <c r="J35" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K35" s="52"/>
+      <c r="K35" s="48" t="s">
+        <v>130</v>
+      </c>
       <c r="L35" s="48" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="M35" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="M35:M41" si="11">HYPERLINK(L35,J35)</f>
         <v>DigiKey</v>
       </c>
       <c r="N35" s="50">
-        <v>1.56</v>
+        <v>3.24</v>
       </c>
       <c r="O35" s="51">
         <v>1</v>
       </c>
       <c r="P35" s="32">
-        <f t="shared" si="8"/>
-        <v>1.56</v>
+        <f>N35*O35</f>
+        <v>3.24</v>
       </c>
       <c r="Q35" s="33"/>
       <c r="R35" s="25"/>
+      <c r="S35" s="8"/>
       <c r="U35">
-        <f>SUBTOTAL(103, G35)</f>
+        <f t="shared" ref="U35:U40" si="12">SUBTOTAL(103, G35)</f>
         <v>0</v>
       </c>
-      <c r="AF35" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="53" t="s">
+        <v>138</v>
+      </c>
       <c r="B36" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>185</v>
+        <v>136</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>284</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="E36" s="48" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="F36" s="48"/>
       <c r="G36" s="48"/>
@@ -4325,96 +4199,102 @@
       </c>
       <c r="K36" s="52"/>
       <c r="L36" s="48" t="s">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="M36" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>DigiKey</v>
       </c>
       <c r="N36" s="50">
-        <v>0.47</v>
+        <v>1.7</v>
       </c>
       <c r="O36" s="51">
         <v>1</v>
       </c>
-      <c r="P36" s="29">
-        <f t="shared" si="8"/>
-        <v>0.47</v>
+      <c r="P36" s="32">
+        <f>N36*O36</f>
+        <v>1.7</v>
       </c>
       <c r="Q36" s="30"/>
       <c r="R36" s="31"/>
+      <c r="S36" s="8"/>
       <c r="U36">
         <f>SUBTOTAL(103, G36)</f>
         <v>0</v>
       </c>
+      <c r="AE36" t="s">
+        <v>320</v>
+      </c>
       <c r="AF36" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="s">
+        <v>151</v>
+      </c>
       <c r="B37" s="48" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="D37" s="48">
-        <v>824521241</v>
+        <v>284</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>144</v>
       </c>
       <c r="E37" s="48" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="F37" s="48"/>
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
       <c r="I37" s="52"/>
       <c r="J37" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="K37" s="52"/>
+        <v>35</v>
+      </c>
+      <c r="K37" s="52" t="s">
+        <v>133</v>
+      </c>
       <c r="L37" s="48" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="M37" s="48" t="str">
-        <f t="shared" si="5"/>
-        <v>Digikey</v>
+        <f t="shared" si="11"/>
+        <v>DigiKey</v>
       </c>
       <c r="N37" s="50">
-        <v>0.3</v>
+        <v>0.82</v>
       </c>
       <c r="O37" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P37" s="32">
-        <f t="shared" si="8"/>
-        <v>0.6</v>
+        <f t="shared" ref="P37:P39" si="13">N37*O37</f>
+        <v>0.82</v>
       </c>
       <c r="Q37" s="33"/>
       <c r="R37" s="25"/>
+      <c r="S37" s="8"/>
       <c r="U37">
-        <f>SUBTOTAL(103, G37)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AF37" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
-        <v>274</v>
+    </row>
+    <row r="38" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="53" t="s">
+        <v>152</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>270</v>
+        <v>142</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>185</v>
+        <v>284</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>272</v>
+        <v>147</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>273</v>
+        <v>146</v>
       </c>
       <c r="F38" s="48"/>
       <c r="G38" s="48"/>
@@ -4425,38 +4305,54 @@
       </c>
       <c r="K38" s="52"/>
       <c r="L38" s="48" t="s">
-        <v>271</v>
+        <v>145</v>
       </c>
       <c r="M38" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>DigiKey</v>
       </c>
       <c r="N38" s="50">
-        <v>0.3</v>
+        <v>0.94</v>
       </c>
       <c r="O38" s="51">
         <v>1</v>
       </c>
-      <c r="P38" s="32">
-        <f t="shared" si="8"/>
-        <v>0.3</v>
-      </c>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="25"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="P38" s="29">
+        <f t="shared" si="13"/>
+        <v>0.94</v>
+      </c>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="8"/>
+      <c r="U38">
+        <f>SUBTOTAL(103, G38)</f>
+        <v>0</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="s">
+        <v>153</v>
+      </c>
       <c r="B39" s="48" t="s">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="D39" s="49" t="s">
-        <v>218</v>
+        <v>284</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>148</v>
       </c>
       <c r="E39" s="48" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="F39" s="48"/>
       <c r="G39" s="48"/>
@@ -4467,52 +4363,48 @@
       </c>
       <c r="K39" s="52"/>
       <c r="L39" s="48" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="M39" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>DigiKey</v>
       </c>
       <c r="N39" s="50">
-        <v>2.91</v>
+        <v>1.33</v>
       </c>
       <c r="O39" s="51">
-        <v>2</v>
-      </c>
-      <c r="P39" s="29">
-        <f t="shared" ref="P39:P40" si="9">N39*O39</f>
-        <v>5.82</v>
-      </c>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="P39" s="32">
+        <f t="shared" si="13"/>
+        <v>1.33</v>
+      </c>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="8"/>
       <c r="U39">
-        <f>SUBTOTAL(103, G39)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AF39" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+    </row>
+    <row r="40" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
+        <v>358</v>
+      </c>
       <c r="B40" s="48" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="E40" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="F40" s="48">
-        <v>0.02</v>
-      </c>
-      <c r="G40" s="48">
-        <v>5</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
       <c r="H40" s="48"/>
       <c r="I40" s="52"/>
       <c r="J40" s="52" t="s">
@@ -4520,412 +4412,436 @@
       </c>
       <c r="K40" s="52"/>
       <c r="L40" s="48" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="M40" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>DigiKey</v>
       </c>
       <c r="N40" s="50">
-        <v>0.6</v>
+        <v>2.04</v>
       </c>
       <c r="O40" s="51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P40" s="29">
-        <f t="shared" si="9"/>
-        <v>0.6</v>
+        <f>N40*O40</f>
+        <v>12.24</v>
       </c>
       <c r="Q40" s="30"/>
       <c r="R40" s="31"/>
       <c r="U40">
-        <f>SUBTOTAL(103, G40)</f>
-        <v>1</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>366</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="53" t="s">
+        <v>359</v>
+      </c>
       <c r="B41" s="48" t="s">
-        <v>275</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>71</v>
+        <v>156</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>284</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="E41" s="48" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="F41" s="48"/>
       <c r="G41" s="48"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="52"/>
       <c r="J41" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K41" s="52"/>
       <c r="L41" s="48" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="M41" s="48" t="str">
-        <f>HYPERLINK(L41,J42)</f>
+        <f t="shared" si="11"/>
         <v>DigiKey</v>
       </c>
       <c r="N41" s="50">
-        <v>9.25</v>
+        <v>2.87</v>
       </c>
       <c r="O41" s="51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P41" s="29">
         <f>N41*O41</f>
-        <v>9.25</v>
-      </c>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
+        <v>17.22</v>
+      </c>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="31"/>
       <c r="U41">
-        <f t="shared" ref="U41:U42" si="10">SUBTOTAL(103, G41)</f>
+        <f>SUBTOTAL(103, G41)</f>
         <v>0</v>
       </c>
       <c r="AF41" t="s">
-        <v>350</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
+        <v>124</v>
+      </c>
       <c r="B42" s="48" t="s">
-        <v>394</v>
-      </c>
-      <c r="C42" s="49" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>59</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>395</v>
+        <v>60</v>
       </c>
       <c r="E42" s="48" t="s">
-        <v>405</v>
+        <v>114</v>
       </c>
       <c r="F42" s="48"/>
       <c r="G42" s="48"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="48"/>
+      <c r="H42" s="48">
+        <v>2.5</v>
+      </c>
+      <c r="I42" s="52"/>
       <c r="J42" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K42" s="52"/>
       <c r="L42" s="48" t="s">
-        <v>404</v>
+        <v>61</v>
       </c>
       <c r="M42" s="48" t="str">
-        <f>HYPERLINK(L42,J43)</f>
+        <f t="shared" si="2"/>
         <v>DigiKey</v>
       </c>
       <c r="N42" s="50">
-        <v>0.84</v>
+        <v>0.69</v>
       </c>
       <c r="O42" s="51">
-        <v>1</v>
-      </c>
-      <c r="P42" s="29">
-        <f>N42*O42</f>
-        <v>0.84</v>
-      </c>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
+        <v>3</v>
+      </c>
+      <c r="P42" s="32">
+        <f t="shared" si="0"/>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="Q42" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="T42">
+        <f>IF(AND(Q42="Nicht Gekauft", R42="Benötigt"), P42, 0)</f>
+        <v>0</v>
+      </c>
       <c r="U42">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="U42:U50" si="14">SUBTOTAL(103, G42)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>311</v>
+        <v>59</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="E43" s="48" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
+      <c r="H43" s="48">
+        <v>2.5</v>
+      </c>
       <c r="I43" s="52"/>
       <c r="J43" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K43" s="48" t="s">
-        <v>157</v>
-      </c>
+      <c r="K43" s="52"/>
       <c r="L43" s="48" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="M43" s="48" t="str">
-        <f t="shared" ref="M43:M49" si="11">HYPERLINK(L43,J43)</f>
+        <f t="shared" si="2"/>
         <v>DigiKey</v>
       </c>
       <c r="N43" s="50">
-        <v>3.24</v>
+        <v>0.53</v>
       </c>
       <c r="O43" s="51">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P43" s="32">
-        <f>N43*O43</f>
-        <v>3.24</v>
-      </c>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="8"/>
+        <f t="shared" si="0"/>
+        <v>4.7700000000000005</v>
+      </c>
+      <c r="Q43" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R43" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="T43">
+        <f>IF(AND(Q43="Nicht Gekauft", R43="Benötigt"), P43, 0)</f>
+        <v>0</v>
+      </c>
       <c r="U43">
-        <f t="shared" ref="U43:U48" si="12">SUBTOTAL(103, G43)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A44" s="53" t="s">
-        <v>165</v>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="48" t="s">
+        <v>124</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>311</v>
+        <v>59</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="E44" s="48" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="F44" s="48"/>
       <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
+      <c r="H44" s="48">
+        <v>2.5</v>
+      </c>
       <c r="I44" s="52"/>
       <c r="J44" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K44" s="52"/>
       <c r="L44" s="48" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="M44" s="48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>DigiKey</v>
       </c>
       <c r="N44" s="50">
-        <v>1.7</v>
+        <v>0.69</v>
       </c>
       <c r="O44" s="51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P44" s="32">
-        <f>N44*O44</f>
-        <v>1.7</v>
-      </c>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="8"/>
+        <f t="shared" si="0"/>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="Q44" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R44" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="T44">
+        <f>IF(AND(Q44="Nicht Gekauft", R44="Benötigt"), P44, 0)</f>
+        <v>0</v>
+      </c>
       <c r="U44">
-        <f>SUBTOTAL(103, G44)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE44" t="s">
-        <v>347</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="B45" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="C45" s="52" t="s">
-        <v>311</v>
+        <v>68</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>59</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="E45" s="48" t="s">
-        <v>170</v>
+        <v>69</v>
       </c>
       <c r="F45" s="48"/>
       <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
+      <c r="H45" s="48">
+        <v>2</v>
+      </c>
       <c r="I45" s="52"/>
       <c r="J45" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="K45" s="52" t="s">
-        <v>160</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="K45" s="52"/>
       <c r="L45" s="48" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="M45" s="48" t="str">
-        <f t="shared" si="11"/>
-        <v>DigiKey</v>
+        <f t="shared" si="2"/>
+        <v>Amazon</v>
       </c>
       <c r="N45" s="50">
-        <v>0.82</v>
+        <v>17.14</v>
       </c>
       <c r="O45" s="51">
         <v>1</v>
       </c>
       <c r="P45" s="32">
-        <f t="shared" ref="P45:P47" si="13">N45*O45</f>
-        <v>0.82</v>
-      </c>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="8"/>
+        <f t="shared" si="0"/>
+        <v>17.14</v>
+      </c>
+      <c r="Q45" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="T45">
+        <f>IF(AND(Q45="Nicht Gekauft", R45="Benötigt"), P45, 0)</f>
+        <v>0</v>
+      </c>
       <c r="U45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="53" t="s">
-        <v>179</v>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" s="48" t="s">
+        <v>126</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>311</v>
+        <v>85</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>59</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="E46" s="48" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="F46" s="48"/>
       <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
+      <c r="H46" s="48">
+        <v>2.54</v>
+      </c>
       <c r="I46" s="52"/>
       <c r="J46" s="52" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K46" s="52"/>
       <c r="L46" s="48" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="M46" s="48" t="str">
-        <f t="shared" si="11"/>
-        <v>DigiKey</v>
+        <f t="shared" si="2"/>
+        <v>Amazon</v>
       </c>
       <c r="N46" s="50">
-        <v>0.94</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="O46" s="51">
         <v>1</v>
       </c>
-      <c r="P46" s="29">
-        <f t="shared" si="13"/>
-        <v>0.94</v>
-      </c>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="8"/>
+      <c r="P46" s="32">
+        <f t="shared" si="0"/>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="25"/>
       <c r="U46">
-        <f>SUBTOTAL(103, G46)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE46" t="s">
-        <v>348</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>346</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="B47" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>311</v>
+        <v>84</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>59</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="E47" s="48" t="s">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
+      <c r="H47" s="48">
+        <v>2.54</v>
+      </c>
       <c r="I47" s="52"/>
       <c r="J47" s="52" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K47" s="52"/>
       <c r="L47" s="48" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="M47" s="48" t="str">
-        <f t="shared" si="11"/>
-        <v>DigiKey</v>
+        <f t="shared" si="2"/>
+        <v>Amazon</v>
       </c>
       <c r="N47" s="50">
-        <v>1.33</v>
+        <v>7.55</v>
       </c>
       <c r="O47" s="51">
         <v>1</v>
       </c>
       <c r="P47" s="32">
-        <f t="shared" si="13"/>
-        <v>1.33</v>
-      </c>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="25"/>
+        <f t="shared" si="0"/>
+        <v>7.55</v>
+      </c>
+      <c r="Q47" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R47" s="31" t="s">
+        <v>81</v>
+      </c>
       <c r="S47" s="8"/>
+      <c r="T47">
+        <f>IF(AND(Q47="Nicht Gekauft", R47="Benötigt"), P47, 0)</f>
+        <v>7.55</v>
+      </c>
       <c r="U47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="48" t="s">
-        <v>387</v>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" s="53" t="s">
+        <v>128</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>311</v>
+        <v>58</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>59</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="E48" s="48" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="F48" s="48"/>
       <c r="G48" s="48"/>
@@ -4936,44 +4852,48 @@
       </c>
       <c r="K48" s="52"/>
       <c r="L48" s="48" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="M48" s="48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>DigiKey</v>
       </c>
       <c r="N48" s="50">
-        <v>2.04</v>
+        <v>0.22</v>
       </c>
       <c r="O48" s="51">
-        <v>6</v>
-      </c>
-      <c r="P48" s="29">
-        <f>N48*O48</f>
-        <v>12.24</v>
-      </c>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="P48" s="32">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="8"/>
       <c r="U48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF48" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="53" t="s">
-        <v>388</v>
+        <v>128</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>311</v>
+        <v>65</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>59</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>390</v>
+        <v>120</v>
       </c>
       <c r="E49" s="48" t="s">
-        <v>389</v>
+        <v>118</v>
       </c>
       <c r="F49" s="48"/>
       <c r="G49" s="48"/>
@@ -4984,110 +4904,105 @@
       </c>
       <c r="K49" s="52"/>
       <c r="L49" s="48" t="s">
-        <v>391</v>
+        <v>122</v>
       </c>
       <c r="M49" s="48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>DigiKey</v>
       </c>
       <c r="N49" s="50">
-        <v>2.87</v>
+        <v>0.18</v>
       </c>
       <c r="O49" s="51">
-        <v>6</v>
-      </c>
-      <c r="P49" s="29">
-        <f>N49*O49</f>
-        <v>17.22</v>
+        <v>4</v>
+      </c>
+      <c r="P49" s="32">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
       </c>
       <c r="Q49" s="30"/>
       <c r="R49" s="31"/>
+      <c r="S49" s="8"/>
       <c r="U49">
-        <f>SUBTOTAL(103, G49)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF49" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A50" s="48" t="s">
-        <v>151</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" s="53" t="s">
+        <v>128</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="F50" s="48"/>
       <c r="G50" s="48"/>
-      <c r="H50" s="48">
-        <v>2.5</v>
-      </c>
+      <c r="H50" s="48"/>
       <c r="I50" s="52"/>
       <c r="J50" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K50" s="52"/>
       <c r="L50" s="48" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="M50" s="48" t="str">
         <f t="shared" si="2"/>
         <v>DigiKey</v>
       </c>
       <c r="N50" s="50">
-        <v>0.69</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O50" s="51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P50" s="32">
         <f t="shared" si="0"/>
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="Q50" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R50" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="T50">
-        <f>IF(AND(Q50="Nicht Gekauft", R50="Benötigt"), P50, 0)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="8"/>
+      <c r="U50">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U50">
-        <f t="shared" ref="U50:U58" si="14">SUBTOTAL(103, G50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF50" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
-        <v>151</v>
+        <v>285</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="C51" s="48" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>142</v>
+        <v>286</v>
       </c>
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
       <c r="H51" s="48">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I51" s="52"/>
       <c r="J51" s="52" t="s">
@@ -5095,57 +5010,46 @@
       </c>
       <c r="K51" s="52"/>
       <c r="L51" s="48" t="s">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="M51" s="48" t="str">
         <f t="shared" si="2"/>
         <v>DigiKey</v>
       </c>
       <c r="N51" s="50">
-        <v>0.53</v>
+        <v>0.78</v>
       </c>
       <c r="O51" s="51">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P51" s="32">
         <f t="shared" si="0"/>
-        <v>4.7700000000000005</v>
-      </c>
-      <c r="Q51" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R51" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="T51">
-        <f>IF(AND(Q51="Nicht Gekauft", R51="Benötigt"), P51, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.78</v>
+      </c>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="8"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
-        <v>151</v>
+        <v>285</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>143</v>
+        <v>287</v>
       </c>
       <c r="F52" s="48"/>
       <c r="G52" s="48"/>
       <c r="H52" s="48">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I52" s="52"/>
       <c r="J52" s="52" t="s">
@@ -5153,380 +5057,336 @@
       </c>
       <c r="K52" s="52"/>
       <c r="L52" s="48" t="s">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="M52" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK(L52,J52)</f>
         <v>DigiKey</v>
       </c>
       <c r="N52" s="50">
-        <v>0.69</v>
+        <v>1.73</v>
       </c>
       <c r="O52" s="51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P52" s="32">
         <f t="shared" si="0"/>
-        <v>3.4499999999999997</v>
-      </c>
-      <c r="Q52" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R52" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="T52">
-        <f>IF(AND(Q52="Nicht Gekauft", R52="Benötigt"), P52, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+        <v>1.73</v>
+      </c>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="8"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
-        <v>152</v>
+        <v>288</v>
       </c>
       <c r="B53" s="48" t="s">
-        <v>82</v>
+        <v>368</v>
       </c>
       <c r="C53" s="48" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>83</v>
+        <v>289</v>
       </c>
       <c r="F53" s="48"/>
       <c r="G53" s="48"/>
       <c r="H53" s="48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" s="52"/>
       <c r="J53" s="52" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K53" s="52"/>
       <c r="L53" s="48" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="M53" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>Amazon</v>
+        <v>DigiKey</v>
       </c>
       <c r="N53" s="50">
-        <v>17.14</v>
-      </c>
-      <c r="O53" s="51">
-        <v>1</v>
-      </c>
+        <v>1.46</v>
+      </c>
+      <c r="O53" s="51"/>
       <c r="P53" s="32">
         <f t="shared" si="0"/>
-        <v>17.14</v>
-      </c>
-      <c r="Q53" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R53" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="T53">
-        <f>IF(AND(Q53="Nicht Gekauft", R53="Benötigt"), P53, 0)</f>
         <v>0</v>
       </c>
-      <c r="U53">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Q53" s="33"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="8"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
-        <v>153</v>
+        <v>288</v>
       </c>
       <c r="B54" s="48" t="s">
-        <v>99</v>
+        <v>369</v>
       </c>
       <c r="C54" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="48" t="s">
-        <v>31</v>
+        <v>131</v>
+      </c>
+      <c r="D54" s="48">
+        <v>5013300200</v>
       </c>
       <c r="E54" s="48" t="s">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="F54" s="48"/>
       <c r="G54" s="48"/>
       <c r="H54" s="48">
-        <v>2.54</v>
+        <v>1</v>
       </c>
       <c r="I54" s="52"/>
       <c r="J54" s="52" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K54" s="52"/>
       <c r="L54" s="48" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="M54" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>Amazon</v>
+        <v>DigiKey</v>
       </c>
       <c r="N54" s="50">
-        <v>8.0500000000000007</v>
+        <v>0.21</v>
       </c>
       <c r="O54" s="51">
         <v>1</v>
       </c>
       <c r="P54" s="32">
         <f t="shared" si="0"/>
-        <v>8.0500000000000007</v>
+        <v>0.21</v>
       </c>
       <c r="Q54" s="33"/>
       <c r="R54" s="25"/>
-      <c r="U54">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="S54" s="8"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
-        <v>154</v>
+        <v>288</v>
       </c>
       <c r="B55" s="48" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" s="48" t="s">
-        <v>31</v>
+        <v>131</v>
+      </c>
+      <c r="D55" s="48">
+        <v>665103131822</v>
       </c>
       <c r="E55" s="48" t="s">
-        <v>84</v>
+        <v>291</v>
       </c>
       <c r="F55" s="48"/>
       <c r="G55" s="48"/>
       <c r="H55" s="48">
-        <v>2.54</v>
+        <v>1</v>
       </c>
       <c r="I55" s="52"/>
       <c r="J55" s="52" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K55" s="52"/>
       <c r="L55" s="48" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="M55" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>Amazon</v>
+        <v>DigiKey</v>
       </c>
       <c r="N55" s="50">
-        <v>7.55</v>
+        <v>0.75</v>
       </c>
       <c r="O55" s="51">
         <v>1</v>
       </c>
       <c r="P55" s="32">
         <f t="shared" si="0"/>
-        <v>7.55</v>
-      </c>
-      <c r="Q55" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R55" s="31" t="s">
-        <v>95</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="25"/>
       <c r="S55" s="8"/>
-      <c r="T55">
-        <f>IF(AND(Q55="Nicht Gekauft", R55="Benötigt"), P55, 0)</f>
-        <v>7.55</v>
-      </c>
-      <c r="U55">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A56" s="53" t="s">
-        <v>155</v>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" s="48" t="s">
+        <v>288</v>
       </c>
       <c r="B56" s="48" t="s">
-        <v>72</v>
+        <v>370</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="48" t="s">
-        <v>140</v>
+        <v>131</v>
+      </c>
+      <c r="D56" s="48">
+        <v>665003113322</v>
       </c>
       <c r="E56" s="48" t="s">
-        <v>144</v>
+        <v>292</v>
       </c>
       <c r="F56" s="48"/>
       <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
+      <c r="H56" s="48">
+        <v>1</v>
+      </c>
       <c r="I56" s="52"/>
       <c r="J56" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K56" s="52"/>
       <c r="L56" s="48" t="s">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="M56" s="48" t="str">
         <f t="shared" si="2"/>
         <v>DigiKey</v>
       </c>
       <c r="N56" s="50">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="O56" s="51">
         <v>1</v>
       </c>
       <c r="P56" s="32">
         <f t="shared" si="0"/>
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="Q56" s="33"/>
       <c r="R56" s="25"/>
       <c r="S56" s="8"/>
-      <c r="U56">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AF56" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="53" t="s">
-        <v>155</v>
+        <v>293</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="C57" s="48" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="D57" s="48" t="s">
-        <v>147</v>
+        <v>263</v>
       </c>
       <c r="E57" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="F57" s="48"/>
+        <v>295</v>
+      </c>
+      <c r="F57" s="48" t="s">
+        <v>294</v>
+      </c>
       <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
+      <c r="H57" s="48">
+        <v>1.27</v>
+      </c>
       <c r="I57" s="52"/>
       <c r="J57" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K57" s="52"/>
       <c r="L57" s="48" t="s">
-        <v>149</v>
+        <v>266</v>
       </c>
       <c r="M57" s="48" t="str">
         <f t="shared" si="2"/>
         <v>DigiKey</v>
       </c>
       <c r="N57" s="50">
-        <v>0.18</v>
+        <v>1.24</v>
       </c>
       <c r="O57" s="51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P57" s="32">
         <f t="shared" si="0"/>
-        <v>0.72</v>
-      </c>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="31"/>
+        <v>1.24</v>
+      </c>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="25"/>
       <c r="S57" s="8"/>
       <c r="U57">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="U57:U61" si="15">SUBTOTAL(103, G57)</f>
         <v>0</v>
       </c>
-      <c r="AF57" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="B58" s="48" t="s">
-        <v>76</v>
+        <v>293</v>
+      </c>
+      <c r="B58" s="56" t="s">
+        <v>378</v>
       </c>
       <c r="C58" s="48" t="s">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="D58" s="48" t="s">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="E58" s="48" t="s">
-        <v>146</v>
+        <v>297</v>
       </c>
       <c r="F58" s="48"/>
       <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
+      <c r="H58" s="48">
+        <v>1.27</v>
+      </c>
       <c r="I58" s="52"/>
       <c r="J58" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K58" s="52"/>
       <c r="L58" s="48" t="s">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="M58" s="48" t="str">
         <f t="shared" si="2"/>
         <v>DigiKey</v>
       </c>
       <c r="N58" s="50">
-        <v>0.14000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="O58" s="51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P58" s="32">
         <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.96</v>
       </c>
       <c r="Q58" s="33"/>
       <c r="R58" s="25"/>
       <c r="S58" s="8"/>
       <c r="U58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AF58" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A59" s="48" t="s">
-        <v>312</v>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A59" s="53" t="s">
+        <v>293</v>
       </c>
       <c r="B59" s="48" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="C59" s="48" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="E59" s="48" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="F59" s="48"/>
       <c r="G59" s="48"/>
       <c r="H59" s="48">
-        <v>2.54</v>
+        <v>1.27</v>
       </c>
       <c r="I59" s="52"/>
       <c r="J59" s="52" t="s">
@@ -5534,1270 +5394,815 @@
       </c>
       <c r="K59" s="52"/>
       <c r="L59" s="48" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="M59" s="48" t="str">
         <f t="shared" si="2"/>
         <v>DigiKey</v>
       </c>
       <c r="N59" s="50">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="O59" s="51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P59" s="32">
         <f t="shared" si="0"/>
-        <v>0.78</v>
+        <v>1.4</v>
       </c>
       <c r="Q59" s="33"/>
       <c r="R59" s="25"/>
       <c r="S59" s="8"/>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A60" s="48" t="s">
-        <v>312</v>
-      </c>
+      <c r="U59">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A60" s="48"/>
       <c r="B60" s="48" t="s">
-        <v>397</v>
+        <v>33</v>
       </c>
       <c r="C60" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="D60" s="48" t="s">
-        <v>279</v>
+        <v>278</v>
+      </c>
+      <c r="D60" s="48">
+        <v>971070154</v>
       </c>
       <c r="E60" s="48" t="s">
-        <v>314</v>
+        <v>34</v>
       </c>
       <c r="F60" s="48"/>
       <c r="G60" s="48"/>
-      <c r="H60" s="48">
-        <v>2.54</v>
-      </c>
+      <c r="H60" s="48"/>
       <c r="I60" s="52"/>
       <c r="J60" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K60" s="52"/>
       <c r="L60" s="48" t="s">
-        <v>280</v>
+        <v>36</v>
       </c>
       <c r="M60" s="48" t="str">
-        <f>HYPERLINK(L60,J60)</f>
+        <f t="shared" ref="M60:M66" si="16">HYPERLINK(L60,J60)</f>
         <v>DigiKey</v>
       </c>
       <c r="N60" s="50">
-        <v>1.73</v>
+        <v>0.88</v>
       </c>
       <c r="O60" s="51">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P60" s="32">
-        <f t="shared" si="0"/>
-        <v>1.73</v>
-      </c>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="8"/>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A61" s="48" t="s">
-        <v>315</v>
-      </c>
+        <f t="shared" ref="P60:P66" si="17">N60*O60</f>
+        <v>7.04</v>
+      </c>
+      <c r="Q60" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R60" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="S60" s="6"/>
+      <c r="T60">
+        <f>IF(AND(Q60="Nicht Gekauft", R60="Benötigt"), P60, 0)</f>
+        <v>7.04</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A61" s="48"/>
       <c r="B61" s="48" t="s">
-        <v>398</v>
+        <v>33</v>
       </c>
       <c r="C61" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="D61" s="48" t="s">
-        <v>283</v>
+        <v>278</v>
+      </c>
+      <c r="D61" s="48">
+        <v>971110154</v>
       </c>
       <c r="E61" s="48" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="F61" s="48"/>
       <c r="G61" s="48"/>
-      <c r="H61" s="48">
-        <v>1</v>
-      </c>
+      <c r="H61" s="48"/>
       <c r="I61" s="52"/>
       <c r="J61" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K61" s="52"/>
       <c r="L61" s="48" t="s">
-        <v>284</v>
+        <v>357</v>
       </c>
       <c r="M61" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>DigiKey</v>
       </c>
       <c r="N61" s="50">
-        <v>1.46</v>
-      </c>
-      <c r="O61" s="51"/>
+        <v>0.75</v>
+      </c>
+      <c r="O61" s="51">
+        <v>4</v>
+      </c>
       <c r="P61" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>3</v>
       </c>
       <c r="Q61" s="33"/>
       <c r="R61" s="25"/>
-      <c r="S61" s="8"/>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="S61" s="6"/>
+      <c r="U61">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="B62" s="48" t="s">
-        <v>399</v>
+        <v>37</v>
       </c>
       <c r="C62" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="D62" s="48">
-        <v>5013300200</v>
+        <v>278</v>
+      </c>
+      <c r="D62" s="48" t="s">
+        <v>38</v>
       </c>
       <c r="E62" s="48" t="s">
-        <v>317</v>
+        <v>39</v>
       </c>
       <c r="F62" s="48"/>
       <c r="G62" s="48"/>
-      <c r="H62" s="48">
-        <v>1</v>
-      </c>
+      <c r="H62" s="48"/>
       <c r="I62" s="52"/>
       <c r="J62" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K62" s="52"/>
       <c r="L62" s="48" t="s">
-        <v>285</v>
+        <v>40</v>
       </c>
       <c r="M62" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>DigiKey</v>
       </c>
       <c r="N62" s="50">
-        <v>0.21</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="O62" s="51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P62" s="32">
-        <f t="shared" si="0"/>
-        <v>0.21</v>
-      </c>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="25"/>
-      <c r="S62" s="8"/>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="Q62" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R62" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="S62" s="6"/>
+      <c r="T62">
+        <f>IF(AND(Q62="Nicht Gekauft", R62="Benötigt"), P62, 0)</f>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="U62">
+        <f>SUBTOTAL(103, G62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>396</v>
+        <v>41</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="D63" s="48">
-        <v>665103131822</v>
+        <v>278</v>
+      </c>
+      <c r="D63" s="48" t="s">
+        <v>42</v>
       </c>
       <c r="E63" s="48" t="s">
-        <v>318</v>
+        <v>39</v>
       </c>
       <c r="F63" s="48"/>
       <c r="G63" s="48"/>
-      <c r="H63" s="48">
-        <v>1</v>
-      </c>
+      <c r="H63" s="48"/>
       <c r="I63" s="52"/>
       <c r="J63" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K63" s="52"/>
       <c r="L63" s="48" t="s">
-        <v>286</v>
+        <v>43</v>
       </c>
       <c r="M63" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>DigiKey</v>
       </c>
       <c r="N63" s="50">
-        <v>0.75</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O63" s="51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P63" s="32">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="25"/>
-      <c r="S63" s="8"/>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A64" s="48" t="s">
-        <v>315</v>
+        <f t="shared" si="17"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q63" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R63" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="S63" s="6"/>
+      <c r="T63">
+        <f>IF(AND(Q63="Nicht Gekauft", R63="Benötigt"), P63, 0)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U63">
+        <f>SUBTOTAL(103, G63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A64" s="53" t="s">
+        <v>282</v>
       </c>
       <c r="B64" s="48" t="s">
-        <v>400</v>
+        <v>37</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="D64" s="48">
-        <v>665003113322</v>
+        <v>278</v>
+      </c>
+      <c r="D64" s="48" t="s">
+        <v>274</v>
       </c>
       <c r="E64" s="48" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="F64" s="48"/>
       <c r="G64" s="48"/>
-      <c r="H64" s="48">
-        <v>1</v>
-      </c>
+      <c r="H64" s="48"/>
       <c r="I64" s="52"/>
       <c r="J64" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K64" s="52"/>
+      <c r="K64" s="48" t="s">
+        <v>280</v>
+      </c>
       <c r="L64" s="48" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="M64" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>DigiKey</v>
       </c>
       <c r="N64" s="50">
-        <v>0.2</v>
+        <v>2.6</v>
       </c>
       <c r="O64" s="51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P64" s="32">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f t="shared" si="17"/>
+        <v>5.2</v>
       </c>
       <c r="Q64" s="33"/>
       <c r="R64" s="25"/>
-      <c r="S64" s="8"/>
+      <c r="S64" s="6"/>
+      <c r="U64">
+        <f t="shared" ref="U64:U66" si="18">SUBTOTAL(103, G64)</f>
+        <v>0</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>342</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="53" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="B65" s="48" t="s">
-        <v>401</v>
+        <v>41</v>
       </c>
       <c r="C65" s="48" t="s">
-        <v>158</v>
+        <v>278</v>
       </c>
       <c r="D65" s="48" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E65" s="48" t="s">
-        <v>322</v>
-      </c>
-      <c r="F65" s="48" t="s">
-        <v>321</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="F65" s="48"/>
       <c r="G65" s="48"/>
-      <c r="H65" s="48">
-        <v>1.27</v>
-      </c>
+      <c r="H65" s="48"/>
       <c r="I65" s="52"/>
       <c r="J65" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K65" s="52"/>
+      <c r="K65" s="48" t="s">
+        <v>283</v>
+      </c>
       <c r="L65" s="48" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="M65" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>DigiKey</v>
       </c>
       <c r="N65" s="50">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="O65" s="51">
         <v>1</v>
       </c>
       <c r="P65" s="32">
-        <f t="shared" si="0"/>
-        <v>1.24</v>
+        <f t="shared" si="17"/>
+        <v>1.53</v>
       </c>
       <c r="Q65" s="33"/>
       <c r="R65" s="25"/>
-      <c r="S65" s="8"/>
+      <c r="S65" s="6"/>
       <c r="U65">
-        <f t="shared" ref="U65:U69" si="15">SUBTOTAL(103, G65)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>343</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="B66" s="56" t="s">
-        <v>408</v>
+        <v>282</v>
+      </c>
+      <c r="B66" s="48" t="s">
+        <v>346</v>
       </c>
       <c r="C66" s="48" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="D66" s="48" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="E66" s="48" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="F66" s="48"/>
       <c r="G66" s="48"/>
-      <c r="H66" s="48">
-        <v>1.27</v>
-      </c>
+      <c r="H66" s="48"/>
       <c r="I66" s="52"/>
       <c r="J66" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="K66" s="52"/>
+        <v>45</v>
+      </c>
+      <c r="K66" s="48" t="s">
+        <v>350</v>
+      </c>
       <c r="L66" s="48" t="s">
-        <v>291</v>
+        <v>349</v>
       </c>
       <c r="M66" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>DigiKey</v>
+        <f t="shared" si="16"/>
+        <v>Mouser</v>
       </c>
       <c r="N66" s="50">
-        <v>0.32</v>
+        <v>2.17</v>
       </c>
       <c r="O66" s="51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P66" s="32">
-        <f t="shared" si="0"/>
-        <v>0.96</v>
+        <f t="shared" si="17"/>
+        <v>2.17</v>
       </c>
       <c r="Q66" s="33"/>
       <c r="R66" s="25"/>
-      <c r="S66" s="8"/>
+      <c r="S66" s="6"/>
       <c r="U66">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="AF66" t="s">
+        <v>353</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A67" s="53" t="s">
-        <v>320</v>
+      <c r="A67" s="48" t="s">
+        <v>376</v>
       </c>
       <c r="B67" s="48" t="s">
-        <v>402</v>
+        <v>46</v>
       </c>
       <c r="C67" s="48" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="D67" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="E67" s="48" t="s">
-        <v>325</v>
+        <v>31</v>
+      </c>
+      <c r="E67" s="52" t="s">
+        <v>48</v>
       </c>
       <c r="F67" s="48"/>
       <c r="G67" s="48"/>
-      <c r="H67" s="48">
-        <v>1.27</v>
-      </c>
+      <c r="H67" s="48"/>
       <c r="I67" s="52"/>
       <c r="J67" s="52" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K67" s="52"/>
       <c r="L67" s="48" t="s">
-        <v>291</v>
+        <v>50</v>
       </c>
       <c r="M67" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>DigiKey</v>
+        <v>Amazon</v>
       </c>
       <c r="N67" s="50">
-        <v>0.7</v>
+        <v>8.66</v>
       </c>
       <c r="O67" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P67" s="32">
         <f t="shared" si="0"/>
-        <v>1.4</v>
-      </c>
-      <c r="Q67" s="33"/>
-      <c r="R67" s="25"/>
-      <c r="S67" s="8"/>
+        <v>8.66</v>
+      </c>
+      <c r="Q67" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="R67" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="T67">
+        <f>IF(AND(Q67="Nicht Gekauft", R67="Benötigt"), P67, 0)</f>
+        <v>0</v>
+      </c>
       <c r="U67">
-        <f t="shared" si="15"/>
+        <f>SUBTOTAL(103, G67)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
+      <c r="A68" s="48" t="s">
+        <v>376</v>
+      </c>
       <c r="B68" s="48" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C68" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="D68" s="48">
-        <v>971070154</v>
+        <v>47</v>
+      </c>
+      <c r="D68" s="48" t="s">
+        <v>31</v>
       </c>
       <c r="E68" s="48" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F68" s="48"/>
       <c r="G68" s="48"/>
       <c r="H68" s="48"/>
       <c r="I68" s="52"/>
       <c r="J68" s="52" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K68" s="52"/>
       <c r="L68" s="48" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
       <c r="M68" s="48" t="str">
-        <f t="shared" ref="M68:M74" si="16">HYPERLINK(L68,J68)</f>
-        <v>DigiKey</v>
+        <f t="shared" si="2"/>
+        <v>Amazon</v>
       </c>
       <c r="N68" s="50">
-        <v>0.88</v>
+        <v>5.99</v>
       </c>
       <c r="O68" s="51">
-        <v>8</v>
-      </c>
-      <c r="P68" s="32">
-        <f t="shared" ref="P68:P74" si="17">N68*O68</f>
-        <v>7.04</v>
-      </c>
-      <c r="Q68" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R68" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="S68" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="P68" s="29">
+        <f t="shared" si="0"/>
+        <v>5.99</v>
+      </c>
+      <c r="Q68" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R68" s="31" t="s">
+        <v>81</v>
+      </c>
       <c r="T68">
         <f>IF(AND(Q68="Nicht Gekauft", R68="Benötigt"), P68, 0)</f>
-        <v>7.04</v>
+        <v>0</v>
       </c>
       <c r="U68">
-        <f t="shared" si="15"/>
+        <f>SUBTOTAL(103, G68)</f>
         <v>0</v>
       </c>
-      <c r="AF68" t="s">
-        <v>368</v>
-      </c>
-      <c r="AG68" t="s">
-        <v>384</v>
-      </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
+      <c r="A69" s="48" t="s">
+        <v>376</v>
+      </c>
       <c r="B69" s="48" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C69" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="D69" s="48">
-        <v>971110154</v>
+        <v>47</v>
+      </c>
+      <c r="D69" s="48" t="s">
+        <v>31</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>385</v>
+        <v>55</v>
       </c>
       <c r="F69" s="48"/>
       <c r="G69" s="48"/>
       <c r="H69" s="48"/>
       <c r="I69" s="52"/>
       <c r="J69" s="52" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K69" s="52"/>
       <c r="L69" s="48" t="s">
-        <v>386</v>
+        <v>211</v>
       </c>
       <c r="M69" s="48" t="str">
-        <f t="shared" si="16"/>
-        <v>DigiKey</v>
-      </c>
-      <c r="N69" s="50">
-        <v>0.75</v>
-      </c>
-      <c r="O69" s="51">
-        <v>4</v>
-      </c>
-      <c r="P69" s="32">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="Q69" s="33"/>
-      <c r="R69" s="25"/>
-      <c r="S69" s="6"/>
-      <c r="U69">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A70" s="48" t="s">
-        <v>306</v>
-      </c>
-      <c r="B70" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C70" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="D70" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E70" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F70" s="48"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="52"/>
-      <c r="J70" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="K70" s="52"/>
-      <c r="L70" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="M70" s="48" t="str">
-        <f t="shared" si="16"/>
-        <v>DigiKey</v>
-      </c>
-      <c r="N70" s="50">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="O70" s="51">
-        <v>4</v>
-      </c>
-      <c r="P70" s="32">
-        <f t="shared" si="17"/>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="Q70" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R70" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="S70" s="6"/>
-      <c r="T70">
-        <f>IF(AND(Q70="Nicht Gekauft", R70="Benötigt"), P70, 0)</f>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="U70">
-        <f>SUBTOTAL(103, G70)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A71" s="48" t="s">
-        <v>306</v>
-      </c>
-      <c r="B71" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="C71" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="D71" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="E71" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="K71" s="52"/>
-      <c r="L71" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="M71" s="48" t="str">
-        <f t="shared" si="16"/>
-        <v>DigiKey</v>
-      </c>
-      <c r="N71" s="50">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="O71" s="51">
-        <v>4</v>
-      </c>
-      <c r="P71" s="32">
-        <f t="shared" si="17"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q71" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R71" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="S71" s="6"/>
-      <c r="T71">
-        <f>IF(AND(Q71="Nicht Gekauft", R71="Benötigt"), P71, 0)</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="U71">
-        <f>SUBTOTAL(103, G71)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A72" s="53" t="s">
-        <v>309</v>
-      </c>
-      <c r="B72" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C72" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="D72" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="E72" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="K72" s="48" t="s">
-        <v>307</v>
-      </c>
-      <c r="L72" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="M72" s="48" t="str">
-        <f t="shared" si="16"/>
-        <v>DigiKey</v>
-      </c>
-      <c r="N72" s="50">
-        <v>2.6</v>
-      </c>
-      <c r="O72" s="51">
-        <v>2</v>
-      </c>
-      <c r="P72" s="32">
-        <f t="shared" si="17"/>
-        <v>5.2</v>
-      </c>
-      <c r="Q72" s="33"/>
-      <c r="R72" s="25"/>
-      <c r="S72" s="6"/>
-      <c r="U72">
-        <f t="shared" ref="U72:U74" si="18">SUBTOTAL(103, G72)</f>
-        <v>0</v>
-      </c>
-      <c r="AF72" t="s">
-        <v>369</v>
-      </c>
-      <c r="AG72" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A73" s="53" t="s">
-        <v>309</v>
-      </c>
-      <c r="B73" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="D73" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="E73" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="48"/>
-      <c r="I73" s="52"/>
-      <c r="J73" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="K73" s="48" t="s">
-        <v>310</v>
-      </c>
-      <c r="L73" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="M73" s="48" t="str">
-        <f t="shared" si="16"/>
-        <v>DigiKey</v>
-      </c>
-      <c r="N73" s="50">
-        <v>1.53</v>
-      </c>
-      <c r="O73" s="51">
-        <v>1</v>
-      </c>
-      <c r="P73" s="32">
-        <f t="shared" si="17"/>
-        <v>1.53</v>
-      </c>
-      <c r="Q73" s="33"/>
-      <c r="R73" s="25"/>
-      <c r="S73" s="6"/>
-      <c r="U73">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AF73" t="s">
-        <v>370</v>
-      </c>
-      <c r="AG73" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A74" s="53" t="s">
-        <v>309</v>
-      </c>
-      <c r="B74" s="48" t="s">
-        <v>375</v>
-      </c>
-      <c r="C74" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="D74" s="48" t="s">
-        <v>376</v>
-      </c>
-      <c r="E74" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="F74" s="48"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="48"/>
-      <c r="I74" s="52"/>
-      <c r="J74" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="K74" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="L74" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="M74" s="48" t="str">
-        <f t="shared" si="16"/>
-        <v>Mouser</v>
-      </c>
-      <c r="N74" s="50">
-        <v>2.17</v>
-      </c>
-      <c r="O74" s="51">
-        <v>1</v>
-      </c>
-      <c r="P74" s="32">
-        <f t="shared" si="17"/>
-        <v>2.17</v>
-      </c>
-      <c r="Q74" s="33"/>
-      <c r="R74" s="25"/>
-      <c r="S74" s="6"/>
-      <c r="U74">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>382</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A75" s="48" t="s">
-        <v>406</v>
-      </c>
-      <c r="B75" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D75" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E75" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="K75" s="52"/>
-      <c r="L75" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="M75" s="48" t="str">
         <f t="shared" si="2"/>
         <v>Amazon</v>
       </c>
-      <c r="N75" s="50">
-        <v>8.66</v>
-      </c>
-      <c r="O75" s="51">
+      <c r="N69" s="50">
+        <v>18.14</v>
+      </c>
+      <c r="O69" s="51">
         <v>1</v>
       </c>
-      <c r="P75" s="32">
-        <f t="shared" si="0"/>
-        <v>8.66</v>
-      </c>
-      <c r="Q75" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="R75" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="T75">
-        <f>IF(AND(Q75="Nicht Gekauft", R75="Benötigt"), P75, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <f>SUBTOTAL(103, G75)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A76" s="48" t="s">
-        <v>406</v>
-      </c>
-      <c r="B76" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C76" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D76" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E76" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="F76" s="48"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="48"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="K76" s="52"/>
-      <c r="L76" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="M76" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>Amazon</v>
-      </c>
-      <c r="N76" s="50">
-        <v>5.99</v>
-      </c>
-      <c r="O76" s="51">
-        <v>1</v>
-      </c>
-      <c r="P76" s="29">
-        <f t="shared" si="0"/>
-        <v>5.99</v>
-      </c>
-      <c r="Q76" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R76" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="T76">
-        <f>IF(AND(Q76="Nicht Gekauft", R76="Benötigt"), P76, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <f>SUBTOTAL(103, G76)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A77" s="48" t="s">
-        <v>406</v>
-      </c>
-      <c r="B77" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C77" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D77" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E77" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="48"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="K77" s="52"/>
-      <c r="L77" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="M77" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>Amazon</v>
-      </c>
-      <c r="N77" s="50">
-        <v>18.14</v>
-      </c>
-      <c r="O77" s="51">
-        <v>1</v>
-      </c>
-      <c r="P77" s="32">
+      <c r="P69" s="32">
         <f t="shared" si="0"/>
         <v>18.14</v>
       </c>
-      <c r="Q77" s="33" t="s">
+      <c r="Q69" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="R77" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="T77">
-        <f>IF(AND(Q77="Nicht Gekauft", R77="Benötigt"), P77, 0)</f>
+      <c r="R69" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="T69">
+        <f>IF(AND(Q69="Nicht Gekauft", R69="Benötigt"), P69, 0)</f>
         <v>0</v>
       </c>
-      <c r="U77">
-        <f>SUBTOTAL(103, G77)</f>
+      <c r="U69">
+        <f>SUBTOTAL(103, G69)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="16"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="16"/>
-      <c r="Q78" s="17"/>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="17"/>
+    </row>
+    <row r="71" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="G72" s="42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F73" s="43">
+        <f>SUMPRODUCT(F2:F69, O2:O69, U2:U69)</f>
+        <v>5.7779999999999996</v>
+      </c>
+      <c r="G73" s="43" cm="1">
+        <f t="array" ref="G73">SUMPRODUCT(--(G2:G69=12), F2:F69, O2:O69, U2:U69)</f>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G75" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G76" s="43" cm="1">
+        <f t="array" ref="G76">SUMPRODUCT(--(G2:G69=5), F2:F69, O2:O69, U2:U69)</f>
+        <v>2.738</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F79" s="5" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>253</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="H79" s="3"/>
     </row>
     <row r="80" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F80" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="G80" s="42" t="s">
-        <v>249</v>
-      </c>
+      <c r="F80" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="G80" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="H80" s="3"/>
     </row>
     <row r="81" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F81" s="43">
-        <f>SUMPRODUCT(F2:F77, O2:O77, U2:U77)</f>
-        <v>5.7779999999999996</v>
-      </c>
-      <c r="G81" s="43" cm="1">
-        <f t="array" ref="G81">SUMPRODUCT(--(G2:G77=12), F2:F77, O2:O77, U2:U77)</f>
-        <v>3.04</v>
-      </c>
+      <c r="F81" s="38">
+        <f>F73*$F$84</f>
+        <v>8.6669999999999998</v>
+      </c>
+      <c r="G81" s="38">
+        <f>G73*$F$84</f>
+        <v>4.5600000000000005</v>
+      </c>
+      <c r="H81" s="3"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
     </row>
     <row r="82" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G83" s="42" t="s">
-        <v>250</v>
+      <c r="F83" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="G83" s="37" t="s">
+        <v>223</v>
       </c>
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G84" s="43" cm="1">
-        <f t="array" ref="G84">SUMPRODUCT(--(G2:G77=5), F2:F77, O2:O77, U2:U77)</f>
-        <v>2.738</v>
-      </c>
+      <c r="F84" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="G84" s="38">
+        <f>G76*$F$84</f>
+        <v>4.1070000000000002</v>
+      </c>
+      <c r="H84" s="3"/>
     </row>
     <row r="85" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H85" s="3"/>
-    </row>
-    <row r="86" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H86" s="3"/>
+      <c r="I85" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F86" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="87" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F87" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="H87" s="3"/>
-    </row>
-    <row r="88" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F88" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="G88" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="H88" s="3"/>
+      <c r="F87" s="46">
+        <f>SUM(F2:F69)</f>
+        <v>4.621999999999999</v>
+      </c>
+      <c r="G87" s="45" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G88" s="47">
+        <v>3.04</v>
+      </c>
     </row>
     <row r="89" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F89" s="38">
-        <f>F81*$F$92</f>
-        <v>8.6669999999999998</v>
-      </c>
-      <c r="G89" s="38">
-        <f>G81*$F$92</f>
-        <v>4.5600000000000005</v>
-      </c>
-      <c r="H89" s="3"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-    </row>
-    <row r="90" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F91" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="G91" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="H91" s="3"/>
-    </row>
-    <row r="92" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F92" s="41">
-        <v>1.5</v>
-      </c>
-      <c r="G92" s="38">
-        <f>G84*$F$92</f>
-        <v>4.1070000000000002</v>
-      </c>
-      <c r="H92" s="3"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+    </row>
+    <row r="90" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F90" s="39"/>
+      <c r="G90" s="44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F91" s="39"/>
+      <c r="G91" s="46">
+        <v>2.548</v>
+      </c>
     </row>
     <row r="93" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H93" s="3"/>
-      <c r="I93" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="94" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F94" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="95" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F95" s="46">
-        <f>SUM(F2:F77)</f>
-        <v>4.622399999999999</v>
-      </c>
-      <c r="G95" s="45" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="96" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G96" s="47">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="97" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F97" s="39"/>
-      <c r="G97" s="39"/>
+      <c r="F93" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>238</v>
+      </c>
+      <c r="G94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>239</v>
+      </c>
+      <c r="G95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>240</v>
+      </c>
+      <c r="G96">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="98" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F98" s="39"/>
-      <c r="G98" s="44" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="99" spans="6:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F99" s="39"/>
-      <c r="G99" s="46">
-        <v>2.548</v>
-      </c>
-    </row>
-    <row r="101" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F101" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="102" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F102" t="s">
-        <v>265</v>
-      </c>
-      <c r="G102">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F103" t="s">
-        <v>266</v>
-      </c>
-      <c r="G103">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F104" t="s">
-        <v>267</v>
-      </c>
-      <c r="G104">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="106" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F106" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="107" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F107" t="s">
-        <v>268</v>
-      </c>
-      <c r="G107">
-        <f>G102-G89</f>
+      <c r="F98" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>241</v>
+      </c>
+      <c r="G99">
+        <f>G94-G81</f>
         <v>3.4399999999999995</v>
       </c>
     </row>
-    <row r="108" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F108" t="s">
-        <v>269</v>
-      </c>
-      <c r="G108">
-        <f>G103+G104-G92</f>
+    <row r="100" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>242</v>
+      </c>
+      <c r="G100">
+        <f>G95+G96-G84</f>
         <v>0.94299999999999962</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R77" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}"/>
+  <autoFilter ref="A1:R69" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}"/>
   <customSheetViews>
-    <customSheetView guid="{1253E34A-3A91-496E-8486-95C1D21A2085}" showAutoFilter="1" hiddenColumns="1" topLeftCell="B1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE10" sqref="AE10"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R76" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}"/>
-    </customSheetView>
-    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R59" xr:uid="{9DE29C60-E3C0-4B17-9F5F-7C375DB18647}"/>
-    </customSheetView>
-    <customSheetView guid="{3411E606-57DF-4B4E-942D-8A879EBC3FAD}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R76" xr:uid="{D91B947C-B158-4BD6-9390-4A4CD85ED453}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BL"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
-            <filter val="Lk2"/>
-            <filter val="POW2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="ST_TEMP"/>
-            <filter val="ST3"/>
-            <filter val="SV2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{0C0F82AC-DC21-4B4A-94AC-E96E30BF52DE}" filter="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P79" sqref="P79"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R76" xr:uid="{D3B25007-107E-4D62-AD20-FEC58E066D51}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BL"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
-            <filter val="Lk2"/>
-            <filter val="POW2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="ST_TEMP"/>
-            <filter val="ST3"/>
-            <filter val="SV2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{4300A442-0A40-4FB1-A9F3-2AB99D5A4993}" showAutoFilter="1" topLeftCell="B1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-      <autoFilter ref="A1:R76" xr:uid="{0D642323-F386-4D64-930E-5472F8BC82C0}"/>
-    </customSheetView>
     <customSheetView guid="{E35F6895-3697-4266-BC90-C5022F400E13}" filter="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O83" sqref="B1:O83"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-      <autoFilter ref="A1:R76" xr:uid="{14FAAA51-3C1C-4CC0-9F91-399BF121EB4D}">
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A1:R76" xr:uid="{5D477D3A-D3F5-438A-8A8B-6B86EF38C4D4}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6822,6 +6227,77 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
+    <customSheetView guid="{4300A442-0A40-4FB1-A9F3-2AB99D5A4993}" showAutoFilter="1" topLeftCell="B1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A1:R76" xr:uid="{634BB408-3235-47EC-AF8F-4454C3FFA673}"/>
+    </customSheetView>
+    <customSheetView guid="{0C0F82AC-DC21-4B4A-94AC-E96E30BF52DE}" filter="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P79" sqref="P79"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A1:R76" xr:uid="{A3BDE8A2-0A0C-41A3-A308-65F95E689DB3}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BL"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="Lk2"/>
+            <filter val="POW2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="ST_TEMP"/>
+            <filter val="ST3"/>
+            <filter val="SV2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{3411E606-57DF-4B4E-942D-8A879EBC3FAD}" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A1:R76" xr:uid="{AEB7E2CA-3939-41B6-8B05-BB6043E9B754}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BL"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="Lk2"/>
+            <filter val="POW2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="ST_TEMP"/>
+            <filter val="ST3"/>
+            <filter val="SV2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+      <autoFilter ref="A1:R59" xr:uid="{0787BFBA-D108-40A8-BD65-0F256B371AAF}"/>
+    </customSheetView>
+    <customSheetView guid="{1253E34A-3A91-496E-8486-95C1D21A2085}" showAutoFilter="1" hiddenColumns="1" topLeftCell="B1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE10" sqref="AE10"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+      <autoFilter ref="A1:R76" xr:uid="{074CD1F6-C5AA-4B4D-B287-6988701C8D33}"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="4">
     <mergeCell ref="AB1:AC1"/>
@@ -6842,7 +6318,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q85:Q1048576 Q1:Q83">
+  <conditionalFormatting sqref="Q77:Q1048576 Q1:Q75">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Nicht Gekauft"</formula>
     </cfRule>
@@ -6858,7 +6334,7 @@
       <formula>"Gekauft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R78">
+  <conditionalFormatting sqref="R2:R70">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Nicht benötigt"</formula>
     </cfRule>
@@ -6867,40 +6343,35 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R19 R20:R78" xr:uid="{DF639F38-DCBF-4FB0-9016-BE70B5447265}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R70" xr:uid="{DF639F38-DCBF-4FB0-9016-BE70B5447265}">
       <formula1>"Benötigt,Nicht benötigt"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q19 Q20:Q78" xr:uid="{BB82D80E-695D-4A38-A148-48463DFE8321}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q70" xr:uid="{BB82D80E-695D-4A38-A148-48463DFE8321}">
       <formula1>"Gekauft,Nicht Gekauft"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId7" xr:uid="{134576B2-6870-47F8-80B5-95CA9B97F9E2}"/>
-    <hyperlink ref="L68" r:id="rId8" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
-    <hyperlink ref="L70" r:id="rId9" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
-    <hyperlink ref="L71" r:id="rId10" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
-    <hyperlink ref="L75" r:id="rId11" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
-    <hyperlink ref="L25" r:id="rId12" xr:uid="{57963C92-CE56-4D91-B1F1-7FA05F5BC3A8}"/>
-    <hyperlink ref="L24" r:id="rId13" xr:uid="{9D795571-0999-43FF-9A1F-496FF99C86C0}"/>
-    <hyperlink ref="L18" r:id="rId14" xr:uid="{8465788D-FDE3-460C-960F-435D2FB5F396}"/>
-    <hyperlink ref="L50" r:id="rId15" xr:uid="{A9D6150D-3C06-4D81-AD60-047F4F409296}"/>
-    <hyperlink ref="L51" r:id="rId16" xr:uid="{411A7094-1AC1-4084-ABE4-5C0060EC1A2D}"/>
-    <hyperlink ref="L52" r:id="rId17" xr:uid="{3DDB6C5A-7DB3-4C65-B604-D02293535F49}"/>
-    <hyperlink ref="L15" r:id="rId18" xr:uid="{56E44BCE-942A-4E32-8574-907151789664}"/>
-    <hyperlink ref="L7" r:id="rId19" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
-    <hyperlink ref="L3" r:id="rId20" xr:uid="{C49F6822-A4DD-42C2-B3BF-0381D137937C}"/>
-    <hyperlink ref="L5" r:id="rId21" xr:uid="{BF0FEABB-4850-4BC5-A11D-D889C6B926FD}"/>
-    <hyperlink ref="L16" r:id="rId22" xr:uid="{21389653-C0FE-46E1-B136-04B9A0DE28C5}"/>
-    <hyperlink ref="L19" r:id="rId23" xr:uid="{1242A3DC-9FDC-4C47-9270-1B4A92E75E73}"/>
-    <hyperlink ref="L17" r:id="rId24" xr:uid="{E62708AD-A075-4D9D-9BC8-2CBD617B66EE}"/>
-    <hyperlink ref="L13" r:id="rId25" xr:uid="{02A8F53B-7033-433E-97B4-37D43B10ABDE}"/>
-    <hyperlink ref="K72" r:id="rId26" display="https://www.samtec.com/products/hle-107-02-l-dv" xr:uid="{AF2D4394-67CE-4447-B187-DA356AB0AFD4}"/>
-    <hyperlink ref="L72" r:id="rId27" xr:uid="{3CAA47B9-FD6F-4B23-A59B-6E4BF51797D7}"/>
-    <hyperlink ref="L61" r:id="rId28" xr:uid="{8FDFC79B-94E5-4C68-84E1-D5C8679D313C}"/>
-    <hyperlink ref="L62" r:id="rId29" xr:uid="{3CB626FF-165C-4A7E-A7FE-D41E681D5EC5}"/>
-    <hyperlink ref="L22" r:id="rId30" xr:uid="{B06D0A87-6477-4382-AFA7-5ACA40E62DA0}"/>
+    <hyperlink ref="L60" r:id="rId8" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
+    <hyperlink ref="L62" r:id="rId9" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
+    <hyperlink ref="L63" r:id="rId10" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
+    <hyperlink ref="L67" r:id="rId11" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
+    <hyperlink ref="L42" r:id="rId12" xr:uid="{A9D6150D-3C06-4D81-AD60-047F4F409296}"/>
+    <hyperlink ref="L43" r:id="rId13" xr:uid="{411A7094-1AC1-4084-ABE4-5C0060EC1A2D}"/>
+    <hyperlink ref="L44" r:id="rId14" xr:uid="{3DDB6C5A-7DB3-4C65-B604-D02293535F49}"/>
+    <hyperlink ref="L15" r:id="rId15" xr:uid="{56E44BCE-942A-4E32-8574-907151789664}"/>
+    <hyperlink ref="L7" r:id="rId16" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
+    <hyperlink ref="L3" r:id="rId17" xr:uid="{C49F6822-A4DD-42C2-B3BF-0381D137937C}"/>
+    <hyperlink ref="L5" r:id="rId18" xr:uid="{BF0FEABB-4850-4BC5-A11D-D889C6B926FD}"/>
+    <hyperlink ref="L16" r:id="rId19" xr:uid="{21389653-C0FE-46E1-B136-04B9A0DE28C5}"/>
+    <hyperlink ref="L17" r:id="rId20" xr:uid="{E62708AD-A075-4D9D-9BC8-2CBD617B66EE}"/>
+    <hyperlink ref="L13" r:id="rId21" xr:uid="{02A8F53B-7033-433E-97B4-37D43B10ABDE}"/>
+    <hyperlink ref="K64" r:id="rId22" display="https://www.samtec.com/products/hle-107-02-l-dv" xr:uid="{AF2D4394-67CE-4447-B187-DA356AB0AFD4}"/>
+    <hyperlink ref="L64" r:id="rId23" xr:uid="{3CAA47B9-FD6F-4B23-A59B-6E4BF51797D7}"/>
+    <hyperlink ref="L53" r:id="rId24" xr:uid="{8FDFC79B-94E5-4C68-84E1-D5C8679D313C}"/>
+    <hyperlink ref="L54" r:id="rId25" xr:uid="{3CB626FF-165C-4A7E-A7FE-D41E681D5EC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -8,37 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989B5D9E-6314-4578-A699-3BDDD381E2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E650044-5144-4184-B1F9-43555C240495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2ndMainBoard" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$71</definedName>
     <definedName name="Z_0C0F82AC_DC21_4B4A_94AC_E96E30BF52DE_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$H:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$AK</definedName>
-    <definedName name="Z_0C0F82AC_DC21_4B4A_94AC_E96E30BF52DE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$69</definedName>
-    <definedName name="Z_0C0F82AC_DC21_4B4A_94AC_E96E30BF52DE_.wvu.Rows" localSheetId="0" hidden="1">'2ndMainBoard'!$71:$71,'2ndMainBoard'!$79:$103</definedName>
+    <definedName name="Z_0C0F82AC_DC21_4B4A_94AC_E96E30BF52DE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$71</definedName>
+    <definedName name="Z_0C0F82AC_DC21_4B4A_94AC_E96E30BF52DE_.wvu.Rows" localSheetId="0" hidden="1">'2ndMainBoard'!$73:$73,'2ndMainBoard'!$81:$105</definedName>
     <definedName name="Z_1253E34A_3A91_496E_8486_95C1D21A2085_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$I,'2ndMainBoard'!$P:$U,'2ndMainBoard'!$W:$AD</definedName>
-    <definedName name="Z_1253E34A_3A91_496E_8486_95C1D21A2085_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$69</definedName>
+    <definedName name="Z_1253E34A_3A91_496E_8486_95C1D21A2085_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$71</definedName>
     <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$I:$I,'2ndMainBoard'!$M:$M,'2ndMainBoard'!$P:$R,'2ndMainBoard'!$T:$AD</definedName>
-    <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$69</definedName>
+    <definedName name="Z_14407C96_79A3_4D80_86DC_7BE14F8182CE_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$71</definedName>
+    <definedName name="Z_2376F375_2D91_4AB8_9819_CC132C3118EA_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$A:$A,'2ndMainBoard'!$C:$C,'2ndMainBoard'!$E:$L,'2ndMainBoard'!$N:$N,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$V</definedName>
+    <definedName name="Z_2376F375_2D91_4AB8_9819_CC132C3118EA_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$71</definedName>
+    <definedName name="Z_2376F375_2D91_4AB8_9819_CC132C3118EA_.wvu.Rows" localSheetId="0" hidden="1">'2ndMainBoard'!$73:$73,'2ndMainBoard'!$81:$105</definedName>
     <definedName name="Z_3411E606_57DF_4B4E_942D_8A879EBC3FAD_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$F:$L,'2ndMainBoard'!$Q:$R,'2ndMainBoard'!$T:$V</definedName>
-    <definedName name="Z_3411E606_57DF_4B4E_942D_8A879EBC3FAD_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$69</definedName>
-    <definedName name="Z_4300A442_0A40_4FB1_A9F3_2AB99D5A4993_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$69</definedName>
+    <definedName name="Z_3411E606_57DF_4B4E_942D_8A879EBC3FAD_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$71</definedName>
+    <definedName name="Z_4300A442_0A40_4FB1_A9F3_2AB99D5A4993_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$71</definedName>
     <definedName name="Z_E35F6895_3697_4266_BC90_C5022F400E13_.wvu.Cols" localSheetId="0" hidden="1">'2ndMainBoard'!$A:$A,'2ndMainBoard'!$C:$C,'2ndMainBoard'!$E:$E,'2ndMainBoard'!$H:$N,'2ndMainBoard'!$P:$R,'2ndMainBoard'!$T:$AK</definedName>
-    <definedName name="Z_E35F6895_3697_4266_BC90_C5022F400E13_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$69</definedName>
-    <definedName name="Z_E35F6895_3697_4266_BC90_C5022F400E13_.wvu.Rows" localSheetId="0" hidden="1">'2ndMainBoard'!$71:$71,'2ndMainBoard'!$79:$103</definedName>
+    <definedName name="Z_E35F6895_3697_4266_BC90_C5022F400E13_.wvu.FilterData" localSheetId="0" hidden="1">'2ndMainBoard'!$A$1:$R$71</definedName>
+    <definedName name="Z_E35F6895_3697_4266_BC90_C5022F400E13_.wvu.Rows" localSheetId="0" hidden="1">'2ndMainBoard'!$73:$73,'2ndMainBoard'!$81:$105</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Stueckliste_ansicht_export" guid="{2376F375-2D91-4AB8-9819-CC132C3118EA}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Anforderungen_prompt" guid="{1253E34A-3A91-496E-8486-95C1D21A2085}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan" guid="{3411E606-57DF-4B4E-942D-8A879EBC3FAD}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Strombudget" guid="{0C0F82AC-DC21-4B4A-94AC-E96E30BF52DE}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Default" guid="{4300A442-0A40-4FB1-A9F3-2AB99D5A4993}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
     <customWorkbookView name="Strombudget_Foto" guid="{E35F6895-3697-4266-BC90-C5022F400E13}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Default" guid="{4300A442-0A40-4FB1-A9F3-2AB99D5A4993}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Strombudget" guid="{0C0F82AC-DC21-4B4A-94AC-E96E30BF52DE}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan" guid="{3411E606-57DF-4B4E-942D-8A879EBC3FAD}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Anforderungen_prompt" guid="{1253E34A-3A91-496E-8486-95C1D21A2085}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -82,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="431">
   <si>
     <t>Alternative</t>
   </si>
@@ -354,9 +359,6 @@
     <t>TMC2009</t>
   </si>
   <si>
-    <t>Bipol</t>
-  </si>
-  <si>
     <t>3D-Jake</t>
   </si>
   <si>
@@ -1215,9 +1217,6 @@
     <t>Lager</t>
   </si>
   <si>
-    <t>_</t>
-  </si>
-  <si>
     <t>2 Pin Bridge (zur manuellen Auswahl)</t>
   </si>
   <si>
@@ -1228,6 +1227,159 @@
   </si>
   <si>
     <t>es werden einfach die temperatur sensoren genommen, die der drucker bereitstellt. Es sind so gut wie alle kompatibel mit klipper, sie muessen nur konfektioniert werden mit den st_temp  stecker und sind ready to go!</t>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 3B+</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/en/products/detail/raspberry-pi/SC0073/8571724</t>
+  </si>
+  <si>
+    <t>Bipolarer SM, bis 1/256 step, Strommessung</t>
+  </si>
+  <si>
+    <t>4 core, 1.4GHz</t>
+  </si>
+  <si>
+    <t>DigikKey</t>
+  </si>
+  <si>
+    <t>Temperaturelement</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/de/products/detail/epcos-tdk-electronics/B57550G1103F005/3500387</t>
+  </si>
+  <si>
+    <t>B57550G1103F005</t>
+  </si>
+  <si>
+    <t>link-suche: https://www.digikey.at/de/products/filter/ntc-thermistoren/508?s=N4IgjCBcoGwJxVAYygMwIYBsDOBTANCAPZQDaIAzFQAzUwiESEAsYc1Y9hVY1FTlAExxBFagxDNBYZvwmswADjgB2CRWYqYixeuYi4AjQcF64-ZuuFKjvMIN3cxMGAIWKO6xRRgBWUwC6hAAOAC5QIADKoQBOAJYAdgDmIAC%2BhIL%2BiCAokBg4BMRkIJm%2B%2Br4SglJwLpXV8JU%2BYDLyKlXUFYyKSllBIGER0fHJaYSKMGrQOWhYeIQkkORKiqaEfp0gKp6EKnI7UhIqipZjnBIrXCDeJyDml3BlEjXihKr3IhJ2l7wPn7wbzT24DAVE%2B-FW4DEEJB1BunGOID6A0gUViiRS6XAcGU2Vy%2BTmRUWIHEAUxAFp6FNcrEAK6FBbkCiI8kIKlQWn04oQUmEMlMtmQDnzLkk8mmAVCwnkCqk1KpIA</t>
+  </si>
+  <si>
+    <t>-55 bis 300C, 71mm lang</t>
+  </si>
+  <si>
+    <t>Referenz</t>
+  </si>
+  <si>
+    <t>\cite{RaspberryPi3BPlus_DigiKey2025}</t>
+  </si>
+  <si>
+    <t>\cite{ATMEGA328P_AU}</t>
+  </si>
+  <si>
+    <t>\cite{FT232RNL_USB_Serial}</t>
+  </si>
+  <si>
+    <t>\cite{Quarz_ECS160}</t>
+  </si>
+  <si>
+    <t>\cite{Tactile_Switch_PTS647}</t>
+  </si>
+  <si>
+    <t>\cite{Stepper_Nema14}</t>
+  </si>
+  <si>
+    <t>\cite{DRV8825_Schrittmotor_Treiber}</t>
+  </si>
+  <si>
+    <t>\cite{Servo_MG90S}</t>
+  </si>
+  <si>
+    <t>\cite{BLTouch_Leveling_Sensor}</t>
+  </si>
+  <si>
+    <t>\cite{MPU6050_GY521}</t>
+  </si>
+  <si>
+    <t>\cite{Luefter_CFM2507CF_1140}</t>
+  </si>
+  <si>
+    <t>\cite{Luefter_CFM2507CF_0140}</t>
+  </si>
+  <si>
+    <t>\cite{NTC_Thermistor_ABNTC0805}</t>
+  </si>
+  <si>
+    <t>\cite{Connector_Housing_665002113322}</t>
+  </si>
+  <si>
+    <t>\cite{Header_Pin_665102131822}</t>
+  </si>
+  <si>
+    <t>\cite{DC_DC_Regler_TPS56837}</t>
+  </si>
+  <si>
+    <t>\cite{DC_DC_Regler_TPS565208}</t>
+  </si>
+  <si>
+    <t>\cite{Induktor_SPM10040T}</t>
+  </si>
+  <si>
+    <t>\cite{Induktor_IHLP2525CZER3R3M11}</t>
+  </si>
+  <si>
+    <t>\cite{MOSFET_SQJ409EP}</t>
+  </si>
+  <si>
+    <t>\cite{Zenerdiode_SZ1SMB5927BT3G}</t>
+  </si>
+  <si>
+    <t>\cite{TVS_Diode_824521241}</t>
+  </si>
+  <si>
+    <t>\cite{MOSFET_RJK0456DPB}</t>
+  </si>
+  <si>
+    <t>\cite{Motor_Driver_TPM16050}</t>
+  </si>
+  <si>
+    <t>\cite{USB_Cable_A_USB31C_20A_150A}</t>
+  </si>
+  <si>
+    <t>\cite{USB_Connector_USB4085_GF_A}</t>
+  </si>
+  <si>
+    <t>\cite{Power_Connector_PJ_082BH}</t>
+  </si>
+  <si>
+    <t>\cite{Power_Connector_50_00619}</t>
+  </si>
+  <si>
+    <t>\cite{Multiconductor_Cable_CF881_15_02}</t>
+  </si>
+  <si>
+    <t>\cite{Header_Pin_S4B_XH_A_1}</t>
+  </si>
+  <si>
+    <t>\cite{Header_Pin_S3B_XH_A_1}</t>
+  </si>
+  <si>
+    <t>\cite{Header_Pin_S2B_XH_A_1}</t>
+  </si>
+  <si>
+    <t>\cite{Header_Pin_FTSH_103}</t>
+  </si>
+  <si>
+    <t>\cite{Shunt_Jumper_M50_1900005}</t>
+  </si>
+  <si>
+    <t>\cite{Board_Spacer_971070154}</t>
+  </si>
+  <si>
+    <t>\cite{Board_Spacer_971110154}</t>
+  </si>
+  <si>
+    <t>\cite{Header_Socket_HLE_107}</t>
+  </si>
+  <si>
+    <t>\cite{Header_Pin_TSM_107}</t>
+  </si>
+  <si>
+    <t>\cite{Connector_HW_07_08}</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1850,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1849,6 +2001,9 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2240,44 +2395,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AK100"/>
+  <dimension ref="A1:AM105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO19" sqref="AO19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="4" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="12" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
     <col min="17" max="17" width="23.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="21.140625" style="2" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" customWidth="1"/>
     <col min="20" max="20" width="14.42578125" hidden="1" customWidth="1"/>
     <col min="21" max="23" width="17" hidden="1" customWidth="1"/>
-    <col min="24" max="25" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" hidden="1" customWidth="1"/>
-    <col min="27" max="29" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="31" max="39" width="11.42578125" customWidth="1"/>
+    <col min="24" max="25" width="9.140625" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" customWidth="1"/>
+    <col min="28" max="29" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="30" max="34" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="11.42578125" customWidth="1"/>
+    <col min="36" max="39" width="11.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2297,10 +2454,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>5</v>
@@ -2312,13 +2469,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N1" s="24" t="s">
         <v>9</v>
@@ -2339,14 +2496,14 @@
         <v>14</v>
       </c>
       <c r="U1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X1" s="59" t="s">
         <v>78</v>
       </c>
       <c r="Y1" s="60"/>
       <c r="Z1" s="11">
-        <f>SUMIFS(P42:P69,Q42:Q69, "Nicht Gekauft",R42:R69,"Benötigt")</f>
+        <f>SUMIFS(P44:P71,Q44:Q71, "Nicht Gekauft",R44:R71,"Benötigt")</f>
         <v>19.07</v>
       </c>
       <c r="AB1" s="57" t="s">
@@ -2354,407 +2511,358 @@
       </c>
       <c r="AC1" s="58"/>
       <c r="AD1" s="10">
-        <f>SUM(P2:P69)</f>
-        <v>357.67999999999989</v>
+        <f>SUM(P3:P71)</f>
+        <v>367.67999999999984</v>
       </c>
       <c r="AF1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AH1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="48"/>
       <c r="B2" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>17</v>
+        <v>380</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>381</v>
       </c>
       <c r="E2" s="48" t="s">
-        <v>18</v>
+        <v>384</v>
       </c>
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="48"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52" t="s">
+        <v>385</v>
+      </c>
+      <c r="K2" s="52"/>
       <c r="L2" s="48" t="s">
-        <v>20</v>
+        <v>382</v>
       </c>
       <c r="M2" s="48" t="str">
         <f>HYPERLINK(L2,J2)</f>
-        <v>Stepperonline</v>
+        <v>DigikKey</v>
       </c>
       <c r="N2" s="50">
-        <v>9.91</v>
+        <v>33.369999999999997</v>
       </c>
       <c r="O2" s="51">
         <v>1</v>
       </c>
       <c r="P2" s="29">
-        <f t="shared" ref="P2:P69" si="0">N2*O2</f>
-        <v>9.91</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="T2">
-        <f>IF(AND(Q2="Nicht Gekauft", R2="Benötigt"), P2, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <f t="shared" ref="U2:U26" si="1">SUBTOTAL(103, G2)</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="12">
-        <f>SUBTOTAL(9,P1:P69)</f>
-        <v>357.67999999999989</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
-        <v>87</v>
-      </c>
+        <f t="shared" ref="P2:P6" si="0">N2*O2</f>
+        <v>33.369999999999997</v>
+      </c>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="31"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="48"/>
       <c r="B3" s="48" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>163</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="F3" s="48">
-        <v>1.5</v>
+        <v>0.02</v>
       </c>
       <c r="G3" s="48">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H3" s="48"/>
       <c r="I3" s="52"/>
       <c r="J3" s="52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K3" s="52"/>
       <c r="L3" s="48" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="M3" s="48" t="str">
-        <f t="shared" ref="M3:M69" si="2">HYPERLINK(L3,J3)</f>
-        <v>AZ-Delivery</v>
+        <f>HYPERLINK(L3,J3)</f>
+        <v>DigiKey</v>
       </c>
       <c r="N3" s="50">
-        <v>6.99</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="O3" s="51">
         <v>1</v>
       </c>
-      <c r="P3" s="32">
+      <c r="P3" s="29">
         <f t="shared" si="0"/>
-        <v>6.99</v>
-      </c>
-      <c r="Q3" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="25" t="s">
-        <v>81</v>
-      </c>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="31"/>
       <c r="U3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="36"/>
-      <c r="AF3" t="s">
-        <v>308</v>
+        <f t="shared" ref="U3:U28" si="1">SUBTOTAL(103, G3)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
-        <v>88</v>
-      </c>
+      <c r="A4" s="48"/>
       <c r="B4" s="48" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>89</v>
+        <v>44</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>168</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="F4" s="48">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="G4" s="48">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H4" s="48"/>
       <c r="I4" s="52"/>
       <c r="J4" s="52" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="K4" s="52"/>
       <c r="L4" s="48" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="M4" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>3D-Jake</v>
+        <f>HYPERLINK(L4,J4)</f>
+        <v>DigiKey</v>
       </c>
       <c r="N4" s="50">
-        <v>6.99</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="O4" s="51">
         <v>1</v>
       </c>
-      <c r="P4" s="29">
-        <f>N4*O4</f>
-        <v>6.99</v>
-      </c>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="31"/>
+      <c r="P4" s="32">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="25"/>
       <c r="U4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="X4" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="9">
-        <f>SUBTOTAL(9,T1:T69)</f>
-        <v>76.280000000000015</v>
+      <c r="AG4" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="48"/>
       <c r="B5" s="48" t="s">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>29</v>
+        <v>182</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>200</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="48">
-        <v>5</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
       <c r="H5" s="48"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K5" s="52"/>
       <c r="L5" s="48" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="M5" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>AZ-Delivery</v>
+        <f>HYPERLINK(L5,J5)</f>
+        <v>DigiKey</v>
       </c>
       <c r="N5" s="50">
-        <v>6.99</v>
+        <v>0.41</v>
       </c>
       <c r="O5" s="51">
         <v>1</v>
       </c>
       <c r="P5" s="32">
-        <f>N5*O5</f>
-        <v>6.99</v>
-      </c>
-      <c r="Q5" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="T5">
-        <f>IF(AND(Q5="Nicht Gekauft", R5="Benötigt"), P5, 0)</f>
-        <v>6.99</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="25"/>
       <c r="U5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
-        <v>216</v>
-      </c>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="48"/>
       <c r="B6" s="48" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>219</v>
+        <v>182</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>205</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="F6" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="48">
-        <v>5</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
       <c r="H6" s="48"/>
       <c r="I6" s="52"/>
       <c r="J6" s="52" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="K6" s="52"/>
       <c r="L6" s="48" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="M6" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>3D-Jake</v>
+        <f>HYPERLINK(L6,J6)</f>
+        <v>DigiKey</v>
       </c>
       <c r="N6" s="50">
-        <v>39.99</v>
+        <v>0.23</v>
       </c>
       <c r="O6" s="51">
         <v>1</v>
       </c>
-      <c r="P6" s="32">
+      <c r="P6" s="29">
         <f t="shared" si="0"/>
-        <v>39.99</v>
-      </c>
-      <c r="Q6" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="25"/>
+        <v>0.23</v>
+      </c>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="31"/>
       <c r="U6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
-        <v>102</v>
-      </c>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="48"/>
       <c r="B7" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>56</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="F7" s="48"/>
       <c r="G7" s="48"/>
       <c r="H7" s="48"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="52"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="48"/>
       <c r="L7" s="48" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="M7" s="48" t="str">
-        <f t="shared" ref="M7:M10" si="3">HYPERLINK(L7,J7)</f>
-        <v>DigiKey</v>
+        <f>HYPERLINK(L7,J7)</f>
+        <v>Stepperonline</v>
       </c>
       <c r="N7" s="50">
-        <v>16.100000000000001</v>
+        <v>9.91</v>
       </c>
       <c r="O7" s="51">
         <v>1</v>
       </c>
       <c r="P7" s="29">
-        <f t="shared" ref="P7:P14" si="4">N7*O7</f>
-        <v>16.100000000000001</v>
+        <f>N7*O7</f>
+        <v>9.91</v>
       </c>
       <c r="Q7" s="30" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="R7" s="31" t="s">
         <v>81</v>
       </c>
       <c r="T7">
         <f>IF(AND(Q7="Nicht Gekauft", R7="Benötigt"), P7, 0)</f>
-        <v>16.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <f t="shared" si="1"/>
+        <f>SUBTOTAL(103, G7)</f>
         <v>0</v>
       </c>
+      <c r="X7" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="12">
+        <f>SUBTOTAL(9,P1:P71)</f>
+        <v>221.24999999999994</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
-        <v>105</v>
+      <c r="A8" s="53" t="s">
+        <v>87</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
+        <v>25</v>
+      </c>
+      <c r="F8" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="48">
+        <v>12</v>
+      </c>
       <c r="H8" s="48"/>
       <c r="I8" s="52"/>
       <c r="J8" s="52" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="K8" s="52"/>
       <c r="L8" s="48" t="s">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c r="M8" s="48" t="str">
-        <f t="shared" si="3"/>
-        <v>Amazon</v>
+        <f>HYPERLINK(L8,J8)</f>
+        <v>AZ-Delivery</v>
       </c>
       <c r="N8" s="50">
         <v>6.99</v>
@@ -2763,131 +2871,165 @@
         <v>1</v>
       </c>
       <c r="P8" s="32">
-        <f t="shared" si="4"/>
+        <f>N8*O8</f>
         <v>6.99</v>
       </c>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="25"/>
+      <c r="Q8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="25" t="s">
+        <v>81</v>
+      </c>
       <c r="U8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
-        <v>103</v>
+        <f>SUBTOTAL(103, G8)</f>
+        <v>1</v>
+      </c>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="36"/>
+      <c r="AF8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>88</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
+        <v>383</v>
+      </c>
+      <c r="F9" s="48">
+        <v>1.2</v>
+      </c>
+      <c r="G9" s="48">
+        <v>12</v>
+      </c>
       <c r="H9" s="48"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="K9" s="52"/>
       <c r="L9" s="48" t="s">
-        <v>379</v>
+        <v>91</v>
       </c>
       <c r="M9" s="48" t="str">
-        <f t="shared" si="3"/>
-        <v>AZ-Delivery</v>
+        <f>HYPERLINK(L9,J9)</f>
+        <v>3D-Jake</v>
       </c>
       <c r="N9" s="50">
-        <v>5.99</v>
+        <v>6.99</v>
       </c>
       <c r="O9" s="51">
         <v>1</v>
       </c>
       <c r="P9" s="29">
-        <f t="shared" si="4"/>
-        <v>5.99</v>
+        <f>N9*O9</f>
+        <v>6.99</v>
       </c>
       <c r="Q9" s="30"/>
       <c r="R9" s="31"/>
       <c r="U9">
-        <f t="shared" si="1"/>
+        <f>SUBTOTAL(103, G9)</f>
         <v>0</v>
       </c>
-      <c r="AF9" t="s">
-        <v>345</v>
+      <c r="X9" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="9">
+        <f>SUBTOTAL(9,T1:T71)</f>
+        <v>14.030000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
-        <v>108</v>
-      </c>
+      <c r="A10" s="48"/>
       <c r="B10" s="48" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>109</v>
+        <v>16</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>29</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
+        <v>30</v>
+      </c>
+      <c r="F10" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="48">
+        <v>5</v>
+      </c>
       <c r="H10" s="48"/>
       <c r="I10" s="52"/>
       <c r="J10" s="52" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K10" s="52"/>
       <c r="L10" s="48" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="M10" s="48" t="str">
-        <f t="shared" si="3"/>
-        <v>DigiKey</v>
+        <f>HYPERLINK(L10,J10)</f>
+        <v>AZ-Delivery</v>
       </c>
       <c r="N10" s="50">
-        <v>3.39</v>
+        <v>6.99</v>
       </c>
       <c r="O10" s="51">
         <v>1</v>
       </c>
       <c r="P10" s="32">
-        <f t="shared" si="4"/>
-        <v>3.39</v>
-      </c>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="25"/>
+        <f>N10*O10</f>
+        <v>6.99</v>
+      </c>
+      <c r="Q10" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="T10">
+        <f>IF(AND(Q10="Nicht Gekauft", R10="Benötigt"), P10, 0)</f>
+        <v>6.99</v>
+      </c>
       <c r="U10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUBTOTAL(103, G10)</f>
+        <v>1</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="53" t="s">
+        <v>215</v>
+      </c>
       <c r="B11" s="48" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="F11" s="48">
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="G11" s="48">
         <v>5</v>
@@ -2895,53 +3037,56 @@
       <c r="H11" s="48"/>
       <c r="I11" s="52"/>
       <c r="J11" s="52" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="K11" s="52"/>
       <c r="L11" s="48" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="M11" s="48" t="str">
         <f>HYPERLINK(L11,J11)</f>
-        <v>DigiKey</v>
+        <v>3D-Jake</v>
       </c>
       <c r="N11" s="50">
-        <v>2.5499999999999998</v>
+        <v>39.99</v>
       </c>
       <c r="O11" s="51">
         <v>1</v>
       </c>
-      <c r="P11" s="29">
-        <f t="shared" si="4"/>
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="31"/>
+      <c r="P11" s="32">
+        <f>N11*O11</f>
+        <v>39.99</v>
+      </c>
+      <c r="Q11" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="25"/>
       <c r="U11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
+        <f>SUBTOTAL(103, G11)</f>
+        <v>1</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>101</v>
+      </c>
       <c r="B12" s="48" t="s">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>169</v>
+        <v>56</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>75</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="F12" s="48">
-        <v>0.1</v>
-      </c>
-      <c r="G12" s="48">
-        <v>5</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
       <c r="H12" s="48"/>
       <c r="I12" s="52"/>
       <c r="J12" s="52" t="s">
@@ -2949,194 +3094,187 @@
       </c>
       <c r="K12" s="52"/>
       <c r="L12" s="48" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="M12" s="48" t="str">
-        <f>HYPERLINK(L12,J12)</f>
+        <f t="shared" ref="M12:M15" si="2">HYPERLINK(L12,J12)</f>
         <v>DigiKey</v>
       </c>
       <c r="N12" s="50">
-        <v>4.5999999999999996</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="O12" s="51">
         <v>1</v>
       </c>
-      <c r="P12" s="32">
-        <f t="shared" si="4"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="25"/>
+      <c r="P12" s="29">
+        <f>N12*O12</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="Q12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="T12">
+        <f>IF(AND(Q12="Nicht Gekauft", R12="Benötigt"), P12, 0)</f>
+        <v>16.100000000000001</v>
+      </c>
       <c r="U12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+        <f>SUBTOTAL(103, G12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>104</v>
+      </c>
       <c r="B13" s="48" t="s">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
       <c r="H13" s="48"/>
       <c r="I13" s="52"/>
       <c r="J13" s="52" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K13" s="52"/>
       <c r="L13" s="48" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M13" s="48" t="str">
-        <f>HYPERLINK(L13,J13)</f>
-        <v>DigiKey</v>
+        <f t="shared" si="2"/>
+        <v>Amazon</v>
       </c>
       <c r="N13" s="50">
-        <v>0.41</v>
+        <v>6.99</v>
       </c>
       <c r="O13" s="51">
         <v>1</v>
       </c>
       <c r="P13" s="32">
-        <f t="shared" si="4"/>
-        <v>0.41</v>
+        <f>N13*O13</f>
+        <v>6.99</v>
       </c>
       <c r="Q13" s="33"/>
       <c r="R13" s="25"/>
       <c r="U13">
-        <f t="shared" si="1"/>
+        <f>SUBTOTAL(103, G13)</f>
         <v>0</v>
       </c>
-      <c r="AF13" t="s">
-        <v>326</v>
-      </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="53" t="s">
+        <v>102</v>
+      </c>
       <c r="B14" s="48" t="s">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>207</v>
+        <v>106</v>
       </c>
       <c r="F14" s="48"/>
       <c r="G14" s="48"/>
       <c r="H14" s="48"/>
       <c r="I14" s="52"/>
       <c r="J14" s="52" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K14" s="52"/>
       <c r="L14" s="48" t="s">
-        <v>205</v>
+        <v>377</v>
       </c>
       <c r="M14" s="48" t="str">
-        <f>HYPERLINK(L14,J14)</f>
-        <v>DigiKey</v>
+        <f t="shared" si="2"/>
+        <v>AZ-Delivery</v>
       </c>
       <c r="N14" s="50">
-        <v>0.23</v>
+        <v>5.99</v>
       </c>
       <c r="O14" s="51">
         <v>1</v>
       </c>
       <c r="P14" s="29">
-        <f t="shared" si="4"/>
-        <v>0.23</v>
+        <f>N14*O14</f>
+        <v>5.99</v>
       </c>
       <c r="Q14" s="30"/>
       <c r="R14" s="31"/>
       <c r="U14">
-        <f t="shared" si="1"/>
+        <f>SUBTOTAL(103, G14)</f>
         <v>0</v>
       </c>
       <c r="AF14" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="48">
-        <f>0.053*O15</f>
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="G15" s="48">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="48"/>
       <c r="I15" s="52"/>
       <c r="J15" s="52" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K15" s="52"/>
       <c r="L15" s="48" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="M15" s="48" t="str">
         <f t="shared" si="2"/>
-        <v>Amazon</v>
+        <v>DigiKey</v>
       </c>
       <c r="N15" s="50">
-        <v>8.5299999999999994</v>
+        <v>3.39</v>
       </c>
       <c r="O15" s="51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P15" s="32">
-        <f t="shared" si="0"/>
-        <v>34.119999999999997</v>
-      </c>
-      <c r="Q15" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="T15">
-        <f>IF(AND(Q15="Nicht Gekauft", R15="Benötigt"), P15, 0)</f>
-        <v>34.119999999999997</v>
-      </c>
+        <f>N15*O15</f>
+        <v>3.39</v>
+      </c>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="25"/>
       <c r="U15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
-        <v>96</v>
+        <f>SUBTOTAL(103, G15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>94</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>71</v>
@@ -3144,59 +3282,60 @@
       <c r="C16" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="48" t="s">
-        <v>98</v>
+      <c r="D16" s="49" t="s">
+        <v>72</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="48">
-        <v>0.17</v>
+        <f>0.053*O16</f>
+        <v>0.21199999999999999</v>
       </c>
       <c r="G16" s="48">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H16" s="48"/>
       <c r="I16" s="52"/>
       <c r="J16" s="52" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K16" s="52"/>
       <c r="L16" s="48" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="M16" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>DigiKey</v>
+        <f t="shared" ref="M16:M71" si="3">HYPERLINK(L16,J16)</f>
+        <v>Amazon</v>
       </c>
       <c r="N16" s="50">
-        <v>6.73</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="O16" s="51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P16" s="32">
-        <f t="shared" si="0"/>
-        <v>13.46</v>
-      </c>
-      <c r="Q16" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="R16" s="25"/>
+        <f t="shared" ref="P16:P71" si="4">N16*O16</f>
+        <v>34.119999999999997</v>
+      </c>
+      <c r="Q16" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="T16">
+        <f>IF(AND(Q16="Nicht Gekauft", R16="Benötigt"), P16, 0)</f>
+        <v>34.119999999999997</v>
+      </c>
       <c r="U16">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>377</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="48" t="s">
         <v>71</v>
@@ -3204,17 +3343,17 @@
       <c r="C17" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="49" t="s">
-        <v>100</v>
+      <c r="D17" s="48" t="s">
+        <v>97</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="48">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="G17" s="48">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H17" s="48"/>
       <c r="I17" s="52"/>
@@ -3223,257 +3362,258 @@
       </c>
       <c r="K17" s="52"/>
       <c r="L17" s="48" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M17" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DigiKey</v>
       </c>
       <c r="N17" s="50">
-        <v>7.4</v>
+        <v>6.73</v>
       </c>
       <c r="O17" s="51">
         <v>2</v>
       </c>
       <c r="P17" s="32">
-        <f t="shared" si="0"/>
-        <v>14.8</v>
-      </c>
-      <c r="Q17" s="30" t="s">
+        <f t="shared" si="4"/>
+        <v>13.46</v>
+      </c>
+      <c r="Q17" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="R17" s="31"/>
+      <c r="R17" s="25"/>
       <c r="U17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AF17" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
-        <v>373</v>
+        <v>95</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="D18" s="48">
-        <v>665002113322</v>
+        <v>71</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>99</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F18" s="48">
+        <v>0.35</v>
+      </c>
+      <c r="G18" s="48">
+        <v>5</v>
+      </c>
+      <c r="H18" s="48"/>
       <c r="I18" s="52"/>
       <c r="J18" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K18" s="52"/>
       <c r="L18" s="48" t="s">
-        <v>261</v>
+        <v>96</v>
       </c>
       <c r="M18" s="48" t="str">
-        <f>HYPERLINK(L18,J18)</f>
+        <f t="shared" si="3"/>
         <v>DigiKey</v>
       </c>
       <c r="N18" s="50">
-        <v>0.13</v>
+        <v>7.4</v>
       </c>
       <c r="O18" s="51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P18" s="32">
-        <f>N18*O18</f>
-        <v>0.52</v>
-      </c>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="8"/>
+        <f t="shared" si="4"/>
+        <v>14.8</v>
+      </c>
+      <c r="Q18" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R18" s="31"/>
       <c r="U18">
-        <f>SUBTOTAL(103, G18)</f>
-        <v>0</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>317</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>381</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
-        <v>373</v>
-      </c>
+      <c r="A19" s="53"/>
       <c r="B19" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="D19" s="48">
-        <v>665102131822</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>303</v>
+        <v>386</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="E19" s="65" t="s">
+        <v>390</v>
       </c>
       <c r="F19" s="48"/>
       <c r="G19" s="48"/>
-      <c r="H19" s="48">
-        <v>1</v>
-      </c>
+      <c r="H19" s="48"/>
       <c r="I19" s="52"/>
       <c r="J19" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="52"/>
+      <c r="K19" s="48" t="s">
+        <v>389</v>
+      </c>
       <c r="L19" s="48" t="s">
-        <v>262</v>
+        <v>387</v>
       </c>
       <c r="M19" s="48" t="str">
-        <f>HYPERLINK(L19,J19)</f>
+        <f t="shared" si="3"/>
         <v>DigiKey</v>
       </c>
       <c r="N19" s="50">
-        <v>0.61</v>
+        <v>2.5</v>
       </c>
       <c r="O19" s="51">
         <v>4</v>
       </c>
       <c r="P19" s="32">
-        <f>N19*O19</f>
-        <v>2.44</v>
-      </c>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="8"/>
-      <c r="U19">
-        <f>SUBTOTAL(103, G19)</f>
-        <v>0</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>316</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="31"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>188</v>
+        <v>299</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="D20" s="48">
+        <v>665002113322</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>189</v>
+        <v>298</v>
       </c>
       <c r="F20" s="48"/>
       <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
+      <c r="H20" s="48">
+        <v>1</v>
+      </c>
       <c r="I20" s="52"/>
       <c r="J20" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K20" s="52"/>
       <c r="L20" s="48" t="s">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="M20" s="48" t="str">
         <f>HYPERLINK(L20,J20)</f>
         <v>DigiKey</v>
       </c>
       <c r="N20" s="50">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="O20" s="51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P20" s="32">
         <f>N20*O20</f>
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
       <c r="Q20" s="33"/>
       <c r="R20" s="25"/>
-      <c r="S20" s="6"/>
+      <c r="S20" s="8"/>
       <c r="U20">
         <f>SUBTOTAL(103, G20)</f>
         <v>0</v>
       </c>
       <c r="AF20" t="s">
-        <v>344</v>
+        <v>316</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
-        <v>229</v>
+      <c r="A21" s="53" t="s">
+        <v>372</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>193</v>
+        <v>300</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" s="48">
+        <v>665102131822</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>195</v>
+        <v>302</v>
       </c>
       <c r="F21" s="48"/>
       <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
+      <c r="H21" s="48">
+        <v>1</v>
+      </c>
       <c r="I21" s="52"/>
       <c r="J21" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K21" s="52"/>
       <c r="L21" s="48" t="s">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="M21" s="48" t="str">
-        <f t="shared" ref="M21:M32" si="5">HYPERLINK(L21,J21)</f>
+        <f>HYPERLINK(L21,J21)</f>
         <v>DigiKey</v>
       </c>
       <c r="N21" s="50">
-        <v>5.79</v>
+        <v>0.61</v>
       </c>
       <c r="O21" s="51">
-        <v>1</v>
-      </c>
-      <c r="P21" s="29">
-        <f t="shared" ref="P21:P22" si="6">N21*O21</f>
-        <v>5.79</v>
-      </c>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="31"/>
+        <v>4</v>
+      </c>
+      <c r="P21" s="32">
+        <f>N21*O21</f>
+        <v>2.44</v>
+      </c>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="8"/>
       <c r="U21">
-        <f t="shared" si="1"/>
+        <f>SUBTOTAL(103, G21)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
-        <v>229</v>
+      <c r="AF21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="53" t="s">
+        <v>378</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E22" s="48" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F22" s="48"/>
       <c r="G22" s="48"/>
@@ -3484,51 +3624,51 @@
       </c>
       <c r="K22" s="52"/>
       <c r="L22" s="48" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="M22" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f>HYPERLINK(L22,J22)</f>
         <v>DigiKey</v>
       </c>
       <c r="N22" s="50">
-        <v>4.1399999999999997</v>
+        <v>0.19</v>
       </c>
       <c r="O22" s="51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" s="32">
-        <f t="shared" si="6"/>
-        <v>4.1399999999999997</v>
+        <f>N22*O22</f>
+        <v>0.38</v>
       </c>
       <c r="Q22" s="33"/>
       <c r="R22" s="25"/>
+      <c r="S22" s="6"/>
       <c r="U22">
-        <f t="shared" si="1"/>
+        <f>SUBTOTAL(103, G22)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
-        <v>230</v>
+      <c r="AF22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
+        <v>228</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C23" s="52" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="F23" s="48">
-        <v>0.05</v>
-      </c>
-      <c r="G23" s="48">
-        <v>5</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
       <c r="H23" s="48"/>
       <c r="I23" s="52"/>
       <c r="J23" s="52" t="s">
@@ -3536,53 +3676,44 @@
       </c>
       <c r="K23" s="52"/>
       <c r="L23" s="48" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="M23" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="M23:M34" si="5">HYPERLINK(L23,J23)</f>
         <v>DigiKey</v>
       </c>
       <c r="N23" s="50">
-        <v>2.34</v>
+        <v>5.79</v>
       </c>
       <c r="O23" s="51">
         <v>1</v>
       </c>
-      <c r="P23" s="32">
-        <f t="shared" ref="P23:P24" si="7">N23*O23</f>
-        <v>2.34</v>
+      <c r="P23" s="29">
+        <f t="shared" ref="P23:P24" si="6">N23*O23</f>
+        <v>5.79</v>
       </c>
       <c r="Q23" s="30"/>
       <c r="R23" s="31"/>
       <c r="U23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>333</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>334</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
-        <v>230</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
+        <v>228</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C24" s="52" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="F24" s="48"/>
       <c r="G24" s="48"/>
@@ -3593,21 +3724,21 @@
       </c>
       <c r="K24" s="52"/>
       <c r="L24" s="48" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="M24" s="48" t="str">
         <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N24" s="50">
-        <v>1.17</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="O24" s="51">
         <v>1</v>
       </c>
       <c r="P24" s="32">
-        <f t="shared" si="7"/>
-        <v>1.17</v>
+        <f t="shared" si="6"/>
+        <v>4.1399999999999997</v>
       </c>
       <c r="Q24" s="33"/>
       <c r="R24" s="25"/>
@@ -3615,32 +3746,29 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF24" t="s">
-        <v>333</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>336</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
+    </row>
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
+        <v>229</v>
+      </c>
       <c r="B25" s="48" t="s">
-        <v>304</v>
+        <v>191</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="49" t="s">
-        <v>268</v>
+        <v>44</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>231</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
+        <v>232</v>
+      </c>
+      <c r="F25" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="48">
+        <v>5</v>
+      </c>
       <c r="H25" s="48"/>
       <c r="I25" s="52"/>
       <c r="J25" s="52" t="s">
@@ -3648,48 +3776,53 @@
       </c>
       <c r="K25" s="52"/>
       <c r="L25" s="48" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="M25" s="48" t="str">
         <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N25" s="50">
-        <v>1.78</v>
+        <v>2.34</v>
       </c>
       <c r="O25" s="51">
         <v>1</v>
       </c>
-      <c r="P25" s="29">
-        <f t="shared" ref="P25:P30" si="8">N25*O25</f>
-        <v>1.78</v>
+      <c r="P25" s="32">
+        <f t="shared" ref="P25:P26" si="7">N25*O25</f>
+        <v>2.34</v>
       </c>
       <c r="Q25" s="30"/>
       <c r="R25" s="31"/>
       <c r="U25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25" t="s">
-        <v>328</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>329</v>
+        <v>332</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
+      <c r="A26" s="53" t="s">
+        <v>229</v>
+      </c>
       <c r="B26" s="48" t="s">
-        <v>305</v>
+        <v>195</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>270</v>
+        <v>44</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>234</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
@@ -3700,48 +3833,51 @@
       </c>
       <c r="K26" s="52"/>
       <c r="L26" s="48" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="M26" s="48" t="str">
         <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N26" s="50">
-        <v>0.95</v>
+        <v>1.17</v>
       </c>
       <c r="O26" s="51">
         <v>1</v>
       </c>
-      <c r="P26" s="29">
-        <f t="shared" si="8"/>
-        <v>0.95</v>
-      </c>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="32">
+        <f t="shared" si="7"/>
+        <v>1.17</v>
+      </c>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="25"/>
       <c r="U26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF26" t="s">
-        <v>328</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>329</v>
+        <v>332</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
       <c r="B27" s="48" t="s">
-        <v>179</v>
+        <v>303</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>267</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>182</v>
+        <v>270</v>
       </c>
       <c r="F27" s="48"/>
       <c r="G27" s="48"/>
@@ -3752,45 +3888,48 @@
       </c>
       <c r="K27" s="52"/>
       <c r="L27" s="48" t="s">
-        <v>180</v>
+        <v>268</v>
       </c>
       <c r="M27" s="48" t="str">
         <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N27" s="50">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="O27" s="51">
         <v>1</v>
       </c>
-      <c r="P27" s="32">
-        <f t="shared" si="8"/>
-        <v>1.56</v>
-      </c>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="25"/>
+      <c r="P27" s="29">
+        <f t="shared" ref="P27:P32" si="8">N27*O27</f>
+        <v>1.78</v>
+      </c>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="31"/>
       <c r="U27">
-        <f>SUBTOTAL(103, G27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF27" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
       <c r="B28" s="48" t="s">
-        <v>175</v>
+        <v>304</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>269</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="F28" s="48"/>
       <c r="G28" s="48"/>
@@ -3801,70 +3940,73 @@
       </c>
       <c r="K28" s="52"/>
       <c r="L28" s="48" t="s">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="M28" s="48" t="str">
         <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N28" s="50">
-        <v>0.47</v>
+        <v>0.95</v>
       </c>
       <c r="O28" s="51">
         <v>1</v>
       </c>
       <c r="P28" s="29">
         <f t="shared" si="8"/>
-        <v>0.47</v>
+        <v>0.95</v>
       </c>
       <c r="Q28" s="30"/>
       <c r="R28" s="31"/>
       <c r="U28">
-        <f>SUBTOTAL(103, G28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF28" t="s">
-        <v>331</v>
+        <v>327</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
       <c r="B29" s="48" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" s="48">
-        <v>824521241</v>
+        <v>157</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>180</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="F29" s="48"/>
       <c r="G29" s="48"/>
       <c r="H29" s="48"/>
       <c r="I29" s="52"/>
       <c r="J29" s="52" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="K29" s="52"/>
       <c r="L29" s="48" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="M29" s="48" t="str">
         <f t="shared" si="5"/>
-        <v>Digikey</v>
+        <v>DigiKey</v>
       </c>
       <c r="N29" s="50">
-        <v>0.3</v>
+        <v>1.56</v>
       </c>
       <c r="O29" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P29" s="32">
         <f t="shared" si="8"/>
-        <v>0.6</v>
+        <v>1.56</v>
       </c>
       <c r="Q29" s="33"/>
       <c r="R29" s="25"/>
@@ -3873,24 +4015,22 @@
         <v>0</v>
       </c>
       <c r="AF29" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
-        <v>247</v>
-      </c>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="48"/>
       <c r="B30" s="48" t="s">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>245</v>
+        <v>176</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="F30" s="48"/>
       <c r="G30" s="48"/>
@@ -3901,94 +4041,99 @@
       </c>
       <c r="K30" s="52"/>
       <c r="L30" s="48" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="M30" s="48" t="str">
         <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N30" s="50">
-        <v>0.3</v>
+        <v>0.47</v>
       </c>
       <c r="O30" s="51">
         <v>1</v>
       </c>
-      <c r="P30" s="32">
+      <c r="P30" s="29">
         <f t="shared" si="8"/>
-        <v>0.3</v>
-      </c>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="25"/>
+        <v>0.47</v>
+      </c>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="31"/>
+      <c r="U30">
+        <f>SUBTOTAL(103, G30)</f>
+        <v>0</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="48" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="49" t="s">
-        <v>191</v>
+        <v>157</v>
+      </c>
+      <c r="D31" s="48">
+        <v>824521241</v>
       </c>
       <c r="E31" s="48" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F31" s="48"/>
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
       <c r="I31" s="52"/>
       <c r="J31" s="52" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="K31" s="52"/>
       <c r="L31" s="48" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="M31" s="48" t="str">
         <f t="shared" si="5"/>
-        <v>DigiKey</v>
+        <v>Digikey</v>
       </c>
       <c r="N31" s="50">
-        <v>2.91</v>
+        <v>0.3</v>
       </c>
       <c r="O31" s="51">
         <v>2</v>
       </c>
-      <c r="P31" s="29">
-        <f t="shared" ref="P31:P32" si="9">N31*O31</f>
-        <v>5.82</v>
-      </c>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="31"/>
+      <c r="P31" s="32">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="25"/>
       <c r="U31">
         <f>SUBTOTAL(103, G31)</f>
         <v>0</v>
       </c>
       <c r="AF31" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>246</v>
+      </c>
       <c r="B32" s="48" t="s">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>173</v>
+        <v>244</v>
       </c>
       <c r="E32" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="F32" s="48">
-        <v>0.02</v>
-      </c>
-      <c r="G32" s="48">
-        <v>5</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="48"/>
       <c r="I32" s="52"/>
       <c r="J32" s="52" t="s">
@@ -3996,254 +4141,243 @@
       </c>
       <c r="K32" s="52"/>
       <c r="L32" s="48" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="M32" s="48" t="str">
         <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N32" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="O32" s="51">
+        <v>1</v>
+      </c>
+      <c r="P32" s="32">
+        <f t="shared" si="8"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="25"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" s="48"/>
+      <c r="B33" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="52"/>
+      <c r="L33" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="M33" s="48" t="str">
+        <f t="shared" si="5"/>
+        <v>DigiKey</v>
+      </c>
+      <c r="N33" s="50">
+        <v>2.91</v>
+      </c>
+      <c r="O33" s="51">
+        <v>2</v>
+      </c>
+      <c r="P33" s="29">
+        <f t="shared" ref="P33:P34" si="9">N33*O33</f>
+        <v>5.82</v>
+      </c>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="31"/>
+      <c r="U33">
+        <f>SUBTOTAL(103, G33)</f>
+        <v>0</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="48"/>
+      <c r="B34" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="48">
+        <v>0.02</v>
+      </c>
+      <c r="G34" s="48">
+        <v>5</v>
+      </c>
+      <c r="H34" s="48"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" s="52"/>
+      <c r="L34" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="M34" s="48" t="str">
+        <f t="shared" si="5"/>
+        <v>DigiKey</v>
+      </c>
+      <c r="N34" s="50">
         <v>0.6</v>
       </c>
-      <c r="O32" s="51">
-        <v>1</v>
-      </c>
-      <c r="P32" s="29">
+      <c r="O34" s="51">
+        <v>1</v>
+      </c>
+      <c r="P34" s="29">
         <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="31"/>
-      <c r="U32">
-        <f>SUBTOTAL(103, G32)</f>
-        <v>1</v>
-      </c>
-      <c r="AF32" t="s">
+      <c r="Q34" s="30"/>
+      <c r="R34" s="31"/>
+      <c r="U34">
+        <f>SUBTOTAL(103, G34)</f>
+        <v>1</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>338</v>
+      </c>
+      <c r="AG34" t="s">
         <v>339</v>
       </c>
-      <c r="AG32" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="48" t="s">
+    </row>
+    <row r="35" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="49"/>
+      <c r="B35" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" s="52"/>
+      <c r="L35" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="M35" s="48" t="str">
+        <f>HYPERLINK(L35,J36)</f>
+        <v>DigiKey</v>
+      </c>
+      <c r="N35" s="50">
+        <v>9.25</v>
+      </c>
+      <c r="O35" s="51">
+        <v>1</v>
+      </c>
+      <c r="P35" s="29">
+        <f>N35*O35</f>
+        <v>9.25</v>
+      </c>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="U35">
+        <f t="shared" ref="U35:U36" si="10">SUBTOTAL(103, G35)</f>
+        <v>0</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="49"/>
+      <c r="B36" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="C36" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="K33" s="52"/>
-      <c r="L33" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="M33" s="48" t="str">
-        <f>HYPERLINK(L33,J34)</f>
+      <c r="D36" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36" s="52"/>
+      <c r="L36" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="M36" s="48" t="str">
+        <f>HYPERLINK(L36,J37)</f>
         <v>DigiKey</v>
       </c>
-      <c r="N33" s="50">
-        <v>9.25</v>
-      </c>
-      <c r="O33" s="51">
-        <v>1</v>
-      </c>
-      <c r="P33" s="29">
-        <f>N33*O33</f>
-        <v>9.25</v>
-      </c>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="U33">
-        <f t="shared" ref="U33:U34" si="10">SUBTOTAL(103, G33)</f>
-        <v>0</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>323</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="48" t="s">
-        <v>364</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>365</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>375</v>
-      </c>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="K34" s="52"/>
-      <c r="L34" s="48" t="s">
-        <v>374</v>
-      </c>
-      <c r="M34" s="48" t="str">
-        <f>HYPERLINK(L34,J35)</f>
-        <v>DigiKey</v>
-      </c>
-      <c r="N34" s="50">
+      <c r="N36" s="50">
         <v>0.84</v>
       </c>
-      <c r="O34" s="51">
-        <v>1</v>
-      </c>
-      <c r="P34" s="29">
-        <f>N34*O34</f>
+      <c r="O36" s="51">
+        <v>1</v>
+      </c>
+      <c r="P36" s="29">
+        <f>N36*O36</f>
         <v>0.84</v>
       </c>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="U34">
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="U36">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" s="48" t="s">
+    <row r="37" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="D35" s="48" t="s">
+      <c r="B37" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="E35" s="48" t="s">
+      <c r="C37" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="D37" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="K35" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="L35" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="M35" s="48" t="str">
-        <f t="shared" ref="M35:M41" si="11">HYPERLINK(L35,J35)</f>
-        <v>DigiKey</v>
-      </c>
-      <c r="N35" s="50">
-        <v>3.24</v>
-      </c>
-      <c r="O35" s="51">
-        <v>1</v>
-      </c>
-      <c r="P35" s="32">
-        <f>N35*O35</f>
-        <v>3.24</v>
-      </c>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="8"/>
-      <c r="U35">
-        <f t="shared" ref="U35:U40" si="12">SUBTOTAL(103, G35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="D36" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="K36" s="52"/>
-      <c r="L36" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="M36" s="48" t="str">
-        <f t="shared" si="11"/>
-        <v>DigiKey</v>
-      </c>
-      <c r="N36" s="50">
-        <v>1.7</v>
-      </c>
-      <c r="O36" s="51">
-        <v>1</v>
-      </c>
-      <c r="P36" s="32">
-        <f>N36*O36</f>
-        <v>1.7</v>
-      </c>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="8"/>
-      <c r="U36">
-        <f>SUBTOTAL(103, G36)</f>
-        <v>0</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>320</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>144</v>
-      </c>
       <c r="E37" s="48" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F37" s="48"/>
       <c r="G37" s="48"/>
@@ -4252,49 +4386,49 @@
       <c r="J37" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="52" t="s">
-        <v>133</v>
+      <c r="K37" s="48" t="s">
+        <v>129</v>
       </c>
       <c r="L37" s="48" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M37" s="48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="M37:M43" si="11">HYPERLINK(L37,J37)</f>
         <v>DigiKey</v>
       </c>
       <c r="N37" s="50">
-        <v>0.82</v>
+        <v>3.24</v>
       </c>
       <c r="O37" s="51">
         <v>1</v>
       </c>
       <c r="P37" s="32">
-        <f t="shared" ref="P37:P39" si="13">N37*O37</f>
-        <v>0.82</v>
+        <f>N37*O37</f>
+        <v>3.24</v>
       </c>
       <c r="Q37" s="33"/>
       <c r="R37" s="25"/>
       <c r="S37" s="8"/>
       <c r="U37">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="U37:U42" si="12">SUBTOTAL(103, G37)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>284</v>
+        <v>135</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>283</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F38" s="48"/>
       <c r="G38" s="48"/>
@@ -4305,21 +4439,21 @@
       </c>
       <c r="K38" s="52"/>
       <c r="L38" s="48" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M38" s="48" t="str">
         <f t="shared" si="11"/>
         <v>DigiKey</v>
       </c>
       <c r="N38" s="50">
-        <v>0.94</v>
+        <v>1.7</v>
       </c>
       <c r="O38" s="51">
         <v>1</v>
       </c>
-      <c r="P38" s="29">
-        <f t="shared" si="13"/>
-        <v>0.94</v>
+      <c r="P38" s="32">
+        <f>N38*O38</f>
+        <v>1.7</v>
       </c>
       <c r="Q38" s="30"/>
       <c r="R38" s="31"/>
@@ -4329,30 +4463,27 @@
         <v>0</v>
       </c>
       <c r="AE38" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AF38" t="s">
-        <v>319</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B39" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="48" t="s">
         <v>142</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="D39" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>149</v>
       </c>
       <c r="F39" s="48"/>
       <c r="G39" s="48"/>
@@ -4361,23 +4492,25 @@
       <c r="J39" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K39" s="52"/>
+      <c r="K39" s="52" t="s">
+        <v>132</v>
+      </c>
       <c r="L39" s="48" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M39" s="48" t="str">
         <f t="shared" si="11"/>
         <v>DigiKey</v>
       </c>
       <c r="N39" s="50">
-        <v>1.33</v>
+        <v>0.82</v>
       </c>
       <c r="O39" s="51">
         <v>1</v>
       </c>
       <c r="P39" s="32">
-        <f t="shared" si="13"/>
-        <v>1.33</v>
+        <f t="shared" ref="P39:P41" si="13">N39*O39</f>
+        <v>0.82</v>
       </c>
       <c r="Q39" s="33"/>
       <c r="R39" s="25"/>
@@ -4388,20 +4521,20 @@
       </c>
     </row>
     <row r="40" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
-        <v>358</v>
+      <c r="A40" s="53" t="s">
+        <v>151</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E40" s="48" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
@@ -4412,44 +4545,54 @@
       </c>
       <c r="K40" s="52"/>
       <c r="L40" s="48" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="M40" s="48" t="str">
         <f t="shared" si="11"/>
         <v>DigiKey</v>
       </c>
       <c r="N40" s="50">
-        <v>2.04</v>
+        <v>0.94</v>
       </c>
       <c r="O40" s="51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P40" s="29">
-        <f>N40*O40</f>
-        <v>12.24</v>
+        <f t="shared" si="13"/>
+        <v>0.94</v>
       </c>
       <c r="Q40" s="30"/>
       <c r="R40" s="31"/>
+      <c r="S40" s="8"/>
       <c r="U40">
-        <f t="shared" si="12"/>
+        <f>SUBTOTAL(103, G40)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="53" t="s">
-        <v>359</v>
+      <c r="AE40" t="s">
+        <v>320</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="48" t="s">
+        <v>152</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>361</v>
+        <v>147</v>
       </c>
       <c r="E41" s="48" t="s">
-        <v>360</v>
+        <v>148</v>
       </c>
       <c r="F41" s="48"/>
       <c r="G41" s="48"/>
@@ -4460,163 +4603,144 @@
       </c>
       <c r="K41" s="52"/>
       <c r="L41" s="48" t="s">
-        <v>362</v>
+        <v>149</v>
       </c>
       <c r="M41" s="48" t="str">
         <f t="shared" si="11"/>
         <v>DigiKey</v>
       </c>
       <c r="N41" s="50">
-        <v>2.87</v>
+        <v>1.33</v>
       </c>
       <c r="O41" s="51">
-        <v>6</v>
-      </c>
-      <c r="P41" s="29">
-        <f>N41*O41</f>
-        <v>17.22</v>
-      </c>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="P41" s="32">
+        <f t="shared" si="13"/>
+        <v>1.33</v>
+      </c>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="8"/>
       <c r="U41">
-        <f>SUBTOTAL(103, G41)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AF41" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
-        <v>124</v>
+        <v>357</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="48" t="s">
-        <v>59</v>
+        <v>155</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>283</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="E42" s="48" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="F42" s="48"/>
       <c r="G42" s="48"/>
-      <c r="H42" s="48">
-        <v>2.5</v>
-      </c>
+      <c r="H42" s="48"/>
       <c r="I42" s="52"/>
       <c r="J42" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K42" s="52"/>
       <c r="L42" s="48" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="M42" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>DigiKey</v>
       </c>
       <c r="N42" s="50">
-        <v>0.69</v>
+        <v>2.04</v>
       </c>
       <c r="O42" s="51">
-        <v>3</v>
-      </c>
-      <c r="P42" s="32">
-        <f t="shared" si="0"/>
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="Q42" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R42" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="T42">
-        <f>IF(AND(Q42="Nicht Gekauft", R42="Benötigt"), P42, 0)</f>
+        <v>6</v>
+      </c>
+      <c r="P42" s="29">
+        <f>N42*O42</f>
+        <v>12.24</v>
+      </c>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="31"/>
+      <c r="U42">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U42">
-        <f t="shared" ref="U42:U50" si="14">SUBTOTAL(103, G42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
-        <v>124</v>
+    </row>
+    <row r="43" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="53" t="s">
+        <v>358</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="48" t="s">
-        <v>59</v>
+        <v>155</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>283</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>63</v>
+        <v>360</v>
       </c>
       <c r="E43" s="48" t="s">
-        <v>115</v>
+        <v>359</v>
       </c>
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
-      <c r="H43" s="48">
-        <v>2.5</v>
-      </c>
+      <c r="H43" s="48"/>
       <c r="I43" s="52"/>
       <c r="J43" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K43" s="52"/>
       <c r="L43" s="48" t="s">
-        <v>64</v>
+        <v>361</v>
       </c>
       <c r="M43" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>DigiKey</v>
       </c>
       <c r="N43" s="50">
-        <v>0.53</v>
+        <v>2.87</v>
       </c>
       <c r="O43" s="51">
-        <v>9</v>
-      </c>
-      <c r="P43" s="32">
-        <f t="shared" si="0"/>
-        <v>4.7700000000000005</v>
-      </c>
-      <c r="Q43" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="R43" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="T43">
-        <f>IF(AND(Q43="Nicht Gekauft", R43="Benötigt"), P43, 0)</f>
+        <v>6</v>
+      </c>
+      <c r="P43" s="29">
+        <f>N43*O43</f>
+        <v>17.22</v>
+      </c>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="31"/>
+      <c r="U43">
+        <f>SUBTOTAL(103, G43)</f>
         <v>0</v>
       </c>
-      <c r="U43">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF43" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C44" s="48" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E44" s="48" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F44" s="48"/>
       <c r="G44" s="48"/>
@@ -4629,21 +4753,21 @@
       </c>
       <c r="K44" s="52"/>
       <c r="L44" s="48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M44" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DigiKey</v>
       </c>
       <c r="N44" s="50">
         <v>0.69</v>
       </c>
       <c r="O44" s="51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P44" s="32">
-        <f t="shared" si="0"/>
-        <v>3.4499999999999997</v>
+        <f t="shared" si="4"/>
+        <v>2.0699999999999998</v>
       </c>
       <c r="Q44" s="33" t="s">
         <v>21</v>
@@ -4656,52 +4780,52 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="U44:U52" si="14">SUBTOTAL(103, G44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B45" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C45" s="48" t="s">
         <v>59</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E45" s="48" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="F45" s="48"/>
       <c r="G45" s="48"/>
       <c r="H45" s="48">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I45" s="52"/>
       <c r="J45" s="52" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K45" s="52"/>
       <c r="L45" s="48" t="s">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="M45" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>Amazon</v>
+        <f t="shared" si="3"/>
+        <v>DigiKey</v>
       </c>
       <c r="N45" s="50">
-        <v>17.14</v>
+        <v>0.53</v>
       </c>
       <c r="O45" s="51">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P45" s="32">
-        <f t="shared" si="0"/>
-        <v>17.14</v>
+        <f t="shared" si="4"/>
+        <v>4.7700000000000005</v>
       </c>
       <c r="Q45" s="30" t="s">
         <v>21</v>
@@ -4718,62 +4842,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C46" s="48" t="s">
         <v>59</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="E46" s="48" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="F46" s="48"/>
       <c r="G46" s="48"/>
       <c r="H46" s="48">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="I46" s="52"/>
       <c r="J46" s="52" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K46" s="52"/>
       <c r="L46" s="48" t="s">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c r="M46" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>Amazon</v>
+        <f t="shared" si="3"/>
+        <v>DigiKey</v>
       </c>
       <c r="N46" s="50">
-        <v>8.0500000000000007</v>
+        <v>0.69</v>
       </c>
       <c r="O46" s="51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P46" s="32">
-        <f t="shared" si="0"/>
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="25"/>
+        <f t="shared" si="4"/>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="Q46" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R46" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="T46">
+        <f>IF(AND(Q46="Nicht Gekauft", R46="Benötigt"), P46, 0)</f>
+        <v>0</v>
+      </c>
       <c r="U46">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B47" s="48" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C47" s="48" t="s">
         <v>59</v>
@@ -4782,12 +4914,12 @@
         <v>31</v>
       </c>
       <c r="E47" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
       <c r="H47" s="48">
-        <v>2.54</v>
+        <v>2</v>
       </c>
       <c r="I47" s="52"/>
       <c r="J47" s="52" t="s">
@@ -4795,157 +4927,161 @@
       </c>
       <c r="K47" s="52"/>
       <c r="L47" s="48" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M47" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Amazon</v>
       </c>
       <c r="N47" s="50">
-        <v>7.55</v>
+        <v>17.14</v>
       </c>
       <c r="O47" s="51">
         <v>1</v>
       </c>
       <c r="P47" s="32">
-        <f t="shared" si="0"/>
-        <v>7.55</v>
+        <f t="shared" si="4"/>
+        <v>17.14</v>
       </c>
       <c r="Q47" s="30" t="s">
         <v>21</v>
       </c>
       <c r="R47" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="S47" s="8"/>
+        <v>22</v>
+      </c>
       <c r="T47">
         <f>IF(AND(Q47="Nicht Gekauft", R47="Benötigt"), P47, 0)</f>
-        <v>7.55</v>
+        <v>0</v>
       </c>
       <c r="U47">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" s="53" t="s">
-        <v>128</v>
+    <row r="48" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="48" t="s">
+        <v>125</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C48" s="48" t="s">
         <v>59</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="E48" s="48" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="F48" s="48"/>
       <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
+      <c r="H48" s="48">
+        <v>2.54</v>
+      </c>
       <c r="I48" s="52"/>
       <c r="J48" s="52" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K48" s="52"/>
       <c r="L48" s="48" t="s">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c r="M48" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>DigiKey</v>
+        <f t="shared" si="3"/>
+        <v>Amazon</v>
       </c>
       <c r="N48" s="50">
-        <v>0.22</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="O48" s="51">
         <v>1</v>
       </c>
       <c r="P48" s="32">
-        <f t="shared" si="0"/>
-        <v>0.22</v>
+        <f t="shared" si="4"/>
+        <v>8.0500000000000007</v>
       </c>
       <c r="Q48" s="33"/>
       <c r="R48" s="25"/>
-      <c r="S48" s="8"/>
       <c r="U48">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AF48" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="53" t="s">
-        <v>128</v>
+    </row>
+    <row r="49" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="48" t="s">
+        <v>126</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C49" s="48" t="s">
         <v>59</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="E49" s="48" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="F49" s="48"/>
       <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
+      <c r="H49" s="48">
+        <v>2.54</v>
+      </c>
       <c r="I49" s="52"/>
       <c r="J49" s="52" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K49" s="52"/>
       <c r="L49" s="48" t="s">
-        <v>122</v>
+        <v>213</v>
       </c>
       <c r="M49" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>DigiKey</v>
+        <f t="shared" si="3"/>
+        <v>Amazon</v>
       </c>
       <c r="N49" s="50">
-        <v>0.18</v>
+        <v>7.55</v>
       </c>
       <c r="O49" s="51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P49" s="32">
-        <f t="shared" si="0"/>
-        <v>0.72</v>
-      </c>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="31"/>
+        <f t="shared" si="4"/>
+        <v>7.55</v>
+      </c>
+      <c r="Q49" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" s="31" t="s">
+        <v>81</v>
+      </c>
       <c r="S49" s="8"/>
+      <c r="T49">
+        <f>IF(AND(Q49="Nicht Gekauft", R49="Benötigt"), P49, 0)</f>
+        <v>7.55</v>
+      </c>
       <c r="U49">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AF49" t="s">
-        <v>315</v>
-      </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C50" s="48" t="s">
         <v>59</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F50" s="48"/>
       <c r="G50" s="48"/>
@@ -4956,21 +5092,21 @@
       </c>
       <c r="K50" s="52"/>
       <c r="L50" s="48" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="M50" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DigiKey</v>
       </c>
       <c r="N50" s="50">
-        <v>0.14000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="O50" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P50" s="32">
-        <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+        <f t="shared" si="4"/>
+        <v>0.22</v>
       </c>
       <c r="Q50" s="33"/>
       <c r="R50" s="25"/>
@@ -4980,123 +5116,133 @@
         <v>0</v>
       </c>
       <c r="AF50" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="48" t="s">
-        <v>285</v>
+      <c r="A51" s="53" t="s">
+        <v>127</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>366</v>
+        <v>65</v>
       </c>
       <c r="C51" s="48" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>254</v>
+        <v>119</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>286</v>
+        <v>117</v>
       </c>
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
-      <c r="H51" s="48">
-        <v>2.54</v>
-      </c>
+      <c r="H51" s="48"/>
       <c r="I51" s="52"/>
       <c r="J51" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K51" s="52"/>
       <c r="L51" s="48" t="s">
-        <v>255</v>
+        <v>121</v>
       </c>
       <c r="M51" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DigiKey</v>
       </c>
       <c r="N51" s="50">
-        <v>0.78</v>
+        <v>0.18</v>
       </c>
       <c r="O51" s="51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P51" s="32">
-        <f t="shared" si="0"/>
-        <v>0.78</v>
-      </c>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="25"/>
+        <f t="shared" si="4"/>
+        <v>0.72</v>
+      </c>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="31"/>
       <c r="S51" s="8"/>
+      <c r="U51">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="48" t="s">
-        <v>285</v>
+      <c r="A52" s="53" t="s">
+        <v>127</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>367</v>
+        <v>62</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>252</v>
+        <v>120</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>287</v>
+        <v>118</v>
       </c>
       <c r="F52" s="48"/>
       <c r="G52" s="48"/>
-      <c r="H52" s="48">
-        <v>2.54</v>
-      </c>
+      <c r="H52" s="48"/>
       <c r="I52" s="52"/>
       <c r="J52" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K52" s="52"/>
       <c r="L52" s="48" t="s">
-        <v>253</v>
+        <v>122</v>
       </c>
       <c r="M52" s="48" t="str">
-        <f>HYPERLINK(L52,J52)</f>
+        <f t="shared" si="3"/>
         <v>DigiKey</v>
       </c>
       <c r="N52" s="50">
-        <v>1.73</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O52" s="51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P52" s="32">
-        <f t="shared" si="0"/>
-        <v>1.73</v>
+        <f t="shared" si="4"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q52" s="33"/>
       <c r="R52" s="25"/>
       <c r="S52" s="8"/>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="U52">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B53" s="48" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C53" s="48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F53" s="48"/>
       <c r="G53" s="48"/>
       <c r="H53" s="48">
-        <v>1</v>
+        <v>2.54</v>
       </c>
       <c r="I53" s="52"/>
       <c r="J53" s="52" t="s">
@@ -5104,44 +5250,46 @@
       </c>
       <c r="K53" s="52"/>
       <c r="L53" s="48" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M53" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DigiKey</v>
       </c>
       <c r="N53" s="50">
-        <v>1.46</v>
-      </c>
-      <c r="O53" s="51"/>
+        <v>0.78</v>
+      </c>
+      <c r="O53" s="51">
+        <v>1</v>
+      </c>
       <c r="P53" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.78</v>
       </c>
       <c r="Q53" s="33"/>
       <c r="R53" s="25"/>
       <c r="S53" s="8"/>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B54" s="48" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C54" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" s="48">
-        <v>5013300200</v>
+        <v>130</v>
+      </c>
+      <c r="D54" s="48" t="s">
+        <v>251</v>
       </c>
       <c r="E54" s="48" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F54" s="48"/>
       <c r="G54" s="48"/>
       <c r="H54" s="48">
-        <v>1</v>
+        <v>2.54</v>
       </c>
       <c r="I54" s="52"/>
       <c r="J54" s="52" t="s">
@@ -5149,41 +5297,41 @@
       </c>
       <c r="K54" s="52"/>
       <c r="L54" s="48" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M54" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK(L54,J54)</f>
         <v>DigiKey</v>
       </c>
       <c r="N54" s="50">
-        <v>0.21</v>
+        <v>1.73</v>
       </c>
       <c r="O54" s="51">
         <v>1</v>
       </c>
       <c r="P54" s="32">
-        <f t="shared" si="0"/>
-        <v>0.21</v>
+        <f t="shared" si="4"/>
+        <v>1.73</v>
       </c>
       <c r="Q54" s="33"/>
       <c r="R54" s="25"/>
       <c r="S54" s="8"/>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="B55" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="C55" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="E55" s="48" t="s">
         <v>288</v>
-      </c>
-      <c r="B55" s="48" t="s">
-        <v>366</v>
-      </c>
-      <c r="C55" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" s="48">
-        <v>665103131822</v>
-      </c>
-      <c r="E55" s="48" t="s">
-        <v>291</v>
       </c>
       <c r="F55" s="48"/>
       <c r="G55" s="48"/>
@@ -5196,41 +5344,39 @@
       </c>
       <c r="K55" s="52"/>
       <c r="L55" s="48" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M55" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DigiKey</v>
       </c>
       <c r="N55" s="50">
-        <v>0.75</v>
-      </c>
-      <c r="O55" s="51">
-        <v>1</v>
-      </c>
+        <v>1.46</v>
+      </c>
+      <c r="O55" s="51"/>
       <c r="P55" s="32">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q55" s="33"/>
       <c r="R55" s="25"/>
       <c r="S55" s="8"/>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B56" s="48" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D56" s="48">
-        <v>665003113322</v>
+        <v>5013300200</v>
       </c>
       <c r="E56" s="48" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F56" s="48"/>
       <c r="G56" s="48"/>
@@ -5243,48 +5389,46 @@
       </c>
       <c r="K56" s="52"/>
       <c r="L56" s="48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M56" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DigiKey</v>
       </c>
       <c r="N56" s="50">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="O56" s="51">
         <v>1</v>
       </c>
       <c r="P56" s="32">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f t="shared" si="4"/>
+        <v>0.21</v>
       </c>
       <c r="Q56" s="33"/>
       <c r="R56" s="25"/>
       <c r="S56" s="8"/>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A57" s="53" t="s">
-        <v>293</v>
+    <row r="57" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="48" t="s">
+        <v>287</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C57" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="48" t="s">
-        <v>263</v>
+        <v>130</v>
+      </c>
+      <c r="D57" s="48">
+        <v>665103131822</v>
       </c>
       <c r="E57" s="48" t="s">
-        <v>295</v>
-      </c>
-      <c r="F57" s="48" t="s">
-        <v>294</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="F57" s="48"/>
       <c r="G57" s="48"/>
       <c r="H57" s="48">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="I57" s="52"/>
       <c r="J57" s="52" t="s">
@@ -5292,50 +5436,46 @@
       </c>
       <c r="K57" s="52"/>
       <c r="L57" s="48" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M57" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DigiKey</v>
       </c>
       <c r="N57" s="50">
-        <v>1.24</v>
+        <v>0.75</v>
       </c>
       <c r="O57" s="51">
         <v>1</v>
       </c>
       <c r="P57" s="32">
-        <f t="shared" si="0"/>
-        <v>1.24</v>
+        <f t="shared" si="4"/>
+        <v>0.75</v>
       </c>
       <c r="Q57" s="33"/>
       <c r="R57" s="25"/>
       <c r="S57" s="8"/>
-      <c r="U57">
-        <f t="shared" ref="U57:U61" si="15">SUBTOTAL(103, G57)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A58" s="53" t="s">
-        <v>293</v>
-      </c>
-      <c r="B58" s="56" t="s">
-        <v>378</v>
+    </row>
+    <row r="58" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="B58" s="48" t="s">
+        <v>369</v>
       </c>
       <c r="C58" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="D58" s="48" t="s">
-        <v>265</v>
+        <v>130</v>
+      </c>
+      <c r="D58" s="48">
+        <v>665003113322</v>
       </c>
       <c r="E58" s="48" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F58" s="48"/>
       <c r="G58" s="48"/>
       <c r="H58" s="48">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="I58" s="52"/>
       <c r="J58" s="52" t="s">
@@ -5343,47 +5483,45 @@
       </c>
       <c r="K58" s="52"/>
       <c r="L58" s="48" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M58" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DigiKey</v>
       </c>
       <c r="N58" s="50">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="O58" s="51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P58" s="32">
-        <f t="shared" si="0"/>
-        <v>0.96</v>
+        <f t="shared" si="4"/>
+        <v>0.2</v>
       </c>
       <c r="Q58" s="33"/>
       <c r="R58" s="25"/>
       <c r="S58" s="8"/>
-      <c r="U58">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="B59" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="C59" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="E59" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="F59" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="B59" s="48" t="s">
-        <v>372</v>
-      </c>
-      <c r="C59" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="E59" s="48" t="s">
-        <v>298</v>
-      </c>
-      <c r="F59" s="48"/>
       <c r="G59" s="48"/>
       <c r="H59" s="48">
         <v>1.27</v>
@@ -5394,153 +5532,145 @@
       </c>
       <c r="K59" s="52"/>
       <c r="L59" s="48" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M59" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DigiKey</v>
       </c>
       <c r="N59" s="50">
-        <v>0.7</v>
+        <v>1.24</v>
       </c>
       <c r="O59" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P59" s="32">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
+        <f t="shared" si="4"/>
+        <v>1.24</v>
       </c>
       <c r="Q59" s="33"/>
       <c r="R59" s="25"/>
       <c r="S59" s="8"/>
       <c r="U59">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="U59:U63" si="15">SUBTOTAL(103, G59)</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
-      <c r="B60" s="48" t="s">
-        <v>33</v>
+      <c r="A60" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="B60" s="56" t="s">
+        <v>376</v>
       </c>
       <c r="C60" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="D60" s="48">
-        <v>971070154</v>
+        <v>295</v>
+      </c>
+      <c r="D60" s="48" t="s">
+        <v>264</v>
       </c>
       <c r="E60" s="48" t="s">
-        <v>34</v>
+        <v>296</v>
       </c>
       <c r="F60" s="48"/>
       <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
+      <c r="H60" s="48">
+        <v>1.27</v>
+      </c>
       <c r="I60" s="52"/>
       <c r="J60" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K60" s="52"/>
       <c r="L60" s="48" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="M60" s="48" t="str">
-        <f t="shared" ref="M60:M66" si="16">HYPERLINK(L60,J60)</f>
+        <f t="shared" si="3"/>
         <v>DigiKey</v>
       </c>
       <c r="N60" s="50">
-        <v>0.88</v>
+        <v>0.32</v>
       </c>
       <c r="O60" s="51">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P60" s="32">
-        <f t="shared" ref="P60:P66" si="17">N60*O60</f>
-        <v>7.04</v>
-      </c>
-      <c r="Q60" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R60" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="S60" s="6"/>
-      <c r="T60">
-        <f>IF(AND(Q60="Nicht Gekauft", R60="Benötigt"), P60, 0)</f>
-        <v>7.04</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0.96</v>
+      </c>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="8"/>
       <c r="U60">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AF60" t="s">
-        <v>341</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>355</v>
-      </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
+      <c r="A61" s="53" t="s">
+        <v>292</v>
+      </c>
       <c r="B61" s="48" t="s">
-        <v>33</v>
+        <v>371</v>
       </c>
       <c r="C61" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="D61" s="48">
-        <v>971110154</v>
+        <v>130</v>
+      </c>
+      <c r="D61" s="48" t="s">
+        <v>266</v>
       </c>
       <c r="E61" s="48" t="s">
-        <v>356</v>
+        <v>297</v>
       </c>
       <c r="F61" s="48"/>
       <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
+      <c r="H61" s="48">
+        <v>1.27</v>
+      </c>
       <c r="I61" s="52"/>
       <c r="J61" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K61" s="52"/>
       <c r="L61" s="48" t="s">
-        <v>357</v>
+        <v>263</v>
       </c>
       <c r="M61" s="48" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="3"/>
         <v>DigiKey</v>
       </c>
       <c r="N61" s="50">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="O61" s="51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P61" s="32">
-        <f t="shared" si="17"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>1.4</v>
       </c>
       <c r="Q61" s="33"/>
       <c r="R61" s="25"/>
-      <c r="S61" s="6"/>
+      <c r="S61" s="8"/>
       <c r="U61">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" s="48" t="s">
-        <v>279</v>
-      </c>
+      <c r="A62" s="48"/>
       <c r="B62" s="48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C62" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="D62" s="48" t="s">
-        <v>38</v>
+        <v>277</v>
+      </c>
+      <c r="D62" s="48">
+        <v>971070154</v>
       </c>
       <c r="E62" s="48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F62" s="48"/>
       <c r="G62" s="48"/>
@@ -5551,53 +5681,57 @@
       </c>
       <c r="K62" s="52"/>
       <c r="L62" s="48" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M62" s="48" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="M62:M68" si="16">HYPERLINK(L62,J62)</f>
         <v>DigiKey</v>
       </c>
       <c r="N62" s="50">
-        <v>0.56999999999999995</v>
+        <v>0.88</v>
       </c>
       <c r="O62" s="51">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P62" s="32">
-        <f t="shared" si="17"/>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="Q62" s="30" t="s">
+        <f t="shared" ref="P62:P68" si="17">N62*O62</f>
+        <v>7.04</v>
+      </c>
+      <c r="Q62" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="R62" s="31" t="s">
+      <c r="R62" s="25" t="s">
         <v>81</v>
       </c>
       <c r="S62" s="6"/>
       <c r="T62">
         <f>IF(AND(Q62="Nicht Gekauft", R62="Benötigt"), P62, 0)</f>
-        <v>2.2799999999999998</v>
+        <v>7.04</v>
       </c>
       <c r="U62">
-        <f>SUBTOTAL(103, G62)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="AF62" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A63" s="48" t="s">
-        <v>279</v>
-      </c>
+      <c r="A63" s="48"/>
       <c r="B63" s="48" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="D63" s="48" t="s">
-        <v>42</v>
+        <v>277</v>
+      </c>
+      <c r="D63" s="48">
+        <v>971110154</v>
       </c>
       <c r="E63" s="48" t="s">
-        <v>39</v>
+        <v>355</v>
       </c>
       <c r="F63" s="48"/>
       <c r="G63" s="48"/>
@@ -5608,53 +5742,45 @@
       </c>
       <c r="K63" s="52"/>
       <c r="L63" s="48" t="s">
-        <v>43</v>
+        <v>356</v>
       </c>
       <c r="M63" s="48" t="str">
         <f t="shared" si="16"/>
         <v>DigiKey</v>
       </c>
       <c r="N63" s="50">
-        <v>0.55000000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="O63" s="51">
         <v>4</v>
       </c>
       <c r="P63" s="32">
         <f t="shared" si="17"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q63" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="R63" s="25" t="s">
-        <v>81</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="25"/>
       <c r="S63" s="6"/>
-      <c r="T63">
-        <f>IF(AND(Q63="Nicht Gekauft", R63="Benötigt"), P63, 0)</f>
-        <v>2.2000000000000002</v>
-      </c>
       <c r="U63">
-        <f>SUBTOTAL(103, G63)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A64" s="53" t="s">
-        <v>282</v>
+    <row r="64" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="48" t="s">
+        <v>278</v>
       </c>
       <c r="B64" s="48" t="s">
         <v>37</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D64" s="48" t="s">
-        <v>274</v>
+        <v>38</v>
       </c>
       <c r="E64" s="48" t="s">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="F64" s="48"/>
       <c r="G64" s="48"/>
@@ -5663,55 +5789,55 @@
       <c r="J64" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K64" s="48" t="s">
-        <v>280</v>
-      </c>
+      <c r="K64" s="52"/>
       <c r="L64" s="48" t="s">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="M64" s="48" t="str">
         <f t="shared" si="16"/>
         <v>DigiKey</v>
       </c>
       <c r="N64" s="50">
-        <v>2.6</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="O64" s="51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P64" s="32">
         <f t="shared" si="17"/>
-        <v>5.2</v>
-      </c>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="25"/>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="Q64" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R64" s="31" t="s">
+        <v>81</v>
+      </c>
       <c r="S64" s="6"/>
+      <c r="T64">
+        <f>IF(AND(Q64="Nicht Gekauft", R64="Benötigt"), P64, 0)</f>
+        <v>2.2799999999999998</v>
+      </c>
       <c r="U64">
-        <f t="shared" ref="U64:U66" si="18">SUBTOTAL(103, G64)</f>
+        <f>SUBTOTAL(103, G64)</f>
         <v>0</v>
       </c>
-      <c r="AF64" t="s">
-        <v>342</v>
-      </c>
-      <c r="AG64" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A65" s="53" t="s">
-        <v>282</v>
+    </row>
+    <row r="65" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="48" t="s">
+        <v>278</v>
       </c>
       <c r="B65" s="48" t="s">
         <v>41</v>
       </c>
       <c r="C65" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D65" s="48" t="s">
-        <v>276</v>
+        <v>42</v>
       </c>
       <c r="E65" s="48" t="s">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="F65" s="48"/>
       <c r="G65" s="48"/>
@@ -5720,215 +5846,217 @@
       <c r="J65" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="K65" s="48" t="s">
-        <v>283</v>
-      </c>
+      <c r="K65" s="52"/>
       <c r="L65" s="48" t="s">
-        <v>277</v>
+        <v>43</v>
       </c>
       <c r="M65" s="48" t="str">
         <f t="shared" si="16"/>
         <v>DigiKey</v>
       </c>
       <c r="N65" s="50">
-        <v>1.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O65" s="51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P65" s="32">
         <f t="shared" si="17"/>
-        <v>1.53</v>
-      </c>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="25"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q65" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R65" s="25" t="s">
+        <v>81</v>
+      </c>
       <c r="S65" s="6"/>
+      <c r="T65">
+        <f>IF(AND(Q65="Nicht Gekauft", R65="Benötigt"), P65, 0)</f>
+        <v>2.2000000000000002</v>
+      </c>
       <c r="U65">
-        <f t="shared" si="18"/>
+        <f>SUBTOTAL(103, G65)</f>
         <v>0</v>
-      </c>
-      <c r="AF65" t="s">
-        <v>343</v>
-      </c>
-      <c r="AG65" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="53" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B66" s="48" t="s">
-        <v>346</v>
+        <v>37</v>
       </c>
       <c r="C66" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D66" s="48" t="s">
-        <v>347</v>
+        <v>273</v>
       </c>
       <c r="E66" s="48" t="s">
-        <v>348</v>
+        <v>280</v>
       </c>
       <c r="F66" s="48"/>
       <c r="G66" s="48"/>
       <c r="H66" s="48"/>
       <c r="I66" s="52"/>
       <c r="J66" s="52" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K66" s="48" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="L66" s="48" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
       <c r="M66" s="48" t="str">
         <f t="shared" si="16"/>
-        <v>Mouser</v>
+        <v>DigiKey</v>
       </c>
       <c r="N66" s="50">
-        <v>2.17</v>
+        <v>2.6</v>
       </c>
       <c r="O66" s="51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P66" s="32">
         <f t="shared" si="17"/>
-        <v>2.17</v>
+        <v>5.2</v>
       </c>
       <c r="Q66" s="33"/>
       <c r="R66" s="25"/>
       <c r="S66" s="6"/>
       <c r="U66">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="U66:U68" si="18">SUBTOTAL(103, G66)</f>
         <v>0</v>
       </c>
       <c r="AF66" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AG66" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A67" s="48" t="s">
-        <v>376</v>
+      <c r="A67" s="53" t="s">
+        <v>281</v>
       </c>
       <c r="B67" s="48" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C67" s="48" t="s">
-        <v>47</v>
+        <v>277</v>
       </c>
       <c r="D67" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E67" s="52" t="s">
-        <v>48</v>
+        <v>275</v>
+      </c>
+      <c r="E67" s="48" t="s">
+        <v>280</v>
       </c>
       <c r="F67" s="48"/>
       <c r="G67" s="48"/>
       <c r="H67" s="48"/>
       <c r="I67" s="52"/>
       <c r="J67" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="K67" s="52"/>
+        <v>35</v>
+      </c>
+      <c r="K67" s="48" t="s">
+        <v>282</v>
+      </c>
       <c r="L67" s="48" t="s">
-        <v>50</v>
+        <v>276</v>
       </c>
       <c r="M67" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>Amazon</v>
+        <f t="shared" si="16"/>
+        <v>DigiKey</v>
       </c>
       <c r="N67" s="50">
-        <v>8.66</v>
+        <v>1.53</v>
       </c>
       <c r="O67" s="51">
         <v>1</v>
       </c>
       <c r="P67" s="32">
-        <f t="shared" si="0"/>
-        <v>8.66</v>
-      </c>
-      <c r="Q67" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="R67" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="T67">
-        <f>IF(AND(Q67="Nicht Gekauft", R67="Benötigt"), P67, 0)</f>
+        <f t="shared" si="17"/>
+        <v>1.53</v>
+      </c>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="6"/>
+      <c r="U67">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U67">
-        <f>SUBTOTAL(103, G67)</f>
-        <v>0</v>
+      <c r="AF67" t="s">
+        <v>342</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A68" s="48" t="s">
-        <v>376</v>
+      <c r="A68" s="53" t="s">
+        <v>281</v>
       </c>
       <c r="B68" s="48" t="s">
-        <v>52</v>
+        <v>345</v>
       </c>
       <c r="C68" s="48" t="s">
-        <v>47</v>
+        <v>277</v>
       </c>
       <c r="D68" s="48" t="s">
-        <v>31</v>
+        <v>346</v>
       </c>
       <c r="E68" s="48" t="s">
-        <v>53</v>
+        <v>347</v>
       </c>
       <c r="F68" s="48"/>
       <c r="G68" s="48"/>
       <c r="H68" s="48"/>
       <c r="I68" s="52"/>
       <c r="J68" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="K68" s="52"/>
+        <v>45</v>
+      </c>
+      <c r="K68" s="48" t="s">
+        <v>349</v>
+      </c>
       <c r="L68" s="48" t="s">
-        <v>211</v>
+        <v>348</v>
       </c>
       <c r="M68" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>Amazon</v>
+        <f t="shared" si="16"/>
+        <v>Mouser</v>
       </c>
       <c r="N68" s="50">
-        <v>5.99</v>
+        <v>2.17</v>
       </c>
       <c r="O68" s="51">
         <v>1</v>
       </c>
-      <c r="P68" s="29">
-        <f t="shared" si="0"/>
-        <v>5.99</v>
-      </c>
-      <c r="Q68" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="R68" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="T68">
-        <f>IF(AND(Q68="Nicht Gekauft", R68="Benötigt"), P68, 0)</f>
+      <c r="P68" s="32">
+        <f>N68*O68</f>
+        <v>2.17</v>
+      </c>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="6"/>
+      <c r="U68">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U68">
-        <f>SUBTOTAL(103, G68)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF68" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B69" s="48" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C69" s="48" t="s">
         <v>47</v>
@@ -5936,8 +6064,8 @@
       <c r="D69" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E69" s="48" t="s">
-        <v>55</v>
+      <c r="E69" s="52" t="s">
+        <v>48</v>
       </c>
       <c r="F69" s="48"/>
       <c r="G69" s="48"/>
@@ -5948,21 +6076,21 @@
       </c>
       <c r="K69" s="52"/>
       <c r="L69" s="48" t="s">
-        <v>211</v>
+        <v>50</v>
       </c>
       <c r="M69" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Amazon</v>
       </c>
       <c r="N69" s="50">
-        <v>18.14</v>
+        <v>8.66</v>
       </c>
       <c r="O69" s="51">
         <v>1</v>
       </c>
       <c r="P69" s="32">
-        <f t="shared" si="0"/>
-        <v>18.14</v>
+        <f t="shared" si="4"/>
+        <v>8.66</v>
       </c>
       <c r="Q69" s="33" t="s">
         <v>51</v>
@@ -5979,230 +6107,461 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="17"/>
-    </row>
-    <row r="71" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F71" s="5" t="s">
+    <row r="70" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="B70" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="52"/>
+      <c r="J70" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="K70" s="52"/>
+      <c r="L70" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="M70" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>Amazon</v>
+      </c>
+      <c r="N70" s="50">
+        <v>5.99</v>
+      </c>
+      <c r="O70" s="51">
+        <v>1</v>
+      </c>
+      <c r="P70" s="29">
+        <f t="shared" si="4"/>
+        <v>5.99</v>
+      </c>
+      <c r="Q70" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R70" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="T70">
+        <f>IF(AND(Q70="Nicht Gekauft", R70="Benötigt"), P70, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <f>SUBTOTAL(103, G70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="B71" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="K71" s="52"/>
+      <c r="L71" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="M71" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>Amazon</v>
+      </c>
+      <c r="N71" s="50">
+        <v>18.14</v>
+      </c>
+      <c r="O71" s="51">
+        <v>1</v>
+      </c>
+      <c r="P71" s="32">
+        <f t="shared" si="4"/>
+        <v>18.14</v>
+      </c>
+      <c r="Q71" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="R71" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="T71">
+        <f>IF(AND(Q71="Nicht Gekauft", R71="Benötigt"), P71, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <f>SUBTOTAL(103, G71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="17"/>
+    </row>
+    <row r="73" spans="1:33" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F73" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="G74" s="42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="43">
+        <f>SUMPRODUCT(F3:F71, O3:O71, U3:U71)</f>
+        <v>3.73</v>
+      </c>
+      <c r="G75" s="43" cm="1">
+        <f t="array" ref="G75">SUMPRODUCT(--(G3:G71=12), F3:F71, O3:O71, U3:U71)</f>
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G77" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G78" s="43" cm="1">
+        <f t="array" ref="G78">SUMPRODUCT(--(G3:G71=5), F3:F71, O3:O71, U3:U71)</f>
+        <v>1.8900000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="6:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F81" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G81" s="5" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="72" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F72" s="42" t="s">
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="6:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="G82" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="G72" s="42" t="s">
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="6:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="38">
+        <f>F75*$F$86</f>
+        <v>5.5949999999999998</v>
+      </c>
+      <c r="G83" s="38">
+        <f>G75*$F$86</f>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="H83" s="3"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+    </row>
+    <row r="84" spans="6:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="6:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F85" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="G85" s="37" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="73" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F73" s="43">
-        <f>SUMPRODUCT(F2:F69, O2:O69, U2:U69)</f>
-        <v>5.7779999999999996</v>
-      </c>
-      <c r="G73" s="43" cm="1">
-        <f t="array" ref="G73">SUMPRODUCT(--(G2:G69=12), F2:F69, O2:O69, U2:U69)</f>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="6:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F86" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="G86" s="38">
+        <f>G78*$F$86</f>
+        <v>2.835</v>
+      </c>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="6:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H87" s="3"/>
+      <c r="I87" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="6:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F88" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="89" spans="6:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F89" s="46">
+        <f>SUM(F3:F71)</f>
+        <v>4.621999999999999</v>
+      </c>
+      <c r="G89" s="45" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="90" spans="6:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G90" s="47">
         <v>3.04</v>
       </c>
     </row>
-    <row r="74" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G75" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G76" s="43" cm="1">
-        <f t="array" ref="G76">SUMPRODUCT(--(G2:G69=5), F2:F69, O2:O69, U2:U69)</f>
-        <v>2.738</v>
-      </c>
-    </row>
-    <row r="77" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H77" s="3"/>
-    </row>
-    <row r="78" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H78" s="3"/>
-    </row>
-    <row r="79" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F79" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="H79" s="3"/>
-    </row>
-    <row r="80" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F80" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="G80" s="37" t="s">
+    <row r="91" spans="6:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+    </row>
+    <row r="92" spans="6:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F92" s="39"/>
+      <c r="G92" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="H80" s="3"/>
-    </row>
-    <row r="81" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F81" s="38">
-        <f>F73*$F$84</f>
-        <v>8.6669999999999998</v>
-      </c>
-      <c r="G81" s="38">
-        <f>G73*$F$84</f>
-        <v>4.5600000000000005</v>
-      </c>
-      <c r="H81" s="3"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-    </row>
-    <row r="82" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H82" s="3"/>
-    </row>
-    <row r="83" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F83" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="G83" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="H83" s="3"/>
-    </row>
-    <row r="84" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F84" s="41">
-        <v>1.5</v>
-      </c>
-      <c r="G84" s="38">
-        <f>G76*$F$84</f>
-        <v>4.1070000000000002</v>
-      </c>
-      <c r="H84" s="3"/>
-    </row>
-    <row r="85" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H85" s="3"/>
-      <c r="I85" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F86" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="87" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F87" s="46">
-        <f>SUM(F2:F69)</f>
-        <v>4.621999999999999</v>
-      </c>
-      <c r="G87" s="45" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="88" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G88" s="47">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="89" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-    </row>
-    <row r="90" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F90" s="39"/>
-      <c r="G90" s="44" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="91" spans="6:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F91" s="39"/>
-      <c r="G91" s="46">
+    </row>
+    <row r="93" spans="6:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F93" s="39"/>
+      <c r="G93" s="46">
         <v>2.548</v>
       </c>
     </row>
-    <row r="93" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F93" t="s">
+    <row r="94" spans="6:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="6:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="96" spans="6:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="94" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F94" t="s">
+      <c r="G96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
         <v>238</v>
       </c>
-      <c r="G94">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F95" t="s">
+      <c r="G97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
         <v>239</v>
       </c>
-      <c r="G95">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="6:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F96" t="s">
+      <c r="G98">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="6:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101" spans="6:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
         <v>240</v>
       </c>
-      <c r="G96">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="98" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F98" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="99" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F99" t="s">
+      <c r="G101">
+        <f>G96-G83</f>
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="102" spans="6:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
         <v>241</v>
       </c>
-      <c r="G99">
-        <f>G94-G81</f>
-        <v>3.4399999999999995</v>
-      </c>
-    </row>
-    <row r="100" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F100" t="s">
-        <v>242</v>
-      </c>
-      <c r="G100">
-        <f>G95+G96-G84</f>
-        <v>0.94299999999999962</v>
-      </c>
-    </row>
+      <c r="G102">
+        <f>G97+G98-G86</f>
+        <v>2.2149999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="6:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="6:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="6:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:R69" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}"/>
+  <autoFilter ref="A1:R71" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="ACC3"/>
+        <filter val="BF4"/>
+        <filter val="BL"/>
+        <filter val="BP2"/>
+        <filter val="F2"/>
+        <filter val="Lk2"/>
+        <filter val="POW2"/>
+        <filter val="S1"/>
+        <filter val="SP2"/>
+        <filter val="ST_TEMP"/>
+        <filter val="ST3"/>
+        <filter val="SV2"/>
+        <filter val="TP2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <customSheetViews>
+    <customSheetView guid="{2376F375-2D91-4AB8-9819-CC132C3118EA}" filter="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P68" sqref="B1:P68"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A1:R71" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BL"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="Lk2"/>
+            <filter val="POW2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="ST_TEMP"/>
+            <filter val="ST3"/>
+            <filter val="SV2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{1253E34A-3A91-496E-8486-95C1D21A2085}" showAutoFilter="1" hiddenColumns="1" topLeftCell="B1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE10" sqref="AE10"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A1:R76" xr:uid="{7E256883-3769-4722-82A9-5D03FDA1740C}"/>
+    </customSheetView>
+    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A1:R59" xr:uid="{C448D155-4C6D-4265-A8BD-4B52118AED66}"/>
+    </customSheetView>
+    <customSheetView guid="{3411E606-57DF-4B4E-942D-8A879EBC3FAD}" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A1:R76" xr:uid="{7A2D0453-9AA5-453F-A4D5-E6C6A702F732}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BL"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="Lk2"/>
+            <filter val="POW2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="ST_TEMP"/>
+            <filter val="ST3"/>
+            <filter val="SV2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{0C0F82AC-DC21-4B4A-94AC-E96E30BF52DE}" filter="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P79" sqref="P79"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+      <autoFilter ref="A1:R76" xr:uid="{DDFFDB25-097D-4B4C-95C6-1C8921FE262A}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BL"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="Lk2"/>
+            <filter val="POW2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="ST_TEMP"/>
+            <filter val="ST3"/>
+            <filter val="SV2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{4300A442-0A40-4FB1-A9F3-2AB99D5A4993}" showAutoFilter="1" topLeftCell="B1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+      <autoFilter ref="A1:R76" xr:uid="{9D24E325-D76E-480F-8644-7C22A41F4F8F}"/>
+    </customSheetView>
     <customSheetView guid="{E35F6895-3697-4266-BC90-C5022F400E13}" filter="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O83" sqref="B1:O83"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R76" xr:uid="{5D477D3A-D3F5-438A-8A8B-6B86EF38C4D4}">
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+      <autoFilter ref="A1:R76" xr:uid="{3AA576F5-B598-4ECC-B3D6-C7907F3D5042}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6227,83 +6586,12 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{4300A442-0A40-4FB1-A9F3-2AB99D5A4993}" showAutoFilter="1" topLeftCell="B1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R76" xr:uid="{634BB408-3235-47EC-AF8F-4454C3FFA673}"/>
-    </customSheetView>
-    <customSheetView guid="{0C0F82AC-DC21-4B4A-94AC-E96E30BF52DE}" filter="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P79" sqref="P79"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R76" xr:uid="{A3BDE8A2-0A0C-41A3-A308-65F95E689DB3}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BL"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
-            <filter val="Lk2"/>
-            <filter val="POW2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="ST_TEMP"/>
-            <filter val="ST3"/>
-            <filter val="SV2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{3411E606-57DF-4B4E-942D-8A879EBC3FAD}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R76" xr:uid="{AEB7E2CA-3939-41B6-8B05-BB6043E9B754}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BL"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
-            <filter val="Lk2"/>
-            <filter val="POW2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="ST_TEMP"/>
-            <filter val="ST3"/>
-            <filter val="SV2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-      <autoFilter ref="A1:R59" xr:uid="{0787BFBA-D108-40A8-BD65-0F256B371AAF}"/>
-    </customSheetView>
-    <customSheetView guid="{1253E34A-3A91-496E-8486-95C1D21A2085}" showAutoFilter="1" hiddenColumns="1" topLeftCell="B1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE10" sqref="AE10"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-      <autoFilter ref="A1:R76" xr:uid="{074CD1F6-C5AA-4B4D-B287-6988701C8D33}"/>
-    </customSheetView>
   </customSheetViews>
   <mergeCells count="4">
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="X7:Y7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="P1:P1048576">
@@ -6318,7 +6606,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q77:Q1048576 Q1:Q75">
+  <conditionalFormatting sqref="Q79:Q1048576 Q1:Q77">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Nicht Gekauft"</formula>
     </cfRule>
@@ -6326,7 +6614,7 @@
       <formula>"Gekauft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1">
+  <conditionalFormatting sqref="R1:R2">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Nicht Gekauft"</formula>
     </cfRule>
@@ -6334,7 +6622,7 @@
       <formula>"Gekauft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R70">
+  <conditionalFormatting sqref="R2:R72">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Nicht benötigt"</formula>
     </cfRule>
@@ -6343,35 +6631,967 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R70" xr:uid="{DF639F38-DCBF-4FB0-9016-BE70B5447265}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R72" xr:uid="{DF639F38-DCBF-4FB0-9016-BE70B5447265}">
       <formula1>"Benötigt,Nicht benötigt"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q70" xr:uid="{BB82D80E-695D-4A38-A148-48463DFE8321}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q72" xr:uid="{BB82D80E-695D-4A38-A148-48463DFE8321}">
       <formula1>"Gekauft,Nicht Gekauft"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId7" xr:uid="{134576B2-6870-47F8-80B5-95CA9B97F9E2}"/>
-    <hyperlink ref="L60" r:id="rId8" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
-    <hyperlink ref="L62" r:id="rId9" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
-    <hyperlink ref="L63" r:id="rId10" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
-    <hyperlink ref="L67" r:id="rId11" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
-    <hyperlink ref="L42" r:id="rId12" xr:uid="{A9D6150D-3C06-4D81-AD60-047F4F409296}"/>
-    <hyperlink ref="L43" r:id="rId13" xr:uid="{411A7094-1AC1-4084-ABE4-5C0060EC1A2D}"/>
-    <hyperlink ref="L44" r:id="rId14" xr:uid="{3DDB6C5A-7DB3-4C65-B604-D02293535F49}"/>
-    <hyperlink ref="L15" r:id="rId15" xr:uid="{56E44BCE-942A-4E32-8574-907151789664}"/>
-    <hyperlink ref="L7" r:id="rId16" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
-    <hyperlink ref="L3" r:id="rId17" xr:uid="{C49F6822-A4DD-42C2-B3BF-0381D137937C}"/>
-    <hyperlink ref="L5" r:id="rId18" xr:uid="{BF0FEABB-4850-4BC5-A11D-D889C6B926FD}"/>
-    <hyperlink ref="L16" r:id="rId19" xr:uid="{21389653-C0FE-46E1-B136-04B9A0DE28C5}"/>
-    <hyperlink ref="L17" r:id="rId20" xr:uid="{E62708AD-A075-4D9D-9BC8-2CBD617B66EE}"/>
-    <hyperlink ref="L13" r:id="rId21" xr:uid="{02A8F53B-7033-433E-97B4-37D43B10ABDE}"/>
-    <hyperlink ref="K64" r:id="rId22" display="https://www.samtec.com/products/hle-107-02-l-dv" xr:uid="{AF2D4394-67CE-4447-B187-DA356AB0AFD4}"/>
-    <hyperlink ref="L64" r:id="rId23" xr:uid="{3CAA47B9-FD6F-4B23-A59B-6E4BF51797D7}"/>
-    <hyperlink ref="L53" r:id="rId24" xr:uid="{8FDFC79B-94E5-4C68-84E1-D5C8679D313C}"/>
-    <hyperlink ref="L54" r:id="rId25" xr:uid="{3CB626FF-165C-4A7E-A7FE-D41E681D5EC5}"/>
+    <hyperlink ref="L7" r:id="rId8" xr:uid="{134576B2-6870-47F8-80B5-95CA9B97F9E2}"/>
+    <hyperlink ref="L62" r:id="rId9" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
+    <hyperlink ref="L64" r:id="rId10" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
+    <hyperlink ref="L65" r:id="rId11" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
+    <hyperlink ref="L69" r:id="rId12" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
+    <hyperlink ref="L44" r:id="rId13" xr:uid="{A9D6150D-3C06-4D81-AD60-047F4F409296}"/>
+    <hyperlink ref="L45" r:id="rId14" xr:uid="{411A7094-1AC1-4084-ABE4-5C0060EC1A2D}"/>
+    <hyperlink ref="L46" r:id="rId15" xr:uid="{3DDB6C5A-7DB3-4C65-B604-D02293535F49}"/>
+    <hyperlink ref="L16" r:id="rId16" xr:uid="{56E44BCE-942A-4E32-8574-907151789664}"/>
+    <hyperlink ref="L12" r:id="rId17" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
+    <hyperlink ref="L8" r:id="rId18" xr:uid="{C49F6822-A4DD-42C2-B3BF-0381D137937C}"/>
+    <hyperlink ref="L10" r:id="rId19" xr:uid="{BF0FEABB-4850-4BC5-A11D-D889C6B926FD}"/>
+    <hyperlink ref="L17" r:id="rId20" xr:uid="{21389653-C0FE-46E1-B136-04B9A0DE28C5}"/>
+    <hyperlink ref="L18" r:id="rId21" xr:uid="{E62708AD-A075-4D9D-9BC8-2CBD617B66EE}"/>
+    <hyperlink ref="L5" r:id="rId22" xr:uid="{02A8F53B-7033-433E-97B4-37D43B10ABDE}"/>
+    <hyperlink ref="K66" r:id="rId23" display="https://www.samtec.com/products/hle-107-02-l-dv" xr:uid="{AF2D4394-67CE-4447-B187-DA356AB0AFD4}"/>
+    <hyperlink ref="L66" r:id="rId24" xr:uid="{3CAA47B9-FD6F-4B23-A59B-6E4BF51797D7}"/>
+    <hyperlink ref="L55" r:id="rId25" xr:uid="{8FDFC79B-94E5-4C68-84E1-D5C8679D313C}"/>
+    <hyperlink ref="L56" r:id="rId26" xr:uid="{3CB626FF-165C-4A7E-A7FE-D41E681D5EC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F2F1C6-E1C2-4373-AE17-A9D351240EF8}">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="E2" s="51">
+        <v>1</v>
+      </c>
+      <c r="F2" s="29">
+        <v>33.369999999999997</v>
+      </c>
+      <c r="G2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="51">
+        <v>1</v>
+      </c>
+      <c r="F3" s="29">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="51">
+        <v>1</v>
+      </c>
+      <c r="F4" s="32">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="51">
+        <v>1</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0.41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="48"/>
+      <c r="B6" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="51">
+        <v>1</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0.23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="51">
+        <v>1</v>
+      </c>
+      <c r="F7" s="29">
+        <v>9.91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="51">
+        <v>1</v>
+      </c>
+      <c r="F8" s="32">
+        <v>6.99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="51">
+        <v>1</v>
+      </c>
+      <c r="F9" s="32">
+        <v>6.99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="51">
+        <v>1</v>
+      </c>
+      <c r="F10" s="32">
+        <v>39.99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="51">
+        <v>1</v>
+      </c>
+      <c r="F11" s="29">
+        <v>5.99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="51">
+        <v>2</v>
+      </c>
+      <c r="F12" s="32">
+        <v>13.46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="51">
+        <v>2</v>
+      </c>
+      <c r="F13" s="32">
+        <v>14.8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="53"/>
+      <c r="B14" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="51">
+        <v>4</v>
+      </c>
+      <c r="F14" s="32">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" s="48">
+        <v>665002113322</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="51">
+        <v>4</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0.52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="48">
+        <v>665102131822</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="51">
+        <v>4</v>
+      </c>
+      <c r="F16" s="32">
+        <v>2.44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="51">
+        <v>1</v>
+      </c>
+      <c r="F17" s="32">
+        <v>2.34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="51">
+        <v>1</v>
+      </c>
+      <c r="F18" s="32">
+        <v>1.17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="51">
+        <v>1</v>
+      </c>
+      <c r="F19" s="29">
+        <v>1.78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="48"/>
+      <c r="B20" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="51">
+        <v>1</v>
+      </c>
+      <c r="F20" s="29">
+        <v>0.95</v>
+      </c>
+      <c r="G20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="48"/>
+      <c r="B21" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="51">
+        <v>1</v>
+      </c>
+      <c r="F21" s="32">
+        <v>1.56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="48"/>
+      <c r="B22" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="51">
+        <v>1</v>
+      </c>
+      <c r="F22" s="29">
+        <v>0.47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="48"/>
+      <c r="B23" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="48">
+        <v>824521241</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="51">
+        <v>2</v>
+      </c>
+      <c r="F23" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="48"/>
+      <c r="B24" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="51">
+        <v>2</v>
+      </c>
+      <c r="F24" s="29">
+        <v>5.82</v>
+      </c>
+      <c r="G24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="48"/>
+      <c r="B25" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="51">
+        <v>1</v>
+      </c>
+      <c r="F25" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="49"/>
+      <c r="B26" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="51">
+        <v>1</v>
+      </c>
+      <c r="F26" s="29">
+        <v>9.25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="49"/>
+      <c r="B27" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="51">
+        <v>1</v>
+      </c>
+      <c r="F27" s="29">
+        <v>0.84</v>
+      </c>
+      <c r="G27" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="51">
+        <v>1</v>
+      </c>
+      <c r="F28" s="32">
+        <v>1.7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="51">
+        <v>1</v>
+      </c>
+      <c r="F29" s="29">
+        <v>0.94</v>
+      </c>
+      <c r="G29" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="53" t="s">
+        <v>358</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="51">
+        <v>6</v>
+      </c>
+      <c r="F30" s="29">
+        <v>17.22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="51">
+        <v>1</v>
+      </c>
+      <c r="F31" s="32">
+        <v>0.22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="51">
+        <v>4</v>
+      </c>
+      <c r="F32" s="32">
+        <v>0.72</v>
+      </c>
+      <c r="G32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="51">
+        <v>2</v>
+      </c>
+      <c r="F33" s="32">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G33" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="51">
+        <v>1</v>
+      </c>
+      <c r="F34" s="32">
+        <v>1.24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="51">
+        <v>3</v>
+      </c>
+      <c r="F35" s="32">
+        <v>0.96</v>
+      </c>
+      <c r="G35" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="51">
+        <v>2</v>
+      </c>
+      <c r="F36" s="32">
+        <v>1.4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="48"/>
+      <c r="B37" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="48">
+        <v>971070154</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="51">
+        <v>8</v>
+      </c>
+      <c r="F37" s="32">
+        <v>7.04</v>
+      </c>
+      <c r="G37" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="48"/>
+      <c r="B38" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="48">
+        <v>971110154</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="51">
+        <v>4</v>
+      </c>
+      <c r="F38" s="32">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="51">
+        <v>2</v>
+      </c>
+      <c r="F39" s="32">
+        <v>5.2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="51">
+        <v>1</v>
+      </c>
+      <c r="F40" s="32">
+        <v>1.53</v>
+      </c>
+      <c r="G40" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>345</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="51">
+        <v>1</v>
+      </c>
+      <c r="F41" s="32">
+        <v>2.17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>430</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1:F41">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E650044-5144-4184-B1F9-43555C240495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F960C3C-67C3-492C-A72B-95E82004F3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,13 +37,13 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Strombudget_Foto" guid="{E35F6895-3697-4266-BC90-C5022F400E13}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Default" guid="{4300A442-0A40-4FB1-A9F3-2AB99D5A4993}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Strombudget" guid="{0C0F82AC-DC21-4B4A-94AC-E96E30BF52DE}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Schaltplan" guid="{3411E606-57DF-4B4E-942D-8A879EBC3FAD}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
+    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
+    <customWorkbookView name="Anforderungen_prompt" guid="{1253E34A-3A91-496E-8486-95C1D21A2085}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
     <customWorkbookView name="Stueckliste_ansicht_export" guid="{2376F375-2D91-4AB8-9819-CC132C3118EA}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Anforderungen_prompt" guid="{1253E34A-3A91-496E-8486-95C1D21A2085}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Bauteil hinzufügen" guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" maximized="1" xWindow="2552" yWindow="192" windowWidth="1936" windowHeight="1048" activeSheetId="5"/>
-    <customWorkbookView name="Schaltplan" guid="{3411E606-57DF-4B4E-942D-8A879EBC3FAD}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Strombudget" guid="{0C0F82AC-DC21-4B4A-94AC-E96E30BF52DE}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Default" guid="{4300A442-0A40-4FB1-A9F3-2AB99D5A4993}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
-    <customWorkbookView name="Strombudget_Foto" guid="{E35F6895-3697-4266-BC90-C5022F400E13}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1408" activeSheetId="5"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1978,6 +1978,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2001,9 +2004,6 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2401,8 +2401,8 @@
   <dimension ref="A1:AM105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO19" sqref="AO19"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2498,18 +2498,18 @@
       <c r="U1" t="s">
         <v>223</v>
       </c>
-      <c r="X1" s="59" t="s">
+      <c r="X1" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="Y1" s="60"/>
+      <c r="Y1" s="61"/>
       <c r="Z1" s="11">
         <f>SUMIFS(P44:P71,Q44:Q71, "Nicht Gekauft",R44:R71,"Benötigt")</f>
         <v>19.07</v>
       </c>
-      <c r="AB1" s="57" t="s">
+      <c r="AB1" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="AC1" s="58"/>
+      <c r="AC1" s="59"/>
       <c r="AD1" s="10">
         <f>SUM(P3:P71)</f>
         <v>367.67999999999984</v>
@@ -2547,7 +2547,7 @@
         <v>382</v>
       </c>
       <c r="M2" s="48" t="str">
-        <f>HYPERLINK(L2,J2)</f>
+        <f t="shared" ref="M2:M11" si="0">HYPERLINK(L2,J2)</f>
         <v>DigikKey</v>
       </c>
       <c r="N2" s="50">
@@ -2557,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="29">
-        <f t="shared" ref="P2:P6" si="0">N2*O2</f>
+        <f t="shared" ref="P2:P6" si="1">N2*O2</f>
         <v>33.369999999999997</v>
       </c>
       <c r="Q2" s="30"/>
@@ -2593,7 +2593,7 @@
         <v>165</v>
       </c>
       <c r="M3" s="48" t="str">
-        <f>HYPERLINK(L3,J3)</f>
+        <f t="shared" si="0"/>
         <v>DigiKey</v>
       </c>
       <c r="N3" s="50">
@@ -2603,13 +2603,13 @@
         <v>1</v>
       </c>
       <c r="P3" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="Q3" s="30"/>
       <c r="R3" s="31"/>
       <c r="U3">
-        <f t="shared" ref="U3:U28" si="1">SUBTOTAL(103, G3)</f>
+        <f t="shared" ref="U3:U28" si="2">SUBTOTAL(103, G3)</f>
         <v>1</v>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
         <v>167</v>
       </c>
       <c r="M4" s="48" t="str">
-        <f>HYPERLINK(L4,J4)</f>
+        <f t="shared" si="0"/>
         <v>DigiKey</v>
       </c>
       <c r="N4" s="50">
@@ -2653,13 +2653,13 @@
         <v>1</v>
       </c>
       <c r="P4" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="Q4" s="33"/>
       <c r="R4" s="25"/>
       <c r="U4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AG4" t="s">
@@ -2692,7 +2692,7 @@
         <v>202</v>
       </c>
       <c r="M5" s="48" t="str">
-        <f>HYPERLINK(L5,J5)</f>
+        <f t="shared" si="0"/>
         <v>DigiKey</v>
       </c>
       <c r="N5" s="50">
@@ -2702,13 +2702,13 @@
         <v>1</v>
       </c>
       <c r="P5" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.41</v>
       </c>
       <c r="Q5" s="33"/>
       <c r="R5" s="25"/>
       <c r="U5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF5" t="s">
@@ -2741,7 +2741,7 @@
         <v>204</v>
       </c>
       <c r="M6" s="48" t="str">
-        <f>HYPERLINK(L6,J6)</f>
+        <f t="shared" si="0"/>
         <v>DigiKey</v>
       </c>
       <c r="N6" s="50">
@@ -2751,13 +2751,13 @@
         <v>1</v>
       </c>
       <c r="P6" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
       <c r="Q6" s="30"/>
       <c r="R6" s="31"/>
       <c r="U6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF6" t="s">
@@ -2790,7 +2790,7 @@
         <v>20</v>
       </c>
       <c r="M7" s="48" t="str">
-        <f>HYPERLINK(L7,J7)</f>
+        <f t="shared" si="0"/>
         <v>Stepperonline</v>
       </c>
       <c r="N7" s="50">
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="29">
-        <f>N7*O7</f>
+        <f t="shared" ref="P7:P15" si="3">N7*O7</f>
         <v>9.91</v>
       </c>
       <c r="Q7" s="30" t="s">
@@ -2814,13 +2814,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <f>SUBTOTAL(103, G7)</f>
+        <f t="shared" ref="U7:U15" si="4">SUBTOTAL(103, G7)</f>
         <v>0</v>
       </c>
-      <c r="X7" s="63" t="s">
+      <c r="X7" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="Y7" s="64"/>
+      <c r="Y7" s="65"/>
       <c r="Z7" s="12">
         <f>SUBTOTAL(9,P1:P71)</f>
         <v>221.24999999999994</v>
@@ -2861,7 +2861,7 @@
         <v>27</v>
       </c>
       <c r="M8" s="48" t="str">
-        <f>HYPERLINK(L8,J8)</f>
+        <f t="shared" si="0"/>
         <v>AZ-Delivery</v>
       </c>
       <c r="N8" s="50">
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="32">
-        <f>N8*O8</f>
+        <f t="shared" si="3"/>
         <v>6.99</v>
       </c>
       <c r="Q8" s="33" t="s">
@@ -2881,7 +2881,7 @@
         <v>81</v>
       </c>
       <c r="U8">
-        <f>SUBTOTAL(103, G8)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X8" s="34"/>
@@ -2923,7 +2923,7 @@
         <v>91</v>
       </c>
       <c r="M9" s="48" t="str">
-        <f>HYPERLINK(L9,J9)</f>
+        <f t="shared" si="0"/>
         <v>3D-Jake</v>
       </c>
       <c r="N9" s="50">
@@ -2933,19 +2933,19 @@
         <v>1</v>
       </c>
       <c r="P9" s="29">
-        <f>N9*O9</f>
+        <f t="shared" si="3"/>
         <v>6.99</v>
       </c>
       <c r="Q9" s="30"/>
       <c r="R9" s="31"/>
       <c r="U9">
-        <f>SUBTOTAL(103, G9)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X9" s="61" t="s">
+      <c r="X9" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="Y9" s="62"/>
+      <c r="Y9" s="63"/>
       <c r="Z9" s="9">
         <f>SUBTOTAL(9,T1:T71)</f>
         <v>14.030000000000001</v>
@@ -2981,7 +2981,7 @@
         <v>32</v>
       </c>
       <c r="M10" s="48" t="str">
-        <f>HYPERLINK(L10,J10)</f>
+        <f t="shared" si="0"/>
         <v>AZ-Delivery</v>
       </c>
       <c r="N10" s="50">
@@ -2991,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="32">
-        <f>N10*O10</f>
+        <f t="shared" si="3"/>
         <v>6.99</v>
       </c>
       <c r="Q10" s="33" t="s">
@@ -3005,7 +3005,7 @@
         <v>6.99</v>
       </c>
       <c r="U10">
-        <f>SUBTOTAL(103, G10)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF10" t="s">
@@ -3044,7 +3044,7 @@
         <v>217</v>
       </c>
       <c r="M11" s="48" t="str">
-        <f>HYPERLINK(L11,J11)</f>
+        <f t="shared" si="0"/>
         <v>3D-Jake</v>
       </c>
       <c r="N11" s="50">
@@ -3054,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="P11" s="32">
-        <f>N11*O11</f>
+        <f t="shared" si="3"/>
         <v>39.99</v>
       </c>
       <c r="Q11" s="33" t="s">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="R11" s="25"/>
       <c r="U11">
-        <f>SUBTOTAL(103, G11)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF11" t="s">
@@ -3097,7 +3097,7 @@
         <v>77</v>
       </c>
       <c r="M12" s="48" t="str">
-        <f t="shared" ref="M12:M15" si="2">HYPERLINK(L12,J12)</f>
+        <f t="shared" ref="M12:M15" si="5">HYPERLINK(L12,J12)</f>
         <v>DigiKey</v>
       </c>
       <c r="N12" s="50">
@@ -3107,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="P12" s="29">
-        <f>N12*O12</f>
+        <f t="shared" si="3"/>
         <v>16.100000000000001</v>
       </c>
       <c r="Q12" s="30" t="s">
@@ -3121,7 +3121,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="U12">
-        <f>SUBTOTAL(103, G12)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
         <v>211</v>
       </c>
       <c r="M13" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Amazon</v>
       </c>
       <c r="N13" s="50">
@@ -3163,13 +3163,13 @@
         <v>1</v>
       </c>
       <c r="P13" s="32">
-        <f>N13*O13</f>
+        <f t="shared" si="3"/>
         <v>6.99</v>
       </c>
       <c r="Q13" s="33"/>
       <c r="R13" s="25"/>
       <c r="U13">
-        <f>SUBTOTAL(103, G13)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
         <v>377</v>
       </c>
       <c r="M14" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>AZ-Delivery</v>
       </c>
       <c r="N14" s="50">
@@ -3211,13 +3211,13 @@
         <v>1</v>
       </c>
       <c r="P14" s="29">
-        <f>N14*O14</f>
+        <f t="shared" si="3"/>
         <v>5.99</v>
       </c>
       <c r="Q14" s="30"/>
       <c r="R14" s="31"/>
       <c r="U14">
-        <f>SUBTOTAL(103, G14)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF14" t="s">
@@ -3252,7 +3252,7 @@
         <v>110</v>
       </c>
       <c r="M15" s="48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>DigiKey</v>
       </c>
       <c r="N15" s="50">
@@ -3262,13 +3262,13 @@
         <v>1</v>
       </c>
       <c r="P15" s="32">
-        <f>N15*O15</f>
+        <f t="shared" si="3"/>
         <v>3.39</v>
       </c>
       <c r="Q15" s="33"/>
       <c r="R15" s="25"/>
       <c r="U15">
-        <f>SUBTOTAL(103, G15)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3305,7 +3305,7 @@
         <v>73</v>
       </c>
       <c r="M16" s="48" t="str">
-        <f t="shared" ref="M16:M71" si="3">HYPERLINK(L16,J16)</f>
+        <f t="shared" ref="M16:M71" si="6">HYPERLINK(L16,J16)</f>
         <v>Amazon</v>
       </c>
       <c r="N16" s="50">
@@ -3315,7 +3315,7 @@
         <v>4</v>
       </c>
       <c r="P16" s="32">
-        <f t="shared" ref="P16:P71" si="4">N16*O16</f>
+        <f t="shared" ref="P16:P71" si="7">N16*O16</f>
         <v>34.119999999999997</v>
       </c>
       <c r="Q16" s="30" t="s">
@@ -3329,7 +3329,7 @@
         <v>34.119999999999997</v>
       </c>
       <c r="U16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3365,7 +3365,7 @@
         <v>92</v>
       </c>
       <c r="M17" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>DigiKey</v>
       </c>
       <c r="N17" s="50">
@@ -3375,7 +3375,7 @@
         <v>2</v>
       </c>
       <c r="P17" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>13.46</v>
       </c>
       <c r="Q17" s="33" t="s">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="R17" s="25"/>
       <c r="U17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF17" t="s">
@@ -3422,7 +3422,7 @@
         <v>96</v>
       </c>
       <c r="M18" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>DigiKey</v>
       </c>
       <c r="N18" s="50">
@@ -3432,7 +3432,7 @@
         <v>2</v>
       </c>
       <c r="P18" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14.8</v>
       </c>
       <c r="Q18" s="30" t="s">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="R18" s="31"/>
       <c r="U18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       <c r="D19" s="49" t="s">
         <v>388</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="57" t="s">
         <v>390</v>
       </c>
       <c r="F19" s="48"/>
@@ -3472,7 +3472,7 @@
         <v>387</v>
       </c>
       <c r="M19" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>DigiKey</v>
       </c>
       <c r="N19" s="50">
@@ -3482,7 +3482,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="Q19" s="30"/>
@@ -3679,7 +3679,7 @@
         <v>193</v>
       </c>
       <c r="M23" s="48" t="str">
-        <f t="shared" ref="M23:M34" si="5">HYPERLINK(L23,J23)</f>
+        <f t="shared" ref="M23:M34" si="8">HYPERLINK(L23,J23)</f>
         <v>DigiKey</v>
       </c>
       <c r="N23" s="50">
@@ -3689,13 +3689,13 @@
         <v>1</v>
       </c>
       <c r="P23" s="29">
-        <f t="shared" ref="P23:P24" si="6">N23*O23</f>
+        <f t="shared" ref="P23:P24" si="9">N23*O23</f>
         <v>5.79</v>
       </c>
       <c r="Q23" s="30"/>
       <c r="R23" s="31"/>
       <c r="U23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
         <v>196</v>
       </c>
       <c r="M24" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
       <c r="N24" s="50">
@@ -3737,13 +3737,13 @@
         <v>1</v>
       </c>
       <c r="P24" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.1399999999999997</v>
       </c>
       <c r="Q24" s="33"/>
       <c r="R24" s="25"/>
       <c r="U24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
         <v>230</v>
       </c>
       <c r="M25" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
       <c r="N25" s="50">
@@ -3789,13 +3789,13 @@
         <v>1</v>
       </c>
       <c r="P25" s="32">
-        <f t="shared" ref="P25:P26" si="7">N25*O25</f>
+        <f t="shared" ref="P25:P26" si="10">N25*O25</f>
         <v>2.34</v>
       </c>
       <c r="Q25" s="30"/>
       <c r="R25" s="31"/>
       <c r="U25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF25" t="s">
@@ -3836,7 +3836,7 @@
         <v>233</v>
       </c>
       <c r="M26" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
       <c r="N26" s="50">
@@ -3846,13 +3846,13 @@
         <v>1</v>
       </c>
       <c r="P26" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.17</v>
       </c>
       <c r="Q26" s="33"/>
       <c r="R26" s="25"/>
       <c r="U26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF26" t="s">
@@ -3891,7 +3891,7 @@
         <v>268</v>
       </c>
       <c r="M27" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
       <c r="N27" s="50">
@@ -3901,13 +3901,13 @@
         <v>1</v>
       </c>
       <c r="P27" s="29">
-        <f t="shared" ref="P27:P32" si="8">N27*O27</f>
+        <f t="shared" ref="P27:P32" si="11">N27*O27</f>
         <v>1.78</v>
       </c>
       <c r="Q27" s="30"/>
       <c r="R27" s="31"/>
       <c r="U27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF27" t="s">
@@ -3943,7 +3943,7 @@
         <v>272</v>
       </c>
       <c r="M28" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
       <c r="N28" s="50">
@@ -3953,13 +3953,13 @@
         <v>1</v>
       </c>
       <c r="P28" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.95</v>
       </c>
       <c r="Q28" s="30"/>
       <c r="R28" s="31"/>
       <c r="U28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF28" t="s">
@@ -3995,7 +3995,7 @@
         <v>179</v>
       </c>
       <c r="M29" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
       <c r="N29" s="50">
@@ -4005,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="P29" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.56</v>
       </c>
       <c r="Q29" s="33"/>
@@ -4044,7 +4044,7 @@
         <v>175</v>
       </c>
       <c r="M30" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
       <c r="N30" s="50">
@@ -4054,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="P30" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.47</v>
       </c>
       <c r="Q30" s="30"/>
@@ -4093,7 +4093,7 @@
         <v>158</v>
       </c>
       <c r="M31" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Digikey</v>
       </c>
       <c r="N31" s="50">
@@ -4103,7 +4103,7 @@
         <v>2</v>
       </c>
       <c r="P31" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.6</v>
       </c>
       <c r="Q31" s="33"/>
@@ -4144,7 +4144,7 @@
         <v>243</v>
       </c>
       <c r="M32" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
       <c r="N32" s="50">
@@ -4154,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="P32" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
       <c r="Q32" s="33"/>
@@ -4186,7 +4186,7 @@
         <v>184</v>
       </c>
       <c r="M33" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
       <c r="N33" s="50">
@@ -4196,7 +4196,7 @@
         <v>2</v>
       </c>
       <c r="P33" s="29">
-        <f t="shared" ref="P33:P34" si="9">N33*O33</f>
+        <f t="shared" ref="P33:P34" si="12">N33*O33</f>
         <v>5.82</v>
       </c>
       <c r="Q33" s="30"/>
@@ -4239,7 +4239,7 @@
         <v>170</v>
       </c>
       <c r="M34" s="48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>DigiKey</v>
       </c>
       <c r="N34" s="50">
@@ -4249,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="P34" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.6</v>
       </c>
       <c r="Q34" s="30"/>
@@ -4307,7 +4307,7 @@
       <c r="Q35" s="28"/>
       <c r="R35" s="28"/>
       <c r="U35">
-        <f t="shared" ref="U35:U36" si="10">SUBTOTAL(103, G35)</f>
+        <f t="shared" ref="U35:U36" si="13">SUBTOTAL(103, G35)</f>
         <v>0</v>
       </c>
       <c r="AF35" t="s">
@@ -4359,7 +4359,7 @@
       <c r="Q36" s="28"/>
       <c r="R36" s="28"/>
       <c r="U36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -4393,7 +4393,7 @@
         <v>128</v>
       </c>
       <c r="M37" s="48" t="str">
-        <f t="shared" ref="M37:M43" si="11">HYPERLINK(L37,J37)</f>
+        <f t="shared" ref="M37:M43" si="14">HYPERLINK(L37,J37)</f>
         <v>DigiKey</v>
       </c>
       <c r="N37" s="50">
@@ -4410,7 +4410,7 @@
       <c r="R37" s="25"/>
       <c r="S37" s="8"/>
       <c r="U37">
-        <f t="shared" ref="U37:U42" si="12">SUBTOTAL(103, G37)</f>
+        <f t="shared" ref="U37:U42" si="15">SUBTOTAL(103, G37)</f>
         <v>0</v>
       </c>
     </row>
@@ -4442,7 +4442,7 @@
         <v>139</v>
       </c>
       <c r="M38" s="48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>DigiKey</v>
       </c>
       <c r="N38" s="50">
@@ -4499,7 +4499,7 @@
         <v>131</v>
       </c>
       <c r="M39" s="48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>DigiKey</v>
       </c>
       <c r="N39" s="50">
@@ -4509,14 +4509,14 @@
         <v>1</v>
       </c>
       <c r="P39" s="32">
-        <f t="shared" ref="P39:P41" si="13">N39*O39</f>
+        <f t="shared" ref="P39:P41" si="16">N39*O39</f>
         <v>0.82</v>
       </c>
       <c r="Q39" s="33"/>
       <c r="R39" s="25"/>
       <c r="S39" s="8"/>
       <c r="U39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4548,7 +4548,7 @@
         <v>144</v>
       </c>
       <c r="M40" s="48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>DigiKey</v>
       </c>
       <c r="N40" s="50">
@@ -4558,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="P40" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.94</v>
       </c>
       <c r="Q40" s="30"/>
@@ -4606,7 +4606,7 @@
         <v>149</v>
       </c>
       <c r="M41" s="48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>DigiKey</v>
       </c>
       <c r="N41" s="50">
@@ -4616,14 +4616,14 @@
         <v>1</v>
       </c>
       <c r="P41" s="32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.33</v>
       </c>
       <c r="Q41" s="33"/>
       <c r="R41" s="25"/>
       <c r="S41" s="8"/>
       <c r="U41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
         <v>153</v>
       </c>
       <c r="M42" s="48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>DigiKey</v>
       </c>
       <c r="N42" s="50">
@@ -4671,7 +4671,7 @@
       <c r="Q42" s="30"/>
       <c r="R42" s="31"/>
       <c r="U42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
         <v>361</v>
       </c>
       <c r="M43" s="48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>DigiKey</v>
       </c>
       <c r="N43" s="50">
@@ -4756,7 +4756,7 @@
         <v>61</v>
       </c>
       <c r="M44" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>DigiKey</v>
       </c>
       <c r="N44" s="50">
@@ -4766,7 +4766,7 @@
         <v>3</v>
       </c>
       <c r="P44" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="Q44" s="33" t="s">
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <f t="shared" ref="U44:U52" si="14">SUBTOTAL(103, G44)</f>
+        <f t="shared" ref="U44:U52" si="17">SUBTOTAL(103, G44)</f>
         <v>0</v>
       </c>
     </row>
@@ -4814,7 +4814,7 @@
         <v>64</v>
       </c>
       <c r="M45" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>DigiKey</v>
       </c>
       <c r="N45" s="50">
@@ -4824,7 +4824,7 @@
         <v>9</v>
       </c>
       <c r="P45" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.7700000000000005</v>
       </c>
       <c r="Q45" s="30" t="s">
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4872,7 +4872,7 @@
         <v>67</v>
       </c>
       <c r="M46" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>DigiKey</v>
       </c>
       <c r="N46" s="50">
@@ -4882,7 +4882,7 @@
         <v>5</v>
       </c>
       <c r="P46" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.4499999999999997</v>
       </c>
       <c r="Q46" s="33" t="s">
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="U46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4930,7 +4930,7 @@
         <v>212</v>
       </c>
       <c r="M47" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Amazon</v>
       </c>
       <c r="N47" s="50">
@@ -4940,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="P47" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17.14</v>
       </c>
       <c r="Q47" s="30" t="s">
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="U47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
         <v>214</v>
       </c>
       <c r="M48" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Amazon</v>
       </c>
       <c r="N48" s="50">
@@ -4998,13 +4998,13 @@
         <v>1</v>
       </c>
       <c r="P48" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.0500000000000007</v>
       </c>
       <c r="Q48" s="33"/>
       <c r="R48" s="25"/>
       <c r="U48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5038,7 +5038,7 @@
         <v>213</v>
       </c>
       <c r="M49" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Amazon</v>
       </c>
       <c r="N49" s="50">
@@ -5048,7 +5048,7 @@
         <v>1</v>
       </c>
       <c r="P49" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.55</v>
       </c>
       <c r="Q49" s="30" t="s">
@@ -5063,7 +5063,7 @@
         <v>7.55</v>
       </c>
       <c r="U49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -5095,7 +5095,7 @@
         <v>111</v>
       </c>
       <c r="M50" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>DigiKey</v>
       </c>
       <c r="N50" s="50">
@@ -5105,14 +5105,14 @@
         <v>1</v>
       </c>
       <c r="P50" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.22</v>
       </c>
       <c r="Q50" s="33"/>
       <c r="R50" s="25"/>
       <c r="S50" s="8"/>
       <c r="U50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AF50" t="s">
@@ -5147,7 +5147,7 @@
         <v>121</v>
       </c>
       <c r="M51" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>DigiKey</v>
       </c>
       <c r="N51" s="50">
@@ -5157,14 +5157,14 @@
         <v>4</v>
       </c>
       <c r="P51" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.72</v>
       </c>
       <c r="Q51" s="30"/>
       <c r="R51" s="31"/>
       <c r="S51" s="8"/>
       <c r="U51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AF51" t="s">
@@ -5199,7 +5199,7 @@
         <v>122</v>
       </c>
       <c r="M52" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>DigiKey</v>
       </c>
       <c r="N52" s="50">
@@ -5209,14 +5209,14 @@
         <v>2</v>
       </c>
       <c r="P52" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="Q52" s="33"/>
       <c r="R52" s="25"/>
       <c r="S52" s="8"/>
       <c r="U52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AF52" t="s">
@@ -5253,7 +5253,7 @@
         <v>254</v>
       </c>
       <c r="M53" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>DigiKey</v>
       </c>
       <c r="N53" s="50">
@@ -5263,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="P53" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.78</v>
       </c>
       <c r="Q53" s="33"/>
@@ -5310,7 +5310,7 @@
         <v>1</v>
       </c>
       <c r="P54" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.73</v>
       </c>
       <c r="Q54" s="33"/>
@@ -5347,7 +5347,7 @@
         <v>256</v>
       </c>
       <c r="M55" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>DigiKey</v>
       </c>
       <c r="N55" s="50">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="O55" s="51"/>
       <c r="P55" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q55" s="33"/>
@@ -5392,7 +5392,7 @@
         <v>257</v>
       </c>
       <c r="M56" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>DigiKey</v>
       </c>
       <c r="N56" s="50">
@@ -5402,7 +5402,7 @@
         <v>1</v>
       </c>
       <c r="P56" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.21</v>
       </c>
       <c r="Q56" s="33"/>
@@ -5439,7 +5439,7 @@
         <v>258</v>
       </c>
       <c r="M57" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>DigiKey</v>
       </c>
       <c r="N57" s="50">
@@ -5449,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="P57" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
       <c r="Q57" s="33"/>
@@ -5486,7 +5486,7 @@
         <v>259</v>
       </c>
       <c r="M58" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>DigiKey</v>
       </c>
       <c r="N58" s="50">
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="P58" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
       <c r="Q58" s="33"/>
@@ -5535,7 +5535,7 @@
         <v>265</v>
       </c>
       <c r="M59" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>DigiKey</v>
       </c>
       <c r="N59" s="50">
@@ -5545,14 +5545,14 @@
         <v>1</v>
       </c>
       <c r="P59" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.24</v>
       </c>
       <c r="Q59" s="33"/>
       <c r="R59" s="25"/>
       <c r="S59" s="8"/>
       <c r="U59">
-        <f t="shared" ref="U59:U63" si="15">SUBTOTAL(103, G59)</f>
+        <f t="shared" ref="U59:U63" si="18">SUBTOTAL(103, G59)</f>
         <v>0</v>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
         <v>263</v>
       </c>
       <c r="M60" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>DigiKey</v>
       </c>
       <c r="N60" s="50">
@@ -5596,14 +5596,14 @@
         <v>3</v>
       </c>
       <c r="P60" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.96</v>
       </c>
       <c r="Q60" s="33"/>
       <c r="R60" s="25"/>
       <c r="S60" s="8"/>
       <c r="U60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -5637,7 +5637,7 @@
         <v>263</v>
       </c>
       <c r="M61" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>DigiKey</v>
       </c>
       <c r="N61" s="50">
@@ -5647,14 +5647,14 @@
         <v>2</v>
       </c>
       <c r="P61" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4</v>
       </c>
       <c r="Q61" s="33"/>
       <c r="R61" s="25"/>
       <c r="S61" s="8"/>
       <c r="U61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -5684,7 +5684,7 @@
         <v>36</v>
       </c>
       <c r="M62" s="48" t="str">
-        <f t="shared" ref="M62:M68" si="16">HYPERLINK(L62,J62)</f>
+        <f t="shared" ref="M62:M68" si="19">HYPERLINK(L62,J62)</f>
         <v>DigiKey</v>
       </c>
       <c r="N62" s="50">
@@ -5694,7 +5694,7 @@
         <v>8</v>
       </c>
       <c r="P62" s="32">
-        <f t="shared" ref="P62:P68" si="17">N62*O62</f>
+        <f t="shared" ref="P62:P67" si="20">N62*O62</f>
         <v>7.04</v>
       </c>
       <c r="Q62" s="33" t="s">
@@ -5709,7 +5709,7 @@
         <v>7.04</v>
       </c>
       <c r="U62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF62" t="s">
@@ -5745,7 +5745,7 @@
         <v>356</v>
       </c>
       <c r="M63" s="48" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>DigiKey</v>
       </c>
       <c r="N63" s="50">
@@ -5755,14 +5755,14 @@
         <v>4</v>
       </c>
       <c r="P63" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="Q63" s="33"/>
       <c r="R63" s="25"/>
       <c r="S63" s="6"/>
       <c r="U63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -5794,7 +5794,7 @@
         <v>40</v>
       </c>
       <c r="M64" s="48" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>DigiKey</v>
       </c>
       <c r="N64" s="50">
@@ -5804,7 +5804,7 @@
         <v>4</v>
       </c>
       <c r="P64" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.2799999999999998</v>
       </c>
       <c r="Q64" s="30" t="s">
@@ -5851,7 +5851,7 @@
         <v>43</v>
       </c>
       <c r="M65" s="48" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>DigiKey</v>
       </c>
       <c r="N65" s="50">
@@ -5861,7 +5861,7 @@
         <v>4</v>
       </c>
       <c r="P65" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="Q65" s="33" t="s">
@@ -5910,7 +5910,7 @@
         <v>274</v>
       </c>
       <c r="M66" s="48" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>DigiKey</v>
       </c>
       <c r="N66" s="50">
@@ -5920,14 +5920,14 @@
         <v>2</v>
       </c>
       <c r="P66" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5.2</v>
       </c>
       <c r="Q66" s="33"/>
       <c r="R66" s="25"/>
       <c r="S66" s="6"/>
       <c r="U66">
-        <f t="shared" ref="U66:U68" si="18">SUBTOTAL(103, G66)</f>
+        <f t="shared" ref="U66:U68" si="21">SUBTOTAL(103, G66)</f>
         <v>0</v>
       </c>
       <c r="AF66" t="s">
@@ -5967,7 +5967,7 @@
         <v>276</v>
       </c>
       <c r="M67" s="48" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>DigiKey</v>
       </c>
       <c r="N67" s="50">
@@ -5977,14 +5977,14 @@
         <v>1</v>
       </c>
       <c r="P67" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.53</v>
       </c>
       <c r="Q67" s="33"/>
       <c r="R67" s="25"/>
       <c r="S67" s="6"/>
       <c r="U67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AF67" t="s">
@@ -6024,7 +6024,7 @@
         <v>348</v>
       </c>
       <c r="M68" s="48" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>Mouser</v>
       </c>
       <c r="N68" s="50">
@@ -6041,7 +6041,7 @@
       <c r="R68" s="25"/>
       <c r="S68" s="6"/>
       <c r="U68">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AF68" t="s">
@@ -6079,7 +6079,7 @@
         <v>50</v>
       </c>
       <c r="M69" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Amazon</v>
       </c>
       <c r="N69" s="50">
@@ -6089,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="P69" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.66</v>
       </c>
       <c r="Q69" s="33" t="s">
@@ -6135,7 +6135,7 @@
         <v>210</v>
       </c>
       <c r="M70" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Amazon</v>
       </c>
       <c r="N70" s="50">
@@ -6145,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="P70" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.99</v>
       </c>
       <c r="Q70" s="30" t="s">
@@ -6191,7 +6191,7 @@
         <v>210</v>
       </c>
       <c r="M71" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Amazon</v>
       </c>
       <c r="N71" s="50">
@@ -6201,7 +6201,7 @@
         <v>1</v>
       </c>
       <c r="P71" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18.14</v>
       </c>
       <c r="Q71" s="33" t="s">
@@ -6460,108 +6460,12 @@
     </filterColumn>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{2376F375-2D91-4AB8-9819-CC132C3118EA}" filter="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P68" sqref="B1:P68"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R71" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BL"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
-            <filter val="Lk2"/>
-            <filter val="POW2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="ST_TEMP"/>
-            <filter val="ST3"/>
-            <filter val="SV2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{1253E34A-3A91-496E-8486-95C1D21A2085}" showAutoFilter="1" hiddenColumns="1" topLeftCell="B1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE10" sqref="AE10"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R76" xr:uid="{7E256883-3769-4722-82A9-5D03FDA1740C}"/>
-    </customSheetView>
-    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R59" xr:uid="{C448D155-4C6D-4265-A8BD-4B52118AED66}"/>
-    </customSheetView>
-    <customSheetView guid="{3411E606-57DF-4B4E-942D-8A879EBC3FAD}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R76" xr:uid="{7A2D0453-9AA5-453F-A4D5-E6C6A702F732}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BL"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
-            <filter val="Lk2"/>
-            <filter val="POW2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="ST_TEMP"/>
-            <filter val="ST3"/>
-            <filter val="SV2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{0C0F82AC-DC21-4B4A-94AC-E96E30BF52DE}" filter="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P79" sqref="P79"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-      <autoFilter ref="A1:R76" xr:uid="{DDFFDB25-097D-4B4C-95C6-1C8921FE262A}">
-        <filterColumn colId="0">
-          <filters blank="1">
-            <filter val="ACC3"/>
-            <filter val="BF4"/>
-            <filter val="BL"/>
-            <filter val="BP2"/>
-            <filter val="F2"/>
-            <filter val="Lk2"/>
-            <filter val="POW2"/>
-            <filter val="S1"/>
-            <filter val="SP2"/>
-            <filter val="ST_TEMP"/>
-            <filter val="ST3"/>
-            <filter val="SV2"/>
-            <filter val="TP2"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{4300A442-0A40-4FB1-A9F3-2AB99D5A4993}" showAutoFilter="1" topLeftCell="B1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
-      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-      <autoFilter ref="A1:R76" xr:uid="{9D24E325-D76E-480F-8644-7C22A41F4F8F}"/>
-    </customSheetView>
     <customSheetView guid="{E35F6895-3697-4266-BC90-C5022F400E13}" filter="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O83" sqref="B1:O83"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
-      <autoFilter ref="A1:R76" xr:uid="{3AA576F5-B598-4ECC-B3D6-C7907F3D5042}">
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A1:R76" xr:uid="{CB1EAF7E-02F6-4D5D-A76F-EFD137539F9A}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6586,6 +6490,102 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
+    <customSheetView guid="{4300A442-0A40-4FB1-A9F3-2AB99D5A4993}" showAutoFilter="1" topLeftCell="B1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A1:R76" xr:uid="{9A0E93AC-43CE-433C-A2DE-012A08E823D2}"/>
+    </customSheetView>
+    <customSheetView guid="{0C0F82AC-DC21-4B4A-94AC-E96E30BF52DE}" filter="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P79" sqref="P79"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A1:R76" xr:uid="{72645865-D38B-4F6F-A7D0-55DE811D6FB0}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BL"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="Lk2"/>
+            <filter val="POW2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="ST_TEMP"/>
+            <filter val="ST3"/>
+            <filter val="SV2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{3411E606-57DF-4B4E-942D-8A879EBC3FAD}" filter="1" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A1:R76" xr:uid="{2E3A0D1C-5AE9-4788-A882-A5901F38DA7D}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BL"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="Lk2"/>
+            <filter val="POW2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="ST_TEMP"/>
+            <filter val="ST3"/>
+            <filter val="SV2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{14407C96-79A3-4D80-86DC-7BE14F8182CE}" showAutoFilter="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+      <autoFilter ref="A1:R59" xr:uid="{1AC29075-00DC-42F3-B03E-0093CB69CEB7}"/>
+    </customSheetView>
+    <customSheetView guid="{1253E34A-3A91-496E-8486-95C1D21A2085}" showAutoFilter="1" hiddenColumns="1" topLeftCell="B1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE10" sqref="AE10"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+      <autoFilter ref="A1:R76" xr:uid="{3658F8ED-602E-4E83-AE47-F02C98024198}"/>
+    </customSheetView>
+    <customSheetView guid="{2376F375-2D91-4AB8-9819-CC132C3118EA}" filter="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P68" sqref="B1:P68"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+      <autoFilter ref="A1:R71" xr:uid="{1A5BA1EF-1420-4CBE-847F-720606E6B9EC}">
+        <filterColumn colId="0">
+          <filters blank="1">
+            <filter val="ACC3"/>
+            <filter val="BF4"/>
+            <filter val="BL"/>
+            <filter val="BP2"/>
+            <filter val="F2"/>
+            <filter val="Lk2"/>
+            <filter val="POW2"/>
+            <filter val="S1"/>
+            <filter val="SP2"/>
+            <filter val="ST_TEMP"/>
+            <filter val="ST3"/>
+            <filter val="SV2"/>
+            <filter val="TP2"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="4">
     <mergeCell ref="AB1:AC1"/>
@@ -6606,7 +6606,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q79:Q1048576 Q1:Q77">
+  <conditionalFormatting sqref="Q1:Q77 Q79:Q1048576">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Nicht Gekauft"</formula>
     </cfRule>

--- a/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
+++ b/2nd_mainboard_bom/elektronik_gespeicherte_Filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\2nd_mainboard_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F960C3C-67C3-492C-A72B-95E82004F3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341F2E70-C3C1-46FF-AF14-38DF4D5FABFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2402,7 +2402,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z36" sqref="Z36"/>
+      <selection pane="bottomLeft" activeCell="AI25" sqref="AI25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6465,7 +6465,7 @@
       <selection pane="bottomLeft" activeCell="O83" sqref="B1:O83"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:R76" xr:uid="{CB1EAF7E-02F6-4D5D-A76F-EFD137539F9A}">
+      <autoFilter ref="A1:R76" xr:uid="{3114BF07-23E2-4524-8606-01F5F3BB4E60}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6495,14 +6495,14 @@
       <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R76" xr:uid="{9A0E93AC-43CE-433C-A2DE-012A08E823D2}"/>
+      <autoFilter ref="A1:R76" xr:uid="{DAFBC8F6-BDD0-4E20-BDF2-9FC45711A5A7}"/>
     </customSheetView>
     <customSheetView guid="{0C0F82AC-DC21-4B4A-94AC-E96E30BF52DE}" filter="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P79" sqref="P79"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A1:R76" xr:uid="{72645865-D38B-4F6F-A7D0-55DE811D6FB0}">
+      <autoFilter ref="A1:R76" xr:uid="{20AE68FC-6621-47B4-BAA3-516505CDD435}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6527,7 +6527,7 @@
       <selection pane="bottomLeft" activeCell="X29" sqref="X29"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A1:R76" xr:uid="{2E3A0D1C-5AE9-4788-A882-A5901F38DA7D}">
+      <autoFilter ref="A1:R76" xr:uid="{96C9180D-D978-49DC-A2E3-B7F24EF3C2FC}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
@@ -6552,21 +6552,21 @@
       <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-      <autoFilter ref="A1:R59" xr:uid="{1AC29075-00DC-42F3-B03E-0093CB69CEB7}"/>
+      <autoFilter ref="A1:R59" xr:uid="{0573B8B4-DF71-49AC-9D33-1CACBE998FCA}"/>
     </customSheetView>
     <customSheetView guid="{1253E34A-3A91-496E-8486-95C1D21A2085}" showAutoFilter="1" hiddenColumns="1" topLeftCell="B1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AE10" sqref="AE10"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-      <autoFilter ref="A1:R76" xr:uid="{3658F8ED-602E-4E83-AE47-F02C98024198}"/>
+      <autoFilter ref="A1:R76" xr:uid="{C22459C7-1C41-4D59-997A-EE78C1EC479B}"/>
     </customSheetView>
     <customSheetView guid="{2376F375-2D91-4AB8-9819-CC132C3118EA}" filter="1" showAutoFilter="1" hiddenRows="1" hiddenColumns="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P68" sqref="B1:P68"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
-      <autoFilter ref="A1:R71" xr:uid="{1A5BA1EF-1420-4CBE-847F-720606E6B9EC}">
+      <autoFilter ref="A1:R71" xr:uid="{B20E23BA-EF5C-4BCE-A577-E4469C0454F1}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="ACC3"/>
